--- a/datasets/transactions.xlsx
+++ b/datasets/transactions.xlsx
@@ -430,7 +430,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M254"/>
+  <dimension ref="A1:M237"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -603,11 +603,7 @@
       <c r="L3" t="n">
         <v>0</v>
       </c>
-      <c r="M3" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="M3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -1396,11 +1392,7 @@
       <c r="L18" t="n">
         <v>0</v>
       </c>
-      <c r="M18" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="M18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
@@ -1712,11 +1704,7 @@
       <c r="L24" t="n">
         <v>0</v>
       </c>
-      <c r="M24" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="M24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
@@ -2108,16 +2096,8 @@
           <t>TOYOTA MOTOR SAL PAYROLL 568349-TMN</t>
         </is>
       </c>
-      <c r="G32" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="H32" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="G32" t="inlineStr"/>
+      <c r="H32" t="inlineStr"/>
       <c r="I32" t="n">
         <v>1743.83</v>
       </c>
@@ -2132,11 +2112,7 @@
       <c r="L32" t="n">
         <v>0</v>
       </c>
-      <c r="M32" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="M32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
@@ -2740,16 +2716,8 @@
           <t>VENMO PAYMENT 1022930215113</t>
         </is>
       </c>
-      <c r="G44" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="H44" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="G44" t="inlineStr"/>
+      <c r="H44" t="inlineStr"/>
       <c r="I44" t="n">
         <v>-57</v>
       </c>
@@ -2764,11 +2732,7 @@
       <c r="L44" t="n">
         <v>0</v>
       </c>
-      <c r="M44" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="M44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="inlineStr">
@@ -2791,11 +2755,7 @@
           <t>AUTOMATIC PAYMENT - THANK</t>
         </is>
       </c>
-      <c r="G45" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="G45" t="inlineStr"/>
       <c r="H45" t="inlineStr">
         <is>
           <t>Payment</t>
@@ -2815,11 +2775,7 @@
       <c r="L45" t="n">
         <v>0</v>
       </c>
-      <c r="M45" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="M45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="inlineStr">
@@ -2840,16 +2796,8 @@
           <t>VENMO PAYMENT 1022930212980</t>
         </is>
       </c>
-      <c r="G46" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="H46" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="G46" t="inlineStr"/>
+      <c r="H46" t="inlineStr"/>
       <c r="I46" t="n">
         <v>-79.5</v>
       </c>
@@ -2864,11 +2812,7 @@
       <c r="L46" t="n">
         <v>0</v>
       </c>
-      <c r="M46" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="M46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="inlineStr">
@@ -2995,16 +2939,8 @@
           <t>CHASE CREDIT CRD AUTOPAY 000000000279071</t>
         </is>
       </c>
-      <c r="G49" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="H49" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="G49" t="inlineStr"/>
+      <c r="H49" t="inlineStr"/>
       <c r="I49" t="n">
         <v>-973.08</v>
       </c>
@@ -3019,11 +2955,7 @@
       <c r="L49" t="n">
         <v>0</v>
       </c>
-      <c r="M49" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="M49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="inlineStr">
@@ -3044,16 +2976,8 @@
           <t>Barclays Bank De P2P Vega,William</t>
         </is>
       </c>
-      <c r="G50" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="H50" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="G50" t="inlineStr"/>
+      <c r="H50" t="inlineStr"/>
       <c r="I50" t="n">
         <v>372.14</v>
       </c>
@@ -3068,11 +2992,7 @@
       <c r="L50" t="n">
         <v>0</v>
       </c>
-      <c r="M50" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="M50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="inlineStr">
@@ -3093,16 +3013,8 @@
           <t>US TREASURY IRS PAYMENT 0350</t>
         </is>
       </c>
-      <c r="G51" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="H51" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="G51" t="inlineStr"/>
+      <c r="H51" t="inlineStr"/>
       <c r="I51" t="n">
         <v>-88.39</v>
       </c>
@@ -3117,11 +3029,7 @@
       <c r="L51" t="n">
         <v>0</v>
       </c>
-      <c r="M51" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="M51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="inlineStr">
@@ -3142,16 +3050,8 @@
           <t>Check</t>
         </is>
       </c>
-      <c r="G52" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="H52" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="G52" t="inlineStr"/>
+      <c r="H52" t="inlineStr"/>
       <c r="I52" t="n">
         <v>-168</v>
       </c>
@@ -3166,11 +3066,7 @@
       <c r="L52" t="n">
         <v>0</v>
       </c>
-      <c r="M52" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="M52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="inlineStr">
@@ -3652,7 +3548,7 @@
     <row r="62">
       <c r="A62" s="1" t="inlineStr">
         <is>
-          <t>7411e7f6-719c-4c95-9c78-ff51ec3c2bfc</t>
+          <t>c535bb37-ed68-4f7f-9348-ae2287e3043b</t>
         </is>
       </c>
       <c r="B62" s="2" t="n">
@@ -3669,12 +3565,12 @@
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>eBay O*27-09242-39145</t>
+          <t>SQ *COAVA COFFEE ROASTERS</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>Shopping</t>
+          <t>Food &amp; Drink</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
@@ -3683,14 +3579,14 @@
         </is>
       </c>
       <c r="I62" t="n">
-        <v>-26.95</v>
+        <v>-12</v>
       </c>
       <c r="J62" s="2" t="n">
         <v>44864</v>
       </c>
       <c r="K62" t="inlineStr">
         <is>
-          <t>Amazon</t>
+          <t>Sapphire</t>
         </is>
       </c>
       <c r="L62" t="n">
@@ -3698,14 +3594,14 @@
       </c>
       <c r="M62" t="inlineStr">
         <is>
-          <t>Haircut</t>
+          <t>Coffee</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="inlineStr">
         <is>
-          <t>e6e47167-b819-45ff-8e3d-8472f87282d4</t>
+          <t>7411e7f6-719c-4c95-9c78-ff51ec3c2bfc</t>
         </is>
       </c>
       <c r="B63" s="2" t="n">
@@ -3718,16 +3614,16 @@
         <v>44856</v>
       </c>
       <c r="E63" s="2" t="n">
-        <v>44858</v>
+        <v>44857</v>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>GOODWILL OF PORTLAND</t>
+          <t>eBay O*27-09242-39145</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>Gifts &amp; Donations</t>
+          <t>Shopping</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
@@ -3736,7 +3632,7 @@
         </is>
       </c>
       <c r="I63" t="n">
-        <v>-17.52</v>
+        <v>-26.95</v>
       </c>
       <c r="J63" s="2" t="n">
         <v>44864</v>
@@ -3751,14 +3647,14 @@
       </c>
       <c r="M63" t="inlineStr">
         <is>
-          <t>Clothes</t>
+          <t>Haircut</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="inlineStr">
         <is>
-          <t>c535bb37-ed68-4f7f-9348-ae2287e3043b</t>
+          <t>e6e47167-b819-45ff-8e3d-8472f87282d4</t>
         </is>
       </c>
       <c r="B64" s="2" t="n">
@@ -3771,16 +3667,16 @@
         <v>44856</v>
       </c>
       <c r="E64" s="2" t="n">
-        <v>44857</v>
+        <v>44858</v>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>SQ *COAVA COFFEE ROASTERS</t>
+          <t>GOODWILL OF PORTLAND</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>Food &amp; Drink</t>
+          <t>Gifts &amp; Donations</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
@@ -3789,14 +3685,14 @@
         </is>
       </c>
       <c r="I64" t="n">
-        <v>-12</v>
+        <v>-17.52</v>
       </c>
       <c r="J64" s="2" t="n">
         <v>44864</v>
       </c>
       <c r="K64" t="inlineStr">
         <is>
-          <t>Sapphire</t>
+          <t>Amazon</t>
         </is>
       </c>
       <c r="L64" t="n">
@@ -3804,7 +3700,7 @@
       </c>
       <c r="M64" t="inlineStr">
         <is>
-          <t>Coffee</t>
+          <t>Clothes</t>
         </is>
       </c>
     </row>
@@ -4304,16 +4200,8 @@
           <t>WELLS FARGO IFI DDA TO DDA F20GQJDBW4</t>
         </is>
       </c>
-      <c r="G74" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="H74" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="G74" t="inlineStr"/>
+      <c r="H74" t="inlineStr"/>
       <c r="I74" t="n">
         <v>-20</v>
       </c>
@@ -4328,11 +4216,7 @@
       <c r="L74" t="n">
         <v>0</v>
       </c>
-      <c r="M74" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="M74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="inlineStr">
@@ -4461,11 +4345,7 @@
           <t>AUTOMATIC PAYMENT - THANK</t>
         </is>
       </c>
-      <c r="G77" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="G77" t="inlineStr"/>
       <c r="H77" t="inlineStr">
         <is>
           <t>Payment</t>
@@ -4485,11 +4365,7 @@
       <c r="L77" t="n">
         <v>0</v>
       </c>
-      <c r="M77" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="M77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="inlineStr">
@@ -4510,16 +4386,8 @@
           <t>TOYOTA MOTOR SAL PAYROLL 568349-TMN</t>
         </is>
       </c>
-      <c r="G78" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="H78" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="G78" t="inlineStr"/>
+      <c r="H78" t="inlineStr"/>
       <c r="I78" t="n">
         <v>1642.9</v>
       </c>
@@ -4534,16 +4402,12 @@
       <c r="L78" t="n">
         <v>0</v>
       </c>
-      <c r="M78" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="M78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="inlineStr">
         <is>
-          <t>f00f1694-a9e8-4b93-bd91-e297e3d9482c</t>
+          <t>128838e8-20e6-48e4-a090-340fef3171cd</t>
         </is>
       </c>
       <c r="B79" s="2" t="n">
@@ -4556,16 +4420,16 @@
         <v>44863</v>
       </c>
       <c r="E79" s="2" t="n">
-        <v>44865</v>
+        <v>44864</v>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>TINYS COFFEE</t>
+          <t>CHEVRON 0381126</t>
         </is>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>Food &amp; Drink</t>
+          <t>Gas</t>
         </is>
       </c>
       <c r="H79" t="inlineStr">
@@ -4574,14 +4438,14 @@
         </is>
       </c>
       <c r="I79" t="n">
-        <v>-13</v>
+        <v>-49.86</v>
       </c>
       <c r="J79" s="2" t="n">
         <v>44868</v>
       </c>
       <c r="K79" t="inlineStr">
         <is>
-          <t>Sapphire</t>
+          <t>Amazon</t>
         </is>
       </c>
       <c r="L79" t="n">
@@ -4589,14 +4453,14 @@
       </c>
       <c r="M79" t="inlineStr">
         <is>
-          <t>Coffee</t>
+          <t>Gasoline</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="1" t="inlineStr">
         <is>
-          <t>ac492760-12d5-4326-9c4e-8f008450f45d</t>
+          <t>9e321f74-17c1-479c-bf83-c261f0d5a3bf</t>
         </is>
       </c>
       <c r="B80" s="2" t="n">
@@ -4613,12 +4477,12 @@
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>SQ *CLEARING CAFE</t>
+          <t>SP CRU &amp;amp; DOMAINE</t>
         </is>
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>Food &amp; Drink</t>
+          <t>Shopping</t>
         </is>
       </c>
       <c r="H80" t="inlineStr">
@@ -4627,7 +4491,7 @@
         </is>
       </c>
       <c r="I80" t="n">
-        <v>-6.5</v>
+        <v>-33</v>
       </c>
       <c r="J80" s="2" t="n">
         <v>44868</v>
@@ -4642,14 +4506,14 @@
       </c>
       <c r="M80" t="inlineStr">
         <is>
-          <t>Coffee</t>
+          <t>Entertainment</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="1" t="inlineStr">
         <is>
-          <t>9e321f74-17c1-479c-bf83-c261f0d5a3bf</t>
+          <t>ac492760-12d5-4326-9c4e-8f008450f45d</t>
         </is>
       </c>
       <c r="B81" s="2" t="n">
@@ -4666,12 +4530,12 @@
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>SP CRU &amp;amp; DOMAINE</t>
+          <t>SQ *CLEARING CAFE</t>
         </is>
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>Shopping</t>
+          <t>Food &amp; Drink</t>
         </is>
       </c>
       <c r="H81" t="inlineStr">
@@ -4680,7 +4544,7 @@
         </is>
       </c>
       <c r="I81" t="n">
-        <v>-33</v>
+        <v>-6.5</v>
       </c>
       <c r="J81" s="2" t="n">
         <v>44868</v>
@@ -4695,14 +4559,14 @@
       </c>
       <c r="M81" t="inlineStr">
         <is>
-          <t>Entertainment</t>
+          <t>Coffee</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="1" t="inlineStr">
         <is>
-          <t>128838e8-20e6-48e4-a090-340fef3171cd</t>
+          <t>f00f1694-a9e8-4b93-bd91-e297e3d9482c</t>
         </is>
       </c>
       <c r="B82" s="2" t="n">
@@ -4715,16 +4579,16 @@
         <v>44863</v>
       </c>
       <c r="E82" s="2" t="n">
-        <v>44864</v>
+        <v>44865</v>
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>CHEVRON 0381126</t>
+          <t>TINYS COFFEE</t>
         </is>
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>Gas</t>
+          <t>Food &amp; Drink</t>
         </is>
       </c>
       <c r="H82" t="inlineStr">
@@ -4733,14 +4597,14 @@
         </is>
       </c>
       <c r="I82" t="n">
-        <v>-49.86</v>
+        <v>-13</v>
       </c>
       <c r="J82" s="2" t="n">
         <v>44868</v>
       </c>
       <c r="K82" t="inlineStr">
         <is>
-          <t>Amazon</t>
+          <t>Sapphire</t>
         </is>
       </c>
       <c r="L82" t="n">
@@ -4748,7 +4612,7 @@
       </c>
       <c r="M82" t="inlineStr">
         <is>
-          <t>Gasoline</t>
+          <t>Coffee</t>
         </is>
       </c>
     </row>
@@ -5089,16 +4953,8 @@
           <t>CHASE CREDIT CRD AUTOPAY 000000000481963</t>
         </is>
       </c>
-      <c r="G89" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="H89" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="G89" t="inlineStr"/>
+      <c r="H89" t="inlineStr"/>
       <c r="I89" t="n">
         <v>-1413.56</v>
       </c>
@@ -5113,11 +4969,7 @@
       <c r="L89" t="n">
         <v>0</v>
       </c>
-      <c r="M89" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="M89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="inlineStr">
@@ -5175,7 +5027,7 @@
     <row r="91">
       <c r="A91" s="1" t="inlineStr">
         <is>
-          <t>eb72d679-f3da-4cc6-b86c-ab1d0b02fa90</t>
+          <t>bb294834-7105-400a-bda6-75d39e240779</t>
         </is>
       </c>
       <c r="B91" s="2" t="n">
@@ -5192,12 +5044,12 @@
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>NEW SEASONS MARKET</t>
+          <t>GOOGLE *CLOUD 6MBX5P</t>
         </is>
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>Groceries</t>
+          <t>Professional Services</t>
         </is>
       </c>
       <c r="H91" t="inlineStr">
@@ -5206,14 +5058,14 @@
         </is>
       </c>
       <c r="I91" t="n">
-        <v>-38.57</v>
+        <v>-0.12</v>
       </c>
       <c r="J91" s="2" t="n">
         <v>44869</v>
       </c>
       <c r="K91" t="inlineStr">
         <is>
-          <t>Sapphire</t>
+          <t>Amazon</t>
         </is>
       </c>
       <c r="L91" t="n">
@@ -5221,52 +5073,42 @@
       </c>
       <c r="M91" t="inlineStr">
         <is>
-          <t>Groceries</t>
+          <t>Services</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="1" t="inlineStr">
         <is>
-          <t>bb294834-7105-400a-bda6-75d39e240779</t>
+          <t>eb2973fe-bece-41ed-9b38-c418b98b9a8b</t>
         </is>
       </c>
       <c r="B92" s="2" t="n">
-        <v>44869</v>
+        <v>44878</v>
       </c>
       <c r="C92" s="2" t="n">
-        <v>44869</v>
+        <v>44878</v>
       </c>
       <c r="D92" s="2" t="n">
         <v>44866</v>
       </c>
-      <c r="E92" s="2" t="n">
-        <v>44867</v>
-      </c>
+      <c r="E92" t="inlineStr"/>
       <c r="F92" t="inlineStr">
         <is>
-          <t>GOOGLE *CLOUD 6MBX5P</t>
-        </is>
-      </c>
-      <c r="G92" t="inlineStr">
-        <is>
-          <t>Professional Services</t>
-        </is>
-      </c>
-      <c r="H92" t="inlineStr">
-        <is>
-          <t>Sale</t>
-        </is>
-      </c>
+          <t>APPLECARD GSBANK PAYMENT 2211736</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr"/>
+      <c r="H92" t="inlineStr"/>
       <c r="I92" t="n">
-        <v>-0.12</v>
+        <v>-6.11</v>
       </c>
       <c r="J92" s="2" t="n">
-        <v>44869</v>
+        <v>44878</v>
       </c>
       <c r="K92" t="inlineStr">
         <is>
-          <t>Amazon</t>
+          <t>Mechanics</t>
         </is>
       </c>
       <c r="L92" t="n">
@@ -5274,50 +5116,52 @@
       </c>
       <c r="M92" t="inlineStr">
         <is>
-          <t>Services</t>
+          <t>Eating Out</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="1" t="inlineStr">
         <is>
-          <t>eb2973fe-bece-41ed-9b38-c418b98b9a8b</t>
+          <t>eb72d679-f3da-4cc6-b86c-ab1d0b02fa90</t>
         </is>
       </c>
       <c r="B93" s="2" t="n">
-        <v>44878</v>
+        <v>44869</v>
       </c>
       <c r="C93" s="2" t="n">
-        <v>44878</v>
+        <v>44869</v>
       </c>
       <c r="D93" s="2" t="n">
         <v>44866</v>
       </c>
-      <c r="E93" t="inlineStr"/>
+      <c r="E93" s="2" t="n">
+        <v>44867</v>
+      </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>APPLECARD GSBANK PAYMENT 2211736</t>
+          <t>NEW SEASONS MARKET</t>
         </is>
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>Groceries</t>
         </is>
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>Sale</t>
         </is>
       </c>
       <c r="I93" t="n">
-        <v>-6.11</v>
+        <v>-38.57</v>
       </c>
       <c r="J93" s="2" t="n">
-        <v>44878</v>
+        <v>44869</v>
       </c>
       <c r="K93" t="inlineStr">
         <is>
-          <t>Mechanics</t>
+          <t>Sapphire</t>
         </is>
       </c>
       <c r="L93" t="n">
@@ -5325,7 +5169,7 @@
       </c>
       <c r="M93" t="inlineStr">
         <is>
-          <t>Eating Out</t>
+          <t>Groceries</t>
         </is>
       </c>
     </row>
@@ -5350,16 +5194,8 @@
           <t>KBC Management, WEB PMTS N403N6</t>
         </is>
       </c>
-      <c r="G94" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="H94" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="G94" t="inlineStr"/>
+      <c r="H94" t="inlineStr"/>
       <c r="I94" t="n">
         <v>-1630</v>
       </c>
@@ -5966,39 +5802,41 @@
     <row r="106">
       <c r="A106" s="1" t="inlineStr">
         <is>
-          <t>3a83907a-6908-42f8-8240-9030207e0c31</t>
+          <t>7edbf58c-eab9-48ce-a0fe-c2c34d37567b</t>
         </is>
       </c>
       <c r="B106" s="2" t="n">
-        <v>44889</v>
-      </c>
-      <c r="C106" t="inlineStr"/>
+        <v>44876</v>
+      </c>
+      <c r="C106" s="2" t="n">
+        <v>44876</v>
+      </c>
       <c r="D106" s="2" t="n">
         <v>44872</v>
       </c>
       <c r="E106" s="2" t="n">
-        <v>44878</v>
+        <v>44873</v>
       </c>
       <c r="F106" t="inlineStr">
         <is>
-          <t>Amazon Prime*H23F92OU2</t>
+          <t>SQ *ST. JOHNS BEER PORCH</t>
         </is>
       </c>
       <c r="G106" t="inlineStr">
         <is>
-          <t>Bills &amp; Utilities</t>
+          <t>Food &amp; Drink</t>
         </is>
       </c>
       <c r="H106" t="inlineStr">
         <is>
-          <t>Adjustment</t>
+          <t>Sale</t>
         </is>
       </c>
       <c r="I106" t="n">
-        <v>15.62</v>
+        <v>-7</v>
       </c>
       <c r="J106" s="2" t="n">
-        <v>44889</v>
+        <v>44876</v>
       </c>
       <c r="K106" t="inlineStr">
         <is>
@@ -6006,52 +5844,50 @@
         </is>
       </c>
       <c r="L106" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M106" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>Eating Out</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="1" t="inlineStr">
         <is>
-          <t>57efb0dc-71d0-434e-8ec1-ddf6a42e21a4</t>
+          <t>3a83907a-6908-42f8-8240-9030207e0c31</t>
         </is>
       </c>
       <c r="B107" s="2" t="n">
-        <v>44876</v>
-      </c>
-      <c r="C107" s="2" t="n">
-        <v>44876</v>
-      </c>
+        <v>44889</v>
+      </c>
+      <c r="C107" t="inlineStr"/>
       <c r="D107" s="2" t="n">
         <v>44872</v>
       </c>
       <c r="E107" s="2" t="n">
-        <v>44873</v>
+        <v>44878</v>
       </c>
       <c r="F107" t="inlineStr">
         <is>
-          <t>TST* The Fireside</t>
+          <t>Amazon Prime*H23F92OU2</t>
         </is>
       </c>
       <c r="G107" t="inlineStr">
         <is>
-          <t>Food &amp; Drink</t>
+          <t>Bills &amp; Utilities</t>
         </is>
       </c>
       <c r="H107" t="inlineStr">
         <is>
-          <t>Sale</t>
+          <t>Adjustment</t>
         </is>
       </c>
       <c r="I107" t="n">
-        <v>-54</v>
+        <v>15.62</v>
       </c>
       <c r="J107" s="2" t="n">
-        <v>44876</v>
+        <v>44889</v>
       </c>
       <c r="K107" t="inlineStr">
         <is>
@@ -6059,13 +5895,9 @@
         </is>
       </c>
       <c r="L107" t="n">
-        <v>1</v>
-      </c>
-      <c r="M107" t="inlineStr">
-        <is>
-          <t>Eating Out</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="M107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="inlineStr">
@@ -6123,7 +5955,7 @@
     <row r="109">
       <c r="A109" s="1" t="inlineStr">
         <is>
-          <t>7edbf58c-eab9-48ce-a0fe-c2c34d37567b</t>
+          <t>57efb0dc-71d0-434e-8ec1-ddf6a42e21a4</t>
         </is>
       </c>
       <c r="B109" s="2" t="n">
@@ -6140,7 +5972,7 @@
       </c>
       <c r="F109" t="inlineStr">
         <is>
-          <t>SQ *ST. JOHNS BEER PORCH</t>
+          <t>TST* The Fireside</t>
         </is>
       </c>
       <c r="G109" t="inlineStr">
@@ -6154,7 +5986,7 @@
         </is>
       </c>
       <c r="I109" t="n">
-        <v>-7</v>
+        <v>-54</v>
       </c>
       <c r="J109" s="2" t="n">
         <v>44876</v>
@@ -6300,16 +6132,8 @@
           <t>TOYOTA MOTOR SAL PAYROLL 568349-TMN</t>
         </is>
       </c>
-      <c r="G112" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="H112" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="G112" t="inlineStr"/>
+      <c r="H112" t="inlineStr"/>
       <c r="I112" t="n">
         <v>100</v>
       </c>
@@ -6351,16 +6175,8 @@
           <t>TOYOTA MOTOR SAL PAYROLL 568349-TMN</t>
         </is>
       </c>
-      <c r="G113" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="H113" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="G113" t="inlineStr"/>
+      <c r="H113" t="inlineStr"/>
       <c r="I113" t="n">
         <v>1642.91</v>
       </c>
@@ -6702,7 +6518,7 @@
     <row r="120">
       <c r="A120" s="1" t="inlineStr">
         <is>
-          <t>15e1126b-78d4-4dc1-8cd0-8e4195a5dc15</t>
+          <t>ce396274-1808-4009-993e-2b6b623e4644</t>
         </is>
       </c>
       <c r="B120" s="2" t="n">
@@ -6715,11 +6531,11 @@
         <v>44878</v>
       </c>
       <c r="E120" s="2" t="n">
-        <v>44879</v>
+        <v>44880</v>
       </c>
       <c r="F120" t="inlineStr">
         <is>
-          <t>SAINT HONORE BOULANGERIE</t>
+          <t>TST* The Fireside</t>
         </is>
       </c>
       <c r="G120" t="inlineStr">
@@ -6733,7 +6549,7 @@
         </is>
       </c>
       <c r="I120" t="n">
-        <v>-20.6</v>
+        <v>-30</v>
       </c>
       <c r="J120" s="2" t="n">
         <v>44889</v>
@@ -6748,14 +6564,14 @@
       </c>
       <c r="M120" t="inlineStr">
         <is>
-          <t>Coffee</t>
+          <t>Eating Out</t>
         </is>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="1" t="inlineStr">
         <is>
-          <t>d72f01d1-164e-4206-8e6f-6104ae088695</t>
+          <t>daa5611f-5ee3-4a97-9ef6-05d5f8395863</t>
         </is>
       </c>
       <c r="B121" s="2" t="n">
@@ -6772,12 +6588,12 @@
       </c>
       <c r="F121" t="inlineStr">
         <is>
-          <t>SQ *UPPER LEFT ROASTERS</t>
+          <t>TRADER JOE'S #146  QPS</t>
         </is>
       </c>
       <c r="G121" t="inlineStr">
         <is>
-          <t>Food &amp; Drink</t>
+          <t>Groceries</t>
         </is>
       </c>
       <c r="H121" t="inlineStr">
@@ -6786,7 +6602,7 @@
         </is>
       </c>
       <c r="I121" t="n">
-        <v>-6.5</v>
+        <v>-72.93000000000001</v>
       </c>
       <c r="J121" s="2" t="n">
         <v>44889</v>
@@ -6801,14 +6617,14 @@
       </c>
       <c r="M121" t="inlineStr">
         <is>
-          <t>Coffee</t>
+          <t>Groceries</t>
         </is>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="1" t="inlineStr">
         <is>
-          <t>d0054159-7035-45e0-a963-399e9575f4e0</t>
+          <t>15e1126b-78d4-4dc1-8cd0-8e4195a5dc15</t>
         </is>
       </c>
       <c r="B122" s="2" t="n">
@@ -6821,16 +6637,16 @@
         <v>44878</v>
       </c>
       <c r="E122" s="2" t="n">
-        <v>44880</v>
+        <v>44879</v>
       </c>
       <c r="F122" t="inlineStr">
         <is>
-          <t>SHELL OIL 57443148903</t>
+          <t>SAINT HONORE BOULANGERIE</t>
         </is>
       </c>
       <c r="G122" t="inlineStr">
         <is>
-          <t>Gas</t>
+          <t>Food &amp; Drink</t>
         </is>
       </c>
       <c r="H122" t="inlineStr">
@@ -6839,7 +6655,7 @@
         </is>
       </c>
       <c r="I122" t="n">
-        <v>-48.31</v>
+        <v>-20.6</v>
       </c>
       <c r="J122" s="2" t="n">
         <v>44889</v>
@@ -6854,14 +6670,14 @@
       </c>
       <c r="M122" t="inlineStr">
         <is>
-          <t>Gasoline</t>
+          <t>Coffee</t>
         </is>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="1" t="inlineStr">
         <is>
-          <t>ce396274-1808-4009-993e-2b6b623e4644</t>
+          <t>d72f01d1-164e-4206-8e6f-6104ae088695</t>
         </is>
       </c>
       <c r="B123" s="2" t="n">
@@ -6874,11 +6690,11 @@
         <v>44878</v>
       </c>
       <c r="E123" s="2" t="n">
-        <v>44880</v>
+        <v>44879</v>
       </c>
       <c r="F123" t="inlineStr">
         <is>
-          <t>TST* The Fireside</t>
+          <t>SQ *UPPER LEFT ROASTERS</t>
         </is>
       </c>
       <c r="G123" t="inlineStr">
@@ -6892,7 +6708,7 @@
         </is>
       </c>
       <c r="I123" t="n">
-        <v>-30</v>
+        <v>-6.5</v>
       </c>
       <c r="J123" s="2" t="n">
         <v>44889</v>
@@ -6907,14 +6723,14 @@
       </c>
       <c r="M123" t="inlineStr">
         <is>
-          <t>Eating Out</t>
+          <t>Coffee</t>
         </is>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="1" t="inlineStr">
         <is>
-          <t>daa5611f-5ee3-4a97-9ef6-05d5f8395863</t>
+          <t>d0054159-7035-45e0-a963-399e9575f4e0</t>
         </is>
       </c>
       <c r="B124" s="2" t="n">
@@ -6927,16 +6743,16 @@
         <v>44878</v>
       </c>
       <c r="E124" s="2" t="n">
-        <v>44879</v>
+        <v>44880</v>
       </c>
       <c r="F124" t="inlineStr">
         <is>
-          <t>TRADER JOE'S #146  QPS</t>
+          <t>SHELL OIL 57443148903</t>
         </is>
       </c>
       <c r="G124" t="inlineStr">
         <is>
-          <t>Groceries</t>
+          <t>Gas</t>
         </is>
       </c>
       <c r="H124" t="inlineStr">
@@ -6945,7 +6761,7 @@
         </is>
       </c>
       <c r="I124" t="n">
-        <v>-72.93000000000001</v>
+        <v>-48.31</v>
       </c>
       <c r="J124" s="2" t="n">
         <v>44889</v>
@@ -6960,7 +6776,7 @@
       </c>
       <c r="M124" t="inlineStr">
         <is>
-          <t>Groceries</t>
+          <t>Gasoline</t>
         </is>
       </c>
     </row>
@@ -7144,11 +6960,7 @@
           <t>AUTOMATIC PAYMENT - THANK</t>
         </is>
       </c>
-      <c r="G128" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="G128" t="inlineStr"/>
       <c r="H128" t="inlineStr">
         <is>
           <t>Payment</t>
@@ -7168,11 +6980,7 @@
       <c r="L128" t="n">
         <v>0</v>
       </c>
-      <c r="M128" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="M128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="inlineStr">
@@ -7405,16 +7213,8 @@
           <t>CHASE CREDIT CRD AUTOPAY 000000000283875</t>
         </is>
       </c>
-      <c r="G133" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="H133" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="G133" t="inlineStr"/>
+      <c r="H133" t="inlineStr"/>
       <c r="I133" t="n">
         <v>-783.77</v>
       </c>
@@ -7429,11 +7229,7 @@
       <c r="L133" t="n">
         <v>0</v>
       </c>
-      <c r="M133" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="M133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="inlineStr">
@@ -7544,7 +7340,7 @@
     <row r="136">
       <c r="A136" s="1" t="inlineStr">
         <is>
-          <t>dbfa5f62-c2e8-4aff-8589-ffc10c8c8069</t>
+          <t>d392e0da-512e-41b4-80ec-96812a2bb429</t>
         </is>
       </c>
       <c r="B136" s="2" t="n">
@@ -7561,7 +7357,7 @@
       </c>
       <c r="F136" t="inlineStr">
         <is>
-          <t>SQ *BARISTA</t>
+          <t>SQ *CLEARING CAFE</t>
         </is>
       </c>
       <c r="G136" t="inlineStr">
@@ -7575,7 +7371,7 @@
         </is>
       </c>
       <c r="I136" t="n">
-        <v>-7.75</v>
+        <v>-6.5</v>
       </c>
       <c r="J136" s="2" t="n">
         <v>44889</v>
@@ -7597,7 +7393,7 @@
     <row r="137">
       <c r="A137" s="1" t="inlineStr">
         <is>
-          <t>7a26e9d0-8fd0-4e63-91f4-58cf0c96e366</t>
+          <t>dbfa5f62-c2e8-4aff-8589-ffc10c8c8069</t>
         </is>
       </c>
       <c r="B137" s="2" t="n">
@@ -7614,12 +7410,12 @@
       </c>
       <c r="F137" t="inlineStr">
         <is>
-          <t>AMZN Mktp US*HI6WF2UR1</t>
+          <t>SQ *BARISTA</t>
         </is>
       </c>
       <c r="G137" t="inlineStr">
         <is>
-          <t>Shopping</t>
+          <t>Food &amp; Drink</t>
         </is>
       </c>
       <c r="H137" t="inlineStr">
@@ -7628,7 +7424,7 @@
         </is>
       </c>
       <c r="I137" t="n">
-        <v>-15.99</v>
+        <v>-7.75</v>
       </c>
       <c r="J137" s="2" t="n">
         <v>44889</v>
@@ -7643,14 +7439,14 @@
       </c>
       <c r="M137" t="inlineStr">
         <is>
-          <t>Laundry</t>
+          <t>Coffee</t>
         </is>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="1" t="inlineStr">
         <is>
-          <t>d392e0da-512e-41b4-80ec-96812a2bb429</t>
+          <t>7a26e9d0-8fd0-4e63-91f4-58cf0c96e366</t>
         </is>
       </c>
       <c r="B138" s="2" t="n">
@@ -7667,12 +7463,12 @@
       </c>
       <c r="F138" t="inlineStr">
         <is>
-          <t>SQ *CLEARING CAFE</t>
+          <t>AMZN Mktp US*HI6WF2UR1</t>
         </is>
       </c>
       <c r="G138" t="inlineStr">
         <is>
-          <t>Food &amp; Drink</t>
+          <t>Shopping</t>
         </is>
       </c>
       <c r="H138" t="inlineStr">
@@ -7681,7 +7477,7 @@
         </is>
       </c>
       <c r="I138" t="n">
-        <v>-6.5</v>
+        <v>-15.99</v>
       </c>
       <c r="J138" s="2" t="n">
         <v>44889</v>
@@ -7696,7 +7492,7 @@
       </c>
       <c r="M138" t="inlineStr">
         <is>
-          <t>Coffee</t>
+          <t>Laundry</t>
         </is>
       </c>
     </row>
@@ -7745,11 +7541,7 @@
       <c r="L139" t="n">
         <v>0</v>
       </c>
-      <c r="M139" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="M139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" s="1" t="inlineStr">
@@ -7876,16 +7668,8 @@
           <t>Deposit</t>
         </is>
       </c>
-      <c r="G142" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="H142" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="G142" t="inlineStr"/>
+      <c r="H142" t="inlineStr"/>
       <c r="I142" t="n">
         <v>14</v>
       </c>
@@ -7900,31 +7684,29 @@
       <c r="L142" t="n">
         <v>0</v>
       </c>
-      <c r="M142" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="M142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" s="1" t="inlineStr">
         <is>
-          <t>eaddfc87-3e47-459b-8bf1-2c43c8711683</t>
+          <t>27630cda-ecb2-44f2-b55a-b658abfce960</t>
         </is>
       </c>
       <c r="B143" s="2" t="n">
-        <v>44901</v>
-      </c>
-      <c r="C143" t="inlineStr"/>
+        <v>44894</v>
+      </c>
+      <c r="C143" s="2" t="n">
+        <v>44894</v>
+      </c>
       <c r="D143" s="2" t="n">
         <v>44889</v>
       </c>
       <c r="E143" s="2" t="n">
-        <v>44892</v>
+        <v>44890</v>
       </c>
       <c r="F143" t="inlineStr">
         <is>
-          <t>SAINT HONORE BOULANGERIE</t>
+          <t>SQ *BARISTA</t>
         </is>
       </c>
       <c r="G143" t="inlineStr">
@@ -7938,10 +7720,10 @@
         </is>
       </c>
       <c r="I143" t="n">
-        <v>-8.949999999999999</v>
+        <v>-12.65</v>
       </c>
       <c r="J143" s="2" t="n">
-        <v>44901</v>
+        <v>44894</v>
       </c>
       <c r="K143" t="inlineStr">
         <is>
@@ -7949,18 +7731,18 @@
         </is>
       </c>
       <c r="L143" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M143" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>Coffee</t>
         </is>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="1" t="inlineStr">
         <is>
-          <t>27630cda-ecb2-44f2-b55a-b658abfce960</t>
+          <t>201d0118-db8e-4448-b482-5711fccd5a2c</t>
         </is>
       </c>
       <c r="B144" s="2" t="n">
@@ -7973,11 +7755,11 @@
         <v>44889</v>
       </c>
       <c r="E144" s="2" t="n">
-        <v>44890</v>
+        <v>44892</v>
       </c>
       <c r="F144" t="inlineStr">
         <is>
-          <t>SQ *BARISTA</t>
+          <t>SAINT HONORE BOULANGERIE</t>
         </is>
       </c>
       <c r="G144" t="inlineStr">
@@ -7991,7 +7773,7 @@
         </is>
       </c>
       <c r="I144" t="n">
-        <v>-12.65</v>
+        <v>-8.949999999999999</v>
       </c>
       <c r="J144" s="2" t="n">
         <v>44894</v>
@@ -8013,7 +7795,7 @@
     <row r="145">
       <c r="A145" s="1" t="inlineStr">
         <is>
-          <t>201d0118-db8e-4448-b482-5711fccd5a2c</t>
+          <t>56b6ce68-d2b2-4da1-b6e0-43948444c1a8</t>
         </is>
       </c>
       <c r="B145" s="2" t="n">
@@ -8026,11 +7808,11 @@
         <v>44889</v>
       </c>
       <c r="E145" s="2" t="n">
-        <v>44892</v>
+        <v>44890</v>
       </c>
       <c r="F145" t="inlineStr">
         <is>
-          <t>SAINT HONORE BOULANGERIE</t>
+          <t>BING MI</t>
         </is>
       </c>
       <c r="G145" t="inlineStr">
@@ -8044,7 +7826,7 @@
         </is>
       </c>
       <c r="I145" t="n">
-        <v>-8.949999999999999</v>
+        <v>-16.8</v>
       </c>
       <c r="J145" s="2" t="n">
         <v>44894</v>
@@ -8059,14 +7841,14 @@
       </c>
       <c r="M145" t="inlineStr">
         <is>
-          <t>Coffee</t>
+          <t>Eating Out</t>
         </is>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="1" t="inlineStr">
         <is>
-          <t>56b6ce68-d2b2-4da1-b6e0-43948444c1a8</t>
+          <t>de16530f-dc09-4df3-a7f0-7bdc3d25558e</t>
         </is>
       </c>
       <c r="B146" s="2" t="n">
@@ -8076,14 +7858,14 @@
         <v>44894</v>
       </c>
       <c r="D146" s="2" t="n">
-        <v>44889</v>
+        <v>44890</v>
       </c>
       <c r="E146" s="2" t="n">
-        <v>44890</v>
+        <v>44892</v>
       </c>
       <c r="F146" t="inlineStr">
         <is>
-          <t>BING MI</t>
+          <t>SQ *NW 23RD PINE STATE BI</t>
         </is>
       </c>
       <c r="G146" t="inlineStr">
@@ -8097,7 +7879,7 @@
         </is>
       </c>
       <c r="I146" t="n">
-        <v>-16.8</v>
+        <v>-7.67</v>
       </c>
       <c r="J146" s="2" t="n">
         <v>44894</v>
@@ -8112,52 +7894,42 @@
       </c>
       <c r="M146" t="inlineStr">
         <is>
-          <t>Eating Out</t>
+          <t>Coffee</t>
         </is>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="1" t="inlineStr">
         <is>
-          <t>de16530f-dc09-4df3-a7f0-7bdc3d25558e</t>
+          <t>4bb122ec-d676-4ab4-81da-477b56e1dcf3</t>
         </is>
       </c>
       <c r="B147" s="2" t="n">
-        <v>44894</v>
+        <v>44898</v>
       </c>
       <c r="C147" s="2" t="n">
-        <v>44894</v>
+        <v>44898</v>
       </c>
       <c r="D147" s="2" t="n">
         <v>44890</v>
       </c>
-      <c r="E147" s="2" t="n">
-        <v>44892</v>
-      </c>
+      <c r="E147" t="inlineStr"/>
       <c r="F147" t="inlineStr">
         <is>
-          <t>SQ *NW 23RD PINE STATE BI</t>
-        </is>
-      </c>
-      <c r="G147" t="inlineStr">
-        <is>
-          <t>Food &amp; Drink</t>
-        </is>
-      </c>
-      <c r="H147" t="inlineStr">
-        <is>
-          <t>Sale</t>
-        </is>
-      </c>
+          <t>TOYOTA MOTOR SAL PAYROLL 568349-TMN</t>
+        </is>
+      </c>
+      <c r="G147" t="inlineStr"/>
+      <c r="H147" t="inlineStr"/>
       <c r="I147" t="n">
-        <v>-7.67</v>
+        <v>1927.04</v>
       </c>
       <c r="J147" s="2" t="n">
-        <v>44894</v>
+        <v>44898</v>
       </c>
       <c r="K147" t="inlineStr">
         <is>
-          <t>Sapphire</t>
+          <t>Mechanics</t>
         </is>
       </c>
       <c r="L147" t="n">
@@ -8165,14 +7937,14 @@
       </c>
       <c r="M147" t="inlineStr">
         <is>
-          <t>Coffee</t>
+          <t>Income</t>
         </is>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="1" t="inlineStr">
         <is>
-          <t>4bb122ec-d676-4ab4-81da-477b56e1dcf3</t>
+          <t>43fa97b3-fb3f-4ba6-a0f6-70f37be97008</t>
         </is>
       </c>
       <c r="B148" s="2" t="n">
@@ -8184,31 +7956,33 @@
       <c r="D148" s="2" t="n">
         <v>44890</v>
       </c>
-      <c r="E148" t="inlineStr"/>
+      <c r="E148" s="2" t="n">
+        <v>44892</v>
+      </c>
       <c r="F148" t="inlineStr">
         <is>
-          <t>TOYOTA MOTOR SAL PAYROLL 568349-TMN</t>
+          <t>SQ *NW 23RD PINE STATE BI</t>
         </is>
       </c>
       <c r="G148" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>Food &amp; Drink</t>
         </is>
       </c>
       <c r="H148" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>Sale</t>
         </is>
       </c>
       <c r="I148" t="n">
-        <v>1927.04</v>
+        <v>-7.67</v>
       </c>
       <c r="J148" s="2" t="n">
         <v>44898</v>
       </c>
       <c r="K148" t="inlineStr">
         <is>
-          <t>Mechanics</t>
+          <t>Sapphire</t>
         </is>
       </c>
       <c r="L148" t="n">
@@ -8216,31 +7990,31 @@
       </c>
       <c r="M148" t="inlineStr">
         <is>
-          <t>Income</t>
+          <t>Coffee</t>
         </is>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="1" t="inlineStr">
         <is>
-          <t>43fa97b3-fb3f-4ba6-a0f6-70f37be97008</t>
+          <t>8e2227e1-e151-4899-aa76-f90f871433a7</t>
         </is>
       </c>
       <c r="B149" s="2" t="n">
-        <v>44898</v>
+        <v>44894</v>
       </c>
       <c r="C149" s="2" t="n">
-        <v>44898</v>
+        <v>44894</v>
       </c>
       <c r="D149" s="2" t="n">
-        <v>44890</v>
+        <v>44891</v>
       </c>
       <c r="E149" s="2" t="n">
         <v>44892</v>
       </c>
       <c r="F149" t="inlineStr">
         <is>
-          <t>SQ *NW 23RD PINE STATE BI</t>
+          <t>SQ *BARISTA</t>
         </is>
       </c>
       <c r="G149" t="inlineStr">
@@ -8254,10 +8028,10 @@
         </is>
       </c>
       <c r="I149" t="n">
-        <v>-7.67</v>
+        <v>-12</v>
       </c>
       <c r="J149" s="2" t="n">
-        <v>44898</v>
+        <v>44894</v>
       </c>
       <c r="K149" t="inlineStr">
         <is>
@@ -8276,27 +8050,29 @@
     <row r="150">
       <c r="A150" s="1" t="inlineStr">
         <is>
-          <t>62a7a37c-d1b5-4b30-a8b9-ef18beecde0e</t>
+          <t>c5a3dbaa-0b5d-45ea-a9ac-98dfe6dbd79f</t>
         </is>
       </c>
       <c r="B150" s="2" t="n">
-        <v>44901</v>
-      </c>
-      <c r="C150" t="inlineStr"/>
+        <v>44898</v>
+      </c>
+      <c r="C150" s="2" t="n">
+        <v>44898</v>
+      </c>
       <c r="D150" s="2" t="n">
-        <v>44890</v>
+        <v>44891</v>
       </c>
       <c r="E150" s="2" t="n">
-        <v>44892</v>
+        <v>44893</v>
       </c>
       <c r="F150" t="inlineStr">
         <is>
-          <t>SQ *NW 23RD PINE STATE BI</t>
+          <t>BUDD + FINN</t>
         </is>
       </c>
       <c r="G150" t="inlineStr">
         <is>
-          <t>Food &amp; Drink</t>
+          <t>Home</t>
         </is>
       </c>
       <c r="H150" t="inlineStr">
@@ -8305,35 +8081,37 @@
         </is>
       </c>
       <c r="I150" t="n">
-        <v>-7.67</v>
+        <v>-20</v>
       </c>
       <c r="J150" s="2" t="n">
-        <v>44901</v>
+        <v>44898</v>
       </c>
       <c r="K150" t="inlineStr">
         <is>
-          <t>Sapphire</t>
+          <t>Amazon</t>
         </is>
       </c>
       <c r="L150" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M150" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>Gifts</t>
         </is>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="1" t="inlineStr">
         <is>
-          <t>5ffc5183-2e51-49c0-909c-50f97635aa7f</t>
+          <t>5c87296b-c023-4e06-b448-6a1b1bb58117</t>
         </is>
       </c>
       <c r="B151" s="2" t="n">
-        <v>44901</v>
-      </c>
-      <c r="C151" t="inlineStr"/>
+        <v>44898</v>
+      </c>
+      <c r="C151" s="2" t="n">
+        <v>44898</v>
+      </c>
       <c r="D151" s="2" t="n">
         <v>44891</v>
       </c>
@@ -8342,12 +8120,12 @@
       </c>
       <c r="F151" t="inlineStr">
         <is>
-          <t>BUDD + FINN</t>
+          <t>TAVERN &amp;amp; POOL</t>
         </is>
       </c>
       <c r="G151" t="inlineStr">
         <is>
-          <t>Home</t>
+          <t>Food &amp; Drink</t>
         </is>
       </c>
       <c r="H151" t="inlineStr">
@@ -8356,44 +8134,46 @@
         </is>
       </c>
       <c r="I151" t="n">
-        <v>-20</v>
+        <v>-31</v>
       </c>
       <c r="J151" s="2" t="n">
-        <v>44901</v>
+        <v>44898</v>
       </c>
       <c r="K151" t="inlineStr">
         <is>
-          <t>Amazon</t>
+          <t>Sapphire</t>
         </is>
       </c>
       <c r="L151" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M151" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>Eating Out</t>
         </is>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="1" t="inlineStr">
         <is>
-          <t>08060383-1165-4593-9d9d-60d3ad81a067</t>
+          <t>e3a456af-2cad-4d91-9928-3de00f70dad4</t>
         </is>
       </c>
       <c r="B152" s="2" t="n">
-        <v>44901</v>
-      </c>
-      <c r="C152" t="inlineStr"/>
+        <v>44898</v>
+      </c>
+      <c r="C152" s="2" t="n">
+        <v>44898</v>
+      </c>
       <c r="D152" s="2" t="n">
         <v>44891</v>
       </c>
       <c r="E152" s="2" t="n">
-        <v>44893</v>
+        <v>44892</v>
       </c>
       <c r="F152" t="inlineStr">
         <is>
-          <t>STEPPING STONE CAFE</t>
+          <t>SQ *BARISTA</t>
         </is>
       </c>
       <c r="G152" t="inlineStr">
@@ -8407,10 +8187,10 @@
         </is>
       </c>
       <c r="I152" t="n">
-        <v>-44.5</v>
+        <v>-12</v>
       </c>
       <c r="J152" s="2" t="n">
-        <v>44901</v>
+        <v>44898</v>
       </c>
       <c r="K152" t="inlineStr">
         <is>
@@ -8418,24 +8198,26 @@
         </is>
       </c>
       <c r="L152" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M152" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>Coffee</t>
         </is>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="1" t="inlineStr">
         <is>
-          <t>91f9b634-b9ce-4049-aedd-17f052a3175c</t>
+          <t>18420867-a772-43fc-b163-3200f2125bc7</t>
         </is>
       </c>
       <c r="B153" s="2" t="n">
-        <v>44901</v>
-      </c>
-      <c r="C153" t="inlineStr"/>
+        <v>44898</v>
+      </c>
+      <c r="C153" s="2" t="n">
+        <v>44898</v>
+      </c>
       <c r="D153" s="2" t="n">
         <v>44891</v>
       </c>
@@ -8444,7 +8226,7 @@
       </c>
       <c r="F153" t="inlineStr">
         <is>
-          <t>TAVERN &amp;amp; POOL</t>
+          <t>STEPPING STONE CAFE</t>
         </is>
       </c>
       <c r="G153" t="inlineStr">
@@ -8458,10 +8240,10 @@
         </is>
       </c>
       <c r="I153" t="n">
-        <v>-31</v>
+        <v>-44.5</v>
       </c>
       <c r="J153" s="2" t="n">
-        <v>44901</v>
+        <v>44898</v>
       </c>
       <c r="K153" t="inlineStr">
         <is>
@@ -8469,40 +8251,40 @@
         </is>
       </c>
       <c r="L153" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M153" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>Coffee</t>
         </is>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="1" t="inlineStr">
         <is>
-          <t>8e2227e1-e151-4899-aa76-f90f871433a7</t>
+          <t>566a54b5-f1f8-4503-860f-f1f7be56a948</t>
         </is>
       </c>
       <c r="B154" s="2" t="n">
-        <v>44894</v>
+        <v>44898</v>
       </c>
       <c r="C154" s="2" t="n">
-        <v>44894</v>
+        <v>44898</v>
       </c>
       <c r="D154" s="2" t="n">
-        <v>44891</v>
+        <v>44892</v>
       </c>
       <c r="E154" s="2" t="n">
-        <v>44892</v>
+        <v>44893</v>
       </c>
       <c r="F154" t="inlineStr">
         <is>
-          <t>SQ *BARISTA</t>
+          <t>76 - DIVISION STREET F</t>
         </is>
       </c>
       <c r="G154" t="inlineStr">
         <is>
-          <t>Food &amp; Drink</t>
+          <t>Gas</t>
         </is>
       </c>
       <c r="H154" t="inlineStr">
@@ -8511,14 +8293,14 @@
         </is>
       </c>
       <c r="I154" t="n">
-        <v>-12</v>
+        <v>-62.95</v>
       </c>
       <c r="J154" s="2" t="n">
-        <v>44894</v>
+        <v>44898</v>
       </c>
       <c r="K154" t="inlineStr">
         <is>
-          <t>Sapphire</t>
+          <t>Amazon</t>
         </is>
       </c>
       <c r="L154" t="n">
@@ -8526,29 +8308,31 @@
       </c>
       <c r="M154" t="inlineStr">
         <is>
-          <t>Coffee</t>
+          <t>Gasoline</t>
         </is>
       </c>
     </row>
     <row r="155">
       <c r="A155" s="1" t="inlineStr">
         <is>
-          <t>7ddd9885-2c56-4e71-8cc8-e556de8e49d1</t>
+          <t>6fa7a75e-21dc-4159-94a3-764480f9d213</t>
         </is>
       </c>
       <c r="B155" s="2" t="n">
-        <v>44901</v>
-      </c>
-      <c r="C155" t="inlineStr"/>
+        <v>44898</v>
+      </c>
+      <c r="C155" s="2" t="n">
+        <v>44898</v>
+      </c>
       <c r="D155" s="2" t="n">
-        <v>44891</v>
+        <v>44892</v>
       </c>
       <c r="E155" s="2" t="n">
-        <v>44892</v>
+        <v>44893</v>
       </c>
       <c r="F155" t="inlineStr">
         <is>
-          <t>SQ *BARISTA</t>
+          <t>SQ *FLYING CAT COFFEE CO</t>
         </is>
       </c>
       <c r="G155" t="inlineStr">
@@ -8562,10 +8346,10 @@
         </is>
       </c>
       <c r="I155" t="n">
-        <v>-12</v>
+        <v>-14.09</v>
       </c>
       <c r="J155" s="2" t="n">
-        <v>44901</v>
+        <v>44898</v>
       </c>
       <c r="K155" t="inlineStr">
         <is>
@@ -8573,18 +8357,18 @@
         </is>
       </c>
       <c r="L155" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M155" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>Coffee</t>
         </is>
       </c>
     </row>
     <row r="156">
       <c r="A156" s="1" t="inlineStr">
         <is>
-          <t>18420867-a772-43fc-b163-3200f2125bc7</t>
+          <t>15d339c8-7e74-4b82-a572-ec08aeb2912d</t>
         </is>
       </c>
       <c r="B156" s="2" t="n">
@@ -8594,14 +8378,14 @@
         <v>44898</v>
       </c>
       <c r="D156" s="2" t="n">
-        <v>44891</v>
+        <v>44892</v>
       </c>
       <c r="E156" s="2" t="n">
         <v>44893</v>
       </c>
       <c r="F156" t="inlineStr">
         <is>
-          <t>STEPPING STONE CAFE</t>
+          <t>SQ *ALBINA PRESS</t>
         </is>
       </c>
       <c r="G156" t="inlineStr">
@@ -8615,7 +8399,7 @@
         </is>
       </c>
       <c r="I156" t="n">
-        <v>-44.5</v>
+        <v>-9.75</v>
       </c>
       <c r="J156" s="2" t="n">
         <v>44898</v>
@@ -8637,7 +8421,7 @@
     <row r="157">
       <c r="A157" s="1" t="inlineStr">
         <is>
-          <t>5c87296b-c023-4e06-b448-6a1b1bb58117</t>
+          <t>0537ae35-360f-49e7-8e65-1b8950ca99be</t>
         </is>
       </c>
       <c r="B157" s="2" t="n">
@@ -8647,19 +8431,19 @@
         <v>44898</v>
       </c>
       <c r="D157" s="2" t="n">
-        <v>44891</v>
+        <v>44892</v>
       </c>
       <c r="E157" s="2" t="n">
         <v>44893</v>
       </c>
       <c r="F157" t="inlineStr">
         <is>
-          <t>TAVERN &amp;amp; POOL</t>
+          <t>TRADER JOE'S #146  QPS</t>
         </is>
       </c>
       <c r="G157" t="inlineStr">
         <is>
-          <t>Food &amp; Drink</t>
+          <t>Groceries</t>
         </is>
       </c>
       <c r="H157" t="inlineStr">
@@ -8668,7 +8452,7 @@
         </is>
       </c>
       <c r="I157" t="n">
-        <v>-31</v>
+        <v>-47.96</v>
       </c>
       <c r="J157" s="2" t="n">
         <v>44898</v>
@@ -8683,140 +8467,116 @@
       </c>
       <c r="M157" t="inlineStr">
         <is>
-          <t>Eating Out</t>
+          <t>Groceries</t>
         </is>
       </c>
     </row>
     <row r="158">
       <c r="A158" s="1" t="inlineStr">
         <is>
-          <t>e3a456af-2cad-4d91-9928-3de00f70dad4</t>
+          <t>5994a50c-7dd2-4782-988b-927e4b5488a8</t>
         </is>
       </c>
       <c r="B158" s="2" t="n">
-        <v>44898</v>
-      </c>
-      <c r="C158" s="2" t="n">
-        <v>44898</v>
-      </c>
+        <v>44901</v>
+      </c>
+      <c r="C158" t="inlineStr"/>
       <c r="D158" s="2" t="n">
-        <v>44891</v>
+        <v>44893</v>
       </c>
       <c r="E158" s="2" t="n">
-        <v>44892</v>
+        <v>44893</v>
       </c>
       <c r="F158" t="inlineStr">
         <is>
-          <t>SQ *BARISTA</t>
-        </is>
-      </c>
-      <c r="G158" t="inlineStr">
-        <is>
-          <t>Food &amp; Drink</t>
-        </is>
-      </c>
+          <t>AUTOMATIC PAYMENT - THANK</t>
+        </is>
+      </c>
+      <c r="G158" t="inlineStr"/>
       <c r="H158" t="inlineStr">
         <is>
-          <t>Sale</t>
+          <t>Payment</t>
         </is>
       </c>
       <c r="I158" t="n">
-        <v>-12</v>
+        <v>691.49</v>
       </c>
       <c r="J158" s="2" t="n">
-        <v>44898</v>
+        <v>44901</v>
       </c>
       <c r="K158" t="inlineStr">
         <is>
-          <t>Sapphire</t>
+          <t>Amazon</t>
         </is>
       </c>
       <c r="L158" t="n">
-        <v>1</v>
-      </c>
-      <c r="M158" t="inlineStr">
-        <is>
-          <t>Coffee</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="M158" t="inlineStr"/>
     </row>
     <row r="159">
       <c r="A159" s="1" t="inlineStr">
         <is>
-          <t>c5a3dbaa-0b5d-45ea-a9ac-98dfe6dbd79f</t>
+          <t>2691e3b1-ea04-4dd0-96e4-2d8f615b32e1</t>
         </is>
       </c>
       <c r="B159" s="2" t="n">
         <v>44898</v>
       </c>
-      <c r="C159" s="2" t="n">
-        <v>44898</v>
-      </c>
+      <c r="C159" t="inlineStr"/>
       <c r="D159" s="2" t="n">
-        <v>44891</v>
-      </c>
-      <c r="E159" s="2" t="n">
-        <v>44893</v>
-      </c>
+        <v>44894</v>
+      </c>
+      <c r="E159" t="inlineStr"/>
       <c r="F159" t="inlineStr">
         <is>
-          <t>BUDD + FINN</t>
-        </is>
-      </c>
-      <c r="G159" t="inlineStr">
-        <is>
-          <t>Home</t>
-        </is>
-      </c>
-      <c r="H159" t="inlineStr">
-        <is>
-          <t>Sale</t>
-        </is>
-      </c>
+          <t>CHASE CREDIT CRD AUTOPAY 000000000503311</t>
+        </is>
+      </c>
+      <c r="G159" t="inlineStr"/>
+      <c r="H159" t="inlineStr"/>
       <c r="I159" t="n">
-        <v>-20</v>
+        <v>-691.49</v>
       </c>
       <c r="J159" s="2" t="n">
         <v>44898</v>
       </c>
       <c r="K159" t="inlineStr">
         <is>
-          <t>Amazon</t>
+          <t>Mechanics</t>
         </is>
       </c>
       <c r="L159" t="n">
-        <v>1</v>
-      </c>
-      <c r="M159" t="inlineStr">
-        <is>
-          <t>Gifts</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="M159" t="inlineStr"/>
     </row>
     <row r="160">
       <c r="A160" s="1" t="inlineStr">
         <is>
-          <t>397eb91d-c1b4-434e-b53f-7fb8a4b44939</t>
+          <t>a36d39c9-58d5-46ad-bc68-22d907e5823a</t>
         </is>
       </c>
       <c r="B160" s="2" t="n">
         <v>44901</v>
       </c>
-      <c r="C160" t="inlineStr"/>
+      <c r="C160" s="2" t="n">
+        <v>44901</v>
+      </c>
       <c r="D160" s="2" t="n">
-        <v>44892</v>
+        <v>44896</v>
       </c>
       <c r="E160" s="2" t="n">
-        <v>44893</v>
+        <v>44897</v>
       </c>
       <c r="F160" t="inlineStr">
         <is>
-          <t>76 - DIVISION STREET F</t>
+          <t>Steam Purchase</t>
         </is>
       </c>
       <c r="G160" t="inlineStr">
         <is>
-          <t>Gas</t>
+          <t>Entertainment</t>
         </is>
       </c>
       <c r="H160" t="inlineStr">
@@ -8825,7 +8585,7 @@
         </is>
       </c>
       <c r="I160" t="n">
-        <v>-62.95</v>
+        <v>-20.99</v>
       </c>
       <c r="J160" s="2" t="n">
         <v>44901</v>
@@ -8836,135 +8596,121 @@
         </is>
       </c>
       <c r="L160" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M160" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>Entertainment</t>
         </is>
       </c>
     </row>
     <row r="161">
       <c r="A161" s="1" t="inlineStr">
         <is>
-          <t>412bfe51-1927-4941-947f-13641f214f71</t>
+          <t>0028cc30-2150-4e7d-b37a-8fafbe23d887</t>
         </is>
       </c>
       <c r="B161" s="2" t="n">
-        <v>44901</v>
-      </c>
-      <c r="C161" t="inlineStr"/>
+        <v>44926</v>
+      </c>
+      <c r="C161" s="2" t="n">
+        <v>44927</v>
+      </c>
       <c r="D161" s="2" t="n">
-        <v>44892</v>
-      </c>
-      <c r="E161" s="2" t="n">
-        <v>44893</v>
-      </c>
+        <v>44897</v>
+      </c>
+      <c r="E161" t="inlineStr"/>
       <c r="F161" t="inlineStr">
         <is>
-          <t>SQ *FLYING CAT COFFEE CO</t>
-        </is>
-      </c>
-      <c r="G161" t="inlineStr">
-        <is>
-          <t>Food &amp; Drink</t>
-        </is>
-      </c>
-      <c r="H161" t="inlineStr">
-        <is>
-          <t>Sale</t>
-        </is>
-      </c>
+          <t>KBC Management, WEB PMTS QDGVS6</t>
+        </is>
+      </c>
+      <c r="G161" t="inlineStr"/>
+      <c r="H161" t="inlineStr"/>
       <c r="I161" t="n">
-        <v>-14.09</v>
+        <v>-1630</v>
       </c>
       <c r="J161" s="2" t="n">
-        <v>44901</v>
+        <v>44926</v>
       </c>
       <c r="K161" t="inlineStr">
         <is>
-          <t>Sapphire</t>
+          <t>Mechanics</t>
         </is>
       </c>
       <c r="L161" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M161" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>Housing</t>
         </is>
       </c>
     </row>
     <row r="162">
       <c r="A162" s="1" t="inlineStr">
         <is>
-          <t>cd111b0b-c4de-48e1-a007-945d1f6aabb8</t>
+          <t>a7535804-e89d-4181-8fd7-5b340dd35b28</t>
         </is>
       </c>
       <c r="B162" s="2" t="n">
-        <v>44901</v>
-      </c>
-      <c r="C162" t="inlineStr"/>
+        <v>44926</v>
+      </c>
+      <c r="C162" s="2" t="n">
+        <v>44927</v>
+      </c>
       <c r="D162" s="2" t="n">
-        <v>44892</v>
-      </c>
-      <c r="E162" s="2" t="n">
-        <v>44893</v>
-      </c>
+        <v>44897</v>
+      </c>
+      <c r="E162" t="inlineStr"/>
       <c r="F162" t="inlineStr">
         <is>
-          <t>TRADER JOE'S #146  QPS</t>
-        </is>
-      </c>
-      <c r="G162" t="inlineStr">
-        <is>
-          <t>Groceries</t>
-        </is>
-      </c>
-      <c r="H162" t="inlineStr">
-        <is>
-          <t>Sale</t>
-        </is>
-      </c>
+          <t>TOYOTA MOTOR SAL PAYROLL 568349-TMN</t>
+        </is>
+      </c>
+      <c r="G162" t="inlineStr"/>
+      <c r="H162" t="inlineStr"/>
       <c r="I162" t="n">
-        <v>-47.96</v>
+        <v>266.62</v>
       </c>
       <c r="J162" s="2" t="n">
-        <v>44901</v>
+        <v>44926</v>
       </c>
       <c r="K162" t="inlineStr">
         <is>
-          <t>Sapphire</t>
+          <t>Mechanics</t>
         </is>
       </c>
       <c r="L162" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M162" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>Income</t>
         </is>
       </c>
     </row>
     <row r="163">
       <c r="A163" s="1" t="inlineStr">
         <is>
-          <t>f2cfb172-c685-44fc-8083-6c571e2987a4</t>
+          <t>ad60f8ea-9add-4862-bd7a-6cdd8b49d8da</t>
         </is>
       </c>
       <c r="B163" s="2" t="n">
         <v>44901</v>
       </c>
-      <c r="C163" t="inlineStr"/>
+      <c r="C163" s="2" t="n">
+        <v>44927</v>
+      </c>
       <c r="D163" s="2" t="n">
-        <v>44892</v>
+        <v>44898</v>
       </c>
       <c r="E163" s="2" t="n">
-        <v>44893</v>
+        <v>44899</v>
       </c>
       <c r="F163" t="inlineStr">
         <is>
-          <t>SQ *ALBINA PRESS</t>
+          <t>TST* Pizza Thief</t>
         </is>
       </c>
       <c r="G163" t="inlineStr">
@@ -8978,7 +8724,7 @@
         </is>
       </c>
       <c r="I163" t="n">
-        <v>-9.75</v>
+        <v>-6.75</v>
       </c>
       <c r="J163" s="2" t="n">
         <v>44901</v>
@@ -8989,35 +8735,35 @@
         </is>
       </c>
       <c r="L163" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M163" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>Eating Out</t>
         </is>
       </c>
     </row>
     <row r="164">
       <c r="A164" s="1" t="inlineStr">
         <is>
-          <t>15d339c8-7e74-4b82-a572-ec08aeb2912d</t>
+          <t>9b8a68b2-cecb-4c3e-a4ba-0a4a94eaee1f</t>
         </is>
       </c>
       <c r="B164" s="2" t="n">
+        <v>44926</v>
+      </c>
+      <c r="C164" s="2" t="n">
+        <v>44927</v>
+      </c>
+      <c r="D164" s="2" t="n">
         <v>44898</v>
       </c>
-      <c r="C164" s="2" t="n">
-        <v>44898</v>
-      </c>
-      <c r="D164" s="2" t="n">
-        <v>44892</v>
-      </c>
       <c r="E164" s="2" t="n">
-        <v>44893</v>
+        <v>44899</v>
       </c>
       <c r="F164" t="inlineStr">
         <is>
-          <t>SQ *ALBINA PRESS</t>
+          <t>SQ *BARISTA</t>
         </is>
       </c>
       <c r="G164" t="inlineStr">
@@ -9031,10 +8777,10 @@
         </is>
       </c>
       <c r="I164" t="n">
-        <v>-9.75</v>
+        <v>-12</v>
       </c>
       <c r="J164" s="2" t="n">
-        <v>44898</v>
+        <v>44926</v>
       </c>
       <c r="K164" t="inlineStr">
         <is>
@@ -9053,29 +8799,29 @@
     <row r="165">
       <c r="A165" s="1" t="inlineStr">
         <is>
-          <t>0537ae35-360f-49e7-8e65-1b8950ca99be</t>
+          <t>56bcc2d5-b661-4f58-bb1e-3d6456748876</t>
         </is>
       </c>
       <c r="B165" s="2" t="n">
+        <v>44926</v>
+      </c>
+      <c r="C165" s="2" t="n">
+        <v>44927</v>
+      </c>
+      <c r="D165" s="2" t="n">
         <v>44898</v>
       </c>
-      <c r="C165" s="2" t="n">
-        <v>44898</v>
-      </c>
-      <c r="D165" s="2" t="n">
-        <v>44892</v>
-      </c>
       <c r="E165" s="2" t="n">
-        <v>44893</v>
+        <v>44899</v>
       </c>
       <c r="F165" t="inlineStr">
         <is>
-          <t>TRADER JOE'S #146  QPS</t>
+          <t>TST* Pizza Thief</t>
         </is>
       </c>
       <c r="G165" t="inlineStr">
         <is>
-          <t>Groceries</t>
+          <t>Food &amp; Drink</t>
         </is>
       </c>
       <c r="H165" t="inlineStr">
@@ -9084,10 +8830,10 @@
         </is>
       </c>
       <c r="I165" t="n">
-        <v>-47.96</v>
+        <v>-40</v>
       </c>
       <c r="J165" s="2" t="n">
-        <v>44898</v>
+        <v>44926</v>
       </c>
       <c r="K165" t="inlineStr">
         <is>
@@ -9099,36 +8845,36 @@
       </c>
       <c r="M165" t="inlineStr">
         <is>
-          <t>Groceries</t>
+          <t>Eating Out</t>
         </is>
       </c>
     </row>
     <row r="166">
       <c r="A166" s="1" t="inlineStr">
         <is>
-          <t>566a54b5-f1f8-4503-860f-f1f7be56a948</t>
+          <t>e63fd163-56e3-499c-b675-89060ee35408</t>
         </is>
       </c>
       <c r="B166" s="2" t="n">
+        <v>44901</v>
+      </c>
+      <c r="C166" s="2" t="n">
+        <v>44927</v>
+      </c>
+      <c r="D166" s="2" t="n">
         <v>44898</v>
       </c>
-      <c r="C166" s="2" t="n">
-        <v>44898</v>
-      </c>
-      <c r="D166" s="2" t="n">
-        <v>44892</v>
-      </c>
       <c r="E166" s="2" t="n">
-        <v>44893</v>
+        <v>44899</v>
       </c>
       <c r="F166" t="inlineStr">
         <is>
-          <t>76 - DIVISION STREET F</t>
+          <t>1PASSWORD</t>
         </is>
       </c>
       <c r="G166" t="inlineStr">
         <is>
-          <t>Gas</t>
+          <t>Shopping</t>
         </is>
       </c>
       <c r="H166" t="inlineStr">
@@ -9137,10 +8883,10 @@
         </is>
       </c>
       <c r="I166" t="n">
-        <v>-62.95</v>
+        <v>-3.99</v>
       </c>
       <c r="J166" s="2" t="n">
-        <v>44898</v>
+        <v>44901</v>
       </c>
       <c r="K166" t="inlineStr">
         <is>
@@ -9152,36 +8898,36 @@
       </c>
       <c r="M166" t="inlineStr">
         <is>
-          <t>Gasoline</t>
+          <t>Services</t>
         </is>
       </c>
     </row>
     <row r="167">
       <c r="A167" s="1" t="inlineStr">
         <is>
-          <t>6fa7a75e-21dc-4159-94a3-764480f9d213</t>
+          <t>d8bbcf98-28f9-44ad-94e3-933a8035ec40</t>
         </is>
       </c>
       <c r="B167" s="2" t="n">
-        <v>44898</v>
+        <v>44926</v>
       </c>
       <c r="C167" s="2" t="n">
-        <v>44898</v>
+        <v>44927</v>
       </c>
       <c r="D167" s="2" t="n">
-        <v>44892</v>
+        <v>44899</v>
       </c>
       <c r="E167" s="2" t="n">
-        <v>44893</v>
+        <v>44900</v>
       </c>
       <c r="F167" t="inlineStr">
         <is>
-          <t>SQ *FLYING CAT COFFEE CO</t>
+          <t>TRADER JOE'S #146  QPS</t>
         </is>
       </c>
       <c r="G167" t="inlineStr">
         <is>
-          <t>Food &amp; Drink</t>
+          <t>Groceries</t>
         </is>
       </c>
       <c r="H167" t="inlineStr">
@@ -9190,10 +8936,10 @@
         </is>
       </c>
       <c r="I167" t="n">
-        <v>-14.09</v>
+        <v>-82.44</v>
       </c>
       <c r="J167" s="2" t="n">
-        <v>44898</v>
+        <v>44926</v>
       </c>
       <c r="K167" t="inlineStr">
         <is>
@@ -9205,94 +8951,98 @@
       </c>
       <c r="M167" t="inlineStr">
         <is>
-          <t>Coffee</t>
+          <t>Groceries</t>
         </is>
       </c>
     </row>
     <row r="168">
       <c r="A168" s="1" t="inlineStr">
         <is>
-          <t>5d6d0fce-5c96-4ff2-89a1-9997b1a2ffdd</t>
+          <t>a47d836f-c079-4680-82c9-ae06eacb7e2e</t>
         </is>
       </c>
       <c r="B168" s="2" t="n">
-        <v>44898</v>
-      </c>
-      <c r="C168" t="inlineStr"/>
+        <v>44926</v>
+      </c>
+      <c r="C168" s="2" t="n">
+        <v>44927</v>
+      </c>
       <c r="D168" s="2" t="n">
-        <v>44893</v>
+        <v>44899</v>
       </c>
       <c r="E168" s="2" t="n">
-        <v>44893</v>
+        <v>44900</v>
       </c>
       <c r="F168" t="inlineStr">
         <is>
-          <t>AUTOMATIC PAYMENT - THANK</t>
+          <t>SQ *COAVA COFFEE ROASTERS</t>
         </is>
       </c>
       <c r="G168" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>Food &amp; Drink</t>
         </is>
       </c>
       <c r="H168" t="inlineStr">
         <is>
-          <t>Payment</t>
+          <t>Sale</t>
         </is>
       </c>
       <c r="I168" t="n">
-        <v>691.49</v>
+        <v>-11.5</v>
       </c>
       <c r="J168" s="2" t="n">
-        <v>44898</v>
+        <v>44926</v>
       </c>
       <c r="K168" t="inlineStr">
         <is>
-          <t>Amazon</t>
+          <t>Sapphire</t>
         </is>
       </c>
       <c r="L168" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M168" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>Coffee</t>
         </is>
       </c>
     </row>
     <row r="169">
       <c r="A169" s="1" t="inlineStr">
         <is>
-          <t>5994a50c-7dd2-4782-988b-927e4b5488a8</t>
+          <t>f8e3e832-e431-4231-8405-5014b9042075</t>
         </is>
       </c>
       <c r="B169" s="2" t="n">
         <v>44901</v>
       </c>
-      <c r="C169" t="inlineStr"/>
+      <c r="C169" s="2" t="n">
+        <v>44927</v>
+      </c>
       <c r="D169" s="2" t="n">
-        <v>44893</v>
+        <v>44899</v>
       </c>
       <c r="E169" s="2" t="n">
-        <v>44893</v>
+        <v>44899</v>
       </c>
       <c r="F169" t="inlineStr">
         <is>
-          <t>AUTOMATIC PAYMENT - THANK</t>
+          <t>Microsoft*Subscription</t>
         </is>
       </c>
       <c r="G169" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>Shopping</t>
         </is>
       </c>
       <c r="H169" t="inlineStr">
         <is>
-          <t>Payment</t>
+          <t>Sale</t>
         </is>
       </c>
       <c r="I169" t="n">
-        <v>691.49</v>
+        <v>-1.99</v>
       </c>
       <c r="J169" s="2" t="n">
         <v>44901</v>
@@ -9303,89 +9053,93 @@
         </is>
       </c>
       <c r="L169" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M169" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>Services</t>
         </is>
       </c>
     </row>
     <row r="170">
       <c r="A170" s="1" t="inlineStr">
         <is>
-          <t>2691e3b1-ea04-4dd0-96e4-2d8f615b32e1</t>
+          <t>dacd5fee-bb43-422c-8302-d748566364d5</t>
         </is>
       </c>
       <c r="B170" s="2" t="n">
-        <v>44898</v>
-      </c>
-      <c r="C170" t="inlineStr"/>
+        <v>44926</v>
+      </c>
+      <c r="C170" s="2" t="n">
+        <v>44927</v>
+      </c>
       <c r="D170" s="2" t="n">
-        <v>44894</v>
-      </c>
-      <c r="E170" t="inlineStr"/>
+        <v>44899</v>
+      </c>
+      <c r="E170" s="2" t="n">
+        <v>44900</v>
+      </c>
       <c r="F170" t="inlineStr">
         <is>
-          <t>CHASE CREDIT CRD AUTOPAY 000000000503311</t>
+          <t>GOOGLE *CLOUD HWTQ28</t>
         </is>
       </c>
       <c r="G170" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>Professional Services</t>
         </is>
       </c>
       <c r="H170" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>Sale</t>
         </is>
       </c>
       <c r="I170" t="n">
-        <v>-691.49</v>
+        <v>-0.12</v>
       </c>
       <c r="J170" s="2" t="n">
-        <v>44898</v>
+        <v>44926</v>
       </c>
       <c r="K170" t="inlineStr">
         <is>
-          <t>Mechanics</t>
+          <t>Amazon</t>
         </is>
       </c>
       <c r="L170" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M170" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>Services</t>
         </is>
       </c>
     </row>
     <row r="171">
       <c r="A171" s="1" t="inlineStr">
         <is>
-          <t>a36d39c9-58d5-46ad-bc68-22d907e5823a</t>
+          <t>2ca9ada7-171f-4c7d-8177-d6665df1fb28</t>
         </is>
       </c>
       <c r="B171" s="2" t="n">
-        <v>44901</v>
+        <v>44926</v>
       </c>
       <c r="C171" s="2" t="n">
-        <v>44901</v>
+        <v>44927</v>
       </c>
       <c r="D171" s="2" t="n">
-        <v>44896</v>
+        <v>44899</v>
       </c>
       <c r="E171" s="2" t="n">
-        <v>44897</v>
+        <v>44900</v>
       </c>
       <c r="F171" t="inlineStr">
         <is>
-          <t>Steam Purchase</t>
+          <t>PEARL HARDWARE</t>
         </is>
       </c>
       <c r="G171" t="inlineStr">
         <is>
-          <t>Entertainment</t>
+          <t>Home</t>
         </is>
       </c>
       <c r="H171" t="inlineStr">
@@ -9394,10 +9148,10 @@
         </is>
       </c>
       <c r="I171" t="n">
-        <v>-20.99</v>
+        <v>-66.95999999999999</v>
       </c>
       <c r="J171" s="2" t="n">
-        <v>44901</v>
+        <v>44926</v>
       </c>
       <c r="K171" t="inlineStr">
         <is>
@@ -9409,132 +9163,142 @@
       </c>
       <c r="M171" t="inlineStr">
         <is>
-          <t>Entertainment</t>
+          <t>Home</t>
         </is>
       </c>
     </row>
     <row r="172">
       <c r="A172" s="1" t="inlineStr">
         <is>
-          <t>0028cc30-2150-4e7d-b37a-8fafbe23d887</t>
+          <t>79236bf2-4dc7-41f6-81b7-80c2eb529f2d</t>
         </is>
       </c>
       <c r="B172" s="2" t="n">
         <v>44926</v>
       </c>
-      <c r="C172" t="inlineStr"/>
+      <c r="C172" s="2" t="n">
+        <v>44927</v>
+      </c>
       <c r="D172" s="2" t="n">
-        <v>44897</v>
-      </c>
-      <c r="E172" t="inlineStr"/>
+        <v>44899</v>
+      </c>
+      <c r="E172" s="2" t="n">
+        <v>44900</v>
+      </c>
       <c r="F172" t="inlineStr">
         <is>
-          <t>KBC Management, WEB PMTS QDGVS6</t>
+          <t>SQ *COAVA COFFEE ROASTERS</t>
         </is>
       </c>
       <c r="G172" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>Food &amp; Drink</t>
         </is>
       </c>
       <c r="H172" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>Sale</t>
         </is>
       </c>
       <c r="I172" t="n">
-        <v>-1630</v>
+        <v>-4.5</v>
       </c>
       <c r="J172" s="2" t="n">
         <v>44926</v>
       </c>
       <c r="K172" t="inlineStr">
         <is>
-          <t>Mechanics</t>
+          <t>Sapphire</t>
         </is>
       </c>
       <c r="L172" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M172" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>Coffee</t>
         </is>
       </c>
     </row>
     <row r="173">
       <c r="A173" s="1" t="inlineStr">
         <is>
-          <t>a7535804-e89d-4181-8fd7-5b340dd35b28</t>
+          <t>5a065afe-8bd8-4671-bbb3-6d936ae6231f</t>
         </is>
       </c>
       <c r="B173" s="2" t="n">
         <v>44926</v>
       </c>
-      <c r="C173" t="inlineStr"/>
+      <c r="C173" s="2" t="n">
+        <v>44927</v>
+      </c>
       <c r="D173" s="2" t="n">
-        <v>44897</v>
-      </c>
-      <c r="E173" t="inlineStr"/>
+        <v>44900</v>
+      </c>
+      <c r="E173" s="2" t="n">
+        <v>44901</v>
+      </c>
       <c r="F173" t="inlineStr">
         <is>
-          <t>TOYOTA MOTOR SAL PAYROLL 568349-TMN</t>
+          <t>UA.COM*888-727-6687 MD</t>
         </is>
       </c>
       <c r="G173" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>Shopping</t>
         </is>
       </c>
       <c r="H173" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>Sale</t>
         </is>
       </c>
       <c r="I173" t="n">
-        <v>266.62</v>
+        <v>-59.69</v>
       </c>
       <c r="J173" s="2" t="n">
         <v>44926</v>
       </c>
       <c r="K173" t="inlineStr">
         <is>
-          <t>Mechanics</t>
+          <t>Amazon</t>
         </is>
       </c>
       <c r="L173" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M173" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>Gifts</t>
         </is>
       </c>
     </row>
     <row r="174">
       <c r="A174" s="1" t="inlineStr">
         <is>
-          <t>b4fb3171-5168-462e-bc0f-93251ce4f1e1</t>
+          <t>db9d5610-88b9-437f-aa54-170d36d179a2</t>
         </is>
       </c>
       <c r="B174" s="2" t="n">
-        <v>44901</v>
-      </c>
-      <c r="C174" t="inlineStr"/>
+        <v>44926</v>
+      </c>
+      <c r="C174" s="2" t="n">
+        <v>44927</v>
+      </c>
       <c r="D174" s="2" t="n">
-        <v>44898</v>
+        <v>44902</v>
       </c>
       <c r="E174" s="2" t="n">
-        <v>44899</v>
+        <v>44903</v>
       </c>
       <c r="F174" t="inlineStr">
         <is>
-          <t>SQ *BARISTA</t>
+          <t>7-ELEVEN 38495</t>
         </is>
       </c>
       <c r="G174" t="inlineStr">
         <is>
-          <t>Food &amp; Drink</t>
+          <t>Gas</t>
         </is>
       </c>
       <c r="H174" t="inlineStr">
@@ -9543,44 +9307,46 @@
         </is>
       </c>
       <c r="I174" t="n">
-        <v>-12</v>
+        <v>-19.99</v>
       </c>
       <c r="J174" s="2" t="n">
-        <v>44901</v>
+        <v>44926</v>
       </c>
       <c r="K174" t="inlineStr">
         <is>
-          <t>Sapphire</t>
+          <t>Amazon</t>
         </is>
       </c>
       <c r="L174" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M174" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>Gifts</t>
         </is>
       </c>
     </row>
     <row r="175">
       <c r="A175" s="1" t="inlineStr">
         <is>
-          <t>6efaca15-c869-4961-b679-039cf22b6702</t>
+          <t>179b2eb8-de00-4b51-bf77-98711e746c77</t>
         </is>
       </c>
       <c r="B175" s="2" t="n">
-        <v>44901</v>
-      </c>
-      <c r="C175" t="inlineStr"/>
+        <v>44926</v>
+      </c>
+      <c r="C175" s="2" t="n">
+        <v>44927</v>
+      </c>
       <c r="D175" s="2" t="n">
-        <v>44898</v>
+        <v>44903</v>
       </c>
       <c r="E175" s="2" t="n">
-        <v>44899</v>
+        <v>44904</v>
       </c>
       <c r="F175" t="inlineStr">
         <is>
-          <t>TST* Pizza Thief</t>
+          <t>SQ *HAMMER &amp;amp; STITCH BREWI</t>
         </is>
       </c>
       <c r="G175" t="inlineStr">
@@ -9594,10 +9360,10 @@
         </is>
       </c>
       <c r="I175" t="n">
-        <v>-40</v>
+        <v>-18</v>
       </c>
       <c r="J175" s="2" t="n">
-        <v>44901</v>
+        <v>44926</v>
       </c>
       <c r="K175" t="inlineStr">
         <is>
@@ -9605,38 +9371,40 @@
         </is>
       </c>
       <c r="L175" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M175" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>Eating Out</t>
         </is>
       </c>
     </row>
     <row r="176">
       <c r="A176" s="1" t="inlineStr">
         <is>
-          <t>b91ed451-c106-4183-b0a3-c24df13f1871</t>
+          <t>b89b600e-90e0-4a4e-a6b7-440289102f5b</t>
         </is>
       </c>
       <c r="B176" s="2" t="n">
         <v>44926</v>
       </c>
-      <c r="C176" t="inlineStr"/>
+      <c r="C176" s="2" t="n">
+        <v>44927</v>
+      </c>
       <c r="D176" s="2" t="n">
-        <v>44898</v>
+        <v>44903</v>
       </c>
       <c r="E176" s="2" t="n">
-        <v>44899</v>
+        <v>44904</v>
       </c>
       <c r="F176" t="inlineStr">
         <is>
-          <t>1PASSWORD</t>
+          <t>SQ *HAMMER &amp;amp; STITCH BREWI</t>
         </is>
       </c>
       <c r="G176" t="inlineStr">
         <is>
-          <t>Shopping</t>
+          <t>Food &amp; Drink</t>
         </is>
       </c>
       <c r="H176" t="inlineStr">
@@ -9645,100 +9413,94 @@
         </is>
       </c>
       <c r="I176" t="n">
-        <v>-3.99</v>
+        <v>-25.8</v>
       </c>
       <c r="J176" s="2" t="n">
         <v>44926</v>
       </c>
       <c r="K176" t="inlineStr">
         <is>
-          <t>Amazon</t>
+          <t>Sapphire</t>
         </is>
       </c>
       <c r="L176" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M176" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>Eating Out</t>
         </is>
       </c>
     </row>
     <row r="177">
       <c r="A177" s="1" t="inlineStr">
         <is>
-          <t>bee6c544-746b-4189-8413-e74b0fe2cf8d</t>
+          <t>5106c764-892f-40b9-a4fe-dec130714032</t>
         </is>
       </c>
       <c r="B177" s="2" t="n">
         <v>44926</v>
       </c>
-      <c r="C177" t="inlineStr"/>
+      <c r="C177" s="2" t="n">
+        <v>44927</v>
+      </c>
       <c r="D177" s="2" t="n">
-        <v>44898</v>
-      </c>
-      <c r="E177" s="2" t="n">
-        <v>44899</v>
-      </c>
+        <v>44904</v>
+      </c>
+      <c r="E177" t="inlineStr"/>
       <c r="F177" t="inlineStr">
         <is>
-          <t>TST* Pizza Thief</t>
-        </is>
-      </c>
-      <c r="G177" t="inlineStr">
-        <is>
-          <t>Food &amp; Drink</t>
-        </is>
-      </c>
-      <c r="H177" t="inlineStr">
-        <is>
-          <t>Sale</t>
-        </is>
-      </c>
+          <t>TOYOTA MOTOR SAL PAYROLL 568349-TMN</t>
+        </is>
+      </c>
+      <c r="G177" t="inlineStr"/>
+      <c r="H177" t="inlineStr"/>
       <c r="I177" t="n">
-        <v>-6.75</v>
+        <v>1895.88</v>
       </c>
       <c r="J177" s="2" t="n">
         <v>44926</v>
       </c>
       <c r="K177" t="inlineStr">
         <is>
-          <t>Sapphire</t>
+          <t>Mechanics</t>
         </is>
       </c>
       <c r="L177" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M177" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>Income</t>
         </is>
       </c>
     </row>
     <row r="178">
       <c r="A178" s="1" t="inlineStr">
         <is>
-          <t>56bcc2d5-b661-4f58-bb1e-3d6456748876</t>
+          <t>acfc7f73-bd68-4011-b192-503b80f22489</t>
         </is>
       </c>
       <c r="B178" s="2" t="n">
         <v>44926</v>
       </c>
-      <c r="C178" t="inlineStr"/>
+      <c r="C178" s="2" t="n">
+        <v>44927</v>
+      </c>
       <c r="D178" s="2" t="n">
-        <v>44898</v>
+        <v>44904</v>
       </c>
       <c r="E178" s="2" t="n">
-        <v>44899</v>
+        <v>44906</v>
       </c>
       <c r="F178" t="inlineStr">
         <is>
-          <t>TST* Pizza Thief</t>
+          <t>TODOIST</t>
         </is>
       </c>
       <c r="G178" t="inlineStr">
         <is>
-          <t>Food &amp; Drink</t>
+          <t>Shopping</t>
         </is>
       </c>
       <c r="H178" t="inlineStr">
@@ -9747,49 +9509,51 @@
         </is>
       </c>
       <c r="I178" t="n">
-        <v>-40</v>
+        <v>-29</v>
       </c>
       <c r="J178" s="2" t="n">
         <v>44926</v>
       </c>
       <c r="K178" t="inlineStr">
         <is>
-          <t>Sapphire</t>
+          <t>Amazon</t>
         </is>
       </c>
       <c r="L178" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M178" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>Services</t>
         </is>
       </c>
     </row>
     <row r="179">
       <c r="A179" s="1" t="inlineStr">
         <is>
-          <t>9b8a68b2-cecb-4c3e-a4ba-0a4a94eaee1f</t>
+          <t>fa841805-6a52-4265-ac77-f801137bc73f</t>
         </is>
       </c>
       <c r="B179" s="2" t="n">
         <v>44926</v>
       </c>
-      <c r="C179" t="inlineStr"/>
+      <c r="C179" s="2" t="n">
+        <v>44927</v>
+      </c>
       <c r="D179" s="2" t="n">
-        <v>44898</v>
+        <v>44904</v>
       </c>
       <c r="E179" s="2" t="n">
-        <v>44899</v>
+        <v>44906</v>
       </c>
       <c r="F179" t="inlineStr">
         <is>
-          <t>SQ *BARISTA</t>
+          <t>CITY OF PORTLAND DEPT</t>
         </is>
       </c>
       <c r="G179" t="inlineStr">
         <is>
-          <t>Food &amp; Drink</t>
+          <t>Travel</t>
         </is>
       </c>
       <c r="H179" t="inlineStr">
@@ -9798,49 +9562,51 @@
         </is>
       </c>
       <c r="I179" t="n">
-        <v>-12</v>
+        <v>-3</v>
       </c>
       <c r="J179" s="2" t="n">
         <v>44926</v>
       </c>
       <c r="K179" t="inlineStr">
         <is>
-          <t>Sapphire</t>
+          <t>Amazon</t>
         </is>
       </c>
       <c r="L179" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M179" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>Parking</t>
         </is>
       </c>
     </row>
     <row r="180">
       <c r="A180" s="1" t="inlineStr">
         <is>
-          <t>e63fd163-56e3-499c-b675-89060ee35408</t>
+          <t>dd1aa9b3-b861-4450-bbb5-0b81abce49b4</t>
         </is>
       </c>
       <c r="B180" s="2" t="n">
-        <v>44901</v>
-      </c>
-      <c r="C180" t="inlineStr"/>
+        <v>44926</v>
+      </c>
+      <c r="C180" s="2" t="n">
+        <v>44927</v>
+      </c>
       <c r="D180" s="2" t="n">
-        <v>44898</v>
+        <v>44904</v>
       </c>
       <c r="E180" s="2" t="n">
-        <v>44899</v>
+        <v>44904</v>
       </c>
       <c r="F180" t="inlineStr">
         <is>
-          <t>1PASSWORD</t>
+          <t>Spotify USA</t>
         </is>
       </c>
       <c r="G180" t="inlineStr">
         <is>
-          <t>Shopping</t>
+          <t>Bills &amp; Utilities</t>
         </is>
       </c>
       <c r="H180" t="inlineStr">
@@ -9849,10 +9615,10 @@
         </is>
       </c>
       <c r="I180" t="n">
-        <v>-3.99</v>
+        <v>-9.99</v>
       </c>
       <c r="J180" s="2" t="n">
-        <v>44901</v>
+        <v>44926</v>
       </c>
       <c r="K180" t="inlineStr">
         <is>
@@ -9860,40 +9626,40 @@
         </is>
       </c>
       <c r="L180" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M180" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>Services</t>
         </is>
       </c>
     </row>
     <row r="181">
       <c r="A181" s="1" t="inlineStr">
         <is>
-          <t>ad60f8ea-9add-4862-bd7a-6cdd8b49d8da</t>
+          <t>c722e44e-956d-4705-906a-06a996eb7468</t>
         </is>
       </c>
       <c r="B181" s="2" t="n">
-        <v>44901</v>
+        <v>44926</v>
       </c>
       <c r="C181" s="2" t="n">
-        <v>44901</v>
+        <v>44927</v>
       </c>
       <c r="D181" s="2" t="n">
-        <v>44898</v>
+        <v>44905</v>
       </c>
       <c r="E181" s="2" t="n">
-        <v>44899</v>
+        <v>44906</v>
       </c>
       <c r="F181" t="inlineStr">
         <is>
-          <t>TST* Pizza Thief</t>
+          <t>Amazon Prime*YP4734EX3</t>
         </is>
       </c>
       <c r="G181" t="inlineStr">
         <is>
-          <t>Food &amp; Drink</t>
+          <t>Bills &amp; Utilities</t>
         </is>
       </c>
       <c r="H181" t="inlineStr">
@@ -9902,14 +9668,14 @@
         </is>
       </c>
       <c r="I181" t="n">
-        <v>-6.75</v>
+        <v>-8.07</v>
       </c>
       <c r="J181" s="2" t="n">
-        <v>44901</v>
+        <v>44926</v>
       </c>
       <c r="K181" t="inlineStr">
         <is>
-          <t>Sapphire</t>
+          <t>Amazon</t>
         </is>
       </c>
       <c r="L181" t="n">
@@ -9917,34 +9683,36 @@
       </c>
       <c r="M181" t="inlineStr">
         <is>
-          <t>Eating Out</t>
+          <t>Services</t>
         </is>
       </c>
     </row>
     <row r="182">
       <c r="A182" s="1" t="inlineStr">
         <is>
-          <t>b21a6d17-c65b-48bc-8457-ee1c03edf1bf</t>
+          <t>bc05baa7-927a-41db-b477-291d125176b8</t>
         </is>
       </c>
       <c r="B182" s="2" t="n">
         <v>44926</v>
       </c>
-      <c r="C182" t="inlineStr"/>
+      <c r="C182" s="2" t="n">
+        <v>44927</v>
+      </c>
       <c r="D182" s="2" t="n">
-        <v>44899</v>
+        <v>44905</v>
       </c>
       <c r="E182" s="2" t="n">
-        <v>44899</v>
+        <v>44906</v>
       </c>
       <c r="F182" t="inlineStr">
         <is>
-          <t>Microsoft*Subscription</t>
+          <t>SQ *BARISTA</t>
         </is>
       </c>
       <c r="G182" t="inlineStr">
         <is>
-          <t>Shopping</t>
+          <t>Food &amp; Drink</t>
         </is>
       </c>
       <c r="H182" t="inlineStr">
@@ -9953,49 +9721,51 @@
         </is>
       </c>
       <c r="I182" t="n">
-        <v>-1.99</v>
+        <v>-12.65</v>
       </c>
       <c r="J182" s="2" t="n">
         <v>44926</v>
       </c>
       <c r="K182" t="inlineStr">
         <is>
-          <t>Amazon</t>
+          <t>Sapphire</t>
         </is>
       </c>
       <c r="L182" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M182" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>Coffee</t>
         </is>
       </c>
     </row>
     <row r="183">
       <c r="A183" s="1" t="inlineStr">
         <is>
-          <t>2ca9ada7-171f-4c7d-8177-d6665df1fb28</t>
+          <t>138735c0-40a2-4e7b-9b8a-2f72da29aed1</t>
         </is>
       </c>
       <c r="B183" s="2" t="n">
         <v>44926</v>
       </c>
-      <c r="C183" t="inlineStr"/>
+      <c r="C183" s="2" t="n">
+        <v>44927</v>
+      </c>
       <c r="D183" s="2" t="n">
-        <v>44899</v>
+        <v>44905</v>
       </c>
       <c r="E183" s="2" t="n">
-        <v>44900</v>
+        <v>44906</v>
       </c>
       <c r="F183" t="inlineStr">
         <is>
-          <t>PEARL HARDWARE</t>
+          <t>SQ *BARISTA</t>
         </is>
       </c>
       <c r="G183" t="inlineStr">
         <is>
-          <t>Home</t>
+          <t>Food &amp; Drink</t>
         </is>
       </c>
       <c r="H183" t="inlineStr">
@@ -10004,49 +9774,51 @@
         </is>
       </c>
       <c r="I183" t="n">
-        <v>-66.95999999999999</v>
+        <v>-3.5</v>
       </c>
       <c r="J183" s="2" t="n">
         <v>44926</v>
       </c>
       <c r="K183" t="inlineStr">
         <is>
-          <t>Amazon</t>
+          <t>Sapphire</t>
         </is>
       </c>
       <c r="L183" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M183" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>Coffee</t>
         </is>
       </c>
     </row>
     <row r="184">
       <c r="A184" s="1" t="inlineStr">
         <is>
-          <t>dacd5fee-bb43-422c-8302-d748566364d5</t>
+          <t>04971ac5-9718-4931-8a6f-081a8640b512</t>
         </is>
       </c>
       <c r="B184" s="2" t="n">
         <v>44926</v>
       </c>
-      <c r="C184" t="inlineStr"/>
+      <c r="C184" s="2" t="n">
+        <v>44927</v>
+      </c>
       <c r="D184" s="2" t="n">
-        <v>44899</v>
+        <v>44905</v>
       </c>
       <c r="E184" s="2" t="n">
-        <v>44900</v>
+        <v>44906</v>
       </c>
       <c r="F184" t="inlineStr">
         <is>
-          <t>GOOGLE *CLOUD HWTQ28</t>
+          <t>PORTLAND GENERAL ELECTRIC</t>
         </is>
       </c>
       <c r="G184" t="inlineStr">
         <is>
-          <t>Professional Services</t>
+          <t>Bills &amp; Utilities</t>
         </is>
       </c>
       <c r="H184" t="inlineStr">
@@ -10055,7 +9827,7 @@
         </is>
       </c>
       <c r="I184" t="n">
-        <v>-0.12</v>
+        <v>-5.58</v>
       </c>
       <c r="J184" s="2" t="n">
         <v>44926</v>
@@ -10066,38 +9838,40 @@
         </is>
       </c>
       <c r="L184" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M184" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>Utilities</t>
         </is>
       </c>
     </row>
     <row r="185">
       <c r="A185" s="1" t="inlineStr">
         <is>
-          <t>79236bf2-4dc7-41f6-81b7-80c2eb529f2d</t>
+          <t>e2470a16-1b2b-4604-bed4-850dc097428b</t>
         </is>
       </c>
       <c r="B185" s="2" t="n">
         <v>44926</v>
       </c>
-      <c r="C185" t="inlineStr"/>
+      <c r="C185" s="2" t="n">
+        <v>44927</v>
+      </c>
       <c r="D185" s="2" t="n">
-        <v>44899</v>
+        <v>44906</v>
       </c>
       <c r="E185" s="2" t="n">
-        <v>44900</v>
+        <v>44907</v>
       </c>
       <c r="F185" t="inlineStr">
         <is>
-          <t>SQ *COAVA COFFEE ROASTERS</t>
+          <t>76 - ST HELENS RD</t>
         </is>
       </c>
       <c r="G185" t="inlineStr">
         <is>
-          <t>Food &amp; Drink</t>
+          <t>Gas</t>
         </is>
       </c>
       <c r="H185" t="inlineStr">
@@ -10106,44 +9880,46 @@
         </is>
       </c>
       <c r="I185" t="n">
-        <v>-4.5</v>
+        <v>-55.88</v>
       </c>
       <c r="J185" s="2" t="n">
         <v>44926</v>
       </c>
       <c r="K185" t="inlineStr">
         <is>
-          <t>Sapphire</t>
+          <t>Amazon</t>
         </is>
       </c>
       <c r="L185" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M185" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>Gasoline</t>
         </is>
       </c>
     </row>
     <row r="186">
       <c r="A186" s="1" t="inlineStr">
         <is>
-          <t>a47d836f-c079-4680-82c9-ae06eacb7e2e</t>
+          <t>26a0187f-5e43-49c8-91f9-5be3ed64ba1c</t>
         </is>
       </c>
       <c r="B186" s="2" t="n">
         <v>44926</v>
       </c>
-      <c r="C186" t="inlineStr"/>
+      <c r="C186" s="2" t="n">
+        <v>44927</v>
+      </c>
       <c r="D186" s="2" t="n">
-        <v>44899</v>
+        <v>44906</v>
       </c>
       <c r="E186" s="2" t="n">
-        <v>44900</v>
+        <v>44907</v>
       </c>
       <c r="F186" t="inlineStr">
         <is>
-          <t>SQ *COAVA COFFEE ROASTERS</t>
+          <t>SQ *CLEARING CAFE</t>
         </is>
       </c>
       <c r="G186" t="inlineStr">
@@ -10157,7 +9933,7 @@
         </is>
       </c>
       <c r="I186" t="n">
-        <v>-11.5</v>
+        <v>-8</v>
       </c>
       <c r="J186" s="2" t="n">
         <v>44926</v>
@@ -10168,38 +9944,40 @@
         </is>
       </c>
       <c r="L186" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M186" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>Coffee</t>
         </is>
       </c>
     </row>
     <row r="187">
       <c r="A187" s="1" t="inlineStr">
         <is>
-          <t>d8bbcf98-28f9-44ad-94e3-933a8035ec40</t>
+          <t>cd83bfba-e0f1-4844-92ae-a3190ff15383</t>
         </is>
       </c>
       <c r="B187" s="2" t="n">
         <v>44926</v>
       </c>
-      <c r="C187" t="inlineStr"/>
+      <c r="C187" s="2" t="n">
+        <v>44927</v>
+      </c>
       <c r="D187" s="2" t="n">
-        <v>44899</v>
+        <v>44906</v>
       </c>
       <c r="E187" s="2" t="n">
-        <v>44900</v>
+        <v>44907</v>
       </c>
       <c r="F187" t="inlineStr">
         <is>
-          <t>TRADER JOE'S #146  QPS</t>
+          <t>SQ *CLEARING CAFE</t>
         </is>
       </c>
       <c r="G187" t="inlineStr">
         <is>
-          <t>Groceries</t>
+          <t>Food &amp; Drink</t>
         </is>
       </c>
       <c r="H187" t="inlineStr">
@@ -10208,7 +9986,7 @@
         </is>
       </c>
       <c r="I187" t="n">
-        <v>-82.44</v>
+        <v>-6.5</v>
       </c>
       <c r="J187" s="2" t="n">
         <v>44926</v>
@@ -10219,89 +9997,77 @@
         </is>
       </c>
       <c r="L187" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M187" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>Coffee</t>
         </is>
       </c>
     </row>
     <row r="188">
       <c r="A188" s="1" t="inlineStr">
         <is>
-          <t>f8e3e832-e431-4231-8405-5014b9042075</t>
+          <t>816435da-ff4a-411a-bbfa-9e1b301f3a45</t>
         </is>
       </c>
       <c r="B188" s="2" t="n">
-        <v>44901</v>
+        <v>44926</v>
       </c>
       <c r="C188" t="inlineStr"/>
       <c r="D188" s="2" t="n">
-        <v>44899</v>
-      </c>
-      <c r="E188" s="2" t="n">
-        <v>44899</v>
-      </c>
+        <v>44907</v>
+      </c>
+      <c r="E188" t="inlineStr"/>
       <c r="F188" t="inlineStr">
         <is>
-          <t>Microsoft*Subscription</t>
-        </is>
-      </c>
-      <c r="G188" t="inlineStr">
-        <is>
-          <t>Shopping</t>
-        </is>
-      </c>
-      <c r="H188" t="inlineStr">
-        <is>
-          <t>Sale</t>
-        </is>
-      </c>
+          <t>Mobile Deposit</t>
+        </is>
+      </c>
+      <c r="G188" t="inlineStr"/>
+      <c r="H188" t="inlineStr"/>
       <c r="I188" t="n">
-        <v>-1.99</v>
+        <v>162.64</v>
       </c>
       <c r="J188" s="2" t="n">
-        <v>44901</v>
+        <v>44926</v>
       </c>
       <c r="K188" t="inlineStr">
         <is>
-          <t>Amazon</t>
+          <t>Mechanics</t>
         </is>
       </c>
       <c r="L188" t="n">
         <v>0</v>
       </c>
-      <c r="M188" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="M188" t="inlineStr"/>
     </row>
     <row r="189">
       <c r="A189" s="1" t="inlineStr">
         <is>
-          <t>5a065afe-8bd8-4671-bbb3-6d936ae6231f</t>
+          <t>db304122-62cb-4ec6-82e3-e99892ee7908</t>
         </is>
       </c>
       <c r="B189" s="2" t="n">
         <v>44926</v>
       </c>
-      <c r="C189" t="inlineStr"/>
+      <c r="C189" s="2" t="n">
+        <v>44927</v>
+      </c>
       <c r="D189" s="2" t="n">
-        <v>44900</v>
+        <v>44907</v>
       </c>
       <c r="E189" s="2" t="n">
-        <v>44901</v>
+        <v>44907</v>
       </c>
       <c r="F189" t="inlineStr">
         <is>
-          <t>UA.COM*888-727-6687 MD</t>
+          <t>STEAMGAMES.COM 4259522985</t>
         </is>
       </c>
       <c r="G189" t="inlineStr">
         <is>
-          <t>Shopping</t>
+          <t>Entertainment</t>
         </is>
       </c>
       <c r="H189" t="inlineStr">
@@ -10310,7 +10076,7 @@
         </is>
       </c>
       <c r="I189" t="n">
-        <v>-59.69</v>
+        <v>-31.49</v>
       </c>
       <c r="J189" s="2" t="n">
         <v>44926</v>
@@ -10321,38 +10087,40 @@
         </is>
       </c>
       <c r="L189" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M189" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>Entertainment</t>
         </is>
       </c>
     </row>
     <row r="190">
       <c r="A190" s="1" t="inlineStr">
         <is>
-          <t>db9d5610-88b9-437f-aa54-170d36d179a2</t>
+          <t>12439868-af7c-4357-9b9f-814d37db1541</t>
         </is>
       </c>
       <c r="B190" s="2" t="n">
         <v>44926</v>
       </c>
-      <c r="C190" t="inlineStr"/>
+      <c r="C190" s="2" t="n">
+        <v>44927</v>
+      </c>
       <c r="D190" s="2" t="n">
-        <v>44902</v>
+        <v>44907</v>
       </c>
       <c r="E190" s="2" t="n">
-        <v>44903</v>
+        <v>44909</v>
       </c>
       <c r="F190" t="inlineStr">
         <is>
-          <t>7-ELEVEN 38495</t>
+          <t>STARBUCKS STORE 00428</t>
         </is>
       </c>
       <c r="G190" t="inlineStr">
         <is>
-          <t>Gas</t>
+          <t>Food &amp; Drink</t>
         </is>
       </c>
       <c r="H190" t="inlineStr">
@@ -10361,49 +10129,51 @@
         </is>
       </c>
       <c r="I190" t="n">
-        <v>-19.99</v>
+        <v>-4.25</v>
       </c>
       <c r="J190" s="2" t="n">
         <v>44926</v>
       </c>
       <c r="K190" t="inlineStr">
         <is>
-          <t>Amazon</t>
+          <t>Sapphire</t>
         </is>
       </c>
       <c r="L190" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M190" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>Coffee</t>
         </is>
       </c>
     </row>
     <row r="191">
       <c r="A191" s="1" t="inlineStr">
         <is>
-          <t>b89b600e-90e0-4a4e-a6b7-440289102f5b</t>
+          <t>e560e818-a96d-4be5-9f56-03446149fe53</t>
         </is>
       </c>
       <c r="B191" s="2" t="n">
         <v>44926</v>
       </c>
-      <c r="C191" t="inlineStr"/>
+      <c r="C191" s="2" t="n">
+        <v>44927</v>
+      </c>
       <c r="D191" s="2" t="n">
-        <v>44903</v>
+        <v>44907</v>
       </c>
       <c r="E191" s="2" t="n">
-        <v>44904</v>
+        <v>44908</v>
       </c>
       <c r="F191" t="inlineStr">
         <is>
-          <t>SQ *HAMMER &amp;amp; STITCH BREWI</t>
+          <t>TRADER JOE'S #146  QPS</t>
         </is>
       </c>
       <c r="G191" t="inlineStr">
         <is>
-          <t>Food &amp; Drink</t>
+          <t>Groceries</t>
         </is>
       </c>
       <c r="H191" t="inlineStr">
@@ -10412,7 +10182,7 @@
         </is>
       </c>
       <c r="I191" t="n">
-        <v>-25.8</v>
+        <v>-91.66</v>
       </c>
       <c r="J191" s="2" t="n">
         <v>44926</v>
@@ -10423,33 +10193,35 @@
         </is>
       </c>
       <c r="L191" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M191" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>Groceries</t>
         </is>
       </c>
     </row>
     <row r="192">
       <c r="A192" s="1" t="inlineStr">
         <is>
-          <t>179b2eb8-de00-4b51-bf77-98711e746c77</t>
+          <t>66e18421-db02-4aea-bb52-1bb5b0a08eda</t>
         </is>
       </c>
       <c r="B192" s="2" t="n">
         <v>44926</v>
       </c>
-      <c r="C192" t="inlineStr"/>
+      <c r="C192" s="2" t="n">
+        <v>44927</v>
+      </c>
       <c r="D192" s="2" t="n">
-        <v>44903</v>
+        <v>44909</v>
       </c>
       <c r="E192" s="2" t="n">
-        <v>44904</v>
+        <v>44911</v>
       </c>
       <c r="F192" t="inlineStr">
         <is>
-          <t>SQ *HAMMER &amp;amp; STITCH BREWI</t>
+          <t>STARBUCKS STORE 00428</t>
         </is>
       </c>
       <c r="G192" t="inlineStr">
@@ -10463,7 +10235,7 @@
         </is>
       </c>
       <c r="I192" t="n">
-        <v>-18</v>
+        <v>-4.25</v>
       </c>
       <c r="J192" s="2" t="n">
         <v>44926</v>
@@ -10474,87 +10246,93 @@
         </is>
       </c>
       <c r="L192" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M192" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>Coffee</t>
         </is>
       </c>
     </row>
     <row r="193">
       <c r="A193" s="1" t="inlineStr">
         <is>
-          <t>5106c764-892f-40b9-a4fe-dec130714032</t>
+          <t>0ed2a4d3-7f91-4e75-bbe1-8ba1d8bf3a39</t>
         </is>
       </c>
       <c r="B193" s="2" t="n">
         <v>44926</v>
       </c>
-      <c r="C193" t="inlineStr"/>
+      <c r="C193" s="2" t="n">
+        <v>44927</v>
+      </c>
       <c r="D193" s="2" t="n">
-        <v>44904</v>
-      </c>
-      <c r="E193" t="inlineStr"/>
+        <v>44909</v>
+      </c>
+      <c r="E193" s="2" t="n">
+        <v>44910</v>
+      </c>
       <c r="F193" t="inlineStr">
         <is>
-          <t>TOYOTA MOTOR SAL PAYROLL 568349-TMN</t>
+          <t>TST* Pizza Thief</t>
         </is>
       </c>
       <c r="G193" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>Food &amp; Drink</t>
         </is>
       </c>
       <c r="H193" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>Sale</t>
         </is>
       </c>
       <c r="I193" t="n">
-        <v>1895.88</v>
+        <v>-33</v>
       </c>
       <c r="J193" s="2" t="n">
         <v>44926</v>
       </c>
       <c r="K193" t="inlineStr">
         <is>
-          <t>Mechanics</t>
+          <t>Sapphire</t>
         </is>
       </c>
       <c r="L193" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M193" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>Eating Out</t>
         </is>
       </c>
     </row>
     <row r="194">
       <c r="A194" s="1" t="inlineStr">
         <is>
-          <t>acfc7f73-bd68-4011-b192-503b80f22489</t>
+          <t>cfee9644-01ec-4f3d-b1f4-c6b0a19eb3e6</t>
         </is>
       </c>
       <c r="B194" s="2" t="n">
         <v>44926</v>
       </c>
-      <c r="C194" t="inlineStr"/>
+      <c r="C194" s="2" t="n">
+        <v>44927</v>
+      </c>
       <c r="D194" s="2" t="n">
-        <v>44904</v>
+        <v>44909</v>
       </c>
       <c r="E194" s="2" t="n">
-        <v>44906</v>
+        <v>44910</v>
       </c>
       <c r="F194" t="inlineStr">
         <is>
-          <t>TODOIST</t>
+          <t>TST* Pizza Thief</t>
         </is>
       </c>
       <c r="G194" t="inlineStr">
         <is>
-          <t>Shopping</t>
+          <t>Food &amp; Drink</t>
         </is>
       </c>
       <c r="H194" t="inlineStr">
@@ -10563,49 +10341,51 @@
         </is>
       </c>
       <c r="I194" t="n">
-        <v>-29</v>
+        <v>-6.75</v>
       </c>
       <c r="J194" s="2" t="n">
         <v>44926</v>
       </c>
       <c r="K194" t="inlineStr">
         <is>
-          <t>Amazon</t>
+          <t>Sapphire</t>
         </is>
       </c>
       <c r="L194" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M194" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>Eating Out</t>
         </is>
       </c>
     </row>
     <row r="195">
       <c r="A195" s="1" t="inlineStr">
         <is>
-          <t>dd1aa9b3-b861-4450-bbb5-0b81abce49b4</t>
+          <t>8b3672fb-4573-4951-b07b-11dda549d46d</t>
         </is>
       </c>
       <c r="B195" s="2" t="n">
         <v>44926</v>
       </c>
-      <c r="C195" t="inlineStr"/>
+      <c r="C195" s="2" t="n">
+        <v>44927</v>
+      </c>
       <c r="D195" s="2" t="n">
-        <v>44904</v>
+        <v>44910</v>
       </c>
       <c r="E195" s="2" t="n">
-        <v>44904</v>
+        <v>44913</v>
       </c>
       <c r="F195" t="inlineStr">
         <is>
-          <t>Spotify USA</t>
+          <t>STARBUCKS STORE 00428</t>
         </is>
       </c>
       <c r="G195" t="inlineStr">
         <is>
-          <t>Bills &amp; Utilities</t>
+          <t>Food &amp; Drink</t>
         </is>
       </c>
       <c r="H195" t="inlineStr">
@@ -10614,40 +10394,42 @@
         </is>
       </c>
       <c r="I195" t="n">
-        <v>-9.99</v>
+        <v>-4.25</v>
       </c>
       <c r="J195" s="2" t="n">
         <v>44926</v>
       </c>
       <c r="K195" t="inlineStr">
         <is>
-          <t>Amazon</t>
+          <t>Sapphire</t>
         </is>
       </c>
       <c r="L195" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M195" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>Coffee</t>
         </is>
       </c>
     </row>
     <row r="196">
       <c r="A196" s="1" t="inlineStr">
         <is>
-          <t>fa841805-6a52-4265-ac77-f801137bc73f</t>
+          <t>df2ff11b-bd40-4209-b56d-1c5deda7dea3</t>
         </is>
       </c>
       <c r="B196" s="2" t="n">
         <v>44926</v>
       </c>
-      <c r="C196" t="inlineStr"/>
+      <c r="C196" s="2" t="n">
+        <v>44927</v>
+      </c>
       <c r="D196" s="2" t="n">
-        <v>44904</v>
+        <v>44911</v>
       </c>
       <c r="E196" s="2" t="n">
-        <v>44906</v>
+        <v>44913</v>
       </c>
       <c r="F196" t="inlineStr">
         <is>
@@ -10665,7 +10447,7 @@
         </is>
       </c>
       <c r="I196" t="n">
-        <v>-3</v>
+        <v>-1.2</v>
       </c>
       <c r="J196" s="2" t="n">
         <v>44926</v>
@@ -10676,38 +10458,40 @@
         </is>
       </c>
       <c r="L196" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M196" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>Parking</t>
         </is>
       </c>
     </row>
     <row r="197">
       <c r="A197" s="1" t="inlineStr">
         <is>
-          <t>c722e44e-956d-4705-906a-06a996eb7468</t>
+          <t>db697e01-69b2-4815-b33c-e9d64b7f199d</t>
         </is>
       </c>
       <c r="B197" s="2" t="n">
         <v>44926</v>
       </c>
-      <c r="C197" t="inlineStr"/>
+      <c r="C197" s="2" t="n">
+        <v>44927</v>
+      </c>
       <c r="D197" s="2" t="n">
-        <v>44905</v>
+        <v>44911</v>
       </c>
       <c r="E197" s="2" t="n">
-        <v>44906</v>
+        <v>44913</v>
       </c>
       <c r="F197" t="inlineStr">
         <is>
-          <t>Amazon Prime*YP4734EX3</t>
+          <t>WALMART EGIFT CARD</t>
         </is>
       </c>
       <c r="G197" t="inlineStr">
         <is>
-          <t>Bills &amp; Utilities</t>
+          <t>Shopping</t>
         </is>
       </c>
       <c r="H197" t="inlineStr">
@@ -10716,7 +10500,7 @@
         </is>
       </c>
       <c r="I197" t="n">
-        <v>-8.07</v>
+        <v>-50</v>
       </c>
       <c r="J197" s="2" t="n">
         <v>44926</v>
@@ -10727,18 +10511,18 @@
         </is>
       </c>
       <c r="L197" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M197" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>Gifts</t>
         </is>
       </c>
     </row>
     <row r="198">
       <c r="A198" s="1" t="inlineStr">
         <is>
-          <t>bc05baa7-927a-41db-b477-291d125176b8</t>
+          <t>7a06f58a-c23c-4e7a-9418-72a45d65dc4f</t>
         </is>
       </c>
       <c r="B198" s="2" t="n">
@@ -10746,28 +10530,24 @@
       </c>
       <c r="C198" t="inlineStr"/>
       <c r="D198" s="2" t="n">
-        <v>44905</v>
+        <v>44911</v>
       </c>
       <c r="E198" s="2" t="n">
-        <v>44906</v>
+        <v>44911</v>
       </c>
       <c r="F198" t="inlineStr">
         <is>
-          <t>SQ *BARISTA</t>
-        </is>
-      </c>
-      <c r="G198" t="inlineStr">
-        <is>
-          <t>Food &amp; Drink</t>
-        </is>
-      </c>
+          <t>AUTOMATIC PAYMENT - THANK</t>
+        </is>
+      </c>
+      <c r="G198" t="inlineStr"/>
       <c r="H198" t="inlineStr">
         <is>
-          <t>Sale</t>
+          <t>Payment</t>
         </is>
       </c>
       <c r="I198" t="n">
-        <v>-12.65</v>
+        <v>1324.09</v>
       </c>
       <c r="J198" s="2" t="n">
         <v>44926</v>
@@ -10780,36 +10560,34 @@
       <c r="L198" t="n">
         <v>0</v>
       </c>
-      <c r="M198" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="M198" t="inlineStr"/>
     </row>
     <row r="199">
       <c r="A199" s="1" t="inlineStr">
         <is>
-          <t>138735c0-40a2-4e7b-9b8a-2f72da29aed1</t>
+          <t>2b267bdd-8b24-4a6a-a1c5-8bfe50fcc7a7</t>
         </is>
       </c>
       <c r="B199" s="2" t="n">
         <v>44926</v>
       </c>
-      <c r="C199" t="inlineStr"/>
+      <c r="C199" s="2" t="n">
+        <v>44927</v>
+      </c>
       <c r="D199" s="2" t="n">
-        <v>44905</v>
+        <v>44911</v>
       </c>
       <c r="E199" s="2" t="n">
-        <v>44906</v>
+        <v>44913</v>
       </c>
       <c r="F199" t="inlineStr">
         <is>
-          <t>SQ *BARISTA</t>
+          <t>CVS/PHARMACY #11282</t>
         </is>
       </c>
       <c r="G199" t="inlineStr">
         <is>
-          <t>Food &amp; Drink</t>
+          <t>Health &amp; Wellness</t>
         </is>
       </c>
       <c r="H199" t="inlineStr">
@@ -10818,7 +10596,7 @@
         </is>
       </c>
       <c r="I199" t="n">
-        <v>-3.5</v>
+        <v>-24.97</v>
       </c>
       <c r="J199" s="2" t="n">
         <v>44926</v>
@@ -10829,38 +10607,40 @@
         </is>
       </c>
       <c r="L199" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M199" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>Supplies</t>
         </is>
       </c>
     </row>
     <row r="200">
       <c r="A200" s="1" t="inlineStr">
         <is>
-          <t>04971ac5-9718-4931-8a6f-081a8640b512</t>
+          <t>c7e97ca3-d0d6-4e73-928d-c9b76933ffb7</t>
         </is>
       </c>
       <c r="B200" s="2" t="n">
         <v>44926</v>
       </c>
-      <c r="C200" t="inlineStr"/>
+      <c r="C200" s="2" t="n">
+        <v>44927</v>
+      </c>
       <c r="D200" s="2" t="n">
-        <v>44905</v>
+        <v>44911</v>
       </c>
       <c r="E200" s="2" t="n">
-        <v>44906</v>
+        <v>44913</v>
       </c>
       <c r="F200" t="inlineStr">
         <is>
-          <t>PORTLAND GENERAL ELECTRIC</t>
+          <t>STARBUCKS STORE 00428</t>
         </is>
       </c>
       <c r="G200" t="inlineStr">
         <is>
-          <t>Bills &amp; Utilities</t>
+          <t>Food &amp; Drink</t>
         </is>
       </c>
       <c r="H200" t="inlineStr">
@@ -10869,49 +10649,51 @@
         </is>
       </c>
       <c r="I200" t="n">
-        <v>-5.58</v>
+        <v>-4.25</v>
       </c>
       <c r="J200" s="2" t="n">
         <v>44926</v>
       </c>
       <c r="K200" t="inlineStr">
         <is>
-          <t>Amazon</t>
+          <t>Sapphire</t>
         </is>
       </c>
       <c r="L200" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M200" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>Coffee</t>
         </is>
       </c>
     </row>
     <row r="201">
       <c r="A201" s="1" t="inlineStr">
         <is>
-          <t>e2470a16-1b2b-4604-bed4-850dc097428b</t>
+          <t>7d52bfdd-44a2-4996-b32f-2962aa1b04ca</t>
         </is>
       </c>
       <c r="B201" s="2" t="n">
         <v>44926</v>
       </c>
-      <c r="C201" t="inlineStr"/>
+      <c r="C201" s="2" t="n">
+        <v>44927</v>
+      </c>
       <c r="D201" s="2" t="n">
-        <v>44906</v>
+        <v>44911</v>
       </c>
       <c r="E201" s="2" t="n">
-        <v>44907</v>
+        <v>44913</v>
       </c>
       <c r="F201" t="inlineStr">
         <is>
-          <t>76 - ST HELENS RD</t>
+          <t>TST* The Fireside</t>
         </is>
       </c>
       <c r="G201" t="inlineStr">
         <is>
-          <t>Gas</t>
+          <t>Food &amp; Drink</t>
         </is>
       </c>
       <c r="H201" t="inlineStr">
@@ -10920,44 +10702,46 @@
         </is>
       </c>
       <c r="I201" t="n">
-        <v>-55.88</v>
+        <v>-100</v>
       </c>
       <c r="J201" s="2" t="n">
         <v>44926</v>
       </c>
       <c r="K201" t="inlineStr">
         <is>
-          <t>Amazon</t>
+          <t>Sapphire</t>
         </is>
       </c>
       <c r="L201" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M201" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>Eating Out</t>
         </is>
       </c>
     </row>
     <row r="202">
       <c r="A202" s="1" t="inlineStr">
         <is>
-          <t>26a0187f-5e43-49c8-91f9-5be3ed64ba1c</t>
+          <t>aee163b8-066d-4b3d-b0fe-5730bc7ce14d</t>
         </is>
       </c>
       <c r="B202" s="2" t="n">
         <v>44926</v>
       </c>
-      <c r="C202" t="inlineStr"/>
+      <c r="C202" s="2" t="n">
+        <v>44927</v>
+      </c>
       <c r="D202" s="2" t="n">
-        <v>44906</v>
+        <v>44912</v>
       </c>
       <c r="E202" s="2" t="n">
-        <v>44907</v>
+        <v>44913</v>
       </c>
       <c r="F202" t="inlineStr">
         <is>
-          <t>SQ *CLEARING CAFE</t>
+          <t>SQ *ALOUETTE</t>
         </is>
       </c>
       <c r="G202" t="inlineStr">
@@ -10971,7 +10755,7 @@
         </is>
       </c>
       <c r="I202" t="n">
-        <v>-8</v>
+        <v>-85.2</v>
       </c>
       <c r="J202" s="2" t="n">
         <v>44926</v>
@@ -10982,18 +10766,18 @@
         </is>
       </c>
       <c r="L202" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M202" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>Eating Out</t>
         </is>
       </c>
     </row>
     <row r="203">
       <c r="A203" s="1" t="inlineStr">
         <is>
-          <t>cd83bfba-e0f1-4844-92ae-a3190ff15383</t>
+          <t>81a8db9d-6634-472a-a0e4-a4b53536c9b4</t>
         </is>
       </c>
       <c r="B203" s="2" t="n">
@@ -11001,119 +10785,111 @@
       </c>
       <c r="C203" t="inlineStr"/>
       <c r="D203" s="2" t="n">
-        <v>44906</v>
-      </c>
-      <c r="E203" s="2" t="n">
-        <v>44907</v>
-      </c>
+        <v>44914</v>
+      </c>
+      <c r="E203" t="inlineStr"/>
       <c r="F203" t="inlineStr">
         <is>
-          <t>SQ *CLEARING CAFE</t>
-        </is>
-      </c>
-      <c r="G203" t="inlineStr">
-        <is>
-          <t>Food &amp; Drink</t>
-        </is>
-      </c>
-      <c r="H203" t="inlineStr">
-        <is>
-          <t>Sale</t>
-        </is>
-      </c>
+          <t>CHASE CREDIT CRD AUTOPAY 000000000591807</t>
+        </is>
+      </c>
+      <c r="G203" t="inlineStr"/>
+      <c r="H203" t="inlineStr"/>
       <c r="I203" t="n">
-        <v>-6.5</v>
+        <v>-1324.09</v>
       </c>
       <c r="J203" s="2" t="n">
         <v>44926</v>
       </c>
       <c r="K203" t="inlineStr">
         <is>
-          <t>Sapphire</t>
+          <t>Mechanics</t>
         </is>
       </c>
       <c r="L203" t="n">
         <v>0</v>
       </c>
-      <c r="M203" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="M203" t="inlineStr"/>
     </row>
     <row r="204">
       <c r="A204" s="1" t="inlineStr">
         <is>
-          <t>816435da-ff4a-411a-bbfa-9e1b301f3a45</t>
+          <t>c7eb23f5-9fb1-47b1-93d3-9b05a8e8858d</t>
         </is>
       </c>
       <c r="B204" s="2" t="n">
         <v>44926</v>
       </c>
-      <c r="C204" t="inlineStr"/>
+      <c r="C204" s="2" t="n">
+        <v>44927</v>
+      </c>
       <c r="D204" s="2" t="n">
-        <v>44907</v>
-      </c>
-      <c r="E204" t="inlineStr"/>
+        <v>44914</v>
+      </c>
+      <c r="E204" s="2" t="n">
+        <v>44915</v>
+      </c>
       <c r="F204" t="inlineStr">
         <is>
-          <t>Mobile Deposit</t>
+          <t>TRADER JOE'S #146  QPS</t>
         </is>
       </c>
       <c r="G204" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>Groceries</t>
         </is>
       </c>
       <c r="H204" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>Sale</t>
         </is>
       </c>
       <c r="I204" t="n">
-        <v>162.64</v>
+        <v>-45.64</v>
       </c>
       <c r="J204" s="2" t="n">
         <v>44926</v>
       </c>
       <c r="K204" t="inlineStr">
         <is>
-          <t>Mechanics</t>
+          <t>Sapphire</t>
         </is>
       </c>
       <c r="L204" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M204" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>Groceries</t>
         </is>
       </c>
     </row>
     <row r="205">
       <c r="A205" s="1" t="inlineStr">
         <is>
-          <t>db304122-62cb-4ec6-82e3-e99892ee7908</t>
+          <t>1e11c642-58ee-4458-a46c-ec17012760f3</t>
         </is>
       </c>
       <c r="B205" s="2" t="n">
         <v>44926</v>
       </c>
-      <c r="C205" t="inlineStr"/>
+      <c r="C205" s="2" t="n">
+        <v>44927</v>
+      </c>
       <c r="D205" s="2" t="n">
-        <v>44907</v>
+        <v>44914</v>
       </c>
       <c r="E205" s="2" t="n">
-        <v>44907</v>
+        <v>44916</v>
       </c>
       <c r="F205" t="inlineStr">
         <is>
-          <t>STEAMGAMES.COM 4259522985</t>
+          <t>STARBUCKS STORE 00428</t>
         </is>
       </c>
       <c r="G205" t="inlineStr">
         <is>
-          <t>Entertainment</t>
+          <t>Food &amp; Drink</t>
         </is>
       </c>
       <c r="H205" t="inlineStr">
@@ -11122,40 +10898,42 @@
         </is>
       </c>
       <c r="I205" t="n">
-        <v>-31.49</v>
+        <v>-4.25</v>
       </c>
       <c r="J205" s="2" t="n">
         <v>44926</v>
       </c>
       <c r="K205" t="inlineStr">
         <is>
-          <t>Amazon</t>
+          <t>Sapphire</t>
         </is>
       </c>
       <c r="L205" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M205" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>Coffee</t>
         </is>
       </c>
     </row>
     <row r="206">
       <c r="A206" s="1" t="inlineStr">
         <is>
-          <t>12439868-af7c-4357-9b9f-814d37db1541</t>
+          <t>88378a8a-e966-4217-adb7-779230ebf418</t>
         </is>
       </c>
       <c r="B206" s="2" t="n">
         <v>44926</v>
       </c>
-      <c r="C206" t="inlineStr"/>
+      <c r="C206" s="2" t="n">
+        <v>44927</v>
+      </c>
       <c r="D206" s="2" t="n">
-        <v>44907</v>
+        <v>44916</v>
       </c>
       <c r="E206" s="2" t="n">
-        <v>44909</v>
+        <v>44918</v>
       </c>
       <c r="F206" t="inlineStr">
         <is>
@@ -11184,38 +10962,40 @@
         </is>
       </c>
       <c r="L206" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M206" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>Coffee</t>
         </is>
       </c>
     </row>
     <row r="207">
       <c r="A207" s="1" t="inlineStr">
         <is>
-          <t>e560e818-a96d-4be5-9f56-03446149fe53</t>
+          <t>e4bb6897-9fd4-41bc-be06-6d58dc49fc02</t>
         </is>
       </c>
       <c r="B207" s="2" t="n">
         <v>44926</v>
       </c>
-      <c r="C207" t="inlineStr"/>
+      <c r="C207" s="2" t="n">
+        <v>44927</v>
+      </c>
       <c r="D207" s="2" t="n">
-        <v>44907</v>
+        <v>44917</v>
       </c>
       <c r="E207" s="2" t="n">
-        <v>44908</v>
+        <v>44920</v>
       </c>
       <c r="F207" t="inlineStr">
         <is>
-          <t>TRADER JOE'S #146  QPS</t>
+          <t>STARBUCKS STORE 00428</t>
         </is>
       </c>
       <c r="G207" t="inlineStr">
         <is>
-          <t>Groceries</t>
+          <t>Food &amp; Drink</t>
         </is>
       </c>
       <c r="H207" t="inlineStr">
@@ -11224,7 +11004,7 @@
         </is>
       </c>
       <c r="I207" t="n">
-        <v>-91.66</v>
+        <v>-7</v>
       </c>
       <c r="J207" s="2" t="n">
         <v>44926</v>
@@ -11235,29 +11015,31 @@
         </is>
       </c>
       <c r="L207" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M207" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>Coffee</t>
         </is>
       </c>
     </row>
     <row r="208">
       <c r="A208" s="1" t="inlineStr">
         <is>
-          <t>0ed2a4d3-7f91-4e75-bbe1-8ba1d8bf3a39</t>
+          <t>22aee82c-d374-4c48-8fa5-6010773ed409</t>
         </is>
       </c>
       <c r="B208" s="2" t="n">
         <v>44926</v>
       </c>
-      <c r="C208" t="inlineStr"/>
+      <c r="C208" s="2" t="n">
+        <v>44927</v>
+      </c>
       <c r="D208" s="2" t="n">
-        <v>44909</v>
+        <v>44917</v>
       </c>
       <c r="E208" s="2" t="n">
-        <v>44910</v>
+        <v>44918</v>
       </c>
       <c r="F208" t="inlineStr">
         <is>
@@ -11275,7 +11057,7 @@
         </is>
       </c>
       <c r="I208" t="n">
-        <v>-33</v>
+        <v>-16</v>
       </c>
       <c r="J208" s="2" t="n">
         <v>44926</v>
@@ -11286,38 +11068,40 @@
         </is>
       </c>
       <c r="L208" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M208" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>Eating Out</t>
         </is>
       </c>
     </row>
     <row r="209">
       <c r="A209" s="1" t="inlineStr">
         <is>
-          <t>66e18421-db02-4aea-bb52-1bb5b0a08eda</t>
+          <t>a683af98-6527-4b33-95de-7141a1b4facc</t>
         </is>
       </c>
       <c r="B209" s="2" t="n">
         <v>44926</v>
       </c>
-      <c r="C209" t="inlineStr"/>
+      <c r="C209" s="2" t="n">
+        <v>44927</v>
+      </c>
       <c r="D209" s="2" t="n">
-        <v>44909</v>
+        <v>44917</v>
       </c>
       <c r="E209" s="2" t="n">
-        <v>44911</v>
+        <v>44918</v>
       </c>
       <c r="F209" t="inlineStr">
         <is>
-          <t>STARBUCKS STORE 00428</t>
+          <t>76 - PLAID PANTRY 83</t>
         </is>
       </c>
       <c r="G209" t="inlineStr">
         <is>
-          <t>Food &amp; Drink</t>
+          <t>Gas</t>
         </is>
       </c>
       <c r="H209" t="inlineStr">
@@ -11326,49 +11110,51 @@
         </is>
       </c>
       <c r="I209" t="n">
-        <v>-4.25</v>
+        <v>-56.04</v>
       </c>
       <c r="J209" s="2" t="n">
         <v>44926</v>
       </c>
       <c r="K209" t="inlineStr">
         <is>
-          <t>Sapphire</t>
+          <t>Amazon</t>
         </is>
       </c>
       <c r="L209" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M209" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>Gasoline</t>
         </is>
       </c>
     </row>
     <row r="210">
       <c r="A210" s="1" t="inlineStr">
         <is>
-          <t>cfee9644-01ec-4f3d-b1f4-c6b0a19eb3e6</t>
+          <t>979cf0ba-bf94-4f4e-97cb-4da50b92fa05</t>
         </is>
       </c>
       <c r="B210" s="2" t="n">
         <v>44926</v>
       </c>
-      <c r="C210" t="inlineStr"/>
+      <c r="C210" s="2" t="n">
+        <v>44927</v>
+      </c>
       <c r="D210" s="2" t="n">
-        <v>44909</v>
+        <v>44917</v>
       </c>
       <c r="E210" s="2" t="n">
-        <v>44910</v>
+        <v>44917</v>
       </c>
       <c r="F210" t="inlineStr">
         <is>
-          <t>TST* Pizza Thief</t>
+          <t>GOOGLE *Domains</t>
         </is>
       </c>
       <c r="G210" t="inlineStr">
         <is>
-          <t>Food &amp; Drink</t>
+          <t>Bills &amp; Utilities</t>
         </is>
       </c>
       <c r="H210" t="inlineStr">
@@ -11377,44 +11163,46 @@
         </is>
       </c>
       <c r="I210" t="n">
-        <v>-6.75</v>
+        <v>-6</v>
       </c>
       <c r="J210" s="2" t="n">
         <v>44926</v>
       </c>
       <c r="K210" t="inlineStr">
         <is>
-          <t>Sapphire</t>
+          <t>Amazon</t>
         </is>
       </c>
       <c r="L210" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M210" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>Services</t>
         </is>
       </c>
     </row>
     <row r="211">
       <c r="A211" s="1" t="inlineStr">
         <is>
-          <t>8b3672fb-4573-4951-b07b-11dda549d46d</t>
+          <t>1269bd7f-f0cf-4bcd-83ec-9636f5d58097</t>
         </is>
       </c>
       <c r="B211" s="2" t="n">
         <v>44926</v>
       </c>
-      <c r="C211" t="inlineStr"/>
+      <c r="C211" s="2" t="n">
+        <v>44927</v>
+      </c>
       <c r="D211" s="2" t="n">
-        <v>44910</v>
+        <v>44917</v>
       </c>
       <c r="E211" s="2" t="n">
-        <v>44913</v>
+        <v>44918</v>
       </c>
       <c r="F211" t="inlineStr">
         <is>
-          <t>STARBUCKS STORE 00428</t>
+          <t>TST* Pizza Thief</t>
         </is>
       </c>
       <c r="G211" t="inlineStr">
@@ -11428,7 +11216,7 @@
         </is>
       </c>
       <c r="I211" t="n">
-        <v>-4.25</v>
+        <v>-6.75</v>
       </c>
       <c r="J211" s="2" t="n">
         <v>44926</v>
@@ -11439,47 +11227,49 @@
         </is>
       </c>
       <c r="L211" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M211" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>Eating Out</t>
         </is>
       </c>
     </row>
     <row r="212">
       <c r="A212" s="1" t="inlineStr">
         <is>
-          <t>7a06f58a-c23c-4e7a-9418-72a45d65dc4f</t>
+          <t>268d6baf-6fbb-4a9e-8b0c-f1b26fd9b5d1</t>
         </is>
       </c>
       <c r="B212" s="2" t="n">
         <v>44926</v>
       </c>
-      <c r="C212" t="inlineStr"/>
+      <c r="C212" s="2" t="n">
+        <v>44927</v>
+      </c>
       <c r="D212" s="2" t="n">
-        <v>44911</v>
+        <v>44917</v>
       </c>
       <c r="E212" s="2" t="n">
-        <v>44911</v>
+        <v>44920</v>
       </c>
       <c r="F212" t="inlineStr">
         <is>
-          <t>AUTOMATIC PAYMENT - THANK</t>
+          <t>STARBUCKS STORE 00428</t>
         </is>
       </c>
       <c r="G212" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>Food &amp; Drink</t>
         </is>
       </c>
       <c r="H212" t="inlineStr">
         <is>
-          <t>Payment</t>
+          <t>Sale</t>
         </is>
       </c>
       <c r="I212" t="n">
-        <v>1324.09</v>
+        <v>-4.65</v>
       </c>
       <c r="J212" s="2" t="n">
         <v>44926</v>
@@ -11490,38 +11280,40 @@
         </is>
       </c>
       <c r="L212" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M212" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>Coffee</t>
         </is>
       </c>
     </row>
     <row r="213">
       <c r="A213" s="1" t="inlineStr">
         <is>
-          <t>2b267bdd-8b24-4a6a-a1c5-8bfe50fcc7a7</t>
+          <t>37422ab4-33ab-4672-a509-0df15ad1878d</t>
         </is>
       </c>
       <c r="B213" s="2" t="n">
         <v>44926</v>
       </c>
-      <c r="C213" t="inlineStr"/>
+      <c r="C213" s="2" t="n">
+        <v>44927</v>
+      </c>
       <c r="D213" s="2" t="n">
-        <v>44911</v>
+        <v>44918</v>
       </c>
       <c r="E213" s="2" t="n">
-        <v>44913</v>
+        <v>44918</v>
       </c>
       <c r="F213" t="inlineStr">
         <is>
-          <t>CVS/PHARMACY #11282</t>
+          <t>adidas 6536 Portland</t>
         </is>
       </c>
       <c r="G213" t="inlineStr">
         <is>
-          <t>Health &amp; Wellness</t>
+          <t>Shopping</t>
         </is>
       </c>
       <c r="H213" t="inlineStr">
@@ -11530,29 +11322,29 @@
         </is>
       </c>
       <c r="I213" t="n">
-        <v>-24.97</v>
+        <v>-190.55</v>
       </c>
       <c r="J213" s="2" t="n">
         <v>44926</v>
       </c>
       <c r="K213" t="inlineStr">
         <is>
-          <t>Sapphire</t>
+          <t>Amazon</t>
         </is>
       </c>
       <c r="L213" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M213" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>Clothes</t>
         </is>
       </c>
     </row>
     <row r="214">
       <c r="A214" s="1" t="inlineStr">
         <is>
-          <t>c7e97ca3-d0d6-4e73-928d-c9b76933ffb7</t>
+          <t>51894e26-61b3-4b6d-b54f-431b5d00a7f5</t>
         </is>
       </c>
       <c r="B214" s="2" t="n">
@@ -11560,19 +11352,19 @@
       </c>
       <c r="C214" t="inlineStr"/>
       <c r="D214" s="2" t="n">
-        <v>44911</v>
+        <v>44918</v>
       </c>
       <c r="E214" s="2" t="n">
-        <v>44913</v>
+        <v>44920</v>
       </c>
       <c r="F214" t="inlineStr">
         <is>
-          <t>STARBUCKS STORE 00428</t>
+          <t>AVIS.COM PREPAY</t>
         </is>
       </c>
       <c r="G214" t="inlineStr">
         <is>
-          <t>Food &amp; Drink</t>
+          <t>Travel</t>
         </is>
       </c>
       <c r="H214" t="inlineStr">
@@ -11581,49 +11373,47 @@
         </is>
       </c>
       <c r="I214" t="n">
-        <v>-4.25</v>
+        <v>-162.25</v>
       </c>
       <c r="J214" s="2" t="n">
         <v>44926</v>
       </c>
       <c r="K214" t="inlineStr">
         <is>
-          <t>Sapphire</t>
+          <t>Amazon</t>
         </is>
       </c>
       <c r="L214" t="n">
         <v>0</v>
       </c>
-      <c r="M214" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="M214" t="inlineStr"/>
     </row>
     <row r="215">
       <c r="A215" s="1" t="inlineStr">
         <is>
-          <t>7d52bfdd-44a2-4996-b32f-2962aa1b04ca</t>
+          <t>94000b2e-765b-4131-9c9e-43ae3c02aed2</t>
         </is>
       </c>
       <c r="B215" s="2" t="n">
         <v>44926</v>
       </c>
-      <c r="C215" t="inlineStr"/>
+      <c r="C215" s="2" t="n">
+        <v>44926</v>
+      </c>
       <c r="D215" s="2" t="n">
-        <v>44911</v>
+        <v>44918</v>
       </c>
       <c r="E215" s="2" t="n">
-        <v>44913</v>
+        <v>44920</v>
       </c>
       <c r="F215" t="inlineStr">
         <is>
-          <t>TST* The Fireside</t>
+          <t>PILOT_00391</t>
         </is>
       </c>
       <c r="G215" t="inlineStr">
         <is>
-          <t>Food &amp; Drink</t>
+          <t>Gas</t>
         </is>
       </c>
       <c r="H215" t="inlineStr">
@@ -11632,100 +11422,104 @@
         </is>
       </c>
       <c r="I215" t="n">
-        <v>-100</v>
+        <v>-35.33</v>
       </c>
       <c r="J215" s="2" t="n">
         <v>44926</v>
       </c>
       <c r="K215" t="inlineStr">
         <is>
-          <t>Sapphire</t>
+          <t>Amazon</t>
         </is>
       </c>
       <c r="L215" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M215" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>Travel</t>
         </is>
       </c>
     </row>
     <row r="216">
       <c r="A216" s="1" t="inlineStr">
         <is>
-          <t>df2ff11b-bd40-4209-b56d-1c5deda7dea3</t>
+          <t>ba1d3d17-a3db-41aa-b1c7-55b3cceefe90</t>
         </is>
       </c>
       <c r="B216" s="2" t="n">
         <v>44926</v>
       </c>
-      <c r="C216" t="inlineStr"/>
+      <c r="C216" s="2" t="n">
+        <v>44926</v>
+      </c>
       <c r="D216" s="2" t="n">
-        <v>44911</v>
+        <v>44918</v>
       </c>
       <c r="E216" s="2" t="n">
-        <v>44913</v>
+        <v>44920</v>
       </c>
       <c r="F216" t="inlineStr">
         <is>
-          <t>CITY OF PORTLAND DEPT</t>
+          <t>CHIPOTLE 2782</t>
         </is>
       </c>
       <c r="G216" t="inlineStr">
         <is>
+          <t>Food &amp; Drink</t>
+        </is>
+      </c>
+      <c r="H216" t="inlineStr">
+        <is>
+          <t>Sale</t>
+        </is>
+      </c>
+      <c r="I216" t="n">
+        <v>-12.2</v>
+      </c>
+      <c r="J216" s="2" t="n">
+        <v>44926</v>
+      </c>
+      <c r="K216" t="inlineStr">
+        <is>
+          <t>Sapphire</t>
+        </is>
+      </c>
+      <c r="L216" t="n">
+        <v>1</v>
+      </c>
+      <c r="M216" t="inlineStr">
+        <is>
           <t>Travel</t>
-        </is>
-      </c>
-      <c r="H216" t="inlineStr">
-        <is>
-          <t>Sale</t>
-        </is>
-      </c>
-      <c r="I216" t="n">
-        <v>-1.2</v>
-      </c>
-      <c r="J216" s="2" t="n">
-        <v>44926</v>
-      </c>
-      <c r="K216" t="inlineStr">
-        <is>
-          <t>Amazon</t>
-        </is>
-      </c>
-      <c r="L216" t="n">
-        <v>0</v>
-      </c>
-      <c r="M216" t="inlineStr">
-        <is>
-          <t>nan</t>
         </is>
       </c>
     </row>
     <row r="217">
       <c r="A217" s="1" t="inlineStr">
         <is>
-          <t>db697e01-69b2-4815-b33c-e9d64b7f199d</t>
+          <t>39d31fd1-2c90-4bb8-b198-1bb9562987cf</t>
         </is>
       </c>
       <c r="B217" s="2" t="n">
         <v>44926</v>
       </c>
-      <c r="C217" t="inlineStr"/>
+      <c r="C217" s="2" t="n">
+        <v>44926</v>
+      </c>
       <c r="D217" s="2" t="n">
-        <v>44911</v>
+        <v>44918</v>
       </c>
       <c r="E217" s="2" t="n">
-        <v>44913</v>
+        <v>44921</v>
       </c>
       <c r="F217" t="inlineStr">
         <is>
-          <t>WALMART EGIFT CARD</t>
+          <t>PILOT         00003913</t>
         </is>
       </c>
       <c r="G217" t="inlineStr">
         <is>
-          <t>Shopping</t>
+          <t>Gas</t>
         </is>
       </c>
       <c r="H217" t="inlineStr">
@@ -11734,80 +11528,72 @@
         </is>
       </c>
       <c r="I217" t="n">
-        <v>-50</v>
+        <v>-19.28</v>
       </c>
       <c r="J217" s="2" t="n">
         <v>44926</v>
       </c>
       <c r="K217" t="inlineStr">
         <is>
-          <t>Amazon</t>
+          <t>Sapphire</t>
         </is>
       </c>
       <c r="L217" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M217" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>Travel</t>
         </is>
       </c>
     </row>
     <row r="218">
       <c r="A218" s="1" t="inlineStr">
         <is>
-          <t>aee163b8-066d-4b3d-b0fe-5730bc7ce14d</t>
+          <t>aa3c5ad4-0212-4fb6-8d96-03b5b3f2de17</t>
         </is>
       </c>
       <c r="B218" s="2" t="n">
         <v>44926</v>
       </c>
-      <c r="C218" t="inlineStr"/>
+      <c r="C218" s="2" t="n">
+        <v>44927</v>
+      </c>
       <c r="D218" s="2" t="n">
-        <v>44912</v>
-      </c>
-      <c r="E218" s="2" t="n">
-        <v>44913</v>
-      </c>
+        <v>44918</v>
+      </c>
+      <c r="E218" t="inlineStr"/>
       <c r="F218" t="inlineStr">
         <is>
-          <t>SQ *ALOUETTE</t>
-        </is>
-      </c>
-      <c r="G218" t="inlineStr">
-        <is>
-          <t>Food &amp; Drink</t>
-        </is>
-      </c>
-      <c r="H218" t="inlineStr">
-        <is>
-          <t>Sale</t>
-        </is>
-      </c>
+          <t>TOYOTA MOTOR SAL PAYROLL 568349-TMN</t>
+        </is>
+      </c>
+      <c r="G218" t="inlineStr"/>
+      <c r="H218" t="inlineStr"/>
       <c r="I218" t="n">
-        <v>-85.2</v>
+        <v>2214.61</v>
       </c>
       <c r="J218" s="2" t="n">
         <v>44926</v>
       </c>
       <c r="K218" t="inlineStr">
         <is>
-          <t>Sapphire</t>
+          <t>Mechanics</t>
         </is>
       </c>
       <c r="L218" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M218" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>Income</t>
         </is>
       </c>
     </row>
     <row r="219">
       <c r="A219" s="1" t="inlineStr">
         <is>
-          <t>81a8db9d-6634-472a-a0e4-a4b53536c9b4</t>
+          <t>20eadf3f-8a78-4eab-a66d-63dd9d1864ca</t>
         </is>
       </c>
       <c r="B219" s="2" t="n">
@@ -11815,68 +11601,68 @@
       </c>
       <c r="C219" t="inlineStr"/>
       <c r="D219" s="2" t="n">
-        <v>44914</v>
-      </c>
-      <c r="E219" t="inlineStr"/>
+        <v>44918</v>
+      </c>
+      <c r="E219" s="2" t="n">
+        <v>44920</v>
+      </c>
       <c r="F219" t="inlineStr">
         <is>
-          <t>CHASE CREDIT CRD AUTOPAY 000000000591807</t>
+          <t>AVIS.COM PREPAY</t>
         </is>
       </c>
       <c r="G219" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>Travel</t>
         </is>
       </c>
       <c r="H219" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>Return</t>
         </is>
       </c>
       <c r="I219" t="n">
-        <v>-1324.09</v>
+        <v>162.25</v>
       </c>
       <c r="J219" s="2" t="n">
         <v>44926</v>
       </c>
       <c r="K219" t="inlineStr">
         <is>
-          <t>Mechanics</t>
+          <t>Amazon</t>
         </is>
       </c>
       <c r="L219" t="n">
         <v>0</v>
       </c>
-      <c r="M219" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="M219" t="inlineStr"/>
     </row>
     <row r="220">
       <c r="A220" s="1" t="inlineStr">
         <is>
-          <t>c7eb23f5-9fb1-47b1-93d3-9b05a8e8858d</t>
+          <t>a9c81718-234b-4c46-9d89-01fe3acbf954</t>
         </is>
       </c>
       <c r="B220" s="2" t="n">
         <v>44926</v>
       </c>
-      <c r="C220" t="inlineStr"/>
+      <c r="C220" s="2" t="n">
+        <v>44927</v>
+      </c>
       <c r="D220" s="2" t="n">
-        <v>44914</v>
+        <v>44918</v>
       </c>
       <c r="E220" s="2" t="n">
-        <v>44915</v>
+        <v>44921</v>
       </c>
       <c r="F220" t="inlineStr">
         <is>
-          <t>TRADER JOE'S #146  QPS</t>
+          <t>SAINT HONORE BOULANGERIE</t>
         </is>
       </c>
       <c r="G220" t="inlineStr">
         <is>
-          <t>Groceries</t>
+          <t>Food &amp; Drink</t>
         </is>
       </c>
       <c r="H220" t="inlineStr">
@@ -11885,7 +11671,7 @@
         </is>
       </c>
       <c r="I220" t="n">
-        <v>-45.64</v>
+        <v>-3.74</v>
       </c>
       <c r="J220" s="2" t="n">
         <v>44926</v>
@@ -11896,33 +11682,35 @@
         </is>
       </c>
       <c r="L220" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M220" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>Coffee</t>
         </is>
       </c>
     </row>
     <row r="221">
       <c r="A221" s="1" t="inlineStr">
         <is>
-          <t>1e11c642-58ee-4458-a46c-ec17012760f3</t>
+          <t>ad89d467-0355-47d6-90b4-ee9b002b54d6</t>
         </is>
       </c>
       <c r="B221" s="2" t="n">
         <v>44926</v>
       </c>
-      <c r="C221" t="inlineStr"/>
+      <c r="C221" s="2" t="n">
+        <v>44927</v>
+      </c>
       <c r="D221" s="2" t="n">
-        <v>44914</v>
+        <v>44918</v>
       </c>
       <c r="E221" s="2" t="n">
-        <v>44916</v>
+        <v>44921</v>
       </c>
       <c r="F221" t="inlineStr">
         <is>
-          <t>STARBUCKS STORE 00428</t>
+          <t>SAINT HONORE BOULANGERIE</t>
         </is>
       </c>
       <c r="G221" t="inlineStr">
@@ -11936,7 +11724,7 @@
         </is>
       </c>
       <c r="I221" t="n">
-        <v>-4.25</v>
+        <v>-27.95</v>
       </c>
       <c r="J221" s="2" t="n">
         <v>44926</v>
@@ -11947,33 +11735,35 @@
         </is>
       </c>
       <c r="L221" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M221" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>Coffee</t>
         </is>
       </c>
     </row>
     <row r="222">
       <c r="A222" s="1" t="inlineStr">
         <is>
-          <t>88378a8a-e966-4217-adb7-779230ebf418</t>
+          <t>4e00b836-873c-47e7-9f1b-6a635e9e1c6a</t>
         </is>
       </c>
       <c r="B222" s="2" t="n">
         <v>44926</v>
       </c>
-      <c r="C222" t="inlineStr"/>
+      <c r="C222" s="2" t="n">
+        <v>44927</v>
+      </c>
       <c r="D222" s="2" t="n">
-        <v>44916</v>
+        <v>44918</v>
       </c>
       <c r="E222" s="2" t="n">
-        <v>44918</v>
+        <v>44920</v>
       </c>
       <c r="F222" t="inlineStr">
         <is>
-          <t>STARBUCKS STORE 00428</t>
+          <t>SQ *STERLING COFFEE</t>
         </is>
       </c>
       <c r="G222" t="inlineStr">
@@ -11987,7 +11777,7 @@
         </is>
       </c>
       <c r="I222" t="n">
-        <v>-4.25</v>
+        <v>-11.96</v>
       </c>
       <c r="J222" s="2" t="n">
         <v>44926</v>
@@ -11998,38 +11788,40 @@
         </is>
       </c>
       <c r="L222" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M222" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>Coffee</t>
         </is>
       </c>
     </row>
     <row r="223">
       <c r="A223" s="1" t="inlineStr">
         <is>
-          <t>268d6baf-6fbb-4a9e-8b0c-f1b26fd9b5d1</t>
+          <t>bce462ce-ee3f-4121-9f6f-19c416134271</t>
         </is>
       </c>
       <c r="B223" s="2" t="n">
         <v>44926</v>
       </c>
-      <c r="C223" t="inlineStr"/>
+      <c r="C223" s="2" t="n">
+        <v>44927</v>
+      </c>
       <c r="D223" s="2" t="n">
-        <v>44917</v>
+        <v>44919</v>
       </c>
       <c r="E223" s="2" t="n">
         <v>44920</v>
       </c>
       <c r="F223" t="inlineStr">
         <is>
-          <t>STARBUCKS STORE 00428</t>
+          <t>COMCAST CABLE COMM</t>
         </is>
       </c>
       <c r="G223" t="inlineStr">
         <is>
-          <t>Food &amp; Drink</t>
+          <t>Bills &amp; Utilities</t>
         </is>
       </c>
       <c r="H223" t="inlineStr">
@@ -12038,49 +11830,51 @@
         </is>
       </c>
       <c r="I223" t="n">
-        <v>-4.65</v>
+        <v>-35.12</v>
       </c>
       <c r="J223" s="2" t="n">
         <v>44926</v>
       </c>
       <c r="K223" t="inlineStr">
         <is>
-          <t>Sapphire</t>
+          <t>Amazon</t>
         </is>
       </c>
       <c r="L223" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M223" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>Internet</t>
         </is>
       </c>
     </row>
     <row r="224">
       <c r="A224" s="1" t="inlineStr">
         <is>
-          <t>979cf0ba-bf94-4f4e-97cb-4da50b92fa05</t>
+          <t>a15a2dac-76bc-475d-84bf-0fb7a82af490</t>
         </is>
       </c>
       <c r="B224" s="2" t="n">
         <v>44926</v>
       </c>
-      <c r="C224" t="inlineStr"/>
+      <c r="C224" s="2" t="n">
+        <v>44926</v>
+      </c>
       <c r="D224" s="2" t="n">
-        <v>44917</v>
+        <v>44919</v>
       </c>
       <c r="E224" s="2" t="n">
-        <v>44917</v>
+        <v>44920</v>
       </c>
       <c r="F224" t="inlineStr">
         <is>
-          <t>GOOGLE *Domains</t>
+          <t>SQ *FIELD DAY COFFEE</t>
         </is>
       </c>
       <c r="G224" t="inlineStr">
         <is>
-          <t>Bills &amp; Utilities</t>
+          <t>Food &amp; Drink</t>
         </is>
       </c>
       <c r="H224" t="inlineStr">
@@ -12089,49 +11883,51 @@
         </is>
       </c>
       <c r="I224" t="n">
-        <v>-6</v>
+        <v>-7.26</v>
       </c>
       <c r="J224" s="2" t="n">
         <v>44926</v>
       </c>
       <c r="K224" t="inlineStr">
         <is>
-          <t>Amazon</t>
+          <t>Sapphire</t>
         </is>
       </c>
       <c r="L224" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M224" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>Travel</t>
         </is>
       </c>
     </row>
     <row r="225">
       <c r="A225" s="1" t="inlineStr">
         <is>
-          <t>1269bd7f-f0cf-4bcd-83ec-9636f5d58097</t>
+          <t>da78a1a6-4696-4c4e-811f-76348c15942c</t>
         </is>
       </c>
       <c r="B225" s="2" t="n">
         <v>44926</v>
       </c>
-      <c r="C225" t="inlineStr"/>
+      <c r="C225" s="2" t="n">
+        <v>44926</v>
+      </c>
       <c r="D225" s="2" t="n">
-        <v>44917</v>
+        <v>44919</v>
       </c>
       <c r="E225" s="2" t="n">
-        <v>44918</v>
+        <v>44920</v>
       </c>
       <c r="F225" t="inlineStr">
         <is>
-          <t>TST* Pizza Thief</t>
+          <t>AVIS RENT-A-CAR</t>
         </is>
       </c>
       <c r="G225" t="inlineStr">
         <is>
-          <t>Food &amp; Drink</t>
+          <t>Travel</t>
         </is>
       </c>
       <c r="H225" t="inlineStr">
@@ -12140,49 +11936,51 @@
         </is>
       </c>
       <c r="I225" t="n">
-        <v>-6.75</v>
+        <v>-299.65</v>
       </c>
       <c r="J225" s="2" t="n">
         <v>44926</v>
       </c>
       <c r="K225" t="inlineStr">
         <is>
-          <t>Sapphire</t>
+          <t>Amazon</t>
         </is>
       </c>
       <c r="L225" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M225" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>Travel</t>
         </is>
       </c>
     </row>
     <row r="226">
       <c r="A226" s="1" t="inlineStr">
         <is>
-          <t>22aee82c-d374-4c48-8fa5-6010773ed409</t>
+          <t>af363c79-580c-4fcb-84f2-fee73c5b2164</t>
         </is>
       </c>
       <c r="B226" s="2" t="n">
         <v>44926</v>
       </c>
-      <c r="C226" t="inlineStr"/>
+      <c r="C226" s="2" t="n">
+        <v>44926</v>
+      </c>
       <c r="D226" s="2" t="n">
-        <v>44917</v>
+        <v>44919</v>
       </c>
       <c r="E226" s="2" t="n">
-        <v>44918</v>
+        <v>44920</v>
       </c>
       <c r="F226" t="inlineStr">
         <is>
-          <t>TST* Pizza Thief</t>
+          <t>76 - ADEL BICHAY &amp;amp; TAM</t>
         </is>
       </c>
       <c r="G226" t="inlineStr">
         <is>
-          <t>Food &amp; Drink</t>
+          <t>Gas</t>
         </is>
       </c>
       <c r="H226" t="inlineStr">
@@ -12191,49 +11989,51 @@
         </is>
       </c>
       <c r="I226" t="n">
-        <v>-16</v>
+        <v>-60.19</v>
       </c>
       <c r="J226" s="2" t="n">
         <v>44926</v>
       </c>
       <c r="K226" t="inlineStr">
         <is>
-          <t>Sapphire</t>
+          <t>Amazon</t>
         </is>
       </c>
       <c r="L226" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M226" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>Travel</t>
         </is>
       </c>
     </row>
     <row r="227">
       <c r="A227" s="1" t="inlineStr">
         <is>
-          <t>e4bb6897-9fd4-41bc-be06-6d58dc49fc02</t>
+          <t>65e10d2f-609d-49a4-baf6-f0e7046e0260</t>
         </is>
       </c>
       <c r="B227" s="2" t="n">
         <v>44926</v>
       </c>
-      <c r="C227" t="inlineStr"/>
+      <c r="C227" s="2" t="n">
+        <v>44926</v>
+      </c>
       <c r="D227" s="2" t="n">
-        <v>44917</v>
+        <v>44919</v>
       </c>
       <c r="E227" s="2" t="n">
-        <v>44920</v>
+        <v>44921</v>
       </c>
       <c r="F227" t="inlineStr">
         <is>
-          <t>STARBUCKS STORE 00428</t>
+          <t>SHELL OIL 57445238207</t>
         </is>
       </c>
       <c r="G227" t="inlineStr">
         <is>
-          <t>Food &amp; Drink</t>
+          <t>Gas</t>
         </is>
       </c>
       <c r="H227" t="inlineStr">
@@ -12242,7 +12042,7 @@
         </is>
       </c>
       <c r="I227" t="n">
-        <v>-7</v>
+        <v>-13.02</v>
       </c>
       <c r="J227" s="2" t="n">
         <v>44926</v>
@@ -12253,33 +12053,35 @@
         </is>
       </c>
       <c r="L227" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M227" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>Travel</t>
         </is>
       </c>
     </row>
     <row r="228">
       <c r="A228" s="1" t="inlineStr">
         <is>
-          <t>a683af98-6527-4b33-95de-7141a1b4facc</t>
+          <t>9513e49b-f7c8-4aff-9434-fd16634af30f</t>
         </is>
       </c>
       <c r="B228" s="2" t="n">
         <v>44926</v>
       </c>
-      <c r="C228" t="inlineStr"/>
+      <c r="C228" s="2" t="n">
+        <v>44926</v>
+      </c>
       <c r="D228" s="2" t="n">
-        <v>44917</v>
+        <v>44919</v>
       </c>
       <c r="E228" s="2" t="n">
-        <v>44918</v>
+        <v>44920</v>
       </c>
       <c r="F228" t="inlineStr">
         <is>
-          <t>76 - PLAID PANTRY 83</t>
+          <t>LOVE'S #652</t>
         </is>
       </c>
       <c r="G228" t="inlineStr">
@@ -12293,7 +12095,7 @@
         </is>
       </c>
       <c r="I228" t="n">
-        <v>-56.04</v>
+        <v>-40.93</v>
       </c>
       <c r="J228" s="2" t="n">
         <v>44926</v>
@@ -12304,87 +12106,93 @@
         </is>
       </c>
       <c r="L228" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M228" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>Travel</t>
         </is>
       </c>
     </row>
     <row r="229">
       <c r="A229" s="1" t="inlineStr">
         <is>
-          <t>aa3c5ad4-0212-4fb6-8d96-03b5b3f2de17</t>
+          <t>8ed8c049-1b90-4441-9ac0-666453cf6980</t>
         </is>
       </c>
       <c r="B229" s="2" t="n">
         <v>44926</v>
       </c>
-      <c r="C229" t="inlineStr"/>
+      <c r="C229" s="2" t="n">
+        <v>44927</v>
+      </c>
       <c r="D229" s="2" t="n">
-        <v>44918</v>
-      </c>
-      <c r="E229" t="inlineStr"/>
+        <v>44922</v>
+      </c>
+      <c r="E229" s="2" t="n">
+        <v>44924</v>
+      </c>
       <c r="F229" t="inlineStr">
         <is>
-          <t>TOYOTA MOTOR SAL PAYROLL 568349-TMN</t>
+          <t>MISTURA RESTAURANT</t>
         </is>
       </c>
       <c r="G229" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>Food &amp; Drink</t>
         </is>
       </c>
       <c r="H229" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>Sale</t>
         </is>
       </c>
       <c r="I229" t="n">
-        <v>2214.61</v>
+        <v>-203.12</v>
       </c>
       <c r="J229" s="2" t="n">
         <v>44926</v>
       </c>
       <c r="K229" t="inlineStr">
         <is>
-          <t>Mechanics</t>
+          <t>Sapphire</t>
         </is>
       </c>
       <c r="L229" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M229" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>Eating Out</t>
         </is>
       </c>
     </row>
     <row r="230">
       <c r="A230" s="1" t="inlineStr">
         <is>
-          <t>4e00b836-873c-47e7-9f1b-6a635e9e1c6a</t>
+          <t>04777a37-6bb3-46f3-aa06-ddf3a1946fe4</t>
         </is>
       </c>
       <c r="B230" s="2" t="n">
         <v>44926</v>
       </c>
-      <c r="C230" t="inlineStr"/>
+      <c r="C230" s="2" t="n">
+        <v>44926</v>
+      </c>
       <c r="D230" s="2" t="n">
-        <v>44918</v>
+        <v>44922</v>
       </c>
       <c r="E230" s="2" t="n">
-        <v>44920</v>
+        <v>44923</v>
       </c>
       <c r="F230" t="inlineStr">
         <is>
-          <t>SQ *STERLING COFFEE</t>
+          <t>PDX AIRPORT PARKING</t>
         </is>
       </c>
       <c r="G230" t="inlineStr">
         <is>
-          <t>Food &amp; Drink</t>
+          <t>Travel</t>
         </is>
       </c>
       <c r="H230" t="inlineStr">
@@ -12393,51 +12201,51 @@
         </is>
       </c>
       <c r="I230" t="n">
-        <v>-11.96</v>
+        <v>-126</v>
       </c>
       <c r="J230" s="2" t="n">
         <v>44926</v>
       </c>
       <c r="K230" t="inlineStr">
         <is>
-          <t>Sapphire</t>
+          <t>Amazon</t>
         </is>
       </c>
       <c r="L230" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M230" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>Travel</t>
         </is>
       </c>
     </row>
     <row r="231">
       <c r="A231" s="1" t="inlineStr">
         <is>
-          <t>94000b2e-765b-4131-9c9e-43ae3c02aed2</t>
+          <t>ef6a7743-940e-4e1f-8908-322b9923df6d</t>
         </is>
       </c>
       <c r="B231" s="2" t="n">
         <v>44926</v>
       </c>
       <c r="C231" s="2" t="n">
-        <v>44926</v>
+        <v>44927</v>
       </c>
       <c r="D231" s="2" t="n">
-        <v>44918</v>
+        <v>44922</v>
       </c>
       <c r="E231" s="2" t="n">
-        <v>44920</v>
+        <v>44923</v>
       </c>
       <c r="F231" t="inlineStr">
         <is>
-          <t>PILOT_00391</t>
+          <t>SAN LUIS OBISPO PARKING</t>
         </is>
       </c>
       <c r="G231" t="inlineStr">
         <is>
-          <t>Gas</t>
+          <t>Travel</t>
         </is>
       </c>
       <c r="H231" t="inlineStr">
@@ -12446,7 +12254,7 @@
         </is>
       </c>
       <c r="I231" t="n">
-        <v>-35.33</v>
+        <v>-1</v>
       </c>
       <c r="J231" s="2" t="n">
         <v>44926</v>
@@ -12461,34 +12269,36 @@
       </c>
       <c r="M231" t="inlineStr">
         <is>
-          <t>Travel</t>
+          <t>Parking</t>
         </is>
       </c>
     </row>
     <row r="232">
       <c r="A232" s="1" t="inlineStr">
         <is>
-          <t>51894e26-61b3-4b6d-b54f-431b5d00a7f5</t>
+          <t>ecea4018-75c4-4a59-aa5b-da9f978e4d1a</t>
         </is>
       </c>
       <c r="B232" s="2" t="n">
         <v>44926</v>
       </c>
-      <c r="C232" t="inlineStr"/>
+      <c r="C232" s="2" t="n">
+        <v>44927</v>
+      </c>
       <c r="D232" s="2" t="n">
-        <v>44918</v>
+        <v>44922</v>
       </c>
       <c r="E232" s="2" t="n">
-        <v>44920</v>
+        <v>44923</v>
       </c>
       <c r="F232" t="inlineStr">
         <is>
-          <t>AVIS.COM PREPAY</t>
+          <t>TST* KREUZBERG CALIFORNIA</t>
         </is>
       </c>
       <c r="G232" t="inlineStr">
         <is>
-          <t>Travel</t>
+          <t>Food &amp; Drink</t>
         </is>
       </c>
       <c r="H232" t="inlineStr">
@@ -12497,29 +12307,29 @@
         </is>
       </c>
       <c r="I232" t="n">
-        <v>-162.25</v>
+        <v>-7</v>
       </c>
       <c r="J232" s="2" t="n">
         <v>44926</v>
       </c>
       <c r="K232" t="inlineStr">
         <is>
-          <t>Amazon</t>
+          <t>Sapphire</t>
         </is>
       </c>
       <c r="L232" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M232" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>Eating Out</t>
         </is>
       </c>
     </row>
     <row r="233">
       <c r="A233" s="1" t="inlineStr">
         <is>
-          <t>20eadf3f-8a78-4eab-a66d-63dd9d1864ca</t>
+          <t>b01ff292-aa90-4f2d-b6df-f9f54530fcb2</t>
         </is>
       </c>
       <c r="B233" s="2" t="n">
@@ -12527,28 +12337,24 @@
       </c>
       <c r="C233" t="inlineStr"/>
       <c r="D233" s="2" t="n">
-        <v>44918</v>
+        <v>44923</v>
       </c>
       <c r="E233" s="2" t="n">
-        <v>44920</v>
+        <v>44923</v>
       </c>
       <c r="F233" t="inlineStr">
         <is>
-          <t>AVIS.COM PREPAY</t>
-        </is>
-      </c>
-      <c r="G233" t="inlineStr">
-        <is>
-          <t>Travel</t>
-        </is>
-      </c>
+          <t>AUTOMATIC PAYMENT - THANK</t>
+        </is>
+      </c>
+      <c r="G233" t="inlineStr"/>
       <c r="H233" t="inlineStr">
         <is>
-          <t>Return</t>
+          <t>Payment</t>
         </is>
       </c>
       <c r="I233" t="n">
-        <v>162.25</v>
+        <v>118.04</v>
       </c>
       <c r="J233" s="2" t="n">
         <v>44926</v>
@@ -12561,33 +12367,29 @@
       <c r="L233" t="n">
         <v>0</v>
       </c>
-      <c r="M233" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="M233" t="inlineStr"/>
     </row>
     <row r="234">
       <c r="A234" s="1" t="inlineStr">
         <is>
-          <t>ba1d3d17-a3db-41aa-b1c7-55b3cceefe90</t>
+          <t>472d732c-7acc-4d4e-8cf3-69989cad3f1a</t>
         </is>
       </c>
       <c r="B234" s="2" t="n">
         <v>44926</v>
       </c>
       <c r="C234" s="2" t="n">
-        <v>44926</v>
+        <v>44927</v>
       </c>
       <c r="D234" s="2" t="n">
-        <v>44918</v>
+        <v>44923</v>
       </c>
       <c r="E234" s="2" t="n">
-        <v>44920</v>
+        <v>44925</v>
       </c>
       <c r="F234" t="inlineStr">
         <is>
-          <t>CHIPOTLE 2782</t>
+          <t>TST* Ecliptic Brewing</t>
         </is>
       </c>
       <c r="G234" t="inlineStr">
@@ -12601,7 +12403,7 @@
         </is>
       </c>
       <c r="I234" t="n">
-        <v>-12.2</v>
+        <v>-27.6</v>
       </c>
       <c r="J234" s="2" t="n">
         <v>44926</v>
@@ -12616,29 +12418,31 @@
       </c>
       <c r="M234" t="inlineStr">
         <is>
-          <t>Travel</t>
+          <t>Eating Out</t>
         </is>
       </c>
     </row>
     <row r="235">
       <c r="A235" s="1" t="inlineStr">
         <is>
-          <t>ad89d467-0355-47d6-90b4-ee9b002b54d6</t>
+          <t>5251b6dc-8e1b-49c0-8e53-a82dad60c3c2</t>
         </is>
       </c>
       <c r="B235" s="2" t="n">
         <v>44926</v>
       </c>
-      <c r="C235" t="inlineStr"/>
+      <c r="C235" s="2" t="n">
+        <v>44927</v>
+      </c>
       <c r="D235" s="2" t="n">
-        <v>44918</v>
+        <v>44923</v>
       </c>
       <c r="E235" s="2" t="n">
-        <v>44921</v>
+        <v>44924</v>
       </c>
       <c r="F235" t="inlineStr">
         <is>
-          <t>SAINT HONORE BOULANGERIE</t>
+          <t>SAN LUIS OBISPO  CA SL</t>
         </is>
       </c>
       <c r="G235" t="inlineStr">
@@ -12652,7 +12456,7 @@
         </is>
       </c>
       <c r="I235" t="n">
-        <v>-27.95</v>
+        <v>-12.8</v>
       </c>
       <c r="J235" s="2" t="n">
         <v>44926</v>
@@ -12663,38 +12467,40 @@
         </is>
       </c>
       <c r="L235" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M235" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>Eating Out</t>
         </is>
       </c>
     </row>
     <row r="236">
       <c r="A236" s="1" t="inlineStr">
         <is>
-          <t>37422ab4-33ab-4672-a509-0df15ad1878d</t>
+          <t>627407fb-ade2-4dac-8f73-6d08977c88fe</t>
         </is>
       </c>
       <c r="B236" s="2" t="n">
         <v>44926</v>
       </c>
-      <c r="C236" t="inlineStr"/>
+      <c r="C236" s="2" t="n">
+        <v>44927</v>
+      </c>
       <c r="D236" s="2" t="n">
-        <v>44918</v>
+        <v>44923</v>
       </c>
       <c r="E236" s="2" t="n">
-        <v>44918</v>
+        <v>44924</v>
       </c>
       <c r="F236" t="inlineStr">
         <is>
-          <t>adidas 6536 Portland</t>
+          <t>SAN LUIS OBISPO  CA SL</t>
         </is>
       </c>
       <c r="G236" t="inlineStr">
         <is>
-          <t>Shopping</t>
+          <t>Food &amp; Drink</t>
         </is>
       </c>
       <c r="H236" t="inlineStr">
@@ -12703,940 +12509,61 @@
         </is>
       </c>
       <c r="I236" t="n">
-        <v>-190.55</v>
+        <v>-12.8</v>
       </c>
       <c r="J236" s="2" t="n">
         <v>44926</v>
       </c>
       <c r="K236" t="inlineStr">
         <is>
-          <t>Amazon</t>
+          <t>Sapphire</t>
         </is>
       </c>
       <c r="L236" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M236" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>Eating Out</t>
         </is>
       </c>
     </row>
     <row r="237">
       <c r="A237" s="1" t="inlineStr">
         <is>
-          <t>39d31fd1-2c90-4bb8-b198-1bb9562987cf</t>
+          <t>083d592d-08f5-4f85-938b-f22986f841e7</t>
         </is>
       </c>
       <c r="B237" s="2" t="n">
         <v>44926</v>
       </c>
-      <c r="C237" s="2" t="n">
-        <v>44926</v>
-      </c>
+      <c r="C237" t="inlineStr"/>
       <c r="D237" s="2" t="n">
-        <v>44918</v>
-      </c>
-      <c r="E237" s="2" t="n">
-        <v>44921</v>
-      </c>
+        <v>44924</v>
+      </c>
+      <c r="E237" t="inlineStr"/>
       <c r="F237" t="inlineStr">
         <is>
-          <t>PILOT         00003913</t>
-        </is>
-      </c>
-      <c r="G237" t="inlineStr">
-        <is>
-          <t>Gas</t>
-        </is>
-      </c>
-      <c r="H237" t="inlineStr">
-        <is>
-          <t>Sale</t>
-        </is>
-      </c>
+          <t>CHASE CREDIT CRD AUTOPAY 000000000508601</t>
+        </is>
+      </c>
+      <c r="G237" t="inlineStr"/>
+      <c r="H237" t="inlineStr"/>
       <c r="I237" t="n">
-        <v>-19.28</v>
+        <v>-118.04</v>
       </c>
       <c r="J237" s="2" t="n">
         <v>44926</v>
       </c>
       <c r="K237" t="inlineStr">
         <is>
-          <t>Sapphire</t>
+          <t>Mechanics</t>
         </is>
       </c>
       <c r="L237" t="n">
-        <v>1</v>
-      </c>
-      <c r="M237" t="inlineStr">
-        <is>
-          <t>Travel</t>
-        </is>
-      </c>
-    </row>
-    <row r="238">
-      <c r="A238" s="1" t="inlineStr">
-        <is>
-          <t>a9c81718-234b-4c46-9d89-01fe3acbf954</t>
-        </is>
-      </c>
-      <c r="B238" s="2" t="n">
-        <v>44926</v>
-      </c>
-      <c r="C238" t="inlineStr"/>
-      <c r="D238" s="2" t="n">
-        <v>44918</v>
-      </c>
-      <c r="E238" s="2" t="n">
-        <v>44921</v>
-      </c>
-      <c r="F238" t="inlineStr">
-        <is>
-          <t>SAINT HONORE BOULANGERIE</t>
-        </is>
-      </c>
-      <c r="G238" t="inlineStr">
-        <is>
-          <t>Food &amp; Drink</t>
-        </is>
-      </c>
-      <c r="H238" t="inlineStr">
-        <is>
-          <t>Sale</t>
-        </is>
-      </c>
-      <c r="I238" t="n">
-        <v>-3.74</v>
-      </c>
-      <c r="J238" s="2" t="n">
-        <v>44926</v>
-      </c>
-      <c r="K238" t="inlineStr">
-        <is>
-          <t>Sapphire</t>
-        </is>
-      </c>
-      <c r="L238" t="n">
         <v>0</v>
       </c>
-      <c r="M238" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-    </row>
-    <row r="239">
-      <c r="A239" s="1" t="inlineStr">
-        <is>
-          <t>af363c79-580c-4fcb-84f2-fee73c5b2164</t>
-        </is>
-      </c>
-      <c r="B239" s="2" t="n">
-        <v>44926</v>
-      </c>
-      <c r="C239" s="2" t="n">
-        <v>44926</v>
-      </c>
-      <c r="D239" s="2" t="n">
-        <v>44919</v>
-      </c>
-      <c r="E239" s="2" t="n">
-        <v>44920</v>
-      </c>
-      <c r="F239" t="inlineStr">
-        <is>
-          <t>76 - ADEL BICHAY &amp;amp; TAM</t>
-        </is>
-      </c>
-      <c r="G239" t="inlineStr">
-        <is>
-          <t>Gas</t>
-        </is>
-      </c>
-      <c r="H239" t="inlineStr">
-        <is>
-          <t>Sale</t>
-        </is>
-      </c>
-      <c r="I239" t="n">
-        <v>-60.19</v>
-      </c>
-      <c r="J239" s="2" t="n">
-        <v>44926</v>
-      </c>
-      <c r="K239" t="inlineStr">
-        <is>
-          <t>Amazon</t>
-        </is>
-      </c>
-      <c r="L239" t="n">
-        <v>1</v>
-      </c>
-      <c r="M239" t="inlineStr">
-        <is>
-          <t>Travel</t>
-        </is>
-      </c>
-    </row>
-    <row r="240">
-      <c r="A240" s="1" t="inlineStr">
-        <is>
-          <t>bce462ce-ee3f-4121-9f6f-19c416134271</t>
-        </is>
-      </c>
-      <c r="B240" s="2" t="n">
-        <v>44926</v>
-      </c>
-      <c r="C240" t="inlineStr"/>
-      <c r="D240" s="2" t="n">
-        <v>44919</v>
-      </c>
-      <c r="E240" s="2" t="n">
-        <v>44920</v>
-      </c>
-      <c r="F240" t="inlineStr">
-        <is>
-          <t>COMCAST CABLE COMM</t>
-        </is>
-      </c>
-      <c r="G240" t="inlineStr">
-        <is>
-          <t>Bills &amp; Utilities</t>
-        </is>
-      </c>
-      <c r="H240" t="inlineStr">
-        <is>
-          <t>Sale</t>
-        </is>
-      </c>
-      <c r="I240" t="n">
-        <v>-35.12</v>
-      </c>
-      <c r="J240" s="2" t="n">
-        <v>44926</v>
-      </c>
-      <c r="K240" t="inlineStr">
-        <is>
-          <t>Amazon</t>
-        </is>
-      </c>
-      <c r="L240" t="n">
-        <v>0</v>
-      </c>
-      <c r="M240" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-    </row>
-    <row r="241">
-      <c r="A241" s="1" t="inlineStr">
-        <is>
-          <t>9513e49b-f7c8-4aff-9434-fd16634af30f</t>
-        </is>
-      </c>
-      <c r="B241" s="2" t="n">
-        <v>44926</v>
-      </c>
-      <c r="C241" s="2" t="n">
-        <v>44926</v>
-      </c>
-      <c r="D241" s="2" t="n">
-        <v>44919</v>
-      </c>
-      <c r="E241" s="2" t="n">
-        <v>44920</v>
-      </c>
-      <c r="F241" t="inlineStr">
-        <is>
-          <t>LOVE'S #652</t>
-        </is>
-      </c>
-      <c r="G241" t="inlineStr">
-        <is>
-          <t>Gas</t>
-        </is>
-      </c>
-      <c r="H241" t="inlineStr">
-        <is>
-          <t>Sale</t>
-        </is>
-      </c>
-      <c r="I241" t="n">
-        <v>-40.93</v>
-      </c>
-      <c r="J241" s="2" t="n">
-        <v>44926</v>
-      </c>
-      <c r="K241" t="inlineStr">
-        <is>
-          <t>Amazon</t>
-        </is>
-      </c>
-      <c r="L241" t="n">
-        <v>1</v>
-      </c>
-      <c r="M241" t="inlineStr">
-        <is>
-          <t>Travel</t>
-        </is>
-      </c>
-    </row>
-    <row r="242">
-      <c r="A242" s="1" t="inlineStr">
-        <is>
-          <t>da78a1a6-4696-4c4e-811f-76348c15942c</t>
-        </is>
-      </c>
-      <c r="B242" s="2" t="n">
-        <v>44926</v>
-      </c>
-      <c r="C242" s="2" t="n">
-        <v>44926</v>
-      </c>
-      <c r="D242" s="2" t="n">
-        <v>44919</v>
-      </c>
-      <c r="E242" s="2" t="n">
-        <v>44920</v>
-      </c>
-      <c r="F242" t="inlineStr">
-        <is>
-          <t>AVIS RENT-A-CAR</t>
-        </is>
-      </c>
-      <c r="G242" t="inlineStr">
-        <is>
-          <t>Travel</t>
-        </is>
-      </c>
-      <c r="H242" t="inlineStr">
-        <is>
-          <t>Sale</t>
-        </is>
-      </c>
-      <c r="I242" t="n">
-        <v>-299.65</v>
-      </c>
-      <c r="J242" s="2" t="n">
-        <v>44926</v>
-      </c>
-      <c r="K242" t="inlineStr">
-        <is>
-          <t>Amazon</t>
-        </is>
-      </c>
-      <c r="L242" t="n">
-        <v>1</v>
-      </c>
-      <c r="M242" t="inlineStr">
-        <is>
-          <t>Travel</t>
-        </is>
-      </c>
-    </row>
-    <row r="243">
-      <c r="A243" s="1" t="inlineStr">
-        <is>
-          <t>a15a2dac-76bc-475d-84bf-0fb7a82af490</t>
-        </is>
-      </c>
-      <c r="B243" s="2" t="n">
-        <v>44926</v>
-      </c>
-      <c r="C243" s="2" t="n">
-        <v>44926</v>
-      </c>
-      <c r="D243" s="2" t="n">
-        <v>44919</v>
-      </c>
-      <c r="E243" s="2" t="n">
-        <v>44920</v>
-      </c>
-      <c r="F243" t="inlineStr">
-        <is>
-          <t>SQ *FIELD DAY COFFEE</t>
-        </is>
-      </c>
-      <c r="G243" t="inlineStr">
-        <is>
-          <t>Food &amp; Drink</t>
-        </is>
-      </c>
-      <c r="H243" t="inlineStr">
-        <is>
-          <t>Sale</t>
-        </is>
-      </c>
-      <c r="I243" t="n">
-        <v>-7.26</v>
-      </c>
-      <c r="J243" s="2" t="n">
-        <v>44926</v>
-      </c>
-      <c r="K243" t="inlineStr">
-        <is>
-          <t>Sapphire</t>
-        </is>
-      </c>
-      <c r="L243" t="n">
-        <v>1</v>
-      </c>
-      <c r="M243" t="inlineStr">
-        <is>
-          <t>Travel</t>
-        </is>
-      </c>
-    </row>
-    <row r="244">
-      <c r="A244" s="1" t="inlineStr">
-        <is>
-          <t>65e10d2f-609d-49a4-baf6-f0e7046e0260</t>
-        </is>
-      </c>
-      <c r="B244" s="2" t="n">
-        <v>44926</v>
-      </c>
-      <c r="C244" s="2" t="n">
-        <v>44926</v>
-      </c>
-      <c r="D244" s="2" t="n">
-        <v>44919</v>
-      </c>
-      <c r="E244" s="2" t="n">
-        <v>44921</v>
-      </c>
-      <c r="F244" t="inlineStr">
-        <is>
-          <t>SHELL OIL 57445238207</t>
-        </is>
-      </c>
-      <c r="G244" t="inlineStr">
-        <is>
-          <t>Gas</t>
-        </is>
-      </c>
-      <c r="H244" t="inlineStr">
-        <is>
-          <t>Sale</t>
-        </is>
-      </c>
-      <c r="I244" t="n">
-        <v>-13.02</v>
-      </c>
-      <c r="J244" s="2" t="n">
-        <v>44926</v>
-      </c>
-      <c r="K244" t="inlineStr">
-        <is>
-          <t>Sapphire</t>
-        </is>
-      </c>
-      <c r="L244" t="n">
-        <v>1</v>
-      </c>
-      <c r="M244" t="inlineStr">
-        <is>
-          <t>Travel</t>
-        </is>
-      </c>
-    </row>
-    <row r="245">
-      <c r="A245" s="1" t="inlineStr">
-        <is>
-          <t>ecea4018-75c4-4a59-aa5b-da9f978e4d1a</t>
-        </is>
-      </c>
-      <c r="B245" s="2" t="n">
-        <v>44926</v>
-      </c>
-      <c r="C245" t="inlineStr"/>
-      <c r="D245" s="2" t="n">
-        <v>44922</v>
-      </c>
-      <c r="E245" s="2" t="n">
-        <v>44923</v>
-      </c>
-      <c r="F245" t="inlineStr">
-        <is>
-          <t>TST* KREUZBERG CALIFORNIA</t>
-        </is>
-      </c>
-      <c r="G245" t="inlineStr">
-        <is>
-          <t>Food &amp; Drink</t>
-        </is>
-      </c>
-      <c r="H245" t="inlineStr">
-        <is>
-          <t>Sale</t>
-        </is>
-      </c>
-      <c r="I245" t="n">
-        <v>-7</v>
-      </c>
-      <c r="J245" s="2" t="n">
-        <v>44926</v>
-      </c>
-      <c r="K245" t="inlineStr">
-        <is>
-          <t>Sapphire</t>
-        </is>
-      </c>
-      <c r="L245" t="n">
-        <v>0</v>
-      </c>
-      <c r="M245" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-    </row>
-    <row r="246">
-      <c r="A246" s="1" t="inlineStr">
-        <is>
-          <t>8ed8c049-1b90-4441-9ac0-666453cf6980</t>
-        </is>
-      </c>
-      <c r="B246" s="2" t="n">
-        <v>44926</v>
-      </c>
-      <c r="C246" t="inlineStr"/>
-      <c r="D246" s="2" t="n">
-        <v>44922</v>
-      </c>
-      <c r="E246" s="2" t="n">
-        <v>44924</v>
-      </c>
-      <c r="F246" t="inlineStr">
-        <is>
-          <t>MISTURA RESTAURANT</t>
-        </is>
-      </c>
-      <c r="G246" t="inlineStr">
-        <is>
-          <t>Food &amp; Drink</t>
-        </is>
-      </c>
-      <c r="H246" t="inlineStr">
-        <is>
-          <t>Sale</t>
-        </is>
-      </c>
-      <c r="I246" t="n">
-        <v>-203.12</v>
-      </c>
-      <c r="J246" s="2" t="n">
-        <v>44926</v>
-      </c>
-      <c r="K246" t="inlineStr">
-        <is>
-          <t>Sapphire</t>
-        </is>
-      </c>
-      <c r="L246" t="n">
-        <v>0</v>
-      </c>
-      <c r="M246" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-    </row>
-    <row r="247">
-      <c r="A247" s="1" t="inlineStr">
-        <is>
-          <t>04777a37-6bb3-46f3-aa06-ddf3a1946fe4</t>
-        </is>
-      </c>
-      <c r="B247" s="2" t="n">
-        <v>44926</v>
-      </c>
-      <c r="C247" s="2" t="n">
-        <v>44926</v>
-      </c>
-      <c r="D247" s="2" t="n">
-        <v>44922</v>
-      </c>
-      <c r="E247" s="2" t="n">
-        <v>44923</v>
-      </c>
-      <c r="F247" t="inlineStr">
-        <is>
-          <t>PDX AIRPORT PARKING</t>
-        </is>
-      </c>
-      <c r="G247" t="inlineStr">
-        <is>
-          <t>Travel</t>
-        </is>
-      </c>
-      <c r="H247" t="inlineStr">
-        <is>
-          <t>Sale</t>
-        </is>
-      </c>
-      <c r="I247" t="n">
-        <v>-126</v>
-      </c>
-      <c r="J247" s="2" t="n">
-        <v>44926</v>
-      </c>
-      <c r="K247" t="inlineStr">
-        <is>
-          <t>Amazon</t>
-        </is>
-      </c>
-      <c r="L247" t="n">
-        <v>1</v>
-      </c>
-      <c r="M247" t="inlineStr">
-        <is>
-          <t>Travel</t>
-        </is>
-      </c>
-    </row>
-    <row r="248">
-      <c r="A248" s="1" t="inlineStr">
-        <is>
-          <t>ef6a7743-940e-4e1f-8908-322b9923df6d</t>
-        </is>
-      </c>
-      <c r="B248" s="2" t="n">
-        <v>44926</v>
-      </c>
-      <c r="C248" t="inlineStr"/>
-      <c r="D248" s="2" t="n">
-        <v>44922</v>
-      </c>
-      <c r="E248" s="2" t="n">
-        <v>44923</v>
-      </c>
-      <c r="F248" t="inlineStr">
-        <is>
-          <t>SAN LUIS OBISPO PARKING</t>
-        </is>
-      </c>
-      <c r="G248" t="inlineStr">
-        <is>
-          <t>Travel</t>
-        </is>
-      </c>
-      <c r="H248" t="inlineStr">
-        <is>
-          <t>Sale</t>
-        </is>
-      </c>
-      <c r="I248" t="n">
-        <v>-1</v>
-      </c>
-      <c r="J248" s="2" t="n">
-        <v>44926</v>
-      </c>
-      <c r="K248" t="inlineStr">
-        <is>
-          <t>Amazon</t>
-        </is>
-      </c>
-      <c r="L248" t="n">
-        <v>0</v>
-      </c>
-      <c r="M248" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-    </row>
-    <row r="249">
-      <c r="A249" s="1" t="inlineStr">
-        <is>
-          <t>5251b6dc-8e1b-49c0-8e53-a82dad60c3c2</t>
-        </is>
-      </c>
-      <c r="B249" s="2" t="n">
-        <v>44926</v>
-      </c>
-      <c r="C249" t="inlineStr"/>
-      <c r="D249" s="2" t="n">
-        <v>44923</v>
-      </c>
-      <c r="E249" s="2" t="n">
-        <v>44924</v>
-      </c>
-      <c r="F249" t="inlineStr">
-        <is>
-          <t>SAN LUIS OBISPO  CA SL</t>
-        </is>
-      </c>
-      <c r="G249" t="inlineStr">
-        <is>
-          <t>Food &amp; Drink</t>
-        </is>
-      </c>
-      <c r="H249" t="inlineStr">
-        <is>
-          <t>Sale</t>
-        </is>
-      </c>
-      <c r="I249" t="n">
-        <v>-12.8</v>
-      </c>
-      <c r="J249" s="2" t="n">
-        <v>44926</v>
-      </c>
-      <c r="K249" t="inlineStr">
-        <is>
-          <t>Sapphire</t>
-        </is>
-      </c>
-      <c r="L249" t="n">
-        <v>0</v>
-      </c>
-      <c r="M249" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-    </row>
-    <row r="250">
-      <c r="A250" s="1" t="inlineStr">
-        <is>
-          <t>627407fb-ade2-4dac-8f73-6d08977c88fe</t>
-        </is>
-      </c>
-      <c r="B250" s="2" t="n">
-        <v>44926</v>
-      </c>
-      <c r="C250" t="inlineStr"/>
-      <c r="D250" s="2" t="n">
-        <v>44923</v>
-      </c>
-      <c r="E250" s="2" t="n">
-        <v>44924</v>
-      </c>
-      <c r="F250" t="inlineStr">
-        <is>
-          <t>SAN LUIS OBISPO  CA SL</t>
-        </is>
-      </c>
-      <c r="G250" t="inlineStr">
-        <is>
-          <t>Food &amp; Drink</t>
-        </is>
-      </c>
-      <c r="H250" t="inlineStr">
-        <is>
-          <t>Sale</t>
-        </is>
-      </c>
-      <c r="I250" t="n">
-        <v>-12.8</v>
-      </c>
-      <c r="J250" s="2" t="n">
-        <v>44926</v>
-      </c>
-      <c r="K250" t="inlineStr">
-        <is>
-          <t>Sapphire</t>
-        </is>
-      </c>
-      <c r="L250" t="n">
-        <v>0</v>
-      </c>
-      <c r="M250" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-    </row>
-    <row r="251">
-      <c r="A251" s="1" t="inlineStr">
-        <is>
-          <t>b01ff292-aa90-4f2d-b6df-f9f54530fcb2</t>
-        </is>
-      </c>
-      <c r="B251" s="2" t="n">
-        <v>44926</v>
-      </c>
-      <c r="C251" t="inlineStr"/>
-      <c r="D251" s="2" t="n">
-        <v>44923</v>
-      </c>
-      <c r="E251" s="2" t="n">
-        <v>44923</v>
-      </c>
-      <c r="F251" t="inlineStr">
-        <is>
-          <t>AUTOMATIC PAYMENT - THANK</t>
-        </is>
-      </c>
-      <c r="G251" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="H251" t="inlineStr">
-        <is>
-          <t>Payment</t>
-        </is>
-      </c>
-      <c r="I251" t="n">
-        <v>118.04</v>
-      </c>
-      <c r="J251" s="2" t="n">
-        <v>44926</v>
-      </c>
-      <c r="K251" t="inlineStr">
-        <is>
-          <t>Amazon</t>
-        </is>
-      </c>
-      <c r="L251" t="n">
-        <v>0</v>
-      </c>
-      <c r="M251" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-    </row>
-    <row r="252">
-      <c r="A252" s="1" t="inlineStr">
-        <is>
-          <t>472d732c-7acc-4d4e-8cf3-69989cad3f1a</t>
-        </is>
-      </c>
-      <c r="B252" s="2" t="n">
-        <v>44926</v>
-      </c>
-      <c r="C252" t="inlineStr"/>
-      <c r="D252" s="2" t="n">
-        <v>44923</v>
-      </c>
-      <c r="E252" s="2" t="n">
-        <v>44925</v>
-      </c>
-      <c r="F252" t="inlineStr">
-        <is>
-          <t>TST* Ecliptic Brewing</t>
-        </is>
-      </c>
-      <c r="G252" t="inlineStr">
-        <is>
-          <t>Food &amp; Drink</t>
-        </is>
-      </c>
-      <c r="H252" t="inlineStr">
-        <is>
-          <t>Sale</t>
-        </is>
-      </c>
-      <c r="I252" t="n">
-        <v>-27.6</v>
-      </c>
-      <c r="J252" s="2" t="n">
-        <v>44926</v>
-      </c>
-      <c r="K252" t="inlineStr">
-        <is>
-          <t>Sapphire</t>
-        </is>
-      </c>
-      <c r="L252" t="n">
-        <v>0</v>
-      </c>
-      <c r="M252" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-    </row>
-    <row r="253">
-      <c r="A253" s="1" t="inlineStr">
-        <is>
-          <t>083d592d-08f5-4f85-938b-f22986f841e7</t>
-        </is>
-      </c>
-      <c r="B253" s="2" t="n">
-        <v>44926</v>
-      </c>
-      <c r="C253" t="inlineStr"/>
-      <c r="D253" s="2" t="n">
-        <v>44924</v>
-      </c>
-      <c r="E253" t="inlineStr"/>
-      <c r="F253" t="inlineStr">
-        <is>
-          <t>CHASE CREDIT CRD AUTOPAY 000000000508601</t>
-        </is>
-      </c>
-      <c r="G253" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="H253" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="I253" t="n">
-        <v>-118.04</v>
-      </c>
-      <c r="J253" s="2" t="n">
-        <v>44926</v>
-      </c>
-      <c r="K253" t="inlineStr">
-        <is>
-          <t>Mechanics</t>
-        </is>
-      </c>
-      <c r="L253" t="n">
-        <v>0</v>
-      </c>
-      <c r="M253" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-    </row>
-    <row r="254">
-      <c r="A254" s="1" t="inlineStr">
-        <is>
-          <t>6bfa5d73-2d3a-4857-b13a-ccc450b9e439</t>
-        </is>
-      </c>
-      <c r="B254" s="2" t="n">
-        <v>44927</v>
-      </c>
-      <c r="C254" t="inlineStr"/>
-      <c r="D254" s="2" t="n">
-        <v>44896</v>
-      </c>
-      <c r="E254" t="inlineStr"/>
-      <c r="F254" t="inlineStr">
-        <is>
-          <t>APPLECARD GSBANK PAYMENT 2211736</t>
-        </is>
-      </c>
-      <c r="G254" t="inlineStr"/>
-      <c r="H254" t="inlineStr"/>
-      <c r="I254" t="n">
-        <v>-35.93</v>
-      </c>
-      <c r="J254" s="2" t="n">
-        <v>44927</v>
-      </c>
-      <c r="K254" t="inlineStr">
-        <is>
-          <t>Mechanics</t>
-        </is>
-      </c>
-      <c r="L254" t="n">
-        <v>0</v>
-      </c>
-      <c r="M254" t="inlineStr"/>
+      <c r="M237" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/datasets/transactions.xlsx
+++ b/datasets/transactions.xlsx
@@ -430,7 +430,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M237"/>
+  <dimension ref="A1:M240"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -603,7 +603,11 @@
       <c r="L3" t="n">
         <v>0</v>
       </c>
-      <c r="M3" t="inlineStr"/>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -1244,53 +1248,51 @@
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>85b043d6-c05a-447b-b11e-971b7c2437f2</t>
+          <t>d4b7239b-9488-4db4-847e-f49dd253bfa0</t>
         </is>
       </c>
       <c r="B16" s="2" t="n">
-        <v>44864</v>
-      </c>
-      <c r="C16" s="2" t="n">
-        <v>44866</v>
-      </c>
+        <v>44889</v>
+      </c>
+      <c r="C16" t="inlineStr"/>
       <c r="D16" s="2" t="n">
         <v>44841</v>
       </c>
       <c r="E16" s="2" t="n">
-        <v>44843</v>
+        <v>44878</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>SQ *HAMMER &amp;amp; STITCH BREWI</t>
+          <t>Amazon Prime*141K919I2</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Food &amp; Drink</t>
+          <t>Bills &amp; Utilities</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>Sale</t>
+          <t>Adjustment</t>
         </is>
       </c>
       <c r="I16" t="n">
-        <v>-9.380000000000001</v>
+        <v>15.62</v>
       </c>
       <c r="J16" s="2" t="n">
-        <v>44864</v>
+        <v>44889</v>
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>Sapphire</t>
+          <t>Amazon</t>
         </is>
       </c>
       <c r="L16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>Eating Out</t>
+          <t>nan</t>
         </is>
       </c>
     </row>
@@ -1350,49 +1352,55 @@
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>d4b7239b-9488-4db4-847e-f49dd253bfa0</t>
+          <t>85b043d6-c05a-447b-b11e-971b7c2437f2</t>
         </is>
       </c>
       <c r="B18" s="2" t="n">
-        <v>44889</v>
-      </c>
-      <c r="C18" t="inlineStr"/>
+        <v>44864</v>
+      </c>
+      <c r="C18" s="2" t="n">
+        <v>44866</v>
+      </c>
       <c r="D18" s="2" t="n">
         <v>44841</v>
       </c>
       <c r="E18" s="2" t="n">
-        <v>44878</v>
+        <v>44843</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Amazon Prime*141K919I2</t>
+          <t>SQ *HAMMER &amp;amp; STITCH BREWI</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Bills &amp; Utilities</t>
+          <t>Food &amp; Drink</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>Adjustment</t>
+          <t>Sale</t>
         </is>
       </c>
       <c r="I18" t="n">
-        <v>15.62</v>
+        <v>-9.380000000000001</v>
       </c>
       <c r="J18" s="2" t="n">
-        <v>44889</v>
+        <v>44864</v>
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>Amazon</t>
+          <t>Sapphire</t>
         </is>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
-      </c>
-      <c r="M18" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="M18" t="inlineStr">
+        <is>
+          <t>Eating Out</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
@@ -1704,7 +1712,11 @@
       <c r="L24" t="n">
         <v>0</v>
       </c>
-      <c r="M24" t="inlineStr"/>
+      <c r="M24" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
@@ -2080,90 +2092,102 @@
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
         <is>
-          <t>2323c33b-e3d5-4c2a-b26e-7f61ad1182cc</t>
+          <t>a8caa30a-4615-4696-85c1-1399fddfe85a</t>
         </is>
       </c>
       <c r="B32" s="2" t="n">
-        <v>44878</v>
-      </c>
-      <c r="C32" t="inlineStr"/>
+        <v>44864</v>
+      </c>
+      <c r="C32" s="2" t="n">
+        <v>44866</v>
+      </c>
       <c r="D32" s="2" t="n">
         <v>44848</v>
       </c>
-      <c r="E32" t="inlineStr"/>
+      <c r="E32" s="2" t="n">
+        <v>44851</v>
+      </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>TOYOTA MOTOR SAL PAYROLL 568349-TMN</t>
-        </is>
-      </c>
-      <c r="G32" t="inlineStr"/>
-      <c r="H32" t="inlineStr"/>
+          <t>SLIM'S RESTAURANT &amp;amp; LOU</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>Food &amp; Drink</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>Sale</t>
+        </is>
+      </c>
       <c r="I32" t="n">
-        <v>1743.83</v>
+        <v>-7.5</v>
       </c>
       <c r="J32" s="2" t="n">
-        <v>44878</v>
+        <v>44864</v>
       </c>
       <c r="K32" t="inlineStr">
         <is>
-          <t>Mechanics</t>
+          <t>Sapphire</t>
         </is>
       </c>
       <c r="L32" t="n">
-        <v>0</v>
-      </c>
-      <c r="M32" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="M32" t="inlineStr">
+        <is>
+          <t>Eating Out</t>
+        </is>
+      </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
         <is>
-          <t>a8caa30a-4615-4696-85c1-1399fddfe85a</t>
+          <t>2323c33b-e3d5-4c2a-b26e-7f61ad1182cc</t>
         </is>
       </c>
       <c r="B33" s="2" t="n">
-        <v>44864</v>
-      </c>
-      <c r="C33" s="2" t="n">
-        <v>44866</v>
-      </c>
+        <v>44878</v>
+      </c>
+      <c r="C33" t="inlineStr"/>
       <c r="D33" s="2" t="n">
         <v>44848</v>
       </c>
-      <c r="E33" s="2" t="n">
-        <v>44851</v>
-      </c>
+      <c r="E33" t="inlineStr"/>
       <c r="F33" t="inlineStr">
         <is>
-          <t>SLIM'S RESTAURANT &amp;amp; LOU</t>
+          <t>TOYOTA MOTOR SAL PAYROLL 568349-TMN</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>Food &amp; Drink</t>
+          <t>nan</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>Sale</t>
+          <t>nan</t>
         </is>
       </c>
       <c r="I33" t="n">
-        <v>-7.5</v>
+        <v>1743.83</v>
       </c>
       <c r="J33" s="2" t="n">
-        <v>44864</v>
+        <v>44878</v>
       </c>
       <c r="K33" t="inlineStr">
         <is>
-          <t>Sapphire</t>
+          <t>Mechanics</t>
         </is>
       </c>
       <c r="L33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M33" t="inlineStr">
         <is>
-          <t>Eating Out</t>
+          <t>nan</t>
         </is>
       </c>
     </row>
@@ -2716,8 +2740,16 @@
           <t>VENMO PAYMENT 1022930215113</t>
         </is>
       </c>
-      <c r="G44" t="inlineStr"/>
-      <c r="H44" t="inlineStr"/>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
       <c r="I44" t="n">
         <v>-57</v>
       </c>
@@ -2732,7 +2764,11 @@
       <c r="L44" t="n">
         <v>0</v>
       </c>
-      <c r="M44" t="inlineStr"/>
+      <c r="M44" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="inlineStr">
@@ -2755,7 +2791,11 @@
           <t>AUTOMATIC PAYMENT - THANK</t>
         </is>
       </c>
-      <c r="G45" t="inlineStr"/>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
       <c r="H45" t="inlineStr">
         <is>
           <t>Payment</t>
@@ -2775,7 +2815,11 @@
       <c r="L45" t="n">
         <v>0</v>
       </c>
-      <c r="M45" t="inlineStr"/>
+      <c r="M45" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="inlineStr">
@@ -2796,8 +2840,16 @@
           <t>VENMO PAYMENT 1022930212980</t>
         </is>
       </c>
-      <c r="G46" t="inlineStr"/>
-      <c r="H46" t="inlineStr"/>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
       <c r="I46" t="n">
         <v>-79.5</v>
       </c>
@@ -2812,187 +2864,215 @@
       <c r="L46" t="n">
         <v>0</v>
       </c>
-      <c r="M46" t="inlineStr"/>
+      <c r="M46" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="inlineStr">
         <is>
-          <t>a1821176-f5a5-49ca-91b6-70e1c8003d51</t>
+          <t>d386a83f-f458-46ac-82af-ea54c3718b07</t>
         </is>
       </c>
       <c r="B47" s="2" t="n">
-        <v>44864</v>
-      </c>
-      <c r="C47" s="2" t="n">
-        <v>44866</v>
-      </c>
+        <v>44878</v>
+      </c>
+      <c r="C47" t="inlineStr"/>
       <c r="D47" s="2" t="n">
         <v>44852</v>
       </c>
-      <c r="E47" s="2" t="n">
-        <v>44853</v>
-      </c>
+      <c r="E47" t="inlineStr"/>
       <c r="F47" t="inlineStr">
         <is>
-          <t>76 - PLAID PANTRY 83</t>
+          <t>Barclays Bank De P2P Vega,William</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>Gas</t>
+          <t>nan</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>Sale</t>
+          <t>nan</t>
         </is>
       </c>
       <c r="I47" t="n">
-        <v>-8.289999999999999</v>
+        <v>372.14</v>
       </c>
       <c r="J47" s="2" t="n">
-        <v>44864</v>
+        <v>44878</v>
       </c>
       <c r="K47" t="inlineStr">
         <is>
-          <t>Amazon</t>
+          <t>Mechanics</t>
         </is>
       </c>
       <c r="L47" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M47" t="inlineStr">
         <is>
-          <t>Gasoline</t>
+          <t>nan</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="inlineStr">
         <is>
-          <t>76181f35-c0d5-43bb-b595-0baa5b8d1386</t>
+          <t>543000bc-85b8-476b-8f02-42670066b2d6</t>
         </is>
       </c>
       <c r="B48" s="2" t="n">
-        <v>44864</v>
-      </c>
-      <c r="C48" s="2" t="n">
-        <v>44866</v>
-      </c>
+        <v>44878</v>
+      </c>
+      <c r="C48" t="inlineStr"/>
       <c r="D48" s="2" t="n">
         <v>44852</v>
       </c>
-      <c r="E48" s="2" t="n">
-        <v>44853</v>
-      </c>
+      <c r="E48" t="inlineStr"/>
       <c r="F48" t="inlineStr">
         <is>
-          <t>TRADER JOE'S #146  QPS</t>
+          <t>CHASE CREDIT CRD AUTOPAY 000000000279071</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>Groceries</t>
+          <t>nan</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>Sale</t>
+          <t>nan</t>
         </is>
       </c>
       <c r="I48" t="n">
-        <v>-48.64</v>
+        <v>-973.08</v>
       </c>
       <c r="J48" s="2" t="n">
-        <v>44864</v>
+        <v>44878</v>
       </c>
       <c r="K48" t="inlineStr">
         <is>
-          <t>Sapphire</t>
+          <t>Mechanics</t>
         </is>
       </c>
       <c r="L48" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M48" t="inlineStr">
         <is>
-          <t>Groceries</t>
+          <t>nan</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="inlineStr">
         <is>
-          <t>543000bc-85b8-476b-8f02-42670066b2d6</t>
+          <t>76181f35-c0d5-43bb-b595-0baa5b8d1386</t>
         </is>
       </c>
       <c r="B49" s="2" t="n">
-        <v>44878</v>
-      </c>
-      <c r="C49" t="inlineStr"/>
+        <v>44864</v>
+      </c>
+      <c r="C49" s="2" t="n">
+        <v>44866</v>
+      </c>
       <c r="D49" s="2" t="n">
         <v>44852</v>
       </c>
-      <c r="E49" t="inlineStr"/>
+      <c r="E49" s="2" t="n">
+        <v>44853</v>
+      </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>CHASE CREDIT CRD AUTOPAY 000000000279071</t>
-        </is>
-      </c>
-      <c r="G49" t="inlineStr"/>
-      <c r="H49" t="inlineStr"/>
+          <t>TRADER JOE'S #146  QPS</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>Groceries</t>
+        </is>
+      </c>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>Sale</t>
+        </is>
+      </c>
       <c r="I49" t="n">
-        <v>-973.08</v>
+        <v>-48.64</v>
       </c>
       <c r="J49" s="2" t="n">
-        <v>44878</v>
+        <v>44864</v>
       </c>
       <c r="K49" t="inlineStr">
         <is>
-          <t>Mechanics</t>
+          <t>Sapphire</t>
         </is>
       </c>
       <c r="L49" t="n">
-        <v>0</v>
-      </c>
-      <c r="M49" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="M49" t="inlineStr">
+        <is>
+          <t>Groceries</t>
+        </is>
+      </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="inlineStr">
         <is>
-          <t>d386a83f-f458-46ac-82af-ea54c3718b07</t>
+          <t>a1821176-f5a5-49ca-91b6-70e1c8003d51</t>
         </is>
       </c>
       <c r="B50" s="2" t="n">
-        <v>44878</v>
-      </c>
-      <c r="C50" t="inlineStr"/>
+        <v>44864</v>
+      </c>
+      <c r="C50" s="2" t="n">
+        <v>44866</v>
+      </c>
       <c r="D50" s="2" t="n">
         <v>44852</v>
       </c>
-      <c r="E50" t="inlineStr"/>
+      <c r="E50" s="2" t="n">
+        <v>44853</v>
+      </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>Barclays Bank De P2P Vega,William</t>
-        </is>
-      </c>
-      <c r="G50" t="inlineStr"/>
-      <c r="H50" t="inlineStr"/>
+          <t>76 - PLAID PANTRY 83</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>Gas</t>
+        </is>
+      </c>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>Sale</t>
+        </is>
+      </c>
       <c r="I50" t="n">
-        <v>372.14</v>
+        <v>-8.289999999999999</v>
       </c>
       <c r="J50" s="2" t="n">
-        <v>44878</v>
+        <v>44864</v>
       </c>
       <c r="K50" t="inlineStr">
         <is>
-          <t>Mechanics</t>
+          <t>Amazon</t>
         </is>
       </c>
       <c r="L50" t="n">
-        <v>0</v>
-      </c>
-      <c r="M50" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="M50" t="inlineStr">
+        <is>
+          <t>Gasoline</t>
+        </is>
+      </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="inlineStr">
@@ -3013,8 +3093,16 @@
           <t>US TREASURY IRS PAYMENT 0350</t>
         </is>
       </c>
-      <c r="G51" t="inlineStr"/>
-      <c r="H51" t="inlineStr"/>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="H51" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
       <c r="I51" t="n">
         <v>-88.39</v>
       </c>
@@ -3029,7 +3117,11 @@
       <c r="L51" t="n">
         <v>0</v>
       </c>
-      <c r="M51" t="inlineStr"/>
+      <c r="M51" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="inlineStr">
@@ -3050,8 +3142,16 @@
           <t>Check</t>
         </is>
       </c>
-      <c r="G52" t="inlineStr"/>
-      <c r="H52" t="inlineStr"/>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="H52" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
       <c r="I52" t="n">
         <v>-168</v>
       </c>
@@ -3066,7 +3166,11 @@
       <c r="L52" t="n">
         <v>0</v>
       </c>
-      <c r="M52" t="inlineStr"/>
+      <c r="M52" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="inlineStr">
@@ -3442,7 +3546,7 @@
     <row r="60">
       <c r="A60" s="1" t="inlineStr">
         <is>
-          <t>43f8a400-6a02-4c8f-ad04-3d37ffa1a20c</t>
+          <t>7411e7f6-719c-4c95-9c78-ff51ec3c2bfc</t>
         </is>
       </c>
       <c r="B60" s="2" t="n">
@@ -3459,12 +3563,12 @@
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>SQ *COAVA COFFEE ROASTERS</t>
+          <t>eBay O*27-09242-39145</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>Food &amp; Drink</t>
+          <t>Shopping</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
@@ -3473,14 +3577,14 @@
         </is>
       </c>
       <c r="I60" t="n">
-        <v>-4.5</v>
+        <v>-26.95</v>
       </c>
       <c r="J60" s="2" t="n">
         <v>44864</v>
       </c>
       <c r="K60" t="inlineStr">
         <is>
-          <t>Sapphire</t>
+          <t>Amazon</t>
         </is>
       </c>
       <c r="L60" t="n">
@@ -3488,14 +3592,14 @@
       </c>
       <c r="M60" t="inlineStr">
         <is>
-          <t>Coffee</t>
+          <t>Haircut</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="inlineStr">
         <is>
-          <t>63d48109-df7e-443d-af53-932df1d00536</t>
+          <t>43f8a400-6a02-4c8f-ad04-3d37ffa1a20c</t>
         </is>
       </c>
       <c r="B61" s="2" t="n">
@@ -3512,7 +3616,7 @@
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>TST* Pizza Thief</t>
+          <t>SQ *COAVA COFFEE ROASTERS</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
@@ -3526,7 +3630,7 @@
         </is>
       </c>
       <c r="I61" t="n">
-        <v>-6.75</v>
+        <v>-4.5</v>
       </c>
       <c r="J61" s="2" t="n">
         <v>44864</v>
@@ -3541,14 +3645,14 @@
       </c>
       <c r="M61" t="inlineStr">
         <is>
-          <t>Eating Out</t>
+          <t>Coffee</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="inlineStr">
         <is>
-          <t>c535bb37-ed68-4f7f-9348-ae2287e3043b</t>
+          <t>e6e47167-b819-45ff-8e3d-8472f87282d4</t>
         </is>
       </c>
       <c r="B62" s="2" t="n">
@@ -3561,16 +3665,16 @@
         <v>44856</v>
       </c>
       <c r="E62" s="2" t="n">
-        <v>44857</v>
+        <v>44858</v>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>SQ *COAVA COFFEE ROASTERS</t>
+          <t>GOODWILL OF PORTLAND</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>Food &amp; Drink</t>
+          <t>Gifts &amp; Donations</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
@@ -3579,14 +3683,14 @@
         </is>
       </c>
       <c r="I62" t="n">
-        <v>-12</v>
+        <v>-17.52</v>
       </c>
       <c r="J62" s="2" t="n">
         <v>44864</v>
       </c>
       <c r="K62" t="inlineStr">
         <is>
-          <t>Sapphire</t>
+          <t>Amazon</t>
         </is>
       </c>
       <c r="L62" t="n">
@@ -3594,14 +3698,14 @@
       </c>
       <c r="M62" t="inlineStr">
         <is>
-          <t>Coffee</t>
+          <t>Clothes</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="inlineStr">
         <is>
-          <t>7411e7f6-719c-4c95-9c78-ff51ec3c2bfc</t>
+          <t>be438b91-4d3f-4029-936f-78158612f1f1</t>
         </is>
       </c>
       <c r="B63" s="2" t="n">
@@ -3618,12 +3722,12 @@
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>eBay O*27-09242-39145</t>
+          <t>TST* Pizza Thief</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>Shopping</t>
+          <t>Food &amp; Drink</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
@@ -3632,14 +3736,14 @@
         </is>
       </c>
       <c r="I63" t="n">
-        <v>-26.95</v>
+        <v>-34</v>
       </c>
       <c r="J63" s="2" t="n">
         <v>44864</v>
       </c>
       <c r="K63" t="inlineStr">
         <is>
-          <t>Amazon</t>
+          <t>Sapphire</t>
         </is>
       </c>
       <c r="L63" t="n">
@@ -3647,14 +3751,14 @@
       </c>
       <c r="M63" t="inlineStr">
         <is>
-          <t>Haircut</t>
+          <t>Eating Out</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="inlineStr">
         <is>
-          <t>e6e47167-b819-45ff-8e3d-8472f87282d4</t>
+          <t>c535bb37-ed68-4f7f-9348-ae2287e3043b</t>
         </is>
       </c>
       <c r="B64" s="2" t="n">
@@ -3667,16 +3771,16 @@
         <v>44856</v>
       </c>
       <c r="E64" s="2" t="n">
-        <v>44858</v>
+        <v>44857</v>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>GOODWILL OF PORTLAND</t>
+          <t>SQ *COAVA COFFEE ROASTERS</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>Gifts &amp; Donations</t>
+          <t>Food &amp; Drink</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
@@ -3685,14 +3789,14 @@
         </is>
       </c>
       <c r="I64" t="n">
-        <v>-17.52</v>
+        <v>-12</v>
       </c>
       <c r="J64" s="2" t="n">
         <v>44864</v>
       </c>
       <c r="K64" t="inlineStr">
         <is>
-          <t>Amazon</t>
+          <t>Sapphire</t>
         </is>
       </c>
       <c r="L64" t="n">
@@ -3700,14 +3804,14 @@
       </c>
       <c r="M64" t="inlineStr">
         <is>
-          <t>Clothes</t>
+          <t>Coffee</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="inlineStr">
         <is>
-          <t>be438b91-4d3f-4029-936f-78158612f1f1</t>
+          <t>fc84811e-f254-4b06-9202-15a287b57e0b</t>
         </is>
       </c>
       <c r="B65" s="2" t="n">
@@ -3724,12 +3828,12 @@
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>TST* Pizza Thief</t>
+          <t>TRADER JOE'S #146  QPS</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>Food &amp; Drink</t>
+          <t>Groceries</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
@@ -3738,7 +3842,7 @@
         </is>
       </c>
       <c r="I65" t="n">
-        <v>-34</v>
+        <v>-15.54</v>
       </c>
       <c r="J65" s="2" t="n">
         <v>44864</v>
@@ -3753,14 +3857,14 @@
       </c>
       <c r="M65" t="inlineStr">
         <is>
-          <t>Eating Out</t>
+          <t>Groceries</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="inlineStr">
         <is>
-          <t>fc84811e-f254-4b06-9202-15a287b57e0b</t>
+          <t>63d48109-df7e-443d-af53-932df1d00536</t>
         </is>
       </c>
       <c r="B66" s="2" t="n">
@@ -3777,12 +3881,12 @@
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>TRADER JOE'S #146  QPS</t>
+          <t>TST* Pizza Thief</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>Groceries</t>
+          <t>Food &amp; Drink</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
@@ -3791,7 +3895,7 @@
         </is>
       </c>
       <c r="I66" t="n">
-        <v>-15.54</v>
+        <v>-6.75</v>
       </c>
       <c r="J66" s="2" t="n">
         <v>44864</v>
@@ -3806,7 +3910,7 @@
       </c>
       <c r="M66" t="inlineStr">
         <is>
-          <t>Groceries</t>
+          <t>Eating Out</t>
         </is>
       </c>
     </row>
@@ -4200,8 +4304,16 @@
           <t>WELLS FARGO IFI DDA TO DDA F20GQJDBW4</t>
         </is>
       </c>
-      <c r="G74" t="inlineStr"/>
-      <c r="H74" t="inlineStr"/>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="H74" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
       <c r="I74" t="n">
         <v>-20</v>
       </c>
@@ -4216,7 +4328,11 @@
       <c r="L74" t="n">
         <v>0</v>
       </c>
-      <c r="M74" t="inlineStr"/>
+      <c r="M74" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
     </row>
     <row r="75">
       <c r="A75" s="1" t="inlineStr">
@@ -4327,87 +4443,107 @@
     <row r="77">
       <c r="A77" s="1" t="inlineStr">
         <is>
-          <t>6fc32407-ec24-4dc2-8280-2faefb1ead7d</t>
+          <t>a604d786-82c7-40d0-8248-ef45e1ea82bf</t>
         </is>
       </c>
       <c r="B77" s="2" t="n">
-        <v>44864</v>
+        <v>44878</v>
       </c>
       <c r="C77" t="inlineStr"/>
       <c r="D77" s="2" t="n">
         <v>44862</v>
       </c>
-      <c r="E77" s="2" t="n">
-        <v>44862</v>
-      </c>
+      <c r="E77" t="inlineStr"/>
       <c r="F77" t="inlineStr">
         <is>
-          <t>AUTOMATIC PAYMENT - THANK</t>
-        </is>
-      </c>
-      <c r="G77" t="inlineStr"/>
+          <t>TOYOTA MOTOR SAL PAYROLL 568349-TMN</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>Payment</t>
+          <t>nan</t>
         </is>
       </c>
       <c r="I77" t="n">
-        <v>1413.56</v>
+        <v>1642.9</v>
       </c>
       <c r="J77" s="2" t="n">
-        <v>44864</v>
+        <v>44878</v>
       </c>
       <c r="K77" t="inlineStr">
         <is>
-          <t>Amazon</t>
+          <t>Mechanics</t>
         </is>
       </c>
       <c r="L77" t="n">
         <v>0</v>
       </c>
-      <c r="M77" t="inlineStr"/>
+      <c r="M77" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
     </row>
     <row r="78">
       <c r="A78" s="1" t="inlineStr">
         <is>
-          <t>a604d786-82c7-40d0-8248-ef45e1ea82bf</t>
+          <t>6fc32407-ec24-4dc2-8280-2faefb1ead7d</t>
         </is>
       </c>
       <c r="B78" s="2" t="n">
-        <v>44878</v>
+        <v>44864</v>
       </c>
       <c r="C78" t="inlineStr"/>
       <c r="D78" s="2" t="n">
         <v>44862</v>
       </c>
-      <c r="E78" t="inlineStr"/>
+      <c r="E78" s="2" t="n">
+        <v>44862</v>
+      </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>TOYOTA MOTOR SAL PAYROLL 568349-TMN</t>
-        </is>
-      </c>
-      <c r="G78" t="inlineStr"/>
-      <c r="H78" t="inlineStr"/>
+          <t>AUTOMATIC PAYMENT - THANK</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="H78" t="inlineStr">
+        <is>
+          <t>Payment</t>
+        </is>
+      </c>
       <c r="I78" t="n">
-        <v>1642.9</v>
+        <v>1413.56</v>
       </c>
       <c r="J78" s="2" t="n">
-        <v>44878</v>
+        <v>44864</v>
       </c>
       <c r="K78" t="inlineStr">
         <is>
-          <t>Mechanics</t>
+          <t>Amazon</t>
         </is>
       </c>
       <c r="L78" t="n">
         <v>0</v>
       </c>
-      <c r="M78" t="inlineStr"/>
+      <c r="M78" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
     </row>
     <row r="79">
       <c r="A79" s="1" t="inlineStr">
         <is>
-          <t>128838e8-20e6-48e4-a090-340fef3171cd</t>
+          <t>f00f1694-a9e8-4b93-bd91-e297e3d9482c</t>
         </is>
       </c>
       <c r="B79" s="2" t="n">
@@ -4420,16 +4556,16 @@
         <v>44863</v>
       </c>
       <c r="E79" s="2" t="n">
-        <v>44864</v>
+        <v>44865</v>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>CHEVRON 0381126</t>
+          <t>TINYS COFFEE</t>
         </is>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>Gas</t>
+          <t>Food &amp; Drink</t>
         </is>
       </c>
       <c r="H79" t="inlineStr">
@@ -4438,14 +4574,14 @@
         </is>
       </c>
       <c r="I79" t="n">
-        <v>-49.86</v>
+        <v>-13</v>
       </c>
       <c r="J79" s="2" t="n">
         <v>44868</v>
       </c>
       <c r="K79" t="inlineStr">
         <is>
-          <t>Amazon</t>
+          <t>Sapphire</t>
         </is>
       </c>
       <c r="L79" t="n">
@@ -4453,14 +4589,14 @@
       </c>
       <c r="M79" t="inlineStr">
         <is>
-          <t>Gasoline</t>
+          <t>Coffee</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="1" t="inlineStr">
         <is>
-          <t>9e321f74-17c1-479c-bf83-c261f0d5a3bf</t>
+          <t>128838e8-20e6-48e4-a090-340fef3171cd</t>
         </is>
       </c>
       <c r="B80" s="2" t="n">
@@ -4477,12 +4613,12 @@
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>SP CRU &amp;amp; DOMAINE</t>
+          <t>CHEVRON 0381126</t>
         </is>
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>Shopping</t>
+          <t>Gas</t>
         </is>
       </c>
       <c r="H80" t="inlineStr">
@@ -4491,14 +4627,14 @@
         </is>
       </c>
       <c r="I80" t="n">
-        <v>-33</v>
+        <v>-49.86</v>
       </c>
       <c r="J80" s="2" t="n">
         <v>44868</v>
       </c>
       <c r="K80" t="inlineStr">
         <is>
-          <t>Sapphire</t>
+          <t>Amazon</t>
         </is>
       </c>
       <c r="L80" t="n">
@@ -4506,14 +4642,14 @@
       </c>
       <c r="M80" t="inlineStr">
         <is>
-          <t>Entertainment</t>
+          <t>Gasoline</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="1" t="inlineStr">
         <is>
-          <t>ac492760-12d5-4326-9c4e-8f008450f45d</t>
+          <t>9e321f74-17c1-479c-bf83-c261f0d5a3bf</t>
         </is>
       </c>
       <c r="B81" s="2" t="n">
@@ -4530,12 +4666,12 @@
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>SQ *CLEARING CAFE</t>
+          <t>SP CRU &amp;amp; DOMAINE</t>
         </is>
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>Food &amp; Drink</t>
+          <t>Shopping</t>
         </is>
       </c>
       <c r="H81" t="inlineStr">
@@ -4544,7 +4680,7 @@
         </is>
       </c>
       <c r="I81" t="n">
-        <v>-6.5</v>
+        <v>-33</v>
       </c>
       <c r="J81" s="2" t="n">
         <v>44868</v>
@@ -4559,14 +4695,14 @@
       </c>
       <c r="M81" t="inlineStr">
         <is>
-          <t>Coffee</t>
+          <t>Entertainment</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="1" t="inlineStr">
         <is>
-          <t>f00f1694-a9e8-4b93-bd91-e297e3d9482c</t>
+          <t>ac492760-12d5-4326-9c4e-8f008450f45d</t>
         </is>
       </c>
       <c r="B82" s="2" t="n">
@@ -4579,11 +4715,11 @@
         <v>44863</v>
       </c>
       <c r="E82" s="2" t="n">
-        <v>44865</v>
+        <v>44864</v>
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>TINYS COFFEE</t>
+          <t>SQ *CLEARING CAFE</t>
         </is>
       </c>
       <c r="G82" t="inlineStr">
@@ -4597,7 +4733,7 @@
         </is>
       </c>
       <c r="I82" t="n">
-        <v>-13</v>
+        <v>-6.5</v>
       </c>
       <c r="J82" s="2" t="n">
         <v>44868</v>
@@ -4953,8 +5089,16 @@
           <t>CHASE CREDIT CRD AUTOPAY 000000000481963</t>
         </is>
       </c>
-      <c r="G89" t="inlineStr"/>
-      <c r="H89" t="inlineStr"/>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="H89" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
       <c r="I89" t="n">
         <v>-1413.56</v>
       </c>
@@ -4969,7 +5113,11 @@
       <c r="L89" t="n">
         <v>0</v>
       </c>
-      <c r="M89" t="inlineStr"/>
+      <c r="M89" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
     </row>
     <row r="90">
       <c r="A90" s="1" t="inlineStr">
@@ -5027,7 +5175,7 @@
     <row r="91">
       <c r="A91" s="1" t="inlineStr">
         <is>
-          <t>bb294834-7105-400a-bda6-75d39e240779</t>
+          <t>eb72d679-f3da-4cc6-b86c-ab1d0b02fa90</t>
         </is>
       </c>
       <c r="B91" s="2" t="n">
@@ -5044,12 +5192,12 @@
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>GOOGLE *CLOUD 6MBX5P</t>
+          <t>NEW SEASONS MARKET</t>
         </is>
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>Professional Services</t>
+          <t>Groceries</t>
         </is>
       </c>
       <c r="H91" t="inlineStr">
@@ -5058,14 +5206,14 @@
         </is>
       </c>
       <c r="I91" t="n">
-        <v>-0.12</v>
+        <v>-38.57</v>
       </c>
       <c r="J91" s="2" t="n">
         <v>44869</v>
       </c>
       <c r="K91" t="inlineStr">
         <is>
-          <t>Amazon</t>
+          <t>Sapphire</t>
         </is>
       </c>
       <c r="L91" t="n">
@@ -5073,7 +5221,7 @@
       </c>
       <c r="M91" t="inlineStr">
         <is>
-          <t>Services</t>
+          <t>Groceries</t>
         </is>
       </c>
     </row>
@@ -5098,8 +5246,16 @@
           <t>APPLECARD GSBANK PAYMENT 2211736</t>
         </is>
       </c>
-      <c r="G92" t="inlineStr"/>
-      <c r="H92" t="inlineStr"/>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="H92" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
       <c r="I92" t="n">
         <v>-6.11</v>
       </c>
@@ -5123,7 +5279,7 @@
     <row r="93">
       <c r="A93" s="1" t="inlineStr">
         <is>
-          <t>eb72d679-f3da-4cc6-b86c-ab1d0b02fa90</t>
+          <t>bb294834-7105-400a-bda6-75d39e240779</t>
         </is>
       </c>
       <c r="B93" s="2" t="n">
@@ -5140,12 +5296,12 @@
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>NEW SEASONS MARKET</t>
+          <t>GOOGLE *CLOUD 6MBX5P</t>
         </is>
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>Groceries</t>
+          <t>Professional Services</t>
         </is>
       </c>
       <c r="H93" t="inlineStr">
@@ -5154,14 +5310,14 @@
         </is>
       </c>
       <c r="I93" t="n">
-        <v>-38.57</v>
+        <v>-0.12</v>
       </c>
       <c r="J93" s="2" t="n">
         <v>44869</v>
       </c>
       <c r="K93" t="inlineStr">
         <is>
-          <t>Sapphire</t>
+          <t>Amazon</t>
         </is>
       </c>
       <c r="L93" t="n">
@@ -5169,7 +5325,7 @@
       </c>
       <c r="M93" t="inlineStr">
         <is>
-          <t>Groceries</t>
+          <t>Services</t>
         </is>
       </c>
     </row>
@@ -5194,8 +5350,16 @@
           <t>KBC Management, WEB PMTS N403N6</t>
         </is>
       </c>
-      <c r="G94" t="inlineStr"/>
-      <c r="H94" t="inlineStr"/>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="H94" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
       <c r="I94" t="n">
         <v>-1630</v>
       </c>
@@ -5749,7 +5913,7 @@
     <row r="105">
       <c r="A105" s="1" t="inlineStr">
         <is>
-          <t>35a5bc2f-a554-4d8c-9556-670fea111843</t>
+          <t>1bd85a68-b08f-485d-aadf-284759fbd2d5</t>
         </is>
       </c>
       <c r="B105" s="2" t="n">
@@ -5766,7 +5930,7 @@
       </c>
       <c r="F105" t="inlineStr">
         <is>
-          <t>SQ *ST. JOHNS BEER PORCH</t>
+          <t>SQ *EL BURRITO MOJADO</t>
         </is>
       </c>
       <c r="G105" t="inlineStr">
@@ -5780,7 +5944,7 @@
         </is>
       </c>
       <c r="I105" t="n">
-        <v>-7</v>
+        <v>-12.36</v>
       </c>
       <c r="J105" s="2" t="n">
         <v>44876</v>
@@ -5802,7 +5966,7 @@
     <row r="106">
       <c r="A106" s="1" t="inlineStr">
         <is>
-          <t>7edbf58c-eab9-48ce-a0fe-c2c34d37567b</t>
+          <t>35a5bc2f-a554-4d8c-9556-670fea111843</t>
         </is>
       </c>
       <c r="B106" s="2" t="n">
@@ -5855,39 +6019,41 @@
     <row r="107">
       <c r="A107" s="1" t="inlineStr">
         <is>
-          <t>3a83907a-6908-42f8-8240-9030207e0c31</t>
+          <t>7edbf58c-eab9-48ce-a0fe-c2c34d37567b</t>
         </is>
       </c>
       <c r="B107" s="2" t="n">
-        <v>44889</v>
-      </c>
-      <c r="C107" t="inlineStr"/>
+        <v>44876</v>
+      </c>
+      <c r="C107" s="2" t="n">
+        <v>44876</v>
+      </c>
       <c r="D107" s="2" t="n">
         <v>44872</v>
       </c>
       <c r="E107" s="2" t="n">
-        <v>44878</v>
+        <v>44873</v>
       </c>
       <c r="F107" t="inlineStr">
         <is>
-          <t>Amazon Prime*H23F92OU2</t>
+          <t>SQ *ST. JOHNS BEER PORCH</t>
         </is>
       </c>
       <c r="G107" t="inlineStr">
         <is>
-          <t>Bills &amp; Utilities</t>
+          <t>Food &amp; Drink</t>
         </is>
       </c>
       <c r="H107" t="inlineStr">
         <is>
-          <t>Adjustment</t>
+          <t>Sale</t>
         </is>
       </c>
       <c r="I107" t="n">
-        <v>15.62</v>
+        <v>-7</v>
       </c>
       <c r="J107" s="2" t="n">
-        <v>44889</v>
+        <v>44876</v>
       </c>
       <c r="K107" t="inlineStr">
         <is>
@@ -5895,14 +6061,18 @@
         </is>
       </c>
       <c r="L107" t="n">
-        <v>0</v>
-      </c>
-      <c r="M107" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="M107" t="inlineStr">
+        <is>
+          <t>Eating Out</t>
+        </is>
+      </c>
     </row>
     <row r="108">
       <c r="A108" s="1" t="inlineStr">
         <is>
-          <t>1bd85a68-b08f-485d-aadf-284759fbd2d5</t>
+          <t>57efb0dc-71d0-434e-8ec1-ddf6a42e21a4</t>
         </is>
       </c>
       <c r="B108" s="2" t="n">
@@ -5919,7 +6089,7 @@
       </c>
       <c r="F108" t="inlineStr">
         <is>
-          <t>SQ *EL BURRITO MOJADO</t>
+          <t>TST* The Fireside</t>
         </is>
       </c>
       <c r="G108" t="inlineStr">
@@ -5933,7 +6103,7 @@
         </is>
       </c>
       <c r="I108" t="n">
-        <v>-12.36</v>
+        <v>-54</v>
       </c>
       <c r="J108" s="2" t="n">
         <v>44876</v>
@@ -5955,41 +6125,39 @@
     <row r="109">
       <c r="A109" s="1" t="inlineStr">
         <is>
-          <t>57efb0dc-71d0-434e-8ec1-ddf6a42e21a4</t>
+          <t>3a83907a-6908-42f8-8240-9030207e0c31</t>
         </is>
       </c>
       <c r="B109" s="2" t="n">
-        <v>44876</v>
-      </c>
-      <c r="C109" s="2" t="n">
-        <v>44876</v>
-      </c>
+        <v>44889</v>
+      </c>
+      <c r="C109" t="inlineStr"/>
       <c r="D109" s="2" t="n">
         <v>44872</v>
       </c>
       <c r="E109" s="2" t="n">
-        <v>44873</v>
+        <v>44878</v>
       </c>
       <c r="F109" t="inlineStr">
         <is>
-          <t>TST* The Fireside</t>
+          <t>Amazon Prime*H23F92OU2</t>
         </is>
       </c>
       <c r="G109" t="inlineStr">
         <is>
-          <t>Food &amp; Drink</t>
+          <t>Bills &amp; Utilities</t>
         </is>
       </c>
       <c r="H109" t="inlineStr">
         <is>
-          <t>Sale</t>
+          <t>Adjustment</t>
         </is>
       </c>
       <c r="I109" t="n">
-        <v>-54</v>
+        <v>15.62</v>
       </c>
       <c r="J109" s="2" t="n">
-        <v>44876</v>
+        <v>44889</v>
       </c>
       <c r="K109" t="inlineStr">
         <is>
@@ -5997,11 +6165,11 @@
         </is>
       </c>
       <c r="L109" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M109" t="inlineStr">
         <is>
-          <t>Eating Out</t>
+          <t>nan</t>
         </is>
       </c>
     </row>
@@ -6132,8 +6300,16 @@
           <t>TOYOTA MOTOR SAL PAYROLL 568349-TMN</t>
         </is>
       </c>
-      <c r="G112" t="inlineStr"/>
-      <c r="H112" t="inlineStr"/>
+      <c r="G112" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="H112" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
       <c r="I112" t="n">
         <v>100</v>
       </c>
@@ -6175,8 +6351,16 @@
           <t>TOYOTA MOTOR SAL PAYROLL 568349-TMN</t>
         </is>
       </c>
-      <c r="G113" t="inlineStr"/>
-      <c r="H113" t="inlineStr"/>
+      <c r="G113" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="H113" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
       <c r="I113" t="n">
         <v>1642.91</v>
       </c>
@@ -6518,7 +6702,7 @@
     <row r="120">
       <c r="A120" s="1" t="inlineStr">
         <is>
-          <t>ce396274-1808-4009-993e-2b6b623e4644</t>
+          <t>15e1126b-78d4-4dc1-8cd0-8e4195a5dc15</t>
         </is>
       </c>
       <c r="B120" s="2" t="n">
@@ -6531,11 +6715,11 @@
         <v>44878</v>
       </c>
       <c r="E120" s="2" t="n">
-        <v>44880</v>
+        <v>44879</v>
       </c>
       <c r="F120" t="inlineStr">
         <is>
-          <t>TST* The Fireside</t>
+          <t>SAINT HONORE BOULANGERIE</t>
         </is>
       </c>
       <c r="G120" t="inlineStr">
@@ -6549,7 +6733,7 @@
         </is>
       </c>
       <c r="I120" t="n">
-        <v>-30</v>
+        <v>-20.6</v>
       </c>
       <c r="J120" s="2" t="n">
         <v>44889</v>
@@ -6564,7 +6748,7 @@
       </c>
       <c r="M120" t="inlineStr">
         <is>
-          <t>Eating Out</t>
+          <t>Coffee</t>
         </is>
       </c>
     </row>
@@ -6624,7 +6808,7 @@
     <row r="122">
       <c r="A122" s="1" t="inlineStr">
         <is>
-          <t>15e1126b-78d4-4dc1-8cd0-8e4195a5dc15</t>
+          <t>d72f01d1-164e-4206-8e6f-6104ae088695</t>
         </is>
       </c>
       <c r="B122" s="2" t="n">
@@ -6641,7 +6825,7 @@
       </c>
       <c r="F122" t="inlineStr">
         <is>
-          <t>SAINT HONORE BOULANGERIE</t>
+          <t>SQ *UPPER LEFT ROASTERS</t>
         </is>
       </c>
       <c r="G122" t="inlineStr">
@@ -6655,7 +6839,7 @@
         </is>
       </c>
       <c r="I122" t="n">
-        <v>-20.6</v>
+        <v>-6.5</v>
       </c>
       <c r="J122" s="2" t="n">
         <v>44889</v>
@@ -6677,7 +6861,7 @@
     <row r="123">
       <c r="A123" s="1" t="inlineStr">
         <is>
-          <t>d72f01d1-164e-4206-8e6f-6104ae088695</t>
+          <t>d0054159-7035-45e0-a963-399e9575f4e0</t>
         </is>
       </c>
       <c r="B123" s="2" t="n">
@@ -6690,16 +6874,16 @@
         <v>44878</v>
       </c>
       <c r="E123" s="2" t="n">
-        <v>44879</v>
+        <v>44880</v>
       </c>
       <c r="F123" t="inlineStr">
         <is>
-          <t>SQ *UPPER LEFT ROASTERS</t>
+          <t>SHELL OIL 57443148903</t>
         </is>
       </c>
       <c r="G123" t="inlineStr">
         <is>
-          <t>Food &amp; Drink</t>
+          <t>Gas</t>
         </is>
       </c>
       <c r="H123" t="inlineStr">
@@ -6708,7 +6892,7 @@
         </is>
       </c>
       <c r="I123" t="n">
-        <v>-6.5</v>
+        <v>-48.31</v>
       </c>
       <c r="J123" s="2" t="n">
         <v>44889</v>
@@ -6723,14 +6907,14 @@
       </c>
       <c r="M123" t="inlineStr">
         <is>
-          <t>Coffee</t>
+          <t>Gasoline</t>
         </is>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="1" t="inlineStr">
         <is>
-          <t>d0054159-7035-45e0-a963-399e9575f4e0</t>
+          <t>ce396274-1808-4009-993e-2b6b623e4644</t>
         </is>
       </c>
       <c r="B124" s="2" t="n">
@@ -6747,12 +6931,12 @@
       </c>
       <c r="F124" t="inlineStr">
         <is>
-          <t>SHELL OIL 57443148903</t>
+          <t>TST* The Fireside</t>
         </is>
       </c>
       <c r="G124" t="inlineStr">
         <is>
-          <t>Gas</t>
+          <t>Food &amp; Drink</t>
         </is>
       </c>
       <c r="H124" t="inlineStr">
@@ -6761,7 +6945,7 @@
         </is>
       </c>
       <c r="I124" t="n">
-        <v>-48.31</v>
+        <v>-30</v>
       </c>
       <c r="J124" s="2" t="n">
         <v>44889</v>
@@ -6776,7 +6960,7 @@
       </c>
       <c r="M124" t="inlineStr">
         <is>
-          <t>Gasoline</t>
+          <t>Eating Out</t>
         </is>
       </c>
     </row>
@@ -6960,7 +7144,11 @@
           <t>AUTOMATIC PAYMENT - THANK</t>
         </is>
       </c>
-      <c r="G128" t="inlineStr"/>
+      <c r="G128" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
       <c r="H128" t="inlineStr">
         <is>
           <t>Payment</t>
@@ -6980,7 +7168,11 @@
       <c r="L128" t="n">
         <v>0</v>
       </c>
-      <c r="M128" t="inlineStr"/>
+      <c r="M128" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
     </row>
     <row r="129">
       <c r="A129" s="1" t="inlineStr">
@@ -7213,8 +7405,16 @@
           <t>CHASE CREDIT CRD AUTOPAY 000000000283875</t>
         </is>
       </c>
-      <c r="G133" t="inlineStr"/>
-      <c r="H133" t="inlineStr"/>
+      <c r="G133" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="H133" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
       <c r="I133" t="n">
         <v>-783.77</v>
       </c>
@@ -7229,7 +7429,11 @@
       <c r="L133" t="n">
         <v>0</v>
       </c>
-      <c r="M133" t="inlineStr"/>
+      <c r="M133" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
     </row>
     <row r="134">
       <c r="A134" s="1" t="inlineStr">
@@ -7499,36 +7703,38 @@
     <row r="139">
       <c r="A139" s="1" t="inlineStr">
         <is>
-          <t>dfa044db-eb7e-42af-85c6-51736f8e9e5b</t>
+          <t>aebfccb1-5b0f-4697-98fc-554044f3f1f6</t>
         </is>
       </c>
       <c r="B139" s="2" t="n">
         <v>44889</v>
       </c>
-      <c r="C139" t="inlineStr"/>
+      <c r="C139" s="2" t="n">
+        <v>44889</v>
+      </c>
       <c r="D139" s="2" t="n">
         <v>44887</v>
       </c>
       <c r="E139" s="2" t="n">
-        <v>44888</v>
+        <v>44887</v>
       </c>
       <c r="F139" t="inlineStr">
         <is>
-          <t>FARMERS INS BILLING</t>
+          <t>GOOGLE *Domains</t>
         </is>
       </c>
       <c r="G139" t="inlineStr">
         <is>
-          <t>Bills &amp; Utilities</t>
+          <t>Shopping</t>
         </is>
       </c>
       <c r="H139" t="inlineStr">
         <is>
-          <t>Return</t>
+          <t>Sale</t>
         </is>
       </c>
       <c r="I139" t="n">
-        <v>293.11</v>
+        <v>-6</v>
       </c>
       <c r="J139" s="2" t="n">
         <v>44889</v>
@@ -7539,9 +7745,13 @@
         </is>
       </c>
       <c r="L139" t="n">
-        <v>0</v>
-      </c>
-      <c r="M139" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="M139" t="inlineStr">
+        <is>
+          <t>Services</t>
+        </is>
+      </c>
     </row>
     <row r="140">
       <c r="A140" s="1" t="inlineStr">
@@ -7599,38 +7809,36 @@
     <row r="141">
       <c r="A141" s="1" t="inlineStr">
         <is>
-          <t>aebfccb1-5b0f-4697-98fc-554044f3f1f6</t>
+          <t>dfa044db-eb7e-42af-85c6-51736f8e9e5b</t>
         </is>
       </c>
       <c r="B141" s="2" t="n">
         <v>44889</v>
       </c>
-      <c r="C141" s="2" t="n">
-        <v>44889</v>
-      </c>
+      <c r="C141" t="inlineStr"/>
       <c r="D141" s="2" t="n">
         <v>44887</v>
       </c>
       <c r="E141" s="2" t="n">
-        <v>44887</v>
+        <v>44888</v>
       </c>
       <c r="F141" t="inlineStr">
         <is>
-          <t>GOOGLE *Domains</t>
+          <t>FARMERS INS BILLING</t>
         </is>
       </c>
       <c r="G141" t="inlineStr">
         <is>
-          <t>Shopping</t>
+          <t>Bills &amp; Utilities</t>
         </is>
       </c>
       <c r="H141" t="inlineStr">
         <is>
-          <t>Sale</t>
+          <t>Return</t>
         </is>
       </c>
       <c r="I141" t="n">
-        <v>-6</v>
+        <v>293.11</v>
       </c>
       <c r="J141" s="2" t="n">
         <v>44889</v>
@@ -7641,11 +7849,11 @@
         </is>
       </c>
       <c r="L141" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M141" t="inlineStr">
         <is>
-          <t>Services</t>
+          <t>nan</t>
         </is>
       </c>
     </row>
@@ -7668,8 +7876,16 @@
           <t>Deposit</t>
         </is>
       </c>
-      <c r="G142" t="inlineStr"/>
-      <c r="H142" t="inlineStr"/>
+      <c r="G142" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="H142" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
       <c r="I142" t="n">
         <v>14</v>
       </c>
@@ -7684,7 +7900,11 @@
       <c r="L142" t="n">
         <v>0</v>
       </c>
-      <c r="M142" t="inlineStr"/>
+      <c r="M142" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
     </row>
     <row r="143">
       <c r="A143" s="1" t="inlineStr">
@@ -7919,8 +8139,16 @@
           <t>TOYOTA MOTOR SAL PAYROLL 568349-TMN</t>
         </is>
       </c>
-      <c r="G147" t="inlineStr"/>
-      <c r="H147" t="inlineStr"/>
+      <c r="G147" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="H147" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
       <c r="I147" t="n">
         <v>1927.04</v>
       </c>
@@ -7997,24 +8225,24 @@
     <row r="149">
       <c r="A149" s="1" t="inlineStr">
         <is>
-          <t>8e2227e1-e151-4899-aa76-f90f871433a7</t>
+          <t>5c87296b-c023-4e06-b448-6a1b1bb58117</t>
         </is>
       </c>
       <c r="B149" s="2" t="n">
-        <v>44894</v>
+        <v>44898</v>
       </c>
       <c r="C149" s="2" t="n">
-        <v>44894</v>
+        <v>44898</v>
       </c>
       <c r="D149" s="2" t="n">
         <v>44891</v>
       </c>
       <c r="E149" s="2" t="n">
-        <v>44892</v>
+        <v>44893</v>
       </c>
       <c r="F149" t="inlineStr">
         <is>
-          <t>SQ *BARISTA</t>
+          <t>TAVERN &amp;amp; POOL</t>
         </is>
       </c>
       <c r="G149" t="inlineStr">
@@ -8028,10 +8256,10 @@
         </is>
       </c>
       <c r="I149" t="n">
-        <v>-12</v>
+        <v>-31</v>
       </c>
       <c r="J149" s="2" t="n">
-        <v>44894</v>
+        <v>44898</v>
       </c>
       <c r="K149" t="inlineStr">
         <is>
@@ -8043,14 +8271,14 @@
       </c>
       <c r="M149" t="inlineStr">
         <is>
-          <t>Coffee</t>
+          <t>Eating Out</t>
         </is>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="1" t="inlineStr">
         <is>
-          <t>c5a3dbaa-0b5d-45ea-a9ac-98dfe6dbd79f</t>
+          <t>18420867-a772-43fc-b163-3200f2125bc7</t>
         </is>
       </c>
       <c r="B150" s="2" t="n">
@@ -8067,12 +8295,12 @@
       </c>
       <c r="F150" t="inlineStr">
         <is>
-          <t>BUDD + FINN</t>
+          <t>STEPPING STONE CAFE</t>
         </is>
       </c>
       <c r="G150" t="inlineStr">
         <is>
-          <t>Home</t>
+          <t>Food &amp; Drink</t>
         </is>
       </c>
       <c r="H150" t="inlineStr">
@@ -8081,14 +8309,14 @@
         </is>
       </c>
       <c r="I150" t="n">
-        <v>-20</v>
+        <v>-44.5</v>
       </c>
       <c r="J150" s="2" t="n">
         <v>44898</v>
       </c>
       <c r="K150" t="inlineStr">
         <is>
-          <t>Amazon</t>
+          <t>Sapphire</t>
         </is>
       </c>
       <c r="L150" t="n">
@@ -8096,31 +8324,31 @@
       </c>
       <c r="M150" t="inlineStr">
         <is>
-          <t>Gifts</t>
+          <t>Coffee</t>
         </is>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="1" t="inlineStr">
         <is>
-          <t>5c87296b-c023-4e06-b448-6a1b1bb58117</t>
+          <t>8e2227e1-e151-4899-aa76-f90f871433a7</t>
         </is>
       </c>
       <c r="B151" s="2" t="n">
-        <v>44898</v>
+        <v>44894</v>
       </c>
       <c r="C151" s="2" t="n">
-        <v>44898</v>
+        <v>44894</v>
       </c>
       <c r="D151" s="2" t="n">
         <v>44891</v>
       </c>
       <c r="E151" s="2" t="n">
-        <v>44893</v>
+        <v>44892</v>
       </c>
       <c r="F151" t="inlineStr">
         <is>
-          <t>TAVERN &amp;amp; POOL</t>
+          <t>SQ *BARISTA</t>
         </is>
       </c>
       <c r="G151" t="inlineStr">
@@ -8134,10 +8362,10 @@
         </is>
       </c>
       <c r="I151" t="n">
-        <v>-31</v>
+        <v>-12</v>
       </c>
       <c r="J151" s="2" t="n">
-        <v>44898</v>
+        <v>44894</v>
       </c>
       <c r="K151" t="inlineStr">
         <is>
@@ -8149,7 +8377,7 @@
       </c>
       <c r="M151" t="inlineStr">
         <is>
-          <t>Eating Out</t>
+          <t>Coffee</t>
         </is>
       </c>
     </row>
@@ -8209,7 +8437,7 @@
     <row r="153">
       <c r="A153" s="1" t="inlineStr">
         <is>
-          <t>18420867-a772-43fc-b163-3200f2125bc7</t>
+          <t>c5a3dbaa-0b5d-45ea-a9ac-98dfe6dbd79f</t>
         </is>
       </c>
       <c r="B153" s="2" t="n">
@@ -8226,12 +8454,12 @@
       </c>
       <c r="F153" t="inlineStr">
         <is>
-          <t>STEPPING STONE CAFE</t>
+          <t>BUDD + FINN</t>
         </is>
       </c>
       <c r="G153" t="inlineStr">
         <is>
-          <t>Food &amp; Drink</t>
+          <t>Home</t>
         </is>
       </c>
       <c r="H153" t="inlineStr">
@@ -8240,14 +8468,14 @@
         </is>
       </c>
       <c r="I153" t="n">
-        <v>-44.5</v>
+        <v>-20</v>
       </c>
       <c r="J153" s="2" t="n">
         <v>44898</v>
       </c>
       <c r="K153" t="inlineStr">
         <is>
-          <t>Sapphire</t>
+          <t>Amazon</t>
         </is>
       </c>
       <c r="L153" t="n">
@@ -8255,14 +8483,14 @@
       </c>
       <c r="M153" t="inlineStr">
         <is>
-          <t>Coffee</t>
+          <t>Gifts</t>
         </is>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="1" t="inlineStr">
         <is>
-          <t>566a54b5-f1f8-4503-860f-f1f7be56a948</t>
+          <t>0537ae35-360f-49e7-8e65-1b8950ca99be</t>
         </is>
       </c>
       <c r="B154" s="2" t="n">
@@ -8279,12 +8507,12 @@
       </c>
       <c r="F154" t="inlineStr">
         <is>
-          <t>76 - DIVISION STREET F</t>
+          <t>TRADER JOE'S #146  QPS</t>
         </is>
       </c>
       <c r="G154" t="inlineStr">
         <is>
-          <t>Gas</t>
+          <t>Groceries</t>
         </is>
       </c>
       <c r="H154" t="inlineStr">
@@ -8293,14 +8521,14 @@
         </is>
       </c>
       <c r="I154" t="n">
-        <v>-62.95</v>
+        <v>-47.96</v>
       </c>
       <c r="J154" s="2" t="n">
         <v>44898</v>
       </c>
       <c r="K154" t="inlineStr">
         <is>
-          <t>Amazon</t>
+          <t>Sapphire</t>
         </is>
       </c>
       <c r="L154" t="n">
@@ -8308,14 +8536,14 @@
       </c>
       <c r="M154" t="inlineStr">
         <is>
-          <t>Gasoline</t>
+          <t>Groceries</t>
         </is>
       </c>
     </row>
     <row r="155">
       <c r="A155" s="1" t="inlineStr">
         <is>
-          <t>6fa7a75e-21dc-4159-94a3-764480f9d213</t>
+          <t>15d339c8-7e74-4b82-a572-ec08aeb2912d</t>
         </is>
       </c>
       <c r="B155" s="2" t="n">
@@ -8332,7 +8560,7 @@
       </c>
       <c r="F155" t="inlineStr">
         <is>
-          <t>SQ *FLYING CAT COFFEE CO</t>
+          <t>SQ *ALBINA PRESS</t>
         </is>
       </c>
       <c r="G155" t="inlineStr">
@@ -8346,7 +8574,7 @@
         </is>
       </c>
       <c r="I155" t="n">
-        <v>-14.09</v>
+        <v>-9.75</v>
       </c>
       <c r="J155" s="2" t="n">
         <v>44898</v>
@@ -8368,7 +8596,7 @@
     <row r="156">
       <c r="A156" s="1" t="inlineStr">
         <is>
-          <t>15d339c8-7e74-4b82-a572-ec08aeb2912d</t>
+          <t>6fa7a75e-21dc-4159-94a3-764480f9d213</t>
         </is>
       </c>
       <c r="B156" s="2" t="n">
@@ -8385,7 +8613,7 @@
       </c>
       <c r="F156" t="inlineStr">
         <is>
-          <t>SQ *ALBINA PRESS</t>
+          <t>SQ *FLYING CAT COFFEE CO</t>
         </is>
       </c>
       <c r="G156" t="inlineStr">
@@ -8399,7 +8627,7 @@
         </is>
       </c>
       <c r="I156" t="n">
-        <v>-9.75</v>
+        <v>-14.09</v>
       </c>
       <c r="J156" s="2" t="n">
         <v>44898</v>
@@ -8421,7 +8649,7 @@
     <row r="157">
       <c r="A157" s="1" t="inlineStr">
         <is>
-          <t>0537ae35-360f-49e7-8e65-1b8950ca99be</t>
+          <t>566a54b5-f1f8-4503-860f-f1f7be56a948</t>
         </is>
       </c>
       <c r="B157" s="2" t="n">
@@ -8438,12 +8666,12 @@
       </c>
       <c r="F157" t="inlineStr">
         <is>
-          <t>TRADER JOE'S #146  QPS</t>
+          <t>76 - DIVISION STREET F</t>
         </is>
       </c>
       <c r="G157" t="inlineStr">
         <is>
-          <t>Groceries</t>
+          <t>Gas</t>
         </is>
       </c>
       <c r="H157" t="inlineStr">
@@ -8452,14 +8680,14 @@
         </is>
       </c>
       <c r="I157" t="n">
-        <v>-47.96</v>
+        <v>-62.95</v>
       </c>
       <c r="J157" s="2" t="n">
         <v>44898</v>
       </c>
       <c r="K157" t="inlineStr">
         <is>
-          <t>Sapphire</t>
+          <t>Amazon</t>
         </is>
       </c>
       <c r="L157" t="n">
@@ -8467,7 +8695,7 @@
       </c>
       <c r="M157" t="inlineStr">
         <is>
-          <t>Groceries</t>
+          <t>Gasoline</t>
         </is>
       </c>
     </row>
@@ -8492,7 +8720,11 @@
           <t>AUTOMATIC PAYMENT - THANK</t>
         </is>
       </c>
-      <c r="G158" t="inlineStr"/>
+      <c r="G158" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
       <c r="H158" t="inlineStr">
         <is>
           <t>Payment</t>
@@ -8512,7 +8744,11 @@
       <c r="L158" t="n">
         <v>0</v>
       </c>
-      <c r="M158" t="inlineStr"/>
+      <c r="M158" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
     </row>
     <row r="159">
       <c r="A159" s="1" t="inlineStr">
@@ -8533,8 +8769,16 @@
           <t>CHASE CREDIT CRD AUTOPAY 000000000503311</t>
         </is>
       </c>
-      <c r="G159" t="inlineStr"/>
-      <c r="H159" t="inlineStr"/>
+      <c r="G159" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="H159" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
       <c r="I159" t="n">
         <v>-691.49</v>
       </c>
@@ -8549,7 +8793,11 @@
       <c r="L159" t="n">
         <v>0</v>
       </c>
-      <c r="M159" t="inlineStr"/>
+      <c r="M159" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
     </row>
     <row r="160">
       <c r="A160" s="1" t="inlineStr">
@@ -8625,8 +8873,16 @@
           <t>KBC Management, WEB PMTS QDGVS6</t>
         </is>
       </c>
-      <c r="G161" t="inlineStr"/>
-      <c r="H161" t="inlineStr"/>
+      <c r="G161" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="H161" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
       <c r="I161" t="n">
         <v>-1630</v>
       </c>
@@ -8668,8 +8924,16 @@
           <t>TOYOTA MOTOR SAL PAYROLL 568349-TMN</t>
         </is>
       </c>
-      <c r="G162" t="inlineStr"/>
-      <c r="H162" t="inlineStr"/>
+      <c r="G162" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="H162" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
       <c r="I162" t="n">
         <v>266.62</v>
       </c>
@@ -8693,11 +8957,11 @@
     <row r="163">
       <c r="A163" s="1" t="inlineStr">
         <is>
-          <t>ad60f8ea-9add-4862-bd7a-6cdd8b49d8da</t>
+          <t>9b8a68b2-cecb-4c3e-a4ba-0a4a94eaee1f</t>
         </is>
       </c>
       <c r="B163" s="2" t="n">
-        <v>44901</v>
+        <v>44926</v>
       </c>
       <c r="C163" s="2" t="n">
         <v>44927</v>
@@ -8710,7 +8974,7 @@
       </c>
       <c r="F163" t="inlineStr">
         <is>
-          <t>TST* Pizza Thief</t>
+          <t>SQ *BARISTA</t>
         </is>
       </c>
       <c r="G163" t="inlineStr">
@@ -8724,10 +8988,10 @@
         </is>
       </c>
       <c r="I163" t="n">
-        <v>-6.75</v>
+        <v>-12</v>
       </c>
       <c r="J163" s="2" t="n">
-        <v>44901</v>
+        <v>44926</v>
       </c>
       <c r="K163" t="inlineStr">
         <is>
@@ -8739,18 +9003,18 @@
       </c>
       <c r="M163" t="inlineStr">
         <is>
-          <t>Eating Out</t>
+          <t>Coffee</t>
         </is>
       </c>
     </row>
     <row r="164">
       <c r="A164" s="1" t="inlineStr">
         <is>
-          <t>9b8a68b2-cecb-4c3e-a4ba-0a4a94eaee1f</t>
+          <t>ad60f8ea-9add-4862-bd7a-6cdd8b49d8da</t>
         </is>
       </c>
       <c r="B164" s="2" t="n">
-        <v>44926</v>
+        <v>44901</v>
       </c>
       <c r="C164" s="2" t="n">
         <v>44927</v>
@@ -8763,7 +9027,7 @@
       </c>
       <c r="F164" t="inlineStr">
         <is>
-          <t>SQ *BARISTA</t>
+          <t>TST* Pizza Thief</t>
         </is>
       </c>
       <c r="G164" t="inlineStr">
@@ -8777,10 +9041,10 @@
         </is>
       </c>
       <c r="I164" t="n">
-        <v>-12</v>
+        <v>-6.75</v>
       </c>
       <c r="J164" s="2" t="n">
-        <v>44926</v>
+        <v>44901</v>
       </c>
       <c r="K164" t="inlineStr">
         <is>
@@ -8792,18 +9056,18 @@
       </c>
       <c r="M164" t="inlineStr">
         <is>
-          <t>Coffee</t>
+          <t>Eating Out</t>
         </is>
       </c>
     </row>
     <row r="165">
       <c r="A165" s="1" t="inlineStr">
         <is>
-          <t>56bcc2d5-b661-4f58-bb1e-3d6456748876</t>
+          <t>e63fd163-56e3-499c-b675-89060ee35408</t>
         </is>
       </c>
       <c r="B165" s="2" t="n">
-        <v>44926</v>
+        <v>44901</v>
       </c>
       <c r="C165" s="2" t="n">
         <v>44927</v>
@@ -8816,12 +9080,12 @@
       </c>
       <c r="F165" t="inlineStr">
         <is>
-          <t>TST* Pizza Thief</t>
+          <t>1PASSWORD</t>
         </is>
       </c>
       <c r="G165" t="inlineStr">
         <is>
-          <t>Food &amp; Drink</t>
+          <t>Shopping</t>
         </is>
       </c>
       <c r="H165" t="inlineStr">
@@ -8830,14 +9094,14 @@
         </is>
       </c>
       <c r="I165" t="n">
-        <v>-40</v>
+        <v>-3.99</v>
       </c>
       <c r="J165" s="2" t="n">
-        <v>44926</v>
+        <v>44901</v>
       </c>
       <c r="K165" t="inlineStr">
         <is>
-          <t>Sapphire</t>
+          <t>Amazon</t>
         </is>
       </c>
       <c r="L165" t="n">
@@ -8845,18 +9109,18 @@
       </c>
       <c r="M165" t="inlineStr">
         <is>
-          <t>Eating Out</t>
+          <t>Services</t>
         </is>
       </c>
     </row>
     <row r="166">
       <c r="A166" s="1" t="inlineStr">
         <is>
-          <t>e63fd163-56e3-499c-b675-89060ee35408</t>
+          <t>56bcc2d5-b661-4f58-bb1e-3d6456748876</t>
         </is>
       </c>
       <c r="B166" s="2" t="n">
-        <v>44901</v>
+        <v>44926</v>
       </c>
       <c r="C166" s="2" t="n">
         <v>44927</v>
@@ -8869,12 +9133,12 @@
       </c>
       <c r="F166" t="inlineStr">
         <is>
-          <t>1PASSWORD</t>
+          <t>TST* Pizza Thief</t>
         </is>
       </c>
       <c r="G166" t="inlineStr">
         <is>
-          <t>Shopping</t>
+          <t>Food &amp; Drink</t>
         </is>
       </c>
       <c r="H166" t="inlineStr">
@@ -8883,14 +9147,14 @@
         </is>
       </c>
       <c r="I166" t="n">
-        <v>-3.99</v>
+        <v>-40</v>
       </c>
       <c r="J166" s="2" t="n">
-        <v>44901</v>
+        <v>44926</v>
       </c>
       <c r="K166" t="inlineStr">
         <is>
-          <t>Amazon</t>
+          <t>Sapphire</t>
         </is>
       </c>
       <c r="L166" t="n">
@@ -8898,7 +9162,7 @@
       </c>
       <c r="M166" t="inlineStr">
         <is>
-          <t>Services</t>
+          <t>Eating Out</t>
         </is>
       </c>
     </row>
@@ -9064,7 +9328,7 @@
     <row r="170">
       <c r="A170" s="1" t="inlineStr">
         <is>
-          <t>dacd5fee-bb43-422c-8302-d748566364d5</t>
+          <t>2ca9ada7-171f-4c7d-8177-d6665df1fb28</t>
         </is>
       </c>
       <c r="B170" s="2" t="n">
@@ -9081,12 +9345,12 @@
       </c>
       <c r="F170" t="inlineStr">
         <is>
-          <t>GOOGLE *CLOUD HWTQ28</t>
+          <t>PEARL HARDWARE</t>
         </is>
       </c>
       <c r="G170" t="inlineStr">
         <is>
-          <t>Professional Services</t>
+          <t>Home</t>
         </is>
       </c>
       <c r="H170" t="inlineStr">
@@ -9095,7 +9359,7 @@
         </is>
       </c>
       <c r="I170" t="n">
-        <v>-0.12</v>
+        <v>-66.95999999999999</v>
       </c>
       <c r="J170" s="2" t="n">
         <v>44926</v>
@@ -9110,14 +9374,14 @@
       </c>
       <c r="M170" t="inlineStr">
         <is>
-          <t>Services</t>
+          <t>Home</t>
         </is>
       </c>
     </row>
     <row r="171">
       <c r="A171" s="1" t="inlineStr">
         <is>
-          <t>2ca9ada7-171f-4c7d-8177-d6665df1fb28</t>
+          <t>dacd5fee-bb43-422c-8302-d748566364d5</t>
         </is>
       </c>
       <c r="B171" s="2" t="n">
@@ -9134,12 +9398,12 @@
       </c>
       <c r="F171" t="inlineStr">
         <is>
-          <t>PEARL HARDWARE</t>
+          <t>GOOGLE *CLOUD HWTQ28</t>
         </is>
       </c>
       <c r="G171" t="inlineStr">
         <is>
-          <t>Home</t>
+          <t>Professional Services</t>
         </is>
       </c>
       <c r="H171" t="inlineStr">
@@ -9148,7 +9412,7 @@
         </is>
       </c>
       <c r="I171" t="n">
-        <v>-66.95999999999999</v>
+        <v>-0.12</v>
       </c>
       <c r="J171" s="2" t="n">
         <v>44926</v>
@@ -9163,7 +9427,7 @@
       </c>
       <c r="M171" t="inlineStr">
         <is>
-          <t>Home</t>
+          <t>Services</t>
         </is>
       </c>
     </row>
@@ -9329,7 +9593,7 @@
     <row r="175">
       <c r="A175" s="1" t="inlineStr">
         <is>
-          <t>179b2eb8-de00-4b51-bf77-98711e746c77</t>
+          <t>b89b600e-90e0-4a4e-a6b7-440289102f5b</t>
         </is>
       </c>
       <c r="B175" s="2" t="n">
@@ -9360,7 +9624,7 @@
         </is>
       </c>
       <c r="I175" t="n">
-        <v>-18</v>
+        <v>-25.8</v>
       </c>
       <c r="J175" s="2" t="n">
         <v>44926</v>
@@ -9382,7 +9646,7 @@
     <row r="176">
       <c r="A176" s="1" t="inlineStr">
         <is>
-          <t>b89b600e-90e0-4a4e-a6b7-440289102f5b</t>
+          <t>179b2eb8-de00-4b51-bf77-98711e746c77</t>
         </is>
       </c>
       <c r="B176" s="2" t="n">
@@ -9413,7 +9677,7 @@
         </is>
       </c>
       <c r="I176" t="n">
-        <v>-25.8</v>
+        <v>-18</v>
       </c>
       <c r="J176" s="2" t="n">
         <v>44926</v>
@@ -9435,7 +9699,7 @@
     <row r="177">
       <c r="A177" s="1" t="inlineStr">
         <is>
-          <t>5106c764-892f-40b9-a4fe-dec130714032</t>
+          <t>acfc7f73-bd68-4011-b192-503b80f22489</t>
         </is>
       </c>
       <c r="B177" s="2" t="n">
@@ -9447,23 +9711,33 @@
       <c r="D177" s="2" t="n">
         <v>44904</v>
       </c>
-      <c r="E177" t="inlineStr"/>
+      <c r="E177" s="2" t="n">
+        <v>44906</v>
+      </c>
       <c r="F177" t="inlineStr">
         <is>
-          <t>TOYOTA MOTOR SAL PAYROLL 568349-TMN</t>
-        </is>
-      </c>
-      <c r="G177" t="inlineStr"/>
-      <c r="H177" t="inlineStr"/>
+          <t>TODOIST</t>
+        </is>
+      </c>
+      <c r="G177" t="inlineStr">
+        <is>
+          <t>Shopping</t>
+        </is>
+      </c>
+      <c r="H177" t="inlineStr">
+        <is>
+          <t>Sale</t>
+        </is>
+      </c>
       <c r="I177" t="n">
-        <v>1895.88</v>
+        <v>-29</v>
       </c>
       <c r="J177" s="2" t="n">
         <v>44926</v>
       </c>
       <c r="K177" t="inlineStr">
         <is>
-          <t>Mechanics</t>
+          <t>Amazon</t>
         </is>
       </c>
       <c r="L177" t="n">
@@ -9471,14 +9745,14 @@
       </c>
       <c r="M177" t="inlineStr">
         <is>
-          <t>Income</t>
+          <t>Services</t>
         </is>
       </c>
     </row>
     <row r="178">
       <c r="A178" s="1" t="inlineStr">
         <is>
-          <t>acfc7f73-bd68-4011-b192-503b80f22489</t>
+          <t>5106c764-892f-40b9-a4fe-dec130714032</t>
         </is>
       </c>
       <c r="B178" s="2" t="n">
@@ -9490,33 +9764,31 @@
       <c r="D178" s="2" t="n">
         <v>44904</v>
       </c>
-      <c r="E178" s="2" t="n">
-        <v>44906</v>
-      </c>
+      <c r="E178" t="inlineStr"/>
       <c r="F178" t="inlineStr">
         <is>
-          <t>TODOIST</t>
+          <t>TOYOTA MOTOR SAL PAYROLL 568349-TMN</t>
         </is>
       </c>
       <c r="G178" t="inlineStr">
         <is>
-          <t>Shopping</t>
+          <t>nan</t>
         </is>
       </c>
       <c r="H178" t="inlineStr">
         <is>
-          <t>Sale</t>
+          <t>nan</t>
         </is>
       </c>
       <c r="I178" t="n">
-        <v>-29</v>
+        <v>1895.88</v>
       </c>
       <c r="J178" s="2" t="n">
         <v>44926</v>
       </c>
       <c r="K178" t="inlineStr">
         <is>
-          <t>Amazon</t>
+          <t>Mechanics</t>
         </is>
       </c>
       <c r="L178" t="n">
@@ -9524,14 +9796,14 @@
       </c>
       <c r="M178" t="inlineStr">
         <is>
-          <t>Services</t>
+          <t>Income</t>
         </is>
       </c>
     </row>
     <row r="179">
       <c r="A179" s="1" t="inlineStr">
         <is>
-          <t>fa841805-6a52-4265-ac77-f801137bc73f</t>
+          <t>dd1aa9b3-b861-4450-bbb5-0b81abce49b4</t>
         </is>
       </c>
       <c r="B179" s="2" t="n">
@@ -9544,16 +9816,16 @@
         <v>44904</v>
       </c>
       <c r="E179" s="2" t="n">
-        <v>44906</v>
+        <v>44904</v>
       </c>
       <c r="F179" t="inlineStr">
         <is>
-          <t>CITY OF PORTLAND DEPT</t>
+          <t>Spotify USA</t>
         </is>
       </c>
       <c r="G179" t="inlineStr">
         <is>
-          <t>Travel</t>
+          <t>Bills &amp; Utilities</t>
         </is>
       </c>
       <c r="H179" t="inlineStr">
@@ -9562,7 +9834,7 @@
         </is>
       </c>
       <c r="I179" t="n">
-        <v>-3</v>
+        <v>-9.99</v>
       </c>
       <c r="J179" s="2" t="n">
         <v>44926</v>
@@ -9577,14 +9849,14 @@
       </c>
       <c r="M179" t="inlineStr">
         <is>
-          <t>Parking</t>
+          <t>Services</t>
         </is>
       </c>
     </row>
     <row r="180">
       <c r="A180" s="1" t="inlineStr">
         <is>
-          <t>dd1aa9b3-b861-4450-bbb5-0b81abce49b4</t>
+          <t>fa841805-6a52-4265-ac77-f801137bc73f</t>
         </is>
       </c>
       <c r="B180" s="2" t="n">
@@ -9597,16 +9869,16 @@
         <v>44904</v>
       </c>
       <c r="E180" s="2" t="n">
-        <v>44904</v>
+        <v>44906</v>
       </c>
       <c r="F180" t="inlineStr">
         <is>
-          <t>Spotify USA</t>
+          <t>CITY OF PORTLAND DEPT</t>
         </is>
       </c>
       <c r="G180" t="inlineStr">
         <is>
-          <t>Bills &amp; Utilities</t>
+          <t>Travel</t>
         </is>
       </c>
       <c r="H180" t="inlineStr">
@@ -9615,7 +9887,7 @@
         </is>
       </c>
       <c r="I180" t="n">
-        <v>-9.99</v>
+        <v>-3</v>
       </c>
       <c r="J180" s="2" t="n">
         <v>44926</v>
@@ -9630,14 +9902,14 @@
       </c>
       <c r="M180" t="inlineStr">
         <is>
-          <t>Services</t>
+          <t>Parking</t>
         </is>
       </c>
     </row>
     <row r="181">
       <c r="A181" s="1" t="inlineStr">
         <is>
-          <t>c722e44e-956d-4705-906a-06a996eb7468</t>
+          <t>bc05baa7-927a-41db-b477-291d125176b8</t>
         </is>
       </c>
       <c r="B181" s="2" t="n">
@@ -9654,12 +9926,12 @@
       </c>
       <c r="F181" t="inlineStr">
         <is>
-          <t>Amazon Prime*YP4734EX3</t>
+          <t>SQ *BARISTA</t>
         </is>
       </c>
       <c r="G181" t="inlineStr">
         <is>
-          <t>Bills &amp; Utilities</t>
+          <t>Food &amp; Drink</t>
         </is>
       </c>
       <c r="H181" t="inlineStr">
@@ -9668,14 +9940,14 @@
         </is>
       </c>
       <c r="I181" t="n">
-        <v>-8.07</v>
+        <v>-12.65</v>
       </c>
       <c r="J181" s="2" t="n">
         <v>44926</v>
       </c>
       <c r="K181" t="inlineStr">
         <is>
-          <t>Amazon</t>
+          <t>Sapphire</t>
         </is>
       </c>
       <c r="L181" t="n">
@@ -9683,14 +9955,14 @@
       </c>
       <c r="M181" t="inlineStr">
         <is>
-          <t>Services</t>
+          <t>Coffee</t>
         </is>
       </c>
     </row>
     <row r="182">
       <c r="A182" s="1" t="inlineStr">
         <is>
-          <t>bc05baa7-927a-41db-b477-291d125176b8</t>
+          <t>c722e44e-956d-4705-906a-06a996eb7468</t>
         </is>
       </c>
       <c r="B182" s="2" t="n">
@@ -9707,12 +9979,12 @@
       </c>
       <c r="F182" t="inlineStr">
         <is>
-          <t>SQ *BARISTA</t>
+          <t>Amazon Prime*YP4734EX3</t>
         </is>
       </c>
       <c r="G182" t="inlineStr">
         <is>
-          <t>Food &amp; Drink</t>
+          <t>Bills &amp; Utilities</t>
         </is>
       </c>
       <c r="H182" t="inlineStr">
@@ -9721,14 +9993,14 @@
         </is>
       </c>
       <c r="I182" t="n">
-        <v>-12.65</v>
+        <v>-8.07</v>
       </c>
       <c r="J182" s="2" t="n">
         <v>44926</v>
       </c>
       <c r="K182" t="inlineStr">
         <is>
-          <t>Sapphire</t>
+          <t>Amazon</t>
         </is>
       </c>
       <c r="L182" t="n">
@@ -9736,7 +10008,7 @@
       </c>
       <c r="M182" t="inlineStr">
         <is>
-          <t>Coffee</t>
+          <t>Services</t>
         </is>
       </c>
     </row>
@@ -9849,7 +10121,7 @@
     <row r="185">
       <c r="A185" s="1" t="inlineStr">
         <is>
-          <t>e2470a16-1b2b-4604-bed4-850dc097428b</t>
+          <t>cd83bfba-e0f1-4844-92ae-a3190ff15383</t>
         </is>
       </c>
       <c r="B185" s="2" t="n">
@@ -9866,12 +10138,12 @@
       </c>
       <c r="F185" t="inlineStr">
         <is>
-          <t>76 - ST HELENS RD</t>
+          <t>SQ *CLEARING CAFE</t>
         </is>
       </c>
       <c r="G185" t="inlineStr">
         <is>
-          <t>Gas</t>
+          <t>Food &amp; Drink</t>
         </is>
       </c>
       <c r="H185" t="inlineStr">
@@ -9880,14 +10152,14 @@
         </is>
       </c>
       <c r="I185" t="n">
-        <v>-55.88</v>
+        <v>-6.5</v>
       </c>
       <c r="J185" s="2" t="n">
         <v>44926</v>
       </c>
       <c r="K185" t="inlineStr">
         <is>
-          <t>Amazon</t>
+          <t>Sapphire</t>
         </is>
       </c>
       <c r="L185" t="n">
@@ -9895,14 +10167,14 @@
       </c>
       <c r="M185" t="inlineStr">
         <is>
-          <t>Gasoline</t>
+          <t>Coffee</t>
         </is>
       </c>
     </row>
     <row r="186">
       <c r="A186" s="1" t="inlineStr">
         <is>
-          <t>26a0187f-5e43-49c8-91f9-5be3ed64ba1c</t>
+          <t>e2470a16-1b2b-4604-bed4-850dc097428b</t>
         </is>
       </c>
       <c r="B186" s="2" t="n">
@@ -9919,12 +10191,12 @@
       </c>
       <c r="F186" t="inlineStr">
         <is>
-          <t>SQ *CLEARING CAFE</t>
+          <t>76 - ST HELENS RD</t>
         </is>
       </c>
       <c r="G186" t="inlineStr">
         <is>
-          <t>Food &amp; Drink</t>
+          <t>Gas</t>
         </is>
       </c>
       <c r="H186" t="inlineStr">
@@ -9933,14 +10205,14 @@
         </is>
       </c>
       <c r="I186" t="n">
-        <v>-8</v>
+        <v>-55.88</v>
       </c>
       <c r="J186" s="2" t="n">
         <v>44926</v>
       </c>
       <c r="K186" t="inlineStr">
         <is>
-          <t>Sapphire</t>
+          <t>Amazon</t>
         </is>
       </c>
       <c r="L186" t="n">
@@ -9948,14 +10220,14 @@
       </c>
       <c r="M186" t="inlineStr">
         <is>
-          <t>Coffee</t>
+          <t>Gasoline</t>
         </is>
       </c>
     </row>
     <row r="187">
       <c r="A187" s="1" t="inlineStr">
         <is>
-          <t>cd83bfba-e0f1-4844-92ae-a3190ff15383</t>
+          <t>26a0187f-5e43-49c8-91f9-5be3ed64ba1c</t>
         </is>
       </c>
       <c r="B187" s="2" t="n">
@@ -9986,7 +10258,7 @@
         </is>
       </c>
       <c r="I187" t="n">
-        <v>-6.5</v>
+        <v>-8</v>
       </c>
       <c r="J187" s="2" t="n">
         <v>44926</v>
@@ -10024,8 +10296,16 @@
           <t>Mobile Deposit</t>
         </is>
       </c>
-      <c r="G188" t="inlineStr"/>
-      <c r="H188" t="inlineStr"/>
+      <c r="G188" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="H188" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
       <c r="I188" t="n">
         <v>162.64</v>
       </c>
@@ -10040,7 +10320,11 @@
       <c r="L188" t="n">
         <v>0</v>
       </c>
-      <c r="M188" t="inlineStr"/>
+      <c r="M188" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
     </row>
     <row r="189">
       <c r="A189" s="1" t="inlineStr">
@@ -10416,7 +10700,7 @@
     <row r="196">
       <c r="A196" s="1" t="inlineStr">
         <is>
-          <t>df2ff11b-bd40-4209-b56d-1c5deda7dea3</t>
+          <t>db697e01-69b2-4815-b33c-e9d64b7f199d</t>
         </is>
       </c>
       <c r="B196" s="2" t="n">
@@ -10433,12 +10717,12 @@
       </c>
       <c r="F196" t="inlineStr">
         <is>
-          <t>CITY OF PORTLAND DEPT</t>
+          <t>WALMART EGIFT CARD</t>
         </is>
       </c>
       <c r="G196" t="inlineStr">
         <is>
-          <t>Travel</t>
+          <t>Shopping</t>
         </is>
       </c>
       <c r="H196" t="inlineStr">
@@ -10447,7 +10731,7 @@
         </is>
       </c>
       <c r="I196" t="n">
-        <v>-1.2</v>
+        <v>-50</v>
       </c>
       <c r="J196" s="2" t="n">
         <v>44926</v>
@@ -10462,14 +10746,14 @@
       </c>
       <c r="M196" t="inlineStr">
         <is>
-          <t>Parking</t>
+          <t>Gifts</t>
         </is>
       </c>
     </row>
     <row r="197">
       <c r="A197" s="1" t="inlineStr">
         <is>
-          <t>db697e01-69b2-4815-b33c-e9d64b7f199d</t>
+          <t>df2ff11b-bd40-4209-b56d-1c5deda7dea3</t>
         </is>
       </c>
       <c r="B197" s="2" t="n">
@@ -10486,12 +10770,12 @@
       </c>
       <c r="F197" t="inlineStr">
         <is>
-          <t>WALMART EGIFT CARD</t>
+          <t>CITY OF PORTLAND DEPT</t>
         </is>
       </c>
       <c r="G197" t="inlineStr">
         <is>
-          <t>Shopping</t>
+          <t>Travel</t>
         </is>
       </c>
       <c r="H197" t="inlineStr">
@@ -10500,7 +10784,7 @@
         </is>
       </c>
       <c r="I197" t="n">
-        <v>-50</v>
+        <v>-1.2</v>
       </c>
       <c r="J197" s="2" t="n">
         <v>44926</v>
@@ -10515,7 +10799,7 @@
       </c>
       <c r="M197" t="inlineStr">
         <is>
-          <t>Gifts</t>
+          <t>Parking</t>
         </is>
       </c>
     </row>
@@ -10540,7 +10824,11 @@
           <t>AUTOMATIC PAYMENT - THANK</t>
         </is>
       </c>
-      <c r="G198" t="inlineStr"/>
+      <c r="G198" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
       <c r="H198" t="inlineStr">
         <is>
           <t>Payment</t>
@@ -10560,7 +10848,11 @@
       <c r="L198" t="n">
         <v>0</v>
       </c>
-      <c r="M198" t="inlineStr"/>
+      <c r="M198" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
     </row>
     <row r="199">
       <c r="A199" s="1" t="inlineStr">
@@ -10618,7 +10910,7 @@
     <row r="200">
       <c r="A200" s="1" t="inlineStr">
         <is>
-          <t>c7e97ca3-d0d6-4e73-928d-c9b76933ffb7</t>
+          <t>7d52bfdd-44a2-4996-b32f-2962aa1b04ca</t>
         </is>
       </c>
       <c r="B200" s="2" t="n">
@@ -10635,7 +10927,7 @@
       </c>
       <c r="F200" t="inlineStr">
         <is>
-          <t>STARBUCKS STORE 00428</t>
+          <t>TST* The Fireside</t>
         </is>
       </c>
       <c r="G200" t="inlineStr">
@@ -10649,7 +10941,7 @@
         </is>
       </c>
       <c r="I200" t="n">
-        <v>-4.25</v>
+        <v>-100</v>
       </c>
       <c r="J200" s="2" t="n">
         <v>44926</v>
@@ -10664,14 +10956,14 @@
       </c>
       <c r="M200" t="inlineStr">
         <is>
-          <t>Coffee</t>
+          <t>Eating Out</t>
         </is>
       </c>
     </row>
     <row r="201">
       <c r="A201" s="1" t="inlineStr">
         <is>
-          <t>7d52bfdd-44a2-4996-b32f-2962aa1b04ca</t>
+          <t>c7e97ca3-d0d6-4e73-928d-c9b76933ffb7</t>
         </is>
       </c>
       <c r="B201" s="2" t="n">
@@ -10688,7 +10980,7 @@
       </c>
       <c r="F201" t="inlineStr">
         <is>
-          <t>TST* The Fireside</t>
+          <t>STARBUCKS STORE 00428</t>
         </is>
       </c>
       <c r="G201" t="inlineStr">
@@ -10702,7 +10994,7 @@
         </is>
       </c>
       <c r="I201" t="n">
-        <v>-100</v>
+        <v>-4.25</v>
       </c>
       <c r="J201" s="2" t="n">
         <v>44926</v>
@@ -10717,7 +11009,7 @@
       </c>
       <c r="M201" t="inlineStr">
         <is>
-          <t>Eating Out</t>
+          <t>Coffee</t>
         </is>
       </c>
     </row>
@@ -10777,97 +11069,109 @@
     <row r="203">
       <c r="A203" s="1" t="inlineStr">
         <is>
-          <t>81a8db9d-6634-472a-a0e4-a4b53536c9b4</t>
+          <t>1e11c642-58ee-4458-a46c-ec17012760f3</t>
         </is>
       </c>
       <c r="B203" s="2" t="n">
         <v>44926</v>
       </c>
-      <c r="C203" t="inlineStr"/>
+      <c r="C203" s="2" t="n">
+        <v>44927</v>
+      </c>
       <c r="D203" s="2" t="n">
         <v>44914</v>
       </c>
-      <c r="E203" t="inlineStr"/>
+      <c r="E203" s="2" t="n">
+        <v>44916</v>
+      </c>
       <c r="F203" t="inlineStr">
         <is>
-          <t>CHASE CREDIT CRD AUTOPAY 000000000591807</t>
-        </is>
-      </c>
-      <c r="G203" t="inlineStr"/>
-      <c r="H203" t="inlineStr"/>
+          <t>STARBUCKS STORE 00428</t>
+        </is>
+      </c>
+      <c r="G203" t="inlineStr">
+        <is>
+          <t>Food &amp; Drink</t>
+        </is>
+      </c>
+      <c r="H203" t="inlineStr">
+        <is>
+          <t>Sale</t>
+        </is>
+      </c>
       <c r="I203" t="n">
-        <v>-1324.09</v>
+        <v>-4.25</v>
       </c>
       <c r="J203" s="2" t="n">
         <v>44926</v>
       </c>
       <c r="K203" t="inlineStr">
         <is>
-          <t>Mechanics</t>
+          <t>Sapphire</t>
         </is>
       </c>
       <c r="L203" t="n">
-        <v>0</v>
-      </c>
-      <c r="M203" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="M203" t="inlineStr">
+        <is>
+          <t>Coffee</t>
+        </is>
+      </c>
     </row>
     <row r="204">
       <c r="A204" s="1" t="inlineStr">
         <is>
-          <t>c7eb23f5-9fb1-47b1-93d3-9b05a8e8858d</t>
+          <t>81a8db9d-6634-472a-a0e4-a4b53536c9b4</t>
         </is>
       </c>
       <c r="B204" s="2" t="n">
         <v>44926</v>
       </c>
-      <c r="C204" s="2" t="n">
-        <v>44927</v>
-      </c>
+      <c r="C204" t="inlineStr"/>
       <c r="D204" s="2" t="n">
         <v>44914</v>
       </c>
-      <c r="E204" s="2" t="n">
-        <v>44915</v>
-      </c>
+      <c r="E204" t="inlineStr"/>
       <c r="F204" t="inlineStr">
         <is>
-          <t>TRADER JOE'S #146  QPS</t>
+          <t>CHASE CREDIT CRD AUTOPAY 000000000591807</t>
         </is>
       </c>
       <c r="G204" t="inlineStr">
         <is>
-          <t>Groceries</t>
+          <t>nan</t>
         </is>
       </c>
       <c r="H204" t="inlineStr">
         <is>
-          <t>Sale</t>
+          <t>nan</t>
         </is>
       </c>
       <c r="I204" t="n">
-        <v>-45.64</v>
+        <v>-1324.09</v>
       </c>
       <c r="J204" s="2" t="n">
         <v>44926</v>
       </c>
       <c r="K204" t="inlineStr">
         <is>
-          <t>Sapphire</t>
+          <t>Mechanics</t>
         </is>
       </c>
       <c r="L204" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M204" t="inlineStr">
         <is>
-          <t>Groceries</t>
+          <t>nan</t>
         </is>
       </c>
     </row>
     <row r="205">
       <c r="A205" s="1" t="inlineStr">
         <is>
-          <t>1e11c642-58ee-4458-a46c-ec17012760f3</t>
+          <t>c7eb23f5-9fb1-47b1-93d3-9b05a8e8858d</t>
         </is>
       </c>
       <c r="B205" s="2" t="n">
@@ -10880,16 +11184,16 @@
         <v>44914</v>
       </c>
       <c r="E205" s="2" t="n">
-        <v>44916</v>
+        <v>44915</v>
       </c>
       <c r="F205" t="inlineStr">
         <is>
-          <t>STARBUCKS STORE 00428</t>
+          <t>TRADER JOE'S #146  QPS</t>
         </is>
       </c>
       <c r="G205" t="inlineStr">
         <is>
-          <t>Food &amp; Drink</t>
+          <t>Groceries</t>
         </is>
       </c>
       <c r="H205" t="inlineStr">
@@ -10898,7 +11202,7 @@
         </is>
       </c>
       <c r="I205" t="n">
-        <v>-4.25</v>
+        <v>-45.64</v>
       </c>
       <c r="J205" s="2" t="n">
         <v>44926</v>
@@ -10913,7 +11217,7 @@
       </c>
       <c r="M205" t="inlineStr">
         <is>
-          <t>Coffee</t>
+          <t>Groceries</t>
         </is>
       </c>
     </row>
@@ -10973,7 +11277,7 @@
     <row r="207">
       <c r="A207" s="1" t="inlineStr">
         <is>
-          <t>e4bb6897-9fd4-41bc-be06-6d58dc49fc02</t>
+          <t>22aee82c-d374-4c48-8fa5-6010773ed409</t>
         </is>
       </c>
       <c r="B207" s="2" t="n">
@@ -10986,11 +11290,11 @@
         <v>44917</v>
       </c>
       <c r="E207" s="2" t="n">
-        <v>44920</v>
+        <v>44918</v>
       </c>
       <c r="F207" t="inlineStr">
         <is>
-          <t>STARBUCKS STORE 00428</t>
+          <t>TST* Pizza Thief</t>
         </is>
       </c>
       <c r="G207" t="inlineStr">
@@ -11004,7 +11308,7 @@
         </is>
       </c>
       <c r="I207" t="n">
-        <v>-7</v>
+        <v>-16</v>
       </c>
       <c r="J207" s="2" t="n">
         <v>44926</v>
@@ -11019,14 +11323,14 @@
       </c>
       <c r="M207" t="inlineStr">
         <is>
-          <t>Coffee</t>
+          <t>Eating Out</t>
         </is>
       </c>
     </row>
     <row r="208">
       <c r="A208" s="1" t="inlineStr">
         <is>
-          <t>22aee82c-d374-4c48-8fa5-6010773ed409</t>
+          <t>979cf0ba-bf94-4f4e-97cb-4da50b92fa05</t>
         </is>
       </c>
       <c r="B208" s="2" t="n">
@@ -11039,16 +11343,16 @@
         <v>44917</v>
       </c>
       <c r="E208" s="2" t="n">
-        <v>44918</v>
+        <v>44917</v>
       </c>
       <c r="F208" t="inlineStr">
         <is>
-          <t>TST* Pizza Thief</t>
+          <t>GOOGLE *Domains</t>
         </is>
       </c>
       <c r="G208" t="inlineStr">
         <is>
-          <t>Food &amp; Drink</t>
+          <t>Bills &amp; Utilities</t>
         </is>
       </c>
       <c r="H208" t="inlineStr">
@@ -11057,14 +11361,14 @@
         </is>
       </c>
       <c r="I208" t="n">
-        <v>-16</v>
+        <v>-6</v>
       </c>
       <c r="J208" s="2" t="n">
         <v>44926</v>
       </c>
       <c r="K208" t="inlineStr">
         <is>
-          <t>Sapphire</t>
+          <t>Amazon</t>
         </is>
       </c>
       <c r="L208" t="n">
@@ -11072,14 +11376,14 @@
       </c>
       <c r="M208" t="inlineStr">
         <is>
-          <t>Eating Out</t>
+          <t>Services</t>
         </is>
       </c>
     </row>
     <row r="209">
       <c r="A209" s="1" t="inlineStr">
         <is>
-          <t>a683af98-6527-4b33-95de-7141a1b4facc</t>
+          <t>e4bb6897-9fd4-41bc-be06-6d58dc49fc02</t>
         </is>
       </c>
       <c r="B209" s="2" t="n">
@@ -11092,16 +11396,16 @@
         <v>44917</v>
       </c>
       <c r="E209" s="2" t="n">
-        <v>44918</v>
+        <v>44920</v>
       </c>
       <c r="F209" t="inlineStr">
         <is>
-          <t>76 - PLAID PANTRY 83</t>
+          <t>STARBUCKS STORE 00428</t>
         </is>
       </c>
       <c r="G209" t="inlineStr">
         <is>
-          <t>Gas</t>
+          <t>Food &amp; Drink</t>
         </is>
       </c>
       <c r="H209" t="inlineStr">
@@ -11110,14 +11414,14 @@
         </is>
       </c>
       <c r="I209" t="n">
-        <v>-56.04</v>
+        <v>-7</v>
       </c>
       <c r="J209" s="2" t="n">
         <v>44926</v>
       </c>
       <c r="K209" t="inlineStr">
         <is>
-          <t>Amazon</t>
+          <t>Sapphire</t>
         </is>
       </c>
       <c r="L209" t="n">
@@ -11125,14 +11429,14 @@
       </c>
       <c r="M209" t="inlineStr">
         <is>
-          <t>Gasoline</t>
+          <t>Coffee</t>
         </is>
       </c>
     </row>
     <row r="210">
       <c r="A210" s="1" t="inlineStr">
         <is>
-          <t>979cf0ba-bf94-4f4e-97cb-4da50b92fa05</t>
+          <t>268d6baf-6fbb-4a9e-8b0c-f1b26fd9b5d1</t>
         </is>
       </c>
       <c r="B210" s="2" t="n">
@@ -11145,16 +11449,16 @@
         <v>44917</v>
       </c>
       <c r="E210" s="2" t="n">
-        <v>44917</v>
+        <v>44920</v>
       </c>
       <c r="F210" t="inlineStr">
         <is>
-          <t>GOOGLE *Domains</t>
+          <t>STARBUCKS STORE 00428</t>
         </is>
       </c>
       <c r="G210" t="inlineStr">
         <is>
-          <t>Bills &amp; Utilities</t>
+          <t>Food &amp; Drink</t>
         </is>
       </c>
       <c r="H210" t="inlineStr">
@@ -11163,14 +11467,14 @@
         </is>
       </c>
       <c r="I210" t="n">
-        <v>-6</v>
+        <v>-4.65</v>
       </c>
       <c r="J210" s="2" t="n">
         <v>44926</v>
       </c>
       <c r="K210" t="inlineStr">
         <is>
-          <t>Amazon</t>
+          <t>Sapphire</t>
         </is>
       </c>
       <c r="L210" t="n">
@@ -11178,14 +11482,14 @@
       </c>
       <c r="M210" t="inlineStr">
         <is>
-          <t>Services</t>
+          <t>Coffee</t>
         </is>
       </c>
     </row>
     <row r="211">
       <c r="A211" s="1" t="inlineStr">
         <is>
-          <t>1269bd7f-f0cf-4bcd-83ec-9636f5d58097</t>
+          <t>a683af98-6527-4b33-95de-7141a1b4facc</t>
         </is>
       </c>
       <c r="B211" s="2" t="n">
@@ -11202,12 +11506,12 @@
       </c>
       <c r="F211" t="inlineStr">
         <is>
-          <t>TST* Pizza Thief</t>
+          <t>76 - PLAID PANTRY 83</t>
         </is>
       </c>
       <c r="G211" t="inlineStr">
         <is>
-          <t>Food &amp; Drink</t>
+          <t>Gas</t>
         </is>
       </c>
       <c r="H211" t="inlineStr">
@@ -11216,14 +11520,14 @@
         </is>
       </c>
       <c r="I211" t="n">
-        <v>-6.75</v>
+        <v>-56.04</v>
       </c>
       <c r="J211" s="2" t="n">
         <v>44926</v>
       </c>
       <c r="K211" t="inlineStr">
         <is>
-          <t>Sapphire</t>
+          <t>Amazon</t>
         </is>
       </c>
       <c r="L211" t="n">
@@ -11231,14 +11535,14 @@
       </c>
       <c r="M211" t="inlineStr">
         <is>
-          <t>Eating Out</t>
+          <t>Gasoline</t>
         </is>
       </c>
     </row>
     <row r="212">
       <c r="A212" s="1" t="inlineStr">
         <is>
-          <t>268d6baf-6fbb-4a9e-8b0c-f1b26fd9b5d1</t>
+          <t>1269bd7f-f0cf-4bcd-83ec-9636f5d58097</t>
         </is>
       </c>
       <c r="B212" s="2" t="n">
@@ -11251,11 +11555,11 @@
         <v>44917</v>
       </c>
       <c r="E212" s="2" t="n">
-        <v>44920</v>
+        <v>44918</v>
       </c>
       <c r="F212" t="inlineStr">
         <is>
-          <t>STARBUCKS STORE 00428</t>
+          <t>TST* Pizza Thief</t>
         </is>
       </c>
       <c r="G212" t="inlineStr">
@@ -11269,7 +11573,7 @@
         </is>
       </c>
       <c r="I212" t="n">
-        <v>-4.65</v>
+        <v>-6.75</v>
       </c>
       <c r="J212" s="2" t="n">
         <v>44926</v>
@@ -11284,36 +11588,34 @@
       </c>
       <c r="M212" t="inlineStr">
         <is>
-          <t>Coffee</t>
+          <t>Eating Out</t>
         </is>
       </c>
     </row>
     <row r="213">
       <c r="A213" s="1" t="inlineStr">
         <is>
-          <t>37422ab4-33ab-4672-a509-0df15ad1878d</t>
+          <t>51894e26-61b3-4b6d-b54f-431b5d00a7f5</t>
         </is>
       </c>
       <c r="B213" s="2" t="n">
         <v>44926</v>
       </c>
-      <c r="C213" s="2" t="n">
-        <v>44927</v>
-      </c>
+      <c r="C213" t="inlineStr"/>
       <c r="D213" s="2" t="n">
         <v>44918</v>
       </c>
       <c r="E213" s="2" t="n">
-        <v>44918</v>
+        <v>44920</v>
       </c>
       <c r="F213" t="inlineStr">
         <is>
-          <t>adidas 6536 Portland</t>
+          <t>AVIS.COM PREPAY</t>
         </is>
       </c>
       <c r="G213" t="inlineStr">
         <is>
-          <t>Shopping</t>
+          <t>Travel</t>
         </is>
       </c>
       <c r="H213" t="inlineStr">
@@ -11322,7 +11624,7 @@
         </is>
       </c>
       <c r="I213" t="n">
-        <v>-190.55</v>
+        <v>-162.25</v>
       </c>
       <c r="J213" s="2" t="n">
         <v>44926</v>
@@ -11333,38 +11635,40 @@
         </is>
       </c>
       <c r="L213" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M213" t="inlineStr">
         <is>
-          <t>Clothes</t>
+          <t>nan</t>
         </is>
       </c>
     </row>
     <row r="214">
       <c r="A214" s="1" t="inlineStr">
         <is>
-          <t>51894e26-61b3-4b6d-b54f-431b5d00a7f5</t>
+          <t>37422ab4-33ab-4672-a509-0df15ad1878d</t>
         </is>
       </c>
       <c r="B214" s="2" t="n">
         <v>44926</v>
       </c>
-      <c r="C214" t="inlineStr"/>
+      <c r="C214" s="2" t="n">
+        <v>44927</v>
+      </c>
       <c r="D214" s="2" t="n">
         <v>44918</v>
       </c>
       <c r="E214" s="2" t="n">
-        <v>44920</v>
+        <v>44918</v>
       </c>
       <c r="F214" t="inlineStr">
         <is>
-          <t>AVIS.COM PREPAY</t>
+          <t>adidas 6536 Portland</t>
         </is>
       </c>
       <c r="G214" t="inlineStr">
         <is>
-          <t>Travel</t>
+          <t>Shopping</t>
         </is>
       </c>
       <c r="H214" t="inlineStr">
@@ -11373,7 +11677,7 @@
         </is>
       </c>
       <c r="I214" t="n">
-        <v>-162.25</v>
+        <v>-190.55</v>
       </c>
       <c r="J214" s="2" t="n">
         <v>44926</v>
@@ -11384,14 +11688,18 @@
         </is>
       </c>
       <c r="L214" t="n">
-        <v>0</v>
-      </c>
-      <c r="M214" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="M214" t="inlineStr">
+        <is>
+          <t>Clothes</t>
+        </is>
+      </c>
     </row>
     <row r="215">
       <c r="A215" s="1" t="inlineStr">
         <is>
-          <t>94000b2e-765b-4131-9c9e-43ae3c02aed2</t>
+          <t>ba1d3d17-a3db-41aa-b1c7-55b3cceefe90</t>
         </is>
       </c>
       <c r="B215" s="2" t="n">
@@ -11408,12 +11716,12 @@
       </c>
       <c r="F215" t="inlineStr">
         <is>
-          <t>PILOT_00391</t>
+          <t>CHIPOTLE 2782</t>
         </is>
       </c>
       <c r="G215" t="inlineStr">
         <is>
-          <t>Gas</t>
+          <t>Food &amp; Drink</t>
         </is>
       </c>
       <c r="H215" t="inlineStr">
@@ -11422,14 +11730,14 @@
         </is>
       </c>
       <c r="I215" t="n">
-        <v>-35.33</v>
+        <v>-12.2</v>
       </c>
       <c r="J215" s="2" t="n">
         <v>44926</v>
       </c>
       <c r="K215" t="inlineStr">
         <is>
-          <t>Amazon</t>
+          <t>Sapphire</t>
         </is>
       </c>
       <c r="L215" t="n">
@@ -11444,7 +11752,7 @@
     <row r="216">
       <c r="A216" s="1" t="inlineStr">
         <is>
-          <t>ba1d3d17-a3db-41aa-b1c7-55b3cceefe90</t>
+          <t>39d31fd1-2c90-4bb8-b198-1bb9562987cf</t>
         </is>
       </c>
       <c r="B216" s="2" t="n">
@@ -11457,16 +11765,16 @@
         <v>44918</v>
       </c>
       <c r="E216" s="2" t="n">
-        <v>44920</v>
+        <v>44921</v>
       </c>
       <c r="F216" t="inlineStr">
         <is>
-          <t>CHIPOTLE 2782</t>
+          <t>PILOT         00003913</t>
         </is>
       </c>
       <c r="G216" t="inlineStr">
         <is>
-          <t>Food &amp; Drink</t>
+          <t>Gas</t>
         </is>
       </c>
       <c r="H216" t="inlineStr">
@@ -11475,7 +11783,7 @@
         </is>
       </c>
       <c r="I216" t="n">
-        <v>-12.2</v>
+        <v>-19.28</v>
       </c>
       <c r="J216" s="2" t="n">
         <v>44926</v>
@@ -11497,7 +11805,7 @@
     <row r="217">
       <c r="A217" s="1" t="inlineStr">
         <is>
-          <t>39d31fd1-2c90-4bb8-b198-1bb9562987cf</t>
+          <t>94000b2e-765b-4131-9c9e-43ae3c02aed2</t>
         </is>
       </c>
       <c r="B217" s="2" t="n">
@@ -11510,11 +11818,11 @@
         <v>44918</v>
       </c>
       <c r="E217" s="2" t="n">
-        <v>44921</v>
+        <v>44920</v>
       </c>
       <c r="F217" t="inlineStr">
         <is>
-          <t>PILOT         00003913</t>
+          <t>PILOT_00391</t>
         </is>
       </c>
       <c r="G217" t="inlineStr">
@@ -11528,14 +11836,14 @@
         </is>
       </c>
       <c r="I217" t="n">
-        <v>-19.28</v>
+        <v>-35.33</v>
       </c>
       <c r="J217" s="2" t="n">
         <v>44926</v>
       </c>
       <c r="K217" t="inlineStr">
         <is>
-          <t>Sapphire</t>
+          <t>Amazon</t>
         </is>
       </c>
       <c r="L217" t="n">
@@ -11550,7 +11858,7 @@
     <row r="218">
       <c r="A218" s="1" t="inlineStr">
         <is>
-          <t>aa3c5ad4-0212-4fb6-8d96-03b5b3f2de17</t>
+          <t>4e00b836-873c-47e7-9f1b-6a635e9e1c6a</t>
         </is>
       </c>
       <c r="B218" s="2" t="n">
@@ -11562,23 +11870,33 @@
       <c r="D218" s="2" t="n">
         <v>44918</v>
       </c>
-      <c r="E218" t="inlineStr"/>
+      <c r="E218" s="2" t="n">
+        <v>44920</v>
+      </c>
       <c r="F218" t="inlineStr">
         <is>
-          <t>TOYOTA MOTOR SAL PAYROLL 568349-TMN</t>
-        </is>
-      </c>
-      <c r="G218" t="inlineStr"/>
-      <c r="H218" t="inlineStr"/>
+          <t>SQ *STERLING COFFEE</t>
+        </is>
+      </c>
+      <c r="G218" t="inlineStr">
+        <is>
+          <t>Food &amp; Drink</t>
+        </is>
+      </c>
+      <c r="H218" t="inlineStr">
+        <is>
+          <t>Sale</t>
+        </is>
+      </c>
       <c r="I218" t="n">
-        <v>2214.61</v>
+        <v>-11.96</v>
       </c>
       <c r="J218" s="2" t="n">
         <v>44926</v>
       </c>
       <c r="K218" t="inlineStr">
         <is>
-          <t>Mechanics</t>
+          <t>Sapphire</t>
         </is>
       </c>
       <c r="L218" t="n">
@@ -11586,61 +11904,65 @@
       </c>
       <c r="M218" t="inlineStr">
         <is>
-          <t>Income</t>
+          <t>Coffee</t>
         </is>
       </c>
     </row>
     <row r="219">
       <c r="A219" s="1" t="inlineStr">
         <is>
-          <t>20eadf3f-8a78-4eab-a66d-63dd9d1864ca</t>
+          <t>aa3c5ad4-0212-4fb6-8d96-03b5b3f2de17</t>
         </is>
       </c>
       <c r="B219" s="2" t="n">
         <v>44926</v>
       </c>
-      <c r="C219" t="inlineStr"/>
+      <c r="C219" s="2" t="n">
+        <v>44927</v>
+      </c>
       <c r="D219" s="2" t="n">
         <v>44918</v>
       </c>
-      <c r="E219" s="2" t="n">
-        <v>44920</v>
-      </c>
+      <c r="E219" t="inlineStr"/>
       <c r="F219" t="inlineStr">
         <is>
-          <t>AVIS.COM PREPAY</t>
+          <t>TOYOTA MOTOR SAL PAYROLL 568349-TMN</t>
         </is>
       </c>
       <c r="G219" t="inlineStr">
         <is>
-          <t>Travel</t>
+          <t>nan</t>
         </is>
       </c>
       <c r="H219" t="inlineStr">
         <is>
-          <t>Return</t>
+          <t>nan</t>
         </is>
       </c>
       <c r="I219" t="n">
-        <v>162.25</v>
+        <v>2214.61</v>
       </c>
       <c r="J219" s="2" t="n">
         <v>44926</v>
       </c>
       <c r="K219" t="inlineStr">
         <is>
-          <t>Amazon</t>
+          <t>Mechanics</t>
         </is>
       </c>
       <c r="L219" t="n">
-        <v>0</v>
-      </c>
-      <c r="M219" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="M219" t="inlineStr">
+        <is>
+          <t>Income</t>
+        </is>
+      </c>
     </row>
     <row r="220">
       <c r="A220" s="1" t="inlineStr">
         <is>
-          <t>a9c81718-234b-4c46-9d89-01fe3acbf954</t>
+          <t>ad89d467-0355-47d6-90b4-ee9b002b54d6</t>
         </is>
       </c>
       <c r="B220" s="2" t="n">
@@ -11671,7 +11993,7 @@
         </is>
       </c>
       <c r="I220" t="n">
-        <v>-3.74</v>
+        <v>-27.95</v>
       </c>
       <c r="J220" s="2" t="n">
         <v>44926</v>
@@ -11693,7 +12015,7 @@
     <row r="221">
       <c r="A221" s="1" t="inlineStr">
         <is>
-          <t>ad89d467-0355-47d6-90b4-ee9b002b54d6</t>
+          <t>a9c81718-234b-4c46-9d89-01fe3acbf954</t>
         </is>
       </c>
       <c r="B221" s="2" t="n">
@@ -11724,7 +12046,7 @@
         </is>
       </c>
       <c r="I221" t="n">
-        <v>-27.95</v>
+        <v>-3.74</v>
       </c>
       <c r="J221" s="2" t="n">
         <v>44926</v>
@@ -11746,15 +12068,13 @@
     <row r="222">
       <c r="A222" s="1" t="inlineStr">
         <is>
-          <t>4e00b836-873c-47e7-9f1b-6a635e9e1c6a</t>
+          <t>20eadf3f-8a78-4eab-a66d-63dd9d1864ca</t>
         </is>
       </c>
       <c r="B222" s="2" t="n">
         <v>44926</v>
       </c>
-      <c r="C222" s="2" t="n">
-        <v>44927</v>
-      </c>
+      <c r="C222" t="inlineStr"/>
       <c r="D222" s="2" t="n">
         <v>44918</v>
       </c>
@@ -11763,50 +12083,50 @@
       </c>
       <c r="F222" t="inlineStr">
         <is>
-          <t>SQ *STERLING COFFEE</t>
+          <t>AVIS.COM PREPAY</t>
         </is>
       </c>
       <c r="G222" t="inlineStr">
         <is>
-          <t>Food &amp; Drink</t>
+          <t>Travel</t>
         </is>
       </c>
       <c r="H222" t="inlineStr">
         <is>
-          <t>Sale</t>
+          <t>Return</t>
         </is>
       </c>
       <c r="I222" t="n">
-        <v>-11.96</v>
+        <v>162.25</v>
       </c>
       <c r="J222" s="2" t="n">
         <v>44926</v>
       </c>
       <c r="K222" t="inlineStr">
         <is>
-          <t>Sapphire</t>
+          <t>Amazon</t>
         </is>
       </c>
       <c r="L222" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M222" t="inlineStr">
         <is>
-          <t>Coffee</t>
+          <t>nan</t>
         </is>
       </c>
     </row>
     <row r="223">
       <c r="A223" s="1" t="inlineStr">
         <is>
-          <t>bce462ce-ee3f-4121-9f6f-19c416134271</t>
+          <t>a15a2dac-76bc-475d-84bf-0fb7a82af490</t>
         </is>
       </c>
       <c r="B223" s="2" t="n">
         <v>44926</v>
       </c>
       <c r="C223" s="2" t="n">
-        <v>44927</v>
+        <v>44926</v>
       </c>
       <c r="D223" s="2" t="n">
         <v>44919</v>
@@ -11816,12 +12136,12 @@
       </c>
       <c r="F223" t="inlineStr">
         <is>
-          <t>COMCAST CABLE COMM</t>
+          <t>SQ *FIELD DAY COFFEE</t>
         </is>
       </c>
       <c r="G223" t="inlineStr">
         <is>
-          <t>Bills &amp; Utilities</t>
+          <t>Food &amp; Drink</t>
         </is>
       </c>
       <c r="H223" t="inlineStr">
@@ -11830,14 +12150,14 @@
         </is>
       </c>
       <c r="I223" t="n">
-        <v>-35.12</v>
+        <v>-7.26</v>
       </c>
       <c r="J223" s="2" t="n">
         <v>44926</v>
       </c>
       <c r="K223" t="inlineStr">
         <is>
-          <t>Amazon</t>
+          <t>Sapphire</t>
         </is>
       </c>
       <c r="L223" t="n">
@@ -11845,21 +12165,21 @@
       </c>
       <c r="M223" t="inlineStr">
         <is>
-          <t>Internet</t>
+          <t>Travel</t>
         </is>
       </c>
     </row>
     <row r="224">
       <c r="A224" s="1" t="inlineStr">
         <is>
-          <t>a15a2dac-76bc-475d-84bf-0fb7a82af490</t>
+          <t>bce462ce-ee3f-4121-9f6f-19c416134271</t>
         </is>
       </c>
       <c r="B224" s="2" t="n">
         <v>44926</v>
       </c>
       <c r="C224" s="2" t="n">
-        <v>44926</v>
+        <v>44927</v>
       </c>
       <c r="D224" s="2" t="n">
         <v>44919</v>
@@ -11869,12 +12189,12 @@
       </c>
       <c r="F224" t="inlineStr">
         <is>
-          <t>SQ *FIELD DAY COFFEE</t>
+          <t>COMCAST CABLE COMM</t>
         </is>
       </c>
       <c r="G224" t="inlineStr">
         <is>
-          <t>Food &amp; Drink</t>
+          <t>Bills &amp; Utilities</t>
         </is>
       </c>
       <c r="H224" t="inlineStr">
@@ -11883,14 +12203,14 @@
         </is>
       </c>
       <c r="I224" t="n">
-        <v>-7.26</v>
+        <v>-35.12</v>
       </c>
       <c r="J224" s="2" t="n">
         <v>44926</v>
       </c>
       <c r="K224" t="inlineStr">
         <is>
-          <t>Sapphire</t>
+          <t>Amazon</t>
         </is>
       </c>
       <c r="L224" t="n">
@@ -11898,7 +12218,7 @@
       </c>
       <c r="M224" t="inlineStr">
         <is>
-          <t>Travel</t>
+          <t>Internet</t>
         </is>
       </c>
     </row>
@@ -11958,7 +12278,7 @@
     <row r="226">
       <c r="A226" s="1" t="inlineStr">
         <is>
-          <t>af363c79-580c-4fcb-84f2-fee73c5b2164</t>
+          <t>65e10d2f-609d-49a4-baf6-f0e7046e0260</t>
         </is>
       </c>
       <c r="B226" s="2" t="n">
@@ -11971,11 +12291,11 @@
         <v>44919</v>
       </c>
       <c r="E226" s="2" t="n">
-        <v>44920</v>
+        <v>44921</v>
       </c>
       <c r="F226" t="inlineStr">
         <is>
-          <t>76 - ADEL BICHAY &amp;amp; TAM</t>
+          <t>SHELL OIL 57445238207</t>
         </is>
       </c>
       <c r="G226" t="inlineStr">
@@ -11989,14 +12309,14 @@
         </is>
       </c>
       <c r="I226" t="n">
-        <v>-60.19</v>
+        <v>-13.02</v>
       </c>
       <c r="J226" s="2" t="n">
         <v>44926</v>
       </c>
       <c r="K226" t="inlineStr">
         <is>
-          <t>Amazon</t>
+          <t>Sapphire</t>
         </is>
       </c>
       <c r="L226" t="n">
@@ -12011,7 +12331,7 @@
     <row r="227">
       <c r="A227" s="1" t="inlineStr">
         <is>
-          <t>65e10d2f-609d-49a4-baf6-f0e7046e0260</t>
+          <t>9513e49b-f7c8-4aff-9434-fd16634af30f</t>
         </is>
       </c>
       <c r="B227" s="2" t="n">
@@ -12024,11 +12344,11 @@
         <v>44919</v>
       </c>
       <c r="E227" s="2" t="n">
-        <v>44921</v>
+        <v>44920</v>
       </c>
       <c r="F227" t="inlineStr">
         <is>
-          <t>SHELL OIL 57445238207</t>
+          <t>LOVE'S #652</t>
         </is>
       </c>
       <c r="G227" t="inlineStr">
@@ -12042,14 +12362,14 @@
         </is>
       </c>
       <c r="I227" t="n">
-        <v>-13.02</v>
+        <v>-40.93</v>
       </c>
       <c r="J227" s="2" t="n">
         <v>44926</v>
       </c>
       <c r="K227" t="inlineStr">
         <is>
-          <t>Sapphire</t>
+          <t>Amazon</t>
         </is>
       </c>
       <c r="L227" t="n">
@@ -12064,7 +12384,7 @@
     <row r="228">
       <c r="A228" s="1" t="inlineStr">
         <is>
-          <t>9513e49b-f7c8-4aff-9434-fd16634af30f</t>
+          <t>af363c79-580c-4fcb-84f2-fee73c5b2164</t>
         </is>
       </c>
       <c r="B228" s="2" t="n">
@@ -12081,7 +12401,7 @@
       </c>
       <c r="F228" t="inlineStr">
         <is>
-          <t>LOVE'S #652</t>
+          <t>76 - ADEL BICHAY &amp;amp; TAM</t>
         </is>
       </c>
       <c r="G228" t="inlineStr">
@@ -12095,7 +12415,7 @@
         </is>
       </c>
       <c r="I228" t="n">
-        <v>-40.93</v>
+        <v>-60.19</v>
       </c>
       <c r="J228" s="2" t="n">
         <v>44926</v>
@@ -12117,29 +12437,29 @@
     <row r="229">
       <c r="A229" s="1" t="inlineStr">
         <is>
-          <t>8ed8c049-1b90-4441-9ac0-666453cf6980</t>
+          <t>f9f274d6-7d04-4821-aef3-e72a3e482b95</t>
         </is>
       </c>
       <c r="B229" s="2" t="n">
-        <v>44926</v>
+        <v>44931</v>
       </c>
       <c r="C229" s="2" t="n">
-        <v>44927</v>
+        <v>44931</v>
       </c>
       <c r="D229" s="2" t="n">
         <v>44922</v>
       </c>
       <c r="E229" s="2" t="n">
-        <v>44924</v>
+        <v>44923</v>
       </c>
       <c r="F229" t="inlineStr">
         <is>
-          <t>MISTURA RESTAURANT</t>
+          <t>SAN LUIS OBISPO PARKING</t>
         </is>
       </c>
       <c r="G229" t="inlineStr">
         <is>
-          <t>Food &amp; Drink</t>
+          <t>Travel</t>
         </is>
       </c>
       <c r="H229" t="inlineStr">
@@ -12148,14 +12468,14 @@
         </is>
       </c>
       <c r="I229" t="n">
-        <v>-203.12</v>
+        <v>-1</v>
       </c>
       <c r="J229" s="2" t="n">
-        <v>44926</v>
+        <v>44931</v>
       </c>
       <c r="K229" t="inlineStr">
         <is>
-          <t>Sapphire</t>
+          <t>Amazon</t>
         </is>
       </c>
       <c r="L229" t="n">
@@ -12163,21 +12483,21 @@
       </c>
       <c r="M229" t="inlineStr">
         <is>
-          <t>Eating Out</t>
+          <t>Gasoline</t>
         </is>
       </c>
     </row>
     <row r="230">
       <c r="A230" s="1" t="inlineStr">
         <is>
-          <t>04777a37-6bb3-46f3-aa06-ddf3a1946fe4</t>
+          <t>ecea4018-75c4-4a59-aa5b-da9f978e4d1a</t>
         </is>
       </c>
       <c r="B230" s="2" t="n">
         <v>44926</v>
       </c>
       <c r="C230" s="2" t="n">
-        <v>44926</v>
+        <v>44927</v>
       </c>
       <c r="D230" s="2" t="n">
         <v>44922</v>
@@ -12187,12 +12507,12 @@
       </c>
       <c r="F230" t="inlineStr">
         <is>
-          <t>PDX AIRPORT PARKING</t>
+          <t>TST* KREUZBERG CALIFORNIA</t>
         </is>
       </c>
       <c r="G230" t="inlineStr">
         <is>
-          <t>Travel</t>
+          <t>Food &amp; Drink</t>
         </is>
       </c>
       <c r="H230" t="inlineStr">
@@ -12201,14 +12521,14 @@
         </is>
       </c>
       <c r="I230" t="n">
-        <v>-126</v>
+        <v>-7</v>
       </c>
       <c r="J230" s="2" t="n">
         <v>44926</v>
       </c>
       <c r="K230" t="inlineStr">
         <is>
-          <t>Amazon</t>
+          <t>Sapphire</t>
         </is>
       </c>
       <c r="L230" t="n">
@@ -12216,21 +12536,21 @@
       </c>
       <c r="M230" t="inlineStr">
         <is>
-          <t>Travel</t>
+          <t>Eating Out</t>
         </is>
       </c>
     </row>
     <row r="231">
       <c r="A231" s="1" t="inlineStr">
         <is>
-          <t>ef6a7743-940e-4e1f-8908-322b9923df6d</t>
+          <t>04777a37-6bb3-46f3-aa06-ddf3a1946fe4</t>
         </is>
       </c>
       <c r="B231" s="2" t="n">
         <v>44926</v>
       </c>
       <c r="C231" s="2" t="n">
-        <v>44927</v>
+        <v>44926</v>
       </c>
       <c r="D231" s="2" t="n">
         <v>44922</v>
@@ -12240,7 +12560,7 @@
       </c>
       <c r="F231" t="inlineStr">
         <is>
-          <t>SAN LUIS OBISPO PARKING</t>
+          <t>PDX AIRPORT PARKING</t>
         </is>
       </c>
       <c r="G231" t="inlineStr">
@@ -12254,7 +12574,7 @@
         </is>
       </c>
       <c r="I231" t="n">
-        <v>-1</v>
+        <v>-126</v>
       </c>
       <c r="J231" s="2" t="n">
         <v>44926</v>
@@ -12269,14 +12589,14 @@
       </c>
       <c r="M231" t="inlineStr">
         <is>
-          <t>Parking</t>
+          <t>Travel</t>
         </is>
       </c>
     </row>
     <row r="232">
       <c r="A232" s="1" t="inlineStr">
         <is>
-          <t>ecea4018-75c4-4a59-aa5b-da9f978e4d1a</t>
+          <t>8ed8c049-1b90-4441-9ac0-666453cf6980</t>
         </is>
       </c>
       <c r="B232" s="2" t="n">
@@ -12289,11 +12609,11 @@
         <v>44922</v>
       </c>
       <c r="E232" s="2" t="n">
-        <v>44923</v>
+        <v>44924</v>
       </c>
       <c r="F232" t="inlineStr">
         <is>
-          <t>TST* KREUZBERG CALIFORNIA</t>
+          <t>MISTURA RESTAURANT</t>
         </is>
       </c>
       <c r="G232" t="inlineStr">
@@ -12307,7 +12627,7 @@
         </is>
       </c>
       <c r="I232" t="n">
-        <v>-7</v>
+        <v>-203.12</v>
       </c>
       <c r="J232" s="2" t="n">
         <v>44926</v>
@@ -12347,7 +12667,11 @@
           <t>AUTOMATIC PAYMENT - THANK</t>
         </is>
       </c>
-      <c r="G233" t="inlineStr"/>
+      <c r="G233" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
       <c r="H233" t="inlineStr">
         <is>
           <t>Payment</t>
@@ -12367,7 +12691,11 @@
       <c r="L233" t="n">
         <v>0</v>
       </c>
-      <c r="M233" t="inlineStr"/>
+      <c r="M233" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
     </row>
     <row r="234">
       <c r="A234" s="1" t="inlineStr">
@@ -12547,8 +12875,16 @@
           <t>CHASE CREDIT CRD AUTOPAY 000000000508601</t>
         </is>
       </c>
-      <c r="G237" t="inlineStr"/>
-      <c r="H237" t="inlineStr"/>
+      <c r="G237" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="H237" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
       <c r="I237" t="n">
         <v>-118.04</v>
       </c>
@@ -12563,7 +12899,170 @@
       <c r="L237" t="n">
         <v>0</v>
       </c>
-      <c r="M237" t="inlineStr"/>
+      <c r="M237" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" s="1" t="inlineStr">
+        <is>
+          <t>cde55010-cff5-43d9-850b-c4f8822bd7f5</t>
+        </is>
+      </c>
+      <c r="B238" s="2" t="n">
+        <v>44931</v>
+      </c>
+      <c r="C238" s="2" t="n">
+        <v>44931</v>
+      </c>
+      <c r="D238" s="2" t="n">
+        <v>44926</v>
+      </c>
+      <c r="E238" s="2" t="n">
+        <v>44927</v>
+      </c>
+      <c r="F238" t="inlineStr">
+        <is>
+          <t>AMZN Mktp US*SC82J1A03</t>
+        </is>
+      </c>
+      <c r="G238" t="inlineStr">
+        <is>
+          <t>Shopping</t>
+        </is>
+      </c>
+      <c r="H238" t="inlineStr">
+        <is>
+          <t>Sale</t>
+        </is>
+      </c>
+      <c r="I238" t="n">
+        <v>-29.99</v>
+      </c>
+      <c r="J238" s="2" t="n">
+        <v>44931</v>
+      </c>
+      <c r="K238" t="inlineStr">
+        <is>
+          <t>Amazon</t>
+        </is>
+      </c>
+      <c r="L238" t="n">
+        <v>1</v>
+      </c>
+      <c r="M238" t="inlineStr">
+        <is>
+          <t>Supplies</t>
+        </is>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" s="1" t="inlineStr">
+        <is>
+          <t>25d852f4-b82a-4f38-acb4-d8aa19c6f29d</t>
+        </is>
+      </c>
+      <c r="B239" s="2" t="n">
+        <v>44931</v>
+      </c>
+      <c r="C239" s="2" t="n">
+        <v>44931</v>
+      </c>
+      <c r="D239" s="2" t="n">
+        <v>44926</v>
+      </c>
+      <c r="E239" s="2" t="n">
+        <v>44927</v>
+      </c>
+      <c r="F239" t="inlineStr">
+        <is>
+          <t>SQ *CLEARING CAFE</t>
+        </is>
+      </c>
+      <c r="G239" t="inlineStr">
+        <is>
+          <t>Food &amp; Drink</t>
+        </is>
+      </c>
+      <c r="H239" t="inlineStr">
+        <is>
+          <t>Sale</t>
+        </is>
+      </c>
+      <c r="I239" t="n">
+        <v>-6.5</v>
+      </c>
+      <c r="J239" s="2" t="n">
+        <v>44931</v>
+      </c>
+      <c r="K239" t="inlineStr">
+        <is>
+          <t>Sapphire</t>
+        </is>
+      </c>
+      <c r="L239" t="n">
+        <v>1</v>
+      </c>
+      <c r="M239" t="inlineStr">
+        <is>
+          <t>Coffee</t>
+        </is>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" s="1" t="inlineStr">
+        <is>
+          <t>7df0226f-6fb3-438e-a1ad-2c4d013b71bd</t>
+        </is>
+      </c>
+      <c r="B240" s="2" t="n">
+        <v>44931</v>
+      </c>
+      <c r="C240" s="2" t="n">
+        <v>44931</v>
+      </c>
+      <c r="D240" s="2" t="n">
+        <v>44926</v>
+      </c>
+      <c r="E240" s="2" t="n">
+        <v>44927</v>
+      </c>
+      <c r="F240" t="inlineStr">
+        <is>
+          <t>SQ *BARISTA</t>
+        </is>
+      </c>
+      <c r="G240" t="inlineStr">
+        <is>
+          <t>Food &amp; Drink</t>
+        </is>
+      </c>
+      <c r="H240" t="inlineStr">
+        <is>
+          <t>Sale</t>
+        </is>
+      </c>
+      <c r="I240" t="n">
+        <v>-12</v>
+      </c>
+      <c r="J240" s="2" t="n">
+        <v>44931</v>
+      </c>
+      <c r="K240" t="inlineStr">
+        <is>
+          <t>Sapphire</t>
+        </is>
+      </c>
+      <c r="L240" t="b">
+        <v>1</v>
+      </c>
+      <c r="M240" t="inlineStr">
+        <is>
+          <t>Coffee</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/datasets/transactions.xlsx
+++ b/datasets/transactions.xlsx
@@ -430,7 +430,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M240"/>
+  <dimension ref="A1:M355"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -13055,7 +13055,7 @@
           <t>Sapphire</t>
         </is>
       </c>
-      <c r="L240" t="b">
+      <c r="L240" t="n">
         <v>1</v>
       </c>
       <c r="M240" t="inlineStr">
@@ -13063,6 +13063,5541 @@
           <t>Coffee</t>
         </is>
       </c>
+    </row>
+    <row r="241">
+      <c r="A241" s="1" t="inlineStr">
+        <is>
+          <t>d69100a1-7c0e-4eca-a6cb-93b51ac556f5</t>
+        </is>
+      </c>
+      <c r="B241" s="2" t="n">
+        <v>44933</v>
+      </c>
+      <c r="C241" s="2" t="n">
+        <v>44933</v>
+      </c>
+      <c r="D241" s="2" t="n">
+        <v>44930</v>
+      </c>
+      <c r="E241" s="2" t="n">
+        <v>44931</v>
+      </c>
+      <c r="F241" t="inlineStr">
+        <is>
+          <t>Microsoft*Subscription</t>
+        </is>
+      </c>
+      <c r="G241" t="inlineStr">
+        <is>
+          <t>Shopping</t>
+        </is>
+      </c>
+      <c r="H241" t="inlineStr">
+        <is>
+          <t>Sale</t>
+        </is>
+      </c>
+      <c r="I241" t="n">
+        <v>-1.99</v>
+      </c>
+      <c r="J241" s="2" t="n">
+        <v>44933</v>
+      </c>
+      <c r="K241" t="inlineStr">
+        <is>
+          <t>Amazon</t>
+        </is>
+      </c>
+      <c r="L241" t="n">
+        <v>1</v>
+      </c>
+      <c r="M241" t="inlineStr">
+        <is>
+          <t>Services</t>
+        </is>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" s="1" t="inlineStr">
+        <is>
+          <t>8485fd89-4e5f-43e4-9c56-cb6daa7866d8</t>
+        </is>
+      </c>
+      <c r="B242" s="2" t="n">
+        <v>44933</v>
+      </c>
+      <c r="C242" s="2" t="n">
+        <v>44933</v>
+      </c>
+      <c r="D242" s="2" t="n">
+        <v>44929</v>
+      </c>
+      <c r="E242" s="2" t="n">
+        <v>44930</v>
+      </c>
+      <c r="F242" t="inlineStr">
+        <is>
+          <t>AMZN Mktp US*H63A62G83</t>
+        </is>
+      </c>
+      <c r="G242" t="inlineStr">
+        <is>
+          <t>Shopping</t>
+        </is>
+      </c>
+      <c r="H242" t="inlineStr">
+        <is>
+          <t>Sale</t>
+        </is>
+      </c>
+      <c r="I242" t="n">
+        <v>-11.99</v>
+      </c>
+      <c r="J242" s="2" t="n">
+        <v>44933</v>
+      </c>
+      <c r="K242" t="inlineStr">
+        <is>
+          <t>Amazon</t>
+        </is>
+      </c>
+      <c r="L242" t="n">
+        <v>1</v>
+      </c>
+      <c r="M242" t="inlineStr">
+        <is>
+          <t>Supplies</t>
+        </is>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" s="1" t="inlineStr">
+        <is>
+          <t>45f79cc7-102d-423a-9091-6a1d50523d0d</t>
+        </is>
+      </c>
+      <c r="B243" s="2" t="n">
+        <v>44933</v>
+      </c>
+      <c r="C243" s="2" t="n">
+        <v>44933</v>
+      </c>
+      <c r="D243" s="2" t="n">
+        <v>44929</v>
+      </c>
+      <c r="E243" s="2" t="n">
+        <v>44930</v>
+      </c>
+      <c r="F243" t="inlineStr">
+        <is>
+          <t>1PASSWORD</t>
+        </is>
+      </c>
+      <c r="G243" t="inlineStr">
+        <is>
+          <t>Shopping</t>
+        </is>
+      </c>
+      <c r="H243" t="inlineStr">
+        <is>
+          <t>Sale</t>
+        </is>
+      </c>
+      <c r="I243" t="n">
+        <v>-3.99</v>
+      </c>
+      <c r="J243" s="2" t="n">
+        <v>44933</v>
+      </c>
+      <c r="K243" t="inlineStr">
+        <is>
+          <t>Amazon</t>
+        </is>
+      </c>
+      <c r="L243" t="n">
+        <v>1</v>
+      </c>
+      <c r="M243" t="inlineStr">
+        <is>
+          <t>Services</t>
+        </is>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" s="1" t="inlineStr">
+        <is>
+          <t>6bae7502-17fa-4a5a-9309-c686a0208e6a</t>
+        </is>
+      </c>
+      <c r="B244" s="2" t="n">
+        <v>44933</v>
+      </c>
+      <c r="C244" s="2" t="n">
+        <v>44933</v>
+      </c>
+      <c r="D244" s="2" t="n">
+        <v>44929</v>
+      </c>
+      <c r="E244" s="2" t="n">
+        <v>44930</v>
+      </c>
+      <c r="F244" t="inlineStr">
+        <is>
+          <t>AMZN Mktp US*CP87F9JC3</t>
+        </is>
+      </c>
+      <c r="G244" t="inlineStr">
+        <is>
+          <t>Shopping</t>
+        </is>
+      </c>
+      <c r="H244" t="inlineStr">
+        <is>
+          <t>Sale</t>
+        </is>
+      </c>
+      <c r="I244" t="n">
+        <v>-22.51</v>
+      </c>
+      <c r="J244" s="2" t="n">
+        <v>44933</v>
+      </c>
+      <c r="K244" t="inlineStr">
+        <is>
+          <t>Amazon</t>
+        </is>
+      </c>
+      <c r="L244" t="n">
+        <v>1</v>
+      </c>
+      <c r="M244" t="inlineStr">
+        <is>
+          <t>Home</t>
+        </is>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" s="1" t="inlineStr">
+        <is>
+          <t>ad4f7cec-2a70-4d8f-95ae-0786bcf1eadb</t>
+        </is>
+      </c>
+      <c r="B245" s="2" t="n">
+        <v>44933</v>
+      </c>
+      <c r="C245" s="2" t="n">
+        <v>44933</v>
+      </c>
+      <c r="D245" s="2" t="n">
+        <v>44930</v>
+      </c>
+      <c r="E245" s="2" t="n">
+        <v>44930</v>
+      </c>
+      <c r="F245" t="inlineStr">
+        <is>
+          <t>AMZN Mktp US*XC1JZ2CO3</t>
+        </is>
+      </c>
+      <c r="G245" t="inlineStr">
+        <is>
+          <t>Shopping</t>
+        </is>
+      </c>
+      <c r="H245" t="inlineStr">
+        <is>
+          <t>Sale</t>
+        </is>
+      </c>
+      <c r="I245" t="n">
+        <v>-5.14</v>
+      </c>
+      <c r="J245" s="2" t="n">
+        <v>44933</v>
+      </c>
+      <c r="K245" t="inlineStr">
+        <is>
+          <t>Amazon</t>
+        </is>
+      </c>
+      <c r="L245" t="n">
+        <v>1</v>
+      </c>
+      <c r="M245" t="inlineStr">
+        <is>
+          <t>Home</t>
+        </is>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" s="1" t="inlineStr">
+        <is>
+          <t>2a169505-4183-4d85-8e28-2c15879ce06e</t>
+        </is>
+      </c>
+      <c r="B246" s="2" t="n">
+        <v>44933</v>
+      </c>
+      <c r="C246" s="2" t="n">
+        <v>44933</v>
+      </c>
+      <c r="D246" s="2" t="n">
+        <v>44927</v>
+      </c>
+      <c r="E246" s="2" t="n">
+        <v>44928</v>
+      </c>
+      <c r="F246" t="inlineStr">
+        <is>
+          <t>GOOGLE *CLOUD F7F4NQ</t>
+        </is>
+      </c>
+      <c r="G246" t="inlineStr">
+        <is>
+          <t>Professional Services</t>
+        </is>
+      </c>
+      <c r="H246" t="inlineStr">
+        <is>
+          <t>Sale</t>
+        </is>
+      </c>
+      <c r="I246" t="n">
+        <v>-0.12</v>
+      </c>
+      <c r="J246" s="2" t="n">
+        <v>44933</v>
+      </c>
+      <c r="K246" t="inlineStr">
+        <is>
+          <t>Amazon</t>
+        </is>
+      </c>
+      <c r="L246" t="n">
+        <v>1</v>
+      </c>
+      <c r="M246" t="inlineStr">
+        <is>
+          <t>Services</t>
+        </is>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" s="1" t="inlineStr">
+        <is>
+          <t>8ec7ec3d-53c3-4212-a592-b469546ae27b</t>
+        </is>
+      </c>
+      <c r="B247" s="2" t="n">
+        <v>44933</v>
+      </c>
+      <c r="C247" s="2" t="n">
+        <v>44933</v>
+      </c>
+      <c r="D247" s="2" t="n">
+        <v>44926</v>
+      </c>
+      <c r="E247" s="2" t="n">
+        <v>44928</v>
+      </c>
+      <c r="F247" t="inlineStr">
+        <is>
+          <t>COIN METER LAUNDRY KIOSK/</t>
+        </is>
+      </c>
+      <c r="G247" t="inlineStr">
+        <is>
+          <t>Personal</t>
+        </is>
+      </c>
+      <c r="H247" t="inlineStr">
+        <is>
+          <t>Sale</t>
+        </is>
+      </c>
+      <c r="I247" t="n">
+        <v>-20</v>
+      </c>
+      <c r="J247" s="2" t="n">
+        <v>44933</v>
+      </c>
+      <c r="K247" t="inlineStr">
+        <is>
+          <t>Amazon</t>
+        </is>
+      </c>
+      <c r="L247" t="n">
+        <v>1</v>
+      </c>
+      <c r="M247" t="inlineStr">
+        <is>
+          <t>Laundry</t>
+        </is>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" s="1" t="inlineStr">
+        <is>
+          <t>189660e3-1171-4b07-9ffd-74e201cc7b9e</t>
+        </is>
+      </c>
+      <c r="B248" s="2" t="n">
+        <v>44933</v>
+      </c>
+      <c r="C248" s="2" t="n">
+        <v>44933</v>
+      </c>
+      <c r="D248" s="2" t="n">
+        <v>44926</v>
+      </c>
+      <c r="E248" s="2" t="n">
+        <v>44927</v>
+      </c>
+      <c r="F248" t="inlineStr">
+        <is>
+          <t>AMZN Mktp US*SC82J1A03</t>
+        </is>
+      </c>
+      <c r="G248" t="inlineStr">
+        <is>
+          <t>Shopping</t>
+        </is>
+      </c>
+      <c r="H248" t="inlineStr">
+        <is>
+          <t>Sale</t>
+        </is>
+      </c>
+      <c r="I248" t="n">
+        <v>-29.99</v>
+      </c>
+      <c r="J248" s="2" t="n">
+        <v>44933</v>
+      </c>
+      <c r="K248" t="inlineStr">
+        <is>
+          <t>Amazon</t>
+        </is>
+      </c>
+      <c r="L248" t="n">
+        <v>1</v>
+      </c>
+      <c r="M248" t="inlineStr">
+        <is>
+          <t>Supplies</t>
+        </is>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" s="1" t="inlineStr">
+        <is>
+          <t>e66b86ce-0589-4c14-9e82-95f529c23f08</t>
+        </is>
+      </c>
+      <c r="B249" s="2" t="n">
+        <v>44933</v>
+      </c>
+      <c r="C249" s="2" t="n">
+        <v>44933</v>
+      </c>
+      <c r="D249" s="2" t="n">
+        <v>44929</v>
+      </c>
+      <c r="E249" s="2" t="n">
+        <v>44930</v>
+      </c>
+      <c r="F249" t="inlineStr">
+        <is>
+          <t>TRADER JOE'S #146  QPS</t>
+        </is>
+      </c>
+      <c r="G249" t="inlineStr">
+        <is>
+          <t>Groceries</t>
+        </is>
+      </c>
+      <c r="H249" t="inlineStr">
+        <is>
+          <t>Sale</t>
+        </is>
+      </c>
+      <c r="I249" t="n">
+        <v>-99.48999999999999</v>
+      </c>
+      <c r="J249" s="2" t="n">
+        <v>44933</v>
+      </c>
+      <c r="K249" t="inlineStr">
+        <is>
+          <t>Sapphire</t>
+        </is>
+      </c>
+      <c r="L249" t="n">
+        <v>1</v>
+      </c>
+      <c r="M249" t="inlineStr">
+        <is>
+          <t>Groceries</t>
+        </is>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" s="1" t="inlineStr">
+        <is>
+          <t>e30e6fb0-ca16-49c2-ac42-5d7192c17403</t>
+        </is>
+      </c>
+      <c r="B250" s="2" t="n">
+        <v>44933</v>
+      </c>
+      <c r="C250" s="2" t="n">
+        <v>44933</v>
+      </c>
+      <c r="D250" s="2" t="n">
+        <v>44927</v>
+      </c>
+      <c r="E250" s="2" t="n">
+        <v>44929</v>
+      </c>
+      <c r="F250" t="inlineStr">
+        <is>
+          <t>Cha Cha Cha Taqueria - Th</t>
+        </is>
+      </c>
+      <c r="G250" t="inlineStr">
+        <is>
+          <t>Food &amp; Drink</t>
+        </is>
+      </c>
+      <c r="H250" t="inlineStr">
+        <is>
+          <t>Sale</t>
+        </is>
+      </c>
+      <c r="I250" t="n">
+        <v>-11.4</v>
+      </c>
+      <c r="J250" s="2" t="n">
+        <v>44933</v>
+      </c>
+      <c r="K250" t="inlineStr">
+        <is>
+          <t>Sapphire</t>
+        </is>
+      </c>
+      <c r="L250" t="n">
+        <v>1</v>
+      </c>
+      <c r="M250" t="inlineStr">
+        <is>
+          <t>Eating Out</t>
+        </is>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" s="1" t="inlineStr">
+        <is>
+          <t>912fa263-7aa6-4067-853a-d42bd25ecb12</t>
+        </is>
+      </c>
+      <c r="B251" s="2" t="n">
+        <v>44933</v>
+      </c>
+      <c r="C251" s="2" t="n">
+        <v>44933</v>
+      </c>
+      <c r="D251" s="2" t="n">
+        <v>44928</v>
+      </c>
+      <c r="E251" s="2" t="n">
+        <v>44929</v>
+      </c>
+      <c r="F251" t="inlineStr">
+        <is>
+          <t>SQ *TWENTYSIX CAFE</t>
+        </is>
+      </c>
+      <c r="G251" t="inlineStr">
+        <is>
+          <t>Food &amp; Drink</t>
+        </is>
+      </c>
+      <c r="H251" t="inlineStr">
+        <is>
+          <t>Sale</t>
+        </is>
+      </c>
+      <c r="I251" t="n">
+        <v>-16.75</v>
+      </c>
+      <c r="J251" s="2" t="n">
+        <v>44933</v>
+      </c>
+      <c r="K251" t="inlineStr">
+        <is>
+          <t>Sapphire</t>
+        </is>
+      </c>
+      <c r="L251" t="n">
+        <v>1</v>
+      </c>
+      <c r="M251" t="inlineStr">
+        <is>
+          <t>Coffee</t>
+        </is>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" s="1" t="inlineStr">
+        <is>
+          <t>2b79ef1e-f8d8-4c56-8032-bca9c6d2e640</t>
+        </is>
+      </c>
+      <c r="B252" s="2" t="n">
+        <v>44933</v>
+      </c>
+      <c r="C252" s="2" t="n">
+        <v>44933</v>
+      </c>
+      <c r="D252" s="2" t="n">
+        <v>44928</v>
+      </c>
+      <c r="E252" s="2" t="n">
+        <v>44929</v>
+      </c>
+      <c r="F252" t="inlineStr">
+        <is>
+          <t>Cha Cha Cha Taqueria - Th</t>
+        </is>
+      </c>
+      <c r="G252" t="inlineStr">
+        <is>
+          <t>Food &amp; Drink</t>
+        </is>
+      </c>
+      <c r="H252" t="inlineStr">
+        <is>
+          <t>Sale</t>
+        </is>
+      </c>
+      <c r="I252" t="n">
+        <v>-14.4</v>
+      </c>
+      <c r="J252" s="2" t="n">
+        <v>44933</v>
+      </c>
+      <c r="K252" t="inlineStr">
+        <is>
+          <t>Sapphire</t>
+        </is>
+      </c>
+      <c r="L252" t="n">
+        <v>1</v>
+      </c>
+      <c r="M252" t="inlineStr">
+        <is>
+          <t>Eating Out</t>
+        </is>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" s="1" t="inlineStr">
+        <is>
+          <t>ea6624f4-f7b8-46a9-b752-9908b532a44d</t>
+        </is>
+      </c>
+      <c r="B253" s="2" t="n">
+        <v>44933</v>
+      </c>
+      <c r="C253" s="2" t="n">
+        <v>44933</v>
+      </c>
+      <c r="D253" s="2" t="n">
+        <v>44927</v>
+      </c>
+      <c r="E253" s="2" t="n">
+        <v>44928</v>
+      </c>
+      <c r="F253" t="inlineStr">
+        <is>
+          <t>SQ *BARISTA</t>
+        </is>
+      </c>
+      <c r="G253" t="inlineStr">
+        <is>
+          <t>Food &amp; Drink</t>
+        </is>
+      </c>
+      <c r="H253" t="inlineStr">
+        <is>
+          <t>Sale</t>
+        </is>
+      </c>
+      <c r="I253" t="n">
+        <v>-12</v>
+      </c>
+      <c r="J253" s="2" t="n">
+        <v>44933</v>
+      </c>
+      <c r="K253" t="inlineStr">
+        <is>
+          <t>Sapphire</t>
+        </is>
+      </c>
+      <c r="L253" t="n">
+        <v>1</v>
+      </c>
+      <c r="M253" t="inlineStr">
+        <is>
+          <t>Coffee</t>
+        </is>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" s="1" t="inlineStr">
+        <is>
+          <t>52a46dfa-96bf-4574-aefd-d80d6c3ddd62</t>
+        </is>
+      </c>
+      <c r="B254" s="2" t="n">
+        <v>44933</v>
+      </c>
+      <c r="C254" s="2" t="n">
+        <v>44933</v>
+      </c>
+      <c r="D254" s="2" t="n">
+        <v>44926</v>
+      </c>
+      <c r="E254" s="2" t="n">
+        <v>44928</v>
+      </c>
+      <c r="F254" t="inlineStr">
+        <is>
+          <t>23RD AVE BOTTLE SHOP</t>
+        </is>
+      </c>
+      <c r="G254" t="inlineStr">
+        <is>
+          <t>Shopping</t>
+        </is>
+      </c>
+      <c r="H254" t="inlineStr">
+        <is>
+          <t>Sale</t>
+        </is>
+      </c>
+      <c r="I254" t="n">
+        <v>-28.85</v>
+      </c>
+      <c r="J254" s="2" t="n">
+        <v>44933</v>
+      </c>
+      <c r="K254" t="inlineStr">
+        <is>
+          <t>Sapphire</t>
+        </is>
+      </c>
+      <c r="L254" t="n">
+        <v>1</v>
+      </c>
+      <c r="M254" t="inlineStr">
+        <is>
+          <t>Celebration</t>
+        </is>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" s="1" t="inlineStr">
+        <is>
+          <t>1461e73c-8a62-4dad-a23c-c60bdfdfac86</t>
+        </is>
+      </c>
+      <c r="B255" s="2" t="n">
+        <v>44933</v>
+      </c>
+      <c r="C255" s="2" t="n">
+        <v>44933</v>
+      </c>
+      <c r="D255" s="2" t="n">
+        <v>44926</v>
+      </c>
+      <c r="E255" s="2" t="n">
+        <v>44927</v>
+      </c>
+      <c r="F255" t="inlineStr">
+        <is>
+          <t>SQ *CLEARING CAFE</t>
+        </is>
+      </c>
+      <c r="G255" t="inlineStr">
+        <is>
+          <t>Food &amp; Drink</t>
+        </is>
+      </c>
+      <c r="H255" t="inlineStr">
+        <is>
+          <t>Sale</t>
+        </is>
+      </c>
+      <c r="I255" t="n">
+        <v>-6.5</v>
+      </c>
+      <c r="J255" s="2" t="n">
+        <v>44933</v>
+      </c>
+      <c r="K255" t="inlineStr">
+        <is>
+          <t>Sapphire</t>
+        </is>
+      </c>
+      <c r="L255" t="n">
+        <v>1</v>
+      </c>
+      <c r="M255" t="inlineStr">
+        <is>
+          <t>Coffee</t>
+        </is>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" s="1" t="inlineStr">
+        <is>
+          <t>4a9bfa46-2041-4281-8b95-336f6791860e</t>
+        </is>
+      </c>
+      <c r="B256" s="2" t="n">
+        <v>44933</v>
+      </c>
+      <c r="C256" s="2" t="n">
+        <v>44933</v>
+      </c>
+      <c r="D256" s="2" t="n">
+        <v>44926</v>
+      </c>
+      <c r="E256" s="2" t="n">
+        <v>44927</v>
+      </c>
+      <c r="F256" t="inlineStr">
+        <is>
+          <t>SQ *BARISTA</t>
+        </is>
+      </c>
+      <c r="G256" t="inlineStr">
+        <is>
+          <t>Food &amp; Drink</t>
+        </is>
+      </c>
+      <c r="H256" t="inlineStr">
+        <is>
+          <t>Sale</t>
+        </is>
+      </c>
+      <c r="I256" t="n">
+        <v>-12</v>
+      </c>
+      <c r="J256" s="2" t="n">
+        <v>44933</v>
+      </c>
+      <c r="K256" t="inlineStr">
+        <is>
+          <t>Sapphire</t>
+        </is>
+      </c>
+      <c r="L256" t="n">
+        <v>1</v>
+      </c>
+      <c r="M256" t="inlineStr">
+        <is>
+          <t>Coffee</t>
+        </is>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" s="1" t="inlineStr">
+        <is>
+          <t>54a15898-5886-4bec-80b0-14e8893f4d5a</t>
+        </is>
+      </c>
+      <c r="B257" s="2" t="n">
+        <v>44933</v>
+      </c>
+      <c r="C257" s="2" t="n">
+        <v>44933</v>
+      </c>
+      <c r="D257" s="2" t="n">
+        <v>44929</v>
+      </c>
+      <c r="E257" t="inlineStr"/>
+      <c r="F257" t="inlineStr">
+        <is>
+          <t>KBC Management, WEB PMTS BF2XX6</t>
+        </is>
+      </c>
+      <c r="G257" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="H257" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="I257" t="n">
+        <v>-1630</v>
+      </c>
+      <c r="J257" s="2" t="n">
+        <v>44933</v>
+      </c>
+      <c r="K257" t="inlineStr">
+        <is>
+          <t>Mechanics</t>
+        </is>
+      </c>
+      <c r="L257" t="n">
+        <v>1</v>
+      </c>
+      <c r="M257" t="inlineStr">
+        <is>
+          <t>Housing</t>
+        </is>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" s="1" t="inlineStr">
+        <is>
+          <t>63bdf92a-9e84-4c54-ad09-43fc8636997a</t>
+        </is>
+      </c>
+      <c r="B258" s="2" t="n">
+        <v>44933</v>
+      </c>
+      <c r="C258" t="inlineStr"/>
+      <c r="D258" s="2" t="n">
+        <v>44929</v>
+      </c>
+      <c r="E258" t="inlineStr"/>
+      <c r="F258" t="inlineStr">
+        <is>
+          <t>Online Banking Transfer from XXXXXX4411on 1/01/2023 at 12:52 Christmas trip rei</t>
+        </is>
+      </c>
+      <c r="G258" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="H258" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="I258" t="n">
+        <v>500</v>
+      </c>
+      <c r="J258" s="2" t="n">
+        <v>44933</v>
+      </c>
+      <c r="K258" t="inlineStr">
+        <is>
+          <t>Mechanics</t>
+        </is>
+      </c>
+      <c r="L258" t="n">
+        <v>0</v>
+      </c>
+      <c r="M258" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" s="1" t="inlineStr">
+        <is>
+          <t>5f2ce082-efa7-44ae-badf-41ee99e3ad20</t>
+        </is>
+      </c>
+      <c r="B259" s="2" t="n">
+        <v>44933</v>
+      </c>
+      <c r="C259" t="inlineStr"/>
+      <c r="D259" s="2" t="n">
+        <v>44929</v>
+      </c>
+      <c r="E259" t="inlineStr"/>
+      <c r="F259" t="inlineStr">
+        <is>
+          <t>Deposit</t>
+        </is>
+      </c>
+      <c r="G259" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="H259" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="I259" t="n">
+        <v>400</v>
+      </c>
+      <c r="J259" s="2" t="n">
+        <v>44933</v>
+      </c>
+      <c r="K259" t="inlineStr">
+        <is>
+          <t>Mechanics</t>
+        </is>
+      </c>
+      <c r="L259" t="n">
+        <v>0</v>
+      </c>
+      <c r="M259" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" s="1" t="inlineStr">
+        <is>
+          <t>062c3e88-79d4-4d80-a017-30a1ad0a08af</t>
+        </is>
+      </c>
+      <c r="B260" s="2" t="n">
+        <v>44933</v>
+      </c>
+      <c r="C260" t="inlineStr"/>
+      <c r="D260" s="2" t="n">
+        <v>44592</v>
+      </c>
+      <c r="E260" t="inlineStr"/>
+      <c r="F260" t="inlineStr">
+        <is>
+          <t>CHASE CREDIT CRD AUTOPAY 000000000429687</t>
+        </is>
+      </c>
+      <c r="G260" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="H260" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="I260" t="n">
+        <v>-324.65</v>
+      </c>
+      <c r="J260" s="2" t="n">
+        <v>44933</v>
+      </c>
+      <c r="K260" t="inlineStr">
+        <is>
+          <t>Mechanics</t>
+        </is>
+      </c>
+      <c r="L260" t="n">
+        <v>0</v>
+      </c>
+      <c r="M260" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" s="1" t="inlineStr">
+        <is>
+          <t>a8144002-7608-493a-a714-acea1e7b638f</t>
+        </is>
+      </c>
+      <c r="B261" s="2" t="n">
+        <v>44933</v>
+      </c>
+      <c r="C261" t="inlineStr"/>
+      <c r="D261" s="2" t="n">
+        <v>44582</v>
+      </c>
+      <c r="E261" t="inlineStr"/>
+      <c r="F261" t="inlineStr">
+        <is>
+          <t>UNIVERSITY OF PO ACH ITEMS XXXXX1261</t>
+        </is>
+      </c>
+      <c r="G261" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="H261" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="I261" t="n">
+        <v>2173</v>
+      </c>
+      <c r="J261" s="2" t="n">
+        <v>44933</v>
+      </c>
+      <c r="K261" t="inlineStr">
+        <is>
+          <t>Mechanics</t>
+        </is>
+      </c>
+      <c r="L261" t="n">
+        <v>0</v>
+      </c>
+      <c r="M261" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" s="1" t="inlineStr">
+        <is>
+          <t>52696ff7-ec13-4a5c-b7af-51e6b5ac0ca9</t>
+        </is>
+      </c>
+      <c r="B262" s="2" t="n">
+        <v>44933</v>
+      </c>
+      <c r="C262" t="inlineStr"/>
+      <c r="D262" s="2" t="n">
+        <v>44581</v>
+      </c>
+      <c r="E262" t="inlineStr"/>
+      <c r="F262" t="inlineStr">
+        <is>
+          <t>WELLS FARGO IFI DDA TO DDA F20DDH2BCL</t>
+        </is>
+      </c>
+      <c r="G262" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="H262" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="I262" t="n">
+        <v>-3500</v>
+      </c>
+      <c r="J262" s="2" t="n">
+        <v>44933</v>
+      </c>
+      <c r="K262" t="inlineStr">
+        <is>
+          <t>Mechanics</t>
+        </is>
+      </c>
+      <c r="L262" t="n">
+        <v>0</v>
+      </c>
+      <c r="M262" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" s="1" t="inlineStr">
+        <is>
+          <t>f4c4a216-07e9-43cb-9972-652650fae04e</t>
+        </is>
+      </c>
+      <c r="B263" s="2" t="n">
+        <v>44933</v>
+      </c>
+      <c r="C263" t="inlineStr"/>
+      <c r="D263" s="2" t="n">
+        <v>44579</v>
+      </c>
+      <c r="E263" t="inlineStr"/>
+      <c r="F263" t="inlineStr">
+        <is>
+          <t>CHASE CREDIT CRD AUTOPAY 000000000244776</t>
+        </is>
+      </c>
+      <c r="G263" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="H263" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="I263" t="n">
+        <v>-1261.33</v>
+      </c>
+      <c r="J263" s="2" t="n">
+        <v>44933</v>
+      </c>
+      <c r="K263" t="inlineStr">
+        <is>
+          <t>Mechanics</t>
+        </is>
+      </c>
+      <c r="L263" t="n">
+        <v>0</v>
+      </c>
+      <c r="M263" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" s="1" t="inlineStr">
+        <is>
+          <t>b9f69109-70cc-4fcf-9c16-6d6686fcf813</t>
+        </is>
+      </c>
+      <c r="B264" s="2" t="n">
+        <v>44933</v>
+      </c>
+      <c r="C264" t="inlineStr"/>
+      <c r="D264" s="2" t="n">
+        <v>44574</v>
+      </c>
+      <c r="E264" t="inlineStr"/>
+      <c r="F264" t="inlineStr">
+        <is>
+          <t>TD AMERITRADE ACH IN aH9YCQLESP</t>
+        </is>
+      </c>
+      <c r="G264" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="H264" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="I264" t="n">
+        <v>-5000</v>
+      </c>
+      <c r="J264" s="2" t="n">
+        <v>44933</v>
+      </c>
+      <c r="K264" t="inlineStr">
+        <is>
+          <t>Mechanics</t>
+        </is>
+      </c>
+      <c r="L264" t="n">
+        <v>0</v>
+      </c>
+      <c r="M264" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" s="1" t="inlineStr">
+        <is>
+          <t>dce93de9-fbb7-4730-8f7f-724cbc7c4b30</t>
+        </is>
+      </c>
+      <c r="B265" s="2" t="n">
+        <v>44933</v>
+      </c>
+      <c r="C265" t="inlineStr"/>
+      <c r="D265" s="2" t="n">
+        <v>44574</v>
+      </c>
+      <c r="E265" t="inlineStr"/>
+      <c r="F265" t="inlineStr">
+        <is>
+          <t>Online Banking Transfer from XXXXXX4411on 1/13/2022 at 9:00</t>
+        </is>
+      </c>
+      <c r="G265" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="H265" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="I265" t="n">
+        <v>50</v>
+      </c>
+      <c r="J265" s="2" t="n">
+        <v>44933</v>
+      </c>
+      <c r="K265" t="inlineStr">
+        <is>
+          <t>Mechanics</t>
+        </is>
+      </c>
+      <c r="L265" t="n">
+        <v>0</v>
+      </c>
+      <c r="M265" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" s="1" t="inlineStr">
+        <is>
+          <t>63820789-cb95-4c40-8508-374e3514026f</t>
+        </is>
+      </c>
+      <c r="B266" s="2" t="n">
+        <v>44933</v>
+      </c>
+      <c r="C266" t="inlineStr"/>
+      <c r="D266" s="2" t="n">
+        <v>44572</v>
+      </c>
+      <c r="E266" t="inlineStr"/>
+      <c r="F266" t="inlineStr">
+        <is>
+          <t>Online Banking Transfer from XXXXXX4411on 1/10/2022 at 20:25</t>
+        </is>
+      </c>
+      <c r="G266" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="H266" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="I266" t="n">
+        <v>300</v>
+      </c>
+      <c r="J266" s="2" t="n">
+        <v>44933</v>
+      </c>
+      <c r="K266" t="inlineStr">
+        <is>
+          <t>Mechanics</t>
+        </is>
+      </c>
+      <c r="L266" t="n">
+        <v>0</v>
+      </c>
+      <c r="M266" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" s="1" t="inlineStr">
+        <is>
+          <t>2f069480-53fe-4552-a569-e9dadd03fd8e</t>
+        </is>
+      </c>
+      <c r="B267" s="2" t="n">
+        <v>44933</v>
+      </c>
+      <c r="C267" t="inlineStr"/>
+      <c r="D267" s="2" t="n">
+        <v>44572</v>
+      </c>
+      <c r="E267" t="inlineStr"/>
+      <c r="F267" t="inlineStr">
+        <is>
+          <t>Barclays Bank De P2P Vega,William</t>
+        </is>
+      </c>
+      <c r="G267" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="H267" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="I267" t="n">
+        <v>2000</v>
+      </c>
+      <c r="J267" s="2" t="n">
+        <v>44933</v>
+      </c>
+      <c r="K267" t="inlineStr">
+        <is>
+          <t>Mechanics</t>
+        </is>
+      </c>
+      <c r="L267" t="n">
+        <v>0</v>
+      </c>
+      <c r="M267" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" s="1" t="inlineStr">
+        <is>
+          <t>d73176a2-1bb0-402e-8639-604ecf4805f3</t>
+        </is>
+      </c>
+      <c r="B268" s="2" t="n">
+        <v>44933</v>
+      </c>
+      <c r="C268" t="inlineStr"/>
+      <c r="D268" s="2" t="n">
+        <v>44571</v>
+      </c>
+      <c r="E268" t="inlineStr"/>
+      <c r="F268" t="inlineStr">
+        <is>
+          <t>Online Banking Transfer from XXXXXX4411on 1/10/2022 at 14:43</t>
+        </is>
+      </c>
+      <c r="G268" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="H268" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="I268" t="n">
+        <v>5000</v>
+      </c>
+      <c r="J268" s="2" t="n">
+        <v>44933</v>
+      </c>
+      <c r="K268" t="inlineStr">
+        <is>
+          <t>Mechanics</t>
+        </is>
+      </c>
+      <c r="L268" t="n">
+        <v>0</v>
+      </c>
+      <c r="M268" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" s="1" t="inlineStr">
+        <is>
+          <t>0e5da1c1-773b-4efc-8e5e-33e0445f4527</t>
+        </is>
+      </c>
+      <c r="B269" s="2" t="n">
+        <v>44933</v>
+      </c>
+      <c r="C269" t="inlineStr"/>
+      <c r="D269" s="2" t="n">
+        <v>44571</v>
+      </c>
+      <c r="E269" t="inlineStr"/>
+      <c r="F269" t="inlineStr">
+        <is>
+          <t>Online Banking Transfer from XXXXXX4411on 1/10/2022 at 14:46</t>
+        </is>
+      </c>
+      <c r="G269" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="H269" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="I269" t="n">
+        <v>100</v>
+      </c>
+      <c r="J269" s="2" t="n">
+        <v>44933</v>
+      </c>
+      <c r="K269" t="inlineStr">
+        <is>
+          <t>Mechanics</t>
+        </is>
+      </c>
+      <c r="L269" t="n">
+        <v>0</v>
+      </c>
+      <c r="M269" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" s="1" t="inlineStr">
+        <is>
+          <t>08e77f3f-78a5-4331-a176-0de19db561d9</t>
+        </is>
+      </c>
+      <c r="B270" s="2" t="n">
+        <v>44933</v>
+      </c>
+      <c r="C270" t="inlineStr"/>
+      <c r="D270" s="2" t="n">
+        <v>44566</v>
+      </c>
+      <c r="E270" t="inlineStr"/>
+      <c r="F270" t="inlineStr">
+        <is>
+          <t>Online Banking Transfer from XXXXXX4411on 1/05/2022 at 9:08</t>
+        </is>
+      </c>
+      <c r="G270" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="H270" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="I270" t="n">
+        <v>500</v>
+      </c>
+      <c r="J270" s="2" t="n">
+        <v>44933</v>
+      </c>
+      <c r="K270" t="inlineStr">
+        <is>
+          <t>Mechanics</t>
+        </is>
+      </c>
+      <c r="L270" t="n">
+        <v>0</v>
+      </c>
+      <c r="M270" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" s="1" t="inlineStr">
+        <is>
+          <t>42390903-b98b-4e80-9d25-8e048be0c767</t>
+        </is>
+      </c>
+      <c r="B271" s="2" t="n">
+        <v>44933</v>
+      </c>
+      <c r="C271" t="inlineStr"/>
+      <c r="D271" s="2" t="n">
+        <v>44565</v>
+      </c>
+      <c r="E271" t="inlineStr"/>
+      <c r="F271" t="inlineStr">
+        <is>
+          <t>BARCLAYS BANK DE COLLECTION 000130003236288</t>
+        </is>
+      </c>
+      <c r="G271" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="H271" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="I271" t="n">
+        <v>-500</v>
+      </c>
+      <c r="J271" s="2" t="n">
+        <v>44933</v>
+      </c>
+      <c r="K271" t="inlineStr">
+        <is>
+          <t>Mechanics</t>
+        </is>
+      </c>
+      <c r="L271" t="n">
+        <v>0</v>
+      </c>
+      <c r="M271" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" s="1" t="inlineStr">
+        <is>
+          <t>4d76019b-2ca9-4b16-aab0-fd482d25f87c</t>
+        </is>
+      </c>
+      <c r="B272" s="2" t="n">
+        <v>44933</v>
+      </c>
+      <c r="C272" t="inlineStr"/>
+      <c r="D272" s="2" t="n">
+        <v>44564</v>
+      </c>
+      <c r="E272" t="inlineStr"/>
+      <c r="F272" t="inlineStr">
+        <is>
+          <t>Online Banking Transfer from XXXXXX4411on 1/01/2022 at 10:55</t>
+        </is>
+      </c>
+      <c r="G272" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="H272" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="I272" t="n">
+        <v>725</v>
+      </c>
+      <c r="J272" s="2" t="n">
+        <v>44933</v>
+      </c>
+      <c r="K272" t="inlineStr">
+        <is>
+          <t>Mechanics</t>
+        </is>
+      </c>
+      <c r="L272" t="n">
+        <v>0</v>
+      </c>
+      <c r="M272" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" s="1" t="inlineStr">
+        <is>
+          <t>b28b3b39-7503-4efe-860c-d8f079bbc2bd</t>
+        </is>
+      </c>
+      <c r="B273" s="2" t="n">
+        <v>44933</v>
+      </c>
+      <c r="C273" t="inlineStr"/>
+      <c r="D273" s="2" t="n">
+        <v>44620</v>
+      </c>
+      <c r="E273" t="inlineStr"/>
+      <c r="F273" t="inlineStr">
+        <is>
+          <t>VENMO PAYMENT 1018703339719</t>
+        </is>
+      </c>
+      <c r="G273" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="H273" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="I273" t="n">
+        <v>-50</v>
+      </c>
+      <c r="J273" s="2" t="n">
+        <v>44933</v>
+      </c>
+      <c r="K273" t="inlineStr">
+        <is>
+          <t>Mechanics</t>
+        </is>
+      </c>
+      <c r="L273" t="n">
+        <v>0</v>
+      </c>
+      <c r="M273" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" s="1" t="inlineStr">
+        <is>
+          <t>7e346463-75db-4cf7-b5d6-b83e9ba61e90</t>
+        </is>
+      </c>
+      <c r="B274" s="2" t="n">
+        <v>44933</v>
+      </c>
+      <c r="C274" t="inlineStr"/>
+      <c r="D274" s="2" t="n">
+        <v>44616</v>
+      </c>
+      <c r="E274" t="inlineStr"/>
+      <c r="F274" t="inlineStr">
+        <is>
+          <t>VENMO CASHOUT 1018640209107</t>
+        </is>
+      </c>
+      <c r="G274" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="H274" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="I274" t="n">
+        <v>195</v>
+      </c>
+      <c r="J274" s="2" t="n">
+        <v>44933</v>
+      </c>
+      <c r="K274" t="inlineStr">
+        <is>
+          <t>Mechanics</t>
+        </is>
+      </c>
+      <c r="L274" t="n">
+        <v>0</v>
+      </c>
+      <c r="M274" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" s="1" t="inlineStr">
+        <is>
+          <t>4163e144-7143-4ba2-a3e0-0d334924ec6a</t>
+        </is>
+      </c>
+      <c r="B275" s="2" t="n">
+        <v>44933</v>
+      </c>
+      <c r="C275" t="inlineStr"/>
+      <c r="D275" s="2" t="n">
+        <v>44614</v>
+      </c>
+      <c r="E275" t="inlineStr"/>
+      <c r="F275" t="inlineStr">
+        <is>
+          <t>VENMO PAYMENT 1018574667960</t>
+        </is>
+      </c>
+      <c r="G275" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="H275" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="I275" t="n">
+        <v>-300</v>
+      </c>
+      <c r="J275" s="2" t="n">
+        <v>44933</v>
+      </c>
+      <c r="K275" t="inlineStr">
+        <is>
+          <t>Mechanics</t>
+        </is>
+      </c>
+      <c r="L275" t="n">
+        <v>0</v>
+      </c>
+      <c r="M275" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" s="1" t="inlineStr">
+        <is>
+          <t>b83a7124-0fd9-45ef-a452-428af1705575</t>
+        </is>
+      </c>
+      <c r="B276" s="2" t="n">
+        <v>44933</v>
+      </c>
+      <c r="C276" t="inlineStr"/>
+      <c r="D276" s="2" t="n">
+        <v>44614</v>
+      </c>
+      <c r="E276" t="inlineStr"/>
+      <c r="F276" t="inlineStr">
+        <is>
+          <t>Online Banking Transfer from XXXXXX4411on 2/20/2022 at 16:17</t>
+        </is>
+      </c>
+      <c r="G276" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="H276" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="I276" t="n">
+        <v>1304.2</v>
+      </c>
+      <c r="J276" s="2" t="n">
+        <v>44933</v>
+      </c>
+      <c r="K276" t="inlineStr">
+        <is>
+          <t>Mechanics</t>
+        </is>
+      </c>
+      <c r="L276" t="n">
+        <v>0</v>
+      </c>
+      <c r="M276" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" s="1" t="inlineStr">
+        <is>
+          <t>3a5e85c4-f143-4cfe-9f64-926651799134</t>
+        </is>
+      </c>
+      <c r="B277" s="2" t="n">
+        <v>44933</v>
+      </c>
+      <c r="C277" t="inlineStr"/>
+      <c r="D277" s="2" t="n">
+        <v>44610</v>
+      </c>
+      <c r="E277" t="inlineStr"/>
+      <c r="F277" t="inlineStr">
+        <is>
+          <t>CHASE CREDIT CRD AUTOPAY 000000000246738</t>
+        </is>
+      </c>
+      <c r="G277" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="H277" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="I277" t="n">
+        <v>-751.52</v>
+      </c>
+      <c r="J277" s="2" t="n">
+        <v>44933</v>
+      </c>
+      <c r="K277" t="inlineStr">
+        <is>
+          <t>Mechanics</t>
+        </is>
+      </c>
+      <c r="L277" t="n">
+        <v>0</v>
+      </c>
+      <c r="M277" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" s="1" t="inlineStr">
+        <is>
+          <t>5d195f8f-e9cb-4f72-a0d8-ac48a6814efe</t>
+        </is>
+      </c>
+      <c r="B278" s="2" t="n">
+        <v>44933</v>
+      </c>
+      <c r="C278" t="inlineStr"/>
+      <c r="D278" s="2" t="n">
+        <v>44603</v>
+      </c>
+      <c r="E278" t="inlineStr"/>
+      <c r="F278" t="inlineStr">
+        <is>
+          <t>UNIVERSITY OF PO ACH ITEMS XXXXX1261</t>
+        </is>
+      </c>
+      <c r="G278" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="H278" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="I278" t="n">
+        <v>500</v>
+      </c>
+      <c r="J278" s="2" t="n">
+        <v>44933</v>
+      </c>
+      <c r="K278" t="inlineStr">
+        <is>
+          <t>Mechanics</t>
+        </is>
+      </c>
+      <c r="L278" t="n">
+        <v>0</v>
+      </c>
+      <c r="M278" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" s="1" t="inlineStr">
+        <is>
+          <t>3b465b9a-baa3-4130-b249-3e2fde2414e0</t>
+        </is>
+      </c>
+      <c r="B279" s="2" t="n">
+        <v>44933</v>
+      </c>
+      <c r="C279" t="inlineStr"/>
+      <c r="D279" s="2" t="n">
+        <v>44596</v>
+      </c>
+      <c r="E279" t="inlineStr"/>
+      <c r="F279" t="inlineStr">
+        <is>
+          <t>Check</t>
+        </is>
+      </c>
+      <c r="G279" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="H279" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="I279" t="n">
+        <v>-2173</v>
+      </c>
+      <c r="J279" s="2" t="n">
+        <v>44933</v>
+      </c>
+      <c r="K279" t="inlineStr">
+        <is>
+          <t>Mechanics</t>
+        </is>
+      </c>
+      <c r="L279" t="n">
+        <v>0</v>
+      </c>
+      <c r="M279" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" s="1" t="inlineStr">
+        <is>
+          <t>58ae2489-695c-418e-a4f0-aacb353e698d</t>
+        </is>
+      </c>
+      <c r="B280" s="2" t="n">
+        <v>44933</v>
+      </c>
+      <c r="C280" t="inlineStr"/>
+      <c r="D280" s="2" t="n">
+        <v>44593</v>
+      </c>
+      <c r="E280" t="inlineStr"/>
+      <c r="F280" t="inlineStr">
+        <is>
+          <t>VENMO PAYMENT 1018240970634</t>
+        </is>
+      </c>
+      <c r="G280" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="H280" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="I280" t="n">
+        <v>-70</v>
+      </c>
+      <c r="J280" s="2" t="n">
+        <v>44933</v>
+      </c>
+      <c r="K280" t="inlineStr">
+        <is>
+          <t>Mechanics</t>
+        </is>
+      </c>
+      <c r="L280" t="n">
+        <v>0</v>
+      </c>
+      <c r="M280" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" s="1" t="inlineStr">
+        <is>
+          <t>128fd450-f413-4aa3-9f63-00ab5a21d951</t>
+        </is>
+      </c>
+      <c r="B281" s="2" t="n">
+        <v>44933</v>
+      </c>
+      <c r="C281" t="inlineStr"/>
+      <c r="D281" s="2" t="n">
+        <v>44593</v>
+      </c>
+      <c r="E281" t="inlineStr"/>
+      <c r="F281" t="inlineStr">
+        <is>
+          <t>APPLECARD GSBANK PAYMENT 2211736</t>
+        </is>
+      </c>
+      <c r="G281" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="H281" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="I281" t="n">
+        <v>-19.34</v>
+      </c>
+      <c r="J281" s="2" t="n">
+        <v>44933</v>
+      </c>
+      <c r="K281" t="inlineStr">
+        <is>
+          <t>Mechanics</t>
+        </is>
+      </c>
+      <c r="L281" t="n">
+        <v>0</v>
+      </c>
+      <c r="M281" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" s="1" t="inlineStr">
+        <is>
+          <t>849a0bbf-9183-45ed-8b21-360b7000fcab</t>
+        </is>
+      </c>
+      <c r="B282" s="2" t="n">
+        <v>44933</v>
+      </c>
+      <c r="C282" t="inlineStr"/>
+      <c r="D282" s="2" t="n">
+        <v>44593</v>
+      </c>
+      <c r="E282" t="inlineStr"/>
+      <c r="F282" t="inlineStr">
+        <is>
+          <t>Online Banking Transfer from XXXXXX4411on 2/01/2022 at 9:31</t>
+        </is>
+      </c>
+      <c r="G282" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="H282" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="I282" t="n">
+        <v>800</v>
+      </c>
+      <c r="J282" s="2" t="n">
+        <v>44933</v>
+      </c>
+      <c r="K282" t="inlineStr">
+        <is>
+          <t>Mechanics</t>
+        </is>
+      </c>
+      <c r="L282" t="n">
+        <v>0</v>
+      </c>
+      <c r="M282" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" s="1" t="inlineStr">
+        <is>
+          <t>b5870ee7-2b5e-4c60-b4cf-fd3020ea8f07</t>
+        </is>
+      </c>
+      <c r="B283" s="2" t="n">
+        <v>44933</v>
+      </c>
+      <c r="C283" t="inlineStr"/>
+      <c r="D283" s="2" t="n">
+        <v>44712</v>
+      </c>
+      <c r="E283" t="inlineStr"/>
+      <c r="F283" t="inlineStr">
+        <is>
+          <t>CHASE CREDIT CRD AUTOPAY 000000000814774</t>
+        </is>
+      </c>
+      <c r="G283" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="H283" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="I283" t="n">
+        <v>-464.33</v>
+      </c>
+      <c r="J283" s="2" t="n">
+        <v>44933</v>
+      </c>
+      <c r="K283" t="inlineStr">
+        <is>
+          <t>Mechanics</t>
+        </is>
+      </c>
+      <c r="L283" t="n">
+        <v>0</v>
+      </c>
+      <c r="M283" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" s="1" t="inlineStr">
+        <is>
+          <t>99a999a5-d002-45dd-a9f2-4e92cdfa0742</t>
+        </is>
+      </c>
+      <c r="B284" s="2" t="n">
+        <v>44933</v>
+      </c>
+      <c r="C284" t="inlineStr"/>
+      <c r="D284" s="2" t="n">
+        <v>44708</v>
+      </c>
+      <c r="E284" t="inlineStr"/>
+      <c r="F284" t="inlineStr">
+        <is>
+          <t>UNIVERSITY OF PO ACCTS PAY XXXXX1261</t>
+        </is>
+      </c>
+      <c r="G284" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="H284" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="I284" t="n">
+        <v>421.05</v>
+      </c>
+      <c r="J284" s="2" t="n">
+        <v>44933</v>
+      </c>
+      <c r="K284" t="inlineStr">
+        <is>
+          <t>Mechanics</t>
+        </is>
+      </c>
+      <c r="L284" t="n">
+        <v>0</v>
+      </c>
+      <c r="M284" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285" s="1" t="inlineStr">
+        <is>
+          <t>6ba0a839-29b5-48da-8e74-b636e0700930</t>
+        </is>
+      </c>
+      <c r="B285" s="2" t="n">
+        <v>44933</v>
+      </c>
+      <c r="C285" t="inlineStr"/>
+      <c r="D285" s="2" t="n">
+        <v>44701</v>
+      </c>
+      <c r="E285" t="inlineStr"/>
+      <c r="F285" t="inlineStr">
+        <is>
+          <t>WELLS FARGO IFI DDA TO DDA F20FCXK368</t>
+        </is>
+      </c>
+      <c r="G285" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="H285" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="I285" t="n">
+        <v>6814.03</v>
+      </c>
+      <c r="J285" s="2" t="n">
+        <v>44933</v>
+      </c>
+      <c r="K285" t="inlineStr">
+        <is>
+          <t>Mechanics</t>
+        </is>
+      </c>
+      <c r="L285" t="n">
+        <v>0</v>
+      </c>
+      <c r="M285" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286" s="1" t="inlineStr">
+        <is>
+          <t>4f06a4b8-e011-41b7-9d6b-4e6a4c98cce6</t>
+        </is>
+      </c>
+      <c r="B286" s="2" t="n">
+        <v>44933</v>
+      </c>
+      <c r="C286" t="inlineStr"/>
+      <c r="D286" s="2" t="n">
+        <v>44700</v>
+      </c>
+      <c r="E286" t="inlineStr"/>
+      <c r="F286" t="inlineStr">
+        <is>
+          <t>CHASE CREDIT CRD AUTOPAY 000000000255893</t>
+        </is>
+      </c>
+      <c r="G286" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="H286" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="I286" t="n">
+        <v>-1279.18</v>
+      </c>
+      <c r="J286" s="2" t="n">
+        <v>44933</v>
+      </c>
+      <c r="K286" t="inlineStr">
+        <is>
+          <t>Mechanics</t>
+        </is>
+      </c>
+      <c r="L286" t="n">
+        <v>0</v>
+      </c>
+      <c r="M286" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" s="1" t="inlineStr">
+        <is>
+          <t>4fe01e49-f58f-41f6-9d6c-90243d617f70</t>
+        </is>
+      </c>
+      <c r="B287" s="2" t="n">
+        <v>44933</v>
+      </c>
+      <c r="C287" t="inlineStr"/>
+      <c r="D287" s="2" t="n">
+        <v>44697</v>
+      </c>
+      <c r="E287" t="inlineStr"/>
+      <c r="F287" t="inlineStr">
+        <is>
+          <t>VENMO PAYMENT 1020124337391</t>
+        </is>
+      </c>
+      <c r="G287" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="H287" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="I287" t="n">
+        <v>-40</v>
+      </c>
+      <c r="J287" s="2" t="n">
+        <v>44933</v>
+      </c>
+      <c r="K287" t="inlineStr">
+        <is>
+          <t>Mechanics</t>
+        </is>
+      </c>
+      <c r="L287" t="n">
+        <v>0</v>
+      </c>
+      <c r="M287" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" s="1" t="inlineStr">
+        <is>
+          <t>349320fd-377f-4eb6-938e-f2384b73280d</t>
+        </is>
+      </c>
+      <c r="B288" s="2" t="n">
+        <v>44933</v>
+      </c>
+      <c r="C288" s="2" t="n">
+        <v>44933</v>
+      </c>
+      <c r="D288" s="2" t="n">
+        <v>44693</v>
+      </c>
+      <c r="E288" t="inlineStr"/>
+      <c r="F288" t="inlineStr">
+        <is>
+          <t>COINBASE INC. XXXXXX7930 8W6BUCGH</t>
+        </is>
+      </c>
+      <c r="G288" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="H288" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="I288" t="n">
+        <v>495.25</v>
+      </c>
+      <c r="J288" s="2" t="n">
+        <v>44933</v>
+      </c>
+      <c r="K288" t="inlineStr">
+        <is>
+          <t>Mechanics</t>
+        </is>
+      </c>
+      <c r="L288" t="n">
+        <v>1</v>
+      </c>
+      <c r="M288" t="inlineStr">
+        <is>
+          <t>Income</t>
+        </is>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289" s="1" t="inlineStr">
+        <is>
+          <t>0362d79d-b8f4-4f7b-89e3-8e34fa88e3a9</t>
+        </is>
+      </c>
+      <c r="B289" s="2" t="n">
+        <v>44933</v>
+      </c>
+      <c r="C289" t="inlineStr"/>
+      <c r="D289" s="2" t="n">
+        <v>44690</v>
+      </c>
+      <c r="E289" t="inlineStr"/>
+      <c r="F289" t="inlineStr">
+        <is>
+          <t>Mobile Deposit</t>
+        </is>
+      </c>
+      <c r="G289" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="H289" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="I289" t="n">
+        <v>500</v>
+      </c>
+      <c r="J289" s="2" t="n">
+        <v>44933</v>
+      </c>
+      <c r="K289" t="inlineStr">
+        <is>
+          <t>Mechanics</t>
+        </is>
+      </c>
+      <c r="L289" t="n">
+        <v>0</v>
+      </c>
+      <c r="M289" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290" s="1" t="inlineStr">
+        <is>
+          <t>fe6cf3e1-103e-4870-9856-025d08276733</t>
+        </is>
+      </c>
+      <c r="B290" s="2" t="n">
+        <v>44933</v>
+      </c>
+      <c r="C290" t="inlineStr"/>
+      <c r="D290" s="2" t="n">
+        <v>44686</v>
+      </c>
+      <c r="E290" t="inlineStr"/>
+      <c r="F290" t="inlineStr">
+        <is>
+          <t>Online Banking Transfer from XXXXXX4411on 5/05/2022 at 15:35</t>
+        </is>
+      </c>
+      <c r="G290" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="H290" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="I290" t="n">
+        <v>100</v>
+      </c>
+      <c r="J290" s="2" t="n">
+        <v>44933</v>
+      </c>
+      <c r="K290" t="inlineStr">
+        <is>
+          <t>Mechanics</t>
+        </is>
+      </c>
+      <c r="L290" t="n">
+        <v>0</v>
+      </c>
+      <c r="M290" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291" s="1" t="inlineStr">
+        <is>
+          <t>4f297e94-cac1-4a65-90d4-b16225dcce97</t>
+        </is>
+      </c>
+      <c r="B291" s="2" t="n">
+        <v>44933</v>
+      </c>
+      <c r="C291" t="inlineStr"/>
+      <c r="D291" s="2" t="n">
+        <v>44683</v>
+      </c>
+      <c r="E291" t="inlineStr"/>
+      <c r="F291" t="inlineStr">
+        <is>
+          <t>APPLECARD GSBANK PAYMENT 2211736</t>
+        </is>
+      </c>
+      <c r="G291" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="H291" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="I291" t="n">
+        <v>-187</v>
+      </c>
+      <c r="J291" s="2" t="n">
+        <v>44933</v>
+      </c>
+      <c r="K291" t="inlineStr">
+        <is>
+          <t>Mechanics</t>
+        </is>
+      </c>
+      <c r="L291" t="n">
+        <v>0</v>
+      </c>
+      <c r="M291" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+    </row>
+    <row r="292">
+      <c r="A292" s="1" t="inlineStr">
+        <is>
+          <t>66c7aa0b-17b7-4cb8-a100-495251b9178f</t>
+        </is>
+      </c>
+      <c r="B292" s="2" t="n">
+        <v>44933</v>
+      </c>
+      <c r="C292" t="inlineStr"/>
+      <c r="D292" s="2" t="n">
+        <v>44683</v>
+      </c>
+      <c r="E292" t="inlineStr"/>
+      <c r="F292" t="inlineStr">
+        <is>
+          <t>Online Banking Transfer from XXXXXX4411on 5/01/2022 at 9:31</t>
+        </is>
+      </c>
+      <c r="G292" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="H292" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="I292" t="n">
+        <v>800</v>
+      </c>
+      <c r="J292" s="2" t="n">
+        <v>44933</v>
+      </c>
+      <c r="K292" t="inlineStr">
+        <is>
+          <t>Mechanics</t>
+        </is>
+      </c>
+      <c r="L292" t="n">
+        <v>0</v>
+      </c>
+      <c r="M292" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293" s="1" t="inlineStr">
+        <is>
+          <t>2d823de5-1032-446a-98ad-0b2837805459</t>
+        </is>
+      </c>
+      <c r="B293" s="2" t="n">
+        <v>44933</v>
+      </c>
+      <c r="C293" t="inlineStr"/>
+      <c r="D293" s="2" t="n">
+        <v>44680</v>
+      </c>
+      <c r="E293" t="inlineStr"/>
+      <c r="F293" t="inlineStr">
+        <is>
+          <t>CHASE CREDIT CRD AUTOPAY 000000000443129</t>
+        </is>
+      </c>
+      <c r="G293" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="H293" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="I293" t="n">
+        <v>-1266.7</v>
+      </c>
+      <c r="J293" s="2" t="n">
+        <v>44933</v>
+      </c>
+      <c r="K293" t="inlineStr">
+        <is>
+          <t>Mechanics</t>
+        </is>
+      </c>
+      <c r="L293" t="n">
+        <v>0</v>
+      </c>
+      <c r="M293" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+    </row>
+    <row r="294">
+      <c r="A294" s="1" t="inlineStr">
+        <is>
+          <t>310dd3d9-719a-44dd-b682-c78d2ca137f5</t>
+        </is>
+      </c>
+      <c r="B294" s="2" t="n">
+        <v>44933</v>
+      </c>
+      <c r="C294" t="inlineStr"/>
+      <c r="D294" s="2" t="n">
+        <v>44677</v>
+      </c>
+      <c r="E294" t="inlineStr"/>
+      <c r="F294" t="inlineStr">
+        <is>
+          <t>VENMO PAYMENT 1019731010656</t>
+        </is>
+      </c>
+      <c r="G294" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="H294" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="I294" t="n">
+        <v>-25</v>
+      </c>
+      <c r="J294" s="2" t="n">
+        <v>44933</v>
+      </c>
+      <c r="K294" t="inlineStr">
+        <is>
+          <t>Mechanics</t>
+        </is>
+      </c>
+      <c r="L294" t="n">
+        <v>0</v>
+      </c>
+      <c r="M294" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+    </row>
+    <row r="295">
+      <c r="A295" s="1" t="inlineStr">
+        <is>
+          <t>365b38a6-b9ab-4788-98e6-1691ce9a19ee</t>
+        </is>
+      </c>
+      <c r="B295" s="2" t="n">
+        <v>44933</v>
+      </c>
+      <c r="C295" t="inlineStr"/>
+      <c r="D295" s="2" t="n">
+        <v>44669</v>
+      </c>
+      <c r="E295" t="inlineStr"/>
+      <c r="F295" t="inlineStr">
+        <is>
+          <t>CHASE CREDIT CRD AUTOPAY 000000000250490</t>
+        </is>
+      </c>
+      <c r="G295" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="H295" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="I295" t="n">
+        <v>-1129.24</v>
+      </c>
+      <c r="J295" s="2" t="n">
+        <v>44933</v>
+      </c>
+      <c r="K295" t="inlineStr">
+        <is>
+          <t>Mechanics</t>
+        </is>
+      </c>
+      <c r="L295" t="n">
+        <v>0</v>
+      </c>
+      <c r="M295" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+    </row>
+    <row r="296">
+      <c r="A296" s="1" t="inlineStr">
+        <is>
+          <t>2cbe3c45-4401-4b79-b3e7-5b4fe2f38b08</t>
+        </is>
+      </c>
+      <c r="B296" s="2" t="n">
+        <v>44933</v>
+      </c>
+      <c r="C296" t="inlineStr"/>
+      <c r="D296" s="2" t="n">
+        <v>44652</v>
+      </c>
+      <c r="E296" t="inlineStr"/>
+      <c r="F296" t="inlineStr">
+        <is>
+          <t>Online Banking Transfer from XXXXXX4411on 4/01/2022 at 9:31</t>
+        </is>
+      </c>
+      <c r="G296" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="H296" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="I296" t="n">
+        <v>800</v>
+      </c>
+      <c r="J296" s="2" t="n">
+        <v>44933</v>
+      </c>
+      <c r="K296" t="inlineStr">
+        <is>
+          <t>Mechanics</t>
+        </is>
+      </c>
+      <c r="L296" t="n">
+        <v>0</v>
+      </c>
+      <c r="M296" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+    </row>
+    <row r="297">
+      <c r="A297" s="1" t="inlineStr">
+        <is>
+          <t>87de6ee9-61e2-46f7-a18a-5c64a4faacd0</t>
+        </is>
+      </c>
+      <c r="B297" s="2" t="n">
+        <v>44933</v>
+      </c>
+      <c r="C297" t="inlineStr"/>
+      <c r="D297" s="2" t="n">
+        <v>44652</v>
+      </c>
+      <c r="E297" t="inlineStr"/>
+      <c r="F297" t="inlineStr">
+        <is>
+          <t>Barclays Bank De P2P Vega,William</t>
+        </is>
+      </c>
+      <c r="G297" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="H297" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="I297" t="n">
+        <v>1150</v>
+      </c>
+      <c r="J297" s="2" t="n">
+        <v>44933</v>
+      </c>
+      <c r="K297" t="inlineStr">
+        <is>
+          <t>Mechanics</t>
+        </is>
+      </c>
+      <c r="L297" t="n">
+        <v>0</v>
+      </c>
+      <c r="M297" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+    </row>
+    <row r="298">
+      <c r="A298" s="1" t="inlineStr">
+        <is>
+          <t>4cb853ea-e134-46ce-b292-b6626d64da4e</t>
+        </is>
+      </c>
+      <c r="B298" s="2" t="n">
+        <v>44933</v>
+      </c>
+      <c r="C298" t="inlineStr"/>
+      <c r="D298" s="2" t="n">
+        <v>44652</v>
+      </c>
+      <c r="E298" t="inlineStr"/>
+      <c r="F298" t="inlineStr">
+        <is>
+          <t>UNIVERSITY OF PO ACCTS PAY XXXXX1261</t>
+        </is>
+      </c>
+      <c r="G298" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="H298" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="I298" t="n">
+        <v>185.9</v>
+      </c>
+      <c r="J298" s="2" t="n">
+        <v>44933</v>
+      </c>
+      <c r="K298" t="inlineStr">
+        <is>
+          <t>Mechanics</t>
+        </is>
+      </c>
+      <c r="L298" t="n">
+        <v>0</v>
+      </c>
+      <c r="M298" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+    </row>
+    <row r="299">
+      <c r="A299" s="1" t="inlineStr">
+        <is>
+          <t>45efae2f-be6a-4473-9e8b-e4756e350853</t>
+        </is>
+      </c>
+      <c r="B299" s="2" t="n">
+        <v>44933</v>
+      </c>
+      <c r="C299" t="inlineStr"/>
+      <c r="D299" s="2" t="n">
+        <v>44649</v>
+      </c>
+      <c r="E299" t="inlineStr"/>
+      <c r="F299" t="inlineStr">
+        <is>
+          <t>CHASE CREDIT CRD AUTOPAY 000000000435162</t>
+        </is>
+      </c>
+      <c r="G299" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="H299" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="I299" t="n">
+        <v>-1395.85</v>
+      </c>
+      <c r="J299" s="2" t="n">
+        <v>44933</v>
+      </c>
+      <c r="K299" t="inlineStr">
+        <is>
+          <t>Mechanics</t>
+        </is>
+      </c>
+      <c r="L299" t="n">
+        <v>0</v>
+      </c>
+      <c r="M299" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+    </row>
+    <row r="300">
+      <c r="A300" s="1" t="inlineStr">
+        <is>
+          <t>28e1934b-7677-409f-860c-78387f9a2aca</t>
+        </is>
+      </c>
+      <c r="B300" s="2" t="n">
+        <v>44933</v>
+      </c>
+      <c r="C300" t="inlineStr"/>
+      <c r="D300" s="2" t="n">
+        <v>44638</v>
+      </c>
+      <c r="E300" t="inlineStr"/>
+      <c r="F300" t="inlineStr">
+        <is>
+          <t>CHASE CREDIT CRD AUTOPAY 000000000251383</t>
+        </is>
+      </c>
+      <c r="G300" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="H300" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="I300" t="n">
+        <v>-1335.44</v>
+      </c>
+      <c r="J300" s="2" t="n">
+        <v>44933</v>
+      </c>
+      <c r="K300" t="inlineStr">
+        <is>
+          <t>Mechanics</t>
+        </is>
+      </c>
+      <c r="L300" t="n">
+        <v>0</v>
+      </c>
+      <c r="M300" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+    </row>
+    <row r="301">
+      <c r="A301" s="1" t="inlineStr">
+        <is>
+          <t>0289ee1f-967e-4a4e-9ac6-7375ec8a03e4</t>
+        </is>
+      </c>
+      <c r="B301" s="2" t="n">
+        <v>44933</v>
+      </c>
+      <c r="C301" t="inlineStr"/>
+      <c r="D301" s="2" t="n">
+        <v>44637</v>
+      </c>
+      <c r="E301" t="inlineStr"/>
+      <c r="F301" t="inlineStr">
+        <is>
+          <t>VENMO CASHOUT 1019017528019</t>
+        </is>
+      </c>
+      <c r="G301" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="H301" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="I301" t="n">
+        <v>120</v>
+      </c>
+      <c r="J301" s="2" t="n">
+        <v>44933</v>
+      </c>
+      <c r="K301" t="inlineStr">
+        <is>
+          <t>Mechanics</t>
+        </is>
+      </c>
+      <c r="L301" t="n">
+        <v>0</v>
+      </c>
+      <c r="M301" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+    </row>
+    <row r="302">
+      <c r="A302" s="1" t="inlineStr">
+        <is>
+          <t>919a9843-4feb-40ac-92d9-dfe5d6d8d76f</t>
+        </is>
+      </c>
+      <c r="B302" s="2" t="n">
+        <v>44933</v>
+      </c>
+      <c r="C302" t="inlineStr"/>
+      <c r="D302" s="2" t="n">
+        <v>44630</v>
+      </c>
+      <c r="E302" t="inlineStr"/>
+      <c r="F302" t="inlineStr">
+        <is>
+          <t>WELLS FARGO IFI DDA TO DDA F20DRZBW9F</t>
+        </is>
+      </c>
+      <c r="G302" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="H302" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="I302" t="n">
+        <v>-1500</v>
+      </c>
+      <c r="J302" s="2" t="n">
+        <v>44933</v>
+      </c>
+      <c r="K302" t="inlineStr">
+        <is>
+          <t>Mechanics</t>
+        </is>
+      </c>
+      <c r="L302" t="n">
+        <v>0</v>
+      </c>
+      <c r="M302" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+    </row>
+    <row r="303">
+      <c r="A303" s="1" t="inlineStr">
+        <is>
+          <t>ce484335-7ec8-49d1-9b90-02b1efb297ee</t>
+        </is>
+      </c>
+      <c r="B303" s="2" t="n">
+        <v>44933</v>
+      </c>
+      <c r="C303" t="inlineStr"/>
+      <c r="D303" s="2" t="n">
+        <v>44630</v>
+      </c>
+      <c r="E303" t="inlineStr"/>
+      <c r="F303" t="inlineStr">
+        <is>
+          <t>VENMO CASHOUT 1018908490998</t>
+        </is>
+      </c>
+      <c r="G303" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="H303" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="I303" t="n">
+        <v>67</v>
+      </c>
+      <c r="J303" s="2" t="n">
+        <v>44933</v>
+      </c>
+      <c r="K303" t="inlineStr">
+        <is>
+          <t>Mechanics</t>
+        </is>
+      </c>
+      <c r="L303" t="n">
+        <v>0</v>
+      </c>
+      <c r="M303" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+    </row>
+    <row r="304">
+      <c r="A304" s="1" t="inlineStr">
+        <is>
+          <t>957b9122-7ae2-4ee7-972a-f4ece28f3245</t>
+        </is>
+      </c>
+      <c r="B304" s="2" t="n">
+        <v>44933</v>
+      </c>
+      <c r="C304" t="inlineStr"/>
+      <c r="D304" s="2" t="n">
+        <v>44629</v>
+      </c>
+      <c r="E304" t="inlineStr"/>
+      <c r="F304" t="inlineStr">
+        <is>
+          <t>Online Banking Transfer from XXXXXX4411on 3/09/2022 at 10:40</t>
+        </is>
+      </c>
+      <c r="G304" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="H304" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="I304" t="n">
+        <v>1000</v>
+      </c>
+      <c r="J304" s="2" t="n">
+        <v>44933</v>
+      </c>
+      <c r="K304" t="inlineStr">
+        <is>
+          <t>Mechanics</t>
+        </is>
+      </c>
+      <c r="L304" t="n">
+        <v>0</v>
+      </c>
+      <c r="M304" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+    </row>
+    <row r="305">
+      <c r="A305" s="1" t="inlineStr">
+        <is>
+          <t>71f3fdf8-6e8a-47a4-b5fd-6e66d5a2f3aa</t>
+        </is>
+      </c>
+      <c r="B305" s="2" t="n">
+        <v>44933</v>
+      </c>
+      <c r="C305" t="inlineStr"/>
+      <c r="D305" s="2" t="n">
+        <v>44623</v>
+      </c>
+      <c r="E305" t="inlineStr"/>
+      <c r="F305" t="inlineStr">
+        <is>
+          <t>WELLS FARGO IFI DDA TO DDA F20DQBB2ZH</t>
+        </is>
+      </c>
+      <c r="G305" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="H305" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="I305" t="n">
+        <v>-2000</v>
+      </c>
+      <c r="J305" s="2" t="n">
+        <v>44933</v>
+      </c>
+      <c r="K305" t="inlineStr">
+        <is>
+          <t>Mechanics</t>
+        </is>
+      </c>
+      <c r="L305" t="n">
+        <v>0</v>
+      </c>
+      <c r="M305" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+    </row>
+    <row r="306">
+      <c r="A306" s="1" t="inlineStr">
+        <is>
+          <t>d5e77e47-f1af-4acd-a58f-090c5e43a146</t>
+        </is>
+      </c>
+      <c r="B306" s="2" t="n">
+        <v>44933</v>
+      </c>
+      <c r="C306" t="inlineStr"/>
+      <c r="D306" s="2" t="n">
+        <v>44621</v>
+      </c>
+      <c r="E306" t="inlineStr"/>
+      <c r="F306" t="inlineStr">
+        <is>
+          <t>CHASE CREDIT CRD AUTOPAY 000000000434242</t>
+        </is>
+      </c>
+      <c r="G306" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="H306" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="I306" t="n">
+        <v>-1624.44</v>
+      </c>
+      <c r="J306" s="2" t="n">
+        <v>44933</v>
+      </c>
+      <c r="K306" t="inlineStr">
+        <is>
+          <t>Mechanics</t>
+        </is>
+      </c>
+      <c r="L306" t="n">
+        <v>0</v>
+      </c>
+      <c r="M306" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+    </row>
+    <row r="307">
+      <c r="A307" s="1" t="inlineStr">
+        <is>
+          <t>e4ae6378-96ba-413f-95a8-6a500f3d7757</t>
+        </is>
+      </c>
+      <c r="B307" s="2" t="n">
+        <v>44933</v>
+      </c>
+      <c r="C307" t="inlineStr"/>
+      <c r="D307" s="2" t="n">
+        <v>44621</v>
+      </c>
+      <c r="E307" t="inlineStr"/>
+      <c r="F307" t="inlineStr">
+        <is>
+          <t>Online Banking Transfer from XXXXXX4411on 3/01/2022 at 9:31</t>
+        </is>
+      </c>
+      <c r="G307" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="H307" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="I307" t="n">
+        <v>800</v>
+      </c>
+      <c r="J307" s="2" t="n">
+        <v>44933</v>
+      </c>
+      <c r="K307" t="inlineStr">
+        <is>
+          <t>Mechanics</t>
+        </is>
+      </c>
+      <c r="L307" t="n">
+        <v>0</v>
+      </c>
+      <c r="M307" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+    </row>
+    <row r="308">
+      <c r="A308" s="1" t="inlineStr">
+        <is>
+          <t>d92467b4-ea03-42c9-9f63-4c01f99b108d</t>
+        </is>
+      </c>
+      <c r="B308" s="2" t="n">
+        <v>44933</v>
+      </c>
+      <c r="C308" t="inlineStr"/>
+      <c r="D308" s="2" t="n">
+        <v>44741</v>
+      </c>
+      <c r="E308" t="inlineStr"/>
+      <c r="F308" t="inlineStr">
+        <is>
+          <t>CHASE CREDIT CRD AUTOPAY 000000000456784</t>
+        </is>
+      </c>
+      <c r="G308" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="H308" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="I308" t="n">
+        <v>-2934.28</v>
+      </c>
+      <c r="J308" s="2" t="n">
+        <v>44933</v>
+      </c>
+      <c r="K308" t="inlineStr">
+        <is>
+          <t>Mechanics</t>
+        </is>
+      </c>
+      <c r="L308" t="n">
+        <v>0</v>
+      </c>
+      <c r="M308" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+    </row>
+    <row r="309">
+      <c r="A309" s="1" t="inlineStr">
+        <is>
+          <t>b0e00356-b6eb-4c81-8d64-2e029d019309</t>
+        </is>
+      </c>
+      <c r="B309" s="2" t="n">
+        <v>44933</v>
+      </c>
+      <c r="C309" t="inlineStr"/>
+      <c r="D309" s="2" t="n">
+        <v>44741</v>
+      </c>
+      <c r="E309" t="inlineStr"/>
+      <c r="F309" t="inlineStr">
+        <is>
+          <t>UNIVERSITY OF PO ACH ITEMS XXXXX1261</t>
+        </is>
+      </c>
+      <c r="G309" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="H309" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="I309" t="n">
+        <v>1230</v>
+      </c>
+      <c r="J309" s="2" t="n">
+        <v>44933</v>
+      </c>
+      <c r="K309" t="inlineStr">
+        <is>
+          <t>Mechanics</t>
+        </is>
+      </c>
+      <c r="L309" t="n">
+        <v>0</v>
+      </c>
+      <c r="M309" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+    </row>
+    <row r="310">
+      <c r="A310" s="1" t="inlineStr">
+        <is>
+          <t>70eb461c-da06-4903-a053-8719313e45a5</t>
+        </is>
+      </c>
+      <c r="B310" s="2" t="n">
+        <v>44933</v>
+      </c>
+      <c r="C310" t="inlineStr"/>
+      <c r="D310" s="2" t="n">
+        <v>44733</v>
+      </c>
+      <c r="E310" t="inlineStr"/>
+      <c r="F310" t="inlineStr">
+        <is>
+          <t>CHASE CREDIT CRD AUTOPAY 000000000513956</t>
+        </is>
+      </c>
+      <c r="G310" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="H310" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="I310" t="n">
+        <v>-879.9</v>
+      </c>
+      <c r="J310" s="2" t="n">
+        <v>44933</v>
+      </c>
+      <c r="K310" t="inlineStr">
+        <is>
+          <t>Mechanics</t>
+        </is>
+      </c>
+      <c r="L310" t="n">
+        <v>0</v>
+      </c>
+      <c r="M310" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+    </row>
+    <row r="311">
+      <c r="A311" s="1" t="inlineStr">
+        <is>
+          <t>c09332d9-d419-4956-bbe0-5e3d54844bcb</t>
+        </is>
+      </c>
+      <c r="B311" s="2" t="n">
+        <v>44933</v>
+      </c>
+      <c r="C311" t="inlineStr"/>
+      <c r="D311" s="2" t="n">
+        <v>44720</v>
+      </c>
+      <c r="E311" t="inlineStr"/>
+      <c r="F311" t="inlineStr">
+        <is>
+          <t>Deposit</t>
+        </is>
+      </c>
+      <c r="G311" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="H311" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="I311" t="n">
+        <v>1000</v>
+      </c>
+      <c r="J311" s="2" t="n">
+        <v>44933</v>
+      </c>
+      <c r="K311" t="inlineStr">
+        <is>
+          <t>Mechanics</t>
+        </is>
+      </c>
+      <c r="L311" t="n">
+        <v>0</v>
+      </c>
+      <c r="M311" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+    </row>
+    <row r="312">
+      <c r="A312" s="1" t="inlineStr">
+        <is>
+          <t>b5dcaf52-c03c-4eac-bb87-7397cc615cc7</t>
+        </is>
+      </c>
+      <c r="B312" s="2" t="n">
+        <v>44933</v>
+      </c>
+      <c r="C312" t="inlineStr"/>
+      <c r="D312" s="2" t="n">
+        <v>44718</v>
+      </c>
+      <c r="E312" t="inlineStr"/>
+      <c r="F312" t="inlineStr">
+        <is>
+          <t>VENMO CASHOUT 1020499775399</t>
+        </is>
+      </c>
+      <c r="G312" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="H312" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="I312" t="n">
+        <v>282</v>
+      </c>
+      <c r="J312" s="2" t="n">
+        <v>44933</v>
+      </c>
+      <c r="K312" t="inlineStr">
+        <is>
+          <t>Mechanics</t>
+        </is>
+      </c>
+      <c r="L312" t="n">
+        <v>0</v>
+      </c>
+      <c r="M312" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+    </row>
+    <row r="313">
+      <c r="A313" s="1" t="inlineStr">
+        <is>
+          <t>2e11c9a7-727a-4a29-961b-f884e8785e10</t>
+        </is>
+      </c>
+      <c r="B313" s="2" t="n">
+        <v>44933</v>
+      </c>
+      <c r="C313" t="inlineStr"/>
+      <c r="D313" s="2" t="n">
+        <v>44713</v>
+      </c>
+      <c r="E313" t="inlineStr"/>
+      <c r="F313" t="inlineStr">
+        <is>
+          <t>APPLECARD GSBANK PAYMENT 2211736</t>
+        </is>
+      </c>
+      <c r="G313" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="H313" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="I313" t="n">
+        <v>-424.76</v>
+      </c>
+      <c r="J313" s="2" t="n">
+        <v>44933</v>
+      </c>
+      <c r="K313" t="inlineStr">
+        <is>
+          <t>Mechanics</t>
+        </is>
+      </c>
+      <c r="L313" t="n">
+        <v>0</v>
+      </c>
+      <c r="M313" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+    </row>
+    <row r="314">
+      <c r="A314" s="1" t="inlineStr">
+        <is>
+          <t>424c3cc3-1ff9-4be0-a376-7a87cc141622</t>
+        </is>
+      </c>
+      <c r="B314" s="2" t="n">
+        <v>44933</v>
+      </c>
+      <c r="C314" t="inlineStr"/>
+      <c r="D314" s="2" t="n">
+        <v>44713</v>
+      </c>
+      <c r="E314" t="inlineStr"/>
+      <c r="F314" t="inlineStr">
+        <is>
+          <t>Online Banking Transfer from XXXXXX4411on 6/01/2022 at 9:31</t>
+        </is>
+      </c>
+      <c r="G314" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="H314" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="I314" t="n">
+        <v>800</v>
+      </c>
+      <c r="J314" s="2" t="n">
+        <v>44933</v>
+      </c>
+      <c r="K314" t="inlineStr">
+        <is>
+          <t>Mechanics</t>
+        </is>
+      </c>
+      <c r="L314" t="n">
+        <v>0</v>
+      </c>
+      <c r="M314" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+    </row>
+    <row r="315">
+      <c r="A315" s="1" t="inlineStr">
+        <is>
+          <t>8c681c96-77dd-4f05-84ac-78e7836b0479</t>
+        </is>
+      </c>
+      <c r="B315" s="2" t="n">
+        <v>44933</v>
+      </c>
+      <c r="C315" t="inlineStr"/>
+      <c r="D315" s="2" t="n">
+        <v>44771</v>
+      </c>
+      <c r="E315" t="inlineStr"/>
+      <c r="F315" t="inlineStr">
+        <is>
+          <t>CHASE CREDIT CRD AUTOPAY 000000000461669</t>
+        </is>
+      </c>
+      <c r="G315" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="H315" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="I315" t="n">
+        <v>-3940.95</v>
+      </c>
+      <c r="J315" s="2" t="n">
+        <v>44933</v>
+      </c>
+      <c r="K315" t="inlineStr">
+        <is>
+          <t>Mechanics</t>
+        </is>
+      </c>
+      <c r="L315" t="n">
+        <v>0</v>
+      </c>
+      <c r="M315" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+    </row>
+    <row r="316">
+      <c r="A316" s="1" t="inlineStr">
+        <is>
+          <t>57da04a4-e3fd-4b3b-b7ca-09e21899a271</t>
+        </is>
+      </c>
+      <c r="B316" s="2" t="n">
+        <v>44933</v>
+      </c>
+      <c r="C316" t="inlineStr"/>
+      <c r="D316" s="2" t="n">
+        <v>44764</v>
+      </c>
+      <c r="E316" t="inlineStr"/>
+      <c r="F316" t="inlineStr">
+        <is>
+          <t>TOYOTA MOTOR SAL PAYROLL 568349-TMN</t>
+        </is>
+      </c>
+      <c r="G316" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="H316" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="I316" t="n">
+        <v>3112.5</v>
+      </c>
+      <c r="J316" s="2" t="n">
+        <v>44933</v>
+      </c>
+      <c r="K316" t="inlineStr">
+        <is>
+          <t>Mechanics</t>
+        </is>
+      </c>
+      <c r="L316" t="n">
+        <v>0</v>
+      </c>
+      <c r="M316" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+    </row>
+    <row r="317">
+      <c r="A317" s="1" t="inlineStr">
+        <is>
+          <t>4e2e63fc-7370-4dab-bb43-b19c91d3c1a3</t>
+        </is>
+      </c>
+      <c r="B317" s="2" t="n">
+        <v>44933</v>
+      </c>
+      <c r="C317" t="inlineStr"/>
+      <c r="D317" s="2" t="n">
+        <v>44764</v>
+      </c>
+      <c r="E317" t="inlineStr"/>
+      <c r="F317" t="inlineStr">
+        <is>
+          <t>TOYOTA MOTOR SAL PAYROLL 568349-TMN</t>
+        </is>
+      </c>
+      <c r="G317" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="H317" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="I317" t="n">
+        <v>1511.38</v>
+      </c>
+      <c r="J317" s="2" t="n">
+        <v>44933</v>
+      </c>
+      <c r="K317" t="inlineStr">
+        <is>
+          <t>Mechanics</t>
+        </is>
+      </c>
+      <c r="L317" t="n">
+        <v>0</v>
+      </c>
+      <c r="M317" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+    </row>
+    <row r="318">
+      <c r="A318" s="1" t="inlineStr">
+        <is>
+          <t>0c1aea80-8e79-4876-945e-98cabdf590a4</t>
+        </is>
+      </c>
+      <c r="B318" s="2" t="n">
+        <v>44933</v>
+      </c>
+      <c r="C318" t="inlineStr"/>
+      <c r="D318" s="2" t="n">
+        <v>44764</v>
+      </c>
+      <c r="E318" t="inlineStr"/>
+      <c r="F318" t="inlineStr">
+        <is>
+          <t>TOYOTA MOTOR SAL PAYROLL 568349-TMN</t>
+        </is>
+      </c>
+      <c r="G318" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="H318" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="I318" t="n">
+        <v>105.59</v>
+      </c>
+      <c r="J318" s="2" t="n">
+        <v>44933</v>
+      </c>
+      <c r="K318" t="inlineStr">
+        <is>
+          <t>Mechanics</t>
+        </is>
+      </c>
+      <c r="L318" t="n">
+        <v>0</v>
+      </c>
+      <c r="M318" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+    </row>
+    <row r="319">
+      <c r="A319" s="1" t="inlineStr">
+        <is>
+          <t>915f32bc-d497-4a3b-b5cf-8938a8b0b170</t>
+        </is>
+      </c>
+      <c r="B319" s="2" t="n">
+        <v>44933</v>
+      </c>
+      <c r="C319" t="inlineStr"/>
+      <c r="D319" s="2" t="n">
+        <v>44763</v>
+      </c>
+      <c r="E319" t="inlineStr"/>
+      <c r="F319" t="inlineStr">
+        <is>
+          <t>KBC Management, WEB PMTS Y52756</t>
+        </is>
+      </c>
+      <c r="G319" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="H319" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="I319" t="n">
+        <v>-500</v>
+      </c>
+      <c r="J319" s="2" t="n">
+        <v>44933</v>
+      </c>
+      <c r="K319" t="inlineStr">
+        <is>
+          <t>Mechanics</t>
+        </is>
+      </c>
+      <c r="L319" t="n">
+        <v>0</v>
+      </c>
+      <c r="M319" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+    </row>
+    <row r="320">
+      <c r="A320" s="1" t="inlineStr">
+        <is>
+          <t>0143cc35-be38-4603-ac42-58da5ca42907</t>
+        </is>
+      </c>
+      <c r="B320" s="2" t="n">
+        <v>44933</v>
+      </c>
+      <c r="C320" t="inlineStr"/>
+      <c r="D320" s="2" t="n">
+        <v>44760</v>
+      </c>
+      <c r="E320" t="inlineStr"/>
+      <c r="F320" t="inlineStr">
+        <is>
+          <t>CHASE CREDIT CRD AUTOPAY 000000000266011</t>
+        </is>
+      </c>
+      <c r="G320" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="H320" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="I320" t="n">
+        <v>-1375.66</v>
+      </c>
+      <c r="J320" s="2" t="n">
+        <v>44933</v>
+      </c>
+      <c r="K320" t="inlineStr">
+        <is>
+          <t>Mechanics</t>
+        </is>
+      </c>
+      <c r="L320" t="n">
+        <v>0</v>
+      </c>
+      <c r="M320" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+    </row>
+    <row r="321">
+      <c r="A321" s="1" t="inlineStr">
+        <is>
+          <t>a8aff4b1-8065-41e1-8fc5-a2fd74e6d39b</t>
+        </is>
+      </c>
+      <c r="B321" s="2" t="n">
+        <v>44933</v>
+      </c>
+      <c r="C321" t="inlineStr"/>
+      <c r="D321" s="2" t="n">
+        <v>44755</v>
+      </c>
+      <c r="E321" t="inlineStr"/>
+      <c r="F321" t="inlineStr">
+        <is>
+          <t>Mobile Deposit</t>
+        </is>
+      </c>
+      <c r="G321" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="H321" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="I321" t="n">
+        <v>100</v>
+      </c>
+      <c r="J321" s="2" t="n">
+        <v>44933</v>
+      </c>
+      <c r="K321" t="inlineStr">
+        <is>
+          <t>Mechanics</t>
+        </is>
+      </c>
+      <c r="L321" t="n">
+        <v>0</v>
+      </c>
+      <c r="M321" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+    </row>
+    <row r="322">
+      <c r="A322" s="1" t="inlineStr">
+        <is>
+          <t>56c89c82-eb31-4bbd-b0be-35d890d42904</t>
+        </is>
+      </c>
+      <c r="B322" s="2" t="n">
+        <v>44933</v>
+      </c>
+      <c r="C322" t="inlineStr"/>
+      <c r="D322" s="2" t="n">
+        <v>44749</v>
+      </c>
+      <c r="E322" t="inlineStr"/>
+      <c r="F322" t="inlineStr">
+        <is>
+          <t>VENMO CASHOUT 1021072634797</t>
+        </is>
+      </c>
+      <c r="G322" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="H322" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="I322" t="n">
+        <v>988</v>
+      </c>
+      <c r="J322" s="2" t="n">
+        <v>44933</v>
+      </c>
+      <c r="K322" t="inlineStr">
+        <is>
+          <t>Mechanics</t>
+        </is>
+      </c>
+      <c r="L322" t="n">
+        <v>0</v>
+      </c>
+      <c r="M322" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+    </row>
+    <row r="323">
+      <c r="A323" s="1" t="inlineStr">
+        <is>
+          <t>1448e33e-3034-49de-a5c6-840087e08e1a</t>
+        </is>
+      </c>
+      <c r="B323" s="2" t="n">
+        <v>44933</v>
+      </c>
+      <c r="C323" t="inlineStr"/>
+      <c r="D323" s="2" t="n">
+        <v>44747</v>
+      </c>
+      <c r="E323" t="inlineStr"/>
+      <c r="F323" t="inlineStr">
+        <is>
+          <t>Online Banking Transfer from XXXXXX4411on 7/04/2022 at 13:39</t>
+        </is>
+      </c>
+      <c r="G323" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="H323" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="I323" t="n">
+        <v>450</v>
+      </c>
+      <c r="J323" s="2" t="n">
+        <v>44933</v>
+      </c>
+      <c r="K323" t="inlineStr">
+        <is>
+          <t>Mechanics</t>
+        </is>
+      </c>
+      <c r="L323" t="n">
+        <v>0</v>
+      </c>
+      <c r="M323" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+    </row>
+    <row r="324">
+      <c r="A324" s="1" t="inlineStr">
+        <is>
+          <t>16994e0c-f8d6-41d7-8078-11d72ab8fd36</t>
+        </is>
+      </c>
+      <c r="B324" s="2" t="n">
+        <v>44933</v>
+      </c>
+      <c r="C324" t="inlineStr"/>
+      <c r="D324" s="2" t="n">
+        <v>44743</v>
+      </c>
+      <c r="E324" t="inlineStr"/>
+      <c r="F324" t="inlineStr">
+        <is>
+          <t>APPLECARD GSBANK PAYMENT 2211736</t>
+        </is>
+      </c>
+      <c r="G324" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="H324" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="I324" t="n">
+        <v>-1.1</v>
+      </c>
+      <c r="J324" s="2" t="n">
+        <v>44933</v>
+      </c>
+      <c r="K324" t="inlineStr">
+        <is>
+          <t>Mechanics</t>
+        </is>
+      </c>
+      <c r="L324" t="n">
+        <v>0</v>
+      </c>
+      <c r="M324" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+    </row>
+    <row r="325">
+      <c r="A325" s="1" t="inlineStr">
+        <is>
+          <t>8bb2413b-591b-4485-a6fd-2323e8b3777d</t>
+        </is>
+      </c>
+      <c r="B325" s="2" t="n">
+        <v>44933</v>
+      </c>
+      <c r="C325" t="inlineStr"/>
+      <c r="D325" s="2" t="n">
+        <v>44743</v>
+      </c>
+      <c r="E325" t="inlineStr"/>
+      <c r="F325" t="inlineStr">
+        <is>
+          <t>Online Banking Transfer from XXXXXX4411on 7/01/2022 at 9:31</t>
+        </is>
+      </c>
+      <c r="G325" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="H325" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="I325" t="n">
+        <v>800</v>
+      </c>
+      <c r="J325" s="2" t="n">
+        <v>44933</v>
+      </c>
+      <c r="K325" t="inlineStr">
+        <is>
+          <t>Mechanics</t>
+        </is>
+      </c>
+      <c r="L325" t="n">
+        <v>0</v>
+      </c>
+      <c r="M325" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+    </row>
+    <row r="326">
+      <c r="A326" s="1" t="inlineStr">
+        <is>
+          <t>5fd97d6c-5777-424a-96ff-5c65102fd5d3</t>
+        </is>
+      </c>
+      <c r="B326" s="2" t="n">
+        <v>44933</v>
+      </c>
+      <c r="C326" t="inlineStr"/>
+      <c r="D326" s="2" t="n">
+        <v>44802</v>
+      </c>
+      <c r="E326" t="inlineStr"/>
+      <c r="F326" t="inlineStr">
+        <is>
+          <t>CHASE CREDIT CRD AUTOPAY 000000000472553</t>
+        </is>
+      </c>
+      <c r="G326" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="H326" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="I326" t="n">
+        <v>-2513.9</v>
+      </c>
+      <c r="J326" s="2" t="n">
+        <v>44933</v>
+      </c>
+      <c r="K326" t="inlineStr">
+        <is>
+          <t>Mechanics</t>
+        </is>
+      </c>
+      <c r="L326" t="n">
+        <v>0</v>
+      </c>
+      <c r="M326" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+    </row>
+    <row r="327">
+      <c r="A327" s="1" t="inlineStr">
+        <is>
+          <t>358584cb-2529-400a-a863-f4347a2633d4</t>
+        </is>
+      </c>
+      <c r="B327" s="2" t="n">
+        <v>44933</v>
+      </c>
+      <c r="C327" t="inlineStr"/>
+      <c r="D327" s="2" t="n">
+        <v>44792</v>
+      </c>
+      <c r="E327" t="inlineStr"/>
+      <c r="F327" t="inlineStr">
+        <is>
+          <t>TOYOTA MOTOR SAL PAYROLL 568349-TMN</t>
+        </is>
+      </c>
+      <c r="G327" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="H327" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="I327" t="n">
+        <v>1620.85</v>
+      </c>
+      <c r="J327" s="2" t="n">
+        <v>44933</v>
+      </c>
+      <c r="K327" t="inlineStr">
+        <is>
+          <t>Mechanics</t>
+        </is>
+      </c>
+      <c r="L327" t="n">
+        <v>0</v>
+      </c>
+      <c r="M327" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+    </row>
+    <row r="328">
+      <c r="A328" s="1" t="inlineStr">
+        <is>
+          <t>ef22ef26-e8f6-471e-b8b3-d01ed9e818b3</t>
+        </is>
+      </c>
+      <c r="B328" s="2" t="n">
+        <v>44933</v>
+      </c>
+      <c r="C328" t="inlineStr"/>
+      <c r="D328" s="2" t="n">
+        <v>44791</v>
+      </c>
+      <c r="E328" t="inlineStr"/>
+      <c r="F328" t="inlineStr">
+        <is>
+          <t>CHASE CREDIT CRD AUTOPAY 000000000268355</t>
+        </is>
+      </c>
+      <c r="G328" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="H328" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="I328" t="n">
+        <v>-1879.77</v>
+      </c>
+      <c r="J328" s="2" t="n">
+        <v>44933</v>
+      </c>
+      <c r="K328" t="inlineStr">
+        <is>
+          <t>Mechanics</t>
+        </is>
+      </c>
+      <c r="L328" t="n">
+        <v>0</v>
+      </c>
+      <c r="M328" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+    </row>
+    <row r="329">
+      <c r="A329" s="1" t="inlineStr">
+        <is>
+          <t>99f1c0ba-a704-44c3-9127-40a511595d57</t>
+        </is>
+      </c>
+      <c r="B329" s="2" t="n">
+        <v>44933</v>
+      </c>
+      <c r="C329" t="inlineStr"/>
+      <c r="D329" s="2" t="n">
+        <v>44782</v>
+      </c>
+      <c r="E329" t="inlineStr"/>
+      <c r="F329" t="inlineStr">
+        <is>
+          <t>Online Banking Transfer from XXXXXX4411on 8/09/2022 at 10:19</t>
+        </is>
+      </c>
+      <c r="G329" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="H329" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="I329" t="n">
+        <v>800</v>
+      </c>
+      <c r="J329" s="2" t="n">
+        <v>44933</v>
+      </c>
+      <c r="K329" t="inlineStr">
+        <is>
+          <t>Mechanics</t>
+        </is>
+      </c>
+      <c r="L329" t="n">
+        <v>0</v>
+      </c>
+      <c r="M329" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+    </row>
+    <row r="330">
+      <c r="A330" s="1" t="inlineStr">
+        <is>
+          <t>81267b36-efc5-4429-9150-38e270f039ee</t>
+        </is>
+      </c>
+      <c r="B330" s="2" t="n">
+        <v>44933</v>
+      </c>
+      <c r="C330" t="inlineStr"/>
+      <c r="D330" s="2" t="n">
+        <v>44778</v>
+      </c>
+      <c r="E330" t="inlineStr"/>
+      <c r="F330" t="inlineStr">
+        <is>
+          <t>TOYOTA MOTOR SAL PAYROLL 568349-TMN</t>
+        </is>
+      </c>
+      <c r="G330" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="H330" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="I330" t="n">
+        <v>1620.87</v>
+      </c>
+      <c r="J330" s="2" t="n">
+        <v>44933</v>
+      </c>
+      <c r="K330" t="inlineStr">
+        <is>
+          <t>Mechanics</t>
+        </is>
+      </c>
+      <c r="L330" t="n">
+        <v>0</v>
+      </c>
+      <c r="M330" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+    </row>
+    <row r="331">
+      <c r="A331" s="1" t="inlineStr">
+        <is>
+          <t>043c1e9f-6f03-4804-af6a-3df40c531ae8</t>
+        </is>
+      </c>
+      <c r="B331" s="2" t="n">
+        <v>44933</v>
+      </c>
+      <c r="C331" t="inlineStr"/>
+      <c r="D331" s="2" t="n">
+        <v>44775</v>
+      </c>
+      <c r="E331" t="inlineStr"/>
+      <c r="F331" t="inlineStr">
+        <is>
+          <t>KBC Management, WEB PMTS 1XPY66</t>
+        </is>
+      </c>
+      <c r="G331" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="H331" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="I331" t="n">
+        <v>-1630</v>
+      </c>
+      <c r="J331" s="2" t="n">
+        <v>44933</v>
+      </c>
+      <c r="K331" t="inlineStr">
+        <is>
+          <t>Mechanics</t>
+        </is>
+      </c>
+      <c r="L331" t="n">
+        <v>0</v>
+      </c>
+      <c r="M331" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+    </row>
+    <row r="332">
+      <c r="A332" s="1" t="inlineStr">
+        <is>
+          <t>92c4c3fd-5a35-4b83-b93e-1104527c30fd</t>
+        </is>
+      </c>
+      <c r="B332" s="2" t="n">
+        <v>44933</v>
+      </c>
+      <c r="C332" t="inlineStr"/>
+      <c r="D332" s="2" t="n">
+        <v>44775</v>
+      </c>
+      <c r="E332" t="inlineStr"/>
+      <c r="F332" t="inlineStr">
+        <is>
+          <t>VENMO CASHOUT 1021533206597</t>
+        </is>
+      </c>
+      <c r="G332" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="H332" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="I332" t="n">
+        <v>369.34</v>
+      </c>
+      <c r="J332" s="2" t="n">
+        <v>44933</v>
+      </c>
+      <c r="K332" t="inlineStr">
+        <is>
+          <t>Mechanics</t>
+        </is>
+      </c>
+      <c r="L332" t="n">
+        <v>0</v>
+      </c>
+      <c r="M332" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+    </row>
+    <row r="333">
+      <c r="A333" s="1" t="inlineStr">
+        <is>
+          <t>34c7a7c7-35a2-435c-b4e6-71dc3b674d06</t>
+        </is>
+      </c>
+      <c r="B333" s="2" t="n">
+        <v>44933</v>
+      </c>
+      <c r="C333" t="inlineStr"/>
+      <c r="D333" s="2" t="n">
+        <v>44774</v>
+      </c>
+      <c r="E333" t="inlineStr"/>
+      <c r="F333" t="inlineStr">
+        <is>
+          <t>APPLECARD GSBANK PAYMENT 2211736</t>
+        </is>
+      </c>
+      <c r="G333" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="H333" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="I333" t="n">
+        <v>-47.55</v>
+      </c>
+      <c r="J333" s="2" t="n">
+        <v>44933</v>
+      </c>
+      <c r="K333" t="inlineStr">
+        <is>
+          <t>Mechanics</t>
+        </is>
+      </c>
+      <c r="L333" t="n">
+        <v>0</v>
+      </c>
+      <c r="M333" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+    </row>
+    <row r="334">
+      <c r="A334" s="1" t="inlineStr">
+        <is>
+          <t>20881193-83eb-4744-87d5-e73b9888c7c1</t>
+        </is>
+      </c>
+      <c r="B334" s="2" t="n">
+        <v>44933</v>
+      </c>
+      <c r="C334" t="inlineStr"/>
+      <c r="D334" s="2" t="n">
+        <v>44834</v>
+      </c>
+      <c r="E334" t="inlineStr"/>
+      <c r="F334" t="inlineStr">
+        <is>
+          <t>TOYOTA MOTOR SAL PAYROLL 568349-TMN</t>
+        </is>
+      </c>
+      <c r="G334" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="H334" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="I334" t="n">
+        <v>1620.95</v>
+      </c>
+      <c r="J334" s="2" t="n">
+        <v>44933</v>
+      </c>
+      <c r="K334" t="inlineStr">
+        <is>
+          <t>Mechanics</t>
+        </is>
+      </c>
+      <c r="L334" t="n">
+        <v>0</v>
+      </c>
+      <c r="M334" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+    </row>
+    <row r="335">
+      <c r="A335" s="1" t="inlineStr">
+        <is>
+          <t>95af8bf1-f7af-4f67-95c8-32ec201b3e13</t>
+        </is>
+      </c>
+      <c r="B335" s="2" t="n">
+        <v>44933</v>
+      </c>
+      <c r="C335" t="inlineStr"/>
+      <c r="D335" s="2" t="n">
+        <v>44833</v>
+      </c>
+      <c r="E335" t="inlineStr"/>
+      <c r="F335" t="inlineStr">
+        <is>
+          <t>CHASE CREDIT CRD AUTOPAY 000000000474653</t>
+        </is>
+      </c>
+      <c r="G335" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="H335" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="I335" t="n">
+        <v>-1388.74</v>
+      </c>
+      <c r="J335" s="2" t="n">
+        <v>44933</v>
+      </c>
+      <c r="K335" t="inlineStr">
+        <is>
+          <t>Mechanics</t>
+        </is>
+      </c>
+      <c r="L335" t="n">
+        <v>0</v>
+      </c>
+      <c r="M335" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+    </row>
+    <row r="336">
+      <c r="A336" s="1" t="inlineStr">
+        <is>
+          <t>84738565-20e6-4c3c-a51e-b7b76c76dcfb</t>
+        </is>
+      </c>
+      <c r="B336" s="2" t="n">
+        <v>44933</v>
+      </c>
+      <c r="C336" t="inlineStr"/>
+      <c r="D336" s="2" t="n">
+        <v>44830</v>
+      </c>
+      <c r="E336" t="inlineStr"/>
+      <c r="F336" t="inlineStr">
+        <is>
+          <t>VENMO PAYMENT 1022515933364</t>
+        </is>
+      </c>
+      <c r="G336" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="H336" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="I336" t="n">
+        <v>-21</v>
+      </c>
+      <c r="J336" s="2" t="n">
+        <v>44933</v>
+      </c>
+      <c r="K336" t="inlineStr">
+        <is>
+          <t>Mechanics</t>
+        </is>
+      </c>
+      <c r="L336" t="n">
+        <v>0</v>
+      </c>
+      <c r="M336" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+    </row>
+    <row r="337">
+      <c r="A337" s="1" t="inlineStr">
+        <is>
+          <t>517e1dd8-7767-4571-832d-fe9a06976739</t>
+        </is>
+      </c>
+      <c r="B337" s="2" t="n">
+        <v>44933</v>
+      </c>
+      <c r="C337" t="inlineStr"/>
+      <c r="D337" s="2" t="n">
+        <v>44823</v>
+      </c>
+      <c r="E337" t="inlineStr"/>
+      <c r="F337" t="inlineStr">
+        <is>
+          <t>CHASE CREDIT CRD AUTOPAY 000000000555390</t>
+        </is>
+      </c>
+      <c r="G337" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="H337" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="I337" t="n">
+        <v>-2189.57</v>
+      </c>
+      <c r="J337" s="2" t="n">
+        <v>44933</v>
+      </c>
+      <c r="K337" t="inlineStr">
+        <is>
+          <t>Mechanics</t>
+        </is>
+      </c>
+      <c r="L337" t="n">
+        <v>0</v>
+      </c>
+      <c r="M337" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+    </row>
+    <row r="338">
+      <c r="A338" s="1" t="inlineStr">
+        <is>
+          <t>391a640d-ea45-4ea0-b0ce-2118dacad924</t>
+        </is>
+      </c>
+      <c r="B338" s="2" t="n">
+        <v>44933</v>
+      </c>
+      <c r="C338" t="inlineStr"/>
+      <c r="D338" s="2" t="n">
+        <v>44820</v>
+      </c>
+      <c r="E338" t="inlineStr"/>
+      <c r="F338" t="inlineStr">
+        <is>
+          <t>TOYOTA MOTOR SAL PAYROLL 568349-TMN</t>
+        </is>
+      </c>
+      <c r="G338" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="H338" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="I338" t="n">
+        <v>1621.05</v>
+      </c>
+      <c r="J338" s="2" t="n">
+        <v>44933</v>
+      </c>
+      <c r="K338" t="inlineStr">
+        <is>
+          <t>Mechanics</t>
+        </is>
+      </c>
+      <c r="L338" t="n">
+        <v>0</v>
+      </c>
+      <c r="M338" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+    </row>
+    <row r="339">
+      <c r="A339" s="1" t="inlineStr">
+        <is>
+          <t>e9184b4d-9a8e-4faa-928a-20ded99c2da2</t>
+        </is>
+      </c>
+      <c r="B339" s="2" t="n">
+        <v>44933</v>
+      </c>
+      <c r="C339" t="inlineStr"/>
+      <c r="D339" s="2" t="n">
+        <v>44806</v>
+      </c>
+      <c r="E339" t="inlineStr"/>
+      <c r="F339" t="inlineStr">
+        <is>
+          <t>KBC Management, WEB PMTS 4KT1C6</t>
+        </is>
+      </c>
+      <c r="G339" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="H339" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="I339" t="n">
+        <v>-1556.65</v>
+      </c>
+      <c r="J339" s="2" t="n">
+        <v>44933</v>
+      </c>
+      <c r="K339" t="inlineStr">
+        <is>
+          <t>Mechanics</t>
+        </is>
+      </c>
+      <c r="L339" t="n">
+        <v>0</v>
+      </c>
+      <c r="M339" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+    </row>
+    <row r="340">
+      <c r="A340" s="1" t="inlineStr">
+        <is>
+          <t>1db0c715-67e9-4d72-b6a4-3c390a871f3a</t>
+        </is>
+      </c>
+      <c r="B340" s="2" t="n">
+        <v>44933</v>
+      </c>
+      <c r="C340" t="inlineStr"/>
+      <c r="D340" s="2" t="n">
+        <v>44806</v>
+      </c>
+      <c r="E340" t="inlineStr"/>
+      <c r="F340" t="inlineStr">
+        <is>
+          <t>TOYOTA MOTOR SAL PAYROLL 568349-TMN</t>
+        </is>
+      </c>
+      <c r="G340" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="H340" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="I340" t="n">
+        <v>1620.9</v>
+      </c>
+      <c r="J340" s="2" t="n">
+        <v>44933</v>
+      </c>
+      <c r="K340" t="inlineStr">
+        <is>
+          <t>Mechanics</t>
+        </is>
+      </c>
+      <c r="L340" t="n">
+        <v>0</v>
+      </c>
+      <c r="M340" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+    </row>
+    <row r="341">
+      <c r="A341" s="1" t="inlineStr">
+        <is>
+          <t>e0ee027f-d5c9-4388-b7a0-9f83fdcbbba4</t>
+        </is>
+      </c>
+      <c r="B341" s="2" t="n">
+        <v>44933</v>
+      </c>
+      <c r="C341" t="inlineStr"/>
+      <c r="D341" s="2" t="n">
+        <v>44805</v>
+      </c>
+      <c r="E341" t="inlineStr"/>
+      <c r="F341" t="inlineStr">
+        <is>
+          <t>APPLECARD GSBANK PAYMENT 2211736</t>
+        </is>
+      </c>
+      <c r="G341" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="H341" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="I341" t="n">
+        <v>-32.14</v>
+      </c>
+      <c r="J341" s="2" t="n">
+        <v>44933</v>
+      </c>
+      <c r="K341" t="inlineStr">
+        <is>
+          <t>Mechanics</t>
+        </is>
+      </c>
+      <c r="L341" t="n">
+        <v>0</v>
+      </c>
+      <c r="M341" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+    </row>
+    <row r="342">
+      <c r="A342" s="1" t="inlineStr">
+        <is>
+          <t>68eab87e-fd47-4604-b53c-5fbda38f0917</t>
+        </is>
+      </c>
+      <c r="B342" s="2" t="n">
+        <v>44933</v>
+      </c>
+      <c r="C342" t="inlineStr"/>
+      <c r="D342" s="2" t="n">
+        <v>44865</v>
+      </c>
+      <c r="E342" t="inlineStr"/>
+      <c r="F342" t="inlineStr">
+        <is>
+          <t>CHASE CREDIT CRD AUTOPAY 000000000481963</t>
+        </is>
+      </c>
+      <c r="G342" t="inlineStr"/>
+      <c r="H342" t="inlineStr"/>
+      <c r="I342" t="n">
+        <v>-1413.56</v>
+      </c>
+      <c r="J342" s="2" t="n">
+        <v>44933</v>
+      </c>
+      <c r="K342" t="inlineStr">
+        <is>
+          <t>Mechanics</t>
+        </is>
+      </c>
+      <c r="L342" t="n">
+        <v>0</v>
+      </c>
+      <c r="M342" t="inlineStr"/>
+    </row>
+    <row r="343">
+      <c r="A343" s="1" t="inlineStr">
+        <is>
+          <t>db74f523-5486-4cf1-b503-99f8067e0524</t>
+        </is>
+      </c>
+      <c r="B343" s="2" t="n">
+        <v>44933</v>
+      </c>
+      <c r="C343" t="inlineStr"/>
+      <c r="D343" s="2" t="n">
+        <v>44862</v>
+      </c>
+      <c r="E343" t="inlineStr"/>
+      <c r="F343" t="inlineStr">
+        <is>
+          <t>TOYOTA MOTOR SAL PAYROLL 568349-TMN</t>
+        </is>
+      </c>
+      <c r="G343" t="inlineStr"/>
+      <c r="H343" t="inlineStr"/>
+      <c r="I343" t="n">
+        <v>1642.9</v>
+      </c>
+      <c r="J343" s="2" t="n">
+        <v>44933</v>
+      </c>
+      <c r="K343" t="inlineStr">
+        <is>
+          <t>Mechanics</t>
+        </is>
+      </c>
+      <c r="L343" t="n">
+        <v>0</v>
+      </c>
+      <c r="M343" t="inlineStr"/>
+    </row>
+    <row r="344">
+      <c r="A344" s="1" t="inlineStr">
+        <is>
+          <t>44c31f69-b048-4e76-b0ec-424dd99fb8fd</t>
+        </is>
+      </c>
+      <c r="B344" s="2" t="n">
+        <v>44933</v>
+      </c>
+      <c r="C344" t="inlineStr"/>
+      <c r="D344" s="2" t="n">
+        <v>44860</v>
+      </c>
+      <c r="E344" t="inlineStr"/>
+      <c r="F344" t="inlineStr">
+        <is>
+          <t>WELLS FARGO IFI DDA TO DDA F20GQJDBW4</t>
+        </is>
+      </c>
+      <c r="G344" t="inlineStr"/>
+      <c r="H344" t="inlineStr"/>
+      <c r="I344" t="n">
+        <v>-20</v>
+      </c>
+      <c r="J344" s="2" t="n">
+        <v>44933</v>
+      </c>
+      <c r="K344" t="inlineStr">
+        <is>
+          <t>Mechanics</t>
+        </is>
+      </c>
+      <c r="L344" t="n">
+        <v>0</v>
+      </c>
+      <c r="M344" t="inlineStr"/>
+    </row>
+    <row r="345">
+      <c r="A345" s="1" t="inlineStr">
+        <is>
+          <t>977bfa23-026f-40af-b817-ffd396be8bba</t>
+        </is>
+      </c>
+      <c r="B345" s="2" t="n">
+        <v>44933</v>
+      </c>
+      <c r="C345" t="inlineStr"/>
+      <c r="D345" s="2" t="n">
+        <v>44853</v>
+      </c>
+      <c r="E345" t="inlineStr"/>
+      <c r="F345" t="inlineStr">
+        <is>
+          <t>Check</t>
+        </is>
+      </c>
+      <c r="G345" t="inlineStr"/>
+      <c r="H345" t="inlineStr"/>
+      <c r="I345" t="n">
+        <v>-168</v>
+      </c>
+      <c r="J345" s="2" t="n">
+        <v>44933</v>
+      </c>
+      <c r="K345" t="inlineStr">
+        <is>
+          <t>Mechanics</t>
+        </is>
+      </c>
+      <c r="L345" t="n">
+        <v>0</v>
+      </c>
+      <c r="M345" t="inlineStr"/>
+    </row>
+    <row r="346">
+      <c r="A346" s="1" t="inlineStr">
+        <is>
+          <t>dd29fe30-a6da-42b1-988e-4b0543cae6ac</t>
+        </is>
+      </c>
+      <c r="B346" s="2" t="n">
+        <v>44933</v>
+      </c>
+      <c r="C346" t="inlineStr"/>
+      <c r="D346" s="2" t="n">
+        <v>44853</v>
+      </c>
+      <c r="E346" t="inlineStr"/>
+      <c r="F346" t="inlineStr">
+        <is>
+          <t>US TREASURY IRS PAYMENT 0350</t>
+        </is>
+      </c>
+      <c r="G346" t="inlineStr"/>
+      <c r="H346" t="inlineStr"/>
+      <c r="I346" t="n">
+        <v>-88.39</v>
+      </c>
+      <c r="J346" s="2" t="n">
+        <v>44933</v>
+      </c>
+      <c r="K346" t="inlineStr">
+        <is>
+          <t>Mechanics</t>
+        </is>
+      </c>
+      <c r="L346" t="n">
+        <v>0</v>
+      </c>
+      <c r="M346" t="inlineStr"/>
+    </row>
+    <row r="347">
+      <c r="A347" s="1" t="inlineStr">
+        <is>
+          <t>f1c23359-b400-4e77-88d3-c49fc685dfe8</t>
+        </is>
+      </c>
+      <c r="B347" s="2" t="n">
+        <v>44933</v>
+      </c>
+      <c r="C347" t="inlineStr"/>
+      <c r="D347" s="2" t="n">
+        <v>44852</v>
+      </c>
+      <c r="E347" t="inlineStr"/>
+      <c r="F347" t="inlineStr">
+        <is>
+          <t>CHASE CREDIT CRD AUTOPAY 000000000279071</t>
+        </is>
+      </c>
+      <c r="G347" t="inlineStr"/>
+      <c r="H347" t="inlineStr"/>
+      <c r="I347" t="n">
+        <v>-973.08</v>
+      </c>
+      <c r="J347" s="2" t="n">
+        <v>44933</v>
+      </c>
+      <c r="K347" t="inlineStr">
+        <is>
+          <t>Mechanics</t>
+        </is>
+      </c>
+      <c r="L347" t="n">
+        <v>0</v>
+      </c>
+      <c r="M347" t="inlineStr"/>
+    </row>
+    <row r="348">
+      <c r="A348" s="1" t="inlineStr">
+        <is>
+          <t>7e67030f-e49f-4856-8b95-78655e36e010</t>
+        </is>
+      </c>
+      <c r="B348" s="2" t="n">
+        <v>44933</v>
+      </c>
+      <c r="C348" t="inlineStr"/>
+      <c r="D348" s="2" t="n">
+        <v>44852</v>
+      </c>
+      <c r="E348" t="inlineStr"/>
+      <c r="F348" t="inlineStr">
+        <is>
+          <t>Barclays Bank De P2P Vega,William</t>
+        </is>
+      </c>
+      <c r="G348" t="inlineStr"/>
+      <c r="H348" t="inlineStr"/>
+      <c r="I348" t="n">
+        <v>372.14</v>
+      </c>
+      <c r="J348" s="2" t="n">
+        <v>44933</v>
+      </c>
+      <c r="K348" t="inlineStr">
+        <is>
+          <t>Mechanics</t>
+        </is>
+      </c>
+      <c r="L348" t="n">
+        <v>0</v>
+      </c>
+      <c r="M348" t="inlineStr"/>
+    </row>
+    <row r="349">
+      <c r="A349" s="1" t="inlineStr">
+        <is>
+          <t>a221f806-90ac-4237-8480-b121c5947a1d</t>
+        </is>
+      </c>
+      <c r="B349" s="2" t="n">
+        <v>44933</v>
+      </c>
+      <c r="C349" t="inlineStr"/>
+      <c r="D349" s="2" t="n">
+        <v>44851</v>
+      </c>
+      <c r="E349" t="inlineStr"/>
+      <c r="F349" t="inlineStr">
+        <is>
+          <t>VENMO PAYMENT 1022930212980</t>
+        </is>
+      </c>
+      <c r="G349" t="inlineStr"/>
+      <c r="H349" t="inlineStr"/>
+      <c r="I349" t="n">
+        <v>-79.5</v>
+      </c>
+      <c r="J349" s="2" t="n">
+        <v>44933</v>
+      </c>
+      <c r="K349" t="inlineStr">
+        <is>
+          <t>Mechanics</t>
+        </is>
+      </c>
+      <c r="L349" t="n">
+        <v>0</v>
+      </c>
+      <c r="M349" t="inlineStr"/>
+    </row>
+    <row r="350">
+      <c r="A350" s="1" t="inlineStr">
+        <is>
+          <t>093d91a4-7423-49ef-8be2-5f93a5de51c1</t>
+        </is>
+      </c>
+      <c r="B350" s="2" t="n">
+        <v>44933</v>
+      </c>
+      <c r="C350" t="inlineStr"/>
+      <c r="D350" s="2" t="n">
+        <v>44851</v>
+      </c>
+      <c r="E350" t="inlineStr"/>
+      <c r="F350" t="inlineStr">
+        <is>
+          <t>VENMO PAYMENT 1022930215113</t>
+        </is>
+      </c>
+      <c r="G350" t="inlineStr"/>
+      <c r="H350" t="inlineStr"/>
+      <c r="I350" t="n">
+        <v>-57</v>
+      </c>
+      <c r="J350" s="2" t="n">
+        <v>44933</v>
+      </c>
+      <c r="K350" t="inlineStr">
+        <is>
+          <t>Mechanics</t>
+        </is>
+      </c>
+      <c r="L350" t="n">
+        <v>0</v>
+      </c>
+      <c r="M350" t="inlineStr"/>
+    </row>
+    <row r="351">
+      <c r="A351" s="1" t="inlineStr">
+        <is>
+          <t>ac96abdb-a33d-4b2e-aa97-9ba3d95711fd</t>
+        </is>
+      </c>
+      <c r="B351" s="2" t="n">
+        <v>44933</v>
+      </c>
+      <c r="C351" t="inlineStr"/>
+      <c r="D351" s="2" t="n">
+        <v>44848</v>
+      </c>
+      <c r="E351" t="inlineStr"/>
+      <c r="F351" t="inlineStr">
+        <is>
+          <t>TOYOTA MOTOR SAL PAYROLL 568349-TMN</t>
+        </is>
+      </c>
+      <c r="G351" t="inlineStr"/>
+      <c r="H351" t="inlineStr"/>
+      <c r="I351" t="n">
+        <v>1743.83</v>
+      </c>
+      <c r="J351" s="2" t="n">
+        <v>44933</v>
+      </c>
+      <c r="K351" t="inlineStr">
+        <is>
+          <t>Mechanics</t>
+        </is>
+      </c>
+      <c r="L351" t="n">
+        <v>0</v>
+      </c>
+      <c r="M351" t="inlineStr"/>
+    </row>
+    <row r="352">
+      <c r="A352" s="1" t="inlineStr">
+        <is>
+          <t>f4d8d423-45d3-4fb5-8436-24d63612f9f3</t>
+        </is>
+      </c>
+      <c r="B352" s="2" t="n">
+        <v>44933</v>
+      </c>
+      <c r="C352" t="inlineStr"/>
+      <c r="D352" s="2" t="n">
+        <v>44845</v>
+      </c>
+      <c r="E352" t="inlineStr"/>
+      <c r="F352" t="inlineStr">
+        <is>
+          <t>WELLS FARGO IFI DDA TO DDA F20GKWFW5B</t>
+        </is>
+      </c>
+      <c r="G352" t="inlineStr"/>
+      <c r="H352" t="inlineStr"/>
+      <c r="I352" t="n">
+        <v>756.71</v>
+      </c>
+      <c r="J352" s="2" t="n">
+        <v>44933</v>
+      </c>
+      <c r="K352" t="inlineStr">
+        <is>
+          <t>Mechanics</t>
+        </is>
+      </c>
+      <c r="L352" t="n">
+        <v>0</v>
+      </c>
+      <c r="M352" t="inlineStr"/>
+    </row>
+    <row r="353">
+      <c r="A353" s="1" t="inlineStr">
+        <is>
+          <t>ff6de5b7-25f7-4a92-a67a-274abef93e10</t>
+        </is>
+      </c>
+      <c r="B353" s="2" t="n">
+        <v>44933</v>
+      </c>
+      <c r="C353" t="inlineStr"/>
+      <c r="D353" s="2" t="n">
+        <v>44837</v>
+      </c>
+      <c r="E353" t="inlineStr"/>
+      <c r="F353" t="inlineStr">
+        <is>
+          <t>KBC Management, WEB PMTS 7ZTSH6</t>
+        </is>
+      </c>
+      <c r="G353" t="inlineStr"/>
+      <c r="H353" t="inlineStr"/>
+      <c r="I353" t="n">
+        <v>-1630</v>
+      </c>
+      <c r="J353" s="2" t="n">
+        <v>44933</v>
+      </c>
+      <c r="K353" t="inlineStr">
+        <is>
+          <t>Mechanics</t>
+        </is>
+      </c>
+      <c r="L353" t="n">
+        <v>0</v>
+      </c>
+      <c r="M353" t="inlineStr"/>
+    </row>
+    <row r="354">
+      <c r="A354" s="1" t="inlineStr">
+        <is>
+          <t>9ada3b35-f584-4e04-8a49-6627392e9731</t>
+        </is>
+      </c>
+      <c r="B354" s="2" t="n">
+        <v>44933</v>
+      </c>
+      <c r="C354" t="inlineStr"/>
+      <c r="D354" s="2" t="n">
+        <v>44837</v>
+      </c>
+      <c r="E354" t="inlineStr"/>
+      <c r="F354" t="inlineStr">
+        <is>
+          <t>APPLECARD GSBANK PAYMENT 2211736</t>
+        </is>
+      </c>
+      <c r="G354" t="inlineStr"/>
+      <c r="H354" t="inlineStr"/>
+      <c r="I354" t="n">
+        <v>-1.1</v>
+      </c>
+      <c r="J354" s="2" t="n">
+        <v>44933</v>
+      </c>
+      <c r="K354" t="inlineStr">
+        <is>
+          <t>Mechanics</t>
+        </is>
+      </c>
+      <c r="L354" t="n">
+        <v>0</v>
+      </c>
+      <c r="M354" t="inlineStr"/>
+    </row>
+    <row r="355">
+      <c r="A355" s="1" t="inlineStr">
+        <is>
+          <t>8ac38579-2d1a-4416-941c-111c37fc94d6</t>
+        </is>
+      </c>
+      <c r="B355" s="2" t="n">
+        <v>44933</v>
+      </c>
+      <c r="C355" t="inlineStr"/>
+      <c r="D355" s="2" t="n">
+        <v>44837</v>
+      </c>
+      <c r="E355" t="inlineStr"/>
+      <c r="F355" t="inlineStr">
+        <is>
+          <t>Online Banking Transfer from XXXXXX4411on 10/02/2022 at 18:52</t>
+        </is>
+      </c>
+      <c r="G355" t="inlineStr"/>
+      <c r="H355" t="inlineStr"/>
+      <c r="I355" t="n">
+        <v>440</v>
+      </c>
+      <c r="J355" s="2" t="n">
+        <v>44933</v>
+      </c>
+      <c r="K355" t="inlineStr">
+        <is>
+          <t>Mechanics</t>
+        </is>
+      </c>
+      <c r="L355" t="n">
+        <v>0</v>
+      </c>
+      <c r="M355" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/datasets/transactions.xlsx
+++ b/datasets/transactions.xlsx
@@ -430,7 +430,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M345"/>
+  <dimension ref="A1:M367"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -524,8 +524,16 @@
           <t>Online Banking Transfer from XXXXXX4411on 1/01/2022 at 10:55</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr"/>
-      <c r="H2" t="inlineStr"/>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
       <c r="I2" t="n">
         <v>725</v>
       </c>
@@ -540,7 +548,11 @@
       <c r="L2" t="n">
         <v>0</v>
       </c>
-      <c r="M2" t="inlineStr"/>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -561,8 +573,16 @@
           <t>BARCLAYS BANK DE COLLECTION 000130003236288</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr"/>
-      <c r="H3" t="inlineStr"/>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
       <c r="I3" t="n">
         <v>-500</v>
       </c>
@@ -577,7 +597,11 @@
       <c r="L3" t="n">
         <v>0</v>
       </c>
-      <c r="M3" t="inlineStr"/>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -598,8 +622,16 @@
           <t>Online Banking Transfer from XXXXXX4411on 1/05/2022 at 9:08</t>
         </is>
       </c>
-      <c r="G4" t="inlineStr"/>
-      <c r="H4" t="inlineStr"/>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
       <c r="I4" t="n">
         <v>500</v>
       </c>
@@ -614,7 +646,11 @@
       <c r="L4" t="n">
         <v>0</v>
       </c>
-      <c r="M4" t="inlineStr"/>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -635,8 +671,16 @@
           <t>Online Banking Transfer from XXXXXX4411on 1/10/2022 at 14:43</t>
         </is>
       </c>
-      <c r="G5" t="inlineStr"/>
-      <c r="H5" t="inlineStr"/>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
       <c r="I5" t="n">
         <v>5000</v>
       </c>
@@ -651,7 +695,11 @@
       <c r="L5" t="n">
         <v>0</v>
       </c>
-      <c r="M5" t="inlineStr"/>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -672,8 +720,16 @@
           <t>Online Banking Transfer from XXXXXX4411on 1/10/2022 at 14:46</t>
         </is>
       </c>
-      <c r="G6" t="inlineStr"/>
-      <c r="H6" t="inlineStr"/>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
       <c r="I6" t="n">
         <v>100</v>
       </c>
@@ -688,7 +744,11 @@
       <c r="L6" t="n">
         <v>0</v>
       </c>
-      <c r="M6" t="inlineStr"/>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -709,8 +769,16 @@
           <t>Online Banking Transfer from XXXXXX4411on 1/10/2022 at 20:25</t>
         </is>
       </c>
-      <c r="G7" t="inlineStr"/>
-      <c r="H7" t="inlineStr"/>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
       <c r="I7" t="n">
         <v>300</v>
       </c>
@@ -725,7 +793,11 @@
       <c r="L7" t="n">
         <v>0</v>
       </c>
-      <c r="M7" t="inlineStr"/>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -746,8 +818,16 @@
           <t>Barclays Bank De P2P Vega,William</t>
         </is>
       </c>
-      <c r="G8" t="inlineStr"/>
-      <c r="H8" t="inlineStr"/>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
       <c r="I8" t="n">
         <v>2000</v>
       </c>
@@ -762,7 +842,11 @@
       <c r="L8" t="n">
         <v>0</v>
       </c>
-      <c r="M8" t="inlineStr"/>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
@@ -783,8 +867,16 @@
           <t>TD AMERITRADE ACH IN aH9YCQLESP</t>
         </is>
       </c>
-      <c r="G9" t="inlineStr"/>
-      <c r="H9" t="inlineStr"/>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
       <c r="I9" t="n">
         <v>-5000</v>
       </c>
@@ -799,7 +891,11 @@
       <c r="L9" t="n">
         <v>0</v>
       </c>
-      <c r="M9" t="inlineStr"/>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -820,8 +916,16 @@
           <t>Online Banking Transfer from XXXXXX4411on 1/13/2022 at 9:00</t>
         </is>
       </c>
-      <c r="G10" t="inlineStr"/>
-      <c r="H10" t="inlineStr"/>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
       <c r="I10" t="n">
         <v>50</v>
       </c>
@@ -836,7 +940,11 @@
       <c r="L10" t="n">
         <v>0</v>
       </c>
-      <c r="M10" t="inlineStr"/>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
@@ -857,8 +965,16 @@
           <t>CHASE CREDIT CRD AUTOPAY 000000000244776</t>
         </is>
       </c>
-      <c r="G11" t="inlineStr"/>
-      <c r="H11" t="inlineStr"/>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
       <c r="I11" t="n">
         <v>-1261.33</v>
       </c>
@@ -873,7 +989,11 @@
       <c r="L11" t="n">
         <v>0</v>
       </c>
-      <c r="M11" t="inlineStr"/>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
@@ -894,8 +1014,16 @@
           <t>WELLS FARGO IFI DDA TO DDA F20DDH2BCL</t>
         </is>
       </c>
-      <c r="G12" t="inlineStr"/>
-      <c r="H12" t="inlineStr"/>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
       <c r="I12" t="n">
         <v>-3500</v>
       </c>
@@ -910,7 +1038,11 @@
       <c r="L12" t="n">
         <v>0</v>
       </c>
-      <c r="M12" t="inlineStr"/>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
@@ -931,8 +1063,16 @@
           <t>UNIVERSITY OF PO ACH ITEMS XXXXX1261</t>
         </is>
       </c>
-      <c r="G13" t="inlineStr"/>
-      <c r="H13" t="inlineStr"/>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
       <c r="I13" t="n">
         <v>2173</v>
       </c>
@@ -947,7 +1087,11 @@
       <c r="L13" t="n">
         <v>0</v>
       </c>
-      <c r="M13" t="inlineStr"/>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
@@ -968,8 +1112,16 @@
           <t>CHASE CREDIT CRD AUTOPAY 000000000429687</t>
         </is>
       </c>
-      <c r="G14" t="inlineStr"/>
-      <c r="H14" t="inlineStr"/>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
       <c r="I14" t="n">
         <v>-324.65</v>
       </c>
@@ -984,7 +1136,11 @@
       <c r="L14" t="n">
         <v>0</v>
       </c>
-      <c r="M14" t="inlineStr"/>
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
@@ -1005,8 +1161,16 @@
           <t>VENMO PAYMENT 1018240970634</t>
         </is>
       </c>
-      <c r="G15" t="inlineStr"/>
-      <c r="H15" t="inlineStr"/>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
       <c r="I15" t="n">
         <v>-70</v>
       </c>
@@ -1021,7 +1185,11 @@
       <c r="L15" t="n">
         <v>0</v>
       </c>
-      <c r="M15" t="inlineStr"/>
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
@@ -1042,8 +1210,16 @@
           <t>APPLECARD GSBANK PAYMENT 2211736</t>
         </is>
       </c>
-      <c r="G16" t="inlineStr"/>
-      <c r="H16" t="inlineStr"/>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
       <c r="I16" t="n">
         <v>-19.34</v>
       </c>
@@ -1058,7 +1234,11 @@
       <c r="L16" t="n">
         <v>0</v>
       </c>
-      <c r="M16" t="inlineStr"/>
+      <c r="M16" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
@@ -1079,8 +1259,16 @@
           <t>Online Banking Transfer from XXXXXX4411on 2/01/2022 at 9:31</t>
         </is>
       </c>
-      <c r="G17" t="inlineStr"/>
-      <c r="H17" t="inlineStr"/>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
       <c r="I17" t="n">
         <v>800</v>
       </c>
@@ -1095,7 +1283,11 @@
       <c r="L17" t="n">
         <v>0</v>
       </c>
-      <c r="M17" t="inlineStr"/>
+      <c r="M17" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
@@ -1116,8 +1308,16 @@
           <t>Check</t>
         </is>
       </c>
-      <c r="G18" t="inlineStr"/>
-      <c r="H18" t="inlineStr"/>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
       <c r="I18" t="n">
         <v>-2173</v>
       </c>
@@ -1132,7 +1332,11 @@
       <c r="L18" t="n">
         <v>0</v>
       </c>
-      <c r="M18" t="inlineStr"/>
+      <c r="M18" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
@@ -1153,8 +1357,16 @@
           <t>UNIVERSITY OF PO ACH ITEMS XXXXX1261</t>
         </is>
       </c>
-      <c r="G19" t="inlineStr"/>
-      <c r="H19" t="inlineStr"/>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
       <c r="I19" t="n">
         <v>500</v>
       </c>
@@ -1169,7 +1381,11 @@
       <c r="L19" t="n">
         <v>0</v>
       </c>
-      <c r="M19" t="inlineStr"/>
+      <c r="M19" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
@@ -1190,8 +1406,16 @@
           <t>CHASE CREDIT CRD AUTOPAY 000000000246738</t>
         </is>
       </c>
-      <c r="G20" t="inlineStr"/>
-      <c r="H20" t="inlineStr"/>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
       <c r="I20" t="n">
         <v>-751.52</v>
       </c>
@@ -1206,7 +1430,11 @@
       <c r="L20" t="n">
         <v>0</v>
       </c>
-      <c r="M20" t="inlineStr"/>
+      <c r="M20" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
@@ -1227,8 +1455,16 @@
           <t>Online Banking Transfer from XXXXXX4411on 2/20/2022 at 16:17</t>
         </is>
       </c>
-      <c r="G21" t="inlineStr"/>
-      <c r="H21" t="inlineStr"/>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
       <c r="I21" t="n">
         <v>1304.2</v>
       </c>
@@ -1243,7 +1479,11 @@
       <c r="L21" t="n">
         <v>0</v>
       </c>
-      <c r="M21" t="inlineStr"/>
+      <c r="M21" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
@@ -1264,8 +1504,16 @@
           <t>VENMO PAYMENT 1018574667960</t>
         </is>
       </c>
-      <c r="G22" t="inlineStr"/>
-      <c r="H22" t="inlineStr"/>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
       <c r="I22" t="n">
         <v>-300</v>
       </c>
@@ -1280,7 +1528,11 @@
       <c r="L22" t="n">
         <v>0</v>
       </c>
-      <c r="M22" t="inlineStr"/>
+      <c r="M22" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
@@ -1301,8 +1553,16 @@
           <t>VENMO CASHOUT 1018640209107</t>
         </is>
       </c>
-      <c r="G23" t="inlineStr"/>
-      <c r="H23" t="inlineStr"/>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
       <c r="I23" t="n">
         <v>195</v>
       </c>
@@ -1317,7 +1577,11 @@
       <c r="L23" t="n">
         <v>0</v>
       </c>
-      <c r="M23" t="inlineStr"/>
+      <c r="M23" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
@@ -1338,8 +1602,16 @@
           <t>VENMO PAYMENT 1018703339719</t>
         </is>
       </c>
-      <c r="G24" t="inlineStr"/>
-      <c r="H24" t="inlineStr"/>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
       <c r="I24" t="n">
         <v>-50</v>
       </c>
@@ -1354,7 +1626,11 @@
       <c r="L24" t="n">
         <v>0</v>
       </c>
-      <c r="M24" t="inlineStr"/>
+      <c r="M24" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
@@ -1375,8 +1651,16 @@
           <t>Online Banking Transfer from XXXXXX4411on 3/01/2022 at 9:31</t>
         </is>
       </c>
-      <c r="G25" t="inlineStr"/>
-      <c r="H25" t="inlineStr"/>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
       <c r="I25" t="n">
         <v>800</v>
       </c>
@@ -1391,7 +1675,11 @@
       <c r="L25" t="n">
         <v>0</v>
       </c>
-      <c r="M25" t="inlineStr"/>
+      <c r="M25" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
@@ -1412,8 +1700,16 @@
           <t>CHASE CREDIT CRD AUTOPAY 000000000434242</t>
         </is>
       </c>
-      <c r="G26" t="inlineStr"/>
-      <c r="H26" t="inlineStr"/>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
       <c r="I26" t="n">
         <v>-1624.44</v>
       </c>
@@ -1428,7 +1724,11 @@
       <c r="L26" t="n">
         <v>0</v>
       </c>
-      <c r="M26" t="inlineStr"/>
+      <c r="M26" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
@@ -1449,8 +1749,16 @@
           <t>WELLS FARGO IFI DDA TO DDA F20DQBB2ZH</t>
         </is>
       </c>
-      <c r="G27" t="inlineStr"/>
-      <c r="H27" t="inlineStr"/>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
       <c r="I27" t="n">
         <v>-2000</v>
       </c>
@@ -1465,7 +1773,11 @@
       <c r="L27" t="n">
         <v>0</v>
       </c>
-      <c r="M27" t="inlineStr"/>
+      <c r="M27" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
@@ -1486,8 +1798,16 @@
           <t>Online Banking Transfer from XXXXXX4411on 3/09/2022 at 10:40</t>
         </is>
       </c>
-      <c r="G28" t="inlineStr"/>
-      <c r="H28" t="inlineStr"/>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
       <c r="I28" t="n">
         <v>1000</v>
       </c>
@@ -1502,7 +1822,11 @@
       <c r="L28" t="n">
         <v>0</v>
       </c>
-      <c r="M28" t="inlineStr"/>
+      <c r="M28" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
@@ -1523,8 +1847,16 @@
           <t>WELLS FARGO IFI DDA TO DDA F20DRZBW9F</t>
         </is>
       </c>
-      <c r="G29" t="inlineStr"/>
-      <c r="H29" t="inlineStr"/>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
       <c r="I29" t="n">
         <v>-1500</v>
       </c>
@@ -1539,7 +1871,11 @@
       <c r="L29" t="n">
         <v>0</v>
       </c>
-      <c r="M29" t="inlineStr"/>
+      <c r="M29" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
@@ -1560,8 +1896,16 @@
           <t>VENMO CASHOUT 1018908490998</t>
         </is>
       </c>
-      <c r="G30" t="inlineStr"/>
-      <c r="H30" t="inlineStr"/>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
       <c r="I30" t="n">
         <v>67</v>
       </c>
@@ -1576,7 +1920,11 @@
       <c r="L30" t="n">
         <v>0</v>
       </c>
-      <c r="M30" t="inlineStr"/>
+      <c r="M30" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
@@ -1597,8 +1945,16 @@
           <t>VENMO CASHOUT 1019017528019</t>
         </is>
       </c>
-      <c r="G31" t="inlineStr"/>
-      <c r="H31" t="inlineStr"/>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
       <c r="I31" t="n">
         <v>120</v>
       </c>
@@ -1613,7 +1969,11 @@
       <c r="L31" t="n">
         <v>0</v>
       </c>
-      <c r="M31" t="inlineStr"/>
+      <c r="M31" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
@@ -1634,8 +1994,16 @@
           <t>CHASE CREDIT CRD AUTOPAY 000000000251383</t>
         </is>
       </c>
-      <c r="G32" t="inlineStr"/>
-      <c r="H32" t="inlineStr"/>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
       <c r="I32" t="n">
         <v>-1335.44</v>
       </c>
@@ -1650,7 +2018,11 @@
       <c r="L32" t="n">
         <v>0</v>
       </c>
-      <c r="M32" t="inlineStr"/>
+      <c r="M32" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
@@ -1671,8 +2043,16 @@
           <t>CHASE CREDIT CRD AUTOPAY 000000000435162</t>
         </is>
       </c>
-      <c r="G33" t="inlineStr"/>
-      <c r="H33" t="inlineStr"/>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
       <c r="I33" t="n">
         <v>-1395.85</v>
       </c>
@@ -1687,7 +2067,11 @@
       <c r="L33" t="n">
         <v>0</v>
       </c>
-      <c r="M33" t="inlineStr"/>
+      <c r="M33" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
@@ -1708,8 +2092,16 @@
           <t>UNIVERSITY OF PO ACCTS PAY XXXXX1261</t>
         </is>
       </c>
-      <c r="G34" t="inlineStr"/>
-      <c r="H34" t="inlineStr"/>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
       <c r="I34" t="n">
         <v>185.9</v>
       </c>
@@ -1724,7 +2116,11 @@
       <c r="L34" t="n">
         <v>0</v>
       </c>
-      <c r="M34" t="inlineStr"/>
+      <c r="M34" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
@@ -1745,8 +2141,16 @@
           <t>Online Banking Transfer from XXXXXX4411on 4/01/2022 at 9:31</t>
         </is>
       </c>
-      <c r="G35" t="inlineStr"/>
-      <c r="H35" t="inlineStr"/>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
       <c r="I35" t="n">
         <v>800</v>
       </c>
@@ -1761,7 +2165,11 @@
       <c r="L35" t="n">
         <v>0</v>
       </c>
-      <c r="M35" t="inlineStr"/>
+      <c r="M35" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
@@ -1782,8 +2190,16 @@
           <t>Barclays Bank De P2P Vega,William</t>
         </is>
       </c>
-      <c r="G36" t="inlineStr"/>
-      <c r="H36" t="inlineStr"/>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
       <c r="I36" t="n">
         <v>1150</v>
       </c>
@@ -1798,7 +2214,11 @@
       <c r="L36" t="n">
         <v>0</v>
       </c>
-      <c r="M36" t="inlineStr"/>
+      <c r="M36" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
@@ -1819,8 +2239,16 @@
           <t>CHASE CREDIT CRD AUTOPAY 000000000250490</t>
         </is>
       </c>
-      <c r="G37" t="inlineStr"/>
-      <c r="H37" t="inlineStr"/>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
       <c r="I37" t="n">
         <v>-1129.24</v>
       </c>
@@ -1835,7 +2263,11 @@
       <c r="L37" t="n">
         <v>0</v>
       </c>
-      <c r="M37" t="inlineStr"/>
+      <c r="M37" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
@@ -1856,8 +2288,16 @@
           <t>VENMO PAYMENT 1019731010656</t>
         </is>
       </c>
-      <c r="G38" t="inlineStr"/>
-      <c r="H38" t="inlineStr"/>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
       <c r="I38" t="n">
         <v>-25</v>
       </c>
@@ -1872,7 +2312,11 @@
       <c r="L38" t="n">
         <v>0</v>
       </c>
-      <c r="M38" t="inlineStr"/>
+      <c r="M38" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
@@ -1893,8 +2337,16 @@
           <t>CHASE CREDIT CRD AUTOPAY 000000000443129</t>
         </is>
       </c>
-      <c r="G39" t="inlineStr"/>
-      <c r="H39" t="inlineStr"/>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
       <c r="I39" t="n">
         <v>-1266.7</v>
       </c>
@@ -1909,7 +2361,11 @@
       <c r="L39" t="n">
         <v>0</v>
       </c>
-      <c r="M39" t="inlineStr"/>
+      <c r="M39" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
@@ -1930,8 +2386,16 @@
           <t>Online Banking Transfer from XXXXXX4411on 5/01/2022 at 9:31</t>
         </is>
       </c>
-      <c r="G40" t="inlineStr"/>
-      <c r="H40" t="inlineStr"/>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
       <c r="I40" t="n">
         <v>800</v>
       </c>
@@ -1946,7 +2410,11 @@
       <c r="L40" t="n">
         <v>0</v>
       </c>
-      <c r="M40" t="inlineStr"/>
+      <c r="M40" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
@@ -1967,8 +2435,16 @@
           <t>APPLECARD GSBANK PAYMENT 2211736</t>
         </is>
       </c>
-      <c r="G41" t="inlineStr"/>
-      <c r="H41" t="inlineStr"/>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
       <c r="I41" t="n">
         <v>-187</v>
       </c>
@@ -1983,7 +2459,11 @@
       <c r="L41" t="n">
         <v>0</v>
       </c>
-      <c r="M41" t="inlineStr"/>
+      <c r="M41" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
@@ -2004,8 +2484,16 @@
           <t>Online Banking Transfer from XXXXXX4411on 5/05/2022 at 15:35</t>
         </is>
       </c>
-      <c r="G42" t="inlineStr"/>
-      <c r="H42" t="inlineStr"/>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
       <c r="I42" t="n">
         <v>100</v>
       </c>
@@ -2020,7 +2508,11 @@
       <c r="L42" t="n">
         <v>0</v>
       </c>
-      <c r="M42" t="inlineStr"/>
+      <c r="M42" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
@@ -2041,8 +2533,16 @@
           <t>Mobile Deposit</t>
         </is>
       </c>
-      <c r="G43" t="inlineStr"/>
-      <c r="H43" t="inlineStr"/>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
       <c r="I43" t="n">
         <v>500</v>
       </c>
@@ -2057,7 +2557,11 @@
       <c r="L43" t="n">
         <v>0</v>
       </c>
-      <c r="M43" t="inlineStr"/>
+      <c r="M43" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
@@ -2080,8 +2584,16 @@
           <t>COINBASE INC. XXXXXX7930 8W6BUCGH</t>
         </is>
       </c>
-      <c r="G44" t="inlineStr"/>
-      <c r="H44" t="inlineStr"/>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
       <c r="I44" t="n">
         <v>495.25</v>
       </c>
@@ -2121,8 +2633,16 @@
           <t>VENMO PAYMENT 1020124337391</t>
         </is>
       </c>
-      <c r="G45" t="inlineStr"/>
-      <c r="H45" t="inlineStr"/>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
       <c r="I45" t="n">
         <v>-40</v>
       </c>
@@ -2137,7 +2657,11 @@
       <c r="L45" t="n">
         <v>0</v>
       </c>
-      <c r="M45" t="inlineStr"/>
+      <c r="M45" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="inlineStr">
@@ -2158,8 +2682,16 @@
           <t>CHASE CREDIT CRD AUTOPAY 000000000255893</t>
         </is>
       </c>
-      <c r="G46" t="inlineStr"/>
-      <c r="H46" t="inlineStr"/>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
       <c r="I46" t="n">
         <v>-1279.18</v>
       </c>
@@ -2174,7 +2706,11 @@
       <c r="L46" t="n">
         <v>0</v>
       </c>
-      <c r="M46" t="inlineStr"/>
+      <c r="M46" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="inlineStr">
@@ -2195,8 +2731,16 @@
           <t>WELLS FARGO IFI DDA TO DDA F20FCXK368</t>
         </is>
       </c>
-      <c r="G47" t="inlineStr"/>
-      <c r="H47" t="inlineStr"/>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
       <c r="I47" t="n">
         <v>6814.03</v>
       </c>
@@ -2211,7 +2755,11 @@
       <c r="L47" t="n">
         <v>0</v>
       </c>
-      <c r="M47" t="inlineStr"/>
+      <c r="M47" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="inlineStr">
@@ -2232,8 +2780,16 @@
           <t>UNIVERSITY OF PO ACCTS PAY XXXXX1261</t>
         </is>
       </c>
-      <c r="G48" t="inlineStr"/>
-      <c r="H48" t="inlineStr"/>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
       <c r="I48" t="n">
         <v>421.05</v>
       </c>
@@ -2248,7 +2804,11 @@
       <c r="L48" t="n">
         <v>0</v>
       </c>
-      <c r="M48" t="inlineStr"/>
+      <c r="M48" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="inlineStr">
@@ -2269,8 +2829,16 @@
           <t>CHASE CREDIT CRD AUTOPAY 000000000814774</t>
         </is>
       </c>
-      <c r="G49" t="inlineStr"/>
-      <c r="H49" t="inlineStr"/>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
       <c r="I49" t="n">
         <v>-464.33</v>
       </c>
@@ -2285,7 +2853,11 @@
       <c r="L49" t="n">
         <v>0</v>
       </c>
-      <c r="M49" t="inlineStr"/>
+      <c r="M49" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="inlineStr">
@@ -2306,8 +2878,16 @@
           <t>APPLECARD GSBANK PAYMENT 2211736</t>
         </is>
       </c>
-      <c r="G50" t="inlineStr"/>
-      <c r="H50" t="inlineStr"/>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
       <c r="I50" t="n">
         <v>-424.76</v>
       </c>
@@ -2322,7 +2902,11 @@
       <c r="L50" t="n">
         <v>0</v>
       </c>
-      <c r="M50" t="inlineStr"/>
+      <c r="M50" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="inlineStr">
@@ -2343,8 +2927,16 @@
           <t>Online Banking Transfer from XXXXXX4411on 6/01/2022 at 9:31</t>
         </is>
       </c>
-      <c r="G51" t="inlineStr"/>
-      <c r="H51" t="inlineStr"/>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="H51" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
       <c r="I51" t="n">
         <v>800</v>
       </c>
@@ -2359,7 +2951,11 @@
       <c r="L51" t="n">
         <v>0</v>
       </c>
-      <c r="M51" t="inlineStr"/>
+      <c r="M51" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="inlineStr">
@@ -2380,8 +2976,16 @@
           <t>VENMO CASHOUT 1020499775399</t>
         </is>
       </c>
-      <c r="G52" t="inlineStr"/>
-      <c r="H52" t="inlineStr"/>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="H52" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
       <c r="I52" t="n">
         <v>282</v>
       </c>
@@ -2396,7 +3000,11 @@
       <c r="L52" t="n">
         <v>0</v>
       </c>
-      <c r="M52" t="inlineStr"/>
+      <c r="M52" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="inlineStr">
@@ -2417,8 +3025,16 @@
           <t>Deposit</t>
         </is>
       </c>
-      <c r="G53" t="inlineStr"/>
-      <c r="H53" t="inlineStr"/>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="H53" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
       <c r="I53" t="n">
         <v>1000</v>
       </c>
@@ -2433,7 +3049,11 @@
       <c r="L53" t="n">
         <v>0</v>
       </c>
-      <c r="M53" t="inlineStr"/>
+      <c r="M53" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="inlineStr">
@@ -2454,8 +3074,16 @@
           <t>CHASE CREDIT CRD AUTOPAY 000000000513956</t>
         </is>
       </c>
-      <c r="G54" t="inlineStr"/>
-      <c r="H54" t="inlineStr"/>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="H54" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
       <c r="I54" t="n">
         <v>-879.9</v>
       </c>
@@ -2470,7 +3098,11 @@
       <c r="L54" t="n">
         <v>0</v>
       </c>
-      <c r="M54" t="inlineStr"/>
+      <c r="M54" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="inlineStr">
@@ -2491,8 +3123,16 @@
           <t>UNIVERSITY OF PO ACH ITEMS XXXXX1261</t>
         </is>
       </c>
-      <c r="G55" t="inlineStr"/>
-      <c r="H55" t="inlineStr"/>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="H55" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
       <c r="I55" t="n">
         <v>1230</v>
       </c>
@@ -2507,7 +3147,11 @@
       <c r="L55" t="n">
         <v>0</v>
       </c>
-      <c r="M55" t="inlineStr"/>
+      <c r="M55" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="inlineStr">
@@ -2528,8 +3172,16 @@
           <t>CHASE CREDIT CRD AUTOPAY 000000000456784</t>
         </is>
       </c>
-      <c r="G56" t="inlineStr"/>
-      <c r="H56" t="inlineStr"/>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="H56" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
       <c r="I56" t="n">
         <v>-2934.28</v>
       </c>
@@ -2544,7 +3196,11 @@
       <c r="L56" t="n">
         <v>0</v>
       </c>
-      <c r="M56" t="inlineStr"/>
+      <c r="M56" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="inlineStr">
@@ -2565,8 +3221,16 @@
           <t>APPLECARD GSBANK PAYMENT 2211736</t>
         </is>
       </c>
-      <c r="G57" t="inlineStr"/>
-      <c r="H57" t="inlineStr"/>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="H57" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
       <c r="I57" t="n">
         <v>-1.1</v>
       </c>
@@ -2581,7 +3245,11 @@
       <c r="L57" t="n">
         <v>0</v>
       </c>
-      <c r="M57" t="inlineStr"/>
+      <c r="M57" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="inlineStr">
@@ -2602,8 +3270,16 @@
           <t>Online Banking Transfer from XXXXXX4411on 7/01/2022 at 9:31</t>
         </is>
       </c>
-      <c r="G58" t="inlineStr"/>
-      <c r="H58" t="inlineStr"/>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="H58" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
       <c r="I58" t="n">
         <v>800</v>
       </c>
@@ -2618,7 +3294,11 @@
       <c r="L58" t="n">
         <v>0</v>
       </c>
-      <c r="M58" t="inlineStr"/>
+      <c r="M58" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="inlineStr">
@@ -2639,8 +3319,16 @@
           <t>Online Banking Transfer from XXXXXX4411on 7/04/2022 at 13:39</t>
         </is>
       </c>
-      <c r="G59" t="inlineStr"/>
-      <c r="H59" t="inlineStr"/>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="H59" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
       <c r="I59" t="n">
         <v>450</v>
       </c>
@@ -2655,7 +3343,11 @@
       <c r="L59" t="n">
         <v>0</v>
       </c>
-      <c r="M59" t="inlineStr"/>
+      <c r="M59" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="inlineStr">
@@ -2676,8 +3368,16 @@
           <t>VENMO CASHOUT 1021072634797</t>
         </is>
       </c>
-      <c r="G60" t="inlineStr"/>
-      <c r="H60" t="inlineStr"/>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="H60" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
       <c r="I60" t="n">
         <v>988</v>
       </c>
@@ -2692,7 +3392,11 @@
       <c r="L60" t="n">
         <v>0</v>
       </c>
-      <c r="M60" t="inlineStr"/>
+      <c r="M60" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="inlineStr">
@@ -2713,8 +3417,16 @@
           <t>Mobile Deposit</t>
         </is>
       </c>
-      <c r="G61" t="inlineStr"/>
-      <c r="H61" t="inlineStr"/>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="H61" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
       <c r="I61" t="n">
         <v>100</v>
       </c>
@@ -2729,7 +3441,11 @@
       <c r="L61" t="n">
         <v>0</v>
       </c>
-      <c r="M61" t="inlineStr"/>
+      <c r="M61" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="inlineStr">
@@ -2750,8 +3466,16 @@
           <t>CHASE CREDIT CRD AUTOPAY 000000000266011</t>
         </is>
       </c>
-      <c r="G62" t="inlineStr"/>
-      <c r="H62" t="inlineStr"/>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="H62" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
       <c r="I62" t="n">
         <v>-1375.66</v>
       </c>
@@ -2766,7 +3490,11 @@
       <c r="L62" t="n">
         <v>0</v>
       </c>
-      <c r="M62" t="inlineStr"/>
+      <c r="M62" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="inlineStr">
@@ -2787,8 +3515,16 @@
           <t>KBC Management, WEB PMTS Y52756</t>
         </is>
       </c>
-      <c r="G63" t="inlineStr"/>
-      <c r="H63" t="inlineStr"/>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="H63" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
       <c r="I63" t="n">
         <v>-500</v>
       </c>
@@ -2803,7 +3539,11 @@
       <c r="L63" t="n">
         <v>0</v>
       </c>
-      <c r="M63" t="inlineStr"/>
+      <c r="M63" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="inlineStr">
@@ -2814,7 +3554,9 @@
       <c r="B64" s="2" t="n">
         <v>44933</v>
       </c>
-      <c r="C64" t="inlineStr"/>
+      <c r="C64" s="2" t="n">
+        <v>44941</v>
+      </c>
       <c r="D64" s="2" t="n">
         <v>44764</v>
       </c>
@@ -2824,8 +3566,16 @@
           <t>TOYOTA MOTOR SAL PAYROLL 568349-TMN</t>
         </is>
       </c>
-      <c r="G64" t="inlineStr"/>
-      <c r="H64" t="inlineStr"/>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="H64" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
       <c r="I64" t="n">
         <v>105.59</v>
       </c>
@@ -2838,9 +3588,13 @@
         </is>
       </c>
       <c r="L64" t="n">
-        <v>0</v>
-      </c>
-      <c r="M64" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="M64" t="inlineStr">
+        <is>
+          <t>Income</t>
+        </is>
+      </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="inlineStr">
@@ -2851,7 +3605,9 @@
       <c r="B65" s="2" t="n">
         <v>44933</v>
       </c>
-      <c r="C65" t="inlineStr"/>
+      <c r="C65" s="2" t="n">
+        <v>44941</v>
+      </c>
       <c r="D65" s="2" t="n">
         <v>44764</v>
       </c>
@@ -2861,8 +3617,16 @@
           <t>TOYOTA MOTOR SAL PAYROLL 568349-TMN</t>
         </is>
       </c>
-      <c r="G65" t="inlineStr"/>
-      <c r="H65" t="inlineStr"/>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="H65" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
       <c r="I65" t="n">
         <v>1511.38</v>
       </c>
@@ -2875,9 +3639,13 @@
         </is>
       </c>
       <c r="L65" t="n">
-        <v>0</v>
-      </c>
-      <c r="M65" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="M65" t="inlineStr">
+        <is>
+          <t>Income</t>
+        </is>
+      </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="inlineStr">
@@ -2888,7 +3656,9 @@
       <c r="B66" s="2" t="n">
         <v>44933</v>
       </c>
-      <c r="C66" t="inlineStr"/>
+      <c r="C66" s="2" t="n">
+        <v>44941</v>
+      </c>
       <c r="D66" s="2" t="n">
         <v>44764</v>
       </c>
@@ -2898,8 +3668,16 @@
           <t>TOYOTA MOTOR SAL PAYROLL 568349-TMN</t>
         </is>
       </c>
-      <c r="G66" t="inlineStr"/>
-      <c r="H66" t="inlineStr"/>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="H66" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
       <c r="I66" t="n">
         <v>3112.5</v>
       </c>
@@ -2911,10 +3689,14 @@
           <t>Mechanics</t>
         </is>
       </c>
-      <c r="L66" t="n">
-        <v>0</v>
-      </c>
-      <c r="M66" t="inlineStr"/>
+      <c r="L66" t="b">
+        <v>1</v>
+      </c>
+      <c r="M66" t="inlineStr">
+        <is>
+          <t>Income</t>
+        </is>
+      </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="inlineStr">
@@ -2935,8 +3717,16 @@
           <t>CHASE CREDIT CRD AUTOPAY 000000000461669</t>
         </is>
       </c>
-      <c r="G67" t="inlineStr"/>
-      <c r="H67" t="inlineStr"/>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="H67" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
       <c r="I67" t="n">
         <v>-3940.95</v>
       </c>
@@ -2951,7 +3741,11 @@
       <c r="L67" t="n">
         <v>0</v>
       </c>
-      <c r="M67" t="inlineStr"/>
+      <c r="M67" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="inlineStr">
@@ -2972,8 +3766,16 @@
           <t>APPLECARD GSBANK PAYMENT 2211736</t>
         </is>
       </c>
-      <c r="G68" t="inlineStr"/>
-      <c r="H68" t="inlineStr"/>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="H68" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
       <c r="I68" t="n">
         <v>-47.55</v>
       </c>
@@ -2988,7 +3790,11 @@
       <c r="L68" t="n">
         <v>0</v>
       </c>
-      <c r="M68" t="inlineStr"/>
+      <c r="M68" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="inlineStr">
@@ -3009,8 +3815,16 @@
           <t>VENMO CASHOUT 1021533206597</t>
         </is>
       </c>
-      <c r="G69" t="inlineStr"/>
-      <c r="H69" t="inlineStr"/>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="H69" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
       <c r="I69" t="n">
         <v>369.34</v>
       </c>
@@ -3025,7 +3839,11 @@
       <c r="L69" t="n">
         <v>0</v>
       </c>
-      <c r="M69" t="inlineStr"/>
+      <c r="M69" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="inlineStr">
@@ -3046,8 +3864,16 @@
           <t>KBC Management, WEB PMTS 1XPY66</t>
         </is>
       </c>
-      <c r="G70" t="inlineStr"/>
-      <c r="H70" t="inlineStr"/>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="H70" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
       <c r="I70" t="n">
         <v>-1630</v>
       </c>
@@ -3062,7 +3888,11 @@
       <c r="L70" t="n">
         <v>0</v>
       </c>
-      <c r="M70" t="inlineStr"/>
+      <c r="M70" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="inlineStr">
@@ -3073,7 +3903,9 @@
       <c r="B71" s="2" t="n">
         <v>44933</v>
       </c>
-      <c r="C71" t="inlineStr"/>
+      <c r="C71" s="2" t="n">
+        <v>44941</v>
+      </c>
       <c r="D71" s="2" t="n">
         <v>44778</v>
       </c>
@@ -3083,8 +3915,16 @@
           <t>TOYOTA MOTOR SAL PAYROLL 568349-TMN</t>
         </is>
       </c>
-      <c r="G71" t="inlineStr"/>
-      <c r="H71" t="inlineStr"/>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="H71" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
       <c r="I71" t="n">
         <v>1620.87</v>
       </c>
@@ -3097,9 +3937,13 @@
         </is>
       </c>
       <c r="L71" t="n">
-        <v>0</v>
-      </c>
-      <c r="M71" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="M71" t="inlineStr">
+        <is>
+          <t>Income</t>
+        </is>
+      </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="inlineStr">
@@ -3120,8 +3964,16 @@
           <t>Online Banking Transfer from XXXXXX4411on 8/09/2022 at 10:19</t>
         </is>
       </c>
-      <c r="G72" t="inlineStr"/>
-      <c r="H72" t="inlineStr"/>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="H72" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
       <c r="I72" t="n">
         <v>800</v>
       </c>
@@ -3136,7 +3988,11 @@
       <c r="L72" t="n">
         <v>0</v>
       </c>
-      <c r="M72" t="inlineStr"/>
+      <c r="M72" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="inlineStr">
@@ -3157,8 +4013,16 @@
           <t>CHASE CREDIT CRD AUTOPAY 000000000268355</t>
         </is>
       </c>
-      <c r="G73" t="inlineStr"/>
-      <c r="H73" t="inlineStr"/>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="H73" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
       <c r="I73" t="n">
         <v>-1879.77</v>
       </c>
@@ -3173,7 +4037,11 @@
       <c r="L73" t="n">
         <v>0</v>
       </c>
-      <c r="M73" t="inlineStr"/>
+      <c r="M73" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
     </row>
     <row r="74">
       <c r="A74" s="1" t="inlineStr">
@@ -3184,7 +4052,9 @@
       <c r="B74" s="2" t="n">
         <v>44933</v>
       </c>
-      <c r="C74" t="inlineStr"/>
+      <c r="C74" s="2" t="n">
+        <v>44941</v>
+      </c>
       <c r="D74" s="2" t="n">
         <v>44792</v>
       </c>
@@ -3194,8 +4064,16 @@
           <t>TOYOTA MOTOR SAL PAYROLL 568349-TMN</t>
         </is>
       </c>
-      <c r="G74" t="inlineStr"/>
-      <c r="H74" t="inlineStr"/>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="H74" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
       <c r="I74" t="n">
         <v>1620.85</v>
       </c>
@@ -3208,9 +4086,13 @@
         </is>
       </c>
       <c r="L74" t="n">
-        <v>0</v>
-      </c>
-      <c r="M74" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="M74" t="inlineStr">
+        <is>
+          <t>Income</t>
+        </is>
+      </c>
     </row>
     <row r="75">
       <c r="A75" s="1" t="inlineStr">
@@ -3231,8 +4113,16 @@
           <t>CHASE CREDIT CRD AUTOPAY 000000000472553</t>
         </is>
       </c>
-      <c r="G75" t="inlineStr"/>
-      <c r="H75" t="inlineStr"/>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="H75" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
       <c r="I75" t="n">
         <v>-2513.9</v>
       </c>
@@ -3247,7 +4137,11 @@
       <c r="L75" t="n">
         <v>0</v>
       </c>
-      <c r="M75" t="inlineStr"/>
+      <c r="M75" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
     </row>
     <row r="76">
       <c r="A76" s="1" t="inlineStr">
@@ -3268,8 +4162,16 @@
           <t>APPLECARD GSBANK PAYMENT 2211736</t>
         </is>
       </c>
-      <c r="G76" t="inlineStr"/>
-      <c r="H76" t="inlineStr"/>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="H76" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
       <c r="I76" t="n">
         <v>-32.14</v>
       </c>
@@ -3284,7 +4186,11 @@
       <c r="L76" t="n">
         <v>0</v>
       </c>
-      <c r="M76" t="inlineStr"/>
+      <c r="M76" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
     </row>
     <row r="77">
       <c r="A77" s="1" t="inlineStr">
@@ -3305,8 +4211,16 @@
           <t>KBC Management, WEB PMTS 4KT1C6</t>
         </is>
       </c>
-      <c r="G77" t="inlineStr"/>
-      <c r="H77" t="inlineStr"/>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="H77" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
       <c r="I77" t="n">
         <v>-1556.65</v>
       </c>
@@ -3321,7 +4235,11 @@
       <c r="L77" t="n">
         <v>0</v>
       </c>
-      <c r="M77" t="inlineStr"/>
+      <c r="M77" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
     </row>
     <row r="78">
       <c r="A78" s="1" t="inlineStr">
@@ -3332,7 +4250,9 @@
       <c r="B78" s="2" t="n">
         <v>44933</v>
       </c>
-      <c r="C78" t="inlineStr"/>
+      <c r="C78" s="2" t="n">
+        <v>44941</v>
+      </c>
       <c r="D78" s="2" t="n">
         <v>44806</v>
       </c>
@@ -3342,8 +4262,16 @@
           <t>TOYOTA MOTOR SAL PAYROLL 568349-TMN</t>
         </is>
       </c>
-      <c r="G78" t="inlineStr"/>
-      <c r="H78" t="inlineStr"/>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="H78" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
       <c r="I78" t="n">
         <v>1620.9</v>
       </c>
@@ -3356,9 +4284,13 @@
         </is>
       </c>
       <c r="L78" t="n">
-        <v>0</v>
-      </c>
-      <c r="M78" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="M78" t="inlineStr">
+        <is>
+          <t>Income</t>
+        </is>
+      </c>
     </row>
     <row r="79">
       <c r="A79" s="1" t="inlineStr">
@@ -3369,7 +4301,9 @@
       <c r="B79" s="2" t="n">
         <v>44933</v>
       </c>
-      <c r="C79" t="inlineStr"/>
+      <c r="C79" s="2" t="n">
+        <v>44941</v>
+      </c>
       <c r="D79" s="2" t="n">
         <v>44820</v>
       </c>
@@ -3379,8 +4313,16 @@
           <t>TOYOTA MOTOR SAL PAYROLL 568349-TMN</t>
         </is>
       </c>
-      <c r="G79" t="inlineStr"/>
-      <c r="H79" t="inlineStr"/>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="H79" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
       <c r="I79" t="n">
         <v>1621.05</v>
       </c>
@@ -3393,9 +4335,13 @@
         </is>
       </c>
       <c r="L79" t="n">
-        <v>0</v>
-      </c>
-      <c r="M79" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="M79" t="inlineStr">
+        <is>
+          <t>Income</t>
+        </is>
+      </c>
     </row>
     <row r="80">
       <c r="A80" s="1" t="inlineStr">
@@ -3416,8 +4362,16 @@
           <t>CHASE CREDIT CRD AUTOPAY 000000000555390</t>
         </is>
       </c>
-      <c r="G80" t="inlineStr"/>
-      <c r="H80" t="inlineStr"/>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="H80" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
       <c r="I80" t="n">
         <v>-2189.57</v>
       </c>
@@ -3432,7 +4386,11 @@
       <c r="L80" t="n">
         <v>0</v>
       </c>
-      <c r="M80" t="inlineStr"/>
+      <c r="M80" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
     </row>
     <row r="81">
       <c r="A81" s="1" t="inlineStr">
@@ -3453,8 +4411,16 @@
           <t>VENMO PAYMENT 1022515933364</t>
         </is>
       </c>
-      <c r="G81" t="inlineStr"/>
-      <c r="H81" t="inlineStr"/>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="H81" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
       <c r="I81" t="n">
         <v>-21</v>
       </c>
@@ -3469,7 +4435,11 @@
       <c r="L81" t="n">
         <v>0</v>
       </c>
-      <c r="M81" t="inlineStr"/>
+      <c r="M81" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
     </row>
     <row r="82">
       <c r="A82" s="1" t="inlineStr">
@@ -3543,8 +4513,16 @@
           <t>CHASE CREDIT CRD AUTOPAY 000000000474653</t>
         </is>
       </c>
-      <c r="G83" t="inlineStr"/>
-      <c r="H83" t="inlineStr"/>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="H83" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
       <c r="I83" t="n">
         <v>-1388.74</v>
       </c>
@@ -3559,7 +4537,11 @@
       <c r="L83" t="n">
         <v>0</v>
       </c>
-      <c r="M83" t="inlineStr"/>
+      <c r="M83" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
     </row>
     <row r="84">
       <c r="A84" s="1" t="inlineStr">
@@ -3606,7 +4588,11 @@
       <c r="L84" t="n">
         <v>0</v>
       </c>
-      <c r="M84" t="inlineStr"/>
+      <c r="M84" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
     </row>
     <row r="85">
       <c r="A85" s="1" t="inlineStr">
@@ -3617,7 +4603,9 @@
       <c r="B85" s="2" t="n">
         <v>44933</v>
       </c>
-      <c r="C85" t="inlineStr"/>
+      <c r="C85" s="2" t="n">
+        <v>44941</v>
+      </c>
       <c r="D85" s="2" t="n">
         <v>44834</v>
       </c>
@@ -3627,8 +4615,16 @@
           <t>TOYOTA MOTOR SAL PAYROLL 568349-TMN</t>
         </is>
       </c>
-      <c r="G85" t="inlineStr"/>
-      <c r="H85" t="inlineStr"/>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="H85" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
       <c r="I85" t="n">
         <v>1620.95</v>
       </c>
@@ -3641,9 +4637,13 @@
         </is>
       </c>
       <c r="L85" t="n">
-        <v>0</v>
-      </c>
-      <c r="M85" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="M85" t="inlineStr">
+        <is>
+          <t>Income</t>
+        </is>
+      </c>
     </row>
     <row r="86">
       <c r="A86" s="1" t="inlineStr">
@@ -3913,92 +4913,104 @@
     <row r="91">
       <c r="A91" s="1" t="inlineStr">
         <is>
-          <t>84142b31-b7a8-4b71-be68-4ac9aaa8af51</t>
+          <t>8ac38579-2d1a-4416-941c-111c37fc94d6</t>
         </is>
       </c>
       <c r="B91" s="2" t="n">
-        <v>44864</v>
-      </c>
-      <c r="C91" s="2" t="n">
-        <v>44867</v>
-      </c>
+        <v>44933</v>
+      </c>
+      <c r="C91" t="inlineStr"/>
       <c r="D91" s="2" t="n">
         <v>44837</v>
       </c>
-      <c r="E91" s="2" t="n">
-        <v>44838</v>
-      </c>
+      <c r="E91" t="inlineStr"/>
       <c r="F91" t="inlineStr">
         <is>
-          <t>FARMERS INS BILLING</t>
+          <t>Online Banking Transfer from XXXXXX4411on 10/02/2022 at 18:52</t>
         </is>
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>Bills &amp; Utilities</t>
+          <t>nan</t>
         </is>
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>Sale</t>
+          <t>nan</t>
         </is>
       </c>
       <c r="I91" t="n">
-        <v>-15</v>
+        <v>440</v>
       </c>
       <c r="J91" s="2" t="n">
-        <v>44864</v>
+        <v>44933</v>
       </c>
       <c r="K91" t="inlineStr">
         <is>
-          <t>Amazon</t>
+          <t>Mechanics</t>
         </is>
       </c>
       <c r="L91" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M91" t="inlineStr">
         <is>
-          <t>Insurance</t>
+          <t>nan</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="1" t="inlineStr">
         <is>
-          <t>8ac38579-2d1a-4416-941c-111c37fc94d6</t>
+          <t>84142b31-b7a8-4b71-be68-4ac9aaa8af51</t>
         </is>
       </c>
       <c r="B92" s="2" t="n">
-        <v>44933</v>
-      </c>
-      <c r="C92" t="inlineStr"/>
+        <v>44864</v>
+      </c>
+      <c r="C92" s="2" t="n">
+        <v>44867</v>
+      </c>
       <c r="D92" s="2" t="n">
         <v>44837</v>
       </c>
-      <c r="E92" t="inlineStr"/>
+      <c r="E92" s="2" t="n">
+        <v>44838</v>
+      </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>Online Banking Transfer from XXXXXX4411on 10/02/2022 at 18:52</t>
-        </is>
-      </c>
-      <c r="G92" t="inlineStr"/>
-      <c r="H92" t="inlineStr"/>
+          <t>FARMERS INS BILLING</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>Bills &amp; Utilities</t>
+        </is>
+      </c>
+      <c r="H92" t="inlineStr">
+        <is>
+          <t>Sale</t>
+        </is>
+      </c>
       <c r="I92" t="n">
-        <v>440</v>
+        <v>-15</v>
       </c>
       <c r="J92" s="2" t="n">
-        <v>44933</v>
+        <v>44864</v>
       </c>
       <c r="K92" t="inlineStr">
         <is>
-          <t>Mechanics</t>
+          <t>Amazon</t>
         </is>
       </c>
       <c r="L92" t="n">
-        <v>0</v>
-      </c>
-      <c r="M92" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="M92" t="inlineStr">
+        <is>
+          <t>Insurance</t>
+        </is>
+      </c>
     </row>
     <row r="93">
       <c r="A93" s="1" t="inlineStr">
@@ -4019,8 +5031,16 @@
           <t>APPLECARD GSBANK PAYMENT 2211736</t>
         </is>
       </c>
-      <c r="G93" t="inlineStr"/>
-      <c r="H93" t="inlineStr"/>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="H93" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
       <c r="I93" t="n">
         <v>-1.1</v>
       </c>
@@ -4035,7 +5055,11 @@
       <c r="L93" t="n">
         <v>0</v>
       </c>
-      <c r="M93" t="inlineStr"/>
+      <c r="M93" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
     </row>
     <row r="94">
       <c r="A94" s="1" t="inlineStr">
@@ -4109,8 +5133,16 @@
           <t>KBC Management, WEB PMTS 7ZTSH6</t>
         </is>
       </c>
-      <c r="G95" t="inlineStr"/>
-      <c r="H95" t="inlineStr"/>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="H95" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
       <c r="I95" t="n">
         <v>-1630</v>
       </c>
@@ -4125,12 +5157,16 @@
       <c r="L95" t="n">
         <v>0</v>
       </c>
-      <c r="M95" t="inlineStr"/>
+      <c r="M95" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
     </row>
     <row r="96">
       <c r="A96" s="1" t="inlineStr">
         <is>
-          <t>b3df6c89-d653-4d0b-9c33-4534b9ad4604</t>
+          <t>cf8b7d9a-7652-408f-873c-5904db944979</t>
         </is>
       </c>
       <c r="B96" s="2" t="n">
@@ -4161,7 +5197,7 @@
         </is>
       </c>
       <c r="I96" t="n">
-        <v>-11.8</v>
+        <v>-12.8</v>
       </c>
       <c r="J96" s="2" t="n">
         <v>44864</v>
@@ -4183,7 +5219,7 @@
     <row r="97">
       <c r="A97" s="1" t="inlineStr">
         <is>
-          <t>cf8b7d9a-7652-408f-873c-5904db944979</t>
+          <t>b3df6c89-d653-4d0b-9c33-4534b9ad4604</t>
         </is>
       </c>
       <c r="B97" s="2" t="n">
@@ -4214,7 +5250,7 @@
         </is>
       </c>
       <c r="I97" t="n">
-        <v>-12.8</v>
+        <v>-11.8</v>
       </c>
       <c r="J97" s="2" t="n">
         <v>44864</v>
@@ -4543,12 +5579,16 @@
       <c r="L103" t="n">
         <v>0</v>
       </c>
-      <c r="M103" t="inlineStr"/>
+      <c r="M103" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
     </row>
     <row r="104">
       <c r="A104" s="1" t="inlineStr">
         <is>
-          <t>805c94dd-684e-49e2-91cb-f137d70fe06a</t>
+          <t>79685b7d-5061-488a-88ea-b2204dac9397</t>
         </is>
       </c>
       <c r="B104" s="2" t="n">
@@ -4565,7 +5605,7 @@
       </c>
       <c r="F104" t="inlineStr">
         <is>
-          <t>PAYMASTER LOUNGE</t>
+          <t>SQ *BARISTA</t>
         </is>
       </c>
       <c r="G104" t="inlineStr">
@@ -4579,7 +5619,7 @@
         </is>
       </c>
       <c r="I104" t="n">
-        <v>-19.5</v>
+        <v>-16.39</v>
       </c>
       <c r="J104" s="2" t="n">
         <v>44864</v>
@@ -4594,14 +5634,14 @@
       </c>
       <c r="M104" t="inlineStr">
         <is>
-          <t>Eating Out</t>
+          <t>Coffee</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="1" t="inlineStr">
         <is>
-          <t>79685b7d-5061-488a-88ea-b2204dac9397</t>
+          <t>805c94dd-684e-49e2-91cb-f137d70fe06a</t>
         </is>
       </c>
       <c r="B105" s="2" t="n">
@@ -4618,7 +5658,7 @@
       </c>
       <c r="F105" t="inlineStr">
         <is>
-          <t>SQ *BARISTA</t>
+          <t>PAYMASTER LOUNGE</t>
         </is>
       </c>
       <c r="G105" t="inlineStr">
@@ -4632,7 +5672,7 @@
         </is>
       </c>
       <c r="I105" t="n">
-        <v>-16.39</v>
+        <v>-19.5</v>
       </c>
       <c r="J105" s="2" t="n">
         <v>44864</v>
@@ -4647,14 +5687,14 @@
       </c>
       <c r="M105" t="inlineStr">
         <is>
-          <t>Coffee</t>
+          <t>Eating Out</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="1" t="inlineStr">
         <is>
-          <t>f12dd157-b97b-4a40-8898-183018ad79d4</t>
+          <t>47bc0488-24a2-4e3b-bbce-52ec77182973</t>
         </is>
       </c>
       <c r="B106" s="2" t="n">
@@ -4671,12 +5711,12 @@
       </c>
       <c r="F106" t="inlineStr">
         <is>
-          <t>TRADER JOE'S #146  QPS</t>
+          <t>PAYMASTER LOUNGE</t>
         </is>
       </c>
       <c r="G106" t="inlineStr">
         <is>
-          <t>Groceries</t>
+          <t>Food &amp; Drink</t>
         </is>
       </c>
       <c r="H106" t="inlineStr">
@@ -4685,7 +5725,7 @@
         </is>
       </c>
       <c r="I106" t="n">
-        <v>-35.19</v>
+        <v>-20</v>
       </c>
       <c r="J106" s="2" t="n">
         <v>44864</v>
@@ -4700,14 +5740,14 @@
       </c>
       <c r="M106" t="inlineStr">
         <is>
-          <t>Groceries</t>
+          <t>Eating Out</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="1" t="inlineStr">
         <is>
-          <t>47bc0488-24a2-4e3b-bbce-52ec77182973</t>
+          <t>f12dd157-b97b-4a40-8898-183018ad79d4</t>
         </is>
       </c>
       <c r="B107" s="2" t="n">
@@ -4724,12 +5764,12 @@
       </c>
       <c r="F107" t="inlineStr">
         <is>
-          <t>PAYMASTER LOUNGE</t>
+          <t>TRADER JOE'S #146  QPS</t>
         </is>
       </c>
       <c r="G107" t="inlineStr">
         <is>
-          <t>Food &amp; Drink</t>
+          <t>Groceries</t>
         </is>
       </c>
       <c r="H107" t="inlineStr">
@@ -4738,7 +5778,7 @@
         </is>
       </c>
       <c r="I107" t="n">
-        <v>-20</v>
+        <v>-35.19</v>
       </c>
       <c r="J107" s="2" t="n">
         <v>44864</v>
@@ -4753,7 +5793,7 @@
       </c>
       <c r="M107" t="inlineStr">
         <is>
-          <t>Eating Out</t>
+          <t>Groceries</t>
         </is>
       </c>
     </row>
@@ -4802,7 +5842,11 @@
       <c r="L108" t="n">
         <v>0</v>
       </c>
-      <c r="M108" t="inlineStr"/>
+      <c r="M108" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
     </row>
     <row r="109">
       <c r="A109" s="1" t="inlineStr">
@@ -5141,8 +6185,16 @@
           <t>WELLS FARGO IFI DDA TO DDA F20GKWFW5B</t>
         </is>
       </c>
-      <c r="G115" t="inlineStr"/>
-      <c r="H115" t="inlineStr"/>
+      <c r="G115" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="H115" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
       <c r="I115" t="n">
         <v>756.71</v>
       </c>
@@ -5157,7 +6209,11 @@
       <c r="L115" t="n">
         <v>0</v>
       </c>
-      <c r="M115" t="inlineStr"/>
+      <c r="M115" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
     </row>
     <row r="116">
       <c r="A116" s="1" t="inlineStr">
@@ -5274,7 +6330,9 @@
       <c r="B118" s="2" t="n">
         <v>44933</v>
       </c>
-      <c r="C118" t="inlineStr"/>
+      <c r="C118" s="2" t="n">
+        <v>44941</v>
+      </c>
       <c r="D118" s="2" t="n">
         <v>44848</v>
       </c>
@@ -5284,8 +6342,16 @@
           <t>TOYOTA MOTOR SAL PAYROLL 568349-TMN</t>
         </is>
       </c>
-      <c r="G118" t="inlineStr"/>
-      <c r="H118" t="inlineStr"/>
+      <c r="G118" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="H118" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
       <c r="I118" t="n">
         <v>1743.83</v>
       </c>
@@ -5298,9 +6364,13 @@
         </is>
       </c>
       <c r="L118" t="n">
-        <v>0</v>
-      </c>
-      <c r="M118" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="M118" t="inlineStr">
+        <is>
+          <t>Income</t>
+        </is>
+      </c>
     </row>
     <row r="119">
       <c r="A119" s="1" t="inlineStr">
@@ -5517,7 +6587,7 @@
     <row r="123">
       <c r="A123" s="1" t="inlineStr">
         <is>
-          <t>ee33223c-4b85-4c8d-b7d2-93ccf0245fd8</t>
+          <t>95c20de1-cf1c-436f-9371-d865958c734a</t>
         </is>
       </c>
       <c r="B123" s="2" t="n">
@@ -5534,12 +6604,12 @@
       </c>
       <c r="F123" t="inlineStr">
         <is>
-          <t>PEARL HARDWARE</t>
+          <t>SQ *THE POUR HOUSE  LLC</t>
         </is>
       </c>
       <c r="G123" t="inlineStr">
         <is>
-          <t>Home</t>
+          <t>Food &amp; Drink</t>
         </is>
       </c>
       <c r="H123" t="inlineStr">
@@ -5548,14 +6618,14 @@
         </is>
       </c>
       <c r="I123" t="n">
-        <v>-3.99</v>
+        <v>-9</v>
       </c>
       <c r="J123" s="2" t="n">
         <v>44864</v>
       </c>
       <c r="K123" t="inlineStr">
         <is>
-          <t>Amazon</t>
+          <t>Sapphire</t>
         </is>
       </c>
       <c r="L123" t="n">
@@ -5563,7 +6633,7 @@
       </c>
       <c r="M123" t="inlineStr">
         <is>
-          <t>Home</t>
+          <t>Eating Out</t>
         </is>
       </c>
     </row>
@@ -5623,7 +6693,7 @@
     <row r="125">
       <c r="A125" s="1" t="inlineStr">
         <is>
-          <t>b1dbb5c1-d563-4eaf-8057-6e4fe7f103b7</t>
+          <t>7ac60ca4-698c-4a9d-a7d7-aabd46f0b73c</t>
         </is>
       </c>
       <c r="B125" s="2" t="n">
@@ -5640,12 +6710,12 @@
       </c>
       <c r="F125" t="inlineStr">
         <is>
-          <t>STEAMGAMES.COM 4259522985</t>
+          <t>PEARL HARDWARE</t>
         </is>
       </c>
       <c r="G125" t="inlineStr">
         <is>
-          <t>Entertainment</t>
+          <t>Home</t>
         </is>
       </c>
       <c r="H125" t="inlineStr">
@@ -5654,7 +6724,7 @@
         </is>
       </c>
       <c r="I125" t="n">
-        <v>-14.99</v>
+        <v>-28.98</v>
       </c>
       <c r="J125" s="2" t="n">
         <v>44864</v>
@@ -5669,14 +6739,14 @@
       </c>
       <c r="M125" t="inlineStr">
         <is>
-          <t>Entertainment</t>
+          <t>Home</t>
         </is>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="1" t="inlineStr">
         <is>
-          <t>7ac60ca4-698c-4a9d-a7d7-aabd46f0b73c</t>
+          <t>9790ae45-f819-493d-bae2-4f536483e28f</t>
         </is>
       </c>
       <c r="B126" s="2" t="n">
@@ -5693,12 +6763,12 @@
       </c>
       <c r="F126" t="inlineStr">
         <is>
-          <t>PEARL HARDWARE</t>
+          <t>SP SAINT JAVELIN</t>
         </is>
       </c>
       <c r="G126" t="inlineStr">
         <is>
-          <t>Home</t>
+          <t>Shopping</t>
         </is>
       </c>
       <c r="H126" t="inlineStr">
@@ -5707,7 +6777,7 @@
         </is>
       </c>
       <c r="I126" t="n">
-        <v>-28.98</v>
+        <v>-116</v>
       </c>
       <c r="J126" s="2" t="n">
         <v>44864</v>
@@ -5722,7 +6792,7 @@
       </c>
       <c r="M126" t="inlineStr">
         <is>
-          <t>Home</t>
+          <t>Donation</t>
         </is>
       </c>
     </row>
@@ -5782,7 +6852,7 @@
     <row r="128">
       <c r="A128" s="1" t="inlineStr">
         <is>
-          <t>9790ae45-f819-493d-bae2-4f536483e28f</t>
+          <t>ee33223c-4b85-4c8d-b7d2-93ccf0245fd8</t>
         </is>
       </c>
       <c r="B128" s="2" t="n">
@@ -5799,12 +6869,12 @@
       </c>
       <c r="F128" t="inlineStr">
         <is>
-          <t>SP SAINT JAVELIN</t>
+          <t>PEARL HARDWARE</t>
         </is>
       </c>
       <c r="G128" t="inlineStr">
         <is>
-          <t>Shopping</t>
+          <t>Home</t>
         </is>
       </c>
       <c r="H128" t="inlineStr">
@@ -5813,7 +6883,7 @@
         </is>
       </c>
       <c r="I128" t="n">
-        <v>-116</v>
+        <v>-3.99</v>
       </c>
       <c r="J128" s="2" t="n">
         <v>44864</v>
@@ -5828,14 +6898,14 @@
       </c>
       <c r="M128" t="inlineStr">
         <is>
-          <t>Donation</t>
+          <t>Home</t>
         </is>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="1" t="inlineStr">
         <is>
-          <t>95c20de1-cf1c-436f-9371-d865958c734a</t>
+          <t>b1dbb5c1-d563-4eaf-8057-6e4fe7f103b7</t>
         </is>
       </c>
       <c r="B129" s="2" t="n">
@@ -5852,12 +6922,12 @@
       </c>
       <c r="F129" t="inlineStr">
         <is>
-          <t>SQ *THE POUR HOUSE  LLC</t>
+          <t>STEAMGAMES.COM 4259522985</t>
         </is>
       </c>
       <c r="G129" t="inlineStr">
         <is>
-          <t>Food &amp; Drink</t>
+          <t>Entertainment</t>
         </is>
       </c>
       <c r="H129" t="inlineStr">
@@ -5866,14 +6936,14 @@
         </is>
       </c>
       <c r="I129" t="n">
-        <v>-9</v>
+        <v>-14.99</v>
       </c>
       <c r="J129" s="2" t="n">
         <v>44864</v>
       </c>
       <c r="K129" t="inlineStr">
         <is>
-          <t>Sapphire</t>
+          <t>Amazon</t>
         </is>
       </c>
       <c r="L129" t="n">
@@ -5881,7 +6951,7 @@
       </c>
       <c r="M129" t="inlineStr">
         <is>
-          <t>Eating Out</t>
+          <t>Entertainment</t>
         </is>
       </c>
     </row>
@@ -5904,8 +6974,16 @@
           <t>VENMO PAYMENT 1022930215113</t>
         </is>
       </c>
-      <c r="G130" t="inlineStr"/>
-      <c r="H130" t="inlineStr"/>
+      <c r="G130" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="H130" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
       <c r="I130" t="n">
         <v>-57</v>
       </c>
@@ -5920,7 +6998,11 @@
       <c r="L130" t="n">
         <v>0</v>
       </c>
-      <c r="M130" t="inlineStr"/>
+      <c r="M130" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
     </row>
     <row r="131">
       <c r="A131" s="1" t="inlineStr">
@@ -5943,7 +7025,11 @@
           <t>AUTOMATIC PAYMENT - THANK</t>
         </is>
       </c>
-      <c r="G131" t="inlineStr"/>
+      <c r="G131" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
       <c r="H131" t="inlineStr">
         <is>
           <t>Payment</t>
@@ -5963,7 +7049,11 @@
       <c r="L131" t="n">
         <v>0</v>
       </c>
-      <c r="M131" t="inlineStr"/>
+      <c r="M131" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
     </row>
     <row r="132">
       <c r="A132" s="1" t="inlineStr">
@@ -5984,8 +7074,16 @@
           <t>VENMO PAYMENT 1022930212980</t>
         </is>
       </c>
-      <c r="G132" t="inlineStr"/>
-      <c r="H132" t="inlineStr"/>
+      <c r="G132" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="H132" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
       <c r="I132" t="n">
         <v>-79.5</v>
       </c>
@@ -6000,7 +7098,11 @@
       <c r="L132" t="n">
         <v>0</v>
       </c>
-      <c r="M132" t="inlineStr"/>
+      <c r="M132" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
     </row>
     <row r="133">
       <c r="A133" s="1" t="inlineStr">
@@ -6074,8 +7176,16 @@
           <t>Barclays Bank De P2P Vega,William</t>
         </is>
       </c>
-      <c r="G134" t="inlineStr"/>
-      <c r="H134" t="inlineStr"/>
+      <c r="G134" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="H134" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
       <c r="I134" t="n">
         <v>372.14</v>
       </c>
@@ -6090,7 +7200,11 @@
       <c r="L134" t="n">
         <v>0</v>
       </c>
-      <c r="M134" t="inlineStr"/>
+      <c r="M134" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
     </row>
     <row r="135">
       <c r="A135" s="1" t="inlineStr">
@@ -6164,8 +7278,16 @@
           <t>CHASE CREDIT CRD AUTOPAY 000000000279071</t>
         </is>
       </c>
-      <c r="G136" t="inlineStr"/>
-      <c r="H136" t="inlineStr"/>
+      <c r="G136" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="H136" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
       <c r="I136" t="n">
         <v>-973.08</v>
       </c>
@@ -6180,7 +7302,11 @@
       <c r="L136" t="n">
         <v>0</v>
       </c>
-      <c r="M136" t="inlineStr"/>
+      <c r="M136" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
     </row>
     <row r="137">
       <c r="A137" s="1" t="inlineStr">
@@ -6201,8 +7327,16 @@
           <t>US TREASURY IRS PAYMENT 0350</t>
         </is>
       </c>
-      <c r="G137" t="inlineStr"/>
-      <c r="H137" t="inlineStr"/>
+      <c r="G137" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="H137" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
       <c r="I137" t="n">
         <v>-88.39</v>
       </c>
@@ -6217,7 +7351,11 @@
       <c r="L137" t="n">
         <v>0</v>
       </c>
-      <c r="M137" t="inlineStr"/>
+      <c r="M137" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
     </row>
     <row r="138">
       <c r="A138" s="1" t="inlineStr">
@@ -6238,8 +7376,16 @@
           <t>Check</t>
         </is>
       </c>
-      <c r="G138" t="inlineStr"/>
-      <c r="H138" t="inlineStr"/>
+      <c r="G138" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="H138" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
       <c r="I138" t="n">
         <v>-168</v>
       </c>
@@ -6254,7 +7400,11 @@
       <c r="L138" t="n">
         <v>0</v>
       </c>
-      <c r="M138" t="inlineStr"/>
+      <c r="M138" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
     </row>
     <row r="139">
       <c r="A139" s="1" t="inlineStr">
@@ -7441,8 +8591,16 @@
           <t>WELLS FARGO IFI DDA TO DDA F20GQJDBW4</t>
         </is>
       </c>
-      <c r="G161" t="inlineStr"/>
-      <c r="H161" t="inlineStr"/>
+      <c r="G161" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="H161" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
       <c r="I161" t="n">
         <v>-20</v>
       </c>
@@ -7457,7 +8615,11 @@
       <c r="L161" t="n">
         <v>0</v>
       </c>
-      <c r="M161" t="inlineStr"/>
+      <c r="M161" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
     </row>
     <row r="162">
       <c r="A162" s="1" t="inlineStr">
@@ -7533,7 +8695,11 @@
           <t>AUTOMATIC PAYMENT - THANK</t>
         </is>
       </c>
-      <c r="G163" t="inlineStr"/>
+      <c r="G163" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
       <c r="H163" t="inlineStr">
         <is>
           <t>Payment</t>
@@ -7553,7 +8719,11 @@
       <c r="L163" t="n">
         <v>0</v>
       </c>
-      <c r="M163" t="inlineStr"/>
+      <c r="M163" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
     </row>
     <row r="164">
       <c r="A164" s="1" t="inlineStr">
@@ -7564,7 +8734,9 @@
       <c r="B164" s="2" t="n">
         <v>44878</v>
       </c>
-      <c r="C164" t="inlineStr"/>
+      <c r="C164" s="2" t="n">
+        <v>44941</v>
+      </c>
       <c r="D164" s="2" t="n">
         <v>44862</v>
       </c>
@@ -7574,8 +8746,16 @@
           <t>TOYOTA MOTOR SAL PAYROLL 568349-TMN</t>
         </is>
       </c>
-      <c r="G164" t="inlineStr"/>
-      <c r="H164" t="inlineStr"/>
+      <c r="G164" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="H164" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
       <c r="I164" t="n">
         <v>1642.9</v>
       </c>
@@ -7588,9 +8768,13 @@
         </is>
       </c>
       <c r="L164" t="n">
-        <v>0</v>
-      </c>
-      <c r="M164" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="M164" t="inlineStr">
+        <is>
+          <t>Income</t>
+        </is>
+      </c>
     </row>
     <row r="165">
       <c r="A165" s="1" t="inlineStr">
@@ -7807,7 +8991,7 @@
     <row r="169">
       <c r="A169" s="1" t="inlineStr">
         <is>
-          <t>0fac3f57-8939-4987-b935-cde4424b0445</t>
+          <t>aa3a8818-ae5b-4346-8075-0b0c712368c9</t>
         </is>
       </c>
       <c r="B169" s="2" t="n">
@@ -7824,12 +9008,12 @@
       </c>
       <c r="F169" t="inlineStr">
         <is>
-          <t>SQ *FREELAND SPIRITS</t>
+          <t>SQ *COAVA COFFEE ROASTERS</t>
         </is>
       </c>
       <c r="G169" t="inlineStr">
         <is>
-          <t>Groceries</t>
+          <t>Food &amp; Drink</t>
         </is>
       </c>
       <c r="H169" t="inlineStr">
@@ -7838,7 +9022,7 @@
         </is>
       </c>
       <c r="I169" t="n">
-        <v>-13.2</v>
+        <v>-11.75</v>
       </c>
       <c r="J169" s="2" t="n">
         <v>44868</v>
@@ -7853,36 +9037,36 @@
       </c>
       <c r="M169" t="inlineStr">
         <is>
-          <t>Eating Out</t>
+          <t>Coffee</t>
         </is>
       </c>
     </row>
     <row r="170">
       <c r="A170" s="1" t="inlineStr">
         <is>
-          <t>0d603c1f-ca00-4008-bfb4-9ccd52168886</t>
+          <t>cb21309b-0b24-4ccb-8d27-59fc1a9c5872</t>
         </is>
       </c>
       <c r="B170" s="2" t="n">
-        <v>44869</v>
+        <v>44867</v>
       </c>
       <c r="C170" s="2" t="n">
-        <v>44869</v>
+        <v>44867</v>
       </c>
       <c r="D170" s="2" t="n">
         <v>44864</v>
       </c>
       <c r="E170" s="2" t="n">
-        <v>44866</v>
+        <v>44865</v>
       </c>
       <c r="F170" t="inlineStr">
         <is>
-          <t>23RD AVE BOTTLE SHOP</t>
+          <t>SQ *COAVA COFFEE ROASTERS</t>
         </is>
       </c>
       <c r="G170" t="inlineStr">
         <is>
-          <t>Shopping</t>
+          <t>Food &amp; Drink</t>
         </is>
       </c>
       <c r="H170" t="inlineStr">
@@ -7891,10 +9075,10 @@
         </is>
       </c>
       <c r="I170" t="n">
-        <v>-16.05</v>
+        <v>-4.5</v>
       </c>
       <c r="J170" s="2" t="n">
-        <v>44869</v>
+        <v>44868</v>
       </c>
       <c r="K170" t="inlineStr">
         <is>
@@ -7906,36 +9090,36 @@
       </c>
       <c r="M170" t="inlineStr">
         <is>
-          <t>Entertainment</t>
+          <t>Coffee</t>
         </is>
       </c>
     </row>
     <row r="171">
       <c r="A171" s="1" t="inlineStr">
         <is>
-          <t>cb21309b-0b24-4ccb-8d27-59fc1a9c5872</t>
+          <t>46c42086-e5d0-486f-84fb-54b12ad1ef87</t>
         </is>
       </c>
       <c r="B171" s="2" t="n">
-        <v>44867</v>
+        <v>44876</v>
       </c>
       <c r="C171" s="2" t="n">
-        <v>44867</v>
+        <v>44877</v>
       </c>
       <c r="D171" s="2" t="n">
         <v>44864</v>
       </c>
       <c r="E171" s="2" t="n">
-        <v>44865</v>
+        <v>44866</v>
       </c>
       <c r="F171" t="inlineStr">
         <is>
-          <t>SQ *COAVA COFFEE ROASTERS</t>
+          <t>23RD AVE BOTTLE SHOP</t>
         </is>
       </c>
       <c r="G171" t="inlineStr">
         <is>
-          <t>Food &amp; Drink</t>
+          <t>Shopping</t>
         </is>
       </c>
       <c r="H171" t="inlineStr">
@@ -7944,14 +9128,14 @@
         </is>
       </c>
       <c r="I171" t="n">
-        <v>-4.5</v>
+        <v>-16.05</v>
       </c>
       <c r="J171" s="2" t="n">
-        <v>44868</v>
+        <v>44876</v>
       </c>
       <c r="K171" t="inlineStr">
         <is>
-          <t>Sapphire</t>
+          <t>Amazon</t>
         </is>
       </c>
       <c r="L171" t="n">
@@ -7959,36 +9143,36 @@
       </c>
       <c r="M171" t="inlineStr">
         <is>
-          <t>Coffee</t>
+          <t>Entertainment</t>
         </is>
       </c>
     </row>
     <row r="172">
       <c r="A172" s="1" t="inlineStr">
         <is>
-          <t>46c42086-e5d0-486f-84fb-54b12ad1ef87</t>
+          <t>0fac3f57-8939-4987-b935-cde4424b0445</t>
         </is>
       </c>
       <c r="B172" s="2" t="n">
-        <v>44876</v>
+        <v>44867</v>
       </c>
       <c r="C172" s="2" t="n">
-        <v>44877</v>
+        <v>44867</v>
       </c>
       <c r="D172" s="2" t="n">
         <v>44864</v>
       </c>
       <c r="E172" s="2" t="n">
-        <v>44866</v>
+        <v>44865</v>
       </c>
       <c r="F172" t="inlineStr">
         <is>
-          <t>23RD AVE BOTTLE SHOP</t>
+          <t>SQ *FREELAND SPIRITS</t>
         </is>
       </c>
       <c r="G172" t="inlineStr">
         <is>
-          <t>Shopping</t>
+          <t>Groceries</t>
         </is>
       </c>
       <c r="H172" t="inlineStr">
@@ -7997,14 +9181,14 @@
         </is>
       </c>
       <c r="I172" t="n">
-        <v>-16.05</v>
+        <v>-13.2</v>
       </c>
       <c r="J172" s="2" t="n">
-        <v>44876</v>
+        <v>44868</v>
       </c>
       <c r="K172" t="inlineStr">
         <is>
-          <t>Amazon</t>
+          <t>Sapphire</t>
         </is>
       </c>
       <c r="L172" t="n">
@@ -8012,36 +9196,36 @@
       </c>
       <c r="M172" t="inlineStr">
         <is>
-          <t>Entertainment</t>
+          <t>Eating Out</t>
         </is>
       </c>
     </row>
     <row r="173">
       <c r="A173" s="1" t="inlineStr">
         <is>
-          <t>aa3a8818-ae5b-4346-8075-0b0c712368c9</t>
+          <t>0d603c1f-ca00-4008-bfb4-9ccd52168886</t>
         </is>
       </c>
       <c r="B173" s="2" t="n">
-        <v>44867</v>
+        <v>44869</v>
       </c>
       <c r="C173" s="2" t="n">
-        <v>44867</v>
+        <v>44869</v>
       </c>
       <c r="D173" s="2" t="n">
         <v>44864</v>
       </c>
       <c r="E173" s="2" t="n">
-        <v>44865</v>
+        <v>44866</v>
       </c>
       <c r="F173" t="inlineStr">
         <is>
-          <t>SQ *COAVA COFFEE ROASTERS</t>
+          <t>23RD AVE BOTTLE SHOP</t>
         </is>
       </c>
       <c r="G173" t="inlineStr">
         <is>
-          <t>Food &amp; Drink</t>
+          <t>Shopping</t>
         </is>
       </c>
       <c r="H173" t="inlineStr">
@@ -8050,10 +9234,10 @@
         </is>
       </c>
       <c r="I173" t="n">
-        <v>-11.75</v>
+        <v>-16.05</v>
       </c>
       <c r="J173" s="2" t="n">
-        <v>44868</v>
+        <v>44869</v>
       </c>
       <c r="K173" t="inlineStr">
         <is>
@@ -8065,7 +9249,7 @@
       </c>
       <c r="M173" t="inlineStr">
         <is>
-          <t>Coffee</t>
+          <t>Entertainment</t>
         </is>
       </c>
     </row>
@@ -8141,8 +9325,16 @@
           <t>CHASE CREDIT CRD AUTOPAY 000000000481963</t>
         </is>
       </c>
-      <c r="G175" t="inlineStr"/>
-      <c r="H175" t="inlineStr"/>
+      <c r="G175" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="H175" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
       <c r="I175" t="n">
         <v>-1413.56</v>
       </c>
@@ -8157,7 +9349,11 @@
       <c r="L175" t="n">
         <v>0</v>
       </c>
-      <c r="M175" t="inlineStr"/>
+      <c r="M175" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
     </row>
     <row r="176">
       <c r="A176" s="1" t="inlineStr">
@@ -8233,8 +9429,16 @@
           <t>APPLECARD GSBANK PAYMENT 2211736</t>
         </is>
       </c>
-      <c r="G177" t="inlineStr"/>
-      <c r="H177" t="inlineStr"/>
+      <c r="G177" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="H177" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
       <c r="I177" t="n">
         <v>-6.11</v>
       </c>
@@ -8382,8 +9586,16 @@
           <t>KBC Management, WEB PMTS N403N6</t>
         </is>
       </c>
-      <c r="G180" t="inlineStr"/>
-      <c r="H180" t="inlineStr"/>
+      <c r="G180" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="H180" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
       <c r="I180" t="n">
         <v>-1630</v>
       </c>
@@ -9138,7 +10350,11 @@
       <c r="L194" t="n">
         <v>0</v>
       </c>
-      <c r="M194" t="inlineStr"/>
+      <c r="M194" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
     </row>
     <row r="195">
       <c r="A195" s="1" t="inlineStr">
@@ -9320,8 +10536,16 @@
           <t>TOYOTA MOTOR SAL PAYROLL 568349-TMN</t>
         </is>
       </c>
-      <c r="G198" t="inlineStr"/>
-      <c r="H198" t="inlineStr"/>
+      <c r="G198" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="H198" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
       <c r="I198" t="n">
         <v>100</v>
       </c>
@@ -9363,8 +10587,16 @@
           <t>TOYOTA MOTOR SAL PAYROLL 568349-TMN</t>
         </is>
       </c>
-      <c r="G199" t="inlineStr"/>
-      <c r="H199" t="inlineStr"/>
+      <c r="G199" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="H199" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
       <c r="I199" t="n">
         <v>1642.91</v>
       </c>
@@ -9706,7 +10938,7 @@
     <row r="206">
       <c r="A206" s="1" t="inlineStr">
         <is>
-          <t>ce396274-1808-4009-993e-2b6b623e4644</t>
+          <t>d72f01d1-164e-4206-8e6f-6104ae088695</t>
         </is>
       </c>
       <c r="B206" s="2" t="n">
@@ -9719,11 +10951,11 @@
         <v>44878</v>
       </c>
       <c r="E206" s="2" t="n">
-        <v>44880</v>
+        <v>44879</v>
       </c>
       <c r="F206" t="inlineStr">
         <is>
-          <t>TST* The Fireside</t>
+          <t>SQ *UPPER LEFT ROASTERS</t>
         </is>
       </c>
       <c r="G206" t="inlineStr">
@@ -9737,7 +10969,7 @@
         </is>
       </c>
       <c r="I206" t="n">
-        <v>-30</v>
+        <v>-6.5</v>
       </c>
       <c r="J206" s="2" t="n">
         <v>44889</v>
@@ -9752,14 +10984,14 @@
       </c>
       <c r="M206" t="inlineStr">
         <is>
-          <t>Eating Out</t>
+          <t>Coffee</t>
         </is>
       </c>
     </row>
     <row r="207">
       <c r="A207" s="1" t="inlineStr">
         <is>
-          <t>15e1126b-78d4-4dc1-8cd0-8e4195a5dc15</t>
+          <t>ce396274-1808-4009-993e-2b6b623e4644</t>
         </is>
       </c>
       <c r="B207" s="2" t="n">
@@ -9772,11 +11004,11 @@
         <v>44878</v>
       </c>
       <c r="E207" s="2" t="n">
-        <v>44879</v>
+        <v>44880</v>
       </c>
       <c r="F207" t="inlineStr">
         <is>
-          <t>SAINT HONORE BOULANGERIE</t>
+          <t>TST* The Fireside</t>
         </is>
       </c>
       <c r="G207" t="inlineStr">
@@ -9790,7 +11022,7 @@
         </is>
       </c>
       <c r="I207" t="n">
-        <v>-20.6</v>
+        <v>-30</v>
       </c>
       <c r="J207" s="2" t="n">
         <v>44889</v>
@@ -9805,7 +11037,7 @@
       </c>
       <c r="M207" t="inlineStr">
         <is>
-          <t>Coffee</t>
+          <t>Eating Out</t>
         </is>
       </c>
     </row>
@@ -9918,7 +11150,7 @@
     <row r="210">
       <c r="A210" s="1" t="inlineStr">
         <is>
-          <t>d72f01d1-164e-4206-8e6f-6104ae088695</t>
+          <t>15e1126b-78d4-4dc1-8cd0-8e4195a5dc15</t>
         </is>
       </c>
       <c r="B210" s="2" t="n">
@@ -9935,7 +11167,7 @@
       </c>
       <c r="F210" t="inlineStr">
         <is>
-          <t>SQ *UPPER LEFT ROASTERS</t>
+          <t>SAINT HONORE BOULANGERIE</t>
         </is>
       </c>
       <c r="G210" t="inlineStr">
@@ -9949,7 +11181,7 @@
         </is>
       </c>
       <c r="I210" t="n">
-        <v>-6.5</v>
+        <v>-20.6</v>
       </c>
       <c r="J210" s="2" t="n">
         <v>44889</v>
@@ -10130,32 +11362,38 @@
     <row r="214">
       <c r="A214" s="1" t="inlineStr">
         <is>
-          <t>f9c10f76-25de-4394-bcb6-d9d5e8d5b157</t>
+          <t>b9d4b907-230a-4f37-8877-744752709663</t>
         </is>
       </c>
       <c r="B214" s="2" t="n">
         <v>44889</v>
       </c>
-      <c r="C214" t="inlineStr"/>
+      <c r="C214" s="2" t="n">
+        <v>44889</v>
+      </c>
       <c r="D214" s="2" t="n">
         <v>44882</v>
       </c>
       <c r="E214" s="2" t="n">
-        <v>44882</v>
+        <v>44883</v>
       </c>
       <c r="F214" t="inlineStr">
         <is>
-          <t>AUTOMATIC PAYMENT - THANK</t>
-        </is>
-      </c>
-      <c r="G214" t="inlineStr"/>
+          <t>7-ELEVEN 38495</t>
+        </is>
+      </c>
+      <c r="G214" t="inlineStr">
+        <is>
+          <t>Gas</t>
+        </is>
+      </c>
       <c r="H214" t="inlineStr">
         <is>
-          <t>Payment</t>
+          <t>Sale</t>
         </is>
       </c>
       <c r="I214" t="n">
-        <v>783.77</v>
+        <v>-9.470000000000001</v>
       </c>
       <c r="J214" s="2" t="n">
         <v>44889</v>
@@ -10166,14 +11404,18 @@
         </is>
       </c>
       <c r="L214" t="n">
-        <v>0</v>
-      </c>
-      <c r="M214" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="M214" t="inlineStr">
+        <is>
+          <t>Donation</t>
+        </is>
+      </c>
     </row>
     <row r="215">
       <c r="A215" s="1" t="inlineStr">
         <is>
-          <t>b9d4b907-230a-4f37-8877-744752709663</t>
+          <t>a2e5b6ff-605b-474d-958f-93d61cc7f1e8</t>
         </is>
       </c>
       <c r="B215" s="2" t="n">
@@ -10190,12 +11432,12 @@
       </c>
       <c r="F215" t="inlineStr">
         <is>
-          <t>7-ELEVEN 38495</t>
+          <t>SQ *ALOUETTE</t>
         </is>
       </c>
       <c r="G215" t="inlineStr">
         <is>
-          <t>Gas</t>
+          <t>Food &amp; Drink</t>
         </is>
       </c>
       <c r="H215" t="inlineStr">
@@ -10204,7 +11446,7 @@
         </is>
       </c>
       <c r="I215" t="n">
-        <v>-9.470000000000001</v>
+        <v>-36</v>
       </c>
       <c r="J215" s="2" t="n">
         <v>44889</v>
@@ -10219,14 +11461,14 @@
       </c>
       <c r="M215" t="inlineStr">
         <is>
-          <t>Donation</t>
+          <t>Coffee</t>
         </is>
       </c>
     </row>
     <row r="216">
       <c r="A216" s="1" t="inlineStr">
         <is>
-          <t>a2e5b6ff-605b-474d-958f-93d61cc7f1e8</t>
+          <t>0f058ef5-d1a1-4663-aefb-5d382d0d3fa6</t>
         </is>
       </c>
       <c r="B216" s="2" t="n">
@@ -10239,16 +11481,16 @@
         <v>44882</v>
       </c>
       <c r="E216" s="2" t="n">
-        <v>44883</v>
+        <v>44885</v>
       </c>
       <c r="F216" t="inlineStr">
         <is>
-          <t>SQ *ALOUETTE</t>
+          <t>CITY OF PORTLAND DEPT</t>
         </is>
       </c>
       <c r="G216" t="inlineStr">
         <is>
-          <t>Food &amp; Drink</t>
+          <t>Travel</t>
         </is>
       </c>
       <c r="H216" t="inlineStr">
@@ -10257,7 +11499,7 @@
         </is>
       </c>
       <c r="I216" t="n">
-        <v>-36</v>
+        <v>-2.6</v>
       </c>
       <c r="J216" s="2" t="n">
         <v>44889</v>
@@ -10272,14 +11514,14 @@
       </c>
       <c r="M216" t="inlineStr">
         <is>
-          <t>Coffee</t>
+          <t>Parking</t>
         </is>
       </c>
     </row>
     <row r="217">
       <c r="A217" s="1" t="inlineStr">
         <is>
-          <t>0f058ef5-d1a1-4663-aefb-5d382d0d3fa6</t>
+          <t>0082cd9e-9fb6-4fab-a365-1e34b8e23081</t>
         </is>
       </c>
       <c r="B217" s="2" t="n">
@@ -10292,16 +11534,16 @@
         <v>44882</v>
       </c>
       <c r="E217" s="2" t="n">
-        <v>44885</v>
+        <v>44883</v>
       </c>
       <c r="F217" t="inlineStr">
         <is>
-          <t>CITY OF PORTLAND DEPT</t>
+          <t>TST* Afuri Ramen &amp;amp; Dumpli</t>
         </is>
       </c>
       <c r="G217" t="inlineStr">
         <is>
-          <t>Travel</t>
+          <t>Food &amp; Drink</t>
         </is>
       </c>
       <c r="H217" t="inlineStr">
@@ -10310,7 +11552,7 @@
         </is>
       </c>
       <c r="I217" t="n">
-        <v>-2.6</v>
+        <v>-55.2</v>
       </c>
       <c r="J217" s="2" t="n">
         <v>44889</v>
@@ -10325,45 +11567,43 @@
       </c>
       <c r="M217" t="inlineStr">
         <is>
-          <t>Parking</t>
+          <t>Eating Out</t>
         </is>
       </c>
     </row>
     <row r="218">
       <c r="A218" s="1" t="inlineStr">
         <is>
-          <t>0082cd9e-9fb6-4fab-a365-1e34b8e23081</t>
+          <t>f9c10f76-25de-4394-bcb6-d9d5e8d5b157</t>
         </is>
       </c>
       <c r="B218" s="2" t="n">
         <v>44889</v>
       </c>
-      <c r="C218" s="2" t="n">
-        <v>44889</v>
-      </c>
+      <c r="C218" t="inlineStr"/>
       <c r="D218" s="2" t="n">
         <v>44882</v>
       </c>
       <c r="E218" s="2" t="n">
-        <v>44883</v>
+        <v>44882</v>
       </c>
       <c r="F218" t="inlineStr">
         <is>
-          <t>TST* Afuri Ramen &amp;amp; Dumpli</t>
+          <t>AUTOMATIC PAYMENT - THANK</t>
         </is>
       </c>
       <c r="G218" t="inlineStr">
         <is>
-          <t>Food &amp; Drink</t>
+          <t>nan</t>
         </is>
       </c>
       <c r="H218" t="inlineStr">
         <is>
-          <t>Sale</t>
+          <t>Payment</t>
         </is>
       </c>
       <c r="I218" t="n">
-        <v>-55.2</v>
+        <v>783.77</v>
       </c>
       <c r="J218" s="2" t="n">
         <v>44889</v>
@@ -10374,11 +11614,11 @@
         </is>
       </c>
       <c r="L218" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M218" t="inlineStr">
         <is>
-          <t>Eating Out</t>
+          <t>nan</t>
         </is>
       </c>
     </row>
@@ -10401,8 +11641,16 @@
           <t>CHASE CREDIT CRD AUTOPAY 000000000283875</t>
         </is>
       </c>
-      <c r="G219" t="inlineStr"/>
-      <c r="H219" t="inlineStr"/>
+      <c r="G219" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="H219" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
       <c r="I219" t="n">
         <v>-783.77</v>
       </c>
@@ -10417,7 +11665,11 @@
       <c r="L219" t="n">
         <v>0</v>
       </c>
-      <c r="M219" t="inlineStr"/>
+      <c r="M219" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
     </row>
     <row r="220">
       <c r="A220" s="1" t="inlineStr">
@@ -10835,7 +12087,11 @@
       <c r="L227" t="n">
         <v>0</v>
       </c>
-      <c r="M227" t="inlineStr"/>
+      <c r="M227" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
     </row>
     <row r="228">
       <c r="A228" s="1" t="inlineStr">
@@ -10856,8 +12112,16 @@
           <t>Deposit</t>
         </is>
       </c>
-      <c r="G228" t="inlineStr"/>
-      <c r="H228" t="inlineStr"/>
+      <c r="G228" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="H228" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
       <c r="I228" t="n">
         <v>14</v>
       </c>
@@ -10872,12 +12136,16 @@
       <c r="L228" t="n">
         <v>0</v>
       </c>
-      <c r="M228" t="inlineStr"/>
+      <c r="M228" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
     </row>
     <row r="229">
       <c r="A229" s="1" t="inlineStr">
         <is>
-          <t>27630cda-ecb2-44f2-b55a-b658abfce960</t>
+          <t>201d0118-db8e-4448-b482-5711fccd5a2c</t>
         </is>
       </c>
       <c r="B229" s="2" t="n">
@@ -10890,11 +12158,11 @@
         <v>44889</v>
       </c>
       <c r="E229" s="2" t="n">
-        <v>44890</v>
+        <v>44892</v>
       </c>
       <c r="F229" t="inlineStr">
         <is>
-          <t>SQ *BARISTA</t>
+          <t>SAINT HONORE BOULANGERIE</t>
         </is>
       </c>
       <c r="G229" t="inlineStr">
@@ -10908,7 +12176,7 @@
         </is>
       </c>
       <c r="I229" t="n">
-        <v>-12.65</v>
+        <v>-8.949999999999999</v>
       </c>
       <c r="J229" s="2" t="n">
         <v>44894</v>
@@ -10930,7 +12198,7 @@
     <row r="230">
       <c r="A230" s="1" t="inlineStr">
         <is>
-          <t>56b6ce68-d2b2-4da1-b6e0-43948444c1a8</t>
+          <t>27630cda-ecb2-44f2-b55a-b658abfce960</t>
         </is>
       </c>
       <c r="B230" s="2" t="n">
@@ -10947,7 +12215,7 @@
       </c>
       <c r="F230" t="inlineStr">
         <is>
-          <t>BING MI</t>
+          <t>SQ *BARISTA</t>
         </is>
       </c>
       <c r="G230" t="inlineStr">
@@ -10961,7 +12229,7 @@
         </is>
       </c>
       <c r="I230" t="n">
-        <v>-16.8</v>
+        <v>-12.65</v>
       </c>
       <c r="J230" s="2" t="n">
         <v>44894</v>
@@ -10976,14 +12244,14 @@
       </c>
       <c r="M230" t="inlineStr">
         <is>
-          <t>Eating Out</t>
+          <t>Coffee</t>
         </is>
       </c>
     </row>
     <row r="231">
       <c r="A231" s="1" t="inlineStr">
         <is>
-          <t>201d0118-db8e-4448-b482-5711fccd5a2c</t>
+          <t>56b6ce68-d2b2-4da1-b6e0-43948444c1a8</t>
         </is>
       </c>
       <c r="B231" s="2" t="n">
@@ -10996,11 +12264,11 @@
         <v>44889</v>
       </c>
       <c r="E231" s="2" t="n">
-        <v>44892</v>
+        <v>44890</v>
       </c>
       <c r="F231" t="inlineStr">
         <is>
-          <t>SAINT HONORE BOULANGERIE</t>
+          <t>BING MI</t>
         </is>
       </c>
       <c r="G231" t="inlineStr">
@@ -11014,7 +12282,7 @@
         </is>
       </c>
       <c r="I231" t="n">
-        <v>-8.949999999999999</v>
+        <v>-16.8</v>
       </c>
       <c r="J231" s="2" t="n">
         <v>44894</v>
@@ -11029,14 +12297,14 @@
       </c>
       <c r="M231" t="inlineStr">
         <is>
-          <t>Coffee</t>
+          <t>Eating Out</t>
         </is>
       </c>
     </row>
     <row r="232">
       <c r="A232" s="1" t="inlineStr">
         <is>
-          <t>4bb122ec-d676-4ab4-81da-477b56e1dcf3</t>
+          <t>43fa97b3-fb3f-4ba6-a0f6-70f37be97008</t>
         </is>
       </c>
       <c r="B232" s="2" t="n">
@@ -11048,23 +12316,33 @@
       <c r="D232" s="2" t="n">
         <v>44890</v>
       </c>
-      <c r="E232" t="inlineStr"/>
+      <c r="E232" s="2" t="n">
+        <v>44892</v>
+      </c>
       <c r="F232" t="inlineStr">
         <is>
-          <t>TOYOTA MOTOR SAL PAYROLL 568349-TMN</t>
-        </is>
-      </c>
-      <c r="G232" t="inlineStr"/>
-      <c r="H232" t="inlineStr"/>
+          <t>SQ *NW 23RD PINE STATE BI</t>
+        </is>
+      </c>
+      <c r="G232" t="inlineStr">
+        <is>
+          <t>Food &amp; Drink</t>
+        </is>
+      </c>
+      <c r="H232" t="inlineStr">
+        <is>
+          <t>Sale</t>
+        </is>
+      </c>
       <c r="I232" t="n">
-        <v>1927.04</v>
+        <v>-7.67</v>
       </c>
       <c r="J232" s="2" t="n">
         <v>44898</v>
       </c>
       <c r="K232" t="inlineStr">
         <is>
-          <t>Mechanics</t>
+          <t>Sapphire</t>
         </is>
       </c>
       <c r="L232" t="n">
@@ -11072,21 +12350,21 @@
       </c>
       <c r="M232" t="inlineStr">
         <is>
-          <t>Income</t>
+          <t>Coffee</t>
         </is>
       </c>
     </row>
     <row r="233">
       <c r="A233" s="1" t="inlineStr">
         <is>
-          <t>43fa97b3-fb3f-4ba6-a0f6-70f37be97008</t>
+          <t>de16530f-dc09-4df3-a7f0-7bdc3d25558e</t>
         </is>
       </c>
       <c r="B233" s="2" t="n">
-        <v>44898</v>
+        <v>44894</v>
       </c>
       <c r="C233" s="2" t="n">
-        <v>44898</v>
+        <v>44894</v>
       </c>
       <c r="D233" s="2" t="n">
         <v>44890</v>
@@ -11113,7 +12391,7 @@
         <v>-7.67</v>
       </c>
       <c r="J233" s="2" t="n">
-        <v>44898</v>
+        <v>44894</v>
       </c>
       <c r="K233" t="inlineStr">
         <is>
@@ -11132,45 +12410,43 @@
     <row r="234">
       <c r="A234" s="1" t="inlineStr">
         <is>
-          <t>de16530f-dc09-4df3-a7f0-7bdc3d25558e</t>
+          <t>4bb122ec-d676-4ab4-81da-477b56e1dcf3</t>
         </is>
       </c>
       <c r="B234" s="2" t="n">
-        <v>44894</v>
+        <v>44898</v>
       </c>
       <c r="C234" s="2" t="n">
-        <v>44894</v>
+        <v>44898</v>
       </c>
       <c r="D234" s="2" t="n">
         <v>44890</v>
       </c>
-      <c r="E234" s="2" t="n">
-        <v>44892</v>
-      </c>
+      <c r="E234" t="inlineStr"/>
       <c r="F234" t="inlineStr">
         <is>
-          <t>SQ *NW 23RD PINE STATE BI</t>
+          <t>TOYOTA MOTOR SAL PAYROLL 568349-TMN</t>
         </is>
       </c>
       <c r="G234" t="inlineStr">
         <is>
-          <t>Food &amp; Drink</t>
+          <t>nan</t>
         </is>
       </c>
       <c r="H234" t="inlineStr">
         <is>
-          <t>Sale</t>
+          <t>nan</t>
         </is>
       </c>
       <c r="I234" t="n">
-        <v>-7.67</v>
+        <v>1927.04</v>
       </c>
       <c r="J234" s="2" t="n">
-        <v>44894</v>
+        <v>44898</v>
       </c>
       <c r="K234" t="inlineStr">
         <is>
-          <t>Sapphire</t>
+          <t>Mechanics</t>
         </is>
       </c>
       <c r="L234" t="n">
@@ -11178,7 +12454,7 @@
       </c>
       <c r="M234" t="inlineStr">
         <is>
-          <t>Coffee</t>
+          <t>Income</t>
         </is>
       </c>
     </row>
@@ -11450,7 +12726,7 @@
     <row r="240">
       <c r="A240" s="1" t="inlineStr">
         <is>
-          <t>566a54b5-f1f8-4503-860f-f1f7be56a948</t>
+          <t>0537ae35-360f-49e7-8e65-1b8950ca99be</t>
         </is>
       </c>
       <c r="B240" s="2" t="n">
@@ -11467,12 +12743,12 @@
       </c>
       <c r="F240" t="inlineStr">
         <is>
-          <t>76 - DIVISION STREET F</t>
+          <t>TRADER JOE'S #146  QPS</t>
         </is>
       </c>
       <c r="G240" t="inlineStr">
         <is>
-          <t>Gas</t>
+          <t>Groceries</t>
         </is>
       </c>
       <c r="H240" t="inlineStr">
@@ -11481,14 +12757,14 @@
         </is>
       </c>
       <c r="I240" t="n">
-        <v>-62.95</v>
+        <v>-47.96</v>
       </c>
       <c r="J240" s="2" t="n">
         <v>44898</v>
       </c>
       <c r="K240" t="inlineStr">
         <is>
-          <t>Amazon</t>
+          <t>Sapphire</t>
         </is>
       </c>
       <c r="L240" t="n">
@@ -11496,14 +12772,14 @@
       </c>
       <c r="M240" t="inlineStr">
         <is>
-          <t>Gasoline</t>
+          <t>Groceries</t>
         </is>
       </c>
     </row>
     <row r="241">
       <c r="A241" s="1" t="inlineStr">
         <is>
-          <t>0537ae35-360f-49e7-8e65-1b8950ca99be</t>
+          <t>566a54b5-f1f8-4503-860f-f1f7be56a948</t>
         </is>
       </c>
       <c r="B241" s="2" t="n">
@@ -11520,12 +12796,12 @@
       </c>
       <c r="F241" t="inlineStr">
         <is>
-          <t>TRADER JOE'S #146  QPS</t>
+          <t>76 - DIVISION STREET F</t>
         </is>
       </c>
       <c r="G241" t="inlineStr">
         <is>
-          <t>Groceries</t>
+          <t>Gas</t>
         </is>
       </c>
       <c r="H241" t="inlineStr">
@@ -11534,14 +12810,14 @@
         </is>
       </c>
       <c r="I241" t="n">
-        <v>-47.96</v>
+        <v>-62.95</v>
       </c>
       <c r="J241" s="2" t="n">
         <v>44898</v>
       </c>
       <c r="K241" t="inlineStr">
         <is>
-          <t>Sapphire</t>
+          <t>Amazon</t>
         </is>
       </c>
       <c r="L241" t="n">
@@ -11549,14 +12825,14 @@
       </c>
       <c r="M241" t="inlineStr">
         <is>
-          <t>Groceries</t>
+          <t>Gasoline</t>
         </is>
       </c>
     </row>
     <row r="242">
       <c r="A242" s="1" t="inlineStr">
         <is>
-          <t>15d339c8-7e74-4b82-a572-ec08aeb2912d</t>
+          <t>6fa7a75e-21dc-4159-94a3-764480f9d213</t>
         </is>
       </c>
       <c r="B242" s="2" t="n">
@@ -11573,7 +12849,7 @@
       </c>
       <c r="F242" t="inlineStr">
         <is>
-          <t>SQ *ALBINA PRESS</t>
+          <t>SQ *FLYING CAT COFFEE CO</t>
         </is>
       </c>
       <c r="G242" t="inlineStr">
@@ -11587,7 +12863,7 @@
         </is>
       </c>
       <c r="I242" t="n">
-        <v>-9.75</v>
+        <v>-14.09</v>
       </c>
       <c r="J242" s="2" t="n">
         <v>44898</v>
@@ -11609,7 +12885,7 @@
     <row r="243">
       <c r="A243" s="1" t="inlineStr">
         <is>
-          <t>6fa7a75e-21dc-4159-94a3-764480f9d213</t>
+          <t>15d339c8-7e74-4b82-a572-ec08aeb2912d</t>
         </is>
       </c>
       <c r="B243" s="2" t="n">
@@ -11626,7 +12902,7 @@
       </c>
       <c r="F243" t="inlineStr">
         <is>
-          <t>SQ *FLYING CAT COFFEE CO</t>
+          <t>SQ *ALBINA PRESS</t>
         </is>
       </c>
       <c r="G243" t="inlineStr">
@@ -11640,7 +12916,7 @@
         </is>
       </c>
       <c r="I243" t="n">
-        <v>-14.09</v>
+        <v>-9.75</v>
       </c>
       <c r="J243" s="2" t="n">
         <v>44898</v>
@@ -11680,7 +12956,11 @@
           <t>AUTOMATIC PAYMENT - THANK</t>
         </is>
       </c>
-      <c r="G244" t="inlineStr"/>
+      <c r="G244" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
       <c r="H244" t="inlineStr">
         <is>
           <t>Payment</t>
@@ -11700,7 +12980,11 @@
       <c r="L244" t="n">
         <v>0</v>
       </c>
-      <c r="M244" t="inlineStr"/>
+      <c r="M244" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
     </row>
     <row r="245">
       <c r="A245" s="1" t="inlineStr">
@@ -11721,8 +13005,16 @@
           <t>CHASE CREDIT CRD AUTOPAY 000000000503311</t>
         </is>
       </c>
-      <c r="G245" t="inlineStr"/>
-      <c r="H245" t="inlineStr"/>
+      <c r="G245" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="H245" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
       <c r="I245" t="n">
         <v>-691.49</v>
       </c>
@@ -11737,7 +13029,11 @@
       <c r="L245" t="n">
         <v>0</v>
       </c>
-      <c r="M245" t="inlineStr"/>
+      <c r="M245" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
     </row>
     <row r="246">
       <c r="A246" s="1" t="inlineStr">
@@ -11813,8 +13109,16 @@
           <t>TOYOTA MOTOR SAL PAYROLL 568349-TMN</t>
         </is>
       </c>
-      <c r="G247" t="inlineStr"/>
-      <c r="H247" t="inlineStr"/>
+      <c r="G247" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="H247" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
       <c r="I247" t="n">
         <v>266.62</v>
       </c>
@@ -11856,8 +13160,16 @@
           <t>KBC Management, WEB PMTS QDGVS6</t>
         </is>
       </c>
-      <c r="G248" t="inlineStr"/>
-      <c r="H248" t="inlineStr"/>
+      <c r="G248" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="H248" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
       <c r="I248" t="n">
         <v>-1630</v>
       </c>
@@ -11881,7 +13193,7 @@
     <row r="249">
       <c r="A249" s="1" t="inlineStr">
         <is>
-          <t>ad60f8ea-9add-4862-bd7a-6cdd8b49d8da</t>
+          <t>e63fd163-56e3-499c-b675-89060ee35408</t>
         </is>
       </c>
       <c r="B249" s="2" t="n">
@@ -11898,12 +13210,12 @@
       </c>
       <c r="F249" t="inlineStr">
         <is>
-          <t>TST* Pizza Thief</t>
+          <t>1PASSWORD</t>
         </is>
       </c>
       <c r="G249" t="inlineStr">
         <is>
-          <t>Food &amp; Drink</t>
+          <t>Shopping</t>
         </is>
       </c>
       <c r="H249" t="inlineStr">
@@ -11912,14 +13224,14 @@
         </is>
       </c>
       <c r="I249" t="n">
-        <v>-6.75</v>
+        <v>-3.99</v>
       </c>
       <c r="J249" s="2" t="n">
         <v>44901</v>
       </c>
       <c r="K249" t="inlineStr">
         <is>
-          <t>Sapphire</t>
+          <t>Amazon</t>
         </is>
       </c>
       <c r="L249" t="n">
@@ -11927,18 +13239,18 @@
       </c>
       <c r="M249" t="inlineStr">
         <is>
-          <t>Eating Out</t>
+          <t>Services</t>
         </is>
       </c>
     </row>
     <row r="250">
       <c r="A250" s="1" t="inlineStr">
         <is>
-          <t>e63fd163-56e3-499c-b675-89060ee35408</t>
+          <t>9b8a68b2-cecb-4c3e-a4ba-0a4a94eaee1f</t>
         </is>
       </c>
       <c r="B250" s="2" t="n">
-        <v>44901</v>
+        <v>44926</v>
       </c>
       <c r="C250" s="2" t="n">
         <v>44927</v>
@@ -11951,12 +13263,12 @@
       </c>
       <c r="F250" t="inlineStr">
         <is>
-          <t>1PASSWORD</t>
+          <t>SQ *BARISTA</t>
         </is>
       </c>
       <c r="G250" t="inlineStr">
         <is>
-          <t>Shopping</t>
+          <t>Food &amp; Drink</t>
         </is>
       </c>
       <c r="H250" t="inlineStr">
@@ -11965,14 +13277,14 @@
         </is>
       </c>
       <c r="I250" t="n">
-        <v>-3.99</v>
+        <v>-12</v>
       </c>
       <c r="J250" s="2" t="n">
-        <v>44901</v>
+        <v>44926</v>
       </c>
       <c r="K250" t="inlineStr">
         <is>
-          <t>Amazon</t>
+          <t>Sapphire</t>
         </is>
       </c>
       <c r="L250" t="n">
@@ -11980,14 +13292,14 @@
       </c>
       <c r="M250" t="inlineStr">
         <is>
-          <t>Services</t>
+          <t>Coffee</t>
         </is>
       </c>
     </row>
     <row r="251">
       <c r="A251" s="1" t="inlineStr">
         <is>
-          <t>9b8a68b2-cecb-4c3e-a4ba-0a4a94eaee1f</t>
+          <t>56bcc2d5-b661-4f58-bb1e-3d6456748876</t>
         </is>
       </c>
       <c r="B251" s="2" t="n">
@@ -12004,7 +13316,7 @@
       </c>
       <c r="F251" t="inlineStr">
         <is>
-          <t>SQ *BARISTA</t>
+          <t>TST* Pizza Thief</t>
         </is>
       </c>
       <c r="G251" t="inlineStr">
@@ -12018,7 +13330,7 @@
         </is>
       </c>
       <c r="I251" t="n">
-        <v>-12</v>
+        <v>-40</v>
       </c>
       <c r="J251" s="2" t="n">
         <v>44926</v>
@@ -12033,18 +13345,18 @@
       </c>
       <c r="M251" t="inlineStr">
         <is>
-          <t>Coffee</t>
+          <t>Eating Out</t>
         </is>
       </c>
     </row>
     <row r="252">
       <c r="A252" s="1" t="inlineStr">
         <is>
-          <t>56bcc2d5-b661-4f58-bb1e-3d6456748876</t>
+          <t>ad60f8ea-9add-4862-bd7a-6cdd8b49d8da</t>
         </is>
       </c>
       <c r="B252" s="2" t="n">
-        <v>44926</v>
+        <v>44901</v>
       </c>
       <c r="C252" s="2" t="n">
         <v>44927</v>
@@ -12071,10 +13383,10 @@
         </is>
       </c>
       <c r="I252" t="n">
-        <v>-40</v>
+        <v>-6.75</v>
       </c>
       <c r="J252" s="2" t="n">
-        <v>44926</v>
+        <v>44901</v>
       </c>
       <c r="K252" t="inlineStr">
         <is>
@@ -12252,11 +13564,11 @@
     <row r="256">
       <c r="A256" s="1" t="inlineStr">
         <is>
-          <t>f8e3e832-e431-4231-8405-5014b9042075</t>
+          <t>2ca9ada7-171f-4c7d-8177-d6665df1fb28</t>
         </is>
       </c>
       <c r="B256" s="2" t="n">
-        <v>44901</v>
+        <v>44926</v>
       </c>
       <c r="C256" s="2" t="n">
         <v>44927</v>
@@ -12265,16 +13577,16 @@
         <v>44899</v>
       </c>
       <c r="E256" s="2" t="n">
-        <v>44899</v>
+        <v>44900</v>
       </c>
       <c r="F256" t="inlineStr">
         <is>
-          <t>Microsoft*Subscription</t>
+          <t>PEARL HARDWARE</t>
         </is>
       </c>
       <c r="G256" t="inlineStr">
         <is>
-          <t>Shopping</t>
+          <t>Home</t>
         </is>
       </c>
       <c r="H256" t="inlineStr">
@@ -12283,10 +13595,10 @@
         </is>
       </c>
       <c r="I256" t="n">
-        <v>-1.99</v>
+        <v>-66.95999999999999</v>
       </c>
       <c r="J256" s="2" t="n">
-        <v>44901</v>
+        <v>44926</v>
       </c>
       <c r="K256" t="inlineStr">
         <is>
@@ -12298,18 +13610,18 @@
       </c>
       <c r="M256" t="inlineStr">
         <is>
-          <t>Services</t>
+          <t>Home</t>
         </is>
       </c>
     </row>
     <row r="257">
       <c r="A257" s="1" t="inlineStr">
         <is>
-          <t>a47d836f-c079-4680-82c9-ae06eacb7e2e</t>
+          <t>f8e3e832-e431-4231-8405-5014b9042075</t>
         </is>
       </c>
       <c r="B257" s="2" t="n">
-        <v>44926</v>
+        <v>44901</v>
       </c>
       <c r="C257" s="2" t="n">
         <v>44927</v>
@@ -12318,16 +13630,16 @@
         <v>44899</v>
       </c>
       <c r="E257" s="2" t="n">
-        <v>44900</v>
+        <v>44899</v>
       </c>
       <c r="F257" t="inlineStr">
         <is>
-          <t>SQ *COAVA COFFEE ROASTERS</t>
+          <t>Microsoft*Subscription</t>
         </is>
       </c>
       <c r="G257" t="inlineStr">
         <is>
-          <t>Food &amp; Drink</t>
+          <t>Shopping</t>
         </is>
       </c>
       <c r="H257" t="inlineStr">
@@ -12336,14 +13648,14 @@
         </is>
       </c>
       <c r="I257" t="n">
-        <v>-11.5</v>
+        <v>-1.99</v>
       </c>
       <c r="J257" s="2" t="n">
-        <v>44926</v>
+        <v>44901</v>
       </c>
       <c r="K257" t="inlineStr">
         <is>
-          <t>Sapphire</t>
+          <t>Amazon</t>
         </is>
       </c>
       <c r="L257" t="n">
@@ -12351,14 +13663,14 @@
       </c>
       <c r="M257" t="inlineStr">
         <is>
-          <t>Coffee</t>
+          <t>Services</t>
         </is>
       </c>
     </row>
     <row r="258">
       <c r="A258" s="1" t="inlineStr">
         <is>
-          <t>2ca9ada7-171f-4c7d-8177-d6665df1fb28</t>
+          <t>a47d836f-c079-4680-82c9-ae06eacb7e2e</t>
         </is>
       </c>
       <c r="B258" s="2" t="n">
@@ -12375,12 +13687,12 @@
       </c>
       <c r="F258" t="inlineStr">
         <is>
-          <t>PEARL HARDWARE</t>
+          <t>SQ *COAVA COFFEE ROASTERS</t>
         </is>
       </c>
       <c r="G258" t="inlineStr">
         <is>
-          <t>Home</t>
+          <t>Food &amp; Drink</t>
         </is>
       </c>
       <c r="H258" t="inlineStr">
@@ -12389,14 +13701,14 @@
         </is>
       </c>
       <c r="I258" t="n">
-        <v>-66.95999999999999</v>
+        <v>-11.5</v>
       </c>
       <c r="J258" s="2" t="n">
         <v>44926</v>
       </c>
       <c r="K258" t="inlineStr">
         <is>
-          <t>Amazon</t>
+          <t>Sapphire</t>
         </is>
       </c>
       <c r="L258" t="n">
@@ -12404,7 +13716,7 @@
       </c>
       <c r="M258" t="inlineStr">
         <is>
-          <t>Home</t>
+          <t>Coffee</t>
         </is>
       </c>
     </row>
@@ -12641,8 +13953,16 @@
           <t>TOYOTA MOTOR SAL PAYROLL 568349-TMN</t>
         </is>
       </c>
-      <c r="G263" t="inlineStr"/>
-      <c r="H263" t="inlineStr"/>
+      <c r="G263" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="H263" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
       <c r="I263" t="n">
         <v>1895.88</v>
       </c>
@@ -12666,7 +13986,7 @@
     <row r="264">
       <c r="A264" s="1" t="inlineStr">
         <is>
-          <t>acfc7f73-bd68-4011-b192-503b80f22489</t>
+          <t>fa841805-6a52-4265-ac77-f801137bc73f</t>
         </is>
       </c>
       <c r="B264" s="2" t="n">
@@ -12683,12 +14003,12 @@
       </c>
       <c r="F264" t="inlineStr">
         <is>
-          <t>TODOIST</t>
+          <t>CITY OF PORTLAND DEPT</t>
         </is>
       </c>
       <c r="G264" t="inlineStr">
         <is>
-          <t>Shopping</t>
+          <t>Travel</t>
         </is>
       </c>
       <c r="H264" t="inlineStr">
@@ -12697,7 +14017,7 @@
         </is>
       </c>
       <c r="I264" t="n">
-        <v>-29</v>
+        <v>-3</v>
       </c>
       <c r="J264" s="2" t="n">
         <v>44926</v>
@@ -12712,7 +14032,7 @@
       </c>
       <c r="M264" t="inlineStr">
         <is>
-          <t>Services</t>
+          <t>Parking</t>
         </is>
       </c>
     </row>
@@ -12772,7 +14092,7 @@
     <row r="266">
       <c r="A266" s="1" t="inlineStr">
         <is>
-          <t>fa841805-6a52-4265-ac77-f801137bc73f</t>
+          <t>acfc7f73-bd68-4011-b192-503b80f22489</t>
         </is>
       </c>
       <c r="B266" s="2" t="n">
@@ -12789,12 +14109,12 @@
       </c>
       <c r="F266" t="inlineStr">
         <is>
-          <t>CITY OF PORTLAND DEPT</t>
+          <t>TODOIST</t>
         </is>
       </c>
       <c r="G266" t="inlineStr">
         <is>
-          <t>Travel</t>
+          <t>Shopping</t>
         </is>
       </c>
       <c r="H266" t="inlineStr">
@@ -12803,7 +14123,7 @@
         </is>
       </c>
       <c r="I266" t="n">
-        <v>-3</v>
+        <v>-29</v>
       </c>
       <c r="J266" s="2" t="n">
         <v>44926</v>
@@ -12818,7 +14138,7 @@
       </c>
       <c r="M266" t="inlineStr">
         <is>
-          <t>Parking</t>
+          <t>Services</t>
         </is>
       </c>
     </row>
@@ -13037,7 +14357,7 @@
     <row r="271">
       <c r="A271" s="1" t="inlineStr">
         <is>
-          <t>26a0187f-5e43-49c8-91f9-5be3ed64ba1c</t>
+          <t>cd83bfba-e0f1-4844-92ae-a3190ff15383</t>
         </is>
       </c>
       <c r="B271" s="2" t="n">
@@ -13068,7 +14388,7 @@
         </is>
       </c>
       <c r="I271" t="n">
-        <v>-8</v>
+        <v>-6.5</v>
       </c>
       <c r="J271" s="2" t="n">
         <v>44926</v>
@@ -13090,7 +14410,7 @@
     <row r="272">
       <c r="A272" s="1" t="inlineStr">
         <is>
-          <t>e2470a16-1b2b-4604-bed4-850dc097428b</t>
+          <t>26a0187f-5e43-49c8-91f9-5be3ed64ba1c</t>
         </is>
       </c>
       <c r="B272" s="2" t="n">
@@ -13107,12 +14427,12 @@
       </c>
       <c r="F272" t="inlineStr">
         <is>
-          <t>76 - ST HELENS RD</t>
+          <t>SQ *CLEARING CAFE</t>
         </is>
       </c>
       <c r="G272" t="inlineStr">
         <is>
-          <t>Gas</t>
+          <t>Food &amp; Drink</t>
         </is>
       </c>
       <c r="H272" t="inlineStr">
@@ -13121,14 +14441,14 @@
         </is>
       </c>
       <c r="I272" t="n">
-        <v>-55.88</v>
+        <v>-8</v>
       </c>
       <c r="J272" s="2" t="n">
         <v>44926</v>
       </c>
       <c r="K272" t="inlineStr">
         <is>
-          <t>Amazon</t>
+          <t>Sapphire</t>
         </is>
       </c>
       <c r="L272" t="n">
@@ -13136,14 +14456,14 @@
       </c>
       <c r="M272" t="inlineStr">
         <is>
-          <t>Gasoline</t>
+          <t>Coffee</t>
         </is>
       </c>
     </row>
     <row r="273">
       <c r="A273" s="1" t="inlineStr">
         <is>
-          <t>cd83bfba-e0f1-4844-92ae-a3190ff15383</t>
+          <t>e2470a16-1b2b-4604-bed4-850dc097428b</t>
         </is>
       </c>
       <c r="B273" s="2" t="n">
@@ -13160,12 +14480,12 @@
       </c>
       <c r="F273" t="inlineStr">
         <is>
-          <t>SQ *CLEARING CAFE</t>
+          <t>76 - ST HELENS RD</t>
         </is>
       </c>
       <c r="G273" t="inlineStr">
         <is>
-          <t>Food &amp; Drink</t>
+          <t>Gas</t>
         </is>
       </c>
       <c r="H273" t="inlineStr">
@@ -13174,14 +14494,14 @@
         </is>
       </c>
       <c r="I273" t="n">
-        <v>-6.5</v>
+        <v>-55.88</v>
       </c>
       <c r="J273" s="2" t="n">
         <v>44926</v>
       </c>
       <c r="K273" t="inlineStr">
         <is>
-          <t>Sapphire</t>
+          <t>Amazon</t>
         </is>
       </c>
       <c r="L273" t="n">
@@ -13189,14 +14509,14 @@
       </c>
       <c r="M273" t="inlineStr">
         <is>
-          <t>Coffee</t>
+          <t>Gasoline</t>
         </is>
       </c>
     </row>
     <row r="274">
       <c r="A274" s="1" t="inlineStr">
         <is>
-          <t>e560e818-a96d-4be5-9f56-03446149fe53</t>
+          <t>db304122-62cb-4ec6-82e3-e99892ee7908</t>
         </is>
       </c>
       <c r="B274" s="2" t="n">
@@ -13209,16 +14529,16 @@
         <v>44907</v>
       </c>
       <c r="E274" s="2" t="n">
-        <v>44908</v>
+        <v>44907</v>
       </c>
       <c r="F274" t="inlineStr">
         <is>
-          <t>TRADER JOE'S #146  QPS</t>
+          <t>STEAMGAMES.COM 4259522985</t>
         </is>
       </c>
       <c r="G274" t="inlineStr">
         <is>
-          <t>Groceries</t>
+          <t>Entertainment</t>
         </is>
       </c>
       <c r="H274" t="inlineStr">
@@ -13227,14 +14547,14 @@
         </is>
       </c>
       <c r="I274" t="n">
-        <v>-91.66</v>
+        <v>-31.49</v>
       </c>
       <c r="J274" s="2" t="n">
         <v>44926</v>
       </c>
       <c r="K274" t="inlineStr">
         <is>
-          <t>Sapphire</t>
+          <t>Amazon</t>
         </is>
       </c>
       <c r="L274" t="n">
@@ -13242,51 +14562,67 @@
       </c>
       <c r="M274" t="inlineStr">
         <is>
-          <t>Groceries</t>
+          <t>Entertainment</t>
         </is>
       </c>
     </row>
     <row r="275">
       <c r="A275" s="1" t="inlineStr">
         <is>
-          <t>816435da-ff4a-411a-bbfa-9e1b301f3a45</t>
+          <t>12439868-af7c-4357-9b9f-814d37db1541</t>
         </is>
       </c>
       <c r="B275" s="2" t="n">
         <v>44926</v>
       </c>
-      <c r="C275" t="inlineStr"/>
+      <c r="C275" s="2" t="n">
+        <v>44927</v>
+      </c>
       <c r="D275" s="2" t="n">
         <v>44907</v>
       </c>
-      <c r="E275" t="inlineStr"/>
+      <c r="E275" s="2" t="n">
+        <v>44909</v>
+      </c>
       <c r="F275" t="inlineStr">
         <is>
-          <t>Mobile Deposit</t>
-        </is>
-      </c>
-      <c r="G275" t="inlineStr"/>
-      <c r="H275" t="inlineStr"/>
+          <t>STARBUCKS STORE 00428</t>
+        </is>
+      </c>
+      <c r="G275" t="inlineStr">
+        <is>
+          <t>Food &amp; Drink</t>
+        </is>
+      </c>
+      <c r="H275" t="inlineStr">
+        <is>
+          <t>Sale</t>
+        </is>
+      </c>
       <c r="I275" t="n">
-        <v>162.64</v>
+        <v>-4.25</v>
       </c>
       <c r="J275" s="2" t="n">
         <v>44926</v>
       </c>
       <c r="K275" t="inlineStr">
         <is>
-          <t>Mechanics</t>
+          <t>Sapphire</t>
         </is>
       </c>
       <c r="L275" t="n">
-        <v>0</v>
-      </c>
-      <c r="M275" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="M275" t="inlineStr">
+        <is>
+          <t>Coffee</t>
+        </is>
+      </c>
     </row>
     <row r="276">
       <c r="A276" s="1" t="inlineStr">
         <is>
-          <t>db304122-62cb-4ec6-82e3-e99892ee7908</t>
+          <t>e560e818-a96d-4be5-9f56-03446149fe53</t>
         </is>
       </c>
       <c r="B276" s="2" t="n">
@@ -13299,16 +14635,16 @@
         <v>44907</v>
       </c>
       <c r="E276" s="2" t="n">
-        <v>44907</v>
+        <v>44908</v>
       </c>
       <c r="F276" t="inlineStr">
         <is>
-          <t>STEAMGAMES.COM 4259522985</t>
+          <t>TRADER JOE'S #146  QPS</t>
         </is>
       </c>
       <c r="G276" t="inlineStr">
         <is>
-          <t>Entertainment</t>
+          <t>Groceries</t>
         </is>
       </c>
       <c r="H276" t="inlineStr">
@@ -13317,14 +14653,14 @@
         </is>
       </c>
       <c r="I276" t="n">
-        <v>-31.49</v>
+        <v>-91.66</v>
       </c>
       <c r="J276" s="2" t="n">
         <v>44926</v>
       </c>
       <c r="K276" t="inlineStr">
         <is>
-          <t>Amazon</t>
+          <t>Sapphire</t>
         </is>
       </c>
       <c r="L276" t="n">
@@ -13332,67 +14668,63 @@
       </c>
       <c r="M276" t="inlineStr">
         <is>
-          <t>Entertainment</t>
+          <t>Groceries</t>
         </is>
       </c>
     </row>
     <row r="277">
       <c r="A277" s="1" t="inlineStr">
         <is>
-          <t>12439868-af7c-4357-9b9f-814d37db1541</t>
+          <t>816435da-ff4a-411a-bbfa-9e1b301f3a45</t>
         </is>
       </c>
       <c r="B277" s="2" t="n">
         <v>44926</v>
       </c>
-      <c r="C277" s="2" t="n">
-        <v>44927</v>
-      </c>
+      <c r="C277" t="inlineStr"/>
       <c r="D277" s="2" t="n">
         <v>44907</v>
       </c>
-      <c r="E277" s="2" t="n">
-        <v>44909</v>
-      </c>
+      <c r="E277" t="inlineStr"/>
       <c r="F277" t="inlineStr">
         <is>
-          <t>STARBUCKS STORE 00428</t>
+          <t>Mobile Deposit</t>
         </is>
       </c>
       <c r="G277" t="inlineStr">
         <is>
-          <t>Food &amp; Drink</t>
+          <t>nan</t>
         </is>
       </c>
       <c r="H277" t="inlineStr">
         <is>
-          <t>Sale</t>
+          <t>nan</t>
         </is>
       </c>
       <c r="I277" t="n">
-        <v>-4.25</v>
+        <v>162.64</v>
       </c>
       <c r="J277" s="2" t="n">
         <v>44926</v>
       </c>
       <c r="K277" t="inlineStr">
         <is>
-          <t>Sapphire</t>
+          <t>Mechanics</t>
         </is>
       </c>
       <c r="L277" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M277" t="inlineStr">
         <is>
-          <t>Coffee</t>
+          <t>nan</t>
         </is>
       </c>
     </row>
     <row r="278">
       <c r="A278" s="1" t="inlineStr">
         <is>
-          <t>0ed2a4d3-7f91-4e75-bbe1-8ba1d8bf3a39</t>
+          <t>66e18421-db02-4aea-bb52-1bb5b0a08eda</t>
         </is>
       </c>
       <c r="B278" s="2" t="n">
@@ -13405,11 +14737,11 @@
         <v>44909</v>
       </c>
       <c r="E278" s="2" t="n">
-        <v>44910</v>
+        <v>44911</v>
       </c>
       <c r="F278" t="inlineStr">
         <is>
-          <t>TST* Pizza Thief</t>
+          <t>STARBUCKS STORE 00428</t>
         </is>
       </c>
       <c r="G278" t="inlineStr">
@@ -13423,7 +14755,7 @@
         </is>
       </c>
       <c r="I278" t="n">
-        <v>-33</v>
+        <v>-4.25</v>
       </c>
       <c r="J278" s="2" t="n">
         <v>44926</v>
@@ -13438,14 +14770,14 @@
       </c>
       <c r="M278" t="inlineStr">
         <is>
-          <t>Eating Out</t>
+          <t>Coffee</t>
         </is>
       </c>
     </row>
     <row r="279">
       <c r="A279" s="1" t="inlineStr">
         <is>
-          <t>66e18421-db02-4aea-bb52-1bb5b0a08eda</t>
+          <t>cfee9644-01ec-4f3d-b1f4-c6b0a19eb3e6</t>
         </is>
       </c>
       <c r="B279" s="2" t="n">
@@ -13458,11 +14790,11 @@
         <v>44909</v>
       </c>
       <c r="E279" s="2" t="n">
-        <v>44911</v>
+        <v>44910</v>
       </c>
       <c r="F279" t="inlineStr">
         <is>
-          <t>STARBUCKS STORE 00428</t>
+          <t>TST* Pizza Thief</t>
         </is>
       </c>
       <c r="G279" t="inlineStr">
@@ -13476,7 +14808,7 @@
         </is>
       </c>
       <c r="I279" t="n">
-        <v>-4.25</v>
+        <v>-6.75</v>
       </c>
       <c r="J279" s="2" t="n">
         <v>44926</v>
@@ -13491,14 +14823,14 @@
       </c>
       <c r="M279" t="inlineStr">
         <is>
-          <t>Coffee</t>
+          <t>Eating Out</t>
         </is>
       </c>
     </row>
     <row r="280">
       <c r="A280" s="1" t="inlineStr">
         <is>
-          <t>cfee9644-01ec-4f3d-b1f4-c6b0a19eb3e6</t>
+          <t>0ed2a4d3-7f91-4e75-bbe1-8ba1d8bf3a39</t>
         </is>
       </c>
       <c r="B280" s="2" t="n">
@@ -13529,7 +14861,7 @@
         </is>
       </c>
       <c r="I280" t="n">
-        <v>-6.75</v>
+        <v>-33</v>
       </c>
       <c r="J280" s="2" t="n">
         <v>44926</v>
@@ -13604,7 +14936,7 @@
     <row r="282">
       <c r="A282" s="1" t="inlineStr">
         <is>
-          <t>c7e97ca3-d0d6-4e73-928d-c9b76933ffb7</t>
+          <t>7d52bfdd-44a2-4996-b32f-2962aa1b04ca</t>
         </is>
       </c>
       <c r="B282" s="2" t="n">
@@ -13621,7 +14953,7 @@
       </c>
       <c r="F282" t="inlineStr">
         <is>
-          <t>STARBUCKS STORE 00428</t>
+          <t>TST* The Fireside</t>
         </is>
       </c>
       <c r="G282" t="inlineStr">
@@ -13635,7 +14967,7 @@
         </is>
       </c>
       <c r="I282" t="n">
-        <v>-4.25</v>
+        <v>-100</v>
       </c>
       <c r="J282" s="2" t="n">
         <v>44926</v>
@@ -13650,45 +14982,43 @@
       </c>
       <c r="M282" t="inlineStr">
         <is>
-          <t>Coffee</t>
+          <t>Eating Out</t>
         </is>
       </c>
     </row>
     <row r="283">
       <c r="A283" s="1" t="inlineStr">
         <is>
-          <t>7d52bfdd-44a2-4996-b32f-2962aa1b04ca</t>
+          <t>7a06f58a-c23c-4e7a-9418-72a45d65dc4f</t>
         </is>
       </c>
       <c r="B283" s="2" t="n">
         <v>44926</v>
       </c>
-      <c r="C283" s="2" t="n">
-        <v>44927</v>
-      </c>
+      <c r="C283" t="inlineStr"/>
       <c r="D283" s="2" t="n">
         <v>44911</v>
       </c>
       <c r="E283" s="2" t="n">
-        <v>44913</v>
+        <v>44911</v>
       </c>
       <c r="F283" t="inlineStr">
         <is>
-          <t>TST* The Fireside</t>
+          <t>AUTOMATIC PAYMENT - THANK</t>
         </is>
       </c>
       <c r="G283" t="inlineStr">
         <is>
-          <t>Food &amp; Drink</t>
+          <t>nan</t>
         </is>
       </c>
       <c r="H283" t="inlineStr">
         <is>
-          <t>Sale</t>
+          <t>Payment</t>
         </is>
       </c>
       <c r="I283" t="n">
-        <v>-100</v>
+        <v>1324.09</v>
       </c>
       <c r="J283" s="2" t="n">
         <v>44926</v>
@@ -13699,43 +15029,49 @@
         </is>
       </c>
       <c r="L283" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M283" t="inlineStr">
         <is>
-          <t>Eating Out</t>
+          <t>nan</t>
         </is>
       </c>
     </row>
     <row r="284">
       <c r="A284" s="1" t="inlineStr">
         <is>
-          <t>7a06f58a-c23c-4e7a-9418-72a45d65dc4f</t>
+          <t>c7e97ca3-d0d6-4e73-928d-c9b76933ffb7</t>
         </is>
       </c>
       <c r="B284" s="2" t="n">
         <v>44926</v>
       </c>
-      <c r="C284" t="inlineStr"/>
+      <c r="C284" s="2" t="n">
+        <v>44927</v>
+      </c>
       <c r="D284" s="2" t="n">
         <v>44911</v>
       </c>
       <c r="E284" s="2" t="n">
-        <v>44911</v>
+        <v>44913</v>
       </c>
       <c r="F284" t="inlineStr">
         <is>
-          <t>AUTOMATIC PAYMENT - THANK</t>
-        </is>
-      </c>
-      <c r="G284" t="inlineStr"/>
+          <t>STARBUCKS STORE 00428</t>
+        </is>
+      </c>
+      <c r="G284" t="inlineStr">
+        <is>
+          <t>Food &amp; Drink</t>
+        </is>
+      </c>
       <c r="H284" t="inlineStr">
         <is>
-          <t>Payment</t>
+          <t>Sale</t>
         </is>
       </c>
       <c r="I284" t="n">
-        <v>1324.09</v>
+        <v>-4.25</v>
       </c>
       <c r="J284" s="2" t="n">
         <v>44926</v>
@@ -13746,14 +15082,18 @@
         </is>
       </c>
       <c r="L284" t="n">
-        <v>0</v>
-      </c>
-      <c r="M284" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="M284" t="inlineStr">
+        <is>
+          <t>Coffee</t>
+        </is>
+      </c>
     </row>
     <row r="285">
       <c r="A285" s="1" t="inlineStr">
         <is>
-          <t>2b267bdd-8b24-4a6a-a1c5-8bfe50fcc7a7</t>
+          <t>df2ff11b-bd40-4209-b56d-1c5deda7dea3</t>
         </is>
       </c>
       <c r="B285" s="2" t="n">
@@ -13770,12 +15110,12 @@
       </c>
       <c r="F285" t="inlineStr">
         <is>
-          <t>CVS/PHARMACY #11282</t>
+          <t>CITY OF PORTLAND DEPT</t>
         </is>
       </c>
       <c r="G285" t="inlineStr">
         <is>
-          <t>Health &amp; Wellness</t>
+          <t>Travel</t>
         </is>
       </c>
       <c r="H285" t="inlineStr">
@@ -13784,14 +15124,14 @@
         </is>
       </c>
       <c r="I285" t="n">
-        <v>-24.97</v>
+        <v>-1.2</v>
       </c>
       <c r="J285" s="2" t="n">
         <v>44926</v>
       </c>
       <c r="K285" t="inlineStr">
         <is>
-          <t>Sapphire</t>
+          <t>Amazon</t>
         </is>
       </c>
       <c r="L285" t="n">
@@ -13799,14 +15139,14 @@
       </c>
       <c r="M285" t="inlineStr">
         <is>
-          <t>Supplies</t>
+          <t>Parking</t>
         </is>
       </c>
     </row>
     <row r="286">
       <c r="A286" s="1" t="inlineStr">
         <is>
-          <t>db697e01-69b2-4815-b33c-e9d64b7f199d</t>
+          <t>2b267bdd-8b24-4a6a-a1c5-8bfe50fcc7a7</t>
         </is>
       </c>
       <c r="B286" s="2" t="n">
@@ -13823,12 +15163,12 @@
       </c>
       <c r="F286" t="inlineStr">
         <is>
-          <t>WALMART EGIFT CARD</t>
+          <t>CVS/PHARMACY #11282</t>
         </is>
       </c>
       <c r="G286" t="inlineStr">
         <is>
-          <t>Shopping</t>
+          <t>Health &amp; Wellness</t>
         </is>
       </c>
       <c r="H286" t="inlineStr">
@@ -13837,14 +15177,14 @@
         </is>
       </c>
       <c r="I286" t="n">
-        <v>-50</v>
+        <v>-24.97</v>
       </c>
       <c r="J286" s="2" t="n">
         <v>44926</v>
       </c>
       <c r="K286" t="inlineStr">
         <is>
-          <t>Amazon</t>
+          <t>Sapphire</t>
         </is>
       </c>
       <c r="L286" t="n">
@@ -13852,14 +15192,14 @@
       </c>
       <c r="M286" t="inlineStr">
         <is>
-          <t>Gifts</t>
+          <t>Supplies</t>
         </is>
       </c>
     </row>
     <row r="287">
       <c r="A287" s="1" t="inlineStr">
         <is>
-          <t>df2ff11b-bd40-4209-b56d-1c5deda7dea3</t>
+          <t>db697e01-69b2-4815-b33c-e9d64b7f199d</t>
         </is>
       </c>
       <c r="B287" s="2" t="n">
@@ -13876,12 +15216,12 @@
       </c>
       <c r="F287" t="inlineStr">
         <is>
-          <t>CITY OF PORTLAND DEPT</t>
+          <t>WALMART EGIFT CARD</t>
         </is>
       </c>
       <c r="G287" t="inlineStr">
         <is>
-          <t>Travel</t>
+          <t>Shopping</t>
         </is>
       </c>
       <c r="H287" t="inlineStr">
@@ -13890,7 +15230,7 @@
         </is>
       </c>
       <c r="I287" t="n">
-        <v>-1.2</v>
+        <v>-50</v>
       </c>
       <c r="J287" s="2" t="n">
         <v>44926</v>
@@ -13905,7 +15245,7 @@
       </c>
       <c r="M287" t="inlineStr">
         <is>
-          <t>Parking</t>
+          <t>Gifts</t>
         </is>
       </c>
     </row>
@@ -14034,8 +15374,16 @@
           <t>CHASE CREDIT CRD AUTOPAY 000000000591807</t>
         </is>
       </c>
-      <c r="G290" t="inlineStr"/>
-      <c r="H290" t="inlineStr"/>
+      <c r="G290" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="H290" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
       <c r="I290" t="n">
         <v>-1324.09</v>
       </c>
@@ -14050,7 +15398,11 @@
       <c r="L290" t="n">
         <v>0</v>
       </c>
-      <c r="M290" t="inlineStr"/>
+      <c r="M290" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
     </row>
     <row r="291">
       <c r="A291" s="1" t="inlineStr">
@@ -14161,7 +15513,7 @@
     <row r="293">
       <c r="A293" s="1" t="inlineStr">
         <is>
-          <t>1269bd7f-f0cf-4bcd-83ec-9636f5d58097</t>
+          <t>e4bb6897-9fd4-41bc-be06-6d58dc49fc02</t>
         </is>
       </c>
       <c r="B293" s="2" t="n">
@@ -14174,11 +15526,11 @@
         <v>44917</v>
       </c>
       <c r="E293" s="2" t="n">
-        <v>44918</v>
+        <v>44920</v>
       </c>
       <c r="F293" t="inlineStr">
         <is>
-          <t>TST* Pizza Thief</t>
+          <t>STARBUCKS STORE 00428</t>
         </is>
       </c>
       <c r="G293" t="inlineStr">
@@ -14192,7 +15544,7 @@
         </is>
       </c>
       <c r="I293" t="n">
-        <v>-6.75</v>
+        <v>-7</v>
       </c>
       <c r="J293" s="2" t="n">
         <v>44926</v>
@@ -14207,14 +15559,14 @@
       </c>
       <c r="M293" t="inlineStr">
         <is>
-          <t>Eating Out</t>
+          <t>Coffee</t>
         </is>
       </c>
     </row>
     <row r="294">
       <c r="A294" s="1" t="inlineStr">
         <is>
-          <t>22aee82c-d374-4c48-8fa5-6010773ed409</t>
+          <t>268d6baf-6fbb-4a9e-8b0c-f1b26fd9b5d1</t>
         </is>
       </c>
       <c r="B294" s="2" t="n">
@@ -14227,11 +15579,11 @@
         <v>44917</v>
       </c>
       <c r="E294" s="2" t="n">
-        <v>44918</v>
+        <v>44920</v>
       </c>
       <c r="F294" t="inlineStr">
         <is>
-          <t>TST* Pizza Thief</t>
+          <t>STARBUCKS STORE 00428</t>
         </is>
       </c>
       <c r="G294" t="inlineStr">
@@ -14245,7 +15597,7 @@
         </is>
       </c>
       <c r="I294" t="n">
-        <v>-16</v>
+        <v>-4.65</v>
       </c>
       <c r="J294" s="2" t="n">
         <v>44926</v>
@@ -14260,14 +15612,14 @@
       </c>
       <c r="M294" t="inlineStr">
         <is>
-          <t>Eating Out</t>
+          <t>Coffee</t>
         </is>
       </c>
     </row>
     <row r="295">
       <c r="A295" s="1" t="inlineStr">
         <is>
-          <t>979cf0ba-bf94-4f4e-97cb-4da50b92fa05</t>
+          <t>a683af98-6527-4b33-95de-7141a1b4facc</t>
         </is>
       </c>
       <c r="B295" s="2" t="n">
@@ -14280,16 +15632,16 @@
         <v>44917</v>
       </c>
       <c r="E295" s="2" t="n">
-        <v>44917</v>
+        <v>44918</v>
       </c>
       <c r="F295" t="inlineStr">
         <is>
-          <t>GOOGLE *Domains</t>
+          <t>76 - PLAID PANTRY 83</t>
         </is>
       </c>
       <c r="G295" t="inlineStr">
         <is>
-          <t>Bills &amp; Utilities</t>
+          <t>Gas</t>
         </is>
       </c>
       <c r="H295" t="inlineStr">
@@ -14298,7 +15650,7 @@
         </is>
       </c>
       <c r="I295" t="n">
-        <v>-6</v>
+        <v>-56.04</v>
       </c>
       <c r="J295" s="2" t="n">
         <v>44926</v>
@@ -14313,14 +15665,14 @@
       </c>
       <c r="M295" t="inlineStr">
         <is>
-          <t>Services</t>
+          <t>Gasoline</t>
         </is>
       </c>
     </row>
     <row r="296">
       <c r="A296" s="1" t="inlineStr">
         <is>
-          <t>e4bb6897-9fd4-41bc-be06-6d58dc49fc02</t>
+          <t>979cf0ba-bf94-4f4e-97cb-4da50b92fa05</t>
         </is>
       </c>
       <c r="B296" s="2" t="n">
@@ -14333,16 +15685,16 @@
         <v>44917</v>
       </c>
       <c r="E296" s="2" t="n">
-        <v>44920</v>
+        <v>44917</v>
       </c>
       <c r="F296" t="inlineStr">
         <is>
-          <t>STARBUCKS STORE 00428</t>
+          <t>GOOGLE *Domains</t>
         </is>
       </c>
       <c r="G296" t="inlineStr">
         <is>
-          <t>Food &amp; Drink</t>
+          <t>Bills &amp; Utilities</t>
         </is>
       </c>
       <c r="H296" t="inlineStr">
@@ -14351,14 +15703,14 @@
         </is>
       </c>
       <c r="I296" t="n">
-        <v>-7</v>
+        <v>-6</v>
       </c>
       <c r="J296" s="2" t="n">
         <v>44926</v>
       </c>
       <c r="K296" t="inlineStr">
         <is>
-          <t>Sapphire</t>
+          <t>Amazon</t>
         </is>
       </c>
       <c r="L296" t="n">
@@ -14366,14 +15718,14 @@
       </c>
       <c r="M296" t="inlineStr">
         <is>
-          <t>Coffee</t>
+          <t>Services</t>
         </is>
       </c>
     </row>
     <row r="297">
       <c r="A297" s="1" t="inlineStr">
         <is>
-          <t>268d6baf-6fbb-4a9e-8b0c-f1b26fd9b5d1</t>
+          <t>22aee82c-d374-4c48-8fa5-6010773ed409</t>
         </is>
       </c>
       <c r="B297" s="2" t="n">
@@ -14386,11 +15738,11 @@
         <v>44917</v>
       </c>
       <c r="E297" s="2" t="n">
-        <v>44920</v>
+        <v>44918</v>
       </c>
       <c r="F297" t="inlineStr">
         <is>
-          <t>STARBUCKS STORE 00428</t>
+          <t>TST* Pizza Thief</t>
         </is>
       </c>
       <c r="G297" t="inlineStr">
@@ -14404,7 +15756,7 @@
         </is>
       </c>
       <c r="I297" t="n">
-        <v>-4.65</v>
+        <v>-16</v>
       </c>
       <c r="J297" s="2" t="n">
         <v>44926</v>
@@ -14419,14 +15771,14 @@
       </c>
       <c r="M297" t="inlineStr">
         <is>
-          <t>Coffee</t>
+          <t>Eating Out</t>
         </is>
       </c>
     </row>
     <row r="298">
       <c r="A298" s="1" t="inlineStr">
         <is>
-          <t>a683af98-6527-4b33-95de-7141a1b4facc</t>
+          <t>1269bd7f-f0cf-4bcd-83ec-9636f5d58097</t>
         </is>
       </c>
       <c r="B298" s="2" t="n">
@@ -14443,12 +15795,12 @@
       </c>
       <c r="F298" t="inlineStr">
         <is>
-          <t>76 - PLAID PANTRY 83</t>
+          <t>TST* Pizza Thief</t>
         </is>
       </c>
       <c r="G298" t="inlineStr">
         <is>
-          <t>Gas</t>
+          <t>Food &amp; Drink</t>
         </is>
       </c>
       <c r="H298" t="inlineStr">
@@ -14457,14 +15809,14 @@
         </is>
       </c>
       <c r="I298" t="n">
-        <v>-56.04</v>
+        <v>-6.75</v>
       </c>
       <c r="J298" s="2" t="n">
         <v>44926</v>
       </c>
       <c r="K298" t="inlineStr">
         <is>
-          <t>Amazon</t>
+          <t>Sapphire</t>
         </is>
       </c>
       <c r="L298" t="n">
@@ -14472,83 +15824,87 @@
       </c>
       <c r="M298" t="inlineStr">
         <is>
-          <t>Gasoline</t>
+          <t>Eating Out</t>
         </is>
       </c>
     </row>
     <row r="299">
       <c r="A299" s="1" t="inlineStr">
         <is>
-          <t>20eadf3f-8a78-4eab-a66d-63dd9d1864ca</t>
+          <t>39d31fd1-2c90-4bb8-b198-1bb9562987cf</t>
         </is>
       </c>
       <c r="B299" s="2" t="n">
         <v>44926</v>
       </c>
-      <c r="C299" t="inlineStr"/>
+      <c r="C299" s="2" t="n">
+        <v>44926</v>
+      </c>
       <c r="D299" s="2" t="n">
         <v>44918</v>
       </c>
       <c r="E299" s="2" t="n">
-        <v>44920</v>
+        <v>44921</v>
       </c>
       <c r="F299" t="inlineStr">
         <is>
-          <t>AVIS.COM PREPAY</t>
+          <t>PILOT         00003913</t>
         </is>
       </c>
       <c r="G299" t="inlineStr">
         <is>
-          <t>Travel</t>
+          <t>Gas</t>
         </is>
       </c>
       <c r="H299" t="inlineStr">
         <is>
-          <t>Return</t>
+          <t>Sale</t>
         </is>
       </c>
       <c r="I299" t="n">
-        <v>162.25</v>
+        <v>-19.28</v>
       </c>
       <c r="J299" s="2" t="n">
         <v>44926</v>
       </c>
       <c r="K299" t="inlineStr">
         <is>
-          <t>Amazon</t>
+          <t>Sapphire</t>
         </is>
       </c>
       <c r="L299" t="n">
-        <v>0</v>
-      </c>
-      <c r="M299" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="M299" t="inlineStr">
+        <is>
+          <t>Travel</t>
+        </is>
+      </c>
     </row>
     <row r="300">
       <c r="A300" s="1" t="inlineStr">
         <is>
-          <t>37422ab4-33ab-4672-a509-0df15ad1878d</t>
+          <t>51894e26-61b3-4b6d-b54f-431b5d00a7f5</t>
         </is>
       </c>
       <c r="B300" s="2" t="n">
         <v>44926</v>
       </c>
-      <c r="C300" s="2" t="n">
-        <v>44927</v>
-      </c>
+      <c r="C300" t="inlineStr"/>
       <c r="D300" s="2" t="n">
         <v>44918</v>
       </c>
       <c r="E300" s="2" t="n">
-        <v>44918</v>
+        <v>44920</v>
       </c>
       <c r="F300" t="inlineStr">
         <is>
-          <t>adidas 6536 Portland</t>
+          <t>AVIS.COM PREPAY</t>
         </is>
       </c>
       <c r="G300" t="inlineStr">
         <is>
-          <t>Shopping</t>
+          <t>Travel</t>
         </is>
       </c>
       <c r="H300" t="inlineStr">
@@ -14557,7 +15913,7 @@
         </is>
       </c>
       <c r="I300" t="n">
-        <v>-190.55</v>
+        <v>-162.25</v>
       </c>
       <c r="J300" s="2" t="n">
         <v>44926</v>
@@ -14568,71 +15924,69 @@
         </is>
       </c>
       <c r="L300" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M300" t="inlineStr">
         <is>
-          <t>Clothes</t>
+          <t>nan</t>
         </is>
       </c>
     </row>
     <row r="301">
       <c r="A301" s="1" t="inlineStr">
         <is>
-          <t>a9c81718-234b-4c46-9d89-01fe3acbf954</t>
+          <t>20eadf3f-8a78-4eab-a66d-63dd9d1864ca</t>
         </is>
       </c>
       <c r="B301" s="2" t="n">
         <v>44926</v>
       </c>
-      <c r="C301" s="2" t="n">
-        <v>44927</v>
-      </c>
+      <c r="C301" t="inlineStr"/>
       <c r="D301" s="2" t="n">
         <v>44918</v>
       </c>
       <c r="E301" s="2" t="n">
-        <v>44921</v>
+        <v>44920</v>
       </c>
       <c r="F301" t="inlineStr">
         <is>
-          <t>SAINT HONORE BOULANGERIE</t>
+          <t>AVIS.COM PREPAY</t>
         </is>
       </c>
       <c r="G301" t="inlineStr">
         <is>
-          <t>Food &amp; Drink</t>
+          <t>Travel</t>
         </is>
       </c>
       <c r="H301" t="inlineStr">
         <is>
-          <t>Sale</t>
+          <t>Return</t>
         </is>
       </c>
       <c r="I301" t="n">
-        <v>-3.74</v>
+        <v>162.25</v>
       </c>
       <c r="J301" s="2" t="n">
         <v>44926</v>
       </c>
       <c r="K301" t="inlineStr">
         <is>
-          <t>Sapphire</t>
+          <t>Amazon</t>
         </is>
       </c>
       <c r="L301" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M301" t="inlineStr">
         <is>
-          <t>Coffee</t>
+          <t>nan</t>
         </is>
       </c>
     </row>
     <row r="302">
       <c r="A302" s="1" t="inlineStr">
         <is>
-          <t>aa3c5ad4-0212-4fb6-8d96-03b5b3f2de17</t>
+          <t>37422ab4-33ab-4672-a509-0df15ad1878d</t>
         </is>
       </c>
       <c r="B302" s="2" t="n">
@@ -14644,23 +15998,33 @@
       <c r="D302" s="2" t="n">
         <v>44918</v>
       </c>
-      <c r="E302" t="inlineStr"/>
+      <c r="E302" s="2" t="n">
+        <v>44918</v>
+      </c>
       <c r="F302" t="inlineStr">
         <is>
-          <t>TOYOTA MOTOR SAL PAYROLL 568349-TMN</t>
-        </is>
-      </c>
-      <c r="G302" t="inlineStr"/>
-      <c r="H302" t="inlineStr"/>
+          <t>adidas 6536 Portland</t>
+        </is>
+      </c>
+      <c r="G302" t="inlineStr">
+        <is>
+          <t>Shopping</t>
+        </is>
+      </c>
+      <c r="H302" t="inlineStr">
+        <is>
+          <t>Sale</t>
+        </is>
+      </c>
       <c r="I302" t="n">
-        <v>2214.61</v>
+        <v>-190.55</v>
       </c>
       <c r="J302" s="2" t="n">
         <v>44926</v>
       </c>
       <c r="K302" t="inlineStr">
         <is>
-          <t>Mechanics</t>
+          <t>Amazon</t>
         </is>
       </c>
       <c r="L302" t="n">
@@ -14668,34 +16032,36 @@
       </c>
       <c r="M302" t="inlineStr">
         <is>
-          <t>Income</t>
+          <t>Clothes</t>
         </is>
       </c>
     </row>
     <row r="303">
       <c r="A303" s="1" t="inlineStr">
         <is>
-          <t>51894e26-61b3-4b6d-b54f-431b5d00a7f5</t>
+          <t>a9c81718-234b-4c46-9d89-01fe3acbf954</t>
         </is>
       </c>
       <c r="B303" s="2" t="n">
         <v>44926</v>
       </c>
-      <c r="C303" t="inlineStr"/>
+      <c r="C303" s="2" t="n">
+        <v>44927</v>
+      </c>
       <c r="D303" s="2" t="n">
         <v>44918</v>
       </c>
       <c r="E303" s="2" t="n">
-        <v>44920</v>
+        <v>44921</v>
       </c>
       <c r="F303" t="inlineStr">
         <is>
-          <t>AVIS.COM PREPAY</t>
+          <t>SAINT HONORE BOULANGERIE</t>
         </is>
       </c>
       <c r="G303" t="inlineStr">
         <is>
-          <t>Travel</t>
+          <t>Food &amp; Drink</t>
         </is>
       </c>
       <c r="H303" t="inlineStr">
@@ -14704,25 +16070,29 @@
         </is>
       </c>
       <c r="I303" t="n">
-        <v>-162.25</v>
+        <v>-3.74</v>
       </c>
       <c r="J303" s="2" t="n">
         <v>44926</v>
       </c>
       <c r="K303" t="inlineStr">
         <is>
-          <t>Amazon</t>
+          <t>Sapphire</t>
         </is>
       </c>
       <c r="L303" t="n">
-        <v>0</v>
-      </c>
-      <c r="M303" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="M303" t="inlineStr">
+        <is>
+          <t>Coffee</t>
+        </is>
+      </c>
     </row>
     <row r="304">
       <c r="A304" s="1" t="inlineStr">
         <is>
-          <t>ba1d3d17-a3db-41aa-b1c7-55b3cceefe90</t>
+          <t>94000b2e-765b-4131-9c9e-43ae3c02aed2</t>
         </is>
       </c>
       <c r="B304" s="2" t="n">
@@ -14739,12 +16109,12 @@
       </c>
       <c r="F304" t="inlineStr">
         <is>
-          <t>CHIPOTLE 2782</t>
+          <t>PILOT_00391</t>
         </is>
       </c>
       <c r="G304" t="inlineStr">
         <is>
-          <t>Food &amp; Drink</t>
+          <t>Gas</t>
         </is>
       </c>
       <c r="H304" t="inlineStr">
@@ -14753,14 +16123,14 @@
         </is>
       </c>
       <c r="I304" t="n">
-        <v>-12.2</v>
+        <v>-35.33</v>
       </c>
       <c r="J304" s="2" t="n">
         <v>44926</v>
       </c>
       <c r="K304" t="inlineStr">
         <is>
-          <t>Sapphire</t>
+          <t>Amazon</t>
         </is>
       </c>
       <c r="L304" t="n">
@@ -14775,7 +16145,7 @@
     <row r="305">
       <c r="A305" s="1" t="inlineStr">
         <is>
-          <t>94000b2e-765b-4131-9c9e-43ae3c02aed2</t>
+          <t>ba1d3d17-a3db-41aa-b1c7-55b3cceefe90</t>
         </is>
       </c>
       <c r="B305" s="2" t="n">
@@ -14792,12 +16162,12 @@
       </c>
       <c r="F305" t="inlineStr">
         <is>
-          <t>PILOT_00391</t>
+          <t>CHIPOTLE 2782</t>
         </is>
       </c>
       <c r="G305" t="inlineStr">
         <is>
-          <t>Gas</t>
+          <t>Food &amp; Drink</t>
         </is>
       </c>
       <c r="H305" t="inlineStr">
@@ -14806,14 +16176,14 @@
         </is>
       </c>
       <c r="I305" t="n">
-        <v>-35.33</v>
+        <v>-12.2</v>
       </c>
       <c r="J305" s="2" t="n">
         <v>44926</v>
       </c>
       <c r="K305" t="inlineStr">
         <is>
-          <t>Amazon</t>
+          <t>Sapphire</t>
         </is>
       </c>
       <c r="L305" t="n">
@@ -14934,45 +16304,43 @@
     <row r="308">
       <c r="A308" s="1" t="inlineStr">
         <is>
-          <t>39d31fd1-2c90-4bb8-b198-1bb9562987cf</t>
+          <t>aa3c5ad4-0212-4fb6-8d96-03b5b3f2de17</t>
         </is>
       </c>
       <c r="B308" s="2" t="n">
         <v>44926</v>
       </c>
       <c r="C308" s="2" t="n">
-        <v>44926</v>
+        <v>44927</v>
       </c>
       <c r="D308" s="2" t="n">
         <v>44918</v>
       </c>
-      <c r="E308" s="2" t="n">
-        <v>44921</v>
-      </c>
+      <c r="E308" t="inlineStr"/>
       <c r="F308" t="inlineStr">
         <is>
-          <t>PILOT         00003913</t>
+          <t>TOYOTA MOTOR SAL PAYROLL 568349-TMN</t>
         </is>
       </c>
       <c r="G308" t="inlineStr">
         <is>
-          <t>Gas</t>
+          <t>nan</t>
         </is>
       </c>
       <c r="H308" t="inlineStr">
         <is>
-          <t>Sale</t>
+          <t>nan</t>
         </is>
       </c>
       <c r="I308" t="n">
-        <v>-19.28</v>
+        <v>2214.61</v>
       </c>
       <c r="J308" s="2" t="n">
         <v>44926</v>
       </c>
       <c r="K308" t="inlineStr">
         <is>
-          <t>Sapphire</t>
+          <t>Mechanics</t>
         </is>
       </c>
       <c r="L308" t="n">
@@ -14980,21 +16348,21 @@
       </c>
       <c r="M308" t="inlineStr">
         <is>
-          <t>Travel</t>
+          <t>Income</t>
         </is>
       </c>
     </row>
     <row r="309">
       <c r="A309" s="1" t="inlineStr">
         <is>
-          <t>bce462ce-ee3f-4121-9f6f-19c416134271</t>
+          <t>da78a1a6-4696-4c4e-811f-76348c15942c</t>
         </is>
       </c>
       <c r="B309" s="2" t="n">
         <v>44926</v>
       </c>
       <c r="C309" s="2" t="n">
-        <v>44927</v>
+        <v>44926</v>
       </c>
       <c r="D309" s="2" t="n">
         <v>44919</v>
@@ -15004,12 +16372,12 @@
       </c>
       <c r="F309" t="inlineStr">
         <is>
-          <t>COMCAST CABLE COMM</t>
+          <t>AVIS RENT-A-CAR</t>
         </is>
       </c>
       <c r="G309" t="inlineStr">
         <is>
-          <t>Bills &amp; Utilities</t>
+          <t>Travel</t>
         </is>
       </c>
       <c r="H309" t="inlineStr">
@@ -15018,7 +16386,7 @@
         </is>
       </c>
       <c r="I309" t="n">
-        <v>-35.12</v>
+        <v>-299.65</v>
       </c>
       <c r="J309" s="2" t="n">
         <v>44926</v>
@@ -15033,21 +16401,21 @@
       </c>
       <c r="M309" t="inlineStr">
         <is>
-          <t>Internet</t>
+          <t>Travel</t>
         </is>
       </c>
     </row>
     <row r="310">
       <c r="A310" s="1" t="inlineStr">
         <is>
-          <t>a15a2dac-76bc-475d-84bf-0fb7a82af490</t>
+          <t>bce462ce-ee3f-4121-9f6f-19c416134271</t>
         </is>
       </c>
       <c r="B310" s="2" t="n">
         <v>44926</v>
       </c>
       <c r="C310" s="2" t="n">
-        <v>44926</v>
+        <v>44927</v>
       </c>
       <c r="D310" s="2" t="n">
         <v>44919</v>
@@ -15057,12 +16425,12 @@
       </c>
       <c r="F310" t="inlineStr">
         <is>
-          <t>SQ *FIELD DAY COFFEE</t>
+          <t>COMCAST CABLE COMM</t>
         </is>
       </c>
       <c r="G310" t="inlineStr">
         <is>
-          <t>Food &amp; Drink</t>
+          <t>Bills &amp; Utilities</t>
         </is>
       </c>
       <c r="H310" t="inlineStr">
@@ -15071,14 +16439,14 @@
         </is>
       </c>
       <c r="I310" t="n">
-        <v>-7.26</v>
+        <v>-35.12</v>
       </c>
       <c r="J310" s="2" t="n">
         <v>44926</v>
       </c>
       <c r="K310" t="inlineStr">
         <is>
-          <t>Sapphire</t>
+          <t>Amazon</t>
         </is>
       </c>
       <c r="L310" t="n">
@@ -15086,14 +16454,14 @@
       </c>
       <c r="M310" t="inlineStr">
         <is>
-          <t>Travel</t>
+          <t>Internet</t>
         </is>
       </c>
     </row>
     <row r="311">
       <c r="A311" s="1" t="inlineStr">
         <is>
-          <t>da78a1a6-4696-4c4e-811f-76348c15942c</t>
+          <t>a15a2dac-76bc-475d-84bf-0fb7a82af490</t>
         </is>
       </c>
       <c r="B311" s="2" t="n">
@@ -15110,12 +16478,12 @@
       </c>
       <c r="F311" t="inlineStr">
         <is>
-          <t>AVIS RENT-A-CAR</t>
+          <t>SQ *FIELD DAY COFFEE</t>
         </is>
       </c>
       <c r="G311" t="inlineStr">
         <is>
-          <t>Travel</t>
+          <t>Food &amp; Drink</t>
         </is>
       </c>
       <c r="H311" t="inlineStr">
@@ -15124,14 +16492,14 @@
         </is>
       </c>
       <c r="I311" t="n">
-        <v>-299.65</v>
+        <v>-7.26</v>
       </c>
       <c r="J311" s="2" t="n">
         <v>44926</v>
       </c>
       <c r="K311" t="inlineStr">
         <is>
-          <t>Amazon</t>
+          <t>Sapphire</t>
         </is>
       </c>
       <c r="L311" t="n">
@@ -15146,7 +16514,7 @@
     <row r="312">
       <c r="A312" s="1" t="inlineStr">
         <is>
-          <t>65e10d2f-609d-49a4-baf6-f0e7046e0260</t>
+          <t>9513e49b-f7c8-4aff-9434-fd16634af30f</t>
         </is>
       </c>
       <c r="B312" s="2" t="n">
@@ -15159,11 +16527,11 @@
         <v>44919</v>
       </c>
       <c r="E312" s="2" t="n">
-        <v>44921</v>
+        <v>44920</v>
       </c>
       <c r="F312" t="inlineStr">
         <is>
-          <t>SHELL OIL 57445238207</t>
+          <t>LOVE'S #652</t>
         </is>
       </c>
       <c r="G312" t="inlineStr">
@@ -15177,14 +16545,14 @@
         </is>
       </c>
       <c r="I312" t="n">
-        <v>-13.02</v>
+        <v>-40.93</v>
       </c>
       <c r="J312" s="2" t="n">
         <v>44926</v>
       </c>
       <c r="K312" t="inlineStr">
         <is>
-          <t>Sapphire</t>
+          <t>Amazon</t>
         </is>
       </c>
       <c r="L312" t="n">
@@ -15199,7 +16567,7 @@
     <row r="313">
       <c r="A313" s="1" t="inlineStr">
         <is>
-          <t>9513e49b-f7c8-4aff-9434-fd16634af30f</t>
+          <t>af363c79-580c-4fcb-84f2-fee73c5b2164</t>
         </is>
       </c>
       <c r="B313" s="2" t="n">
@@ -15216,7 +16584,7 @@
       </c>
       <c r="F313" t="inlineStr">
         <is>
-          <t>LOVE'S #652</t>
+          <t>76 - ADEL BICHAY &amp;amp; TAM</t>
         </is>
       </c>
       <c r="G313" t="inlineStr">
@@ -15230,7 +16598,7 @@
         </is>
       </c>
       <c r="I313" t="n">
-        <v>-40.93</v>
+        <v>-60.19</v>
       </c>
       <c r="J313" s="2" t="n">
         <v>44926</v>
@@ -15252,7 +16620,7 @@
     <row r="314">
       <c r="A314" s="1" t="inlineStr">
         <is>
-          <t>af363c79-580c-4fcb-84f2-fee73c5b2164</t>
+          <t>65e10d2f-609d-49a4-baf6-f0e7046e0260</t>
         </is>
       </c>
       <c r="B314" s="2" t="n">
@@ -15265,11 +16633,11 @@
         <v>44919</v>
       </c>
       <c r="E314" s="2" t="n">
-        <v>44920</v>
+        <v>44921</v>
       </c>
       <c r="F314" t="inlineStr">
         <is>
-          <t>76 - ADEL BICHAY &amp;amp; TAM</t>
+          <t>SHELL OIL 57445238207</t>
         </is>
       </c>
       <c r="G314" t="inlineStr">
@@ -15283,14 +16651,14 @@
         </is>
       </c>
       <c r="I314" t="n">
-        <v>-60.19</v>
+        <v>-13.02</v>
       </c>
       <c r="J314" s="2" t="n">
         <v>44926</v>
       </c>
       <c r="K314" t="inlineStr">
         <is>
-          <t>Amazon</t>
+          <t>Sapphire</t>
         </is>
       </c>
       <c r="L314" t="n">
@@ -15517,50 +16885,60 @@
     <row r="319">
       <c r="A319" s="1" t="inlineStr">
         <is>
-          <t>b01ff292-aa90-4f2d-b6df-f9f54530fcb2</t>
+          <t>627407fb-ade2-4dac-8f73-6d08977c88fe</t>
         </is>
       </c>
       <c r="B319" s="2" t="n">
         <v>44926</v>
       </c>
-      <c r="C319" t="inlineStr"/>
+      <c r="C319" s="2" t="n">
+        <v>44927</v>
+      </c>
       <c r="D319" s="2" t="n">
         <v>44923</v>
       </c>
       <c r="E319" s="2" t="n">
-        <v>44923</v>
+        <v>44924</v>
       </c>
       <c r="F319" t="inlineStr">
         <is>
-          <t>AUTOMATIC PAYMENT - THANK</t>
-        </is>
-      </c>
-      <c r="G319" t="inlineStr"/>
+          <t>SAN LUIS OBISPO  CA SL</t>
+        </is>
+      </c>
+      <c r="G319" t="inlineStr">
+        <is>
+          <t>Food &amp; Drink</t>
+        </is>
+      </c>
       <c r="H319" t="inlineStr">
         <is>
-          <t>Payment</t>
+          <t>Sale</t>
         </is>
       </c>
       <c r="I319" t="n">
-        <v>118.04</v>
+        <v>-12.8</v>
       </c>
       <c r="J319" s="2" t="n">
         <v>44926</v>
       </c>
       <c r="K319" t="inlineStr">
         <is>
-          <t>Amazon</t>
+          <t>Sapphire</t>
         </is>
       </c>
       <c r="L319" t="n">
-        <v>0</v>
-      </c>
-      <c r="M319" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="M319" t="inlineStr">
+        <is>
+          <t>Eating Out</t>
+        </is>
+      </c>
     </row>
     <row r="320">
       <c r="A320" s="1" t="inlineStr">
         <is>
-          <t>472d732c-7acc-4d4e-8cf3-69989cad3f1a</t>
+          <t>5251b6dc-8e1b-49c0-8e53-a82dad60c3c2</t>
         </is>
       </c>
       <c r="B320" s="2" t="n">
@@ -15573,11 +16951,11 @@
         <v>44923</v>
       </c>
       <c r="E320" s="2" t="n">
-        <v>44925</v>
+        <v>44924</v>
       </c>
       <c r="F320" t="inlineStr">
         <is>
-          <t>TST* Ecliptic Brewing</t>
+          <t>SAN LUIS OBISPO  CA SL</t>
         </is>
       </c>
       <c r="G320" t="inlineStr">
@@ -15591,7 +16969,7 @@
         </is>
       </c>
       <c r="I320" t="n">
-        <v>-27.6</v>
+        <v>-12.8</v>
       </c>
       <c r="J320" s="2" t="n">
         <v>44926</v>
@@ -15613,60 +16991,58 @@
     <row r="321">
       <c r="A321" s="1" t="inlineStr">
         <is>
-          <t>5251b6dc-8e1b-49c0-8e53-a82dad60c3c2</t>
+          <t>b01ff292-aa90-4f2d-b6df-f9f54530fcb2</t>
         </is>
       </c>
       <c r="B321" s="2" t="n">
         <v>44926</v>
       </c>
-      <c r="C321" s="2" t="n">
-        <v>44927</v>
-      </c>
+      <c r="C321" t="inlineStr"/>
       <c r="D321" s="2" t="n">
         <v>44923</v>
       </c>
       <c r="E321" s="2" t="n">
-        <v>44924</v>
+        <v>44923</v>
       </c>
       <c r="F321" t="inlineStr">
         <is>
-          <t>SAN LUIS OBISPO  CA SL</t>
+          <t>AUTOMATIC PAYMENT - THANK</t>
         </is>
       </c>
       <c r="G321" t="inlineStr">
         <is>
-          <t>Food &amp; Drink</t>
+          <t>nan</t>
         </is>
       </c>
       <c r="H321" t="inlineStr">
         <is>
-          <t>Sale</t>
+          <t>Payment</t>
         </is>
       </c>
       <c r="I321" t="n">
-        <v>-12.8</v>
+        <v>118.04</v>
       </c>
       <c r="J321" s="2" t="n">
         <v>44926</v>
       </c>
       <c r="K321" t="inlineStr">
         <is>
-          <t>Sapphire</t>
+          <t>Amazon</t>
         </is>
       </c>
       <c r="L321" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M321" t="inlineStr">
         <is>
-          <t>Eating Out</t>
+          <t>nan</t>
         </is>
       </c>
     </row>
     <row r="322">
       <c r="A322" s="1" t="inlineStr">
         <is>
-          <t>627407fb-ade2-4dac-8f73-6d08977c88fe</t>
+          <t>472d732c-7acc-4d4e-8cf3-69989cad3f1a</t>
         </is>
       </c>
       <c r="B322" s="2" t="n">
@@ -15679,11 +17055,11 @@
         <v>44923</v>
       </c>
       <c r="E322" s="2" t="n">
-        <v>44924</v>
+        <v>44925</v>
       </c>
       <c r="F322" t="inlineStr">
         <is>
-          <t>SAN LUIS OBISPO  CA SL</t>
+          <t>TST* Ecliptic Brewing</t>
         </is>
       </c>
       <c r="G322" t="inlineStr">
@@ -15697,7 +17073,7 @@
         </is>
       </c>
       <c r="I322" t="n">
-        <v>-12.8</v>
+        <v>-27.6</v>
       </c>
       <c r="J322" s="2" t="n">
         <v>44926</v>
@@ -15735,8 +17111,16 @@
           <t>CHASE CREDIT CRD AUTOPAY 000000000508601</t>
         </is>
       </c>
-      <c r="G323" t="inlineStr"/>
-      <c r="H323" t="inlineStr"/>
+      <c r="G323" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="H323" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
       <c r="I323" t="n">
         <v>-118.04</v>
       </c>
@@ -15751,34 +17135,38 @@
       <c r="L323" t="n">
         <v>0</v>
       </c>
-      <c r="M323" t="inlineStr"/>
+      <c r="M323" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
     </row>
     <row r="324">
       <c r="A324" s="1" t="inlineStr">
         <is>
-          <t>8ec7ec3d-53c3-4212-a592-b469546ae27b</t>
+          <t>25d852f4-b82a-4f38-acb4-d8aa19c6f29d</t>
         </is>
       </c>
       <c r="B324" s="2" t="n">
-        <v>44933</v>
+        <v>44931</v>
       </c>
       <c r="C324" s="2" t="n">
-        <v>44933</v>
+        <v>44931</v>
       </c>
       <c r="D324" s="2" t="n">
         <v>44926</v>
       </c>
       <c r="E324" s="2" t="n">
-        <v>44928</v>
+        <v>44927</v>
       </c>
       <c r="F324" t="inlineStr">
         <is>
-          <t>COIN METER LAUNDRY KIOSK/</t>
+          <t>SQ *CLEARING CAFE</t>
         </is>
       </c>
       <c r="G324" t="inlineStr">
         <is>
-          <t>Personal</t>
+          <t>Food &amp; Drink</t>
         </is>
       </c>
       <c r="H324" t="inlineStr">
@@ -15787,14 +17175,14 @@
         </is>
       </c>
       <c r="I324" t="n">
-        <v>-20</v>
+        <v>-6.5</v>
       </c>
       <c r="J324" s="2" t="n">
-        <v>44933</v>
+        <v>44931</v>
       </c>
       <c r="K324" t="inlineStr">
         <is>
-          <t>Amazon</t>
+          <t>Sapphire</t>
         </is>
       </c>
       <c r="L324" t="n">
@@ -15802,21 +17190,21 @@
       </c>
       <c r="M324" t="inlineStr">
         <is>
-          <t>Laundry</t>
+          <t>Coffee</t>
         </is>
       </c>
     </row>
     <row r="325">
       <c r="A325" s="1" t="inlineStr">
         <is>
-          <t>189660e3-1171-4b07-9ffd-74e201cc7b9e</t>
+          <t>cde55010-cff5-43d9-850b-c4f8822bd7f5</t>
         </is>
       </c>
       <c r="B325" s="2" t="n">
-        <v>44933</v>
+        <v>44931</v>
       </c>
       <c r="C325" s="2" t="n">
-        <v>44933</v>
+        <v>44931</v>
       </c>
       <c r="D325" s="2" t="n">
         <v>44926</v>
@@ -15843,7 +17231,7 @@
         <v>-29.99</v>
       </c>
       <c r="J325" s="2" t="n">
-        <v>44933</v>
+        <v>44931</v>
       </c>
       <c r="K325" t="inlineStr">
         <is>
@@ -15862,7 +17250,7 @@
     <row r="326">
       <c r="A326" s="1" t="inlineStr">
         <is>
-          <t>52a46dfa-96bf-4574-aefd-d80d6c3ddd62</t>
+          <t>1461e73c-8a62-4dad-a23c-c60bdfdfac86</t>
         </is>
       </c>
       <c r="B326" s="2" t="n">
@@ -15875,16 +17263,16 @@
         <v>44926</v>
       </c>
       <c r="E326" s="2" t="n">
-        <v>44928</v>
+        <v>44927</v>
       </c>
       <c r="F326" t="inlineStr">
         <is>
-          <t>23RD AVE BOTTLE SHOP</t>
+          <t>SQ *CLEARING CAFE</t>
         </is>
       </c>
       <c r="G326" t="inlineStr">
         <is>
-          <t>Shopping</t>
+          <t>Food &amp; Drink</t>
         </is>
       </c>
       <c r="H326" t="inlineStr">
@@ -15893,7 +17281,7 @@
         </is>
       </c>
       <c r="I326" t="n">
-        <v>-28.85</v>
+        <v>-6.5</v>
       </c>
       <c r="J326" s="2" t="n">
         <v>44933</v>
@@ -15908,21 +17296,21 @@
       </c>
       <c r="M326" t="inlineStr">
         <is>
-          <t>Celebration</t>
+          <t>Coffee</t>
         </is>
       </c>
     </row>
     <row r="327">
       <c r="A327" s="1" t="inlineStr">
         <is>
-          <t>1461e73c-8a62-4dad-a23c-c60bdfdfac86</t>
+          <t>7df0226f-6fb3-438e-a1ad-2c4d013b71bd</t>
         </is>
       </c>
       <c r="B327" s="2" t="n">
-        <v>44933</v>
+        <v>44931</v>
       </c>
       <c r="C327" s="2" t="n">
-        <v>44933</v>
+        <v>44931</v>
       </c>
       <c r="D327" s="2" t="n">
         <v>44926</v>
@@ -15932,7 +17320,7 @@
       </c>
       <c r="F327" t="inlineStr">
         <is>
-          <t>SQ *CLEARING CAFE</t>
+          <t>SQ *BARISTA</t>
         </is>
       </c>
       <c r="G327" t="inlineStr">
@@ -15946,10 +17334,10 @@
         </is>
       </c>
       <c r="I327" t="n">
-        <v>-6.5</v>
+        <v>-12</v>
       </c>
       <c r="J327" s="2" t="n">
-        <v>44933</v>
+        <v>44931</v>
       </c>
       <c r="K327" t="inlineStr">
         <is>
@@ -15968,7 +17356,7 @@
     <row r="328">
       <c r="A328" s="1" t="inlineStr">
         <is>
-          <t>4a9bfa46-2041-4281-8b95-336f6791860e</t>
+          <t>52a46dfa-96bf-4574-aefd-d80d6c3ddd62</t>
         </is>
       </c>
       <c r="B328" s="2" t="n">
@@ -15981,16 +17369,16 @@
         <v>44926</v>
       </c>
       <c r="E328" s="2" t="n">
-        <v>44927</v>
+        <v>44928</v>
       </c>
       <c r="F328" t="inlineStr">
         <is>
-          <t>SQ *BARISTA</t>
+          <t>23RD AVE BOTTLE SHOP</t>
         </is>
       </c>
       <c r="G328" t="inlineStr">
         <is>
-          <t>Food &amp; Drink</t>
+          <t>Shopping</t>
         </is>
       </c>
       <c r="H328" t="inlineStr">
@@ -15999,7 +17387,7 @@
         </is>
       </c>
       <c r="I328" t="n">
-        <v>-12</v>
+        <v>-28.85</v>
       </c>
       <c r="J328" s="2" t="n">
         <v>44933</v>
@@ -16014,21 +17402,21 @@
       </c>
       <c r="M328" t="inlineStr">
         <is>
-          <t>Coffee</t>
+          <t>Celebration</t>
         </is>
       </c>
     </row>
     <row r="329">
       <c r="A329" s="1" t="inlineStr">
         <is>
-          <t>7df0226f-6fb3-438e-a1ad-2c4d013b71bd</t>
+          <t>189660e3-1171-4b07-9ffd-74e201cc7b9e</t>
         </is>
       </c>
       <c r="B329" s="2" t="n">
-        <v>44931</v>
+        <v>44933</v>
       </c>
       <c r="C329" s="2" t="n">
-        <v>44931</v>
+        <v>44933</v>
       </c>
       <c r="D329" s="2" t="n">
         <v>44926</v>
@@ -16038,12 +17426,12 @@
       </c>
       <c r="F329" t="inlineStr">
         <is>
-          <t>SQ *BARISTA</t>
+          <t>AMZN Mktp US*SC82J1A03</t>
         </is>
       </c>
       <c r="G329" t="inlineStr">
         <is>
-          <t>Food &amp; Drink</t>
+          <t>Shopping</t>
         </is>
       </c>
       <c r="H329" t="inlineStr">
@@ -16052,14 +17440,14 @@
         </is>
       </c>
       <c r="I329" t="n">
-        <v>-12</v>
+        <v>-29.99</v>
       </c>
       <c r="J329" s="2" t="n">
-        <v>44931</v>
+        <v>44933</v>
       </c>
       <c r="K329" t="inlineStr">
         <is>
-          <t>Sapphire</t>
+          <t>Amazon</t>
         </is>
       </c>
       <c r="L329" t="n">
@@ -16067,21 +17455,21 @@
       </c>
       <c r="M329" t="inlineStr">
         <is>
-          <t>Coffee</t>
+          <t>Supplies</t>
         </is>
       </c>
     </row>
     <row r="330">
       <c r="A330" s="1" t="inlineStr">
         <is>
-          <t>25d852f4-b82a-4f38-acb4-d8aa19c6f29d</t>
+          <t>4a9bfa46-2041-4281-8b95-336f6791860e</t>
         </is>
       </c>
       <c r="B330" s="2" t="n">
-        <v>44931</v>
+        <v>44933</v>
       </c>
       <c r="C330" s="2" t="n">
-        <v>44931</v>
+        <v>44933</v>
       </c>
       <c r="D330" s="2" t="n">
         <v>44926</v>
@@ -16091,7 +17479,7 @@
       </c>
       <c r="F330" t="inlineStr">
         <is>
-          <t>SQ *CLEARING CAFE</t>
+          <t>SQ *BARISTA</t>
         </is>
       </c>
       <c r="G330" t="inlineStr">
@@ -16105,10 +17493,10 @@
         </is>
       </c>
       <c r="I330" t="n">
-        <v>-6.5</v>
+        <v>-12</v>
       </c>
       <c r="J330" s="2" t="n">
-        <v>44931</v>
+        <v>44933</v>
       </c>
       <c r="K330" t="inlineStr">
         <is>
@@ -16127,29 +17515,29 @@
     <row r="331">
       <c r="A331" s="1" t="inlineStr">
         <is>
-          <t>cde55010-cff5-43d9-850b-c4f8822bd7f5</t>
+          <t>8ec7ec3d-53c3-4212-a592-b469546ae27b</t>
         </is>
       </c>
       <c r="B331" s="2" t="n">
-        <v>44931</v>
+        <v>44933</v>
       </c>
       <c r="C331" s="2" t="n">
-        <v>44931</v>
+        <v>44933</v>
       </c>
       <c r="D331" s="2" t="n">
         <v>44926</v>
       </c>
       <c r="E331" s="2" t="n">
-        <v>44927</v>
+        <v>44928</v>
       </c>
       <c r="F331" t="inlineStr">
         <is>
-          <t>AMZN Mktp US*SC82J1A03</t>
+          <t>COIN METER LAUNDRY KIOSK/</t>
         </is>
       </c>
       <c r="G331" t="inlineStr">
         <is>
-          <t>Shopping</t>
+          <t>Personal</t>
         </is>
       </c>
       <c r="H331" t="inlineStr">
@@ -16158,10 +17546,10 @@
         </is>
       </c>
       <c r="I331" t="n">
-        <v>-29.99</v>
+        <v>-20</v>
       </c>
       <c r="J331" s="2" t="n">
-        <v>44931</v>
+        <v>44933</v>
       </c>
       <c r="K331" t="inlineStr">
         <is>
@@ -16173,7 +17561,7 @@
       </c>
       <c r="M331" t="inlineStr">
         <is>
-          <t>Supplies</t>
+          <t>Laundry</t>
         </is>
       </c>
     </row>
@@ -16339,7 +17727,7 @@
     <row r="335">
       <c r="A335" s="1" t="inlineStr">
         <is>
-          <t>2b79ef1e-f8d8-4c56-8032-bca9c6d2e640</t>
+          <t>912fa263-7aa6-4067-853a-d42bd25ecb12</t>
         </is>
       </c>
       <c r="B335" s="2" t="n">
@@ -16356,7 +17744,7 @@
       </c>
       <c r="F335" t="inlineStr">
         <is>
-          <t>Cha Cha Cha Taqueria - Th</t>
+          <t>SQ *TWENTYSIX CAFE</t>
         </is>
       </c>
       <c r="G335" t="inlineStr">
@@ -16370,7 +17758,7 @@
         </is>
       </c>
       <c r="I335" t="n">
-        <v>-14.4</v>
+        <v>-16.75</v>
       </c>
       <c r="J335" s="2" t="n">
         <v>44933</v>
@@ -16385,14 +17773,14 @@
       </c>
       <c r="M335" t="inlineStr">
         <is>
-          <t>Eating Out</t>
+          <t>Coffee</t>
         </is>
       </c>
     </row>
     <row r="336">
       <c r="A336" s="1" t="inlineStr">
         <is>
-          <t>912fa263-7aa6-4067-853a-d42bd25ecb12</t>
+          <t>2b79ef1e-f8d8-4c56-8032-bca9c6d2e640</t>
         </is>
       </c>
       <c r="B336" s="2" t="n">
@@ -16409,7 +17797,7 @@
       </c>
       <c r="F336" t="inlineStr">
         <is>
-          <t>SQ *TWENTYSIX CAFE</t>
+          <t>Cha Cha Cha Taqueria - Th</t>
         </is>
       </c>
       <c r="G336" t="inlineStr">
@@ -16423,7 +17811,7 @@
         </is>
       </c>
       <c r="I336" t="n">
-        <v>-16.75</v>
+        <v>-14.4</v>
       </c>
       <c r="J336" s="2" t="n">
         <v>44933</v>
@@ -16438,14 +17826,14 @@
       </c>
       <c r="M336" t="inlineStr">
         <is>
-          <t>Coffee</t>
+          <t>Eating Out</t>
         </is>
       </c>
     </row>
     <row r="337">
       <c r="A337" s="1" t="inlineStr">
         <is>
-          <t>6bae7502-17fa-4a5a-9309-c686a0208e6a</t>
+          <t>e66b86ce-0589-4c14-9e82-95f529c23f08</t>
         </is>
       </c>
       <c r="B337" s="2" t="n">
@@ -16462,12 +17850,12 @@
       </c>
       <c r="F337" t="inlineStr">
         <is>
-          <t>AMZN Mktp US*CP87F9JC3</t>
+          <t>TRADER JOE'S #146  QPS</t>
         </is>
       </c>
       <c r="G337" t="inlineStr">
         <is>
-          <t>Shopping</t>
+          <t>Groceries</t>
         </is>
       </c>
       <c r="H337" t="inlineStr">
@@ -16476,14 +17864,14 @@
         </is>
       </c>
       <c r="I337" t="n">
-        <v>-22.51</v>
+        <v>-99.48999999999999</v>
       </c>
       <c r="J337" s="2" t="n">
         <v>44933</v>
       </c>
       <c r="K337" t="inlineStr">
         <is>
-          <t>Amazon</t>
+          <t>Sapphire</t>
         </is>
       </c>
       <c r="L337" t="n">
@@ -16491,14 +17879,14 @@
       </c>
       <c r="M337" t="inlineStr">
         <is>
-          <t>Home</t>
+          <t>Groceries</t>
         </is>
       </c>
     </row>
     <row r="338">
       <c r="A338" s="1" t="inlineStr">
         <is>
-          <t>e66b86ce-0589-4c14-9e82-95f529c23f08</t>
+          <t>6bae7502-17fa-4a5a-9309-c686a0208e6a</t>
         </is>
       </c>
       <c r="B338" s="2" t="n">
@@ -16515,12 +17903,12 @@
       </c>
       <c r="F338" t="inlineStr">
         <is>
-          <t>TRADER JOE'S #146  QPS</t>
+          <t>AMZN Mktp US*CP87F9JC3</t>
         </is>
       </c>
       <c r="G338" t="inlineStr">
         <is>
-          <t>Groceries</t>
+          <t>Shopping</t>
         </is>
       </c>
       <c r="H338" t="inlineStr">
@@ -16529,14 +17917,14 @@
         </is>
       </c>
       <c r="I338" t="n">
-        <v>-99.48999999999999</v>
+        <v>-22.51</v>
       </c>
       <c r="J338" s="2" t="n">
         <v>44933</v>
       </c>
       <c r="K338" t="inlineStr">
         <is>
-          <t>Sapphire</t>
+          <t>Amazon</t>
         </is>
       </c>
       <c r="L338" t="n">
@@ -16544,7 +17932,7 @@
       </c>
       <c r="M338" t="inlineStr">
         <is>
-          <t>Groceries</t>
+          <t>Home</t>
         </is>
       </c>
     </row>
@@ -16604,28 +17992,34 @@
     <row r="340">
       <c r="A340" s="1" t="inlineStr">
         <is>
-          <t>54a15898-5886-4bec-80b0-14e8893f4d5a</t>
+          <t>5f2ce082-efa7-44ae-badf-41ee99e3ad20</t>
         </is>
       </c>
       <c r="B340" s="2" t="n">
         <v>44933</v>
       </c>
-      <c r="C340" s="2" t="n">
-        <v>44933</v>
-      </c>
+      <c r="C340" t="inlineStr"/>
       <c r="D340" s="2" t="n">
         <v>44929</v>
       </c>
       <c r="E340" t="inlineStr"/>
       <c r="F340" t="inlineStr">
         <is>
-          <t>KBC Management, WEB PMTS BF2XX6</t>
-        </is>
-      </c>
-      <c r="G340" t="inlineStr"/>
-      <c r="H340" t="inlineStr"/>
+          <t>Deposit</t>
+        </is>
+      </c>
+      <c r="G340" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="H340" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
       <c r="I340" t="n">
-        <v>-1630</v>
+        <v>400</v>
       </c>
       <c r="J340" s="2" t="n">
         <v>44933</v>
@@ -16636,50 +18030,66 @@
         </is>
       </c>
       <c r="L340" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M340" t="inlineStr">
         <is>
-          <t>Housing</t>
+          <t>nan</t>
         </is>
       </c>
     </row>
     <row r="341">
       <c r="A341" s="1" t="inlineStr">
         <is>
-          <t>5f2ce082-efa7-44ae-badf-41ee99e3ad20</t>
+          <t>45f79cc7-102d-423a-9091-6a1d50523d0d</t>
         </is>
       </c>
       <c r="B341" s="2" t="n">
         <v>44933</v>
       </c>
-      <c r="C341" t="inlineStr"/>
+      <c r="C341" s="2" t="n">
+        <v>44933</v>
+      </c>
       <c r="D341" s="2" t="n">
         <v>44929</v>
       </c>
-      <c r="E341" t="inlineStr"/>
+      <c r="E341" s="2" t="n">
+        <v>44930</v>
+      </c>
       <c r="F341" t="inlineStr">
         <is>
-          <t>Deposit</t>
-        </is>
-      </c>
-      <c r="G341" t="inlineStr"/>
-      <c r="H341" t="inlineStr"/>
+          <t>1PASSWORD</t>
+        </is>
+      </c>
+      <c r="G341" t="inlineStr">
+        <is>
+          <t>Shopping</t>
+        </is>
+      </c>
+      <c r="H341" t="inlineStr">
+        <is>
+          <t>Sale</t>
+        </is>
+      </c>
       <c r="I341" t="n">
-        <v>400</v>
+        <v>-3.99</v>
       </c>
       <c r="J341" s="2" t="n">
         <v>44933</v>
       </c>
       <c r="K341" t="inlineStr">
         <is>
-          <t>Mechanics</t>
+          <t>Amazon</t>
         </is>
       </c>
       <c r="L341" t="n">
-        <v>0</v>
-      </c>
-      <c r="M341" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="M341" t="inlineStr">
+        <is>
+          <t>Services</t>
+        </is>
+      </c>
     </row>
     <row r="342">
       <c r="A342" s="1" t="inlineStr">
@@ -16700,8 +18110,16 @@
           <t>Online Banking Transfer from XXXXXX4411on 1/01/2023 at 12:52 Christmas trip rei</t>
         </is>
       </c>
-      <c r="G342" t="inlineStr"/>
-      <c r="H342" t="inlineStr"/>
+      <c r="G342" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="H342" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
       <c r="I342" t="n">
         <v>500</v>
       </c>
@@ -16716,12 +18134,16 @@
       <c r="L342" t="n">
         <v>0</v>
       </c>
-      <c r="M342" t="inlineStr"/>
+      <c r="M342" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
     </row>
     <row r="343">
       <c r="A343" s="1" t="inlineStr">
         <is>
-          <t>45f79cc7-102d-423a-9091-6a1d50523d0d</t>
+          <t>54a15898-5886-4bec-80b0-14e8893f4d5a</t>
         </is>
       </c>
       <c r="B343" s="2" t="n">
@@ -16733,33 +18155,31 @@
       <c r="D343" s="2" t="n">
         <v>44929</v>
       </c>
-      <c r="E343" s="2" t="n">
-        <v>44930</v>
-      </c>
+      <c r="E343" t="inlineStr"/>
       <c r="F343" t="inlineStr">
         <is>
-          <t>1PASSWORD</t>
+          <t>KBC Management, WEB PMTS BF2XX6</t>
         </is>
       </c>
       <c r="G343" t="inlineStr">
         <is>
-          <t>Shopping</t>
+          <t>nan</t>
         </is>
       </c>
       <c r="H343" t="inlineStr">
         <is>
-          <t>Sale</t>
+          <t>nan</t>
         </is>
       </c>
       <c r="I343" t="n">
-        <v>-3.99</v>
+        <v>-1630</v>
       </c>
       <c r="J343" s="2" t="n">
         <v>44933</v>
       </c>
       <c r="K343" t="inlineStr">
         <is>
-          <t>Amazon</t>
+          <t>Mechanics</t>
         </is>
       </c>
       <c r="L343" t="n">
@@ -16767,14 +18187,14 @@
       </c>
       <c r="M343" t="inlineStr">
         <is>
-          <t>Services</t>
+          <t>Housing</t>
         </is>
       </c>
     </row>
     <row r="344">
       <c r="A344" s="1" t="inlineStr">
         <is>
-          <t>ad4f7cec-2a70-4d8f-95ae-0786bcf1eadb</t>
+          <t>d69100a1-7c0e-4eca-a6cb-93b51ac556f5</t>
         </is>
       </c>
       <c r="B344" s="2" t="n">
@@ -16787,11 +18207,11 @@
         <v>44930</v>
       </c>
       <c r="E344" s="2" t="n">
-        <v>44930</v>
+        <v>44931</v>
       </c>
       <c r="F344" t="inlineStr">
         <is>
-          <t>AMZN Mktp US*XC1JZ2CO3</t>
+          <t>Microsoft*Subscription</t>
         </is>
       </c>
       <c r="G344" t="inlineStr">
@@ -16805,7 +18225,7 @@
         </is>
       </c>
       <c r="I344" t="n">
-        <v>-5.14</v>
+        <v>-1.99</v>
       </c>
       <c r="J344" s="2" t="n">
         <v>44933</v>
@@ -16820,14 +18240,14 @@
       </c>
       <c r="M344" t="inlineStr">
         <is>
-          <t>Home</t>
+          <t>Services</t>
         </is>
       </c>
     </row>
     <row r="345">
       <c r="A345" s="1" t="inlineStr">
         <is>
-          <t>d69100a1-7c0e-4eca-a6cb-93b51ac556f5</t>
+          <t>ad4f7cec-2a70-4d8f-95ae-0786bcf1eadb</t>
         </is>
       </c>
       <c r="B345" s="2" t="n">
@@ -16840,40 +18260,1198 @@
         <v>44930</v>
       </c>
       <c r="E345" s="2" t="n">
+        <v>44930</v>
+      </c>
+      <c r="F345" t="inlineStr">
+        <is>
+          <t>AMZN Mktp US*XC1JZ2CO3</t>
+        </is>
+      </c>
+      <c r="G345" t="inlineStr">
+        <is>
+          <t>Shopping</t>
+        </is>
+      </c>
+      <c r="H345" t="inlineStr">
+        <is>
+          <t>Sale</t>
+        </is>
+      </c>
+      <c r="I345" t="n">
+        <v>-5.14</v>
+      </c>
+      <c r="J345" s="2" t="n">
+        <v>44933</v>
+      </c>
+      <c r="K345" t="inlineStr">
+        <is>
+          <t>Amazon</t>
+        </is>
+      </c>
+      <c r="L345" t="n">
+        <v>1</v>
+      </c>
+      <c r="M345" t="inlineStr">
+        <is>
+          <t>Home</t>
+        </is>
+      </c>
+    </row>
+    <row r="346">
+      <c r="A346" s="1" t="inlineStr">
+        <is>
+          <t>726fc957-7044-4e85-9a1d-70a41f7c7fa9</t>
+        </is>
+      </c>
+      <c r="B346" s="2" t="n">
+        <v>44940</v>
+      </c>
+      <c r="C346" s="2" t="n">
+        <v>44940</v>
+      </c>
+      <c r="D346" s="2" t="n">
         <v>44931</v>
       </c>
-      <c r="F345" t="inlineStr">
-        <is>
-          <t>Microsoft*Subscription</t>
-        </is>
-      </c>
-      <c r="G345" t="inlineStr">
+      <c r="E346" s="2" t="n">
+        <v>44932</v>
+      </c>
+      <c r="F346" t="inlineStr">
+        <is>
+          <t>PORTLAND GENERAL ELECTRIC</t>
+        </is>
+      </c>
+      <c r="G346" t="inlineStr">
+        <is>
+          <t>Bills &amp; Utilities</t>
+        </is>
+      </c>
+      <c r="H346" t="inlineStr">
+        <is>
+          <t>Sale</t>
+        </is>
+      </c>
+      <c r="I346" t="n">
+        <v>-49.12</v>
+      </c>
+      <c r="J346" s="2" t="n">
+        <v>44940</v>
+      </c>
+      <c r="K346" t="inlineStr">
+        <is>
+          <t>Amazon</t>
+        </is>
+      </c>
+      <c r="L346" t="n">
+        <v>1</v>
+      </c>
+      <c r="M346" t="inlineStr">
+        <is>
+          <t>Utilities</t>
+        </is>
+      </c>
+    </row>
+    <row r="347">
+      <c r="A347" s="1" t="inlineStr">
+        <is>
+          <t>5bf86c28-fa9d-44b2-8d4e-096f0a8ff377</t>
+        </is>
+      </c>
+      <c r="B347" s="2" t="n">
+        <v>44940</v>
+      </c>
+      <c r="C347" s="2" t="n">
+        <v>44940</v>
+      </c>
+      <c r="D347" s="2" t="n">
+        <v>44932</v>
+      </c>
+      <c r="E347" s="2" t="n">
+        <v>44934</v>
+      </c>
+      <c r="F347" t="inlineStr">
+        <is>
+          <t>TST* Pizza Thief</t>
+        </is>
+      </c>
+      <c r="G347" t="inlineStr">
+        <is>
+          <t>Food &amp; Drink</t>
+        </is>
+      </c>
+      <c r="H347" t="inlineStr">
+        <is>
+          <t>Sale</t>
+        </is>
+      </c>
+      <c r="I347" t="n">
+        <v>-6.75</v>
+      </c>
+      <c r="J347" s="2" t="n">
+        <v>44940</v>
+      </c>
+      <c r="K347" t="inlineStr">
+        <is>
+          <t>Sapphire</t>
+        </is>
+      </c>
+      <c r="L347" t="n">
+        <v>1</v>
+      </c>
+      <c r="M347" t="inlineStr">
+        <is>
+          <t>Eating Out</t>
+        </is>
+      </c>
+    </row>
+    <row r="348">
+      <c r="A348" s="1" t="inlineStr">
+        <is>
+          <t>fe8f11ad-7559-465f-ac65-401211afc65a</t>
+        </is>
+      </c>
+      <c r="B348" s="2" t="n">
+        <v>44940</v>
+      </c>
+      <c r="C348" s="2" t="n">
+        <v>44940</v>
+      </c>
+      <c r="D348" s="2" t="n">
+        <v>44932</v>
+      </c>
+      <c r="E348" s="2" t="n">
+        <v>44934</v>
+      </c>
+      <c r="F348" t="inlineStr">
+        <is>
+          <t>TST* Pizza Thief</t>
+        </is>
+      </c>
+      <c r="G348" t="inlineStr">
+        <is>
+          <t>Food &amp; Drink</t>
+        </is>
+      </c>
+      <c r="H348" t="inlineStr">
+        <is>
+          <t>Sale</t>
+        </is>
+      </c>
+      <c r="I348" t="n">
+        <v>-16</v>
+      </c>
+      <c r="J348" s="2" t="n">
+        <v>44940</v>
+      </c>
+      <c r="K348" t="inlineStr">
+        <is>
+          <t>Sapphire</t>
+        </is>
+      </c>
+      <c r="L348" t="n">
+        <v>1</v>
+      </c>
+      <c r="M348" t="inlineStr">
+        <is>
+          <t>Eating Out</t>
+        </is>
+      </c>
+    </row>
+    <row r="349">
+      <c r="A349" s="1" t="inlineStr">
+        <is>
+          <t>48092475-7a9e-4bf1-82d4-ea9ab7067788</t>
+        </is>
+      </c>
+      <c r="B349" s="2" t="n">
+        <v>44940</v>
+      </c>
+      <c r="C349" s="2" t="n">
+        <v>44940</v>
+      </c>
+      <c r="D349" s="2" t="n">
+        <v>44932</v>
+      </c>
+      <c r="E349" s="2" t="n">
+        <v>44934</v>
+      </c>
+      <c r="F349" t="inlineStr">
+        <is>
+          <t>TST* Pizza Thief</t>
+        </is>
+      </c>
+      <c r="G349" t="inlineStr">
+        <is>
+          <t>Food &amp; Drink</t>
+        </is>
+      </c>
+      <c r="H349" t="inlineStr">
+        <is>
+          <t>Sale</t>
+        </is>
+      </c>
+      <c r="I349" t="n">
+        <v>-6</v>
+      </c>
+      <c r="J349" s="2" t="n">
+        <v>44940</v>
+      </c>
+      <c r="K349" t="inlineStr">
+        <is>
+          <t>Sapphire</t>
+        </is>
+      </c>
+      <c r="L349" t="n">
+        <v>1</v>
+      </c>
+      <c r="M349" t="inlineStr">
+        <is>
+          <t>Eating Out</t>
+        </is>
+      </c>
+    </row>
+    <row r="350">
+      <c r="A350" s="1" t="inlineStr">
+        <is>
+          <t>74a347bd-93a2-4ef6-bbcf-3583c839e81f</t>
+        </is>
+      </c>
+      <c r="B350" s="2" t="n">
+        <v>44940</v>
+      </c>
+      <c r="C350" s="2" t="n">
+        <v>44940</v>
+      </c>
+      <c r="D350" s="2" t="n">
+        <v>44932</v>
+      </c>
+      <c r="E350" s="2" t="n">
+        <v>44934</v>
+      </c>
+      <c r="F350" t="inlineStr">
+        <is>
+          <t>SQ *ALAINA ALBERTS</t>
+        </is>
+      </c>
+      <c r="G350" t="inlineStr">
+        <is>
+          <t>Personal</t>
+        </is>
+      </c>
+      <c r="H350" t="inlineStr">
+        <is>
+          <t>Sale</t>
+        </is>
+      </c>
+      <c r="I350" t="n">
+        <v>-58.8</v>
+      </c>
+      <c r="J350" s="2" t="n">
+        <v>44940</v>
+      </c>
+      <c r="K350" t="inlineStr">
+        <is>
+          <t>Amazon</t>
+        </is>
+      </c>
+      <c r="L350" t="n">
+        <v>1</v>
+      </c>
+      <c r="M350" t="inlineStr">
+        <is>
+          <t>Haircut</t>
+        </is>
+      </c>
+    </row>
+    <row r="351">
+      <c r="A351" s="1" t="inlineStr">
+        <is>
+          <t>da9d2565-f5b5-4e8f-96d6-d977e1b381d4</t>
+        </is>
+      </c>
+      <c r="B351" s="2" t="n">
+        <v>44940</v>
+      </c>
+      <c r="C351" s="2" t="n">
+        <v>44940</v>
+      </c>
+      <c r="D351" s="2" t="n">
+        <v>44933</v>
+      </c>
+      <c r="E351" s="2" t="n">
+        <v>44934</v>
+      </c>
+      <c r="F351" t="inlineStr">
+        <is>
+          <t>SQ *BARISTA</t>
+        </is>
+      </c>
+      <c r="G351" t="inlineStr">
+        <is>
+          <t>Food &amp; Drink</t>
+        </is>
+      </c>
+      <c r="H351" t="inlineStr">
+        <is>
+          <t>Sale</t>
+        </is>
+      </c>
+      <c r="I351" t="n">
+        <v>-12</v>
+      </c>
+      <c r="J351" s="2" t="n">
+        <v>44940</v>
+      </c>
+      <c r="K351" t="inlineStr">
+        <is>
+          <t>Sapphire</t>
+        </is>
+      </c>
+      <c r="L351" t="n">
+        <v>1</v>
+      </c>
+      <c r="M351" t="inlineStr">
+        <is>
+          <t>Coffee</t>
+        </is>
+      </c>
+    </row>
+    <row r="352">
+      <c r="A352" s="1" t="inlineStr">
+        <is>
+          <t>f14f1e31-e2d3-4926-a9c9-ea2a24b9053d</t>
+        </is>
+      </c>
+      <c r="B352" s="2" t="n">
+        <v>44940</v>
+      </c>
+      <c r="C352" s="2" t="n">
+        <v>44940</v>
+      </c>
+      <c r="D352" s="2" t="n">
+        <v>44934</v>
+      </c>
+      <c r="E352" s="2" t="n">
+        <v>44935</v>
+      </c>
+      <c r="F352" t="inlineStr">
+        <is>
+          <t>SQ *SAINT SIMON COFFEE CO</t>
+        </is>
+      </c>
+      <c r="G352" t="inlineStr">
+        <is>
+          <t>Food &amp; Drink</t>
+        </is>
+      </c>
+      <c r="H352" t="inlineStr">
+        <is>
+          <t>Sale</t>
+        </is>
+      </c>
+      <c r="I352" t="n">
+        <v>-4</v>
+      </c>
+      <c r="J352" s="2" t="n">
+        <v>44940</v>
+      </c>
+      <c r="K352" t="inlineStr">
+        <is>
+          <t>Sapphire</t>
+        </is>
+      </c>
+      <c r="L352" t="n">
+        <v>1</v>
+      </c>
+      <c r="M352" t="inlineStr">
+        <is>
+          <t>Coffee</t>
+        </is>
+      </c>
+    </row>
+    <row r="353">
+      <c r="A353" s="1" t="inlineStr">
+        <is>
+          <t>2069f4c3-56bc-487d-b03e-6f9c9b993f73</t>
+        </is>
+      </c>
+      <c r="B353" s="2" t="n">
+        <v>44940</v>
+      </c>
+      <c r="C353" s="2" t="n">
+        <v>44940</v>
+      </c>
+      <c r="D353" s="2" t="n">
+        <v>44934</v>
+      </c>
+      <c r="E353" s="2" t="n">
+        <v>44935</v>
+      </c>
+      <c r="F353" t="inlineStr">
+        <is>
+          <t>TST* Pizza Thief</t>
+        </is>
+      </c>
+      <c r="G353" t="inlineStr">
+        <is>
+          <t>Food &amp; Drink</t>
+        </is>
+      </c>
+      <c r="H353" t="inlineStr">
+        <is>
+          <t>Sale</t>
+        </is>
+      </c>
+      <c r="I353" t="n">
+        <v>-24</v>
+      </c>
+      <c r="J353" s="2" t="n">
+        <v>44940</v>
+      </c>
+      <c r="K353" t="inlineStr">
+        <is>
+          <t>Sapphire</t>
+        </is>
+      </c>
+      <c r="L353" t="n">
+        <v>1</v>
+      </c>
+      <c r="M353" t="inlineStr">
+        <is>
+          <t>Eating Out</t>
+        </is>
+      </c>
+    </row>
+    <row r="354">
+      <c r="A354" s="1" t="inlineStr">
+        <is>
+          <t>1409da4f-d452-498c-bdd5-b333f4c51e8f</t>
+        </is>
+      </c>
+      <c r="B354" s="2" t="n">
+        <v>44940</v>
+      </c>
+      <c r="C354" s="2" t="n">
+        <v>44940</v>
+      </c>
+      <c r="D354" s="2" t="n">
+        <v>44934</v>
+      </c>
+      <c r="E354" s="2" t="n">
+        <v>44936</v>
+      </c>
+      <c r="F354" t="inlineStr">
+        <is>
+          <t>FOOD FRONT</t>
+        </is>
+      </c>
+      <c r="G354" t="inlineStr">
+        <is>
+          <t>Groceries</t>
+        </is>
+      </c>
+      <c r="H354" t="inlineStr">
+        <is>
+          <t>Sale</t>
+        </is>
+      </c>
+      <c r="I354" t="n">
+        <v>-59.74</v>
+      </c>
+      <c r="J354" s="2" t="n">
+        <v>44940</v>
+      </c>
+      <c r="K354" t="inlineStr">
+        <is>
+          <t>Sapphire</t>
+        </is>
+      </c>
+      <c r="L354" t="n">
+        <v>1</v>
+      </c>
+      <c r="M354" t="inlineStr">
+        <is>
+          <t>Groceries</t>
+        </is>
+      </c>
+    </row>
+    <row r="355">
+      <c r="A355" s="1" t="inlineStr">
+        <is>
+          <t>8cf9e84c-6838-4c4a-b057-5815679b2cf3</t>
+        </is>
+      </c>
+      <c r="B355" s="2" t="n">
+        <v>44940</v>
+      </c>
+      <c r="C355" s="2" t="n">
+        <v>44940</v>
+      </c>
+      <c r="D355" s="2" t="n">
+        <v>44934</v>
+      </c>
+      <c r="E355" s="2" t="n">
+        <v>44935</v>
+      </c>
+      <c r="F355" t="inlineStr">
+        <is>
+          <t>SQ *SAINT SIMON COFFEE CO</t>
+        </is>
+      </c>
+      <c r="G355" t="inlineStr">
+        <is>
+          <t>Food &amp; Drink</t>
+        </is>
+      </c>
+      <c r="H355" t="inlineStr">
+        <is>
+          <t>Sale</t>
+        </is>
+      </c>
+      <c r="I355" t="n">
+        <v>-4.5</v>
+      </c>
+      <c r="J355" s="2" t="n">
+        <v>44940</v>
+      </c>
+      <c r="K355" t="inlineStr">
+        <is>
+          <t>Sapphire</t>
+        </is>
+      </c>
+      <c r="L355" t="n">
+        <v>1</v>
+      </c>
+      <c r="M355" t="inlineStr">
+        <is>
+          <t>Coffee</t>
+        </is>
+      </c>
+    </row>
+    <row r="356">
+      <c r="A356" s="1" t="inlineStr">
+        <is>
+          <t>573935dd-64bf-4cab-b31d-a615c10d6bf0</t>
+        </is>
+      </c>
+      <c r="B356" s="2" t="n">
+        <v>44940</v>
+      </c>
+      <c r="C356" s="2" t="n">
+        <v>44940</v>
+      </c>
+      <c r="D356" s="2" t="n">
+        <v>44934</v>
+      </c>
+      <c r="E356" s="2" t="n">
+        <v>44935</v>
+      </c>
+      <c r="F356" t="inlineStr">
+        <is>
+          <t>Amazon.com*H38W43K23</t>
+        </is>
+      </c>
+      <c r="G356" t="inlineStr">
         <is>
           <t>Shopping</t>
         </is>
       </c>
-      <c r="H345" t="inlineStr">
-        <is>
-          <t>Sale</t>
-        </is>
-      </c>
-      <c r="I345" t="n">
-        <v>-1.99</v>
-      </c>
-      <c r="J345" s="2" t="n">
-        <v>44933</v>
-      </c>
-      <c r="K345" t="inlineStr">
+      <c r="H356" t="inlineStr">
+        <is>
+          <t>Sale</t>
+        </is>
+      </c>
+      <c r="I356" t="n">
+        <v>-3.24</v>
+      </c>
+      <c r="J356" s="2" t="n">
+        <v>44940</v>
+      </c>
+      <c r="K356" t="inlineStr">
         <is>
           <t>Amazon</t>
         </is>
       </c>
-      <c r="L345" t="n">
-        <v>1</v>
-      </c>
-      <c r="M345" t="inlineStr">
+      <c r="L356" t="n">
+        <v>1</v>
+      </c>
+      <c r="M356" t="inlineStr">
+        <is>
+          <t>Home</t>
+        </is>
+      </c>
+    </row>
+    <row r="357">
+      <c r="A357" s="1" t="inlineStr">
+        <is>
+          <t>5d8dc126-4527-452d-a4c3-c4b5cadc0f36</t>
+        </is>
+      </c>
+      <c r="B357" s="2" t="n">
+        <v>44940</v>
+      </c>
+      <c r="C357" s="2" t="n">
+        <v>44940</v>
+      </c>
+      <c r="D357" s="2" t="n">
+        <v>44934</v>
+      </c>
+      <c r="E357" s="2" t="n">
+        <v>44935</v>
+      </c>
+      <c r="F357" t="inlineStr">
+        <is>
+          <t>SQ *SAINT SIMON COFFEE CO</t>
+        </is>
+      </c>
+      <c r="G357" t="inlineStr">
+        <is>
+          <t>Food &amp; Drink</t>
+        </is>
+      </c>
+      <c r="H357" t="inlineStr">
+        <is>
+          <t>Sale</t>
+        </is>
+      </c>
+      <c r="I357" t="n">
+        <v>-8</v>
+      </c>
+      <c r="J357" s="2" t="n">
+        <v>44940</v>
+      </c>
+      <c r="K357" t="inlineStr">
+        <is>
+          <t>Sapphire</t>
+        </is>
+      </c>
+      <c r="L357" t="n">
+        <v>1</v>
+      </c>
+      <c r="M357" t="inlineStr">
+        <is>
+          <t>Coffee</t>
+        </is>
+      </c>
+    </row>
+    <row r="358">
+      <c r="A358" s="1" t="inlineStr">
+        <is>
+          <t>251ad9c3-68e4-4590-9237-4781634c785d</t>
+        </is>
+      </c>
+      <c r="B358" s="2" t="n">
+        <v>44940</v>
+      </c>
+      <c r="C358" s="2" t="n">
+        <v>44940</v>
+      </c>
+      <c r="D358" s="2" t="n">
+        <v>44934</v>
+      </c>
+      <c r="E358" s="2" t="n">
+        <v>44936</v>
+      </c>
+      <c r="F358" t="inlineStr">
+        <is>
+          <t>FASTRAK FUEL MART</t>
+        </is>
+      </c>
+      <c r="G358" t="inlineStr">
+        <is>
+          <t>Gas</t>
+        </is>
+      </c>
+      <c r="H358" t="inlineStr">
+        <is>
+          <t>Sale</t>
+        </is>
+      </c>
+      <c r="I358" t="n">
+        <v>-50.83</v>
+      </c>
+      <c r="J358" s="2" t="n">
+        <v>44940</v>
+      </c>
+      <c r="K358" t="inlineStr">
+        <is>
+          <t>Amazon</t>
+        </is>
+      </c>
+      <c r="L358" t="n">
+        <v>1</v>
+      </c>
+      <c r="M358" t="inlineStr">
+        <is>
+          <t>Gasoline</t>
+        </is>
+      </c>
+    </row>
+    <row r="359">
+      <c r="A359" s="1" t="inlineStr">
+        <is>
+          <t>3925da98-d7ea-4c26-8ebb-0ed40ae97e35</t>
+        </is>
+      </c>
+      <c r="B359" s="2" t="n">
+        <v>44940</v>
+      </c>
+      <c r="C359" s="2" t="n">
+        <v>44940</v>
+      </c>
+      <c r="D359" s="2" t="n">
+        <v>44935</v>
+      </c>
+      <c r="E359" s="2" t="n">
+        <v>44935</v>
+      </c>
+      <c r="F359" t="inlineStr">
+        <is>
+          <t>STEAMGAMES.COM 4259522985</t>
+        </is>
+      </c>
+      <c r="G359" t="inlineStr">
+        <is>
+          <t>Entertainment</t>
+        </is>
+      </c>
+      <c r="H359" t="inlineStr">
+        <is>
+          <t>Sale</t>
+        </is>
+      </c>
+      <c r="I359" t="n">
+        <v>-8.99</v>
+      </c>
+      <c r="J359" s="2" t="n">
+        <v>44940</v>
+      </c>
+      <c r="K359" t="inlineStr">
+        <is>
+          <t>Amazon</t>
+        </is>
+      </c>
+      <c r="L359" t="n">
+        <v>1</v>
+      </c>
+      <c r="M359" t="inlineStr">
+        <is>
+          <t>Entertainment</t>
+        </is>
+      </c>
+    </row>
+    <row r="360">
+      <c r="A360" s="1" t="inlineStr">
+        <is>
+          <t>d51f2942-594f-4f89-a7ac-e5e6b6e652f0</t>
+        </is>
+      </c>
+      <c r="B360" s="2" t="n">
+        <v>44940</v>
+      </c>
+      <c r="C360" s="2" t="n">
+        <v>44940</v>
+      </c>
+      <c r="D360" s="2" t="n">
+        <v>44935</v>
+      </c>
+      <c r="E360" s="2" t="n">
+        <v>44936</v>
+      </c>
+      <c r="F360" t="inlineStr">
+        <is>
+          <t>TST* Pizza Thief</t>
+        </is>
+      </c>
+      <c r="G360" t="inlineStr">
+        <is>
+          <t>Food &amp; Drink</t>
+        </is>
+      </c>
+      <c r="H360" t="inlineStr">
+        <is>
+          <t>Sale</t>
+        </is>
+      </c>
+      <c r="I360" t="n">
+        <v>-6</v>
+      </c>
+      <c r="J360" s="2" t="n">
+        <v>44940</v>
+      </c>
+      <c r="K360" t="inlineStr">
+        <is>
+          <t>Sapphire</t>
+        </is>
+      </c>
+      <c r="L360" t="n">
+        <v>1</v>
+      </c>
+      <c r="M360" t="inlineStr">
+        <is>
+          <t>Eating Out</t>
+        </is>
+      </c>
+    </row>
+    <row r="361">
+      <c r="A361" s="1" t="inlineStr">
+        <is>
+          <t>40058e53-8ee1-454a-885e-e8656ecc1615</t>
+        </is>
+      </c>
+      <c r="B361" s="2" t="n">
+        <v>44940</v>
+      </c>
+      <c r="C361" s="2" t="n">
+        <v>44940</v>
+      </c>
+      <c r="D361" s="2" t="n">
+        <v>44935</v>
+      </c>
+      <c r="E361" s="2" t="n">
+        <v>44935</v>
+      </c>
+      <c r="F361" t="inlineStr">
+        <is>
+          <t>Spotify USA</t>
+        </is>
+      </c>
+      <c r="G361" t="inlineStr">
+        <is>
+          <t>Bills &amp; Utilities</t>
+        </is>
+      </c>
+      <c r="H361" t="inlineStr">
+        <is>
+          <t>Sale</t>
+        </is>
+      </c>
+      <c r="I361" t="n">
+        <v>-9.99</v>
+      </c>
+      <c r="J361" s="2" t="n">
+        <v>44940</v>
+      </c>
+      <c r="K361" t="inlineStr">
+        <is>
+          <t>Amazon</t>
+        </is>
+      </c>
+      <c r="L361" t="n">
+        <v>1</v>
+      </c>
+      <c r="M361" t="inlineStr">
         <is>
           <t>Services</t>
+        </is>
+      </c>
+    </row>
+    <row r="362">
+      <c r="A362" s="1" t="inlineStr">
+        <is>
+          <t>0d751b65-1a4e-4605-888b-a25762ca6bbc</t>
+        </is>
+      </c>
+      <c r="B362" s="2" t="n">
+        <v>44940</v>
+      </c>
+      <c r="C362" s="2" t="n">
+        <v>44940</v>
+      </c>
+      <c r="D362" s="2" t="n">
+        <v>44935</v>
+      </c>
+      <c r="E362" s="2" t="n">
+        <v>44936</v>
+      </c>
+      <c r="F362" t="inlineStr">
+        <is>
+          <t>TST* Pizza Thief</t>
+        </is>
+      </c>
+      <c r="G362" t="inlineStr">
+        <is>
+          <t>Food &amp; Drink</t>
+        </is>
+      </c>
+      <c r="H362" t="inlineStr">
+        <is>
+          <t>Sale</t>
+        </is>
+      </c>
+      <c r="I362" t="n">
+        <v>-6.75</v>
+      </c>
+      <c r="J362" s="2" t="n">
+        <v>44940</v>
+      </c>
+      <c r="K362" t="inlineStr">
+        <is>
+          <t>Sapphire</t>
+        </is>
+      </c>
+      <c r="L362" t="n">
+        <v>1</v>
+      </c>
+      <c r="M362" t="inlineStr">
+        <is>
+          <t>Eating Out</t>
+        </is>
+      </c>
+    </row>
+    <row r="363">
+      <c r="A363" s="1" t="inlineStr">
+        <is>
+          <t>e49c7cf0-ae32-40a2-92d7-045f2c22ca32</t>
+        </is>
+      </c>
+      <c r="B363" s="2" t="n">
+        <v>44940</v>
+      </c>
+      <c r="C363" s="2" t="n">
+        <v>44940</v>
+      </c>
+      <c r="D363" s="2" t="n">
+        <v>44935</v>
+      </c>
+      <c r="E363" s="2" t="n">
+        <v>44936</v>
+      </c>
+      <c r="F363" t="inlineStr">
+        <is>
+          <t>TST* Pizza Thief</t>
+        </is>
+      </c>
+      <c r="G363" t="inlineStr">
+        <is>
+          <t>Food &amp; Drink</t>
+        </is>
+      </c>
+      <c r="H363" t="inlineStr">
+        <is>
+          <t>Sale</t>
+        </is>
+      </c>
+      <c r="I363" t="n">
+        <v>-34</v>
+      </c>
+      <c r="J363" s="2" t="n">
+        <v>44940</v>
+      </c>
+      <c r="K363" t="inlineStr">
+        <is>
+          <t>Sapphire</t>
+        </is>
+      </c>
+      <c r="L363" t="n">
+        <v>1</v>
+      </c>
+      <c r="M363" t="inlineStr">
+        <is>
+          <t>Eating Out</t>
+        </is>
+      </c>
+    </row>
+    <row r="364">
+      <c r="A364" s="1" t="inlineStr">
+        <is>
+          <t>55928353-d752-4e8d-b19e-406ff89990cb</t>
+        </is>
+      </c>
+      <c r="B364" s="2" t="n">
+        <v>44940</v>
+      </c>
+      <c r="C364" s="2" t="n">
+        <v>44940</v>
+      </c>
+      <c r="D364" s="2" t="n">
+        <v>44936</v>
+      </c>
+      <c r="E364" s="2" t="n">
+        <v>44937</v>
+      </c>
+      <c r="F364" t="inlineStr">
+        <is>
+          <t>Amazon Prime*MN5F08MU3</t>
+        </is>
+      </c>
+      <c r="G364" t="inlineStr">
+        <is>
+          <t>Bills &amp; Utilities</t>
+        </is>
+      </c>
+      <c r="H364" t="inlineStr">
+        <is>
+          <t>Sale</t>
+        </is>
+      </c>
+      <c r="I364" t="n">
+        <v>-7.49</v>
+      </c>
+      <c r="J364" s="2" t="n">
+        <v>44940</v>
+      </c>
+      <c r="K364" t="inlineStr">
+        <is>
+          <t>Amazon</t>
+        </is>
+      </c>
+      <c r="L364" t="n">
+        <v>1</v>
+      </c>
+      <c r="M364" t="inlineStr">
+        <is>
+          <t>Services</t>
+        </is>
+      </c>
+    </row>
+    <row r="365">
+      <c r="A365" s="1" t="inlineStr">
+        <is>
+          <t>feb31dba-a8ec-4456-8962-6386094d671b</t>
+        </is>
+      </c>
+      <c r="B365" s="2" t="n">
+        <v>44940</v>
+      </c>
+      <c r="C365" s="2" t="n">
+        <v>44940</v>
+      </c>
+      <c r="D365" s="2" t="n">
+        <v>44937</v>
+      </c>
+      <c r="E365" s="2" t="n">
+        <v>44938</v>
+      </c>
+      <c r="F365" t="inlineStr">
+        <is>
+          <t>TRADER JOE'S #146  QPS</t>
+        </is>
+      </c>
+      <c r="G365" t="inlineStr">
+        <is>
+          <t>Groceries</t>
+        </is>
+      </c>
+      <c r="H365" t="inlineStr">
+        <is>
+          <t>Sale</t>
+        </is>
+      </c>
+      <c r="I365" t="n">
+        <v>-43.6</v>
+      </c>
+      <c r="J365" s="2" t="n">
+        <v>44940</v>
+      </c>
+      <c r="K365" t="inlineStr">
+        <is>
+          <t>Sapphire</t>
+        </is>
+      </c>
+      <c r="L365" t="n">
+        <v>1</v>
+      </c>
+      <c r="M365" t="inlineStr">
+        <is>
+          <t>Gasoline</t>
+        </is>
+      </c>
+    </row>
+    <row r="366">
+      <c r="A366" s="1" t="inlineStr">
+        <is>
+          <t>b8adc44b-84db-4f8d-8370-ed6bd7a99f0d</t>
+        </is>
+      </c>
+      <c r="B366" s="2" t="n">
+        <v>44940</v>
+      </c>
+      <c r="C366" t="inlineStr"/>
+      <c r="D366" s="2" t="n">
+        <v>44935</v>
+      </c>
+      <c r="E366" t="inlineStr"/>
+      <c r="F366" t="inlineStr">
+        <is>
+          <t>Check</t>
+        </is>
+      </c>
+      <c r="G366" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="H366" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="I366" t="n">
+        <v>-738.1900000000001</v>
+      </c>
+      <c r="J366" s="2" t="n">
+        <v>44940</v>
+      </c>
+      <c r="K366" t="inlineStr">
+        <is>
+          <t>Mechanics</t>
+        </is>
+      </c>
+      <c r="L366" t="n">
+        <v>0</v>
+      </c>
+      <c r="M366" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+    </row>
+    <row r="367">
+      <c r="A367" s="1" t="inlineStr">
+        <is>
+          <t>2e33ed91-8272-49f6-8368-cdd96a6ef067</t>
+        </is>
+      </c>
+      <c r="B367" s="2" t="n">
+        <v>44940</v>
+      </c>
+      <c r="C367" t="inlineStr"/>
+      <c r="D367" s="2" t="n">
+        <v>44932</v>
+      </c>
+      <c r="E367" t="inlineStr"/>
+      <c r="F367" t="inlineStr">
+        <is>
+          <t>TOYOTA MOTOR SAL PAYROLL 568349-TLS</t>
+        </is>
+      </c>
+      <c r="G367" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="H367" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="I367" t="n">
+        <v>1847.68</v>
+      </c>
+      <c r="J367" s="2" t="n">
+        <v>44940</v>
+      </c>
+      <c r="K367" t="inlineStr">
+        <is>
+          <t>Mechanics</t>
+        </is>
+      </c>
+      <c r="L367" t="n">
+        <v>0</v>
+      </c>
+      <c r="M367" t="inlineStr">
+        <is>
+          <t>nan</t>
         </is>
       </c>
     </row>

--- a/datasets/transactions.xlsx
+++ b/datasets/transactions.xlsx
@@ -430,7 +430,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M367"/>
+  <dimension ref="A1:M387"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3689,7 +3689,7 @@
           <t>Mechanics</t>
         </is>
       </c>
-      <c r="L66" t="b">
+      <c r="L66" t="n">
         <v>1</v>
       </c>
       <c r="M66" t="inlineStr">
@@ -19314,7 +19314,7 @@
         <v>44940</v>
       </c>
       <c r="C365" s="2" t="n">
-        <v>44940</v>
+        <v>44953</v>
       </c>
       <c r="D365" s="2" t="n">
         <v>44937</v>
@@ -19353,7 +19353,7 @@
       </c>
       <c r="M365" t="inlineStr">
         <is>
-          <t>Gasoline</t>
+          <t>Groceries</t>
         </is>
       </c>
     </row>
@@ -19454,6 +19454,1002 @@
           <t>nan</t>
         </is>
       </c>
+    </row>
+    <row r="368">
+      <c r="A368" s="1" t="inlineStr">
+        <is>
+          <t>97568398-2d77-4002-8c2f-acdf0a8a247d</t>
+        </is>
+      </c>
+      <c r="B368" s="2" t="n">
+        <v>44951</v>
+      </c>
+      <c r="C368" s="2" t="n">
+        <v>44953</v>
+      </c>
+      <c r="D368" s="2" t="n">
+        <v>44943</v>
+      </c>
+      <c r="E368" s="2" t="n">
+        <v>44944</v>
+      </c>
+      <c r="F368" t="inlineStr">
+        <is>
+          <t>AUTOMOTIVE OUTFITTERS LL</t>
+        </is>
+      </c>
+      <c r="G368" t="inlineStr">
+        <is>
+          <t>Automotive</t>
+        </is>
+      </c>
+      <c r="H368" t="inlineStr">
+        <is>
+          <t>Sale</t>
+        </is>
+      </c>
+      <c r="I368" t="n">
+        <v>-125</v>
+      </c>
+      <c r="J368" s="2" t="n">
+        <v>44951</v>
+      </c>
+      <c r="K368" t="inlineStr">
+        <is>
+          <t>Amazon</t>
+        </is>
+      </c>
+      <c r="L368" t="n">
+        <v>1</v>
+      </c>
+      <c r="M368" t="inlineStr">
+        <is>
+          <t>Jeep</t>
+        </is>
+      </c>
+    </row>
+    <row r="369">
+      <c r="A369" s="1" t="inlineStr">
+        <is>
+          <t>d93ece9c-52e5-4490-ad34-3f9b4bd18f94</t>
+        </is>
+      </c>
+      <c r="B369" s="2" t="n">
+        <v>44951</v>
+      </c>
+      <c r="C369" s="2" t="n">
+        <v>44953</v>
+      </c>
+      <c r="D369" s="2" t="n">
+        <v>44941</v>
+      </c>
+      <c r="E369" s="2" t="n">
+        <v>44943</v>
+      </c>
+      <c r="F369" t="inlineStr">
+        <is>
+          <t>76 - CF UNITED APRO LL</t>
+        </is>
+      </c>
+      <c r="G369" t="inlineStr">
+        <is>
+          <t>Gas</t>
+        </is>
+      </c>
+      <c r="H369" t="inlineStr">
+        <is>
+          <t>Sale</t>
+        </is>
+      </c>
+      <c r="I369" t="n">
+        <v>-31.43</v>
+      </c>
+      <c r="J369" s="2" t="n">
+        <v>44951</v>
+      </c>
+      <c r="K369" t="inlineStr">
+        <is>
+          <t>Amazon</t>
+        </is>
+      </c>
+      <c r="L369" t="n">
+        <v>1</v>
+      </c>
+      <c r="M369" t="inlineStr">
+        <is>
+          <t>Gasoline</t>
+        </is>
+      </c>
+    </row>
+    <row r="370">
+      <c r="A370" s="1" t="inlineStr">
+        <is>
+          <t>84773f4c-1a95-41af-abe2-413b7c887ae5</t>
+        </is>
+      </c>
+      <c r="B370" s="2" t="n">
+        <v>44951</v>
+      </c>
+      <c r="C370" s="2" t="n">
+        <v>44953</v>
+      </c>
+      <c r="D370" s="2" t="n">
+        <v>44942</v>
+      </c>
+      <c r="E370" s="2" t="n">
+        <v>44943</v>
+      </c>
+      <c r="F370" t="inlineStr">
+        <is>
+          <t>TIREBUYER.COM LLC</t>
+        </is>
+      </c>
+      <c r="G370" t="inlineStr">
+        <is>
+          <t>Automotive</t>
+        </is>
+      </c>
+      <c r="H370" t="inlineStr">
+        <is>
+          <t>Sale</t>
+        </is>
+      </c>
+      <c r="I370" t="n">
+        <v>-901.12</v>
+      </c>
+      <c r="J370" s="2" t="n">
+        <v>44951</v>
+      </c>
+      <c r="K370" t="inlineStr">
+        <is>
+          <t>Amazon</t>
+        </is>
+      </c>
+      <c r="L370" t="n">
+        <v>1</v>
+      </c>
+      <c r="M370" t="inlineStr">
+        <is>
+          <t>Jeep</t>
+        </is>
+      </c>
+    </row>
+    <row r="371">
+      <c r="A371" s="1" t="inlineStr">
+        <is>
+          <t>ea36ea7b-150c-4c90-9a91-87d5c10aeafb</t>
+        </is>
+      </c>
+      <c r="B371" s="2" t="n">
+        <v>44951</v>
+      </c>
+      <c r="C371" s="2" t="n">
+        <v>44953</v>
+      </c>
+      <c r="D371" s="2" t="n">
+        <v>44942</v>
+      </c>
+      <c r="E371" s="2" t="n">
+        <v>44943</v>
+      </c>
+      <c r="F371" t="inlineStr">
+        <is>
+          <t>ALL HEART YOGA</t>
+        </is>
+      </c>
+      <c r="G371" t="inlineStr">
+        <is>
+          <t>Personal</t>
+        </is>
+      </c>
+      <c r="H371" t="inlineStr">
+        <is>
+          <t>Sale</t>
+        </is>
+      </c>
+      <c r="I371" t="n">
+        <v>-18</v>
+      </c>
+      <c r="J371" s="2" t="n">
+        <v>44951</v>
+      </c>
+      <c r="K371" t="inlineStr">
+        <is>
+          <t>Amazon</t>
+        </is>
+      </c>
+      <c r="L371" t="n">
+        <v>1</v>
+      </c>
+      <c r="M371" t="inlineStr">
+        <is>
+          <t>Yoga</t>
+        </is>
+      </c>
+    </row>
+    <row r="372">
+      <c r="A372" s="1" t="inlineStr">
+        <is>
+          <t>093f78da-0829-432e-a446-2d68fc919c84</t>
+        </is>
+      </c>
+      <c r="B372" s="2" t="n">
+        <v>44951</v>
+      </c>
+      <c r="C372" s="2" t="n">
+        <v>44953</v>
+      </c>
+      <c r="D372" s="2" t="n">
+        <v>44942</v>
+      </c>
+      <c r="E372" s="2" t="n">
+        <v>44942</v>
+      </c>
+      <c r="F372" t="inlineStr">
+        <is>
+          <t>SP  RED LIGHT CLOTHI</t>
+        </is>
+      </c>
+      <c r="G372" t="inlineStr">
+        <is>
+          <t>Shopping</t>
+        </is>
+      </c>
+      <c r="H372" t="inlineStr">
+        <is>
+          <t>Sale</t>
+        </is>
+      </c>
+      <c r="I372" t="n">
+        <v>-99.95999999999999</v>
+      </c>
+      <c r="J372" s="2" t="n">
+        <v>44951</v>
+      </c>
+      <c r="K372" t="inlineStr">
+        <is>
+          <t>Amazon</t>
+        </is>
+      </c>
+      <c r="L372" t="n">
+        <v>1</v>
+      </c>
+      <c r="M372" t="inlineStr">
+        <is>
+          <t>Clothes</t>
+        </is>
+      </c>
+    </row>
+    <row r="373">
+      <c r="A373" s="1" t="inlineStr">
+        <is>
+          <t>b1585b76-bdbc-42bd-870a-7a3a7b98a37f</t>
+        </is>
+      </c>
+      <c r="B373" s="2" t="n">
+        <v>44951</v>
+      </c>
+      <c r="C373" t="inlineStr"/>
+      <c r="D373" s="2" t="n">
+        <v>44936</v>
+      </c>
+      <c r="E373" s="2" t="n">
+        <v>44937</v>
+      </c>
+      <c r="F373" t="inlineStr">
+        <is>
+          <t>Amazon Prime*MN5F08MU3</t>
+        </is>
+      </c>
+      <c r="G373" t="inlineStr">
+        <is>
+          <t>Bills &amp; Utilities</t>
+        </is>
+      </c>
+      <c r="H373" t="inlineStr">
+        <is>
+          <t>Sale</t>
+        </is>
+      </c>
+      <c r="I373" t="n">
+        <v>-7.49</v>
+      </c>
+      <c r="J373" s="2" t="n">
+        <v>44951</v>
+      </c>
+      <c r="K373" t="inlineStr">
+        <is>
+          <t>Amazon</t>
+        </is>
+      </c>
+      <c r="L373" t="n">
+        <v>0</v>
+      </c>
+      <c r="M373" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+    </row>
+    <row r="374">
+      <c r="A374" s="1" t="inlineStr">
+        <is>
+          <t>590b148f-f7d3-418f-bce6-f587dad67736</t>
+        </is>
+      </c>
+      <c r="B374" s="2" t="n">
+        <v>44951</v>
+      </c>
+      <c r="C374" t="inlineStr"/>
+      <c r="D374" s="2" t="n">
+        <v>44934</v>
+      </c>
+      <c r="E374" s="2" t="n">
+        <v>44936</v>
+      </c>
+      <c r="F374" t="inlineStr">
+        <is>
+          <t>FASTRAK FUEL MART</t>
+        </is>
+      </c>
+      <c r="G374" t="inlineStr">
+        <is>
+          <t>Gas</t>
+        </is>
+      </c>
+      <c r="H374" t="inlineStr">
+        <is>
+          <t>Sale</t>
+        </is>
+      </c>
+      <c r="I374" t="n">
+        <v>-50.83</v>
+      </c>
+      <c r="J374" s="2" t="n">
+        <v>44951</v>
+      </c>
+      <c r="K374" t="inlineStr">
+        <is>
+          <t>Amazon</t>
+        </is>
+      </c>
+      <c r="L374" t="n">
+        <v>0</v>
+      </c>
+      <c r="M374" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+    </row>
+    <row r="375">
+      <c r="A375" s="1" t="inlineStr">
+        <is>
+          <t>3a67e11a-be27-477d-a6a3-ba56c3bf145d</t>
+        </is>
+      </c>
+      <c r="B375" s="2" t="n">
+        <v>44953</v>
+      </c>
+      <c r="C375" t="inlineStr"/>
+      <c r="D375" s="2" t="n">
+        <v>44943</v>
+      </c>
+      <c r="E375" s="2" t="n">
+        <v>44944</v>
+      </c>
+      <c r="F375" t="inlineStr">
+        <is>
+          <t>SQ *ALOUETTE</t>
+        </is>
+      </c>
+      <c r="G375" t="inlineStr">
+        <is>
+          <t>Food &amp; Drink</t>
+        </is>
+      </c>
+      <c r="H375" t="inlineStr">
+        <is>
+          <t>Sale</t>
+        </is>
+      </c>
+      <c r="I375" t="n">
+        <v>-81</v>
+      </c>
+      <c r="J375" s="2" t="n">
+        <v>44953</v>
+      </c>
+      <c r="K375" t="inlineStr">
+        <is>
+          <t>Sapphire</t>
+        </is>
+      </c>
+      <c r="L375" t="n">
+        <v>0</v>
+      </c>
+      <c r="M375" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+    </row>
+    <row r="376">
+      <c r="A376" s="1" t="inlineStr">
+        <is>
+          <t>f150caef-916b-47ca-98c3-d2646b5266a4</t>
+        </is>
+      </c>
+      <c r="B376" s="2" t="n">
+        <v>44953</v>
+      </c>
+      <c r="C376" t="inlineStr"/>
+      <c r="D376" s="2" t="n">
+        <v>44943</v>
+      </c>
+      <c r="E376" s="2" t="n">
+        <v>44944</v>
+      </c>
+      <c r="F376" t="inlineStr">
+        <is>
+          <t>SQ *LENTS DRAFT AND BOTTL</t>
+        </is>
+      </c>
+      <c r="G376" t="inlineStr">
+        <is>
+          <t>Food &amp; Drink</t>
+        </is>
+      </c>
+      <c r="H376" t="inlineStr">
+        <is>
+          <t>Sale</t>
+        </is>
+      </c>
+      <c r="I376" t="n">
+        <v>-10</v>
+      </c>
+      <c r="J376" s="2" t="n">
+        <v>44953</v>
+      </c>
+      <c r="K376" t="inlineStr">
+        <is>
+          <t>Sapphire</t>
+        </is>
+      </c>
+      <c r="L376" t="n">
+        <v>0</v>
+      </c>
+      <c r="M376" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+    </row>
+    <row r="377">
+      <c r="A377" s="1" t="inlineStr">
+        <is>
+          <t>58308471-6bed-44c9-8d4e-40e60625136c</t>
+        </is>
+      </c>
+      <c r="B377" s="2" t="n">
+        <v>44953</v>
+      </c>
+      <c r="C377" t="inlineStr"/>
+      <c r="D377" s="2" t="n">
+        <v>44943</v>
+      </c>
+      <c r="E377" s="2" t="n">
+        <v>44943</v>
+      </c>
+      <c r="F377" t="inlineStr">
+        <is>
+          <t>AUTOMATIC PAYMENT - THANK</t>
+        </is>
+      </c>
+      <c r="G377" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="H377" t="inlineStr">
+        <is>
+          <t>Payment</t>
+        </is>
+      </c>
+      <c r="I377" t="n">
+        <v>947.85</v>
+      </c>
+      <c r="J377" s="2" t="n">
+        <v>44953</v>
+      </c>
+      <c r="K377" t="inlineStr">
+        <is>
+          <t>Sapphire</t>
+        </is>
+      </c>
+      <c r="L377" t="n">
+        <v>0</v>
+      </c>
+      <c r="M377" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+    </row>
+    <row r="378">
+      <c r="A378" s="1" t="inlineStr">
+        <is>
+          <t>78949e38-4769-4447-9d17-dcd6370f91a4</t>
+        </is>
+      </c>
+      <c r="B378" s="2" t="n">
+        <v>44953</v>
+      </c>
+      <c r="C378" t="inlineStr"/>
+      <c r="D378" s="2" t="n">
+        <v>44942</v>
+      </c>
+      <c r="E378" s="2" t="n">
+        <v>44943</v>
+      </c>
+      <c r="F378" t="inlineStr">
+        <is>
+          <t>TRADER JOE'S #146  QPS</t>
+        </is>
+      </c>
+      <c r="G378" t="inlineStr">
+        <is>
+          <t>Groceries</t>
+        </is>
+      </c>
+      <c r="H378" t="inlineStr">
+        <is>
+          <t>Sale</t>
+        </is>
+      </c>
+      <c r="I378" t="n">
+        <v>-57.27</v>
+      </c>
+      <c r="J378" s="2" t="n">
+        <v>44953</v>
+      </c>
+      <c r="K378" t="inlineStr">
+        <is>
+          <t>Sapphire</t>
+        </is>
+      </c>
+      <c r="L378" t="n">
+        <v>0</v>
+      </c>
+      <c r="M378" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+    </row>
+    <row r="379">
+      <c r="A379" s="1" t="inlineStr">
+        <is>
+          <t>a4ef4656-5c8a-4fd6-ad39-227e4db6e4f7</t>
+        </is>
+      </c>
+      <c r="B379" s="2" t="n">
+        <v>44953</v>
+      </c>
+      <c r="C379" t="inlineStr"/>
+      <c r="D379" s="2" t="n">
+        <v>44942</v>
+      </c>
+      <c r="E379" s="2" t="n">
+        <v>44943</v>
+      </c>
+      <c r="F379" t="inlineStr">
+        <is>
+          <t>LA BUCA</t>
+        </is>
+      </c>
+      <c r="G379" t="inlineStr">
+        <is>
+          <t>Food &amp; Drink</t>
+        </is>
+      </c>
+      <c r="H379" t="inlineStr">
+        <is>
+          <t>Sale</t>
+        </is>
+      </c>
+      <c r="I379" t="n">
+        <v>-51</v>
+      </c>
+      <c r="J379" s="2" t="n">
+        <v>44953</v>
+      </c>
+      <c r="K379" t="inlineStr">
+        <is>
+          <t>Sapphire</t>
+        </is>
+      </c>
+      <c r="L379" t="n">
+        <v>0</v>
+      </c>
+      <c r="M379" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+    </row>
+    <row r="380">
+      <c r="A380" s="1" t="inlineStr">
+        <is>
+          <t>18e27e22-f487-43a4-8386-b17f9ca41b69</t>
+        </is>
+      </c>
+      <c r="B380" s="2" t="n">
+        <v>44953</v>
+      </c>
+      <c r="C380" s="2" t="n">
+        <v>44953</v>
+      </c>
+      <c r="D380" s="2" t="n">
+        <v>44942</v>
+      </c>
+      <c r="E380" s="2" t="n">
+        <v>44943</v>
+      </c>
+      <c r="F380" t="inlineStr">
+        <is>
+          <t>SQ *EASTSIDE COFFEE BAR &amp;amp;</t>
+        </is>
+      </c>
+      <c r="G380" t="inlineStr">
+        <is>
+          <t>Food &amp; Drink</t>
+        </is>
+      </c>
+      <c r="H380" t="inlineStr">
+        <is>
+          <t>Sale</t>
+        </is>
+      </c>
+      <c r="I380" t="n">
+        <v>-10.5</v>
+      </c>
+      <c r="J380" s="2" t="n">
+        <v>44953</v>
+      </c>
+      <c r="K380" t="inlineStr">
+        <is>
+          <t>Sapphire</t>
+        </is>
+      </c>
+      <c r="L380" t="n">
+        <v>1</v>
+      </c>
+      <c r="M380" t="inlineStr">
+        <is>
+          <t>Coffee</t>
+        </is>
+      </c>
+    </row>
+    <row r="381">
+      <c r="A381" s="1" t="inlineStr">
+        <is>
+          <t>73af5f61-15c1-4358-8706-3c0ee263fbf0</t>
+        </is>
+      </c>
+      <c r="B381" s="2" t="n">
+        <v>44953</v>
+      </c>
+      <c r="C381" t="inlineStr"/>
+      <c r="D381" s="2" t="n">
+        <v>44941</v>
+      </c>
+      <c r="E381" s="2" t="n">
+        <v>44942</v>
+      </c>
+      <c r="F381" t="inlineStr">
+        <is>
+          <t>SQ *SPIELMAN COFFEE ROAST</t>
+        </is>
+      </c>
+      <c r="G381" t="inlineStr">
+        <is>
+          <t>Food &amp; Drink</t>
+        </is>
+      </c>
+      <c r="H381" t="inlineStr">
+        <is>
+          <t>Sale</t>
+        </is>
+      </c>
+      <c r="I381" t="n">
+        <v>-4</v>
+      </c>
+      <c r="J381" s="2" t="n">
+        <v>44953</v>
+      </c>
+      <c r="K381" t="inlineStr">
+        <is>
+          <t>Sapphire</t>
+        </is>
+      </c>
+      <c r="L381" t="n">
+        <v>0</v>
+      </c>
+      <c r="M381" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+    </row>
+    <row r="382">
+      <c r="A382" s="1" t="inlineStr">
+        <is>
+          <t>fb4bfd21-d0f2-4366-92c7-794d28e9f225</t>
+        </is>
+      </c>
+      <c r="B382" s="2" t="n">
+        <v>44953</v>
+      </c>
+      <c r="C382" t="inlineStr"/>
+      <c r="D382" s="2" t="n">
+        <v>44941</v>
+      </c>
+      <c r="E382" s="2" t="n">
+        <v>44942</v>
+      </c>
+      <c r="F382" t="inlineStr">
+        <is>
+          <t>SQ *SPIELMAN COFFEE ROAST</t>
+        </is>
+      </c>
+      <c r="G382" t="inlineStr">
+        <is>
+          <t>Food &amp; Drink</t>
+        </is>
+      </c>
+      <c r="H382" t="inlineStr">
+        <is>
+          <t>Sale</t>
+        </is>
+      </c>
+      <c r="I382" t="n">
+        <v>-13.51</v>
+      </c>
+      <c r="J382" s="2" t="n">
+        <v>44953</v>
+      </c>
+      <c r="K382" t="inlineStr">
+        <is>
+          <t>Sapphire</t>
+        </is>
+      </c>
+      <c r="L382" t="n">
+        <v>0</v>
+      </c>
+      <c r="M382" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+    </row>
+    <row r="383">
+      <c r="A383" s="1" t="inlineStr">
+        <is>
+          <t>84ec5a1f-7e85-445e-85a3-6aa50092e3d2</t>
+        </is>
+      </c>
+      <c r="B383" s="2" t="n">
+        <v>44953</v>
+      </c>
+      <c r="C383" t="inlineStr"/>
+      <c r="D383" s="2" t="n">
+        <v>44940</v>
+      </c>
+      <c r="E383" s="2" t="n">
+        <v>44941</v>
+      </c>
+      <c r="F383" t="inlineStr">
+        <is>
+          <t>SQ *BARISTA</t>
+        </is>
+      </c>
+      <c r="G383" t="inlineStr">
+        <is>
+          <t>Food &amp; Drink</t>
+        </is>
+      </c>
+      <c r="H383" t="inlineStr">
+        <is>
+          <t>Sale</t>
+        </is>
+      </c>
+      <c r="I383" t="n">
+        <v>-12.75</v>
+      </c>
+      <c r="J383" s="2" t="n">
+        <v>44953</v>
+      </c>
+      <c r="K383" t="inlineStr">
+        <is>
+          <t>Sapphire</t>
+        </is>
+      </c>
+      <c r="L383" t="n">
+        <v>0</v>
+      </c>
+      <c r="M383" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+    </row>
+    <row r="384">
+      <c r="A384" s="1" t="inlineStr">
+        <is>
+          <t>23154ca8-e412-4d2d-a2ea-e4384ca39724</t>
+        </is>
+      </c>
+      <c r="B384" s="2" t="n">
+        <v>44953</v>
+      </c>
+      <c r="C384" t="inlineStr"/>
+      <c r="D384" s="2" t="n">
+        <v>44937</v>
+      </c>
+      <c r="E384" s="2" t="n">
+        <v>44938</v>
+      </c>
+      <c r="F384" t="inlineStr">
+        <is>
+          <t>TRADER JOE'S #146  QPS</t>
+        </is>
+      </c>
+      <c r="G384" t="inlineStr">
+        <is>
+          <t>Groceries</t>
+        </is>
+      </c>
+      <c r="H384" t="inlineStr">
+        <is>
+          <t>Sale</t>
+        </is>
+      </c>
+      <c r="I384" t="n">
+        <v>-43.6</v>
+      </c>
+      <c r="J384" s="2" t="n">
+        <v>44953</v>
+      </c>
+      <c r="K384" t="inlineStr">
+        <is>
+          <t>Sapphire</t>
+        </is>
+      </c>
+      <c r="L384" t="n">
+        <v>0</v>
+      </c>
+      <c r="M384" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+    </row>
+    <row r="385">
+      <c r="A385" s="1" t="inlineStr">
+        <is>
+          <t>87ed3782-c90d-4d01-90ec-e4e2837182c2</t>
+        </is>
+      </c>
+      <c r="B385" s="2" t="n">
+        <v>44953</v>
+      </c>
+      <c r="C385" s="2" t="n">
+        <v>44953</v>
+      </c>
+      <c r="D385" s="2" t="n">
+        <v>44946</v>
+      </c>
+      <c r="E385" t="inlineStr"/>
+      <c r="F385" t="inlineStr">
+        <is>
+          <t>TOYOTA MOTOR SAL PAYROLL 568349-TLS</t>
+        </is>
+      </c>
+      <c r="G385" t="inlineStr"/>
+      <c r="H385" t="inlineStr"/>
+      <c r="I385" t="n">
+        <v>1926.84</v>
+      </c>
+      <c r="J385" s="2" t="n">
+        <v>44953</v>
+      </c>
+      <c r="K385" t="inlineStr">
+        <is>
+          <t>Mechanics</t>
+        </is>
+      </c>
+      <c r="L385" t="b">
+        <v>1</v>
+      </c>
+      <c r="M385" t="inlineStr">
+        <is>
+          <t>Income</t>
+        </is>
+      </c>
+    </row>
+    <row r="386">
+      <c r="A386" s="1" t="inlineStr">
+        <is>
+          <t>19382a1f-7c1f-4560-bc05-e3e5ea2d94da</t>
+        </is>
+      </c>
+      <c r="B386" s="2" t="n">
+        <v>44953</v>
+      </c>
+      <c r="C386" t="inlineStr"/>
+      <c r="D386" s="2" t="n">
+        <v>44944</v>
+      </c>
+      <c r="E386" t="inlineStr"/>
+      <c r="F386" t="inlineStr">
+        <is>
+          <t>CHASE CREDIT CRD AUTOPAY 000000000293948</t>
+        </is>
+      </c>
+      <c r="G386" t="inlineStr"/>
+      <c r="H386" t="inlineStr"/>
+      <c r="I386" t="n">
+        <v>-947.85</v>
+      </c>
+      <c r="J386" s="2" t="n">
+        <v>44953</v>
+      </c>
+      <c r="K386" t="inlineStr">
+        <is>
+          <t>Mechanics</t>
+        </is>
+      </c>
+      <c r="L386" t="n">
+        <v>0</v>
+      </c>
+      <c r="M386" t="inlineStr"/>
+    </row>
+    <row r="387">
+      <c r="A387" s="1" t="inlineStr">
+        <is>
+          <t>1a1ecf78-0135-4a27-918c-ad8929ef8c37</t>
+        </is>
+      </c>
+      <c r="B387" s="2" t="n">
+        <v>44953</v>
+      </c>
+      <c r="C387" t="inlineStr"/>
+      <c r="D387" s="2" t="n">
+        <v>44943</v>
+      </c>
+      <c r="E387" t="inlineStr"/>
+      <c r="F387" t="inlineStr">
+        <is>
+          <t>VENMO PAYMENT 1024681449816</t>
+        </is>
+      </c>
+      <c r="G387" t="inlineStr"/>
+      <c r="H387" t="inlineStr"/>
+      <c r="I387" t="n">
+        <v>-29</v>
+      </c>
+      <c r="J387" s="2" t="n">
+        <v>44953</v>
+      </c>
+      <c r="K387" t="inlineStr">
+        <is>
+          <t>Mechanics</t>
+        </is>
+      </c>
+      <c r="L387" t="n">
+        <v>0</v>
+      </c>
+      <c r="M387" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/datasets/transactions.xlsx
+++ b/datasets/transactions.xlsx
@@ -430,7 +430,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N1204"/>
+  <dimension ref="A1:N1224"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -529,16 +529,8 @@
           <t>TOYOTA MOTOR SAL PAYROLL 568349-TLS</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>&lt;NA&gt;</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>&lt;NA&gt;</t>
-        </is>
-      </c>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr"/>
       <c r="I2" t="n">
         <v>1770.65</v>
       </c>
@@ -581,16 +573,8 @@
           <t>KBC Management, WEB PMTS 9JMG27</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>&lt;NA&gt;</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>&lt;NA&gt;</t>
-        </is>
-      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
       <c r="I3" t="n">
         <v>-1630</v>
       </c>
@@ -623,7 +607,9 @@
       <c r="B4" s="2" t="n">
         <v>44961</v>
       </c>
-      <c r="C4" t="inlineStr"/>
+      <c r="C4" s="2" t="n">
+        <v>44970</v>
+      </c>
       <c r="D4" s="2" t="n">
         <v>44958</v>
       </c>
@@ -633,16 +619,8 @@
           <t>APPLECARD GSBANK PAYMENT 2211736</t>
         </is>
       </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>&lt;NA&gt;</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>&lt;NA&gt;</t>
-        </is>
-      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr"/>
       <c r="I4" t="n">
         <v>-20.02</v>
       </c>
@@ -655,11 +633,11 @@
         </is>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>&lt;NA&gt;</t>
+          <t>Services</t>
         </is>
       </c>
       <c r="N4" t="n">
@@ -739,16 +717,8 @@
           <t>CHASE CREDIT CRD AUTOPAY 000000000938964</t>
         </is>
       </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>&lt;NA&gt;</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>&lt;NA&gt;</t>
-        </is>
-      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr"/>
       <c r="I6" t="n">
         <v>-1410.12</v>
       </c>
@@ -763,11 +733,7 @@
       <c r="L6" t="n">
         <v>0</v>
       </c>
-      <c r="M6" t="inlineStr">
-        <is>
-          <t>&lt;NA&gt;</t>
-        </is>
-      </c>
+      <c r="M6" t="inlineStr"/>
       <c r="N6" t="n">
         <v>0</v>
       </c>
@@ -1241,11 +1207,7 @@
           <t>AUTOMATIC PAYMENT - THANK</t>
         </is>
       </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>&lt;NA&gt;</t>
-        </is>
-      </c>
+      <c r="G15" t="inlineStr"/>
       <c r="H15" t="inlineStr">
         <is>
           <t>Payment</t>
@@ -1265,11 +1227,7 @@
       <c r="L15" t="n">
         <v>0</v>
       </c>
-      <c r="M15" t="inlineStr">
-        <is>
-          <t>&lt;NA&gt;</t>
-        </is>
-      </c>
+      <c r="M15" t="inlineStr"/>
       <c r="N15" t="n">
         <v>0</v>
       </c>
@@ -2303,16 +2261,8 @@
           <t>TOYOTA MOTOR SAL PAYROLL 568349-TLS</t>
         </is>
       </c>
-      <c r="G34" t="inlineStr">
-        <is>
-          <t>&lt;NA&gt;</t>
-        </is>
-      </c>
-      <c r="H34" t="inlineStr">
-        <is>
-          <t>&lt;NA&gt;</t>
-        </is>
-      </c>
+      <c r="G34" t="inlineStr"/>
+      <c r="H34" t="inlineStr"/>
       <c r="I34" t="n">
         <v>1926.84</v>
       </c>
@@ -2411,16 +2361,8 @@
           <t>CHASE CREDIT CRD AUTOPAY 000000000293948</t>
         </is>
       </c>
-      <c r="G36" t="inlineStr">
-        <is>
-          <t>&lt;NA&gt;</t>
-        </is>
-      </c>
-      <c r="H36" t="inlineStr">
-        <is>
-          <t>&lt;NA&gt;</t>
-        </is>
-      </c>
+      <c r="G36" t="inlineStr"/>
+      <c r="H36" t="inlineStr"/>
       <c r="I36" t="n">
         <v>-947.85</v>
       </c>
@@ -2435,11 +2377,7 @@
       <c r="L36" t="n">
         <v>0</v>
       </c>
-      <c r="M36" t="inlineStr">
-        <is>
-          <t>&lt;NA&gt;</t>
-        </is>
-      </c>
+      <c r="M36" t="inlineStr"/>
       <c r="N36" t="n">
         <v>0</v>
       </c>
@@ -2577,16 +2515,8 @@
           <t>VENMO PAYMENT 1024681449816</t>
         </is>
       </c>
-      <c r="G39" t="inlineStr">
-        <is>
-          <t>&lt;NA&gt;</t>
-        </is>
-      </c>
-      <c r="H39" t="inlineStr">
-        <is>
-          <t>&lt;NA&gt;</t>
-        </is>
-      </c>
+      <c r="G39" t="inlineStr"/>
+      <c r="H39" t="inlineStr"/>
       <c r="I39" t="n">
         <v>-29</v>
       </c>
@@ -2743,11 +2673,7 @@
           <t>AUTOMATIC PAYMENT - THANK</t>
         </is>
       </c>
-      <c r="G42" t="inlineStr">
-        <is>
-          <t>&lt;NA&gt;</t>
-        </is>
-      </c>
+      <c r="G42" t="inlineStr"/>
       <c r="H42" t="inlineStr">
         <is>
           <t>Payment</t>
@@ -2767,11 +2693,7 @@
       <c r="L42" t="n">
         <v>0</v>
       </c>
-      <c r="M42" t="inlineStr">
-        <is>
-          <t>&lt;NA&gt;</t>
-        </is>
-      </c>
+      <c r="M42" t="inlineStr"/>
       <c r="N42" t="n">
         <v>0</v>
       </c>
@@ -3691,16 +3613,8 @@
           <t>Check</t>
         </is>
       </c>
-      <c r="G59" t="inlineStr">
-        <is>
-          <t>&lt;NA&gt;</t>
-        </is>
-      </c>
-      <c r="H59" t="inlineStr">
-        <is>
-          <t>&lt;NA&gt;</t>
-        </is>
-      </c>
+      <c r="G59" t="inlineStr"/>
+      <c r="H59" t="inlineStr"/>
       <c r="I59" t="n">
         <v>-738.1900000000001</v>
       </c>
@@ -3715,11 +3629,7 @@
       <c r="L59" t="n">
         <v>0</v>
       </c>
-      <c r="M59" t="inlineStr">
-        <is>
-          <t>&lt;NA&gt;</t>
-        </is>
-      </c>
+      <c r="M59" t="inlineStr"/>
       <c r="N59" t="n">
         <v>0</v>
       </c>
@@ -4473,16 +4383,8 @@
           <t>TOYOTA MOTOR SAL PAYROLL 568349-TLS</t>
         </is>
       </c>
-      <c r="G73" t="inlineStr">
-        <is>
-          <t>&lt;NA&gt;</t>
-        </is>
-      </c>
-      <c r="H73" t="inlineStr">
-        <is>
-          <t>&lt;NA&gt;</t>
-        </is>
-      </c>
+      <c r="G73" t="inlineStr"/>
+      <c r="H73" t="inlineStr"/>
       <c r="I73" t="n">
         <v>1847.68</v>
       </c>
@@ -4807,16 +4709,8 @@
           <t>KBC Management, WEB PMTS BF2XX6</t>
         </is>
       </c>
-      <c r="G79" t="inlineStr">
-        <is>
-          <t>&lt;NA&gt;</t>
-        </is>
-      </c>
-      <c r="H79" t="inlineStr">
-        <is>
-          <t>&lt;NA&gt;</t>
-        </is>
-      </c>
+      <c r="G79" t="inlineStr"/>
+      <c r="H79" t="inlineStr"/>
       <c r="I79" t="n">
         <v>-1630</v>
       </c>
@@ -4859,16 +4753,8 @@
           <t>Deposit</t>
         </is>
       </c>
-      <c r="G80" t="inlineStr">
-        <is>
-          <t>&lt;NA&gt;</t>
-        </is>
-      </c>
-      <c r="H80" t="inlineStr">
-        <is>
-          <t>&lt;NA&gt;</t>
-        </is>
-      </c>
+      <c r="G80" t="inlineStr"/>
+      <c r="H80" t="inlineStr"/>
       <c r="I80" t="n">
         <v>400</v>
       </c>
@@ -4883,11 +4769,7 @@
       <c r="L80" t="n">
         <v>0</v>
       </c>
-      <c r="M80" t="inlineStr">
-        <is>
-          <t>&lt;NA&gt;</t>
-        </is>
-      </c>
+      <c r="M80" t="inlineStr"/>
       <c r="N80" t="n">
         <v>0</v>
       </c>
@@ -4911,16 +4793,8 @@
           <t>Online Banking Transfer from XXXXXX4411on 1/01/2023 at 12:52 Christmas trip rei</t>
         </is>
       </c>
-      <c r="G81" t="inlineStr">
-        <is>
-          <t>&lt;NA&gt;</t>
-        </is>
-      </c>
-      <c r="H81" t="inlineStr">
-        <is>
-          <t>&lt;NA&gt;</t>
-        </is>
-      </c>
+      <c r="G81" t="inlineStr"/>
+      <c r="H81" t="inlineStr"/>
       <c r="I81" t="n">
         <v>500</v>
       </c>
@@ -4935,11 +4809,7 @@
       <c r="L81" t="n">
         <v>0</v>
       </c>
-      <c r="M81" t="inlineStr">
-        <is>
-          <t>&lt;NA&gt;</t>
-        </is>
-      </c>
+      <c r="M81" t="inlineStr"/>
       <c r="N81" t="n">
         <v>0</v>
       </c>
@@ -5803,16 +5673,8 @@
           <t>CHASE CREDIT CRD AUTOPAY 000000000508601</t>
         </is>
       </c>
-      <c r="G97" t="inlineStr">
-        <is>
-          <t>&lt;NA&gt;</t>
-        </is>
-      </c>
-      <c r="H97" t="inlineStr">
-        <is>
-          <t>&lt;NA&gt;</t>
-        </is>
-      </c>
+      <c r="G97" t="inlineStr"/>
+      <c r="H97" t="inlineStr"/>
       <c r="I97" t="n">
         <v>-118.04</v>
       </c>
@@ -5827,11 +5689,7 @@
       <c r="L97" t="n">
         <v>0</v>
       </c>
-      <c r="M97" t="inlineStr">
-        <is>
-          <t>&lt;NA&gt;</t>
-        </is>
-      </c>
+      <c r="M97" t="inlineStr"/>
       <c r="N97" t="n">
         <v>0</v>
       </c>
@@ -6025,11 +5883,7 @@
           <t>AUTOMATIC PAYMENT - THANK</t>
         </is>
       </c>
-      <c r="G101" t="inlineStr">
-        <is>
-          <t>&lt;NA&gt;</t>
-        </is>
-      </c>
+      <c r="G101" t="inlineStr"/>
       <c r="H101" t="inlineStr">
         <is>
           <t>Payment</t>
@@ -6049,11 +5903,7 @@
       <c r="L101" t="n">
         <v>0</v>
       </c>
-      <c r="M101" t="inlineStr">
-        <is>
-          <t>&lt;NA&gt;</t>
-        </is>
-      </c>
+      <c r="M101" t="inlineStr"/>
       <c r="N101" t="n">
         <v>0</v>
       </c>
@@ -6863,16 +6713,8 @@
           <t>TOYOTA MOTOR SAL PAYROLL 568349-TMN</t>
         </is>
       </c>
-      <c r="G116" t="inlineStr">
-        <is>
-          <t>&lt;NA&gt;</t>
-        </is>
-      </c>
-      <c r="H116" t="inlineStr">
-        <is>
-          <t>&lt;NA&gt;</t>
-        </is>
-      </c>
+      <c r="G116" t="inlineStr"/>
+      <c r="H116" t="inlineStr"/>
       <c r="I116" t="n">
         <v>2214.61</v>
       </c>
@@ -6941,11 +6783,7 @@
       <c r="L117" t="n">
         <v>0</v>
       </c>
-      <c r="M117" t="inlineStr">
-        <is>
-          <t>&lt;NA&gt;</t>
-        </is>
-      </c>
+      <c r="M117" t="inlineStr"/>
       <c r="N117" t="n">
         <v>0</v>
       </c>
@@ -6995,11 +6833,7 @@
       <c r="L118" t="n">
         <v>0</v>
       </c>
-      <c r="M118" t="inlineStr">
-        <is>
-          <t>&lt;NA&gt;</t>
-        </is>
-      </c>
+      <c r="M118" t="inlineStr"/>
       <c r="N118" t="n">
         <v>0</v>
       </c>
@@ -7695,16 +7529,8 @@
           <t>CHASE CREDIT CRD AUTOPAY 000000000591807</t>
         </is>
       </c>
-      <c r="G131" t="inlineStr">
-        <is>
-          <t>&lt;NA&gt;</t>
-        </is>
-      </c>
-      <c r="H131" t="inlineStr">
-        <is>
-          <t>&lt;NA&gt;</t>
-        </is>
-      </c>
+      <c r="G131" t="inlineStr"/>
+      <c r="H131" t="inlineStr"/>
       <c r="I131" t="n">
         <v>-1324.09</v>
       </c>
@@ -7719,11 +7545,7 @@
       <c r="L131" t="n">
         <v>0</v>
       </c>
-      <c r="M131" t="inlineStr">
-        <is>
-          <t>&lt;NA&gt;</t>
-        </is>
-      </c>
+      <c r="M131" t="inlineStr"/>
       <c r="N131" t="n">
         <v>0</v>
       </c>
@@ -7973,11 +7795,7 @@
           <t>AUTOMATIC PAYMENT - THANK</t>
         </is>
       </c>
-      <c r="G136" t="inlineStr">
-        <is>
-          <t>&lt;NA&gt;</t>
-        </is>
-      </c>
+      <c r="G136" t="inlineStr"/>
       <c r="H136" t="inlineStr">
         <is>
           <t>Payment</t>
@@ -7997,11 +7815,7 @@
       <c r="L136" t="n">
         <v>0</v>
       </c>
-      <c r="M136" t="inlineStr">
-        <is>
-          <t>&lt;NA&gt;</t>
-        </is>
-      </c>
+      <c r="M136" t="inlineStr"/>
       <c r="N136" t="n">
         <v>0</v>
       </c>
@@ -8529,16 +8343,8 @@
           <t>Mobile Deposit</t>
         </is>
       </c>
-      <c r="G146" t="inlineStr">
-        <is>
-          <t>&lt;NA&gt;</t>
-        </is>
-      </c>
-      <c r="H146" t="inlineStr">
-        <is>
-          <t>&lt;NA&gt;</t>
-        </is>
-      </c>
+      <c r="G146" t="inlineStr"/>
+      <c r="H146" t="inlineStr"/>
       <c r="I146" t="n">
         <v>162.64</v>
       </c>
@@ -8553,11 +8359,7 @@
       <c r="L146" t="n">
         <v>0</v>
       </c>
-      <c r="M146" t="inlineStr">
-        <is>
-          <t>&lt;NA&gt;</t>
-        </is>
-      </c>
+      <c r="M146" t="inlineStr"/>
       <c r="N146" t="n">
         <v>0</v>
       </c>
@@ -8975,16 +8777,8 @@
           <t>TOYOTA MOTOR SAL PAYROLL 568349-TMN</t>
         </is>
       </c>
-      <c r="G154" t="inlineStr">
-        <is>
-          <t>&lt;NA&gt;</t>
-        </is>
-      </c>
-      <c r="H154" t="inlineStr">
-        <is>
-          <t>&lt;NA&gt;</t>
-        </is>
-      </c>
+      <c r="G154" t="inlineStr"/>
+      <c r="H154" t="inlineStr"/>
       <c r="I154" t="n">
         <v>1895.88</v>
       </c>
@@ -9981,16 +9775,8 @@
           <t>KBC Management, WEB PMTS QDGVS6</t>
         </is>
       </c>
-      <c r="G172" t="inlineStr">
-        <is>
-          <t>&lt;NA&gt;</t>
-        </is>
-      </c>
-      <c r="H172" t="inlineStr">
-        <is>
-          <t>&lt;NA&gt;</t>
-        </is>
-      </c>
+      <c r="G172" t="inlineStr"/>
+      <c r="H172" t="inlineStr"/>
       <c r="I172" t="n">
         <v>-1630</v>
       </c>
@@ -10035,16 +9821,8 @@
           <t>TOYOTA MOTOR SAL PAYROLL 568349-TMN</t>
         </is>
       </c>
-      <c r="G173" t="inlineStr">
-        <is>
-          <t>&lt;NA&gt;</t>
-        </is>
-      </c>
-      <c r="H173" t="inlineStr">
-        <is>
-          <t>&lt;NA&gt;</t>
-        </is>
-      </c>
+      <c r="G173" t="inlineStr"/>
+      <c r="H173" t="inlineStr"/>
       <c r="I173" t="n">
         <v>266.62</v>
       </c>
@@ -10143,16 +9921,8 @@
           <t>CHASE CREDIT CRD AUTOPAY 000000000503311</t>
         </is>
       </c>
-      <c r="G175" t="inlineStr">
-        <is>
-          <t>&lt;NA&gt;</t>
-        </is>
-      </c>
-      <c r="H175" t="inlineStr">
-        <is>
-          <t>&lt;NA&gt;</t>
-        </is>
-      </c>
+      <c r="G175" t="inlineStr"/>
+      <c r="H175" t="inlineStr"/>
       <c r="I175" t="n">
         <v>-691.49</v>
       </c>
@@ -10167,11 +9937,7 @@
       <c r="L175" t="n">
         <v>0</v>
       </c>
-      <c r="M175" t="inlineStr">
-        <is>
-          <t>&lt;NA&gt;</t>
-        </is>
-      </c>
+      <c r="M175" t="inlineStr"/>
       <c r="N175" t="n">
         <v>0</v>
       </c>
@@ -10197,11 +9963,7 @@
           <t>AUTOMATIC PAYMENT - THANK</t>
         </is>
       </c>
-      <c r="G176" t="inlineStr">
-        <is>
-          <t>&lt;NA&gt;</t>
-        </is>
-      </c>
+      <c r="G176" t="inlineStr"/>
       <c r="H176" t="inlineStr">
         <is>
           <t>Payment</t>
@@ -10221,11 +9983,7 @@
       <c r="L176" t="n">
         <v>0</v>
       </c>
-      <c r="M176" t="inlineStr">
-        <is>
-          <t>&lt;NA&gt;</t>
-        </is>
-      </c>
+      <c r="M176" t="inlineStr"/>
       <c r="N176" t="n">
         <v>0</v>
       </c>
@@ -10755,16 +10513,8 @@
           <t>TOYOTA MOTOR SAL PAYROLL 568349-TMN</t>
         </is>
       </c>
-      <c r="G186" t="inlineStr">
-        <is>
-          <t>&lt;NA&gt;</t>
-        </is>
-      </c>
-      <c r="H186" t="inlineStr">
-        <is>
-          <t>&lt;NA&gt;</t>
-        </is>
-      </c>
+      <c r="G186" t="inlineStr"/>
+      <c r="H186" t="inlineStr"/>
       <c r="I186" t="n">
         <v>1927.04</v>
       </c>
@@ -10975,16 +10725,8 @@
           <t>Deposit</t>
         </is>
       </c>
-      <c r="G190" t="inlineStr">
-        <is>
-          <t>&lt;NA&gt;</t>
-        </is>
-      </c>
-      <c r="H190" t="inlineStr">
-        <is>
-          <t>&lt;NA&gt;</t>
-        </is>
-      </c>
+      <c r="G190" t="inlineStr"/>
+      <c r="H190" t="inlineStr"/>
       <c r="I190" t="n">
         <v>14</v>
       </c>
@@ -10999,11 +10741,7 @@
       <c r="L190" t="n">
         <v>0</v>
       </c>
-      <c r="M190" t="inlineStr">
-        <is>
-          <t>&lt;NA&gt;</t>
-        </is>
-      </c>
+      <c r="M190" t="inlineStr"/>
       <c r="N190" t="n">
         <v>0</v>
       </c>
@@ -11473,16 +11211,8 @@
           <t>CHASE CREDIT CRD AUTOPAY 000000000283875</t>
         </is>
       </c>
-      <c r="G199" t="inlineStr">
-        <is>
-          <t>&lt;NA&gt;</t>
-        </is>
-      </c>
-      <c r="H199" t="inlineStr">
-        <is>
-          <t>&lt;NA&gt;</t>
-        </is>
-      </c>
+      <c r="G199" t="inlineStr"/>
+      <c r="H199" t="inlineStr"/>
       <c r="I199" t="n">
         <v>-783.77</v>
       </c>
@@ -11497,11 +11227,7 @@
       <c r="L199" t="n">
         <v>0</v>
       </c>
-      <c r="M199" t="inlineStr">
-        <is>
-          <t>&lt;NA&gt;</t>
-        </is>
-      </c>
+      <c r="M199" t="inlineStr"/>
       <c r="N199" t="n">
         <v>0</v>
       </c>
@@ -11695,11 +11421,7 @@
           <t>AUTOMATIC PAYMENT - THANK</t>
         </is>
       </c>
-      <c r="G203" t="inlineStr">
-        <is>
-          <t>&lt;NA&gt;</t>
-        </is>
-      </c>
+      <c r="G203" t="inlineStr"/>
       <c r="H203" t="inlineStr">
         <is>
           <t>Payment</t>
@@ -11719,11 +11441,7 @@
       <c r="L203" t="n">
         <v>0</v>
       </c>
-      <c r="M203" t="inlineStr">
-        <is>
-          <t>&lt;NA&gt;</t>
-        </is>
-      </c>
+      <c r="M203" t="inlineStr"/>
       <c r="N203" t="n">
         <v>0</v>
       </c>
@@ -12533,16 +12251,8 @@
           <t>TOYOTA MOTOR SAL PAYROLL 568349-TMN</t>
         </is>
       </c>
-      <c r="G218" t="inlineStr">
-        <is>
-          <t>&lt;NA&gt;</t>
-        </is>
-      </c>
-      <c r="H218" t="inlineStr">
-        <is>
-          <t>&lt;NA&gt;</t>
-        </is>
-      </c>
+      <c r="G218" t="inlineStr"/>
+      <c r="H218" t="inlineStr"/>
       <c r="I218" t="n">
         <v>1642.91</v>
       </c>
@@ -12587,16 +12297,8 @@
           <t>TOYOTA MOTOR SAL PAYROLL 568349-TMN</t>
         </is>
       </c>
-      <c r="G219" t="inlineStr">
-        <is>
-          <t>&lt;NA&gt;</t>
-        </is>
-      </c>
-      <c r="H219" t="inlineStr">
-        <is>
-          <t>&lt;NA&gt;</t>
-        </is>
-      </c>
+      <c r="G219" t="inlineStr"/>
+      <c r="H219" t="inlineStr"/>
       <c r="I219" t="n">
         <v>100</v>
       </c>
@@ -13057,11 +12759,7 @@
       <c r="L227" t="n">
         <v>0</v>
       </c>
-      <c r="M227" t="inlineStr">
-        <is>
-          <t>&lt;NA&gt;</t>
-        </is>
-      </c>
+      <c r="M227" t="inlineStr"/>
       <c r="N227" t="n">
         <v>0</v>
       </c>
@@ -13647,16 +13345,8 @@
           <t>KBC Management, WEB PMTS N403N6</t>
         </is>
       </c>
-      <c r="G238" t="inlineStr">
-        <is>
-          <t>&lt;NA&gt;</t>
-        </is>
-      </c>
-      <c r="H238" t="inlineStr">
-        <is>
-          <t>&lt;NA&gt;</t>
-        </is>
-      </c>
+      <c r="G238" t="inlineStr"/>
+      <c r="H238" t="inlineStr"/>
       <c r="I238" t="n">
         <v>-1630</v>
       </c>
@@ -13701,16 +13391,8 @@
           <t>APPLECARD GSBANK PAYMENT 2211736</t>
         </is>
       </c>
-      <c r="G239" t="inlineStr">
-        <is>
-          <t>&lt;NA&gt;</t>
-        </is>
-      </c>
-      <c r="H239" t="inlineStr">
-        <is>
-          <t>&lt;NA&gt;</t>
-        </is>
-      </c>
+      <c r="G239" t="inlineStr"/>
+      <c r="H239" t="inlineStr"/>
       <c r="I239" t="n">
         <v>-6.11</v>
       </c>
@@ -13977,16 +13659,8 @@
           <t>CHASE CREDIT CRD AUTOPAY 000000000481963</t>
         </is>
       </c>
-      <c r="G244" t="inlineStr">
-        <is>
-          <t>&lt;NA&gt;</t>
-        </is>
-      </c>
-      <c r="H244" t="inlineStr">
-        <is>
-          <t>&lt;NA&gt;</t>
-        </is>
-      </c>
+      <c r="G244" t="inlineStr"/>
+      <c r="H244" t="inlineStr"/>
       <c r="I244" t="n">
         <v>-1413.56</v>
       </c>
@@ -14001,11 +13675,7 @@
       <c r="L244" t="n">
         <v>0</v>
       </c>
-      <c r="M244" t="inlineStr">
-        <is>
-          <t>&lt;NA&gt;</t>
-        </is>
-      </c>
+      <c r="M244" t="inlineStr"/>
       <c r="N244" t="n">
         <v>0</v>
       </c>
@@ -14535,16 +14205,8 @@
           <t>TOYOTA MOTOR SAL PAYROLL 568349-TMN</t>
         </is>
       </c>
-      <c r="G254" t="inlineStr">
-        <is>
-          <t>&lt;NA&gt;</t>
-        </is>
-      </c>
-      <c r="H254" t="inlineStr">
-        <is>
-          <t>&lt;NA&gt;</t>
-        </is>
-      </c>
+      <c r="G254" t="inlineStr"/>
+      <c r="H254" t="inlineStr"/>
       <c r="I254" t="n">
         <v>1642.9</v>
       </c>
@@ -14589,11 +14251,7 @@
           <t>AUTOMATIC PAYMENT - THANK</t>
         </is>
       </c>
-      <c r="G255" t="inlineStr">
-        <is>
-          <t>&lt;NA&gt;</t>
-        </is>
-      </c>
+      <c r="G255" t="inlineStr"/>
       <c r="H255" t="inlineStr">
         <is>
           <t>Payment</t>
@@ -14613,11 +14271,7 @@
       <c r="L255" t="n">
         <v>0</v>
       </c>
-      <c r="M255" t="inlineStr">
-        <is>
-          <t>&lt;NA&gt;</t>
-        </is>
-      </c>
+      <c r="M255" t="inlineStr"/>
       <c r="N255" t="n">
         <v>0</v>
       </c>
@@ -14753,16 +14407,8 @@
           <t>WELLS FARGO IFI DDA TO DDA F20GQJDBW4</t>
         </is>
       </c>
-      <c r="G258" t="inlineStr">
-        <is>
-          <t>&lt;NA&gt;</t>
-        </is>
-      </c>
-      <c r="H258" t="inlineStr">
-        <is>
-          <t>&lt;NA&gt;</t>
-        </is>
-      </c>
+      <c r="G258" t="inlineStr"/>
+      <c r="H258" t="inlineStr"/>
       <c r="I258" t="n">
         <v>-20</v>
       </c>
@@ -14777,11 +14423,7 @@
       <c r="L258" t="n">
         <v>0</v>
       </c>
-      <c r="M258" t="inlineStr">
-        <is>
-          <t>&lt;NA&gt;</t>
-        </is>
-      </c>
+      <c r="M258" t="inlineStr"/>
       <c r="N258" t="n">
         <v>0</v>
       </c>
@@ -15981,16 +15623,8 @@
           <t>Check</t>
         </is>
       </c>
-      <c r="G280" t="inlineStr">
-        <is>
-          <t>&lt;NA&gt;</t>
-        </is>
-      </c>
-      <c r="H280" t="inlineStr">
-        <is>
-          <t>&lt;NA&gt;</t>
-        </is>
-      </c>
+      <c r="G280" t="inlineStr"/>
+      <c r="H280" t="inlineStr"/>
       <c r="I280" t="n">
         <v>-168</v>
       </c>
@@ -16005,11 +15639,7 @@
       <c r="L280" t="n">
         <v>0</v>
       </c>
-      <c r="M280" t="inlineStr">
-        <is>
-          <t>&lt;NA&gt;</t>
-        </is>
-      </c>
+      <c r="M280" t="inlineStr"/>
       <c r="N280" t="n">
         <v>0</v>
       </c>
@@ -16033,16 +15663,8 @@
           <t>US TREASURY IRS PAYMENT 0350</t>
         </is>
       </c>
-      <c r="G281" t="inlineStr">
-        <is>
-          <t>&lt;NA&gt;</t>
-        </is>
-      </c>
-      <c r="H281" t="inlineStr">
-        <is>
-          <t>&lt;NA&gt;</t>
-        </is>
-      </c>
+      <c r="G281" t="inlineStr"/>
+      <c r="H281" t="inlineStr"/>
       <c r="I281" t="n">
         <v>-88.39</v>
       </c>
@@ -16197,16 +15819,8 @@
           <t>Barclays Bank De P2P Vega,William</t>
         </is>
       </c>
-      <c r="G284" t="inlineStr">
-        <is>
-          <t>&lt;NA&gt;</t>
-        </is>
-      </c>
-      <c r="H284" t="inlineStr">
-        <is>
-          <t>&lt;NA&gt;</t>
-        </is>
-      </c>
+      <c r="G284" t="inlineStr"/>
+      <c r="H284" t="inlineStr"/>
       <c r="I284" t="n">
         <v>372.14</v>
       </c>
@@ -16221,11 +15835,7 @@
       <c r="L284" t="n">
         <v>0</v>
       </c>
-      <c r="M284" t="inlineStr">
-        <is>
-          <t>&lt;NA&gt;</t>
-        </is>
-      </c>
+      <c r="M284" t="inlineStr"/>
       <c r="N284" t="n">
         <v>0</v>
       </c>
@@ -16249,16 +15859,8 @@
           <t>CHASE CREDIT CRD AUTOPAY 000000000279071</t>
         </is>
       </c>
-      <c r="G285" t="inlineStr">
-        <is>
-          <t>&lt;NA&gt;</t>
-        </is>
-      </c>
-      <c r="H285" t="inlineStr">
-        <is>
-          <t>&lt;NA&gt;</t>
-        </is>
-      </c>
+      <c r="G285" t="inlineStr"/>
+      <c r="H285" t="inlineStr"/>
       <c r="I285" t="n">
         <v>-973.08</v>
       </c>
@@ -16273,11 +15875,7 @@
       <c r="L285" t="n">
         <v>0</v>
       </c>
-      <c r="M285" t="inlineStr">
-        <is>
-          <t>&lt;NA&gt;</t>
-        </is>
-      </c>
+      <c r="M285" t="inlineStr"/>
       <c r="N285" t="n">
         <v>0</v>
       </c>
@@ -16303,11 +15901,7 @@
           <t>AUTOMATIC PAYMENT - THANK</t>
         </is>
       </c>
-      <c r="G286" t="inlineStr">
-        <is>
-          <t>&lt;NA&gt;</t>
-        </is>
-      </c>
+      <c r="G286" t="inlineStr"/>
       <c r="H286" t="inlineStr">
         <is>
           <t>Payment</t>
@@ -16327,11 +15921,7 @@
       <c r="L286" t="n">
         <v>0</v>
       </c>
-      <c r="M286" t="inlineStr">
-        <is>
-          <t>&lt;NA&gt;</t>
-        </is>
-      </c>
+      <c r="M286" t="inlineStr"/>
       <c r="N286" t="n">
         <v>0</v>
       </c>
@@ -16355,16 +15945,8 @@
           <t>VENMO PAYMENT 1022930212980</t>
         </is>
       </c>
-      <c r="G287" t="inlineStr">
-        <is>
-          <t>&lt;NA&gt;</t>
-        </is>
-      </c>
-      <c r="H287" t="inlineStr">
-        <is>
-          <t>&lt;NA&gt;</t>
-        </is>
-      </c>
+      <c r="G287" t="inlineStr"/>
+      <c r="H287" t="inlineStr"/>
       <c r="I287" t="n">
         <v>-79.5</v>
       </c>
@@ -16379,11 +15961,7 @@
       <c r="L287" t="n">
         <v>0</v>
       </c>
-      <c r="M287" t="inlineStr">
-        <is>
-          <t>&lt;NA&gt;</t>
-        </is>
-      </c>
+      <c r="M287" t="inlineStr"/>
       <c r="N287" t="n">
         <v>0</v>
       </c>
@@ -16407,16 +15985,8 @@
           <t>VENMO PAYMENT 1022930215113</t>
         </is>
       </c>
-      <c r="G288" t="inlineStr">
-        <is>
-          <t>&lt;NA&gt;</t>
-        </is>
-      </c>
-      <c r="H288" t="inlineStr">
-        <is>
-          <t>&lt;NA&gt;</t>
-        </is>
-      </c>
+      <c r="G288" t="inlineStr"/>
+      <c r="H288" t="inlineStr"/>
       <c r="I288" t="n">
         <v>-57</v>
       </c>
@@ -16431,11 +16001,7 @@
       <c r="L288" t="n">
         <v>0</v>
       </c>
-      <c r="M288" t="inlineStr">
-        <is>
-          <t>&lt;NA&gt;</t>
-        </is>
-      </c>
+      <c r="M288" t="inlineStr"/>
       <c r="N288" t="n">
         <v>0</v>
       </c>
@@ -17077,16 +16643,8 @@
           <t>TOYOTA MOTOR SAL PAYROLL 568349-TMN</t>
         </is>
       </c>
-      <c r="G300" t="inlineStr">
-        <is>
-          <t>&lt;NA&gt;</t>
-        </is>
-      </c>
-      <c r="H300" t="inlineStr">
-        <is>
-          <t>&lt;NA&gt;</t>
-        </is>
-      </c>
+      <c r="G300" t="inlineStr"/>
+      <c r="H300" t="inlineStr"/>
       <c r="I300" t="n">
         <v>1743.83</v>
       </c>
@@ -17241,16 +16799,8 @@
           <t>WELLS FARGO IFI DDA TO DDA F20GKWFW5B</t>
         </is>
       </c>
-      <c r="G303" t="inlineStr">
-        <is>
-          <t>&lt;NA&gt;</t>
-        </is>
-      </c>
-      <c r="H303" t="inlineStr">
-        <is>
-          <t>&lt;NA&gt;</t>
-        </is>
-      </c>
+      <c r="G303" t="inlineStr"/>
+      <c r="H303" t="inlineStr"/>
       <c r="I303" t="n">
         <v>756.71</v>
       </c>
@@ -17265,11 +16815,7 @@
       <c r="L303" t="n">
         <v>0</v>
       </c>
-      <c r="M303" t="inlineStr">
-        <is>
-          <t>&lt;NA&gt;</t>
-        </is>
-      </c>
+      <c r="M303" t="inlineStr"/>
       <c r="N303" t="n">
         <v>0</v>
       </c>
@@ -17599,11 +17145,7 @@
       <c r="L309" t="n">
         <v>0</v>
       </c>
-      <c r="M309" t="inlineStr">
-        <is>
-          <t>&lt;NA&gt;</t>
-        </is>
-      </c>
+      <c r="M309" t="inlineStr"/>
       <c r="N309" t="n">
         <v>0</v>
       </c>
@@ -18353,16 +17895,8 @@
           <t>KBC Management, WEB PMTS 7ZTSH6</t>
         </is>
       </c>
-      <c r="G323" t="inlineStr">
-        <is>
-          <t>&lt;NA&gt;</t>
-        </is>
-      </c>
-      <c r="H323" t="inlineStr">
-        <is>
-          <t>&lt;NA&gt;</t>
-        </is>
-      </c>
+      <c r="G323" t="inlineStr"/>
+      <c r="H323" t="inlineStr"/>
       <c r="I323" t="n">
         <v>-1630</v>
       </c>
@@ -18461,16 +17995,8 @@
           <t>APPLECARD GSBANK PAYMENT 2211736</t>
         </is>
       </c>
-      <c r="G325" t="inlineStr">
-        <is>
-          <t>&lt;NA&gt;</t>
-        </is>
-      </c>
-      <c r="H325" t="inlineStr">
-        <is>
-          <t>&lt;NA&gt;</t>
-        </is>
-      </c>
+      <c r="G325" t="inlineStr"/>
+      <c r="H325" t="inlineStr"/>
       <c r="I325" t="n">
         <v>-1.1</v>
       </c>
@@ -18485,11 +18011,7 @@
       <c r="L325" t="n">
         <v>0</v>
       </c>
-      <c r="M325" t="inlineStr">
-        <is>
-          <t>&lt;NA&gt;</t>
-        </is>
-      </c>
+      <c r="M325" t="inlineStr"/>
       <c r="N325" t="n">
         <v>0</v>
       </c>
@@ -18513,16 +18035,8 @@
           <t>Online Banking Transfer from XXXXXX4411on 10/02/2022 at 18:52</t>
         </is>
       </c>
-      <c r="G326" t="inlineStr">
-        <is>
-          <t>&lt;NA&gt;</t>
-        </is>
-      </c>
-      <c r="H326" t="inlineStr">
-        <is>
-          <t>&lt;NA&gt;</t>
-        </is>
-      </c>
+      <c r="G326" t="inlineStr"/>
+      <c r="H326" t="inlineStr"/>
       <c r="I326" t="n">
         <v>440</v>
       </c>
@@ -18537,11 +18051,7 @@
       <c r="L326" t="n">
         <v>0</v>
       </c>
-      <c r="M326" t="inlineStr">
-        <is>
-          <t>&lt;NA&gt;</t>
-        </is>
-      </c>
+      <c r="M326" t="inlineStr"/>
       <c r="N326" t="n">
         <v>0</v>
       </c>
@@ -18903,16 +18413,8 @@
           <t>TOYOTA MOTOR SAL PAYROLL 568349-TMN</t>
         </is>
       </c>
-      <c r="G333" t="inlineStr">
-        <is>
-          <t>&lt;NA&gt;</t>
-        </is>
-      </c>
-      <c r="H333" t="inlineStr">
-        <is>
-          <t>&lt;NA&gt;</t>
-        </is>
-      </c>
+      <c r="G333" t="inlineStr"/>
+      <c r="H333" t="inlineStr"/>
       <c r="I333" t="n">
         <v>1620.95</v>
       </c>
@@ -19065,16 +18567,8 @@
           <t>CHASE CREDIT CRD AUTOPAY 000000000474653</t>
         </is>
       </c>
-      <c r="G336" t="inlineStr">
-        <is>
-          <t>&lt;NA&gt;</t>
-        </is>
-      </c>
-      <c r="H336" t="inlineStr">
-        <is>
-          <t>&lt;NA&gt;</t>
-        </is>
-      </c>
+      <c r="G336" t="inlineStr"/>
+      <c r="H336" t="inlineStr"/>
       <c r="I336" t="n">
         <v>-1388.74</v>
       </c>
@@ -19089,11 +18583,7 @@
       <c r="L336" t="n">
         <v>0</v>
       </c>
-      <c r="M336" t="inlineStr">
-        <is>
-          <t>&lt;NA&gt;</t>
-        </is>
-      </c>
+      <c r="M336" t="inlineStr"/>
       <c r="N336" t="n">
         <v>0</v>
       </c>
@@ -19119,11 +18609,7 @@
           <t>AUTOMATIC PAYMENT - THANK</t>
         </is>
       </c>
-      <c r="G337" t="inlineStr">
-        <is>
-          <t>&lt;NA&gt;</t>
-        </is>
-      </c>
+      <c r="G337" t="inlineStr"/>
       <c r="H337" t="inlineStr">
         <is>
           <t>Payment</t>
@@ -19143,11 +18629,7 @@
       <c r="L337" t="n">
         <v>0</v>
       </c>
-      <c r="M337" t="inlineStr">
-        <is>
-          <t>&lt;NA&gt;</t>
-        </is>
-      </c>
+      <c r="M337" t="inlineStr"/>
       <c r="N337" t="n">
         <v>0</v>
       </c>
@@ -19251,11 +18733,7 @@
       <c r="L339" t="n">
         <v>0</v>
       </c>
-      <c r="M339" t="inlineStr">
-        <is>
-          <t>&lt;NA&gt;</t>
-        </is>
-      </c>
+      <c r="M339" t="inlineStr"/>
       <c r="N339" t="n">
         <v>0</v>
       </c>
@@ -19279,16 +18757,8 @@
           <t>VENMO PAYMENT 1022515933364</t>
         </is>
       </c>
-      <c r="G340" t="inlineStr">
-        <is>
-          <t>&lt;NA&gt;</t>
-        </is>
-      </c>
-      <c r="H340" t="inlineStr">
-        <is>
-          <t>&lt;NA&gt;</t>
-        </is>
-      </c>
+      <c r="G340" t="inlineStr"/>
+      <c r="H340" t="inlineStr"/>
       <c r="I340" t="n">
         <v>-21</v>
       </c>
@@ -19303,11 +18773,7 @@
       <c r="L340" t="n">
         <v>0</v>
       </c>
-      <c r="M340" t="inlineStr">
-        <is>
-          <t>&lt;NA&gt;</t>
-        </is>
-      </c>
+      <c r="M340" t="inlineStr"/>
       <c r="N340" t="n">
         <v>0</v>
       </c>
@@ -20465,16 +19931,8 @@
           <t>CHASE CREDIT CRD AUTOPAY 000000000555390</t>
         </is>
       </c>
-      <c r="G362" t="inlineStr">
-        <is>
-          <t>&lt;NA&gt;</t>
-        </is>
-      </c>
-      <c r="H362" t="inlineStr">
-        <is>
-          <t>&lt;NA&gt;</t>
-        </is>
-      </c>
+      <c r="G362" t="inlineStr"/>
+      <c r="H362" t="inlineStr"/>
       <c r="I362" t="n">
         <v>-2189.57</v>
       </c>
@@ -20489,11 +19947,7 @@
       <c r="L362" t="n">
         <v>0</v>
       </c>
-      <c r="M362" t="inlineStr">
-        <is>
-          <t>&lt;NA&gt;</t>
-        </is>
-      </c>
+      <c r="M362" t="inlineStr"/>
       <c r="N362" t="n">
         <v>0</v>
       </c>
@@ -20681,16 +20135,8 @@
           <t>TOYOTA MOTOR SAL PAYROLL 568349-TMN</t>
         </is>
       </c>
-      <c r="G366" t="inlineStr">
-        <is>
-          <t>&lt;NA&gt;</t>
-        </is>
-      </c>
-      <c r="H366" t="inlineStr">
-        <is>
-          <t>&lt;NA&gt;</t>
-        </is>
-      </c>
+      <c r="G366" t="inlineStr"/>
+      <c r="H366" t="inlineStr"/>
       <c r="I366" t="n">
         <v>1621.05</v>
       </c>
@@ -20735,11 +20181,7 @@
           <t>AUTOMATIC PAYMENT - THANK</t>
         </is>
       </c>
-      <c r="G367" t="inlineStr">
-        <is>
-          <t>&lt;NA&gt;</t>
-        </is>
-      </c>
+      <c r="G367" t="inlineStr"/>
       <c r="H367" t="inlineStr">
         <is>
           <t>Payment</t>
@@ -20759,11 +20201,7 @@
       <c r="L367" t="n">
         <v>0</v>
       </c>
-      <c r="M367" t="inlineStr">
-        <is>
-          <t>&lt;NA&gt;</t>
-        </is>
-      </c>
+      <c r="M367" t="inlineStr"/>
       <c r="N367" t="n">
         <v>0</v>
       </c>
@@ -23437,16 +22875,8 @@
           <t>KBC Management, WEB PMTS 4KT1C6</t>
         </is>
       </c>
-      <c r="G417" t="inlineStr">
-        <is>
-          <t>&lt;NA&gt;</t>
-        </is>
-      </c>
-      <c r="H417" t="inlineStr">
-        <is>
-          <t>&lt;NA&gt;</t>
-        </is>
-      </c>
+      <c r="G417" t="inlineStr"/>
+      <c r="H417" t="inlineStr"/>
       <c r="I417" t="n">
         <v>-1556.65</v>
       </c>
@@ -23491,16 +22921,8 @@
           <t>TOYOTA MOTOR SAL PAYROLL 568349-TMN</t>
         </is>
       </c>
-      <c r="G418" t="inlineStr">
-        <is>
-          <t>&lt;NA&gt;</t>
-        </is>
-      </c>
-      <c r="H418" t="inlineStr">
-        <is>
-          <t>&lt;NA&gt;</t>
-        </is>
-      </c>
+      <c r="G418" t="inlineStr"/>
+      <c r="H418" t="inlineStr"/>
       <c r="I418" t="n">
         <v>1620.9</v>
       </c>
@@ -23543,16 +22965,8 @@
           <t>APPLECARD GSBANK PAYMENT 2211736</t>
         </is>
       </c>
-      <c r="G419" t="inlineStr">
-        <is>
-          <t>&lt;NA&gt;</t>
-        </is>
-      </c>
-      <c r="H419" t="inlineStr">
-        <is>
-          <t>&lt;NA&gt;</t>
-        </is>
-      </c>
+      <c r="G419" t="inlineStr"/>
+      <c r="H419" t="inlineStr"/>
       <c r="I419" t="n">
         <v>-32.14</v>
       </c>
@@ -23567,11 +22981,7 @@
       <c r="L419" t="n">
         <v>0</v>
       </c>
-      <c r="M419" t="inlineStr">
-        <is>
-          <t>&lt;NA&gt;</t>
-        </is>
-      </c>
+      <c r="M419" t="inlineStr"/>
       <c r="N419" t="n">
         <v>0</v>
       </c>
@@ -24189,16 +23599,8 @@
           <t>CHASE CREDIT CRD AUTOPAY 000000000472553</t>
         </is>
       </c>
-      <c r="G431" t="inlineStr">
-        <is>
-          <t>&lt;NA&gt;</t>
-        </is>
-      </c>
-      <c r="H431" t="inlineStr">
-        <is>
-          <t>&lt;NA&gt;</t>
-        </is>
-      </c>
+      <c r="G431" t="inlineStr"/>
+      <c r="H431" t="inlineStr"/>
       <c r="I431" t="n">
         <v>-2513.9</v>
       </c>
@@ -24213,11 +23615,7 @@
       <c r="L431" t="n">
         <v>0</v>
       </c>
-      <c r="M431" t="inlineStr">
-        <is>
-          <t>&lt;NA&gt;</t>
-        </is>
-      </c>
+      <c r="M431" t="inlineStr"/>
       <c r="N431" t="n">
         <v>0</v>
       </c>
@@ -24459,11 +23857,7 @@
           <t>AUTOMATIC PAYMENT - THANK</t>
         </is>
       </c>
-      <c r="G436" t="inlineStr">
-        <is>
-          <t>&lt;NA&gt;</t>
-        </is>
-      </c>
+      <c r="G436" t="inlineStr"/>
       <c r="H436" t="inlineStr">
         <is>
           <t>Payment</t>
@@ -24483,11 +23877,7 @@
       <c r="L436" t="n">
         <v>0</v>
       </c>
-      <c r="M436" t="inlineStr">
-        <is>
-          <t>&lt;NA&gt;</t>
-        </is>
-      </c>
+      <c r="M436" t="inlineStr"/>
       <c r="N436" t="n">
         <v>0</v>
       </c>
@@ -25701,16 +25091,8 @@
           <t>TOYOTA MOTOR SAL PAYROLL 568349-TMN</t>
         </is>
       </c>
-      <c r="G459" t="inlineStr">
-        <is>
-          <t>&lt;NA&gt;</t>
-        </is>
-      </c>
-      <c r="H459" t="inlineStr">
-        <is>
-          <t>&lt;NA&gt;</t>
-        </is>
-      </c>
+      <c r="G459" t="inlineStr"/>
+      <c r="H459" t="inlineStr"/>
       <c r="I459" t="n">
         <v>1620.85</v>
       </c>
@@ -25861,16 +25243,8 @@
           <t>CHASE CREDIT CRD AUTOPAY 000000000268355</t>
         </is>
       </c>
-      <c r="G462" t="inlineStr">
-        <is>
-          <t>&lt;NA&gt;</t>
-        </is>
-      </c>
-      <c r="H462" t="inlineStr">
-        <is>
-          <t>&lt;NA&gt;</t>
-        </is>
-      </c>
+      <c r="G462" t="inlineStr"/>
+      <c r="H462" t="inlineStr"/>
       <c r="I462" t="n">
         <v>-1879.77</v>
       </c>
@@ -25885,11 +25259,7 @@
       <c r="L462" t="n">
         <v>0</v>
       </c>
-      <c r="M462" t="inlineStr">
-        <is>
-          <t>&lt;NA&gt;</t>
-        </is>
-      </c>
+      <c r="M462" t="inlineStr"/>
       <c r="N462" t="n">
         <v>0</v>
       </c>
@@ -26023,11 +25393,7 @@
           <t>AUTOMATIC PAYMENT - THANK</t>
         </is>
       </c>
-      <c r="G465" t="inlineStr">
-        <is>
-          <t>&lt;NA&gt;</t>
-        </is>
-      </c>
+      <c r="G465" t="inlineStr"/>
       <c r="H465" t="inlineStr">
         <is>
           <t>Payment</t>
@@ -26047,11 +25413,7 @@
       <c r="L465" t="n">
         <v>0</v>
       </c>
-      <c r="M465" t="inlineStr">
-        <is>
-          <t>&lt;NA&gt;</t>
-        </is>
-      </c>
+      <c r="M465" t="inlineStr"/>
       <c r="N465" t="n">
         <v>0</v>
       </c>
@@ -27343,11 +26705,7 @@
       <c r="L489" t="n">
         <v>0</v>
       </c>
-      <c r="M489" t="inlineStr">
-        <is>
-          <t>&lt;NA&gt;</t>
-        </is>
-      </c>
+      <c r="M489" t="inlineStr"/>
       <c r="N489" t="n">
         <v>0</v>
       </c>
@@ -27397,11 +26755,7 @@
       <c r="L490" t="n">
         <v>0</v>
       </c>
-      <c r="M490" t="inlineStr">
-        <is>
-          <t>&lt;NA&gt;</t>
-        </is>
-      </c>
+      <c r="M490" t="inlineStr"/>
       <c r="N490" t="n">
         <v>0</v>
       </c>
@@ -27533,16 +26887,8 @@
           <t>Online Banking Transfer from XXXXXX4411on 8/09/2022 at 10:19</t>
         </is>
       </c>
-      <c r="G493" t="inlineStr">
-        <is>
-          <t>&lt;NA&gt;</t>
-        </is>
-      </c>
-      <c r="H493" t="inlineStr">
-        <is>
-          <t>&lt;NA&gt;</t>
-        </is>
-      </c>
+      <c r="G493" t="inlineStr"/>
+      <c r="H493" t="inlineStr"/>
       <c r="I493" t="n">
         <v>800</v>
       </c>
@@ -27557,11 +26903,7 @@
       <c r="L493" t="n">
         <v>0</v>
       </c>
-      <c r="M493" t="inlineStr">
-        <is>
-          <t>&lt;NA&gt;</t>
-        </is>
-      </c>
+      <c r="M493" t="inlineStr"/>
       <c r="N493" t="n">
         <v>0</v>
       </c>
@@ -27935,11 +27277,7 @@
       <c r="L500" t="n">
         <v>0</v>
       </c>
-      <c r="M500" t="inlineStr">
-        <is>
-          <t>&lt;NA&gt;</t>
-        </is>
-      </c>
+      <c r="M500" t="inlineStr"/>
       <c r="N500" t="n">
         <v>0</v>
       </c>
@@ -28775,16 +28113,8 @@
           <t>TOYOTA MOTOR SAL PAYROLL 568349-TMN</t>
         </is>
       </c>
-      <c r="G516" t="inlineStr">
-        <is>
-          <t>&lt;NA&gt;</t>
-        </is>
-      </c>
-      <c r="H516" t="inlineStr">
-        <is>
-          <t>&lt;NA&gt;</t>
-        </is>
-      </c>
+      <c r="G516" t="inlineStr"/>
+      <c r="H516" t="inlineStr"/>
       <c r="I516" t="n">
         <v>1620.87</v>
       </c>
@@ -29475,16 +28805,8 @@
           <t>KBC Management, WEB PMTS 1XPY66</t>
         </is>
       </c>
-      <c r="G529" t="inlineStr">
-        <is>
-          <t>&lt;NA&gt;</t>
-        </is>
-      </c>
-      <c r="H529" t="inlineStr">
-        <is>
-          <t>&lt;NA&gt;</t>
-        </is>
-      </c>
+      <c r="G529" t="inlineStr"/>
+      <c r="H529" t="inlineStr"/>
       <c r="I529" t="n">
         <v>-1630</v>
       </c>
@@ -29527,16 +28849,8 @@
           <t>VENMO CASHOUT 1021533206597</t>
         </is>
       </c>
-      <c r="G530" t="inlineStr">
-        <is>
-          <t>&lt;NA&gt;</t>
-        </is>
-      </c>
-      <c r="H530" t="inlineStr">
-        <is>
-          <t>&lt;NA&gt;</t>
-        </is>
-      </c>
+      <c r="G530" t="inlineStr"/>
+      <c r="H530" t="inlineStr"/>
       <c r="I530" t="n">
         <v>369.34</v>
       </c>
@@ -29551,11 +28865,7 @@
       <c r="L530" t="n">
         <v>0</v>
       </c>
-      <c r="M530" t="inlineStr">
-        <is>
-          <t>&lt;NA&gt;</t>
-        </is>
-      </c>
+      <c r="M530" t="inlineStr"/>
       <c r="N530" t="n">
         <v>0</v>
       </c>
@@ -29903,16 +29213,8 @@
           <t>APPLECARD GSBANK PAYMENT 2211736</t>
         </is>
       </c>
-      <c r="G537" t="inlineStr">
-        <is>
-          <t>&lt;NA&gt;</t>
-        </is>
-      </c>
-      <c r="H537" t="inlineStr">
-        <is>
-          <t>&lt;NA&gt;</t>
-        </is>
-      </c>
+      <c r="G537" t="inlineStr"/>
+      <c r="H537" t="inlineStr"/>
       <c r="I537" t="n">
         <v>-47.55</v>
       </c>
@@ -29927,11 +29229,7 @@
       <c r="L537" t="n">
         <v>0</v>
       </c>
-      <c r="M537" t="inlineStr">
-        <is>
-          <t>&lt;NA&gt;</t>
-        </is>
-      </c>
+      <c r="M537" t="inlineStr"/>
       <c r="N537" t="n">
         <v>0</v>
       </c>
@@ -30819,16 +30117,8 @@
           <t>CHASE CREDIT CRD AUTOPAY 000000000461669</t>
         </is>
       </c>
-      <c r="G554" t="inlineStr">
-        <is>
-          <t>&lt;NA&gt;</t>
-        </is>
-      </c>
-      <c r="H554" t="inlineStr">
-        <is>
-          <t>&lt;NA&gt;</t>
-        </is>
-      </c>
+      <c r="G554" t="inlineStr"/>
+      <c r="H554" t="inlineStr"/>
       <c r="I554" t="n">
         <v>-3940.95</v>
       </c>
@@ -30843,11 +30133,7 @@
       <c r="L554" t="n">
         <v>0</v>
       </c>
-      <c r="M554" t="inlineStr">
-        <is>
-          <t>&lt;NA&gt;</t>
-        </is>
-      </c>
+      <c r="M554" t="inlineStr"/>
       <c r="N554" t="n">
         <v>0</v>
       </c>
@@ -30927,11 +30213,7 @@
           <t>AUTOMATIC PAYMENT - THANK</t>
         </is>
       </c>
-      <c r="G556" t="inlineStr">
-        <is>
-          <t>&lt;NA&gt;</t>
-        </is>
-      </c>
+      <c r="G556" t="inlineStr"/>
       <c r="H556" t="inlineStr">
         <is>
           <t>Payment</t>
@@ -30951,11 +30233,7 @@
       <c r="L556" t="n">
         <v>0</v>
       </c>
-      <c r="M556" t="inlineStr">
-        <is>
-          <t>&lt;NA&gt;</t>
-        </is>
-      </c>
+      <c r="M556" t="inlineStr"/>
       <c r="N556" t="n">
         <v>0</v>
       </c>
@@ -31791,16 +31069,8 @@
           <t>TOYOTA MOTOR SAL PAYROLL 568349-TMN</t>
         </is>
       </c>
-      <c r="G572" t="inlineStr">
-        <is>
-          <t>&lt;NA&gt;</t>
-        </is>
-      </c>
-      <c r="H572" t="inlineStr">
-        <is>
-          <t>&lt;NA&gt;</t>
-        </is>
-      </c>
+      <c r="G572" t="inlineStr"/>
+      <c r="H572" t="inlineStr"/>
       <c r="I572" t="n">
         <v>3112.5</v>
       </c>
@@ -31845,16 +31115,8 @@
           <t>TOYOTA MOTOR SAL PAYROLL 568349-TMN</t>
         </is>
       </c>
-      <c r="G573" t="inlineStr">
-        <is>
-          <t>&lt;NA&gt;</t>
-        </is>
-      </c>
-      <c r="H573" t="inlineStr">
-        <is>
-          <t>&lt;NA&gt;</t>
-        </is>
-      </c>
+      <c r="G573" t="inlineStr"/>
+      <c r="H573" t="inlineStr"/>
       <c r="I573" t="n">
         <v>105.59</v>
       </c>
@@ -31899,16 +31161,8 @@
           <t>TOYOTA MOTOR SAL PAYROLL 568349-TMN</t>
         </is>
       </c>
-      <c r="G574" t="inlineStr">
-        <is>
-          <t>&lt;NA&gt;</t>
-        </is>
-      </c>
-      <c r="H574" t="inlineStr">
-        <is>
-          <t>&lt;NA&gt;</t>
-        </is>
-      </c>
+      <c r="G574" t="inlineStr"/>
+      <c r="H574" t="inlineStr"/>
       <c r="I574" t="n">
         <v>1511.38</v>
       </c>
@@ -31951,16 +31205,8 @@
           <t>KBC Management, WEB PMTS Y52756</t>
         </is>
       </c>
-      <c r="G575" t="inlineStr">
-        <is>
-          <t>&lt;NA&gt;</t>
-        </is>
-      </c>
-      <c r="H575" t="inlineStr">
-        <is>
-          <t>&lt;NA&gt;</t>
-        </is>
-      </c>
+      <c r="G575" t="inlineStr"/>
+      <c r="H575" t="inlineStr"/>
       <c r="I575" t="n">
         <v>-500</v>
       </c>
@@ -32219,16 +31465,8 @@
           <t>CHASE CREDIT CRD AUTOPAY 000000000266011</t>
         </is>
       </c>
-      <c r="G580" t="inlineStr">
-        <is>
-          <t>&lt;NA&gt;</t>
-        </is>
-      </c>
-      <c r="H580" t="inlineStr">
-        <is>
-          <t>&lt;NA&gt;</t>
-        </is>
-      </c>
+      <c r="G580" t="inlineStr"/>
+      <c r="H580" t="inlineStr"/>
       <c r="I580" t="n">
         <v>-1375.66</v>
       </c>
@@ -32243,11 +31481,7 @@
       <c r="L580" t="n">
         <v>0</v>
       </c>
-      <c r="M580" t="inlineStr">
-        <is>
-          <t>&lt;NA&gt;</t>
-        </is>
-      </c>
+      <c r="M580" t="inlineStr"/>
       <c r="N580" t="n">
         <v>0</v>
       </c>
@@ -32381,11 +31615,7 @@
           <t>AUTOMATIC PAYMENT - THANK</t>
         </is>
       </c>
-      <c r="G583" t="inlineStr">
-        <is>
-          <t>&lt;NA&gt;</t>
-        </is>
-      </c>
+      <c r="G583" t="inlineStr"/>
       <c r="H583" t="inlineStr">
         <is>
           <t>Payment</t>
@@ -32405,11 +31635,7 @@
       <c r="L583" t="n">
         <v>0</v>
       </c>
-      <c r="M583" t="inlineStr">
-        <is>
-          <t>&lt;NA&gt;</t>
-        </is>
-      </c>
+      <c r="M583" t="inlineStr"/>
       <c r="N583" t="n">
         <v>0</v>
       </c>
@@ -32865,16 +32091,8 @@
           <t>Mobile Deposit</t>
         </is>
       </c>
-      <c r="G592" t="inlineStr">
-        <is>
-          <t>&lt;NA&gt;</t>
-        </is>
-      </c>
-      <c r="H592" t="inlineStr">
-        <is>
-          <t>&lt;NA&gt;</t>
-        </is>
-      </c>
+      <c r="G592" t="inlineStr"/>
+      <c r="H592" t="inlineStr"/>
       <c r="I592" t="n">
         <v>100</v>
       </c>
@@ -32889,11 +32107,7 @@
       <c r="L592" t="n">
         <v>0</v>
       </c>
-      <c r="M592" t="inlineStr">
-        <is>
-          <t>&lt;NA&gt;</t>
-        </is>
-      </c>
+      <c r="M592" t="inlineStr"/>
       <c r="N592" t="n">
         <v>0</v>
       </c>
@@ -33997,16 +33211,8 @@
           <t>VENMO CASHOUT 1021072634797</t>
         </is>
       </c>
-      <c r="G613" t="inlineStr">
-        <is>
-          <t>&lt;NA&gt;</t>
-        </is>
-      </c>
-      <c r="H613" t="inlineStr">
-        <is>
-          <t>&lt;NA&gt;</t>
-        </is>
-      </c>
+      <c r="G613" t="inlineStr"/>
+      <c r="H613" t="inlineStr"/>
       <c r="I613" t="n">
         <v>988</v>
       </c>
@@ -34021,11 +33227,7 @@
       <c r="L613" t="n">
         <v>0</v>
       </c>
-      <c r="M613" t="inlineStr">
-        <is>
-          <t>&lt;NA&gt;</t>
-        </is>
-      </c>
+      <c r="M613" t="inlineStr"/>
       <c r="N613" t="n">
         <v>0</v>
       </c>
@@ -34373,16 +33575,8 @@
           <t>Online Banking Transfer from XXXXXX4411on 7/04/2022 at 13:39</t>
         </is>
       </c>
-      <c r="G620" t="inlineStr">
-        <is>
-          <t>&lt;NA&gt;</t>
-        </is>
-      </c>
-      <c r="H620" t="inlineStr">
-        <is>
-          <t>&lt;NA&gt;</t>
-        </is>
-      </c>
+      <c r="G620" t="inlineStr"/>
+      <c r="H620" t="inlineStr"/>
       <c r="I620" t="n">
         <v>450</v>
       </c>
@@ -34397,11 +33591,7 @@
       <c r="L620" t="n">
         <v>0</v>
       </c>
-      <c r="M620" t="inlineStr">
-        <is>
-          <t>&lt;NA&gt;</t>
-        </is>
-      </c>
+      <c r="M620" t="inlineStr"/>
       <c r="N620" t="n">
         <v>0</v>
       </c>
@@ -35289,16 +34479,8 @@
           <t>APPLECARD GSBANK PAYMENT 2211736</t>
         </is>
       </c>
-      <c r="G637" t="inlineStr">
-        <is>
-          <t>&lt;NA&gt;</t>
-        </is>
-      </c>
-      <c r="H637" t="inlineStr">
-        <is>
-          <t>&lt;NA&gt;</t>
-        </is>
-      </c>
+      <c r="G637" t="inlineStr"/>
+      <c r="H637" t="inlineStr"/>
       <c r="I637" t="n">
         <v>-1.1</v>
       </c>
@@ -35313,11 +34495,7 @@
       <c r="L637" t="n">
         <v>0</v>
       </c>
-      <c r="M637" t="inlineStr">
-        <is>
-          <t>&lt;NA&gt;</t>
-        </is>
-      </c>
+      <c r="M637" t="inlineStr"/>
       <c r="N637" t="n">
         <v>0</v>
       </c>
@@ -35367,11 +34545,7 @@
       <c r="L638" t="n">
         <v>0</v>
       </c>
-      <c r="M638" t="inlineStr">
-        <is>
-          <t>&lt;NA&gt;</t>
-        </is>
-      </c>
+      <c r="M638" t="inlineStr"/>
       <c r="N638" t="n">
         <v>0</v>
       </c>
@@ -35395,16 +34569,8 @@
           <t>Online Banking Transfer from XXXXXX4411on 7/01/2022 at 9:31</t>
         </is>
       </c>
-      <c r="G639" t="inlineStr">
-        <is>
-          <t>&lt;NA&gt;</t>
-        </is>
-      </c>
-      <c r="H639" t="inlineStr">
-        <is>
-          <t>&lt;NA&gt;</t>
-        </is>
-      </c>
+      <c r="G639" t="inlineStr"/>
+      <c r="H639" t="inlineStr"/>
       <c r="I639" t="n">
         <v>800</v>
       </c>
@@ -35419,11 +34585,7 @@
       <c r="L639" t="n">
         <v>0</v>
       </c>
-      <c r="M639" t="inlineStr">
-        <is>
-          <t>&lt;NA&gt;</t>
-        </is>
-      </c>
+      <c r="M639" t="inlineStr"/>
       <c r="N639" t="n">
         <v>0</v>
       </c>
@@ -35987,16 +35149,8 @@
           <t>CHASE CREDIT CRD AUTOPAY 000000000456784</t>
         </is>
       </c>
-      <c r="G650" t="inlineStr">
-        <is>
-          <t>&lt;NA&gt;</t>
-        </is>
-      </c>
-      <c r="H650" t="inlineStr">
-        <is>
-          <t>&lt;NA&gt;</t>
-        </is>
-      </c>
+      <c r="G650" t="inlineStr"/>
+      <c r="H650" t="inlineStr"/>
       <c r="I650" t="n">
         <v>-2934.28</v>
       </c>
@@ -36011,11 +35165,7 @@
       <c r="L650" t="n">
         <v>0</v>
       </c>
-      <c r="M650" t="inlineStr">
-        <is>
-          <t>&lt;NA&gt;</t>
-        </is>
-      </c>
+      <c r="M650" t="inlineStr"/>
       <c r="N650" t="n">
         <v>0</v>
       </c>
@@ -36039,16 +35189,8 @@
           <t>UNIVERSITY OF PO ACH ITEMS XXXXX1261</t>
         </is>
       </c>
-      <c r="G651" t="inlineStr">
-        <is>
-          <t>&lt;NA&gt;</t>
-        </is>
-      </c>
-      <c r="H651" t="inlineStr">
-        <is>
-          <t>&lt;NA&gt;</t>
-        </is>
-      </c>
+      <c r="G651" t="inlineStr"/>
+      <c r="H651" t="inlineStr"/>
       <c r="I651" t="n">
         <v>1230</v>
       </c>
@@ -36063,11 +35205,7 @@
       <c r="L651" t="n">
         <v>0</v>
       </c>
-      <c r="M651" t="inlineStr">
-        <is>
-          <t>&lt;NA&gt;</t>
-        </is>
-      </c>
+      <c r="M651" t="inlineStr"/>
       <c r="N651" t="n">
         <v>0</v>
       </c>
@@ -36309,11 +35447,7 @@
           <t>AUTOMATIC PAYMENT - THANK</t>
         </is>
       </c>
-      <c r="G656" t="inlineStr">
-        <is>
-          <t>&lt;NA&gt;</t>
-        </is>
-      </c>
+      <c r="G656" t="inlineStr"/>
       <c r="H656" t="inlineStr">
         <is>
           <t>Payment</t>
@@ -36333,11 +35467,7 @@
       <c r="L656" t="n">
         <v>0</v>
       </c>
-      <c r="M656" t="inlineStr">
-        <is>
-          <t>&lt;NA&gt;</t>
-        </is>
-      </c>
+      <c r="M656" t="inlineStr"/>
       <c r="N656" t="n">
         <v>0</v>
       </c>
@@ -37603,16 +36733,8 @@
           <t>CHASE CREDIT CRD AUTOPAY 000000000513956</t>
         </is>
       </c>
-      <c r="G680" t="inlineStr">
-        <is>
-          <t>&lt;NA&gt;</t>
-        </is>
-      </c>
-      <c r="H680" t="inlineStr">
-        <is>
-          <t>&lt;NA&gt;</t>
-        </is>
-      </c>
+      <c r="G680" t="inlineStr"/>
+      <c r="H680" t="inlineStr"/>
       <c r="I680" t="n">
         <v>-879.9</v>
       </c>
@@ -37627,11 +36749,7 @@
       <c r="L680" t="n">
         <v>0</v>
       </c>
-      <c r="M680" t="inlineStr">
-        <is>
-          <t>&lt;NA&gt;</t>
-        </is>
-      </c>
+      <c r="M680" t="inlineStr"/>
       <c r="N680" t="n">
         <v>0</v>
       </c>
@@ -38413,11 +37531,7 @@
           <t>AUTOMATIC PAYMENT - THANK</t>
         </is>
       </c>
-      <c r="G695" t="inlineStr">
-        <is>
-          <t>&lt;NA&gt;</t>
-        </is>
-      </c>
+      <c r="G695" t="inlineStr"/>
       <c r="H695" t="inlineStr">
         <is>
           <t>Payment</t>
@@ -38437,11 +37551,7 @@
       <c r="L695" t="n">
         <v>0</v>
       </c>
-      <c r="M695" t="inlineStr">
-        <is>
-          <t>&lt;NA&gt;</t>
-        </is>
-      </c>
+      <c r="M695" t="inlineStr"/>
       <c r="N695" t="n">
         <v>0</v>
       </c>
@@ -40085,16 +39195,8 @@
           <t>Deposit</t>
         </is>
       </c>
-      <c r="G726" t="inlineStr">
-        <is>
-          <t>&lt;NA&gt;</t>
-        </is>
-      </c>
-      <c r="H726" t="inlineStr">
-        <is>
-          <t>&lt;NA&gt;</t>
-        </is>
-      </c>
+      <c r="G726" t="inlineStr"/>
+      <c r="H726" t="inlineStr"/>
       <c r="I726" t="n">
         <v>1000</v>
       </c>
@@ -40109,11 +39211,7 @@
       <c r="L726" t="n">
         <v>0</v>
       </c>
-      <c r="M726" t="inlineStr">
-        <is>
-          <t>&lt;NA&gt;</t>
-        </is>
-      </c>
+      <c r="M726" t="inlineStr"/>
       <c r="N726" t="n">
         <v>0</v>
       </c>
@@ -40245,16 +39343,8 @@
           <t>VENMO CASHOUT 1020499775399</t>
         </is>
       </c>
-      <c r="G729" t="inlineStr">
-        <is>
-          <t>&lt;NA&gt;</t>
-        </is>
-      </c>
-      <c r="H729" t="inlineStr">
-        <is>
-          <t>&lt;NA&gt;</t>
-        </is>
-      </c>
+      <c r="G729" t="inlineStr"/>
+      <c r="H729" t="inlineStr"/>
       <c r="I729" t="n">
         <v>282</v>
       </c>
@@ -40269,11 +39359,7 @@
       <c r="L729" t="n">
         <v>0</v>
       </c>
-      <c r="M729" t="inlineStr">
-        <is>
-          <t>&lt;NA&gt;</t>
-        </is>
-      </c>
+      <c r="M729" t="inlineStr"/>
       <c r="N729" t="n">
         <v>0</v>
       </c>
@@ -40621,16 +39707,8 @@
           <t>APPLECARD GSBANK PAYMENT 2211736</t>
         </is>
       </c>
-      <c r="G736" t="inlineStr">
-        <is>
-          <t>&lt;NA&gt;</t>
-        </is>
-      </c>
-      <c r="H736" t="inlineStr">
-        <is>
-          <t>&lt;NA&gt;</t>
-        </is>
-      </c>
+      <c r="G736" t="inlineStr"/>
+      <c r="H736" t="inlineStr"/>
       <c r="I736" t="n">
         <v>-424.76</v>
       </c>
@@ -40645,11 +39723,7 @@
       <c r="L736" t="n">
         <v>0</v>
       </c>
-      <c r="M736" t="inlineStr">
-        <is>
-          <t>&lt;NA&gt;</t>
-        </is>
-      </c>
+      <c r="M736" t="inlineStr"/>
       <c r="N736" t="n">
         <v>0</v>
       </c>
@@ -40673,16 +39747,8 @@
           <t>Online Banking Transfer from XXXXXX4411on 6/01/2022 at 9:31</t>
         </is>
       </c>
-      <c r="G737" t="inlineStr">
-        <is>
-          <t>&lt;NA&gt;</t>
-        </is>
-      </c>
-      <c r="H737" t="inlineStr">
-        <is>
-          <t>&lt;NA&gt;</t>
-        </is>
-      </c>
+      <c r="G737" t="inlineStr"/>
+      <c r="H737" t="inlineStr"/>
       <c r="I737" t="n">
         <v>800</v>
       </c>
@@ -40697,11 +39763,7 @@
       <c r="L737" t="n">
         <v>0</v>
       </c>
-      <c r="M737" t="inlineStr">
-        <is>
-          <t>&lt;NA&gt;</t>
-        </is>
-      </c>
+      <c r="M737" t="inlineStr"/>
       <c r="N737" t="n">
         <v>0</v>
       </c>
@@ -41049,16 +40111,8 @@
           <t>CHASE CREDIT CRD AUTOPAY 000000000814774</t>
         </is>
       </c>
-      <c r="G744" t="inlineStr">
-        <is>
-          <t>&lt;NA&gt;</t>
-        </is>
-      </c>
-      <c r="H744" t="inlineStr">
-        <is>
-          <t>&lt;NA&gt;</t>
-        </is>
-      </c>
+      <c r="G744" t="inlineStr"/>
+      <c r="H744" t="inlineStr"/>
       <c r="I744" t="n">
         <v>-464.33</v>
       </c>
@@ -41073,11 +40127,7 @@
       <c r="L744" t="n">
         <v>0</v>
       </c>
-      <c r="M744" t="inlineStr">
-        <is>
-          <t>&lt;NA&gt;</t>
-        </is>
-      </c>
+      <c r="M744" t="inlineStr"/>
       <c r="N744" t="n">
         <v>0</v>
       </c>
@@ -41589,11 +40639,7 @@
           <t>AUTOMATIC PAYMENT - THANK</t>
         </is>
       </c>
-      <c r="G754" t="inlineStr">
-        <is>
-          <t>&lt;NA&gt;</t>
-        </is>
-      </c>
+      <c r="G754" t="inlineStr"/>
       <c r="H754" t="inlineStr">
         <is>
           <t>Payment</t>
@@ -41613,11 +40659,7 @@
       <c r="L754" t="n">
         <v>0</v>
       </c>
-      <c r="M754" t="inlineStr">
-        <is>
-          <t>&lt;NA&gt;</t>
-        </is>
-      </c>
+      <c r="M754" t="inlineStr"/>
       <c r="N754" t="n">
         <v>0</v>
       </c>
@@ -41641,16 +40683,8 @@
           <t>UNIVERSITY OF PO ACCTS PAY XXXXX1261</t>
         </is>
       </c>
-      <c r="G755" t="inlineStr">
-        <is>
-          <t>&lt;NA&gt;</t>
-        </is>
-      </c>
-      <c r="H755" t="inlineStr">
-        <is>
-          <t>&lt;NA&gt;</t>
-        </is>
-      </c>
+      <c r="G755" t="inlineStr"/>
+      <c r="H755" t="inlineStr"/>
       <c r="I755" t="n">
         <v>421.05</v>
       </c>
@@ -41665,11 +40699,7 @@
       <c r="L755" t="n">
         <v>0</v>
       </c>
-      <c r="M755" t="inlineStr">
-        <is>
-          <t>&lt;NA&gt;</t>
-        </is>
-      </c>
+      <c r="M755" t="inlineStr"/>
       <c r="N755" t="n">
         <v>0</v>
       </c>
@@ -42259,11 +41289,7 @@
       <c r="L766" t="n">
         <v>0</v>
       </c>
-      <c r="M766" t="inlineStr">
-        <is>
-          <t>&lt;NA&gt;</t>
-        </is>
-      </c>
+      <c r="M766" t="inlineStr"/>
       <c r="N766" t="n">
         <v>0</v>
       </c>
@@ -43313,16 +42339,8 @@
           <t>WELLS FARGO IFI DDA TO DDA F20FCXK368</t>
         </is>
       </c>
-      <c r="G786" t="inlineStr">
-        <is>
-          <t>&lt;NA&gt;</t>
-        </is>
-      </c>
-      <c r="H786" t="inlineStr">
-        <is>
-          <t>&lt;NA&gt;</t>
-        </is>
-      </c>
+      <c r="G786" t="inlineStr"/>
+      <c r="H786" t="inlineStr"/>
       <c r="I786" t="n">
         <v>6814.03</v>
       </c>
@@ -43337,11 +42355,7 @@
       <c r="L786" t="n">
         <v>0</v>
       </c>
-      <c r="M786" t="inlineStr">
-        <is>
-          <t>&lt;NA&gt;</t>
-        </is>
-      </c>
+      <c r="M786" t="inlineStr"/>
       <c r="N786" t="n">
         <v>0</v>
       </c>
@@ -43743,16 +42757,8 @@
           <t>CHASE CREDIT CRD AUTOPAY 000000000255893</t>
         </is>
       </c>
-      <c r="G794" t="inlineStr">
-        <is>
-          <t>&lt;NA&gt;</t>
-        </is>
-      </c>
-      <c r="H794" t="inlineStr">
-        <is>
-          <t>&lt;NA&gt;</t>
-        </is>
-      </c>
+      <c r="G794" t="inlineStr"/>
+      <c r="H794" t="inlineStr"/>
       <c r="I794" t="n">
         <v>-1279.18</v>
       </c>
@@ -43767,11 +42773,7 @@
       <c r="L794" t="n">
         <v>0</v>
       </c>
-      <c r="M794" t="inlineStr">
-        <is>
-          <t>&lt;NA&gt;</t>
-        </is>
-      </c>
+      <c r="M794" t="inlineStr"/>
       <c r="N794" t="n">
         <v>0</v>
       </c>
@@ -44013,11 +43015,7 @@
           <t>AUTOMATIC PAYMENT - THANK</t>
         </is>
       </c>
-      <c r="G799" t="inlineStr">
-        <is>
-          <t>&lt;NA&gt;</t>
-        </is>
-      </c>
+      <c r="G799" t="inlineStr"/>
       <c r="H799" t="inlineStr">
         <is>
           <t>Payment</t>
@@ -44037,11 +43035,7 @@
       <c r="L799" t="n">
         <v>0</v>
       </c>
-      <c r="M799" t="inlineStr">
-        <is>
-          <t>&lt;NA&gt;</t>
-        </is>
-      </c>
+      <c r="M799" t="inlineStr"/>
       <c r="N799" t="n">
         <v>0</v>
       </c>
@@ -44119,16 +43113,8 @@
           <t>VENMO PAYMENT 1020124337391</t>
         </is>
       </c>
-      <c r="G801" t="inlineStr">
-        <is>
-          <t>&lt;NA&gt;</t>
-        </is>
-      </c>
-      <c r="H801" t="inlineStr">
-        <is>
-          <t>&lt;NA&gt;</t>
-        </is>
-      </c>
+      <c r="G801" t="inlineStr"/>
+      <c r="H801" t="inlineStr"/>
       <c r="I801" t="n">
         <v>-40</v>
       </c>
@@ -44143,11 +43129,7 @@
       <c r="L801" t="n">
         <v>0</v>
       </c>
-      <c r="M801" t="inlineStr">
-        <is>
-          <t>&lt;NA&gt;</t>
-        </is>
-      </c>
+      <c r="M801" t="inlineStr"/>
       <c r="N801" t="n">
         <v>0</v>
       </c>
@@ -44821,16 +43803,8 @@
           <t>COINBASE INC. XXXXXX7930 8W6BUCGH</t>
         </is>
       </c>
-      <c r="G814" t="inlineStr">
-        <is>
-          <t>&lt;NA&gt;</t>
-        </is>
-      </c>
-      <c r="H814" t="inlineStr">
-        <is>
-          <t>&lt;NA&gt;</t>
-        </is>
-      </c>
+      <c r="G814" t="inlineStr"/>
+      <c r="H814" t="inlineStr"/>
       <c r="I814" t="n">
         <v>495.25</v>
       </c>
@@ -45251,16 +44225,8 @@
           <t>Mobile Deposit</t>
         </is>
       </c>
-      <c r="G822" t="inlineStr">
-        <is>
-          <t>&lt;NA&gt;</t>
-        </is>
-      </c>
-      <c r="H822" t="inlineStr">
-        <is>
-          <t>&lt;NA&gt;</t>
-        </is>
-      </c>
+      <c r="G822" t="inlineStr"/>
+      <c r="H822" t="inlineStr"/>
       <c r="I822" t="n">
         <v>500</v>
       </c>
@@ -45275,11 +44241,7 @@
       <c r="L822" t="n">
         <v>0</v>
       </c>
-      <c r="M822" t="inlineStr">
-        <is>
-          <t>&lt;NA&gt;</t>
-        </is>
-      </c>
+      <c r="M822" t="inlineStr"/>
       <c r="N822" t="n">
         <v>0</v>
       </c>
@@ -45897,16 +44859,8 @@
           <t>Online Banking Transfer from XXXXXX4411on 5/05/2022 at 15:35</t>
         </is>
       </c>
-      <c r="G834" t="inlineStr">
-        <is>
-          <t>&lt;NA&gt;</t>
-        </is>
-      </c>
-      <c r="H834" t="inlineStr">
-        <is>
-          <t>&lt;NA&gt;</t>
-        </is>
-      </c>
+      <c r="G834" t="inlineStr"/>
+      <c r="H834" t="inlineStr"/>
       <c r="I834" t="n">
         <v>100</v>
       </c>
@@ -45921,11 +44875,7 @@
       <c r="L834" t="n">
         <v>0</v>
       </c>
-      <c r="M834" t="inlineStr">
-        <is>
-          <t>&lt;NA&gt;</t>
-        </is>
-      </c>
+      <c r="M834" t="inlineStr"/>
       <c r="N834" t="n">
         <v>0</v>
       </c>
@@ -46165,16 +45115,8 @@
           <t>APPLECARD GSBANK PAYMENT 2211736</t>
         </is>
       </c>
-      <c r="G839" t="inlineStr">
-        <is>
-          <t>&lt;NA&gt;</t>
-        </is>
-      </c>
-      <c r="H839" t="inlineStr">
-        <is>
-          <t>&lt;NA&gt;</t>
-        </is>
-      </c>
+      <c r="G839" t="inlineStr"/>
+      <c r="H839" t="inlineStr"/>
       <c r="I839" t="n">
         <v>-187</v>
       </c>
@@ -46189,11 +45131,7 @@
       <c r="L839" t="n">
         <v>0</v>
       </c>
-      <c r="M839" t="inlineStr">
-        <is>
-          <t>&lt;NA&gt;</t>
-        </is>
-      </c>
+      <c r="M839" t="inlineStr"/>
       <c r="N839" t="n">
         <v>0</v>
       </c>
@@ -46217,16 +45155,8 @@
           <t>Online Banking Transfer from XXXXXX4411on 5/01/2022 at 9:31</t>
         </is>
       </c>
-      <c r="G840" t="inlineStr">
-        <is>
-          <t>&lt;NA&gt;</t>
-        </is>
-      </c>
-      <c r="H840" t="inlineStr">
-        <is>
-          <t>&lt;NA&gt;</t>
-        </is>
-      </c>
+      <c r="G840" t="inlineStr"/>
+      <c r="H840" t="inlineStr"/>
       <c r="I840" t="n">
         <v>800</v>
       </c>
@@ -46241,11 +45171,7 @@
       <c r="L840" t="n">
         <v>0</v>
       </c>
-      <c r="M840" t="inlineStr">
-        <is>
-          <t>&lt;NA&gt;</t>
-        </is>
-      </c>
+      <c r="M840" t="inlineStr"/>
       <c r="N840" t="n">
         <v>0</v>
       </c>
@@ -47295,16 +46221,8 @@
           <t>CHASE CREDIT CRD AUTOPAY 000000000443129</t>
         </is>
       </c>
-      <c r="G860" t="inlineStr">
-        <is>
-          <t>&lt;NA&gt;</t>
-        </is>
-      </c>
-      <c r="H860" t="inlineStr">
-        <is>
-          <t>&lt;NA&gt;</t>
-        </is>
-      </c>
+      <c r="G860" t="inlineStr"/>
+      <c r="H860" t="inlineStr"/>
       <c r="I860" t="n">
         <v>-1266.7</v>
       </c>
@@ -47319,11 +46237,7 @@
       <c r="L860" t="n">
         <v>0</v>
       </c>
-      <c r="M860" t="inlineStr">
-        <is>
-          <t>&lt;NA&gt;</t>
-        </is>
-      </c>
+      <c r="M860" t="inlineStr"/>
       <c r="N860" t="n">
         <v>0</v>
       </c>
@@ -47619,11 +46533,7 @@
           <t>AUTOMATIC PAYMENT - THANK</t>
         </is>
       </c>
-      <c r="G866" t="inlineStr">
-        <is>
-          <t>&lt;NA&gt;</t>
-        </is>
-      </c>
+      <c r="G866" t="inlineStr"/>
       <c r="H866" t="inlineStr">
         <is>
           <t>Payment</t>
@@ -47643,11 +46553,7 @@
       <c r="L866" t="n">
         <v>0</v>
       </c>
-      <c r="M866" t="inlineStr">
-        <is>
-          <t>&lt;NA&gt;</t>
-        </is>
-      </c>
+      <c r="M866" t="inlineStr"/>
       <c r="N866" t="n">
         <v>0</v>
       </c>
@@ -48049,16 +46955,8 @@
           <t>VENMO PAYMENT 1019731010656</t>
         </is>
       </c>
-      <c r="G874" t="inlineStr">
-        <is>
-          <t>&lt;NA&gt;</t>
-        </is>
-      </c>
-      <c r="H874" t="inlineStr">
-        <is>
-          <t>&lt;NA&gt;</t>
-        </is>
-      </c>
+      <c r="G874" t="inlineStr"/>
+      <c r="H874" t="inlineStr"/>
       <c r="I874" t="n">
         <v>-25</v>
       </c>
@@ -48073,11 +46971,7 @@
       <c r="L874" t="n">
         <v>0</v>
       </c>
-      <c r="M874" t="inlineStr">
-        <is>
-          <t>&lt;NA&gt;</t>
-        </is>
-      </c>
+      <c r="M874" t="inlineStr"/>
       <c r="N874" t="n">
         <v>0</v>
       </c>
@@ -49343,16 +48237,8 @@
           <t>CHASE CREDIT CRD AUTOPAY 000000000250490</t>
         </is>
       </c>
-      <c r="G898" t="inlineStr">
-        <is>
-          <t>&lt;NA&gt;</t>
-        </is>
-      </c>
-      <c r="H898" t="inlineStr">
-        <is>
-          <t>&lt;NA&gt;</t>
-        </is>
-      </c>
+      <c r="G898" t="inlineStr"/>
+      <c r="H898" t="inlineStr"/>
       <c r="I898" t="n">
         <v>-1129.24</v>
       </c>
@@ -49367,11 +48253,7 @@
       <c r="L898" t="n">
         <v>0</v>
       </c>
-      <c r="M898" t="inlineStr">
-        <is>
-          <t>&lt;NA&gt;</t>
-        </is>
-      </c>
+      <c r="M898" t="inlineStr"/>
       <c r="N898" t="n">
         <v>0</v>
       </c>
@@ -49451,11 +48333,7 @@
           <t>AUTOMATIC PAYMENT - THANK</t>
         </is>
       </c>
-      <c r="G900" t="inlineStr">
-        <is>
-          <t>&lt;NA&gt;</t>
-        </is>
-      </c>
+      <c r="G900" t="inlineStr"/>
       <c r="H900" t="inlineStr">
         <is>
           <t>Payment</t>
@@ -49475,11 +48353,7 @@
       <c r="L900" t="n">
         <v>0</v>
       </c>
-      <c r="M900" t="inlineStr">
-        <is>
-          <t>&lt;NA&gt;</t>
-        </is>
-      </c>
+      <c r="M900" t="inlineStr"/>
       <c r="N900" t="n">
         <v>0</v>
       </c>
@@ -52553,11 +51427,7 @@
       <c r="L957" t="n">
         <v>0</v>
       </c>
-      <c r="M957" t="inlineStr">
-        <is>
-          <t>&lt;NA&gt;</t>
-        </is>
-      </c>
+      <c r="M957" t="inlineStr"/>
       <c r="N957" t="n">
         <v>1</v>
       </c>
@@ -52581,16 +51451,8 @@
           <t>Barclays Bank De P2P Vega,William</t>
         </is>
       </c>
-      <c r="G958" t="inlineStr">
-        <is>
-          <t>&lt;NA&gt;</t>
-        </is>
-      </c>
-      <c r="H958" t="inlineStr">
-        <is>
-          <t>&lt;NA&gt;</t>
-        </is>
-      </c>
+      <c r="G958" t="inlineStr"/>
+      <c r="H958" t="inlineStr"/>
       <c r="I958" t="n">
         <v>1150</v>
       </c>
@@ -52605,11 +51467,7 @@
       <c r="L958" t="n">
         <v>0</v>
       </c>
-      <c r="M958" t="inlineStr">
-        <is>
-          <t>&lt;NA&gt;</t>
-        </is>
-      </c>
+      <c r="M958" t="inlineStr"/>
       <c r="N958" t="n">
         <v>0</v>
       </c>
@@ -52633,16 +51491,8 @@
           <t>Online Banking Transfer from XXXXXX4411on 4/01/2022 at 9:31</t>
         </is>
       </c>
-      <c r="G959" t="inlineStr">
-        <is>
-          <t>&lt;NA&gt;</t>
-        </is>
-      </c>
-      <c r="H959" t="inlineStr">
-        <is>
-          <t>&lt;NA&gt;</t>
-        </is>
-      </c>
+      <c r="G959" t="inlineStr"/>
+      <c r="H959" t="inlineStr"/>
       <c r="I959" t="n">
         <v>800</v>
       </c>
@@ -52657,11 +51507,7 @@
       <c r="L959" t="n">
         <v>0</v>
       </c>
-      <c r="M959" t="inlineStr">
-        <is>
-          <t>&lt;NA&gt;</t>
-        </is>
-      </c>
+      <c r="M959" t="inlineStr"/>
       <c r="N959" t="n">
         <v>0</v>
       </c>
@@ -52685,16 +51531,8 @@
           <t>UNIVERSITY OF PO ACCTS PAY XXXXX1261</t>
         </is>
       </c>
-      <c r="G960" t="inlineStr">
-        <is>
-          <t>&lt;NA&gt;</t>
-        </is>
-      </c>
-      <c r="H960" t="inlineStr">
-        <is>
-          <t>&lt;NA&gt;</t>
-        </is>
-      </c>
+      <c r="G960" t="inlineStr"/>
+      <c r="H960" t="inlineStr"/>
       <c r="I960" t="n">
         <v>185.9</v>
       </c>
@@ -52709,11 +51547,7 @@
       <c r="L960" t="n">
         <v>0</v>
       </c>
-      <c r="M960" t="inlineStr">
-        <is>
-          <t>&lt;NA&gt;</t>
-        </is>
-      </c>
+      <c r="M960" t="inlineStr"/>
       <c r="N960" t="n">
         <v>0</v>
       </c>
@@ -53115,16 +51949,8 @@
           <t>CHASE CREDIT CRD AUTOPAY 000000000435162</t>
         </is>
       </c>
-      <c r="G968" t="inlineStr">
-        <is>
-          <t>&lt;NA&gt;</t>
-        </is>
-      </c>
-      <c r="H968" t="inlineStr">
-        <is>
-          <t>&lt;NA&gt;</t>
-        </is>
-      </c>
+      <c r="G968" t="inlineStr"/>
+      <c r="H968" t="inlineStr"/>
       <c r="I968" t="n">
         <v>-1395.85</v>
       </c>
@@ -53139,11 +51965,7 @@
       <c r="L968" t="n">
         <v>0</v>
       </c>
-      <c r="M968" t="inlineStr">
-        <is>
-          <t>&lt;NA&gt;</t>
-        </is>
-      </c>
+      <c r="M968" t="inlineStr"/>
       <c r="N968" t="n">
         <v>0</v>
       </c>
@@ -53439,11 +52261,7 @@
           <t>AUTOMATIC PAYMENT - THANK</t>
         </is>
       </c>
-      <c r="G974" t="inlineStr">
-        <is>
-          <t>&lt;NA&gt;</t>
-        </is>
-      </c>
+      <c r="G974" t="inlineStr"/>
       <c r="H974" t="inlineStr">
         <is>
           <t>Payment</t>
@@ -53463,11 +52281,7 @@
       <c r="L974" t="n">
         <v>0</v>
       </c>
-      <c r="M974" t="inlineStr">
-        <is>
-          <t>&lt;NA&gt;</t>
-        </is>
-      </c>
+      <c r="M974" t="inlineStr"/>
       <c r="N974" t="n">
         <v>0</v>
       </c>
@@ -54517,16 +53331,8 @@
           <t>CHASE CREDIT CRD AUTOPAY 000000000251383</t>
         </is>
       </c>
-      <c r="G994" t="inlineStr">
-        <is>
-          <t>&lt;NA&gt;</t>
-        </is>
-      </c>
-      <c r="H994" t="inlineStr">
-        <is>
-          <t>&lt;NA&gt;</t>
-        </is>
-      </c>
+      <c r="G994" t="inlineStr"/>
+      <c r="H994" t="inlineStr"/>
       <c r="I994" t="n">
         <v>-1335.44</v>
       </c>
@@ -54541,11 +53347,7 @@
       <c r="L994" t="n">
         <v>0</v>
       </c>
-      <c r="M994" t="inlineStr">
-        <is>
-          <t>&lt;NA&gt;</t>
-        </is>
-      </c>
+      <c r="M994" t="inlineStr"/>
       <c r="N994" t="n">
         <v>0</v>
       </c>
@@ -54787,11 +53589,7 @@
           <t>AUTOMATIC PAYMENT - THANK</t>
         </is>
       </c>
-      <c r="G999" t="inlineStr">
-        <is>
-          <t>&lt;NA&gt;</t>
-        </is>
-      </c>
+      <c r="G999" t="inlineStr"/>
       <c r="H999" t="inlineStr">
         <is>
           <t>Payment</t>
@@ -54811,11 +53609,7 @@
       <c r="L999" t="n">
         <v>0</v>
       </c>
-      <c r="M999" t="inlineStr">
-        <is>
-          <t>&lt;NA&gt;</t>
-        </is>
-      </c>
+      <c r="M999" t="inlineStr"/>
       <c r="N999" t="n">
         <v>0</v>
       </c>
@@ -54839,16 +53633,8 @@
           <t>VENMO CASHOUT 1019017528019</t>
         </is>
       </c>
-      <c r="G1000" t="inlineStr">
-        <is>
-          <t>&lt;NA&gt;</t>
-        </is>
-      </c>
-      <c r="H1000" t="inlineStr">
-        <is>
-          <t>&lt;NA&gt;</t>
-        </is>
-      </c>
+      <c r="G1000" t="inlineStr"/>
+      <c r="H1000" t="inlineStr"/>
       <c r="I1000" t="n">
         <v>120</v>
       </c>
@@ -54863,11 +53649,7 @@
       <c r="L1000" t="n">
         <v>0</v>
       </c>
-      <c r="M1000" t="inlineStr">
-        <is>
-          <t>&lt;NA&gt;</t>
-        </is>
-      </c>
+      <c r="M1000" t="inlineStr"/>
       <c r="N1000" t="n">
         <v>0</v>
       </c>
@@ -55647,16 +54429,8 @@
           <t>VENMO CASHOUT 1018908490998</t>
         </is>
       </c>
-      <c r="G1015" t="inlineStr">
-        <is>
-          <t>&lt;NA&gt;</t>
-        </is>
-      </c>
-      <c r="H1015" t="inlineStr">
-        <is>
-          <t>&lt;NA&gt;</t>
-        </is>
-      </c>
+      <c r="G1015" t="inlineStr"/>
+      <c r="H1015" t="inlineStr"/>
       <c r="I1015" t="n">
         <v>67</v>
       </c>
@@ -55671,11 +54445,7 @@
       <c r="L1015" t="n">
         <v>0</v>
       </c>
-      <c r="M1015" t="inlineStr">
-        <is>
-          <t>&lt;NA&gt;</t>
-        </is>
-      </c>
+      <c r="M1015" t="inlineStr"/>
       <c r="N1015" t="n">
         <v>0</v>
       </c>
@@ -55699,16 +54469,8 @@
           <t>WELLS FARGO IFI DDA TO DDA F20DRZBW9F</t>
         </is>
       </c>
-      <c r="G1016" t="inlineStr">
-        <is>
-          <t>&lt;NA&gt;</t>
-        </is>
-      </c>
-      <c r="H1016" t="inlineStr">
-        <is>
-          <t>&lt;NA&gt;</t>
-        </is>
-      </c>
+      <c r="G1016" t="inlineStr"/>
+      <c r="H1016" t="inlineStr"/>
       <c r="I1016" t="n">
         <v>-1500</v>
       </c>
@@ -55723,11 +54485,7 @@
       <c r="L1016" t="n">
         <v>0</v>
       </c>
-      <c r="M1016" t="inlineStr">
-        <is>
-          <t>&lt;NA&gt;</t>
-        </is>
-      </c>
+      <c r="M1016" t="inlineStr"/>
       <c r="N1016" t="n">
         <v>0</v>
       </c>
@@ -55859,16 +54617,8 @@
           <t>Online Banking Transfer from XXXXXX4411on 3/09/2022 at 10:40</t>
         </is>
       </c>
-      <c r="G1019" t="inlineStr">
-        <is>
-          <t>&lt;NA&gt;</t>
-        </is>
-      </c>
-      <c r="H1019" t="inlineStr">
-        <is>
-          <t>&lt;NA&gt;</t>
-        </is>
-      </c>
+      <c r="G1019" t="inlineStr"/>
+      <c r="H1019" t="inlineStr"/>
       <c r="I1019" t="n">
         <v>1000</v>
       </c>
@@ -55883,11 +54633,7 @@
       <c r="L1019" t="n">
         <v>0</v>
       </c>
-      <c r="M1019" t="inlineStr">
-        <is>
-          <t>&lt;NA&gt;</t>
-        </is>
-      </c>
+      <c r="M1019" t="inlineStr"/>
       <c r="N1019" t="n">
         <v>0</v>
       </c>
@@ -56829,16 +55575,8 @@
           <t>WELLS FARGO IFI DDA TO DDA F20DQBB2ZH</t>
         </is>
       </c>
-      <c r="G1037" t="inlineStr">
-        <is>
-          <t>&lt;NA&gt;</t>
-        </is>
-      </c>
-      <c r="H1037" t="inlineStr">
-        <is>
-          <t>&lt;NA&gt;</t>
-        </is>
-      </c>
+      <c r="G1037" t="inlineStr"/>
+      <c r="H1037" t="inlineStr"/>
       <c r="I1037" t="n">
         <v>-2000</v>
       </c>
@@ -56853,11 +55591,7 @@
       <c r="L1037" t="n">
         <v>0</v>
       </c>
-      <c r="M1037" t="inlineStr">
-        <is>
-          <t>&lt;NA&gt;</t>
-        </is>
-      </c>
+      <c r="M1037" t="inlineStr"/>
       <c r="N1037" t="n">
         <v>0</v>
       </c>
@@ -57097,16 +55831,8 @@
           <t>CHASE CREDIT CRD AUTOPAY 000000000434242</t>
         </is>
       </c>
-      <c r="G1042" t="inlineStr">
-        <is>
-          <t>&lt;NA&gt;</t>
-        </is>
-      </c>
-      <c r="H1042" t="inlineStr">
-        <is>
-          <t>&lt;NA&gt;</t>
-        </is>
-      </c>
+      <c r="G1042" t="inlineStr"/>
+      <c r="H1042" t="inlineStr"/>
       <c r="I1042" t="n">
         <v>-1624.44</v>
       </c>
@@ -57121,11 +55847,7 @@
       <c r="L1042" t="n">
         <v>0</v>
       </c>
-      <c r="M1042" t="inlineStr">
-        <is>
-          <t>&lt;NA&gt;</t>
-        </is>
-      </c>
+      <c r="M1042" t="inlineStr"/>
       <c r="N1042" t="n">
         <v>0</v>
       </c>
@@ -57149,16 +55871,8 @@
           <t>Online Banking Transfer from XXXXXX4411on 3/01/2022 at 9:31</t>
         </is>
       </c>
-      <c r="G1043" t="inlineStr">
-        <is>
-          <t>&lt;NA&gt;</t>
-        </is>
-      </c>
-      <c r="H1043" t="inlineStr">
-        <is>
-          <t>&lt;NA&gt;</t>
-        </is>
-      </c>
+      <c r="G1043" t="inlineStr"/>
+      <c r="H1043" t="inlineStr"/>
       <c r="I1043" t="n">
         <v>800</v>
       </c>
@@ -57173,11 +55887,7 @@
       <c r="L1043" t="n">
         <v>0</v>
       </c>
-      <c r="M1043" t="inlineStr">
-        <is>
-          <t>&lt;NA&gt;</t>
-        </is>
-      </c>
+      <c r="M1043" t="inlineStr"/>
       <c r="N1043" t="n">
         <v>0</v>
       </c>
@@ -57309,16 +56019,8 @@
           <t>VENMO PAYMENT 1018703339719</t>
         </is>
       </c>
-      <c r="G1046" t="inlineStr">
-        <is>
-          <t>&lt;NA&gt;</t>
-        </is>
-      </c>
-      <c r="H1046" t="inlineStr">
-        <is>
-          <t>&lt;NA&gt;</t>
-        </is>
-      </c>
+      <c r="G1046" t="inlineStr"/>
+      <c r="H1046" t="inlineStr"/>
       <c r="I1046" t="n">
         <v>-50</v>
       </c>
@@ -57333,11 +56035,7 @@
       <c r="L1046" t="n">
         <v>0</v>
       </c>
-      <c r="M1046" t="inlineStr">
-        <is>
-          <t>&lt;NA&gt;</t>
-        </is>
-      </c>
+      <c r="M1046" t="inlineStr"/>
       <c r="N1046" t="n">
         <v>0</v>
       </c>
@@ -58009,16 +56707,8 @@
           <t>VENMO CASHOUT 1018640209107</t>
         </is>
       </c>
-      <c r="G1059" t="inlineStr">
-        <is>
-          <t>&lt;NA&gt;</t>
-        </is>
-      </c>
-      <c r="H1059" t="inlineStr">
-        <is>
-          <t>&lt;NA&gt;</t>
-        </is>
-      </c>
+      <c r="G1059" t="inlineStr"/>
+      <c r="H1059" t="inlineStr"/>
       <c r="I1059" t="n">
         <v>195</v>
       </c>
@@ -58033,11 +56723,7 @@
       <c r="L1059" t="n">
         <v>0</v>
       </c>
-      <c r="M1059" t="inlineStr">
-        <is>
-          <t>&lt;NA&gt;</t>
-        </is>
-      </c>
+      <c r="M1059" t="inlineStr"/>
       <c r="N1059" t="n">
         <v>0</v>
       </c>
@@ -58223,16 +56909,8 @@
           <t>Online Banking Transfer from XXXXXX4411on 2/20/2022 at 16:17</t>
         </is>
       </c>
-      <c r="G1063" t="inlineStr">
-        <is>
-          <t>&lt;NA&gt;</t>
-        </is>
-      </c>
-      <c r="H1063" t="inlineStr">
-        <is>
-          <t>&lt;NA&gt;</t>
-        </is>
-      </c>
+      <c r="G1063" t="inlineStr"/>
+      <c r="H1063" t="inlineStr"/>
       <c r="I1063" t="n">
         <v>1304.2</v>
       </c>
@@ -58247,11 +56925,7 @@
       <c r="L1063" t="n">
         <v>0</v>
       </c>
-      <c r="M1063" t="inlineStr">
-        <is>
-          <t>&lt;NA&gt;</t>
-        </is>
-      </c>
+      <c r="M1063" t="inlineStr"/>
       <c r="N1063" t="n">
         <v>0</v>
       </c>
@@ -58275,16 +56949,8 @@
           <t>VENMO PAYMENT 1018574667960</t>
         </is>
       </c>
-      <c r="G1064" t="inlineStr">
-        <is>
-          <t>&lt;NA&gt;</t>
-        </is>
-      </c>
-      <c r="H1064" t="inlineStr">
-        <is>
-          <t>&lt;NA&gt;</t>
-        </is>
-      </c>
+      <c r="G1064" t="inlineStr"/>
+      <c r="H1064" t="inlineStr"/>
       <c r="I1064" t="n">
         <v>-300</v>
       </c>
@@ -58299,11 +56965,7 @@
       <c r="L1064" t="n">
         <v>0</v>
       </c>
-      <c r="M1064" t="inlineStr">
-        <is>
-          <t>&lt;NA&gt;</t>
-        </is>
-      </c>
+      <c r="M1064" t="inlineStr"/>
       <c r="N1064" t="n">
         <v>0</v>
       </c>
@@ -58759,16 +57421,8 @@
           <t>CHASE CREDIT CRD AUTOPAY 000000000246738</t>
         </is>
       </c>
-      <c r="G1073" t="inlineStr">
-        <is>
-          <t>&lt;NA&gt;</t>
-        </is>
-      </c>
-      <c r="H1073" t="inlineStr">
-        <is>
-          <t>&lt;NA&gt;</t>
-        </is>
-      </c>
+      <c r="G1073" t="inlineStr"/>
+      <c r="H1073" t="inlineStr"/>
       <c r="I1073" t="n">
         <v>-751.52</v>
       </c>
@@ -58783,11 +57437,7 @@
       <c r="L1073" t="n">
         <v>0</v>
       </c>
-      <c r="M1073" t="inlineStr">
-        <is>
-          <t>&lt;NA&gt;</t>
-        </is>
-      </c>
+      <c r="M1073" t="inlineStr"/>
       <c r="N1073" t="n">
         <v>0</v>
       </c>
@@ -58975,11 +57625,7 @@
           <t>AUTOMATIC PAYMENT - THANK</t>
         </is>
       </c>
-      <c r="G1077" t="inlineStr">
-        <is>
-          <t>&lt;NA&gt;</t>
-        </is>
-      </c>
+      <c r="G1077" t="inlineStr"/>
       <c r="H1077" t="inlineStr">
         <is>
           <t>Payment</t>
@@ -58999,11 +57645,7 @@
       <c r="L1077" t="n">
         <v>0</v>
       </c>
-      <c r="M1077" t="inlineStr">
-        <is>
-          <t>&lt;NA&gt;</t>
-        </is>
-      </c>
+      <c r="M1077" t="inlineStr"/>
       <c r="N1077" t="n">
         <v>0</v>
       </c>
@@ -59459,16 +58101,8 @@
           <t>UNIVERSITY OF PO ACH ITEMS XXXXX1261</t>
         </is>
       </c>
-      <c r="G1086" t="inlineStr">
-        <is>
-          <t>&lt;NA&gt;</t>
-        </is>
-      </c>
-      <c r="H1086" t="inlineStr">
-        <is>
-          <t>&lt;NA&gt;</t>
-        </is>
-      </c>
+      <c r="G1086" t="inlineStr"/>
+      <c r="H1086" t="inlineStr"/>
       <c r="I1086" t="n">
         <v>500</v>
       </c>
@@ -59483,11 +58117,7 @@
       <c r="L1086" t="n">
         <v>0</v>
       </c>
-      <c r="M1086" t="inlineStr">
-        <is>
-          <t>&lt;NA&gt;</t>
-        </is>
-      </c>
+      <c r="M1086" t="inlineStr"/>
       <c r="N1086" t="n">
         <v>0</v>
       </c>
@@ -60051,16 +58681,8 @@
           <t>Check</t>
         </is>
       </c>
-      <c r="G1097" t="inlineStr">
-        <is>
-          <t>&lt;NA&gt;</t>
-        </is>
-      </c>
-      <c r="H1097" t="inlineStr">
-        <is>
-          <t>&lt;NA&gt;</t>
-        </is>
-      </c>
+      <c r="G1097" t="inlineStr"/>
+      <c r="H1097" t="inlineStr"/>
       <c r="I1097" t="n">
         <v>-2173</v>
       </c>
@@ -60075,11 +58697,7 @@
       <c r="L1097" t="n">
         <v>0</v>
       </c>
-      <c r="M1097" t="inlineStr">
-        <is>
-          <t>&lt;NA&gt;</t>
-        </is>
-      </c>
+      <c r="M1097" t="inlineStr"/>
       <c r="N1097" t="n">
         <v>0</v>
       </c>
@@ -60319,16 +58937,8 @@
           <t>APPLECARD GSBANK PAYMENT 2211736</t>
         </is>
       </c>
-      <c r="G1102" t="inlineStr">
-        <is>
-          <t>&lt;NA&gt;</t>
-        </is>
-      </c>
-      <c r="H1102" t="inlineStr">
-        <is>
-          <t>&lt;NA&gt;</t>
-        </is>
-      </c>
+      <c r="G1102" t="inlineStr"/>
+      <c r="H1102" t="inlineStr"/>
       <c r="I1102" t="n">
         <v>-19.34</v>
       </c>
@@ -60343,11 +58953,7 @@
       <c r="L1102" t="n">
         <v>0</v>
       </c>
-      <c r="M1102" t="inlineStr">
-        <is>
-          <t>&lt;NA&gt;</t>
-        </is>
-      </c>
+      <c r="M1102" t="inlineStr"/>
       <c r="N1102" t="n">
         <v>0</v>
       </c>
@@ -60371,16 +58977,8 @@
           <t>Online Banking Transfer from XXXXXX4411on 2/01/2022 at 9:31</t>
         </is>
       </c>
-      <c r="G1103" t="inlineStr">
-        <is>
-          <t>&lt;NA&gt;</t>
-        </is>
-      </c>
-      <c r="H1103" t="inlineStr">
-        <is>
-          <t>&lt;NA&gt;</t>
-        </is>
-      </c>
+      <c r="G1103" t="inlineStr"/>
+      <c r="H1103" t="inlineStr"/>
       <c r="I1103" t="n">
         <v>800</v>
       </c>
@@ -60395,11 +58993,7 @@
       <c r="L1103" t="n">
         <v>0</v>
       </c>
-      <c r="M1103" t="inlineStr">
-        <is>
-          <t>&lt;NA&gt;</t>
-        </is>
-      </c>
+      <c r="M1103" t="inlineStr"/>
       <c r="N1103" t="n">
         <v>0</v>
       </c>
@@ -60423,16 +59017,8 @@
           <t>VENMO PAYMENT 1018240970634</t>
         </is>
       </c>
-      <c r="G1104" t="inlineStr">
-        <is>
-          <t>&lt;NA&gt;</t>
-        </is>
-      </c>
-      <c r="H1104" t="inlineStr">
-        <is>
-          <t>&lt;NA&gt;</t>
-        </is>
-      </c>
+      <c r="G1104" t="inlineStr"/>
+      <c r="H1104" t="inlineStr"/>
       <c r="I1104" t="n">
         <v>-70</v>
       </c>
@@ -60447,11 +59033,7 @@
       <c r="L1104" t="n">
         <v>0</v>
       </c>
-      <c r="M1104" t="inlineStr">
-        <is>
-          <t>&lt;NA&gt;</t>
-        </is>
-      </c>
+      <c r="M1104" t="inlineStr"/>
       <c r="N1104" t="n">
         <v>0</v>
       </c>
@@ -60500,7 +59082,7 @@
           <t>Sapphire</t>
         </is>
       </c>
-      <c r="L1105" t="b">
+      <c r="L1105" t="n">
         <v>1</v>
       </c>
       <c r="M1105" t="inlineStr">
@@ -60747,16 +59329,8 @@
           <t>CHASE CREDIT CRD AUTOPAY 000000000429687</t>
         </is>
       </c>
-      <c r="G1110" t="inlineStr">
-        <is>
-          <t>&lt;NA&gt;</t>
-        </is>
-      </c>
-      <c r="H1110" t="inlineStr">
-        <is>
-          <t>&lt;NA&gt;</t>
-        </is>
-      </c>
+      <c r="G1110" t="inlineStr"/>
+      <c r="H1110" t="inlineStr"/>
       <c r="I1110" t="n">
         <v>-324.65</v>
       </c>
@@ -60771,11 +59345,7 @@
       <c r="L1110" t="n">
         <v>0</v>
       </c>
-      <c r="M1110" t="inlineStr">
-        <is>
-          <t>&lt;NA&gt;</t>
-        </is>
-      </c>
+      <c r="M1110" t="inlineStr"/>
       <c r="N1110" t="n">
         <v>0</v>
       </c>
@@ -61179,11 +59749,7 @@
           <t>AUTOMATIC PAYMENT - THANK</t>
         </is>
       </c>
-      <c r="G1118" t="inlineStr">
-        <is>
-          <t>&lt;NA&gt;</t>
-        </is>
-      </c>
+      <c r="G1118" t="inlineStr"/>
       <c r="H1118" t="inlineStr">
         <is>
           <t>Payment</t>
@@ -61203,11 +59769,7 @@
       <c r="L1118" t="n">
         <v>0</v>
       </c>
-      <c r="M1118" t="inlineStr">
-        <is>
-          <t>&lt;NA&gt;</t>
-        </is>
-      </c>
+      <c r="M1118" t="inlineStr"/>
       <c r="N1118" t="n">
         <v>0</v>
       </c>
@@ -62257,16 +60819,8 @@
           <t>UNIVERSITY OF PO ACH ITEMS XXXXX1261</t>
         </is>
       </c>
-      <c r="G1138" t="inlineStr">
-        <is>
-          <t>&lt;NA&gt;</t>
-        </is>
-      </c>
-      <c r="H1138" t="inlineStr">
-        <is>
-          <t>&lt;NA&gt;</t>
-        </is>
-      </c>
+      <c r="G1138" t="inlineStr"/>
+      <c r="H1138" t="inlineStr"/>
       <c r="I1138" t="n">
         <v>2173</v>
       </c>
@@ -62281,11 +60835,7 @@
       <c r="L1138" t="n">
         <v>0</v>
       </c>
-      <c r="M1138" t="inlineStr">
-        <is>
-          <t>&lt;NA&gt;</t>
-        </is>
-      </c>
+      <c r="M1138" t="inlineStr"/>
       <c r="N1138" t="n">
         <v>0</v>
       </c>
@@ -62363,16 +60913,8 @@
           <t>WELLS FARGO IFI DDA TO DDA F20DDH2BCL</t>
         </is>
       </c>
-      <c r="G1140" t="inlineStr">
-        <is>
-          <t>&lt;NA&gt;</t>
-        </is>
-      </c>
-      <c r="H1140" t="inlineStr">
-        <is>
-          <t>&lt;NA&gt;</t>
-        </is>
-      </c>
+      <c r="G1140" t="inlineStr"/>
+      <c r="H1140" t="inlineStr"/>
       <c r="I1140" t="n">
         <v>-3500</v>
       </c>
@@ -62387,11 +60929,7 @@
       <c r="L1140" t="n">
         <v>0</v>
       </c>
-      <c r="M1140" t="inlineStr">
-        <is>
-          <t>&lt;NA&gt;</t>
-        </is>
-      </c>
+      <c r="M1140" t="inlineStr"/>
       <c r="N1140" t="n">
         <v>0</v>
       </c>
@@ -62523,16 +61061,8 @@
           <t>CHASE CREDIT CRD AUTOPAY 000000000244776</t>
         </is>
       </c>
-      <c r="G1143" t="inlineStr">
-        <is>
-          <t>&lt;NA&gt;</t>
-        </is>
-      </c>
-      <c r="H1143" t="inlineStr">
-        <is>
-          <t>&lt;NA&gt;</t>
-        </is>
-      </c>
+      <c r="G1143" t="inlineStr"/>
+      <c r="H1143" t="inlineStr"/>
       <c r="I1143" t="n">
         <v>-1261.33</v>
       </c>
@@ -62547,11 +61077,7 @@
       <c r="L1143" t="n">
         <v>0</v>
       </c>
-      <c r="M1143" t="inlineStr">
-        <is>
-          <t>&lt;NA&gt;</t>
-        </is>
-      </c>
+      <c r="M1143" t="inlineStr"/>
       <c r="N1143" t="n">
         <v>0</v>
       </c>
@@ -62685,11 +61211,7 @@
           <t>AUTOMATIC PAYMENT - THANK</t>
         </is>
       </c>
-      <c r="G1146" t="inlineStr">
-        <is>
-          <t>&lt;NA&gt;</t>
-        </is>
-      </c>
+      <c r="G1146" t="inlineStr"/>
       <c r="H1146" t="inlineStr">
         <is>
           <t>Payment</t>
@@ -62709,11 +61231,7 @@
       <c r="L1146" t="n">
         <v>0</v>
       </c>
-      <c r="M1146" t="inlineStr">
-        <is>
-          <t>&lt;NA&gt;</t>
-        </is>
-      </c>
+      <c r="M1146" t="inlineStr"/>
       <c r="N1146" t="n">
         <v>0</v>
       </c>
@@ -63979,16 +62497,8 @@
           <t>Online Banking Transfer from XXXXXX4411on 1/13/2022 at 9:00</t>
         </is>
       </c>
-      <c r="G1170" t="inlineStr">
-        <is>
-          <t>&lt;NA&gt;</t>
-        </is>
-      </c>
-      <c r="H1170" t="inlineStr">
-        <is>
-          <t>&lt;NA&gt;</t>
-        </is>
-      </c>
+      <c r="G1170" t="inlineStr"/>
+      <c r="H1170" t="inlineStr"/>
       <c r="I1170" t="n">
         <v>50</v>
       </c>
@@ -64003,11 +62513,7 @@
       <c r="L1170" t="n">
         <v>0</v>
       </c>
-      <c r="M1170" t="inlineStr">
-        <is>
-          <t>&lt;NA&gt;</t>
-        </is>
-      </c>
+      <c r="M1170" t="inlineStr"/>
       <c r="N1170" t="n">
         <v>0</v>
       </c>
@@ -64031,16 +62537,8 @@
           <t>TD AMERITRADE ACH IN aH9YCQLESP</t>
         </is>
       </c>
-      <c r="G1171" t="inlineStr">
-        <is>
-          <t>&lt;NA&gt;</t>
-        </is>
-      </c>
-      <c r="H1171" t="inlineStr">
-        <is>
-          <t>&lt;NA&gt;</t>
-        </is>
-      </c>
+      <c r="G1171" t="inlineStr"/>
+      <c r="H1171" t="inlineStr"/>
       <c r="I1171" t="n">
         <v>-5000</v>
       </c>
@@ -64055,11 +62553,7 @@
       <c r="L1171" t="n">
         <v>0</v>
       </c>
-      <c r="M1171" t="inlineStr">
-        <is>
-          <t>&lt;NA&gt;</t>
-        </is>
-      </c>
+      <c r="M1171" t="inlineStr"/>
       <c r="N1171" t="n">
         <v>0</v>
       </c>
@@ -64407,16 +62901,8 @@
           <t>Barclays Bank De P2P Vega,William</t>
         </is>
       </c>
-      <c r="G1178" t="inlineStr">
-        <is>
-          <t>&lt;NA&gt;</t>
-        </is>
-      </c>
-      <c r="H1178" t="inlineStr">
-        <is>
-          <t>&lt;NA&gt;</t>
-        </is>
-      </c>
+      <c r="G1178" t="inlineStr"/>
+      <c r="H1178" t="inlineStr"/>
       <c r="I1178" t="n">
         <v>2000</v>
       </c>
@@ -64431,11 +62917,7 @@
       <c r="L1178" t="n">
         <v>0</v>
       </c>
-      <c r="M1178" t="inlineStr">
-        <is>
-          <t>&lt;NA&gt;</t>
-        </is>
-      </c>
+      <c r="M1178" t="inlineStr"/>
       <c r="N1178" t="n">
         <v>0</v>
       </c>
@@ -64459,16 +62941,8 @@
           <t>Online Banking Transfer from XXXXXX4411on 1/10/2022 at 20:25</t>
         </is>
       </c>
-      <c r="G1179" t="inlineStr">
-        <is>
-          <t>&lt;NA&gt;</t>
-        </is>
-      </c>
-      <c r="H1179" t="inlineStr">
-        <is>
-          <t>&lt;NA&gt;</t>
-        </is>
-      </c>
+      <c r="G1179" t="inlineStr"/>
+      <c r="H1179" t="inlineStr"/>
       <c r="I1179" t="n">
         <v>300</v>
       </c>
@@ -64483,11 +62957,7 @@
       <c r="L1179" t="n">
         <v>0</v>
       </c>
-      <c r="M1179" t="inlineStr">
-        <is>
-          <t>&lt;NA&gt;</t>
-        </is>
-      </c>
+      <c r="M1179" t="inlineStr"/>
       <c r="N1179" t="n">
         <v>0</v>
       </c>
@@ -64565,16 +63035,8 @@
           <t>Online Banking Transfer from XXXXXX4411on 1/10/2022 at 14:43</t>
         </is>
       </c>
-      <c r="G1181" t="inlineStr">
-        <is>
-          <t>&lt;NA&gt;</t>
-        </is>
-      </c>
-      <c r="H1181" t="inlineStr">
-        <is>
-          <t>&lt;NA&gt;</t>
-        </is>
-      </c>
+      <c r="G1181" t="inlineStr"/>
+      <c r="H1181" t="inlineStr"/>
       <c r="I1181" t="n">
         <v>5000</v>
       </c>
@@ -64589,11 +63051,7 @@
       <c r="L1181" t="n">
         <v>0</v>
       </c>
-      <c r="M1181" t="inlineStr">
-        <is>
-          <t>&lt;NA&gt;</t>
-        </is>
-      </c>
+      <c r="M1181" t="inlineStr"/>
       <c r="N1181" t="n">
         <v>0</v>
       </c>
@@ -64617,16 +63075,8 @@
           <t>Online Banking Transfer from XXXXXX4411on 1/10/2022 at 14:46</t>
         </is>
       </c>
-      <c r="G1182" t="inlineStr">
-        <is>
-          <t>&lt;NA&gt;</t>
-        </is>
-      </c>
-      <c r="H1182" t="inlineStr">
-        <is>
-          <t>&lt;NA&gt;</t>
-        </is>
-      </c>
+      <c r="G1182" t="inlineStr"/>
+      <c r="H1182" t="inlineStr"/>
       <c r="I1182" t="n">
         <v>100</v>
       </c>
@@ -64641,11 +63091,7 @@
       <c r="L1182" t="n">
         <v>0</v>
       </c>
-      <c r="M1182" t="inlineStr">
-        <is>
-          <t>&lt;NA&gt;</t>
-        </is>
-      </c>
+      <c r="M1182" t="inlineStr"/>
       <c r="N1182" t="n">
         <v>0</v>
       </c>
@@ -65127,11 +63573,7 @@
       <c r="L1191" t="n">
         <v>0</v>
       </c>
-      <c r="M1191" t="inlineStr">
-        <is>
-          <t>&lt;NA&gt;</t>
-        </is>
-      </c>
+      <c r="M1191" t="inlineStr"/>
       <c r="N1191" t="n">
         <v>0</v>
       </c>
@@ -65397,11 +63839,7 @@
       <c r="L1196" t="n">
         <v>0</v>
       </c>
-      <c r="M1196" t="inlineStr">
-        <is>
-          <t>&lt;NA&gt;</t>
-        </is>
-      </c>
+      <c r="M1196" t="inlineStr"/>
       <c r="N1196" t="n">
         <v>0</v>
       </c>
@@ -65533,16 +63971,8 @@
           <t>Online Banking Transfer from XXXXXX4411on 1/05/2022 at 9:08</t>
         </is>
       </c>
-      <c r="G1199" t="inlineStr">
-        <is>
-          <t>&lt;NA&gt;</t>
-        </is>
-      </c>
-      <c r="H1199" t="inlineStr">
-        <is>
-          <t>&lt;NA&gt;</t>
-        </is>
-      </c>
+      <c r="G1199" t="inlineStr"/>
+      <c r="H1199" t="inlineStr"/>
       <c r="I1199" t="n">
         <v>500</v>
       </c>
@@ -65557,11 +63987,7 @@
       <c r="L1199" t="n">
         <v>0</v>
       </c>
-      <c r="M1199" t="inlineStr">
-        <is>
-          <t>&lt;NA&gt;</t>
-        </is>
-      </c>
+      <c r="M1199" t="inlineStr"/>
       <c r="N1199" t="n">
         <v>0</v>
       </c>
@@ -65585,16 +64011,8 @@
           <t>BARCLAYS BANK DE COLLECTION 000130003236288</t>
         </is>
       </c>
-      <c r="G1200" t="inlineStr">
-        <is>
-          <t>&lt;NA&gt;</t>
-        </is>
-      </c>
-      <c r="H1200" t="inlineStr">
-        <is>
-          <t>&lt;NA&gt;</t>
-        </is>
-      </c>
+      <c r="G1200" t="inlineStr"/>
+      <c r="H1200" t="inlineStr"/>
       <c r="I1200" t="n">
         <v>-500</v>
       </c>
@@ -65609,11 +64027,7 @@
       <c r="L1200" t="n">
         <v>0</v>
       </c>
-      <c r="M1200" t="inlineStr">
-        <is>
-          <t>&lt;NA&gt;</t>
-        </is>
-      </c>
+      <c r="M1200" t="inlineStr"/>
       <c r="N1200" t="n">
         <v>0</v>
       </c>
@@ -65637,16 +64051,8 @@
           <t>Online Banking Transfer from XXXXXX4411on 1/01/2022 at 10:55</t>
         </is>
       </c>
-      <c r="G1201" t="inlineStr">
-        <is>
-          <t>&lt;NA&gt;</t>
-        </is>
-      </c>
-      <c r="H1201" t="inlineStr">
-        <is>
-          <t>&lt;NA&gt;</t>
-        </is>
-      </c>
+      <c r="G1201" t="inlineStr"/>
+      <c r="H1201" t="inlineStr"/>
       <c r="I1201" t="n">
         <v>725</v>
       </c>
@@ -65661,11 +64067,7 @@
       <c r="L1201" t="n">
         <v>0</v>
       </c>
-      <c r="M1201" t="inlineStr">
-        <is>
-          <t>&lt;NA&gt;</t>
-        </is>
-      </c>
+      <c r="M1201" t="inlineStr"/>
       <c r="N1201" t="n">
         <v>0</v>
       </c>
@@ -65715,11 +64117,7 @@
       <c r="L1202" t="n">
         <v>0</v>
       </c>
-      <c r="M1202" t="inlineStr">
-        <is>
-          <t>&lt;NA&gt;</t>
-        </is>
-      </c>
+      <c r="M1202" t="inlineStr"/>
       <c r="N1202" t="n">
         <v>0</v>
       </c>
@@ -65830,6 +64228,1116 @@
       </c>
       <c r="N1204" t="n">
         <v>1</v>
+      </c>
+    </row>
+    <row r="1205">
+      <c r="A1205" s="1" t="inlineStr">
+        <is>
+          <t>977b4a62-423f-46d9-953d-6d1b7c66a220</t>
+        </is>
+      </c>
+      <c r="B1205" s="2" t="n">
+        <v>44970</v>
+      </c>
+      <c r="C1205" s="2" t="n">
+        <v>44970</v>
+      </c>
+      <c r="D1205" s="2" t="n">
+        <v>44966</v>
+      </c>
+      <c r="E1205" s="2" t="n">
+        <v>44966</v>
+      </c>
+      <c r="F1205" t="inlineStr">
+        <is>
+          <t>Spotify USA</t>
+        </is>
+      </c>
+      <c r="G1205" t="inlineStr">
+        <is>
+          <t>Bills &amp; Utilities</t>
+        </is>
+      </c>
+      <c r="H1205" t="inlineStr">
+        <is>
+          <t>Sale</t>
+        </is>
+      </c>
+      <c r="I1205" t="n">
+        <v>-9.99</v>
+      </c>
+      <c r="J1205" s="2" t="n">
+        <v>44970</v>
+      </c>
+      <c r="K1205" t="inlineStr">
+        <is>
+          <t>Amazon</t>
+        </is>
+      </c>
+      <c r="L1205" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1205" t="inlineStr">
+        <is>
+          <t>Services</t>
+        </is>
+      </c>
+      <c r="N1205" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1206">
+      <c r="A1206" s="1" t="inlineStr">
+        <is>
+          <t>0102379b-9349-4ff1-ac46-86ccaadd81e2</t>
+        </is>
+      </c>
+      <c r="B1206" s="2" t="n">
+        <v>44970</v>
+      </c>
+      <c r="C1206" s="2" t="n">
+        <v>44970</v>
+      </c>
+      <c r="D1206" s="2" t="n">
+        <v>44962</v>
+      </c>
+      <c r="E1206" s="2" t="n">
+        <v>44964</v>
+      </c>
+      <c r="F1206" t="inlineStr">
+        <is>
+          <t>SHELL OIL 57443148903</t>
+        </is>
+      </c>
+      <c r="G1206" t="inlineStr">
+        <is>
+          <t>Gas</t>
+        </is>
+      </c>
+      <c r="H1206" t="inlineStr">
+        <is>
+          <t>Sale</t>
+        </is>
+      </c>
+      <c r="I1206" t="n">
+        <v>-28.34</v>
+      </c>
+      <c r="J1206" s="2" t="n">
+        <v>44970</v>
+      </c>
+      <c r="K1206" t="inlineStr">
+        <is>
+          <t>Amazon</t>
+        </is>
+      </c>
+      <c r="L1206" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1206" t="inlineStr">
+        <is>
+          <t>Gasoline</t>
+        </is>
+      </c>
+      <c r="N1206" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1207">
+      <c r="A1207" s="1" t="inlineStr">
+        <is>
+          <t>3062e59b-f2d3-4876-8a7a-4a0457d3e605</t>
+        </is>
+      </c>
+      <c r="B1207" s="2" t="n">
+        <v>44970</v>
+      </c>
+      <c r="C1207" s="2" t="n">
+        <v>44970</v>
+      </c>
+      <c r="D1207" s="2" t="n">
+        <v>44963</v>
+      </c>
+      <c r="E1207" s="2" t="n">
+        <v>44964</v>
+      </c>
+      <c r="F1207" t="inlineStr">
+        <is>
+          <t>PORTLAND GENERAL ELECTRIC</t>
+        </is>
+      </c>
+      <c r="G1207" t="inlineStr">
+        <is>
+          <t>Bills &amp; Utilities</t>
+        </is>
+      </c>
+      <c r="H1207" t="inlineStr">
+        <is>
+          <t>Sale</t>
+        </is>
+      </c>
+      <c r="I1207" t="n">
+        <v>-46.65</v>
+      </c>
+      <c r="J1207" s="2" t="n">
+        <v>44970</v>
+      </c>
+      <c r="K1207" t="inlineStr">
+        <is>
+          <t>Amazon</t>
+        </is>
+      </c>
+      <c r="L1207" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1207" t="inlineStr">
+        <is>
+          <t>Utilities</t>
+        </is>
+      </c>
+      <c r="N1207" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1208">
+      <c r="A1208" s="1" t="inlineStr">
+        <is>
+          <t>90795668-f270-4130-8dfe-92b20ebf28f8</t>
+        </is>
+      </c>
+      <c r="B1208" s="2" t="n">
+        <v>44970</v>
+      </c>
+      <c r="C1208" s="2" t="n">
+        <v>44970</v>
+      </c>
+      <c r="D1208" s="2" t="n">
+        <v>44962</v>
+      </c>
+      <c r="E1208" s="2" t="n">
+        <v>44963</v>
+      </c>
+      <c r="F1208" t="inlineStr">
+        <is>
+          <t>COIN METER LAUNDRY KIOSK/</t>
+        </is>
+      </c>
+      <c r="G1208" t="inlineStr">
+        <is>
+          <t>Personal</t>
+        </is>
+      </c>
+      <c r="H1208" t="inlineStr">
+        <is>
+          <t>Sale</t>
+        </is>
+      </c>
+      <c r="I1208" t="n">
+        <v>-20</v>
+      </c>
+      <c r="J1208" s="2" t="n">
+        <v>44970</v>
+      </c>
+      <c r="K1208" t="inlineStr">
+        <is>
+          <t>Amazon</t>
+        </is>
+      </c>
+      <c r="L1208" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1208" t="inlineStr">
+        <is>
+          <t>Laundry</t>
+        </is>
+      </c>
+      <c r="N1208" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1209">
+      <c r="A1209" s="1" t="inlineStr">
+        <is>
+          <t>960275c0-7830-442b-b655-b135efdf26ce</t>
+        </is>
+      </c>
+      <c r="B1209" s="2" t="n">
+        <v>44970</v>
+      </c>
+      <c r="C1209" s="2" t="n">
+        <v>44970</v>
+      </c>
+      <c r="D1209" s="2" t="n">
+        <v>44960</v>
+      </c>
+      <c r="E1209" s="2" t="n">
+        <v>44962</v>
+      </c>
+      <c r="F1209" t="inlineStr">
+        <is>
+          <t>FARMERS INS BILLING</t>
+        </is>
+      </c>
+      <c r="G1209" t="inlineStr">
+        <is>
+          <t>Bills &amp; Utilities</t>
+        </is>
+      </c>
+      <c r="H1209" t="inlineStr">
+        <is>
+          <t>Sale</t>
+        </is>
+      </c>
+      <c r="I1209" t="n">
+        <v>-222</v>
+      </c>
+      <c r="J1209" s="2" t="n">
+        <v>44970</v>
+      </c>
+      <c r="K1209" t="inlineStr">
+        <is>
+          <t>Amazon</t>
+        </is>
+      </c>
+      <c r="L1209" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1209" t="inlineStr">
+        <is>
+          <t>Insurance</t>
+        </is>
+      </c>
+      <c r="N1209" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1210">
+      <c r="A1210" s="1" t="inlineStr">
+        <is>
+          <t>400b0007-919c-4c50-b5de-b26d04d47b58</t>
+        </is>
+      </c>
+      <c r="B1210" s="2" t="n">
+        <v>44970</v>
+      </c>
+      <c r="C1210" s="2" t="n">
+        <v>44970</v>
+      </c>
+      <c r="D1210" s="2" t="n">
+        <v>44961</v>
+      </c>
+      <c r="E1210" s="2" t="n">
+        <v>44962</v>
+      </c>
+      <c r="F1210" t="inlineStr">
+        <is>
+          <t>Microsoft*Subscription</t>
+        </is>
+      </c>
+      <c r="G1210" t="inlineStr">
+        <is>
+          <t>Shopping</t>
+        </is>
+      </c>
+      <c r="H1210" t="inlineStr">
+        <is>
+          <t>Sale</t>
+        </is>
+      </c>
+      <c r="I1210" t="n">
+        <v>-1.99</v>
+      </c>
+      <c r="J1210" s="2" t="n">
+        <v>44970</v>
+      </c>
+      <c r="K1210" t="inlineStr">
+        <is>
+          <t>Amazon</t>
+        </is>
+      </c>
+      <c r="L1210" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1210" t="inlineStr">
+        <is>
+          <t>Services</t>
+        </is>
+      </c>
+      <c r="N1210" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1211">
+      <c r="A1211" s="1" t="inlineStr">
+        <is>
+          <t>6a85fad0-2435-4c0b-8516-3b1966b77495</t>
+        </is>
+      </c>
+      <c r="B1211" s="2" t="n">
+        <v>44970</v>
+      </c>
+      <c r="C1211" s="2" t="n">
+        <v>44970</v>
+      </c>
+      <c r="D1211" s="2" t="n">
+        <v>44960</v>
+      </c>
+      <c r="E1211" s="2" t="n">
+        <v>44962</v>
+      </c>
+      <c r="F1211" t="inlineStr">
+        <is>
+          <t>1PASSWORD</t>
+        </is>
+      </c>
+      <c r="G1211" t="inlineStr">
+        <is>
+          <t>Shopping</t>
+        </is>
+      </c>
+      <c r="H1211" t="inlineStr">
+        <is>
+          <t>Sale</t>
+        </is>
+      </c>
+      <c r="I1211" t="n">
+        <v>-3.99</v>
+      </c>
+      <c r="J1211" s="2" t="n">
+        <v>44970</v>
+      </c>
+      <c r="K1211" t="inlineStr">
+        <is>
+          <t>Amazon</t>
+        </is>
+      </c>
+      <c r="L1211" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1211" t="inlineStr">
+        <is>
+          <t>Services</t>
+        </is>
+      </c>
+      <c r="N1211" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1212">
+      <c r="A1212" s="1" t="inlineStr">
+        <is>
+          <t>81ff1ca3-99ca-41de-bb9b-eb07ecd56338</t>
+        </is>
+      </c>
+      <c r="B1212" s="2" t="n">
+        <v>44970</v>
+      </c>
+      <c r="C1212" s="2" t="n">
+        <v>44970</v>
+      </c>
+      <c r="D1212" s="2" t="n">
+        <v>44961</v>
+      </c>
+      <c r="E1212" s="2" t="n">
+        <v>44962</v>
+      </c>
+      <c r="F1212" t="inlineStr">
+        <is>
+          <t>PEARL HARDWARE</t>
+        </is>
+      </c>
+      <c r="G1212" t="inlineStr">
+        <is>
+          <t>Home</t>
+        </is>
+      </c>
+      <c r="H1212" t="inlineStr">
+        <is>
+          <t>Sale</t>
+        </is>
+      </c>
+      <c r="I1212" t="n">
+        <v>-50.45</v>
+      </c>
+      <c r="J1212" s="2" t="n">
+        <v>44970</v>
+      </c>
+      <c r="K1212" t="inlineStr">
+        <is>
+          <t>Amazon</t>
+        </is>
+      </c>
+      <c r="L1212" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1212" t="inlineStr">
+        <is>
+          <t>Home</t>
+        </is>
+      </c>
+      <c r="N1212" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1213">
+      <c r="A1213" s="1" t="inlineStr">
+        <is>
+          <t>a82bd995-d4d0-4237-8638-4978482a5ae5</t>
+        </is>
+      </c>
+      <c r="B1213" s="2" t="n">
+        <v>44970</v>
+      </c>
+      <c r="C1213" s="2" t="n">
+        <v>44970</v>
+      </c>
+      <c r="D1213" s="2" t="n">
+        <v>44966</v>
+      </c>
+      <c r="E1213" s="2" t="n">
+        <v>44967</v>
+      </c>
+      <c r="F1213" t="inlineStr">
+        <is>
+          <t>SQ *ALAINA ALBERTS</t>
+        </is>
+      </c>
+      <c r="G1213" t="inlineStr">
+        <is>
+          <t>Personal</t>
+        </is>
+      </c>
+      <c r="H1213" t="inlineStr">
+        <is>
+          <t>Sale</t>
+        </is>
+      </c>
+      <c r="I1213" t="n">
+        <v>-58.8</v>
+      </c>
+      <c r="J1213" s="2" t="n">
+        <v>44970</v>
+      </c>
+      <c r="K1213" t="inlineStr">
+        <is>
+          <t>Sapphire</t>
+        </is>
+      </c>
+      <c r="L1213" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1213" t="inlineStr">
+        <is>
+          <t>Eating Out</t>
+        </is>
+      </c>
+      <c r="N1213" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1214">
+      <c r="A1214" s="1" t="inlineStr">
+        <is>
+          <t>c4c3ab85-a8d5-42d6-8600-5d1c5e741dcc</t>
+        </is>
+      </c>
+      <c r="B1214" s="2" t="n">
+        <v>44970</v>
+      </c>
+      <c r="C1214" s="2" t="n">
+        <v>44970</v>
+      </c>
+      <c r="D1214" s="2" t="n">
+        <v>44966</v>
+      </c>
+      <c r="E1214" s="2" t="n">
+        <v>44967</v>
+      </c>
+      <c r="F1214" t="inlineStr">
+        <is>
+          <t>TST* Pizza Thief</t>
+        </is>
+      </c>
+      <c r="G1214" t="inlineStr">
+        <is>
+          <t>Food &amp; Drink</t>
+        </is>
+      </c>
+      <c r="H1214" t="inlineStr">
+        <is>
+          <t>Sale</t>
+        </is>
+      </c>
+      <c r="I1214" t="n">
+        <v>-48</v>
+      </c>
+      <c r="J1214" s="2" t="n">
+        <v>44970</v>
+      </c>
+      <c r="K1214" t="inlineStr">
+        <is>
+          <t>Sapphire</t>
+        </is>
+      </c>
+      <c r="L1214" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1214" t="inlineStr">
+        <is>
+          <t>Eating Out</t>
+        </is>
+      </c>
+      <c r="N1214" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1215">
+      <c r="A1215" s="1" t="inlineStr">
+        <is>
+          <t>8ccc273f-0718-4706-aff8-055e248df0c3</t>
+        </is>
+      </c>
+      <c r="B1215" s="2" t="n">
+        <v>44970</v>
+      </c>
+      <c r="C1215" s="2" t="n">
+        <v>44970</v>
+      </c>
+      <c r="D1215" s="2" t="n">
+        <v>44966</v>
+      </c>
+      <c r="E1215" s="2" t="n">
+        <v>44967</v>
+      </c>
+      <c r="F1215" t="inlineStr">
+        <is>
+          <t>TST* Pizza Thief</t>
+        </is>
+      </c>
+      <c r="G1215" t="inlineStr">
+        <is>
+          <t>Food &amp; Drink</t>
+        </is>
+      </c>
+      <c r="H1215" t="inlineStr">
+        <is>
+          <t>Sale</t>
+        </is>
+      </c>
+      <c r="I1215" t="n">
+        <v>-7</v>
+      </c>
+      <c r="J1215" s="2" t="n">
+        <v>44970</v>
+      </c>
+      <c r="K1215" t="inlineStr">
+        <is>
+          <t>Sapphire</t>
+        </is>
+      </c>
+      <c r="L1215" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1215" t="inlineStr">
+        <is>
+          <t>Eating Out</t>
+        </is>
+      </c>
+      <c r="N1215" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1216">
+      <c r="A1216" s="1" t="inlineStr">
+        <is>
+          <t>d7c5d884-c9de-443f-b16a-0f8f19526c86</t>
+        </is>
+      </c>
+      <c r="B1216" s="2" t="n">
+        <v>44970</v>
+      </c>
+      <c r="C1216" s="2" t="n">
+        <v>44970</v>
+      </c>
+      <c r="D1216" s="2" t="n">
+        <v>44966</v>
+      </c>
+      <c r="E1216" s="2" t="n">
+        <v>44967</v>
+      </c>
+      <c r="F1216" t="inlineStr">
+        <is>
+          <t>TST* Pizza Thief</t>
+        </is>
+      </c>
+      <c r="G1216" t="inlineStr">
+        <is>
+          <t>Food &amp; Drink</t>
+        </is>
+      </c>
+      <c r="H1216" t="inlineStr">
+        <is>
+          <t>Sale</t>
+        </is>
+      </c>
+      <c r="I1216" t="n">
+        <v>-6.75</v>
+      </c>
+      <c r="J1216" s="2" t="n">
+        <v>44970</v>
+      </c>
+      <c r="K1216" t="inlineStr">
+        <is>
+          <t>Sapphire</t>
+        </is>
+      </c>
+      <c r="L1216" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1216" t="inlineStr">
+        <is>
+          <t>Eating Out</t>
+        </is>
+      </c>
+      <c r="N1216" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1217">
+      <c r="A1217" s="1" t="inlineStr">
+        <is>
+          <t>cb6a9a5c-099f-405a-bfde-dca440b3334e</t>
+        </is>
+      </c>
+      <c r="B1217" s="2" t="n">
+        <v>44970</v>
+      </c>
+      <c r="C1217" s="2" t="n">
+        <v>44970</v>
+      </c>
+      <c r="D1217" s="2" t="n">
+        <v>44962</v>
+      </c>
+      <c r="E1217" s="2" t="n">
+        <v>44964</v>
+      </c>
+      <c r="F1217" t="inlineStr">
+        <is>
+          <t>TST* The Fireside</t>
+        </is>
+      </c>
+      <c r="G1217" t="inlineStr">
+        <is>
+          <t>Food &amp; Drink</t>
+        </is>
+      </c>
+      <c r="H1217" t="inlineStr">
+        <is>
+          <t>Sale</t>
+        </is>
+      </c>
+      <c r="I1217" t="n">
+        <v>-30</v>
+      </c>
+      <c r="J1217" s="2" t="n">
+        <v>44970</v>
+      </c>
+      <c r="K1217" t="inlineStr">
+        <is>
+          <t>Sapphire</t>
+        </is>
+      </c>
+      <c r="L1217" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1217" t="inlineStr">
+        <is>
+          <t>Eating Out</t>
+        </is>
+      </c>
+      <c r="N1217" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1218">
+      <c r="A1218" s="1" t="inlineStr">
+        <is>
+          <t>a6b5b091-7138-4c22-82af-99aadae21492</t>
+        </is>
+      </c>
+      <c r="B1218" s="2" t="n">
+        <v>44970</v>
+      </c>
+      <c r="C1218" s="2" t="n">
+        <v>44970</v>
+      </c>
+      <c r="D1218" s="2" t="n">
+        <v>44962</v>
+      </c>
+      <c r="E1218" s="2" t="n">
+        <v>44963</v>
+      </c>
+      <c r="F1218" t="inlineStr">
+        <is>
+          <t>SQ *CLEARING CAFE</t>
+        </is>
+      </c>
+      <c r="G1218" t="inlineStr">
+        <is>
+          <t>Food &amp; Drink</t>
+        </is>
+      </c>
+      <c r="H1218" t="inlineStr">
+        <is>
+          <t>Sale</t>
+        </is>
+      </c>
+      <c r="I1218" t="n">
+        <v>-6.5</v>
+      </c>
+      <c r="J1218" s="2" t="n">
+        <v>44970</v>
+      </c>
+      <c r="K1218" t="inlineStr">
+        <is>
+          <t>Sapphire</t>
+        </is>
+      </c>
+      <c r="L1218" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1218" t="inlineStr">
+        <is>
+          <t>Coffee</t>
+        </is>
+      </c>
+      <c r="N1218" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1219">
+      <c r="A1219" s="1" t="inlineStr">
+        <is>
+          <t>c528aae9-a068-4803-9bef-d2e69d8d57ac</t>
+        </is>
+      </c>
+      <c r="B1219" s="2" t="n">
+        <v>44970</v>
+      </c>
+      <c r="C1219" s="2" t="n">
+        <v>44970</v>
+      </c>
+      <c r="D1219" s="2" t="n">
+        <v>44962</v>
+      </c>
+      <c r="E1219" s="2" t="n">
+        <v>44963</v>
+      </c>
+      <c r="F1219" t="inlineStr">
+        <is>
+          <t>SQ *UPPER LEFT ROASTERS</t>
+        </is>
+      </c>
+      <c r="G1219" t="inlineStr">
+        <is>
+          <t>Food &amp; Drink</t>
+        </is>
+      </c>
+      <c r="H1219" t="inlineStr">
+        <is>
+          <t>Sale</t>
+        </is>
+      </c>
+      <c r="I1219" t="n">
+        <v>-18.11</v>
+      </c>
+      <c r="J1219" s="2" t="n">
+        <v>44970</v>
+      </c>
+      <c r="K1219" t="inlineStr">
+        <is>
+          <t>Sapphire</t>
+        </is>
+      </c>
+      <c r="L1219" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1219" t="inlineStr">
+        <is>
+          <t>Coffee</t>
+        </is>
+      </c>
+      <c r="N1219" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1220">
+      <c r="A1220" s="1" t="inlineStr">
+        <is>
+          <t>97d3e67d-9770-4bd4-8833-4ebd07fcf61e</t>
+        </is>
+      </c>
+      <c r="B1220" s="2" t="n">
+        <v>44970</v>
+      </c>
+      <c r="C1220" s="2" t="n">
+        <v>44970</v>
+      </c>
+      <c r="D1220" s="2" t="n">
+        <v>44962</v>
+      </c>
+      <c r="E1220" s="2" t="n">
+        <v>44963</v>
+      </c>
+      <c r="F1220" t="inlineStr">
+        <is>
+          <t>TRADER JOE'S #146  QPS</t>
+        </is>
+      </c>
+      <c r="G1220" t="inlineStr">
+        <is>
+          <t>Groceries</t>
+        </is>
+      </c>
+      <c r="H1220" t="inlineStr">
+        <is>
+          <t>Sale</t>
+        </is>
+      </c>
+      <c r="I1220" t="n">
+        <v>-41.65</v>
+      </c>
+      <c r="J1220" s="2" t="n">
+        <v>44970</v>
+      </c>
+      <c r="K1220" t="inlineStr">
+        <is>
+          <t>Sapphire</t>
+        </is>
+      </c>
+      <c r="L1220" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1220" t="inlineStr">
+        <is>
+          <t>Groceries</t>
+        </is>
+      </c>
+      <c r="N1220" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1221">
+      <c r="A1221" s="1" t="inlineStr">
+        <is>
+          <t>2f6b7380-409f-4882-b2e3-b030e92976f2</t>
+        </is>
+      </c>
+      <c r="B1221" s="2" t="n">
+        <v>44970</v>
+      </c>
+      <c r="C1221" s="2" t="n">
+        <v>44970</v>
+      </c>
+      <c r="D1221" s="2" t="n">
+        <v>44962</v>
+      </c>
+      <c r="E1221" s="2" t="n">
+        <v>44963</v>
+      </c>
+      <c r="F1221" t="inlineStr">
+        <is>
+          <t>SQ *BOXER RAMEN - SAVIER</t>
+        </is>
+      </c>
+      <c r="G1221" t="inlineStr">
+        <is>
+          <t>Food &amp; Drink</t>
+        </is>
+      </c>
+      <c r="H1221" t="inlineStr">
+        <is>
+          <t>Sale</t>
+        </is>
+      </c>
+      <c r="I1221" t="n">
+        <v>-32.4</v>
+      </c>
+      <c r="J1221" s="2" t="n">
+        <v>44970</v>
+      </c>
+      <c r="K1221" t="inlineStr">
+        <is>
+          <t>Sapphire</t>
+        </is>
+      </c>
+      <c r="L1221" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1221" t="inlineStr">
+        <is>
+          <t>Eating Out</t>
+        </is>
+      </c>
+      <c r="N1221" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1222">
+      <c r="A1222" s="1" t="inlineStr">
+        <is>
+          <t>14cec911-f921-4922-b2ac-a44837a64026</t>
+        </is>
+      </c>
+      <c r="B1222" s="2" t="n">
+        <v>44970</v>
+      </c>
+      <c r="C1222" s="2" t="n">
+        <v>44970</v>
+      </c>
+      <c r="D1222" s="2" t="n">
+        <v>44961</v>
+      </c>
+      <c r="E1222" s="2" t="n">
+        <v>44962</v>
+      </c>
+      <c r="F1222" t="inlineStr">
+        <is>
+          <t>SQ *BARISTA</t>
+        </is>
+      </c>
+      <c r="G1222" t="inlineStr">
+        <is>
+          <t>Food &amp; Drink</t>
+        </is>
+      </c>
+      <c r="H1222" t="inlineStr">
+        <is>
+          <t>Sale</t>
+        </is>
+      </c>
+      <c r="I1222" t="n">
+        <v>-9.5</v>
+      </c>
+      <c r="J1222" s="2" t="n">
+        <v>44970</v>
+      </c>
+      <c r="K1222" t="inlineStr">
+        <is>
+          <t>Sapphire</t>
+        </is>
+      </c>
+      <c r="L1222" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1222" t="inlineStr">
+        <is>
+          <t>Coffee</t>
+        </is>
+      </c>
+      <c r="N1222" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1223">
+      <c r="A1223" s="1" t="inlineStr">
+        <is>
+          <t>1e617736-6271-420e-b751-6562d67187fd</t>
+        </is>
+      </c>
+      <c r="B1223" s="2" t="n">
+        <v>44970</v>
+      </c>
+      <c r="C1223" s="2" t="n">
+        <v>44970</v>
+      </c>
+      <c r="D1223" s="2" t="n">
+        <v>44961</v>
+      </c>
+      <c r="E1223" s="2" t="n">
+        <v>44962</v>
+      </c>
+      <c r="F1223" t="inlineStr">
+        <is>
+          <t>SQ *CLEARING CAFE</t>
+        </is>
+      </c>
+      <c r="G1223" t="inlineStr">
+        <is>
+          <t>Food &amp; Drink</t>
+        </is>
+      </c>
+      <c r="H1223" t="inlineStr">
+        <is>
+          <t>Sale</t>
+        </is>
+      </c>
+      <c r="I1223" t="n">
+        <v>-15.52</v>
+      </c>
+      <c r="J1223" s="2" t="n">
+        <v>44970</v>
+      </c>
+      <c r="K1223" t="inlineStr">
+        <is>
+          <t>Sapphire</t>
+        </is>
+      </c>
+      <c r="L1223" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1223" t="inlineStr">
+        <is>
+          <t>Coffee</t>
+        </is>
+      </c>
+      <c r="N1223" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1224">
+      <c r="A1224" s="1" t="inlineStr">
+        <is>
+          <t>dd9593a1-c666-410d-81a4-330abc216393</t>
+        </is>
+      </c>
+      <c r="B1224" s="2" t="n">
+        <v>44970</v>
+      </c>
+      <c r="C1224" s="2" t="n">
+        <v>44970</v>
+      </c>
+      <c r="D1224" s="2" t="n">
+        <v>44963</v>
+      </c>
+      <c r="E1224" t="inlineStr"/>
+      <c r="F1224" t="inlineStr">
+        <is>
+          <t>Online Banking Transfer from XXXXXX4411on 2/04/2023 at 13:30 BD gift towards ne</t>
+        </is>
+      </c>
+      <c r="G1224" t="inlineStr"/>
+      <c r="H1224" t="inlineStr"/>
+      <c r="I1224" t="n">
+        <v>700</v>
+      </c>
+      <c r="J1224" s="2" t="n">
+        <v>44970</v>
+      </c>
+      <c r="K1224" t="inlineStr">
+        <is>
+          <t>Mechanics</t>
+        </is>
+      </c>
+      <c r="L1224" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1224" t="inlineStr">
+        <is>
+          <t>Jeep</t>
+        </is>
+      </c>
+      <c r="N1224" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/datasets/transactions.xlsx
+++ b/datasets/transactions.xlsx
@@ -430,7 +430,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N1224"/>
+  <dimension ref="A1:N1237"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -65337,6 +65337,708 @@
         </is>
       </c>
       <c r="N1224" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1225">
+      <c r="A1225" s="1" t="inlineStr">
+        <is>
+          <t>b947ff04-c6da-48a1-ba0e-2505e7cf645c</t>
+        </is>
+      </c>
+      <c r="B1225" s="2" t="n">
+        <v>44973</v>
+      </c>
+      <c r="C1225" s="2" t="n">
+        <v>44973</v>
+      </c>
+      <c r="D1225" s="2" t="n">
+        <v>44967</v>
+      </c>
+      <c r="E1225" s="2" t="n">
+        <v>44969</v>
+      </c>
+      <c r="F1225" t="inlineStr">
+        <is>
+          <t>Amazon Prime*6X2DE0NS3</t>
+        </is>
+      </c>
+      <c r="G1225" t="inlineStr">
+        <is>
+          <t>Bills &amp; Utilities</t>
+        </is>
+      </c>
+      <c r="H1225" t="inlineStr">
+        <is>
+          <t>Sale</t>
+        </is>
+      </c>
+      <c r="I1225" t="n">
+        <v>-7.49</v>
+      </c>
+      <c r="J1225" s="2" t="n">
+        <v>44973</v>
+      </c>
+      <c r="K1225" t="inlineStr">
+        <is>
+          <t>Amazon</t>
+        </is>
+      </c>
+      <c r="L1225" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1225" t="inlineStr">
+        <is>
+          <t>Services</t>
+        </is>
+      </c>
+      <c r="N1225" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1226">
+      <c r="A1226" s="1" t="inlineStr">
+        <is>
+          <t>bb5aba80-4a7c-41e7-820e-2a515f620a11</t>
+        </is>
+      </c>
+      <c r="B1226" s="2" t="n">
+        <v>44973</v>
+      </c>
+      <c r="C1226" s="2" t="n">
+        <v>44973</v>
+      </c>
+      <c r="D1226" s="2" t="n">
+        <v>44970</v>
+      </c>
+      <c r="E1226" s="2" t="n">
+        <v>44971</v>
+      </c>
+      <c r="F1226" t="inlineStr">
+        <is>
+          <t>SQ *BARISTA</t>
+        </is>
+      </c>
+      <c r="G1226" t="inlineStr">
+        <is>
+          <t>Food &amp; Drink</t>
+        </is>
+      </c>
+      <c r="H1226" t="inlineStr">
+        <is>
+          <t>Sale</t>
+        </is>
+      </c>
+      <c r="I1226" t="n">
+        <v>-17.1</v>
+      </c>
+      <c r="J1226" s="2" t="n">
+        <v>44973</v>
+      </c>
+      <c r="K1226" t="inlineStr">
+        <is>
+          <t>Sapphire</t>
+        </is>
+      </c>
+      <c r="L1226" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1226" t="inlineStr">
+        <is>
+          <t>Coffee</t>
+        </is>
+      </c>
+      <c r="N1226" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1227">
+      <c r="A1227" s="1" t="inlineStr">
+        <is>
+          <t>b52f2b12-9a00-4719-a75f-ec0fba46ee53</t>
+        </is>
+      </c>
+      <c r="B1227" s="2" t="n">
+        <v>44973</v>
+      </c>
+      <c r="C1227" s="2" t="n">
+        <v>44973</v>
+      </c>
+      <c r="D1227" s="2" t="n">
+        <v>44970</v>
+      </c>
+      <c r="E1227" s="2" t="n">
+        <v>44971</v>
+      </c>
+      <c r="F1227" t="inlineStr">
+        <is>
+          <t>SQ *BARISTA</t>
+        </is>
+      </c>
+      <c r="G1227" t="inlineStr">
+        <is>
+          <t>Food &amp; Drink</t>
+        </is>
+      </c>
+      <c r="H1227" t="inlineStr">
+        <is>
+          <t>Sale</t>
+        </is>
+      </c>
+      <c r="I1227" t="n">
+        <v>-2.5</v>
+      </c>
+      <c r="J1227" s="2" t="n">
+        <v>44973</v>
+      </c>
+      <c r="K1227" t="inlineStr">
+        <is>
+          <t>Sapphire</t>
+        </is>
+      </c>
+      <c r="L1227" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1227" t="inlineStr">
+        <is>
+          <t>Coffee</t>
+        </is>
+      </c>
+      <c r="N1227" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1228">
+      <c r="A1228" s="1" t="inlineStr">
+        <is>
+          <t>52d5979e-4b22-43bd-b5f8-557b7d624897</t>
+        </is>
+      </c>
+      <c r="B1228" s="2" t="n">
+        <v>44973</v>
+      </c>
+      <c r="C1228" s="2" t="n">
+        <v>44973</v>
+      </c>
+      <c r="D1228" s="2" t="n">
+        <v>44970</v>
+      </c>
+      <c r="E1228" s="2" t="n">
+        <v>44971</v>
+      </c>
+      <c r="F1228" t="inlineStr">
+        <is>
+          <t>TST* The Fireside</t>
+        </is>
+      </c>
+      <c r="G1228" t="inlineStr">
+        <is>
+          <t>Food &amp; Drink</t>
+        </is>
+      </c>
+      <c r="H1228" t="inlineStr">
+        <is>
+          <t>Sale</t>
+        </is>
+      </c>
+      <c r="I1228" t="n">
+        <v>-67</v>
+      </c>
+      <c r="J1228" s="2" t="n">
+        <v>44973</v>
+      </c>
+      <c r="K1228" t="inlineStr">
+        <is>
+          <t>Sapphire</t>
+        </is>
+      </c>
+      <c r="L1228" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1228" t="inlineStr">
+        <is>
+          <t>Eating Out</t>
+        </is>
+      </c>
+      <c r="N1228" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1229">
+      <c r="A1229" s="1" t="inlineStr">
+        <is>
+          <t>557f85a2-5b66-41bb-81b0-ed8b7407c699</t>
+        </is>
+      </c>
+      <c r="B1229" s="2" t="n">
+        <v>44973</v>
+      </c>
+      <c r="C1229" s="2" t="n">
+        <v>44973</v>
+      </c>
+      <c r="D1229" s="2" t="n">
+        <v>44970</v>
+      </c>
+      <c r="E1229" s="2" t="n">
+        <v>44971</v>
+      </c>
+      <c r="F1229" t="inlineStr">
+        <is>
+          <t>TRADER JOE'S #146  QPS</t>
+        </is>
+      </c>
+      <c r="G1229" t="inlineStr">
+        <is>
+          <t>Groceries</t>
+        </is>
+      </c>
+      <c r="H1229" t="inlineStr">
+        <is>
+          <t>Sale</t>
+        </is>
+      </c>
+      <c r="I1229" t="n">
+        <v>-115.88</v>
+      </c>
+      <c r="J1229" s="2" t="n">
+        <v>44973</v>
+      </c>
+      <c r="K1229" t="inlineStr">
+        <is>
+          <t>Sapphire</t>
+        </is>
+      </c>
+      <c r="L1229" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1229" t="inlineStr">
+        <is>
+          <t>Groceries</t>
+        </is>
+      </c>
+      <c r="N1229" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1230">
+      <c r="A1230" s="1" t="inlineStr">
+        <is>
+          <t>5afc76f0-c794-4ac2-999a-a80231a13e51</t>
+        </is>
+      </c>
+      <c r="B1230" s="2" t="n">
+        <v>44973</v>
+      </c>
+      <c r="C1230" s="2" t="n">
+        <v>44973</v>
+      </c>
+      <c r="D1230" s="2" t="n">
+        <v>44969</v>
+      </c>
+      <c r="E1230" s="2" t="n">
+        <v>44970</v>
+      </c>
+      <c r="F1230" t="inlineStr">
+        <is>
+          <t>SQ *BOXER RAMEN - SAVIER</t>
+        </is>
+      </c>
+      <c r="G1230" t="inlineStr">
+        <is>
+          <t>Food &amp; Drink</t>
+        </is>
+      </c>
+      <c r="H1230" t="inlineStr">
+        <is>
+          <t>Sale</t>
+        </is>
+      </c>
+      <c r="I1230" t="n">
+        <v>-39</v>
+      </c>
+      <c r="J1230" s="2" t="n">
+        <v>44973</v>
+      </c>
+      <c r="K1230" t="inlineStr">
+        <is>
+          <t>Sapphire</t>
+        </is>
+      </c>
+      <c r="L1230" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1230" t="inlineStr">
+        <is>
+          <t>Entertainment</t>
+        </is>
+      </c>
+      <c r="N1230" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1231">
+      <c r="A1231" s="1" t="inlineStr">
+        <is>
+          <t>50fd8aec-6324-4d30-8b7e-79f92399f0b2</t>
+        </is>
+      </c>
+      <c r="B1231" s="2" t="n">
+        <v>44973</v>
+      </c>
+      <c r="C1231" s="2" t="n">
+        <v>44973</v>
+      </c>
+      <c r="D1231" s="2" t="n">
+        <v>44969</v>
+      </c>
+      <c r="E1231" s="2" t="n">
+        <v>44970</v>
+      </c>
+      <c r="F1231" t="inlineStr">
+        <is>
+          <t>SQ *CLEARING CAFE</t>
+        </is>
+      </c>
+      <c r="G1231" t="inlineStr">
+        <is>
+          <t>Food &amp; Drink</t>
+        </is>
+      </c>
+      <c r="H1231" t="inlineStr">
+        <is>
+          <t>Sale</t>
+        </is>
+      </c>
+      <c r="I1231" t="n">
+        <v>-15</v>
+      </c>
+      <c r="J1231" s="2" t="n">
+        <v>44973</v>
+      </c>
+      <c r="K1231" t="inlineStr">
+        <is>
+          <t>Sapphire</t>
+        </is>
+      </c>
+      <c r="L1231" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1231" t="inlineStr">
+        <is>
+          <t>Coffee</t>
+        </is>
+      </c>
+      <c r="N1231" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1232">
+      <c r="A1232" s="1" t="inlineStr">
+        <is>
+          <t>fa8e09cb-862b-49d6-a28d-dbd8f111f7a9</t>
+        </is>
+      </c>
+      <c r="B1232" s="2" t="n">
+        <v>44973</v>
+      </c>
+      <c r="C1232" s="2" t="n">
+        <v>44973</v>
+      </c>
+      <c r="D1232" s="2" t="n">
+        <v>44969</v>
+      </c>
+      <c r="E1232" s="2" t="n">
+        <v>44970</v>
+      </c>
+      <c r="F1232" t="inlineStr">
+        <is>
+          <t>SQ *CLEARING CAFE</t>
+        </is>
+      </c>
+      <c r="G1232" t="inlineStr">
+        <is>
+          <t>Food &amp; Drink</t>
+        </is>
+      </c>
+      <c r="H1232" t="inlineStr">
+        <is>
+          <t>Sale</t>
+        </is>
+      </c>
+      <c r="I1232" t="n">
+        <v>-2.5</v>
+      </c>
+      <c r="J1232" s="2" t="n">
+        <v>44973</v>
+      </c>
+      <c r="K1232" t="inlineStr">
+        <is>
+          <t>Sapphire</t>
+        </is>
+      </c>
+      <c r="L1232" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1232" t="inlineStr">
+        <is>
+          <t>Coffee</t>
+        </is>
+      </c>
+      <c r="N1232" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1233">
+      <c r="A1233" s="1" t="inlineStr">
+        <is>
+          <t>589aa117-4d85-4bdf-81ae-f45a5a825b14</t>
+        </is>
+      </c>
+      <c r="B1233" s="2" t="n">
+        <v>44973</v>
+      </c>
+      <c r="C1233" s="2" t="n">
+        <v>44973</v>
+      </c>
+      <c r="D1233" s="2" t="n">
+        <v>44969</v>
+      </c>
+      <c r="E1233" s="2" t="n">
+        <v>44970</v>
+      </c>
+      <c r="F1233" t="inlineStr">
+        <is>
+          <t>BAR WEST</t>
+        </is>
+      </c>
+      <c r="G1233" t="inlineStr">
+        <is>
+          <t>Food &amp; Drink</t>
+        </is>
+      </c>
+      <c r="H1233" t="inlineStr">
+        <is>
+          <t>Sale</t>
+        </is>
+      </c>
+      <c r="I1233" t="n">
+        <v>-80</v>
+      </c>
+      <c r="J1233" s="2" t="n">
+        <v>44973</v>
+      </c>
+      <c r="K1233" t="inlineStr">
+        <is>
+          <t>Sapphire</t>
+        </is>
+      </c>
+      <c r="L1233" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1233" t="inlineStr">
+        <is>
+          <t>Entertainment</t>
+        </is>
+      </c>
+      <c r="N1233" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1234">
+      <c r="A1234" s="1" t="inlineStr">
+        <is>
+          <t>b413ada0-07b8-44d1-bcee-75e0e9cec216</t>
+        </is>
+      </c>
+      <c r="B1234" s="2" t="n">
+        <v>44973</v>
+      </c>
+      <c r="C1234" s="2" t="n">
+        <v>44973</v>
+      </c>
+      <c r="D1234" s="2" t="n">
+        <v>44968</v>
+      </c>
+      <c r="E1234" s="2" t="n">
+        <v>44969</v>
+      </c>
+      <c r="F1234" t="inlineStr">
+        <is>
+          <t>SQ *THE OLD PORTLAND</t>
+        </is>
+      </c>
+      <c r="G1234" t="inlineStr">
+        <is>
+          <t>Food &amp; Drink</t>
+        </is>
+      </c>
+      <c r="H1234" t="inlineStr">
+        <is>
+          <t>Sale</t>
+        </is>
+      </c>
+      <c r="I1234" t="n">
+        <v>-48.3</v>
+      </c>
+      <c r="J1234" s="2" t="n">
+        <v>44973</v>
+      </c>
+      <c r="K1234" t="inlineStr">
+        <is>
+          <t>Sapphire</t>
+        </is>
+      </c>
+      <c r="L1234" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1234" t="inlineStr">
+        <is>
+          <t>Entertainment</t>
+        </is>
+      </c>
+      <c r="N1234" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1235">
+      <c r="A1235" s="1" t="inlineStr">
+        <is>
+          <t>f86ee7d8-a1a5-4ba6-892a-80c9c5f683ba</t>
+        </is>
+      </c>
+      <c r="B1235" s="2" t="n">
+        <v>44973</v>
+      </c>
+      <c r="C1235" s="2" t="n">
+        <v>44973</v>
+      </c>
+      <c r="D1235" s="2" t="n">
+        <v>44968</v>
+      </c>
+      <c r="E1235" s="2" t="n">
+        <v>44969</v>
+      </c>
+      <c r="F1235" t="inlineStr">
+        <is>
+          <t>SQ *THE OLD PORTLAND</t>
+        </is>
+      </c>
+      <c r="G1235" t="inlineStr">
+        <is>
+          <t>Food &amp; Drink</t>
+        </is>
+      </c>
+      <c r="H1235" t="inlineStr">
+        <is>
+          <t>Sale</t>
+        </is>
+      </c>
+      <c r="I1235" t="n">
+        <v>-31.2</v>
+      </c>
+      <c r="J1235" s="2" t="n">
+        <v>44973</v>
+      </c>
+      <c r="K1235" t="inlineStr">
+        <is>
+          <t>Sapphire</t>
+        </is>
+      </c>
+      <c r="L1235" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1235" t="inlineStr">
+        <is>
+          <t>Entertainment</t>
+        </is>
+      </c>
+      <c r="N1235" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1236">
+      <c r="A1236" s="1" t="inlineStr">
+        <is>
+          <t>3344f505-5904-4546-8254-4fe7cbb232e9</t>
+        </is>
+      </c>
+      <c r="B1236" s="2" t="n">
+        <v>44973</v>
+      </c>
+      <c r="C1236" s="2" t="n">
+        <v>44973</v>
+      </c>
+      <c r="D1236" s="2" t="n">
+        <v>44970</v>
+      </c>
+      <c r="E1236" t="inlineStr"/>
+      <c r="F1236" t="inlineStr">
+        <is>
+          <t>Online Banking Transfer from XXXXXX4411on 2/13/2023 at 13:25 34th BD dinner</t>
+        </is>
+      </c>
+      <c r="G1236" t="inlineStr"/>
+      <c r="H1236" t="inlineStr"/>
+      <c r="I1236" t="n">
+        <v>200</v>
+      </c>
+      <c r="J1236" s="2" t="n">
+        <v>44973</v>
+      </c>
+      <c r="K1236" t="inlineStr">
+        <is>
+          <t>Mechanics</t>
+        </is>
+      </c>
+      <c r="L1236" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1236" t="inlineStr">
+        <is>
+          <t>Entertainment</t>
+        </is>
+      </c>
+      <c r="N1236" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1237">
+      <c r="A1237" s="1" t="inlineStr">
+        <is>
+          <t>9c05881b-ee7a-4e9c-b8d7-02a15d9844a5</t>
+        </is>
+      </c>
+      <c r="B1237" s="2" t="n">
+        <v>44973</v>
+      </c>
+      <c r="C1237" t="inlineStr"/>
+      <c r="D1237" s="2" t="n">
+        <v>44970</v>
+      </c>
+      <c r="E1237" t="inlineStr"/>
+      <c r="F1237" t="inlineStr">
+        <is>
+          <t>Deposit</t>
+        </is>
+      </c>
+      <c r="G1237" t="inlineStr"/>
+      <c r="H1237" t="inlineStr"/>
+      <c r="I1237" t="n">
+        <v>299.7</v>
+      </c>
+      <c r="J1237" s="2" t="n">
+        <v>44973</v>
+      </c>
+      <c r="K1237" t="inlineStr">
+        <is>
+          <t>Mechanics</t>
+        </is>
+      </c>
+      <c r="L1237" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1237" t="inlineStr"/>
+      <c r="N1237" t="n">
         <v>0</v>
       </c>
     </row>

--- a/datasets/transactions.xlsx
+++ b/datasets/transactions.xlsx
@@ -430,7 +430,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N1237"/>
+  <dimension ref="A1:N1248"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -66039,6 +66039,532 @@
       </c>
       <c r="M1237" t="inlineStr"/>
       <c r="N1237" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1238">
+      <c r="A1238" s="1" t="inlineStr">
+        <is>
+          <t>9b1709a4-27df-41af-aaed-3247bd7126db</t>
+        </is>
+      </c>
+      <c r="B1238" s="2" t="n">
+        <v>44980</v>
+      </c>
+      <c r="C1238" t="inlineStr"/>
+      <c r="D1238" s="2" t="n">
+        <v>44975</v>
+      </c>
+      <c r="E1238" s="2" t="n">
+        <v>44976</v>
+      </c>
+      <c r="F1238" t="inlineStr">
+        <is>
+          <t>ALL HEART YOGA</t>
+        </is>
+      </c>
+      <c r="G1238" t="inlineStr">
+        <is>
+          <t>Personal</t>
+        </is>
+      </c>
+      <c r="H1238" t="inlineStr">
+        <is>
+          <t>Sale</t>
+        </is>
+      </c>
+      <c r="I1238" t="n">
+        <v>-128</v>
+      </c>
+      <c r="J1238" s="2" t="n">
+        <v>44980</v>
+      </c>
+      <c r="K1238" t="inlineStr">
+        <is>
+          <t>Amazon</t>
+        </is>
+      </c>
+      <c r="L1238" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1238" t="inlineStr"/>
+      <c r="N1238" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1239">
+      <c r="A1239" s="1" t="inlineStr">
+        <is>
+          <t>e48a3863-d759-4b55-820f-09660dcea6e6</t>
+        </is>
+      </c>
+      <c r="B1239" s="2" t="n">
+        <v>44980</v>
+      </c>
+      <c r="C1239" t="inlineStr"/>
+      <c r="D1239" s="2" t="n">
+        <v>44974</v>
+      </c>
+      <c r="E1239" s="2" t="n">
+        <v>44976</v>
+      </c>
+      <c r="F1239" t="inlineStr">
+        <is>
+          <t>REI.COM  800-426-4840</t>
+        </is>
+      </c>
+      <c r="G1239" t="inlineStr">
+        <is>
+          <t>Shopping</t>
+        </is>
+      </c>
+      <c r="H1239" t="inlineStr">
+        <is>
+          <t>Sale</t>
+        </is>
+      </c>
+      <c r="I1239" t="n">
+        <v>-83.09</v>
+      </c>
+      <c r="J1239" s="2" t="n">
+        <v>44980</v>
+      </c>
+      <c r="K1239" t="inlineStr">
+        <is>
+          <t>Amazon</t>
+        </is>
+      </c>
+      <c r="L1239" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1239" t="inlineStr"/>
+      <c r="N1239" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1240">
+      <c r="A1240" s="1" t="inlineStr">
+        <is>
+          <t>75419265-f9cd-4cc8-8087-f4bf89e14853</t>
+        </is>
+      </c>
+      <c r="B1240" s="2" t="n">
+        <v>44980</v>
+      </c>
+      <c r="C1240" t="inlineStr"/>
+      <c r="D1240" s="2" t="n">
+        <v>44974</v>
+      </c>
+      <c r="E1240" s="2" t="n">
+        <v>44974</v>
+      </c>
+      <c r="F1240" t="inlineStr">
+        <is>
+          <t>GRAMMARLY COMVZBK3Q</t>
+        </is>
+      </c>
+      <c r="G1240" t="inlineStr">
+        <is>
+          <t>Shopping</t>
+        </is>
+      </c>
+      <c r="H1240" t="inlineStr">
+        <is>
+          <t>Sale</t>
+        </is>
+      </c>
+      <c r="I1240" t="n">
+        <v>-86.40000000000001</v>
+      </c>
+      <c r="J1240" s="2" t="n">
+        <v>44980</v>
+      </c>
+      <c r="K1240" t="inlineStr">
+        <is>
+          <t>Amazon</t>
+        </is>
+      </c>
+      <c r="L1240" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1240" t="inlineStr"/>
+      <c r="N1240" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1241">
+      <c r="A1241" s="1" t="inlineStr">
+        <is>
+          <t>7c67c6c3-eaa2-4156-b2bb-c3287b67c7f9</t>
+        </is>
+      </c>
+      <c r="B1241" s="2" t="n">
+        <v>44980</v>
+      </c>
+      <c r="C1241" t="inlineStr"/>
+      <c r="D1241" s="2" t="n">
+        <v>44971</v>
+      </c>
+      <c r="E1241" s="2" t="n">
+        <v>44972</v>
+      </c>
+      <c r="F1241" t="inlineStr">
+        <is>
+          <t>SQ *JD'S SHOE REPAIR</t>
+        </is>
+      </c>
+      <c r="G1241" t="inlineStr">
+        <is>
+          <t>Home</t>
+        </is>
+      </c>
+      <c r="H1241" t="inlineStr">
+        <is>
+          <t>Sale</t>
+        </is>
+      </c>
+      <c r="I1241" t="n">
+        <v>-100</v>
+      </c>
+      <c r="J1241" s="2" t="n">
+        <v>44980</v>
+      </c>
+      <c r="K1241" t="inlineStr">
+        <is>
+          <t>Amazon</t>
+        </is>
+      </c>
+      <c r="L1241" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1241" t="inlineStr"/>
+      <c r="N1241" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1242">
+      <c r="A1242" s="1" t="inlineStr">
+        <is>
+          <t>4226d761-7365-4306-af16-b1b6a40ffbd7</t>
+        </is>
+      </c>
+      <c r="B1242" s="2" t="n">
+        <v>44980</v>
+      </c>
+      <c r="C1242" t="inlineStr"/>
+      <c r="D1242" s="2" t="n">
+        <v>44971</v>
+      </c>
+      <c r="E1242" s="2" t="n">
+        <v>44972</v>
+      </c>
+      <c r="F1242" t="inlineStr">
+        <is>
+          <t>76 - PLAID PANTRY 83</t>
+        </is>
+      </c>
+      <c r="G1242" t="inlineStr">
+        <is>
+          <t>Gas</t>
+        </is>
+      </c>
+      <c r="H1242" t="inlineStr">
+        <is>
+          <t>Sale</t>
+        </is>
+      </c>
+      <c r="I1242" t="n">
+        <v>-34.01</v>
+      </c>
+      <c r="J1242" s="2" t="n">
+        <v>44980</v>
+      </c>
+      <c r="K1242" t="inlineStr">
+        <is>
+          <t>Amazon</t>
+        </is>
+      </c>
+      <c r="L1242" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1242" t="inlineStr"/>
+      <c r="N1242" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1243">
+      <c r="A1243" s="1" t="inlineStr">
+        <is>
+          <t>ebd82cde-51a2-4cee-b1cb-b7d61f7eb982</t>
+        </is>
+      </c>
+      <c r="B1243" s="2" t="n">
+        <v>44980</v>
+      </c>
+      <c r="C1243" t="inlineStr"/>
+      <c r="D1243" s="2" t="n">
+        <v>44976</v>
+      </c>
+      <c r="E1243" s="2" t="n">
+        <v>44977</v>
+      </c>
+      <c r="F1243" t="inlineStr">
+        <is>
+          <t>SQ *BARISTA</t>
+        </is>
+      </c>
+      <c r="G1243" t="inlineStr">
+        <is>
+          <t>Food &amp; Drink</t>
+        </is>
+      </c>
+      <c r="H1243" t="inlineStr">
+        <is>
+          <t>Sale</t>
+        </is>
+      </c>
+      <c r="I1243" t="n">
+        <v>-12.75</v>
+      </c>
+      <c r="J1243" s="2" t="n">
+        <v>44980</v>
+      </c>
+      <c r="K1243" t="inlineStr">
+        <is>
+          <t>Sapphire</t>
+        </is>
+      </c>
+      <c r="L1243" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1243" t="inlineStr"/>
+      <c r="N1243" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1244">
+      <c r="A1244" s="1" t="inlineStr">
+        <is>
+          <t>e0190c47-7f93-4374-a1d2-f9fcb4f5ded8</t>
+        </is>
+      </c>
+      <c r="B1244" s="2" t="n">
+        <v>44980</v>
+      </c>
+      <c r="C1244" t="inlineStr"/>
+      <c r="D1244" s="2" t="n">
+        <v>44976</v>
+      </c>
+      <c r="E1244" s="2" t="n">
+        <v>44977</v>
+      </c>
+      <c r="F1244" t="inlineStr">
+        <is>
+          <t>SQ *CLEARING CAFE</t>
+        </is>
+      </c>
+      <c r="G1244" t="inlineStr">
+        <is>
+          <t>Food &amp; Drink</t>
+        </is>
+      </c>
+      <c r="H1244" t="inlineStr">
+        <is>
+          <t>Sale</t>
+        </is>
+      </c>
+      <c r="I1244" t="n">
+        <v>-6.5</v>
+      </c>
+      <c r="J1244" s="2" t="n">
+        <v>44980</v>
+      </c>
+      <c r="K1244" t="inlineStr">
+        <is>
+          <t>Sapphire</t>
+        </is>
+      </c>
+      <c r="L1244" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1244" t="inlineStr"/>
+      <c r="N1244" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1245">
+      <c r="A1245" s="1" t="inlineStr">
+        <is>
+          <t>c16d090b-23ed-4f59-8184-20ed1e54d160</t>
+        </is>
+      </c>
+      <c r="B1245" s="2" t="n">
+        <v>44980</v>
+      </c>
+      <c r="C1245" t="inlineStr"/>
+      <c r="D1245" s="2" t="n">
+        <v>44975</v>
+      </c>
+      <c r="E1245" s="2" t="n">
+        <v>44976</v>
+      </c>
+      <c r="F1245" t="inlineStr">
+        <is>
+          <t>SQ *BARISTA</t>
+        </is>
+      </c>
+      <c r="G1245" t="inlineStr">
+        <is>
+          <t>Food &amp; Drink</t>
+        </is>
+      </c>
+      <c r="H1245" t="inlineStr">
+        <is>
+          <t>Sale</t>
+        </is>
+      </c>
+      <c r="I1245" t="n">
+        <v>-7.75</v>
+      </c>
+      <c r="J1245" s="2" t="n">
+        <v>44980</v>
+      </c>
+      <c r="K1245" t="inlineStr">
+        <is>
+          <t>Sapphire</t>
+        </is>
+      </c>
+      <c r="L1245" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1245" t="inlineStr"/>
+      <c r="N1245" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1246">
+      <c r="A1246" s="1" t="inlineStr">
+        <is>
+          <t>27e453d2-c54d-4c34-aada-dc5b82c58ab3</t>
+        </is>
+      </c>
+      <c r="B1246" s="2" t="n">
+        <v>44980</v>
+      </c>
+      <c r="C1246" t="inlineStr"/>
+      <c r="D1246" s="2" t="n">
+        <v>44974</v>
+      </c>
+      <c r="E1246" s="2" t="n">
+        <v>44974</v>
+      </c>
+      <c r="F1246" t="inlineStr">
+        <is>
+          <t>AUTOMATIC PAYMENT - THANK</t>
+        </is>
+      </c>
+      <c r="G1246" t="inlineStr"/>
+      <c r="H1246" t="inlineStr">
+        <is>
+          <t>Payment</t>
+        </is>
+      </c>
+      <c r="I1246" t="n">
+        <v>1074.39</v>
+      </c>
+      <c r="J1246" s="2" t="n">
+        <v>44980</v>
+      </c>
+      <c r="K1246" t="inlineStr">
+        <is>
+          <t>Sapphire</t>
+        </is>
+      </c>
+      <c r="L1246" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1246" t="inlineStr"/>
+      <c r="N1246" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1247">
+      <c r="A1247" s="1" t="inlineStr">
+        <is>
+          <t>8a4c6f3a-4bf9-434c-9178-7247ed926f62</t>
+        </is>
+      </c>
+      <c r="B1247" s="2" t="n">
+        <v>44980</v>
+      </c>
+      <c r="C1247" t="inlineStr"/>
+      <c r="D1247" s="2" t="n">
+        <v>44978</v>
+      </c>
+      <c r="E1247" t="inlineStr"/>
+      <c r="F1247" t="inlineStr">
+        <is>
+          <t>CHASE CREDIT CRD AUTOPAY 000000000582661</t>
+        </is>
+      </c>
+      <c r="G1247" t="inlineStr"/>
+      <c r="H1247" t="inlineStr"/>
+      <c r="I1247" t="n">
+        <v>-1074.39</v>
+      </c>
+      <c r="J1247" s="2" t="n">
+        <v>44980</v>
+      </c>
+      <c r="K1247" t="inlineStr">
+        <is>
+          <t>Mechanics</t>
+        </is>
+      </c>
+      <c r="L1247" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1247" t="inlineStr"/>
+      <c r="N1247" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1248">
+      <c r="A1248" s="1" t="inlineStr">
+        <is>
+          <t>a4f22e78-1b9d-43cb-90b1-6a1cef933de8</t>
+        </is>
+      </c>
+      <c r="B1248" s="2" t="n">
+        <v>44980</v>
+      </c>
+      <c r="C1248" t="inlineStr"/>
+      <c r="D1248" s="2" t="n">
+        <v>44974</v>
+      </c>
+      <c r="E1248" t="inlineStr"/>
+      <c r="F1248" t="inlineStr">
+        <is>
+          <t>TOYOTA MOTOR SAL PAYROLL 568349-TLS</t>
+        </is>
+      </c>
+      <c r="G1248" t="inlineStr"/>
+      <c r="H1248" t="inlineStr"/>
+      <c r="I1248" t="n">
+        <v>1830.19</v>
+      </c>
+      <c r="J1248" s="2" t="n">
+        <v>44980</v>
+      </c>
+      <c r="K1248" t="inlineStr">
+        <is>
+          <t>Mechanics</t>
+        </is>
+      </c>
+      <c r="L1248" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1248" t="inlineStr"/>
+      <c r="N1248" t="n">
         <v>0</v>
       </c>
     </row>

--- a/datasets/transactions.xlsx
+++ b/datasets/transactions.xlsx
@@ -430,7 +430,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N1248"/>
+  <dimension ref="A1:N1266"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -64688,7 +64688,7 @@
         <v>44970</v>
       </c>
       <c r="C1213" s="2" t="n">
-        <v>44970</v>
+        <v>44990</v>
       </c>
       <c r="D1213" s="2" t="n">
         <v>44966</v>
@@ -64727,7 +64727,7 @@
       </c>
       <c r="M1213" t="inlineStr">
         <is>
-          <t>Eating Out</t>
+          <t>Haircut</t>
         </is>
       </c>
       <c r="N1213" t="n">
@@ -66045,13 +66045,15 @@
     <row r="1238">
       <c r="A1238" s="1" t="inlineStr">
         <is>
-          <t>9b1709a4-27df-41af-aaed-3247bd7126db</t>
+          <t>a19bd1c9-1ebf-473c-a43f-f386de448571</t>
         </is>
       </c>
       <c r="B1238" s="2" t="n">
-        <v>44980</v>
-      </c>
-      <c r="C1238" t="inlineStr"/>
+        <v>44984</v>
+      </c>
+      <c r="C1238" s="2" t="n">
+        <v>44989</v>
+      </c>
       <c r="D1238" s="2" t="n">
         <v>44975</v>
       </c>
@@ -66077,7 +66079,7 @@
         <v>-128</v>
       </c>
       <c r="J1238" s="2" t="n">
-        <v>44980</v>
+        <v>44984</v>
       </c>
       <c r="K1238" t="inlineStr">
         <is>
@@ -66085,9 +66087,13 @@
         </is>
       </c>
       <c r="L1238" t="n">
-        <v>0</v>
-      </c>
-      <c r="M1238" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="M1238" t="inlineStr">
+        <is>
+          <t>Yoga</t>
+        </is>
+      </c>
       <c r="N1238" t="n">
         <v>0</v>
       </c>
@@ -66095,13 +66101,15 @@
     <row r="1239">
       <c r="A1239" s="1" t="inlineStr">
         <is>
-          <t>e48a3863-d759-4b55-820f-09660dcea6e6</t>
+          <t>20ccf7d9-2bf2-4951-8527-c6fdba0d191e</t>
         </is>
       </c>
       <c r="B1239" s="2" t="n">
-        <v>44980</v>
-      </c>
-      <c r="C1239" t="inlineStr"/>
+        <v>44984</v>
+      </c>
+      <c r="C1239" s="2" t="n">
+        <v>44989</v>
+      </c>
       <c r="D1239" s="2" t="n">
         <v>44974</v>
       </c>
@@ -66127,7 +66135,7 @@
         <v>-83.09</v>
       </c>
       <c r="J1239" s="2" t="n">
-        <v>44980</v>
+        <v>44984</v>
       </c>
       <c r="K1239" t="inlineStr">
         <is>
@@ -66135,9 +66143,13 @@
         </is>
       </c>
       <c r="L1239" t="n">
-        <v>0</v>
-      </c>
-      <c r="M1239" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="M1239" t="inlineStr">
+        <is>
+          <t>Gifts</t>
+        </is>
+      </c>
       <c r="N1239" t="n">
         <v>0</v>
       </c>
@@ -66145,13 +66157,15 @@
     <row r="1240">
       <c r="A1240" s="1" t="inlineStr">
         <is>
-          <t>75419265-f9cd-4cc8-8087-f4bf89e14853</t>
+          <t>72947e24-823d-4c64-aa9b-e877cce88df1</t>
         </is>
       </c>
       <c r="B1240" s="2" t="n">
-        <v>44980</v>
-      </c>
-      <c r="C1240" t="inlineStr"/>
+        <v>44984</v>
+      </c>
+      <c r="C1240" s="2" t="n">
+        <v>44989</v>
+      </c>
       <c r="D1240" s="2" t="n">
         <v>44974</v>
       </c>
@@ -66177,7 +66191,7 @@
         <v>-86.40000000000001</v>
       </c>
       <c r="J1240" s="2" t="n">
-        <v>44980</v>
+        <v>44984</v>
       </c>
       <c r="K1240" t="inlineStr">
         <is>
@@ -66185,9 +66199,13 @@
         </is>
       </c>
       <c r="L1240" t="n">
-        <v>0</v>
-      </c>
-      <c r="M1240" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="M1240" t="inlineStr">
+        <is>
+          <t>Services</t>
+        </is>
+      </c>
       <c r="N1240" t="n">
         <v>0</v>
       </c>
@@ -66195,13 +66213,15 @@
     <row r="1241">
       <c r="A1241" s="1" t="inlineStr">
         <is>
-          <t>7c67c6c3-eaa2-4156-b2bb-c3287b67c7f9</t>
+          <t>e3b1ff1b-cfe5-448e-b91f-8c5fed83a3fa</t>
         </is>
       </c>
       <c r="B1241" s="2" t="n">
-        <v>44980</v>
-      </c>
-      <c r="C1241" t="inlineStr"/>
+        <v>44984</v>
+      </c>
+      <c r="C1241" s="2" t="n">
+        <v>44989</v>
+      </c>
       <c r="D1241" s="2" t="n">
         <v>44971</v>
       </c>
@@ -66227,7 +66247,7 @@
         <v>-100</v>
       </c>
       <c r="J1241" s="2" t="n">
-        <v>44980</v>
+        <v>44984</v>
       </c>
       <c r="K1241" t="inlineStr">
         <is>
@@ -66235,9 +66255,13 @@
         </is>
       </c>
       <c r="L1241" t="n">
-        <v>0</v>
-      </c>
-      <c r="M1241" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="M1241" t="inlineStr">
+        <is>
+          <t>Clothes</t>
+        </is>
+      </c>
       <c r="N1241" t="n">
         <v>0</v>
       </c>
@@ -66245,13 +66269,15 @@
     <row r="1242">
       <c r="A1242" s="1" t="inlineStr">
         <is>
-          <t>4226d761-7365-4306-af16-b1b6a40ffbd7</t>
+          <t>be0653d1-18c8-47c4-ad5e-37ff893f5298</t>
         </is>
       </c>
       <c r="B1242" s="2" t="n">
-        <v>44980</v>
-      </c>
-      <c r="C1242" t="inlineStr"/>
+        <v>44984</v>
+      </c>
+      <c r="C1242" s="2" t="n">
+        <v>44989</v>
+      </c>
       <c r="D1242" s="2" t="n">
         <v>44971</v>
       </c>
@@ -66277,7 +66303,7 @@
         <v>-34.01</v>
       </c>
       <c r="J1242" s="2" t="n">
-        <v>44980</v>
+        <v>44984</v>
       </c>
       <c r="K1242" t="inlineStr">
         <is>
@@ -66285,9 +66311,13 @@
         </is>
       </c>
       <c r="L1242" t="n">
-        <v>0</v>
-      </c>
-      <c r="M1242" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="M1242" t="inlineStr">
+        <is>
+          <t>Gasoline</t>
+        </is>
+      </c>
       <c r="N1242" t="n">
         <v>0</v>
       </c>
@@ -66295,13 +66325,15 @@
     <row r="1243">
       <c r="A1243" s="1" t="inlineStr">
         <is>
-          <t>ebd82cde-51a2-4cee-b1cb-b7d61f7eb982</t>
+          <t>1f7db794-5f46-40d5-88b9-236d8dbc6d1e</t>
         </is>
       </c>
       <c r="B1243" s="2" t="n">
-        <v>44980</v>
-      </c>
-      <c r="C1243" t="inlineStr"/>
+        <v>44984</v>
+      </c>
+      <c r="C1243" s="2" t="n">
+        <v>44989</v>
+      </c>
       <c r="D1243" s="2" t="n">
         <v>44976</v>
       </c>
@@ -66327,7 +66359,7 @@
         <v>-12.75</v>
       </c>
       <c r="J1243" s="2" t="n">
-        <v>44980</v>
+        <v>44984</v>
       </c>
       <c r="K1243" t="inlineStr">
         <is>
@@ -66335,9 +66367,13 @@
         </is>
       </c>
       <c r="L1243" t="n">
-        <v>0</v>
-      </c>
-      <c r="M1243" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="M1243" t="inlineStr">
+        <is>
+          <t>Coffee</t>
+        </is>
+      </c>
       <c r="N1243" t="n">
         <v>0</v>
       </c>
@@ -66345,13 +66381,15 @@
     <row r="1244">
       <c r="A1244" s="1" t="inlineStr">
         <is>
-          <t>e0190c47-7f93-4374-a1d2-f9fcb4f5ded8</t>
+          <t>df528fc9-13a1-4819-bb69-a51b760d0852</t>
         </is>
       </c>
       <c r="B1244" s="2" t="n">
-        <v>44980</v>
-      </c>
-      <c r="C1244" t="inlineStr"/>
+        <v>44984</v>
+      </c>
+      <c r="C1244" s="2" t="n">
+        <v>44989</v>
+      </c>
       <c r="D1244" s="2" t="n">
         <v>44976</v>
       </c>
@@ -66377,7 +66415,7 @@
         <v>-6.5</v>
       </c>
       <c r="J1244" s="2" t="n">
-        <v>44980</v>
+        <v>44984</v>
       </c>
       <c r="K1244" t="inlineStr">
         <is>
@@ -66385,9 +66423,13 @@
         </is>
       </c>
       <c r="L1244" t="n">
-        <v>0</v>
-      </c>
-      <c r="M1244" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="M1244" t="inlineStr">
+        <is>
+          <t>Coffee</t>
+        </is>
+      </c>
       <c r="N1244" t="n">
         <v>0</v>
       </c>
@@ -66395,13 +66437,15 @@
     <row r="1245">
       <c r="A1245" s="1" t="inlineStr">
         <is>
-          <t>c16d090b-23ed-4f59-8184-20ed1e54d160</t>
+          <t>35ea6bfe-112b-46e4-b63c-dfac5ccb7d6e</t>
         </is>
       </c>
       <c r="B1245" s="2" t="n">
-        <v>44980</v>
-      </c>
-      <c r="C1245" t="inlineStr"/>
+        <v>44984</v>
+      </c>
+      <c r="C1245" s="2" t="n">
+        <v>44989</v>
+      </c>
       <c r="D1245" s="2" t="n">
         <v>44975</v>
       </c>
@@ -66427,7 +66471,7 @@
         <v>-7.75</v>
       </c>
       <c r="J1245" s="2" t="n">
-        <v>44980</v>
+        <v>44984</v>
       </c>
       <c r="K1245" t="inlineStr">
         <is>
@@ -66435,9 +66479,13 @@
         </is>
       </c>
       <c r="L1245" t="n">
-        <v>0</v>
-      </c>
-      <c r="M1245" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="M1245" t="inlineStr">
+        <is>
+          <t>Coffee</t>
+        </is>
+      </c>
       <c r="N1245" t="n">
         <v>0</v>
       </c>
@@ -66445,11 +66493,11 @@
     <row r="1246">
       <c r="A1246" s="1" t="inlineStr">
         <is>
-          <t>27e453d2-c54d-4c34-aada-dc5b82c58ab3</t>
+          <t>e9742163-c168-4601-b329-c0a1e9f351f9</t>
         </is>
       </c>
       <c r="B1246" s="2" t="n">
-        <v>44980</v>
+        <v>44984</v>
       </c>
       <c r="C1246" t="inlineStr"/>
       <c r="D1246" s="2" t="n">
@@ -66473,7 +66521,7 @@
         <v>1074.39</v>
       </c>
       <c r="J1246" s="2" t="n">
-        <v>44980</v>
+        <v>44984</v>
       </c>
       <c r="K1246" t="inlineStr">
         <is>
@@ -66491,33 +66539,39 @@
     <row r="1247">
       <c r="A1247" s="1" t="inlineStr">
         <is>
-          <t>8a4c6f3a-4bf9-434c-9178-7247ed926f62</t>
+          <t>8c0d1dde-135e-4134-9d2e-197454e5e632</t>
         </is>
       </c>
       <c r="B1247" s="2" t="n">
-        <v>44980</v>
+        <v>44989</v>
       </c>
       <c r="C1247" t="inlineStr"/>
       <c r="D1247" s="2" t="n">
-        <v>44978</v>
-      </c>
-      <c r="E1247" t="inlineStr"/>
+        <v>44985</v>
+      </c>
+      <c r="E1247" s="2" t="n">
+        <v>44985</v>
+      </c>
       <c r="F1247" t="inlineStr">
         <is>
-          <t>CHASE CREDIT CRD AUTOPAY 000000000582661</t>
+          <t>AUTOMATIC PAYMENT - THANK</t>
         </is>
       </c>
       <c r="G1247" t="inlineStr"/>
-      <c r="H1247" t="inlineStr"/>
+      <c r="H1247" t="inlineStr">
+        <is>
+          <t>Payment</t>
+        </is>
+      </c>
       <c r="I1247" t="n">
-        <v>-1074.39</v>
+        <v>2186.84</v>
       </c>
       <c r="J1247" s="2" t="n">
-        <v>44980</v>
+        <v>44989</v>
       </c>
       <c r="K1247" t="inlineStr">
         <is>
-          <t>Mechanics</t>
+          <t>Amazon</t>
         </is>
       </c>
       <c r="L1247" t="n">
@@ -66531,40 +66585,1038 @@
     <row r="1248">
       <c r="A1248" s="1" t="inlineStr">
         <is>
-          <t>a4f22e78-1b9d-43cb-90b1-6a1cef933de8</t>
+          <t>0df3bdec-4e8d-4085-b6e1-e49b33650ce0</t>
         </is>
       </c>
       <c r="B1248" s="2" t="n">
+        <v>44989</v>
+      </c>
+      <c r="C1248" s="2" t="n">
+        <v>44989</v>
+      </c>
+      <c r="D1248" s="2" t="n">
+        <v>44984</v>
+      </c>
+      <c r="E1248" s="2" t="n">
+        <v>44985</v>
+      </c>
+      <c r="F1248" t="inlineStr">
+        <is>
+          <t>CVS/PHARMACY #06920</t>
+        </is>
+      </c>
+      <c r="G1248" t="inlineStr">
+        <is>
+          <t>Health &amp; Wellness</t>
+        </is>
+      </c>
+      <c r="H1248" t="inlineStr">
+        <is>
+          <t>Sale</t>
+        </is>
+      </c>
+      <c r="I1248" t="n">
+        <v>-27.15</v>
+      </c>
+      <c r="J1248" s="2" t="n">
+        <v>44989</v>
+      </c>
+      <c r="K1248" t="inlineStr">
+        <is>
+          <t>Amazon</t>
+        </is>
+      </c>
+      <c r="L1248" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1248" t="inlineStr">
+        <is>
+          <t>Services</t>
+        </is>
+      </c>
+      <c r="N1248" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1249">
+      <c r="A1249" s="1" t="inlineStr">
+        <is>
+          <t>c1b247ae-7d33-4265-9933-3b89419fabd9</t>
+        </is>
+      </c>
+      <c r="B1249" s="2" t="n">
+        <v>44989</v>
+      </c>
+      <c r="C1249" s="2" t="n">
+        <v>44989</v>
+      </c>
+      <c r="D1249" s="2" t="n">
+        <v>44982</v>
+      </c>
+      <c r="E1249" s="2" t="n">
+        <v>44984</v>
+      </c>
+      <c r="F1249" t="inlineStr">
+        <is>
+          <t>PEARL HARDWARE</t>
+        </is>
+      </c>
+      <c r="G1249" t="inlineStr">
+        <is>
+          <t>Home</t>
+        </is>
+      </c>
+      <c r="H1249" t="inlineStr">
+        <is>
+          <t>Sale</t>
+        </is>
+      </c>
+      <c r="I1249" t="n">
+        <v>-1.14</v>
+      </c>
+      <c r="J1249" s="2" t="n">
+        <v>44989</v>
+      </c>
+      <c r="K1249" t="inlineStr">
+        <is>
+          <t>Amazon</t>
+        </is>
+      </c>
+      <c r="L1249" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1249" t="inlineStr">
+        <is>
+          <t>Jeep</t>
+        </is>
+      </c>
+      <c r="N1249" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1250">
+      <c r="A1250" s="1" t="inlineStr">
+        <is>
+          <t>12a23086-9297-496e-bce7-55fca1a5d5c9</t>
+        </is>
+      </c>
+      <c r="B1250" s="2" t="n">
+        <v>44989</v>
+      </c>
+      <c r="C1250" s="2" t="n">
+        <v>44989</v>
+      </c>
+      <c r="D1250" s="2" t="n">
+        <v>44982</v>
+      </c>
+      <c r="E1250" s="2" t="n">
+        <v>44984</v>
+      </c>
+      <c r="F1250" t="inlineStr">
+        <is>
+          <t>CITY OF PORTLAND DEPT</t>
+        </is>
+      </c>
+      <c r="G1250" t="inlineStr">
+        <is>
+          <t>Travel</t>
+        </is>
+      </c>
+      <c r="H1250" t="inlineStr">
+        <is>
+          <t>Sale</t>
+        </is>
+      </c>
+      <c r="I1250" t="n">
+        <v>-2.2</v>
+      </c>
+      <c r="J1250" s="2" t="n">
+        <v>44989</v>
+      </c>
+      <c r="K1250" t="inlineStr">
+        <is>
+          <t>Amazon</t>
+        </is>
+      </c>
+      <c r="L1250" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1250" t="inlineStr">
+        <is>
+          <t>Parking</t>
+        </is>
+      </c>
+      <c r="N1250" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1251">
+      <c r="A1251" s="1" t="inlineStr">
+        <is>
+          <t>dcd8495c-bb33-484e-9b02-eba300650966</t>
+        </is>
+      </c>
+      <c r="B1251" s="2" t="n">
+        <v>44989</v>
+      </c>
+      <c r="C1251" s="2" t="n">
+        <v>44990</v>
+      </c>
+      <c r="D1251" s="2" t="n">
+        <v>44981</v>
+      </c>
+      <c r="E1251" s="2" t="n">
+        <v>44981</v>
+      </c>
+      <c r="F1251" t="inlineStr">
+        <is>
+          <t>COMCAST CABLE COMM</t>
+        </is>
+      </c>
+      <c r="G1251" t="inlineStr">
+        <is>
+          <t>Bills &amp; Utilities</t>
+        </is>
+      </c>
+      <c r="H1251" t="inlineStr">
+        <is>
+          <t>Sale</t>
+        </is>
+      </c>
+      <c r="I1251" t="n">
+        <v>-44.99</v>
+      </c>
+      <c r="J1251" s="2" t="n">
+        <v>44989</v>
+      </c>
+      <c r="K1251" t="inlineStr">
+        <is>
+          <t>Amazon</t>
+        </is>
+      </c>
+      <c r="L1251" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1251" t="inlineStr">
+        <is>
+          <t>Internet</t>
+        </is>
+      </c>
+      <c r="N1251" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1252">
+      <c r="A1252" s="1" t="inlineStr">
+        <is>
+          <t>abab1a3d-397b-4af0-8c1d-1c7193930558</t>
+        </is>
+      </c>
+      <c r="B1252" s="2" t="n">
+        <v>44989</v>
+      </c>
+      <c r="C1252" s="2" t="n">
+        <v>44989</v>
+      </c>
+      <c r="D1252" s="2" t="n">
+        <v>44978</v>
+      </c>
+      <c r="E1252" s="2" t="n">
+        <v>44979</v>
+      </c>
+      <c r="F1252" t="inlineStr">
+        <is>
+          <t>GOOGLE *Domains</t>
+        </is>
+      </c>
+      <c r="G1252" t="inlineStr">
+        <is>
+          <t>Personal</t>
+        </is>
+      </c>
+      <c r="H1252" t="inlineStr">
+        <is>
+          <t>Sale</t>
+        </is>
+      </c>
+      <c r="I1252" t="n">
+        <v>-6</v>
+      </c>
+      <c r="J1252" s="2" t="n">
+        <v>44989</v>
+      </c>
+      <c r="K1252" t="inlineStr">
+        <is>
+          <t>Amazon</t>
+        </is>
+      </c>
+      <c r="L1252" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1252" t="inlineStr">
+        <is>
+          <t>Services</t>
+        </is>
+      </c>
+      <c r="N1252" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1253">
+      <c r="A1253" s="1" t="inlineStr">
+        <is>
+          <t>8d87ca6f-37f1-47f3-a97a-83b7a959341e</t>
+        </is>
+      </c>
+      <c r="B1253" s="2" t="n">
+        <v>44989</v>
+      </c>
+      <c r="C1253" s="2" t="n">
+        <v>44990</v>
+      </c>
+      <c r="D1253" s="2" t="n">
+        <v>44985</v>
+      </c>
+      <c r="E1253" s="2" t="n">
+        <v>44986</v>
+      </c>
+      <c r="F1253" t="inlineStr">
+        <is>
+          <t>THE FRISCO BAR &amp;amp; GRILL</t>
+        </is>
+      </c>
+      <c r="G1253" t="inlineStr">
+        <is>
+          <t>Food &amp; Drink</t>
+        </is>
+      </c>
+      <c r="H1253" t="inlineStr">
+        <is>
+          <t>Sale</t>
+        </is>
+      </c>
+      <c r="I1253" t="n">
+        <v>-36.88</v>
+      </c>
+      <c r="J1253" s="2" t="n">
+        <v>44989</v>
+      </c>
+      <c r="K1253" t="inlineStr">
+        <is>
+          <t>Sapphire</t>
+        </is>
+      </c>
+      <c r="L1253" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1253" t="inlineStr">
+        <is>
+          <t>Entertainment</t>
+        </is>
+      </c>
+      <c r="N1253" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1254">
+      <c r="A1254" s="1" t="inlineStr">
+        <is>
+          <t>f5e60baf-78cd-4d7e-8828-3babdc7f617f</t>
+        </is>
+      </c>
+      <c r="B1254" s="2" t="n">
+        <v>44989</v>
+      </c>
+      <c r="C1254" s="2" t="n">
+        <v>44989</v>
+      </c>
+      <c r="D1254" s="2" t="n">
+        <v>44984</v>
+      </c>
+      <c r="E1254" s="2" t="n">
+        <v>44985</v>
+      </c>
+      <c r="F1254" t="inlineStr">
+        <is>
+          <t>ANGELINAS RESTAURANT</t>
+        </is>
+      </c>
+      <c r="G1254" t="inlineStr">
+        <is>
+          <t>Food &amp; Drink</t>
+        </is>
+      </c>
+      <c r="H1254" t="inlineStr">
+        <is>
+          <t>Sale</t>
+        </is>
+      </c>
+      <c r="I1254" t="n">
+        <v>-37.92</v>
+      </c>
+      <c r="J1254" s="2" t="n">
+        <v>44989</v>
+      </c>
+      <c r="K1254" t="inlineStr">
+        <is>
+          <t>Sapphire</t>
+        </is>
+      </c>
+      <c r="L1254" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1254" t="inlineStr">
+        <is>
+          <t>Travel</t>
+        </is>
+      </c>
+      <c r="N1254" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1255">
+      <c r="A1255" s="1" t="inlineStr">
+        <is>
+          <t>026cc162-e9dc-4c81-89cd-a57b600f11a1</t>
+        </is>
+      </c>
+      <c r="B1255" s="2" t="n">
+        <v>44989</v>
+      </c>
+      <c r="C1255" s="2" t="n">
+        <v>44989</v>
+      </c>
+      <c r="D1255" s="2" t="n">
+        <v>44983</v>
+      </c>
+      <c r="E1255" s="2" t="n">
+        <v>44984</v>
+      </c>
+      <c r="F1255" t="inlineStr">
+        <is>
+          <t>SQ *UPPER LEFT ROASTERS</t>
+        </is>
+      </c>
+      <c r="G1255" t="inlineStr">
+        <is>
+          <t>Food &amp; Drink</t>
+        </is>
+      </c>
+      <c r="H1255" t="inlineStr">
+        <is>
+          <t>Sale</t>
+        </is>
+      </c>
+      <c r="I1255" t="n">
+        <v>-5.25</v>
+      </c>
+      <c r="J1255" s="2" t="n">
+        <v>44989</v>
+      </c>
+      <c r="K1255" t="inlineStr">
+        <is>
+          <t>Sapphire</t>
+        </is>
+      </c>
+      <c r="L1255" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1255" t="inlineStr">
+        <is>
+          <t>Coffee</t>
+        </is>
+      </c>
+      <c r="N1255" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1256">
+      <c r="A1256" s="1" t="inlineStr">
+        <is>
+          <t>e513dd92-7424-4a7a-868f-ea8106b5ffbc</t>
+        </is>
+      </c>
+      <c r="B1256" s="2" t="n">
+        <v>44989</v>
+      </c>
+      <c r="C1256" s="2" t="n">
+        <v>44989</v>
+      </c>
+      <c r="D1256" s="2" t="n">
+        <v>44983</v>
+      </c>
+      <c r="E1256" s="2" t="n">
+        <v>44984</v>
+      </c>
+      <c r="F1256" t="inlineStr">
+        <is>
+          <t>BAR WEST</t>
+        </is>
+      </c>
+      <c r="G1256" t="inlineStr">
+        <is>
+          <t>Food &amp; Drink</t>
+        </is>
+      </c>
+      <c r="H1256" t="inlineStr">
+        <is>
+          <t>Sale</t>
+        </is>
+      </c>
+      <c r="I1256" t="n">
+        <v>-40</v>
+      </c>
+      <c r="J1256" s="2" t="n">
+        <v>44989</v>
+      </c>
+      <c r="K1256" t="inlineStr">
+        <is>
+          <t>Sapphire</t>
+        </is>
+      </c>
+      <c r="L1256" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1256" t="inlineStr">
+        <is>
+          <t>Eating Out</t>
+        </is>
+      </c>
+      <c r="N1256" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1257">
+      <c r="A1257" s="1" t="inlineStr">
+        <is>
+          <t>02862eca-c48c-442f-a48e-0f4a573f9693</t>
+        </is>
+      </c>
+      <c r="B1257" s="2" t="n">
+        <v>44989</v>
+      </c>
+      <c r="C1257" s="2" t="n">
+        <v>44989</v>
+      </c>
+      <c r="D1257" s="2" t="n">
+        <v>44983</v>
+      </c>
+      <c r="E1257" s="2" t="n">
+        <v>44984</v>
+      </c>
+      <c r="F1257" t="inlineStr">
+        <is>
+          <t>SQ *UPPER LEFT ROASTERS</t>
+        </is>
+      </c>
+      <c r="G1257" t="inlineStr">
+        <is>
+          <t>Food &amp; Drink</t>
+        </is>
+      </c>
+      <c r="H1257" t="inlineStr">
+        <is>
+          <t>Sale</t>
+        </is>
+      </c>
+      <c r="I1257" t="n">
+        <v>-21.3</v>
+      </c>
+      <c r="J1257" s="2" t="n">
+        <v>44989</v>
+      </c>
+      <c r="K1257" t="inlineStr">
+        <is>
+          <t>Sapphire</t>
+        </is>
+      </c>
+      <c r="L1257" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1257" t="inlineStr">
+        <is>
+          <t>Coffee</t>
+        </is>
+      </c>
+      <c r="N1257" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1258">
+      <c r="A1258" s="1" t="inlineStr">
+        <is>
+          <t>c9c122bf-7090-44aa-9e46-9c4cb019fd81</t>
+        </is>
+      </c>
+      <c r="B1258" s="2" t="n">
+        <v>44989</v>
+      </c>
+      <c r="C1258" s="2" t="n">
+        <v>44989</v>
+      </c>
+      <c r="D1258" s="2" t="n">
+        <v>44982</v>
+      </c>
+      <c r="E1258" s="2" t="n">
+        <v>44984</v>
+      </c>
+      <c r="F1258" t="inlineStr">
+        <is>
+          <t>ARCO#83189GURU NANAK 13</t>
+        </is>
+      </c>
+      <c r="G1258" t="inlineStr">
+        <is>
+          <t>Gas</t>
+        </is>
+      </c>
+      <c r="H1258" t="inlineStr">
+        <is>
+          <t>Sale</t>
+        </is>
+      </c>
+      <c r="I1258" t="n">
+        <v>-42.81</v>
+      </c>
+      <c r="J1258" s="2" t="n">
+        <v>44989</v>
+      </c>
+      <c r="K1258" t="inlineStr">
+        <is>
+          <t>Sapphire</t>
+        </is>
+      </c>
+      <c r="L1258" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1258" t="inlineStr">
+        <is>
+          <t>Gasoline</t>
+        </is>
+      </c>
+      <c r="N1258" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1259">
+      <c r="A1259" s="1" t="inlineStr">
+        <is>
+          <t>4f504a92-096d-423c-ba4e-d79a1e8d83b4</t>
+        </is>
+      </c>
+      <c r="B1259" s="2" t="n">
+        <v>44989</v>
+      </c>
+      <c r="C1259" s="2" t="n">
+        <v>44989</v>
+      </c>
+      <c r="D1259" s="2" t="n">
         <v>44980</v>
       </c>
-      <c r="C1248" t="inlineStr"/>
-      <c r="D1248" s="2" t="n">
+      <c r="E1259" s="2" t="n">
+        <v>44983</v>
+      </c>
+      <c r="F1259" t="inlineStr">
+        <is>
+          <t>SAINT HONORE BOULANGERIE</t>
+        </is>
+      </c>
+      <c r="G1259" t="inlineStr">
+        <is>
+          <t>Food &amp; Drink</t>
+        </is>
+      </c>
+      <c r="H1259" t="inlineStr">
+        <is>
+          <t>Sale</t>
+        </is>
+      </c>
+      <c r="I1259" t="n">
+        <v>-12.6</v>
+      </c>
+      <c r="J1259" s="2" t="n">
+        <v>44989</v>
+      </c>
+      <c r="K1259" t="inlineStr">
+        <is>
+          <t>Sapphire</t>
+        </is>
+      </c>
+      <c r="L1259" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1259" t="inlineStr">
+        <is>
+          <t>Eating Out</t>
+        </is>
+      </c>
+      <c r="N1259" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1260">
+      <c r="A1260" s="1" t="inlineStr">
+        <is>
+          <t>dbf2acb1-e32c-4dd3-a630-7f10d91f6f15</t>
+        </is>
+      </c>
+      <c r="B1260" s="2" t="n">
+        <v>44989</v>
+      </c>
+      <c r="C1260" s="2" t="n">
+        <v>44990</v>
+      </c>
+      <c r="D1260" s="2" t="n">
+        <v>44981</v>
+      </c>
+      <c r="E1260" s="2" t="n">
+        <v>44983</v>
+      </c>
+      <c r="F1260" t="inlineStr">
+        <is>
+          <t>SQ *BARISTA</t>
+        </is>
+      </c>
+      <c r="G1260" t="inlineStr">
+        <is>
+          <t>Food &amp; Drink</t>
+        </is>
+      </c>
+      <c r="H1260" t="inlineStr">
+        <is>
+          <t>Sale</t>
+        </is>
+      </c>
+      <c r="I1260" t="n">
+        <v>-15.25</v>
+      </c>
+      <c r="J1260" s="2" t="n">
+        <v>44989</v>
+      </c>
+      <c r="K1260" t="inlineStr">
+        <is>
+          <t>Sapphire</t>
+        </is>
+      </c>
+      <c r="L1260" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1260" t="inlineStr">
+        <is>
+          <t>Coffee</t>
+        </is>
+      </c>
+      <c r="N1260" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1261">
+      <c r="A1261" s="1" t="inlineStr">
+        <is>
+          <t>d73b2b92-fde4-4a73-bd17-afa776a9e857</t>
+        </is>
+      </c>
+      <c r="B1261" s="2" t="n">
+        <v>44989</v>
+      </c>
+      <c r="C1261" s="2" t="n">
+        <v>44989</v>
+      </c>
+      <c r="D1261" s="2" t="n">
+        <v>44982</v>
+      </c>
+      <c r="E1261" s="2" t="n">
+        <v>44983</v>
+      </c>
+      <c r="F1261" t="inlineStr">
+        <is>
+          <t>SQ *BARISTA</t>
+        </is>
+      </c>
+      <c r="G1261" t="inlineStr">
+        <is>
+          <t>Food &amp; Drink</t>
+        </is>
+      </c>
+      <c r="H1261" t="inlineStr">
+        <is>
+          <t>Sale</t>
+        </is>
+      </c>
+      <c r="I1261" t="n">
+        <v>-12.9</v>
+      </c>
+      <c r="J1261" s="2" t="n">
+        <v>44989</v>
+      </c>
+      <c r="K1261" t="inlineStr">
+        <is>
+          <t>Sapphire</t>
+        </is>
+      </c>
+      <c r="L1261" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1261" t="inlineStr">
+        <is>
+          <t>Coffee</t>
+        </is>
+      </c>
+      <c r="N1261" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1262">
+      <c r="A1262" s="1" t="inlineStr">
+        <is>
+          <t>c200d297-987c-4a7c-9f11-8818bfe4c905</t>
+        </is>
+      </c>
+      <c r="B1262" s="2" t="n">
+        <v>44989</v>
+      </c>
+      <c r="C1262" s="2" t="n">
+        <v>44990</v>
+      </c>
+      <c r="D1262" s="2" t="n">
+        <v>44980</v>
+      </c>
+      <c r="E1262" s="2" t="n">
+        <v>44983</v>
+      </c>
+      <c r="F1262" t="inlineStr">
+        <is>
+          <t>TST* The Fireside</t>
+        </is>
+      </c>
+      <c r="G1262" t="inlineStr">
+        <is>
+          <t>Food &amp; Drink</t>
+        </is>
+      </c>
+      <c r="H1262" t="inlineStr">
+        <is>
+          <t>Sale</t>
+        </is>
+      </c>
+      <c r="I1262" t="n">
+        <v>-35</v>
+      </c>
+      <c r="J1262" s="2" t="n">
+        <v>44989</v>
+      </c>
+      <c r="K1262" t="inlineStr">
+        <is>
+          <t>Sapphire</t>
+        </is>
+      </c>
+      <c r="L1262" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1262" t="inlineStr">
+        <is>
+          <t>Eating Out</t>
+        </is>
+      </c>
+      <c r="N1262" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1263">
+      <c r="A1263" s="1" t="inlineStr">
+        <is>
+          <t>4162d5d9-88e3-46f2-b529-e02d2a3d8d04</t>
+        </is>
+      </c>
+      <c r="B1263" s="2" t="n">
+        <v>44989</v>
+      </c>
+      <c r="C1263" s="2" t="n">
+        <v>44989</v>
+      </c>
+      <c r="D1263" s="2" t="n">
+        <v>44980</v>
+      </c>
+      <c r="E1263" s="2" t="n">
+        <v>44981</v>
+      </c>
+      <c r="F1263" t="inlineStr">
+        <is>
+          <t>SQ *THE DRAGONFLY COFFEE</t>
+        </is>
+      </c>
+      <c r="G1263" t="inlineStr">
+        <is>
+          <t>Food &amp; Drink</t>
+        </is>
+      </c>
+      <c r="H1263" t="inlineStr">
+        <is>
+          <t>Sale</t>
+        </is>
+      </c>
+      <c r="I1263" t="n">
+        <v>-7.25</v>
+      </c>
+      <c r="J1263" s="2" t="n">
+        <v>44989</v>
+      </c>
+      <c r="K1263" t="inlineStr">
+        <is>
+          <t>Sapphire</t>
+        </is>
+      </c>
+      <c r="L1263" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1263" t="inlineStr">
+        <is>
+          <t>Coffee</t>
+        </is>
+      </c>
+      <c r="N1263" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1264">
+      <c r="A1264" s="1" t="inlineStr">
+        <is>
+          <t>01b6d919-a4e2-4e58-b0d6-417d13c79c5d</t>
+        </is>
+      </c>
+      <c r="B1264" s="2" t="n">
+        <v>44989</v>
+      </c>
+      <c r="C1264" s="2" t="n">
+        <v>44989</v>
+      </c>
+      <c r="D1264" s="2" t="n">
+        <v>44978</v>
+      </c>
+      <c r="E1264" s="2" t="n">
+        <v>44979</v>
+      </c>
+      <c r="F1264" t="inlineStr">
+        <is>
+          <t>TRADER JOE'S #146  QPS</t>
+        </is>
+      </c>
+      <c r="G1264" t="inlineStr">
+        <is>
+          <t>Groceries</t>
+        </is>
+      </c>
+      <c r="H1264" t="inlineStr">
+        <is>
+          <t>Sale</t>
+        </is>
+      </c>
+      <c r="I1264" t="n">
+        <v>-84.34999999999999</v>
+      </c>
+      <c r="J1264" s="2" t="n">
+        <v>44989</v>
+      </c>
+      <c r="K1264" t="inlineStr">
+        <is>
+          <t>Sapphire</t>
+        </is>
+      </c>
+      <c r="L1264" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1264" t="inlineStr">
+        <is>
+          <t>Groceries</t>
+        </is>
+      </c>
+      <c r="N1264" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1265">
+      <c r="A1265" s="1" t="inlineStr">
+        <is>
+          <t>c46c0b49-2fbd-4338-a299-c82e7966e8fb</t>
+        </is>
+      </c>
+      <c r="B1265" s="2" t="n">
+        <v>44989</v>
+      </c>
+      <c r="C1265" t="inlineStr"/>
+      <c r="D1265" s="2" t="n">
+        <v>44978</v>
+      </c>
+      <c r="E1265" t="inlineStr"/>
+      <c r="F1265" t="inlineStr">
+        <is>
+          <t>CHASE CREDIT CRD AUTOPAY 000000000582661</t>
+        </is>
+      </c>
+      <c r="G1265" t="inlineStr"/>
+      <c r="H1265" t="inlineStr"/>
+      <c r="I1265" t="n">
+        <v>-1074.39</v>
+      </c>
+      <c r="J1265" s="2" t="n">
+        <v>44989</v>
+      </c>
+      <c r="K1265" t="inlineStr">
+        <is>
+          <t>Mechanics</t>
+        </is>
+      </c>
+      <c r="L1265" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1265" t="inlineStr"/>
+      <c r="N1265" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1266">
+      <c r="A1266" s="1" t="inlineStr">
+        <is>
+          <t>5c206ce6-cbd3-45fb-ac3c-c67331ce3292</t>
+        </is>
+      </c>
+      <c r="B1266" s="2" t="n">
+        <v>44989</v>
+      </c>
+      <c r="C1266" s="2" t="n">
+        <v>44989</v>
+      </c>
+      <c r="D1266" s="2" t="n">
         <v>44974</v>
       </c>
-      <c r="E1248" t="inlineStr"/>
-      <c r="F1248" t="inlineStr">
+      <c r="E1266" t="inlineStr"/>
+      <c r="F1266" t="inlineStr">
         <is>
           <t>TOYOTA MOTOR SAL PAYROLL 568349-TLS</t>
         </is>
       </c>
-      <c r="G1248" t="inlineStr"/>
-      <c r="H1248" t="inlineStr"/>
-      <c r="I1248" t="n">
+      <c r="G1266" t="inlineStr"/>
+      <c r="H1266" t="inlineStr"/>
+      <c r="I1266" t="n">
         <v>1830.19</v>
       </c>
-      <c r="J1248" s="2" t="n">
-        <v>44980</v>
-      </c>
-      <c r="K1248" t="inlineStr">
+      <c r="J1266" s="2" t="n">
+        <v>44989</v>
+      </c>
+      <c r="K1266" t="inlineStr">
         <is>
           <t>Mechanics</t>
         </is>
       </c>
-      <c r="L1248" t="n">
-        <v>0</v>
-      </c>
-      <c r="M1248" t="inlineStr"/>
-      <c r="N1248" t="n">
+      <c r="L1266" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1266" t="inlineStr">
+        <is>
+          <t>Income</t>
+        </is>
+      </c>
+      <c r="N1266" t="n">
         <v>0</v>
       </c>
     </row>

--- a/datasets/transactions.xlsx
+++ b/datasets/transactions.xlsx
@@ -430,7 +430,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N1266"/>
+  <dimension ref="A1:N1300"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -67617,6 +67617,1858 @@
         </is>
       </c>
       <c r="N1266" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1267">
+      <c r="A1267" s="1" t="inlineStr">
+        <is>
+          <t>e9a67126-c952-4500-84a0-f0fae8e334fc</t>
+        </is>
+      </c>
+      <c r="B1267" s="2" t="n">
+        <v>44996</v>
+      </c>
+      <c r="C1267" s="2" t="n">
+        <v>44996</v>
+      </c>
+      <c r="D1267" s="2" t="n">
+        <v>44991</v>
+      </c>
+      <c r="E1267" s="2" t="n">
+        <v>44992</v>
+      </c>
+      <c r="F1267" t="inlineStr">
+        <is>
+          <t>Steam Purchase</t>
+        </is>
+      </c>
+      <c r="G1267" t="inlineStr">
+        <is>
+          <t>Entertainment</t>
+        </is>
+      </c>
+      <c r="H1267" t="inlineStr">
+        <is>
+          <t>Sale</t>
+        </is>
+      </c>
+      <c r="I1267" t="n">
+        <v>-5.99</v>
+      </c>
+      <c r="J1267" s="2" t="n">
+        <v>44996</v>
+      </c>
+      <c r="K1267" t="inlineStr">
+        <is>
+          <t>Amazon</t>
+        </is>
+      </c>
+      <c r="L1267" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1267" t="inlineStr">
+        <is>
+          <t>Entertainment</t>
+        </is>
+      </c>
+      <c r="N1267" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1268">
+      <c r="A1268" s="1" t="inlineStr">
+        <is>
+          <t>4c0cd73a-51b8-4c30-b6e4-793dad4d28d0</t>
+        </is>
+      </c>
+      <c r="B1268" s="2" t="n">
+        <v>44996</v>
+      </c>
+      <c r="C1268" s="2" t="n">
+        <v>44996</v>
+      </c>
+      <c r="D1268" s="2" t="n">
+        <v>44991</v>
+      </c>
+      <c r="E1268" s="2" t="n">
+        <v>44992</v>
+      </c>
+      <c r="F1268" t="inlineStr">
+        <is>
+          <t>PORTLAND GENERAL ELECTRIC</t>
+        </is>
+      </c>
+      <c r="G1268" t="inlineStr">
+        <is>
+          <t>Bills &amp; Utilities</t>
+        </is>
+      </c>
+      <c r="H1268" t="inlineStr">
+        <is>
+          <t>Sale</t>
+        </is>
+      </c>
+      <c r="I1268" t="n">
+        <v>-48.81</v>
+      </c>
+      <c r="J1268" s="2" t="n">
+        <v>44996</v>
+      </c>
+      <c r="K1268" t="inlineStr">
+        <is>
+          <t>Amazon</t>
+        </is>
+      </c>
+      <c r="L1268" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1268" t="inlineStr">
+        <is>
+          <t>Utilities</t>
+        </is>
+      </c>
+      <c r="N1268" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1269">
+      <c r="A1269" s="1" t="inlineStr">
+        <is>
+          <t>b498dddb-f4b0-4cd3-88ab-f1a899817d7a</t>
+        </is>
+      </c>
+      <c r="B1269" s="2" t="n">
+        <v>44996</v>
+      </c>
+      <c r="C1269" s="2" t="n">
+        <v>44996</v>
+      </c>
+      <c r="D1269" s="2" t="n">
+        <v>44990</v>
+      </c>
+      <c r="E1269" s="2" t="n">
+        <v>44991</v>
+      </c>
+      <c r="F1269" t="inlineStr">
+        <is>
+          <t>ASTRO 206</t>
+        </is>
+      </c>
+      <c r="G1269" t="inlineStr">
+        <is>
+          <t>Gas</t>
+        </is>
+      </c>
+      <c r="H1269" t="inlineStr">
+        <is>
+          <t>Sale</t>
+        </is>
+      </c>
+      <c r="I1269" t="n">
+        <v>-41.99</v>
+      </c>
+      <c r="J1269" s="2" t="n">
+        <v>44996</v>
+      </c>
+      <c r="K1269" t="inlineStr">
+        <is>
+          <t>Amazon</t>
+        </is>
+      </c>
+      <c r="L1269" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1269" t="inlineStr">
+        <is>
+          <t>Gasoline</t>
+        </is>
+      </c>
+      <c r="N1269" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1270">
+      <c r="A1270" s="1" t="inlineStr">
+        <is>
+          <t>f68bc7b1-3ea5-40c2-8e53-6448f88aa0ea</t>
+        </is>
+      </c>
+      <c r="B1270" s="2" t="n">
+        <v>44996</v>
+      </c>
+      <c r="C1270" s="2" t="n">
+        <v>44996</v>
+      </c>
+      <c r="D1270" s="2" t="n">
+        <v>44988</v>
+      </c>
+      <c r="E1270" s="2" t="n">
+        <v>44990</v>
+      </c>
+      <c r="F1270" t="inlineStr">
+        <is>
+          <t>1PASSWORD</t>
+        </is>
+      </c>
+      <c r="G1270" t="inlineStr">
+        <is>
+          <t>Shopping</t>
+        </is>
+      </c>
+      <c r="H1270" t="inlineStr">
+        <is>
+          <t>Sale</t>
+        </is>
+      </c>
+      <c r="I1270" t="n">
+        <v>-3.99</v>
+      </c>
+      <c r="J1270" s="2" t="n">
+        <v>44996</v>
+      </c>
+      <c r="K1270" t="inlineStr">
+        <is>
+          <t>Amazon</t>
+        </is>
+      </c>
+      <c r="L1270" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1270" t="inlineStr">
+        <is>
+          <t>Services</t>
+        </is>
+      </c>
+      <c r="N1270" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1271">
+      <c r="A1271" s="1" t="inlineStr">
+        <is>
+          <t>9c637c8a-4d0c-424c-a87c-4cbd1fe62cb7</t>
+        </is>
+      </c>
+      <c r="B1271" s="2" t="n">
+        <v>44996</v>
+      </c>
+      <c r="C1271" s="2" t="n">
+        <v>44996</v>
+      </c>
+      <c r="D1271" s="2" t="n">
+        <v>44990</v>
+      </c>
+      <c r="E1271" s="2" t="n">
+        <v>44990</v>
+      </c>
+      <c r="F1271" t="inlineStr">
+        <is>
+          <t>STEAMGAMES.COM 4259522985</t>
+        </is>
+      </c>
+      <c r="G1271" t="inlineStr">
+        <is>
+          <t>Entertainment</t>
+        </is>
+      </c>
+      <c r="H1271" t="inlineStr">
+        <is>
+          <t>Sale</t>
+        </is>
+      </c>
+      <c r="I1271" t="n">
+        <v>-23.99</v>
+      </c>
+      <c r="J1271" s="2" t="n">
+        <v>44996</v>
+      </c>
+      <c r="K1271" t="inlineStr">
+        <is>
+          <t>Amazon</t>
+        </is>
+      </c>
+      <c r="L1271" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1271" t="inlineStr">
+        <is>
+          <t>Entertainment</t>
+        </is>
+      </c>
+      <c r="N1271" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1272">
+      <c r="A1272" s="1" t="inlineStr">
+        <is>
+          <t>ef7d3b2c-f755-45c3-b3e5-2061b3445490</t>
+        </is>
+      </c>
+      <c r="B1272" s="2" t="n">
+        <v>44996</v>
+      </c>
+      <c r="C1272" s="2" t="n">
+        <v>44996</v>
+      </c>
+      <c r="D1272" s="2" t="n">
+        <v>44989</v>
+      </c>
+      <c r="E1272" s="2" t="n">
+        <v>44990</v>
+      </c>
+      <c r="F1272" t="inlineStr">
+        <is>
+          <t>WARBY PARKER</t>
+        </is>
+      </c>
+      <c r="G1272" t="inlineStr">
+        <is>
+          <t>Health &amp; Wellness</t>
+        </is>
+      </c>
+      <c r="H1272" t="inlineStr">
+        <is>
+          <t>Sale</t>
+        </is>
+      </c>
+      <c r="I1272" t="n">
+        <v>-195</v>
+      </c>
+      <c r="J1272" s="2" t="n">
+        <v>44996</v>
+      </c>
+      <c r="K1272" t="inlineStr">
+        <is>
+          <t>Amazon</t>
+        </is>
+      </c>
+      <c r="L1272" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1272" t="inlineStr">
+        <is>
+          <t>Heathcare</t>
+        </is>
+      </c>
+      <c r="N1272" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1273">
+      <c r="A1273" s="1" t="inlineStr">
+        <is>
+          <t>7ffb5cdb-009c-43a1-b446-da381206c324</t>
+        </is>
+      </c>
+      <c r="B1273" s="2" t="n">
+        <v>44996</v>
+      </c>
+      <c r="C1273" s="2" t="n">
+        <v>44996</v>
+      </c>
+      <c r="D1273" s="2" t="n">
+        <v>44988</v>
+      </c>
+      <c r="E1273" s="2" t="n">
+        <v>44990</v>
+      </c>
+      <c r="F1273" t="inlineStr">
+        <is>
+          <t>FAIRFIELD INN AND SUIT</t>
+        </is>
+      </c>
+      <c r="G1273" t="inlineStr">
+        <is>
+          <t>Travel</t>
+        </is>
+      </c>
+      <c r="H1273" t="inlineStr">
+        <is>
+          <t>Sale</t>
+        </is>
+      </c>
+      <c r="I1273" t="n">
+        <v>-393.24</v>
+      </c>
+      <c r="J1273" s="2" t="n">
+        <v>44996</v>
+      </c>
+      <c r="K1273" t="inlineStr">
+        <is>
+          <t>Amazon</t>
+        </is>
+      </c>
+      <c r="L1273" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1273" t="inlineStr">
+        <is>
+          <t>Travel</t>
+        </is>
+      </c>
+      <c r="N1273" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1274">
+      <c r="A1274" s="1" t="inlineStr">
+        <is>
+          <t>3ce96e40-4f57-42a3-bba5-46c17f721e54</t>
+        </is>
+      </c>
+      <c r="B1274" s="2" t="n">
+        <v>44996</v>
+      </c>
+      <c r="C1274" s="2" t="n">
+        <v>44996</v>
+      </c>
+      <c r="D1274" s="2" t="n">
+        <v>44989</v>
+      </c>
+      <c r="E1274" s="2" t="n">
+        <v>44990</v>
+      </c>
+      <c r="F1274" t="inlineStr">
+        <is>
+          <t>Microsoft*Subscription</t>
+        </is>
+      </c>
+      <c r="G1274" t="inlineStr">
+        <is>
+          <t>Shopping</t>
+        </is>
+      </c>
+      <c r="H1274" t="inlineStr">
+        <is>
+          <t>Sale</t>
+        </is>
+      </c>
+      <c r="I1274" t="n">
+        <v>-1.99</v>
+      </c>
+      <c r="J1274" s="2" t="n">
+        <v>44996</v>
+      </c>
+      <c r="K1274" t="inlineStr">
+        <is>
+          <t>Amazon</t>
+        </is>
+      </c>
+      <c r="L1274" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1274" t="inlineStr">
+        <is>
+          <t>Services</t>
+        </is>
+      </c>
+      <c r="N1274" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1275">
+      <c r="A1275" s="1" t="inlineStr">
+        <is>
+          <t>20582c39-6ad9-4e7e-ab98-ac1b3074ef5c</t>
+        </is>
+      </c>
+      <c r="B1275" s="2" t="n">
+        <v>44996</v>
+      </c>
+      <c r="C1275" s="2" t="n">
+        <v>44996</v>
+      </c>
+      <c r="D1275" s="2" t="n">
+        <v>44987</v>
+      </c>
+      <c r="E1275" s="2" t="n">
+        <v>44988</v>
+      </c>
+      <c r="F1275" t="inlineStr">
+        <is>
+          <t>DFW AIRPORT PARKING</t>
+        </is>
+      </c>
+      <c r="G1275" t="inlineStr">
+        <is>
+          <t>Travel</t>
+        </is>
+      </c>
+      <c r="H1275" t="inlineStr">
+        <is>
+          <t>Sale</t>
+        </is>
+      </c>
+      <c r="I1275" t="n">
+        <v>-2</v>
+      </c>
+      <c r="J1275" s="2" t="n">
+        <v>44996</v>
+      </c>
+      <c r="K1275" t="inlineStr">
+        <is>
+          <t>Amazon</t>
+        </is>
+      </c>
+      <c r="L1275" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1275" t="inlineStr">
+        <is>
+          <t>Travel</t>
+        </is>
+      </c>
+      <c r="N1275" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1276">
+      <c r="A1276" s="1" t="inlineStr">
+        <is>
+          <t>2819890c-00dd-4c08-9301-db8936d34e39</t>
+        </is>
+      </c>
+      <c r="B1276" s="2" t="n">
+        <v>44996</v>
+      </c>
+      <c r="C1276" s="2" t="n">
+        <v>44996</v>
+      </c>
+      <c r="D1276" s="2" t="n">
+        <v>44987</v>
+      </c>
+      <c r="E1276" s="2" t="n">
+        <v>44988</v>
+      </c>
+      <c r="F1276" t="inlineStr">
+        <is>
+          <t>AVIS RENT-A-CAR</t>
+        </is>
+      </c>
+      <c r="G1276" t="inlineStr">
+        <is>
+          <t>Travel</t>
+        </is>
+      </c>
+      <c r="H1276" t="inlineStr">
+        <is>
+          <t>Sale</t>
+        </is>
+      </c>
+      <c r="I1276" t="n">
+        <v>-214.35</v>
+      </c>
+      <c r="J1276" s="2" t="n">
+        <v>44996</v>
+      </c>
+      <c r="K1276" t="inlineStr">
+        <is>
+          <t>Amazon</t>
+        </is>
+      </c>
+      <c r="L1276" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1276" t="inlineStr">
+        <is>
+          <t>Travel</t>
+        </is>
+      </c>
+      <c r="N1276" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1277">
+      <c r="A1277" s="1" t="inlineStr">
+        <is>
+          <t>dd994141-8bec-4733-89e9-262d8fcd5595</t>
+        </is>
+      </c>
+      <c r="B1277" s="2" t="n">
+        <v>44996</v>
+      </c>
+      <c r="C1277" s="2" t="n">
+        <v>44996</v>
+      </c>
+      <c r="D1277" s="2" t="n">
+        <v>44987</v>
+      </c>
+      <c r="E1277" s="2" t="n">
+        <v>44988</v>
+      </c>
+      <c r="F1277" t="inlineStr">
+        <is>
+          <t>PDX AIRPORT PARKING</t>
+        </is>
+      </c>
+      <c r="G1277" t="inlineStr">
+        <is>
+          <t>Travel</t>
+        </is>
+      </c>
+      <c r="H1277" t="inlineStr">
+        <is>
+          <t>Sale</t>
+        </is>
+      </c>
+      <c r="I1277" t="n">
+        <v>-120</v>
+      </c>
+      <c r="J1277" s="2" t="n">
+        <v>44996</v>
+      </c>
+      <c r="K1277" t="inlineStr">
+        <is>
+          <t>Amazon</t>
+        </is>
+      </c>
+      <c r="L1277" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1277" t="inlineStr">
+        <is>
+          <t>Travel</t>
+        </is>
+      </c>
+      <c r="N1277" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1278">
+      <c r="A1278" s="1" t="inlineStr">
+        <is>
+          <t>485fc33c-1c78-470f-8ebe-55eaf3a65d70</t>
+        </is>
+      </c>
+      <c r="B1278" s="2" t="n">
+        <v>44996</v>
+      </c>
+      <c r="C1278" s="2" t="n">
+        <v>44996</v>
+      </c>
+      <c r="D1278" s="2" t="n">
+        <v>44986</v>
+      </c>
+      <c r="E1278" s="2" t="n">
+        <v>44987</v>
+      </c>
+      <c r="F1278" t="inlineStr">
+        <is>
+          <t>UBER   TRIP</t>
+        </is>
+      </c>
+      <c r="G1278" t="inlineStr">
+        <is>
+          <t>Travel</t>
+        </is>
+      </c>
+      <c r="H1278" t="inlineStr">
+        <is>
+          <t>Sale</t>
+        </is>
+      </c>
+      <c r="I1278" t="n">
+        <v>-11.97</v>
+      </c>
+      <c r="J1278" s="2" t="n">
+        <v>44996</v>
+      </c>
+      <c r="K1278" t="inlineStr">
+        <is>
+          <t>Amazon</t>
+        </is>
+      </c>
+      <c r="L1278" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1278" t="inlineStr">
+        <is>
+          <t>Travel</t>
+        </is>
+      </c>
+      <c r="N1278" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1279">
+      <c r="A1279" s="1" t="inlineStr">
+        <is>
+          <t>13b65cfa-58ef-48ec-946b-cb0a56625f7c</t>
+        </is>
+      </c>
+      <c r="B1279" s="2" t="n">
+        <v>44996</v>
+      </c>
+      <c r="C1279" s="2" t="n">
+        <v>44996</v>
+      </c>
+      <c r="D1279" s="2" t="n">
+        <v>44986</v>
+      </c>
+      <c r="E1279" s="2" t="n">
+        <v>44987</v>
+      </c>
+      <c r="F1279" t="inlineStr">
+        <is>
+          <t>GOOGLE *CLOUD SZT72V</t>
+        </is>
+      </c>
+      <c r="G1279" t="inlineStr">
+        <is>
+          <t>Professional Services</t>
+        </is>
+      </c>
+      <c r="H1279" t="inlineStr">
+        <is>
+          <t>Sale</t>
+        </is>
+      </c>
+      <c r="I1279" t="n">
+        <v>-0.12</v>
+      </c>
+      <c r="J1279" s="2" t="n">
+        <v>44996</v>
+      </c>
+      <c r="K1279" t="inlineStr">
+        <is>
+          <t>Amazon</t>
+        </is>
+      </c>
+      <c r="L1279" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1279" t="inlineStr">
+        <is>
+          <t>Services</t>
+        </is>
+      </c>
+      <c r="N1279" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1280">
+      <c r="A1280" s="1" t="inlineStr">
+        <is>
+          <t>5c58e7ba-8f0a-4f68-bdc6-d26c9afbcc6e</t>
+        </is>
+      </c>
+      <c r="B1280" s="2" t="n">
+        <v>44996</v>
+      </c>
+      <c r="C1280" s="2" t="n">
+        <v>44996</v>
+      </c>
+      <c r="D1280" s="2" t="n">
+        <v>44986</v>
+      </c>
+      <c r="E1280" s="2" t="n">
+        <v>44987</v>
+      </c>
+      <c r="F1280" t="inlineStr">
+        <is>
+          <t>UBER   TRIP</t>
+        </is>
+      </c>
+      <c r="G1280" t="inlineStr">
+        <is>
+          <t>Travel</t>
+        </is>
+      </c>
+      <c r="H1280" t="inlineStr">
+        <is>
+          <t>Sale</t>
+        </is>
+      </c>
+      <c r="I1280" t="n">
+        <v>-9.99</v>
+      </c>
+      <c r="J1280" s="2" t="n">
+        <v>44996</v>
+      </c>
+      <c r="K1280" t="inlineStr">
+        <is>
+          <t>Amazon</t>
+        </is>
+      </c>
+      <c r="L1280" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1280" t="inlineStr">
+        <is>
+          <t>Travel</t>
+        </is>
+      </c>
+      <c r="N1280" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1281">
+      <c r="A1281" s="1" t="inlineStr">
+        <is>
+          <t>85a577fa-83c4-4ee4-86da-4821ab11c70e</t>
+        </is>
+      </c>
+      <c r="B1281" s="2" t="n">
+        <v>44996</v>
+      </c>
+      <c r="C1281" s="2" t="n">
+        <v>44996</v>
+      </c>
+      <c r="D1281" s="2" t="n">
+        <v>44991</v>
+      </c>
+      <c r="E1281" s="2" t="n">
+        <v>44992</v>
+      </c>
+      <c r="F1281" t="inlineStr">
+        <is>
+          <t>TRADER JOE'S #146  QPS</t>
+        </is>
+      </c>
+      <c r="G1281" t="inlineStr">
+        <is>
+          <t>Groceries</t>
+        </is>
+      </c>
+      <c r="H1281" t="inlineStr">
+        <is>
+          <t>Sale</t>
+        </is>
+      </c>
+      <c r="I1281" t="n">
+        <v>-85.52</v>
+      </c>
+      <c r="J1281" s="2" t="n">
+        <v>44996</v>
+      </c>
+      <c r="K1281" t="inlineStr">
+        <is>
+          <t>Sapphire</t>
+        </is>
+      </c>
+      <c r="L1281" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1281" t="inlineStr">
+        <is>
+          <t>Groceries</t>
+        </is>
+      </c>
+      <c r="N1281" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1282">
+      <c r="A1282" s="1" t="inlineStr">
+        <is>
+          <t>23b4733b-e2ff-44e1-ba01-8aa3c8f9ecb2</t>
+        </is>
+      </c>
+      <c r="B1282" s="2" t="n">
+        <v>44996</v>
+      </c>
+      <c r="C1282" s="2" t="n">
+        <v>44996</v>
+      </c>
+      <c r="D1282" s="2" t="n">
+        <v>44990</v>
+      </c>
+      <c r="E1282" s="2" t="n">
+        <v>44991</v>
+      </c>
+      <c r="F1282" t="inlineStr">
+        <is>
+          <t>SIDE STREET TAVERN</t>
+        </is>
+      </c>
+      <c r="G1282" t="inlineStr">
+        <is>
+          <t>Food &amp; Drink</t>
+        </is>
+      </c>
+      <c r="H1282" t="inlineStr">
+        <is>
+          <t>Sale</t>
+        </is>
+      </c>
+      <c r="I1282" t="n">
+        <v>-36</v>
+      </c>
+      <c r="J1282" s="2" t="n">
+        <v>44996</v>
+      </c>
+      <c r="K1282" t="inlineStr">
+        <is>
+          <t>Sapphire</t>
+        </is>
+      </c>
+      <c r="L1282" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1282" t="inlineStr">
+        <is>
+          <t>Entertainment</t>
+        </is>
+      </c>
+      <c r="N1282" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1283">
+      <c r="A1283" s="1" t="inlineStr">
+        <is>
+          <t>bd154dfa-61f0-4320-89c1-5c85fd80c45d</t>
+        </is>
+      </c>
+      <c r="B1283" s="2" t="n">
+        <v>44996</v>
+      </c>
+      <c r="C1283" s="2" t="n">
+        <v>44996</v>
+      </c>
+      <c r="D1283" s="2" t="n">
+        <v>44989</v>
+      </c>
+      <c r="E1283" s="2" t="n">
+        <v>44991</v>
+      </c>
+      <c r="F1283" t="inlineStr">
+        <is>
+          <t>THE BELMONT INN</t>
+        </is>
+      </c>
+      <c r="G1283" t="inlineStr">
+        <is>
+          <t>Food &amp; Drink</t>
+        </is>
+      </c>
+      <c r="H1283" t="inlineStr">
+        <is>
+          <t>Sale</t>
+        </is>
+      </c>
+      <c r="I1283" t="n">
+        <v>-44.25</v>
+      </c>
+      <c r="J1283" s="2" t="n">
+        <v>44996</v>
+      </c>
+      <c r="K1283" t="inlineStr">
+        <is>
+          <t>Sapphire</t>
+        </is>
+      </c>
+      <c r="L1283" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1283" t="inlineStr">
+        <is>
+          <t>Entertainment</t>
+        </is>
+      </c>
+      <c r="N1283" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1284">
+      <c r="A1284" s="1" t="inlineStr">
+        <is>
+          <t>64c462c2-d7e1-4869-8f69-9aeed1e59777</t>
+        </is>
+      </c>
+      <c r="B1284" s="2" t="n">
+        <v>44996</v>
+      </c>
+      <c r="C1284" s="2" t="n">
+        <v>44996</v>
+      </c>
+      <c r="D1284" s="2" t="n">
+        <v>44990</v>
+      </c>
+      <c r="E1284" s="2" t="n">
+        <v>44991</v>
+      </c>
+      <c r="F1284" t="inlineStr">
+        <is>
+          <t>SQ *BARISTA</t>
+        </is>
+      </c>
+      <c r="G1284" t="inlineStr">
+        <is>
+          <t>Food &amp; Drink</t>
+        </is>
+      </c>
+      <c r="H1284" t="inlineStr">
+        <is>
+          <t>Sale</t>
+        </is>
+      </c>
+      <c r="I1284" t="n">
+        <v>-16.39</v>
+      </c>
+      <c r="J1284" s="2" t="n">
+        <v>44996</v>
+      </c>
+      <c r="K1284" t="inlineStr">
+        <is>
+          <t>Sapphire</t>
+        </is>
+      </c>
+      <c r="L1284" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1284" t="inlineStr">
+        <is>
+          <t>Coffee</t>
+        </is>
+      </c>
+      <c r="N1284" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1285">
+      <c r="A1285" s="1" t="inlineStr">
+        <is>
+          <t>9bac04c1-1068-406e-be41-e52b0b7b51a2</t>
+        </is>
+      </c>
+      <c r="B1285" s="2" t="n">
+        <v>44996</v>
+      </c>
+      <c r="C1285" s="2" t="n">
+        <v>44996</v>
+      </c>
+      <c r="D1285" s="2" t="n">
+        <v>44989</v>
+      </c>
+      <c r="E1285" s="2" t="n">
+        <v>44990</v>
+      </c>
+      <c r="F1285" t="inlineStr">
+        <is>
+          <t>SQ *BARISTA</t>
+        </is>
+      </c>
+      <c r="G1285" t="inlineStr">
+        <is>
+          <t>Food &amp; Drink</t>
+        </is>
+      </c>
+      <c r="H1285" t="inlineStr">
+        <is>
+          <t>Sale</t>
+        </is>
+      </c>
+      <c r="I1285" t="n">
+        <v>-4.5</v>
+      </c>
+      <c r="J1285" s="2" t="n">
+        <v>44996</v>
+      </c>
+      <c r="K1285" t="inlineStr">
+        <is>
+          <t>Sapphire</t>
+        </is>
+      </c>
+      <c r="L1285" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1285" t="inlineStr">
+        <is>
+          <t>Coffee</t>
+        </is>
+      </c>
+      <c r="N1285" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1286">
+      <c r="A1286" s="1" t="inlineStr">
+        <is>
+          <t>db7a7776-6f95-464f-885c-6db6d1e69c81</t>
+        </is>
+      </c>
+      <c r="B1286" s="2" t="n">
+        <v>44996</v>
+      </c>
+      <c r="C1286" s="2" t="n">
+        <v>44996</v>
+      </c>
+      <c r="D1286" s="2" t="n">
+        <v>44987</v>
+      </c>
+      <c r="E1286" s="2" t="n">
+        <v>44990</v>
+      </c>
+      <c r="F1286" t="inlineStr">
+        <is>
+          <t>DFW EINSTEINBROS BAGEL</t>
+        </is>
+      </c>
+      <c r="G1286" t="inlineStr">
+        <is>
+          <t>Food &amp; Drink</t>
+        </is>
+      </c>
+      <c r="H1286" t="inlineStr">
+        <is>
+          <t>Sale</t>
+        </is>
+      </c>
+      <c r="I1286" t="n">
+        <v>-9.48</v>
+      </c>
+      <c r="J1286" s="2" t="n">
+        <v>44996</v>
+      </c>
+      <c r="K1286" t="inlineStr">
+        <is>
+          <t>Sapphire</t>
+        </is>
+      </c>
+      <c r="L1286" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1286" t="inlineStr">
+        <is>
+          <t>Travel</t>
+        </is>
+      </c>
+      <c r="N1286" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1287">
+      <c r="A1287" s="1" t="inlineStr">
+        <is>
+          <t>6ff39ccd-caba-4525-82fc-a80fa80edbfc</t>
+        </is>
+      </c>
+      <c r="B1287" s="2" t="n">
+        <v>44996</v>
+      </c>
+      <c r="C1287" s="2" t="n">
+        <v>44996</v>
+      </c>
+      <c r="D1287" s="2" t="n">
+        <v>44989</v>
+      </c>
+      <c r="E1287" s="2" t="n">
+        <v>44990</v>
+      </c>
+      <c r="F1287" t="inlineStr">
+        <is>
+          <t>SQ *BARISTA</t>
+        </is>
+      </c>
+      <c r="G1287" t="inlineStr">
+        <is>
+          <t>Food &amp; Drink</t>
+        </is>
+      </c>
+      <c r="H1287" t="inlineStr">
+        <is>
+          <t>Sale</t>
+        </is>
+      </c>
+      <c r="I1287" t="n">
+        <v>-16.39</v>
+      </c>
+      <c r="J1287" s="2" t="n">
+        <v>44996</v>
+      </c>
+      <c r="K1287" t="inlineStr">
+        <is>
+          <t>Sapphire</t>
+        </is>
+      </c>
+      <c r="L1287" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1287" t="inlineStr">
+        <is>
+          <t>Coffee</t>
+        </is>
+      </c>
+      <c r="N1287" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1288">
+      <c r="A1288" s="1" t="inlineStr">
+        <is>
+          <t>8e9d695f-6d6d-45b0-8255-0a7ca0af91d3</t>
+        </is>
+      </c>
+      <c r="B1288" s="2" t="n">
+        <v>44996</v>
+      </c>
+      <c r="C1288" s="2" t="n">
+        <v>44996</v>
+      </c>
+      <c r="D1288" s="2" t="n">
+        <v>44987</v>
+      </c>
+      <c r="E1288" s="2" t="n">
+        <v>44988</v>
+      </c>
+      <c r="F1288" t="inlineStr">
+        <is>
+          <t>TST* Pizza Thief</t>
+        </is>
+      </c>
+      <c r="G1288" t="inlineStr">
+        <is>
+          <t>Food &amp; Drink</t>
+        </is>
+      </c>
+      <c r="H1288" t="inlineStr">
+        <is>
+          <t>Sale</t>
+        </is>
+      </c>
+      <c r="I1288" t="n">
+        <v>-33</v>
+      </c>
+      <c r="J1288" s="2" t="n">
+        <v>44996</v>
+      </c>
+      <c r="K1288" t="inlineStr">
+        <is>
+          <t>Sapphire</t>
+        </is>
+      </c>
+      <c r="L1288" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1288" t="inlineStr">
+        <is>
+          <t>Eating Out</t>
+        </is>
+      </c>
+      <c r="N1288" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1289">
+      <c r="A1289" s="1" t="inlineStr">
+        <is>
+          <t>27257308-4331-4e2f-a0f3-5a6d897b8cbc</t>
+        </is>
+      </c>
+      <c r="B1289" s="2" t="n">
+        <v>44996</v>
+      </c>
+      <c r="C1289" s="2" t="n">
+        <v>44996</v>
+      </c>
+      <c r="D1289" s="2" t="n">
+        <v>44986</v>
+      </c>
+      <c r="E1289" s="2" t="n">
+        <v>44988</v>
+      </c>
+      <c r="F1289" t="inlineStr">
+        <is>
+          <t>CIRCLE K #2741565</t>
+        </is>
+      </c>
+      <c r="G1289" t="inlineStr">
+        <is>
+          <t>Gas</t>
+        </is>
+      </c>
+      <c r="H1289" t="inlineStr">
+        <is>
+          <t>Sale</t>
+        </is>
+      </c>
+      <c r="I1289" t="n">
+        <v>-4.32</v>
+      </c>
+      <c r="J1289" s="2" t="n">
+        <v>44996</v>
+      </c>
+      <c r="K1289" t="inlineStr">
+        <is>
+          <t>Sapphire</t>
+        </is>
+      </c>
+      <c r="L1289" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1289" t="inlineStr">
+        <is>
+          <t>Travel</t>
+        </is>
+      </c>
+      <c r="N1289" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1290">
+      <c r="A1290" s="1" t="inlineStr">
+        <is>
+          <t>586f714f-483f-4fa3-858c-046c90fe2a83</t>
+        </is>
+      </c>
+      <c r="B1290" s="2" t="n">
+        <v>44996</v>
+      </c>
+      <c r="C1290" s="2" t="n">
+        <v>44996</v>
+      </c>
+      <c r="D1290" s="2" t="n">
+        <v>44987</v>
+      </c>
+      <c r="E1290" s="2" t="n">
+        <v>44988</v>
+      </c>
+      <c r="F1290" t="inlineStr">
+        <is>
+          <t>TST* Pizza Thief</t>
+        </is>
+      </c>
+      <c r="G1290" t="inlineStr">
+        <is>
+          <t>Food &amp; Drink</t>
+        </is>
+      </c>
+      <c r="H1290" t="inlineStr">
+        <is>
+          <t>Sale</t>
+        </is>
+      </c>
+      <c r="I1290" t="n">
+        <v>-7</v>
+      </c>
+      <c r="J1290" s="2" t="n">
+        <v>44996</v>
+      </c>
+      <c r="K1290" t="inlineStr">
+        <is>
+          <t>Sapphire</t>
+        </is>
+      </c>
+      <c r="L1290" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1290" t="inlineStr">
+        <is>
+          <t>Eating Out</t>
+        </is>
+      </c>
+      <c r="N1290" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1291">
+      <c r="A1291" s="1" t="inlineStr">
+        <is>
+          <t>a19632b6-9b6d-47d3-aea3-6351684a0533</t>
+        </is>
+      </c>
+      <c r="B1291" s="2" t="n">
+        <v>44996</v>
+      </c>
+      <c r="C1291" s="2" t="n">
+        <v>44996</v>
+      </c>
+      <c r="D1291" s="2" t="n">
+        <v>44987</v>
+      </c>
+      <c r="E1291" s="2" t="n">
+        <v>44988</v>
+      </c>
+      <c r="F1291" t="inlineStr">
+        <is>
+          <t>TST* Pizza Thief</t>
+        </is>
+      </c>
+      <c r="G1291" t="inlineStr">
+        <is>
+          <t>Food &amp; Drink</t>
+        </is>
+      </c>
+      <c r="H1291" t="inlineStr">
+        <is>
+          <t>Sale</t>
+        </is>
+      </c>
+      <c r="I1291" t="n">
+        <v>-7</v>
+      </c>
+      <c r="J1291" s="2" t="n">
+        <v>44996</v>
+      </c>
+      <c r="K1291" t="inlineStr">
+        <is>
+          <t>Sapphire</t>
+        </is>
+      </c>
+      <c r="L1291" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1291" t="inlineStr">
+        <is>
+          <t>Eating Out</t>
+        </is>
+      </c>
+      <c r="N1291" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1292">
+      <c r="A1292" s="1" t="inlineStr">
+        <is>
+          <t>204095a5-c056-42bc-8ca3-c678dbc5788e</t>
+        </is>
+      </c>
+      <c r="B1292" s="2" t="n">
+        <v>44996</v>
+      </c>
+      <c r="C1292" s="2" t="n">
+        <v>44996</v>
+      </c>
+      <c r="D1292" s="2" t="n">
+        <v>44986</v>
+      </c>
+      <c r="E1292" s="2" t="n">
+        <v>44988</v>
+      </c>
+      <c r="F1292" t="inlineStr">
+        <is>
+          <t>HARD EIGHT THE COLONY</t>
+        </is>
+      </c>
+      <c r="G1292" t="inlineStr">
+        <is>
+          <t>Food &amp; Drink</t>
+        </is>
+      </c>
+      <c r="H1292" t="inlineStr">
+        <is>
+          <t>Sale</t>
+        </is>
+      </c>
+      <c r="I1292" t="n">
+        <v>-17.56</v>
+      </c>
+      <c r="J1292" s="2" t="n">
+        <v>44996</v>
+      </c>
+      <c r="K1292" t="inlineStr">
+        <is>
+          <t>Sapphire</t>
+        </is>
+      </c>
+      <c r="L1292" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1292" t="inlineStr">
+        <is>
+          <t>Travel</t>
+        </is>
+      </c>
+      <c r="N1292" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1293">
+      <c r="A1293" s="1" t="inlineStr">
+        <is>
+          <t>7180fbe3-17a9-44ad-bcc1-da81b89a7a49</t>
+        </is>
+      </c>
+      <c r="B1293" s="2" t="n">
+        <v>44996</v>
+      </c>
+      <c r="C1293" s="2" t="n">
+        <v>44996</v>
+      </c>
+      <c r="D1293" s="2" t="n">
+        <v>44986</v>
+      </c>
+      <c r="E1293" s="2" t="n">
+        <v>44988</v>
+      </c>
+      <c r="F1293" t="inlineStr">
+        <is>
+          <t>HARD EIGHT THE COLONY</t>
+        </is>
+      </c>
+      <c r="G1293" t="inlineStr">
+        <is>
+          <t>Food &amp; Drink</t>
+        </is>
+      </c>
+      <c r="H1293" t="inlineStr">
+        <is>
+          <t>Sale</t>
+        </is>
+      </c>
+      <c r="I1293" t="n">
+        <v>-8.66</v>
+      </c>
+      <c r="J1293" s="2" t="n">
+        <v>44996</v>
+      </c>
+      <c r="K1293" t="inlineStr">
+        <is>
+          <t>Sapphire</t>
+        </is>
+      </c>
+      <c r="L1293" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1293" t="inlineStr">
+        <is>
+          <t>Travel</t>
+        </is>
+      </c>
+      <c r="N1293" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1294">
+      <c r="A1294" s="1" t="inlineStr">
+        <is>
+          <t>15c0e898-636d-4464-b20a-2816b052398b</t>
+        </is>
+      </c>
+      <c r="B1294" s="2" t="n">
+        <v>44996</v>
+      </c>
+      <c r="C1294" s="2" t="n">
+        <v>44996</v>
+      </c>
+      <c r="D1294" s="2" t="n">
+        <v>44987</v>
+      </c>
+      <c r="E1294" s="2" t="n">
+        <v>44988</v>
+      </c>
+      <c r="F1294" t="inlineStr">
+        <is>
+          <t>TST* TWISTED BAR &amp;amp; GRILL</t>
+        </is>
+      </c>
+      <c r="G1294" t="inlineStr">
+        <is>
+          <t>Food &amp; Drink</t>
+        </is>
+      </c>
+      <c r="H1294" t="inlineStr">
+        <is>
+          <t>Sale</t>
+        </is>
+      </c>
+      <c r="I1294" t="n">
+        <v>-70.45999999999999</v>
+      </c>
+      <c r="J1294" s="2" t="n">
+        <v>44996</v>
+      </c>
+      <c r="K1294" t="inlineStr">
+        <is>
+          <t>Sapphire</t>
+        </is>
+      </c>
+      <c r="L1294" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1294" t="inlineStr">
+        <is>
+          <t>Travel</t>
+        </is>
+      </c>
+      <c r="N1294" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1295">
+      <c r="A1295" s="1" t="inlineStr">
+        <is>
+          <t>96e8cd79-49c2-4463-82ab-0a84bb9d7e12</t>
+        </is>
+      </c>
+      <c r="B1295" s="2" t="n">
+        <v>44996</v>
+      </c>
+      <c r="C1295" s="2" t="n">
+        <v>44996</v>
+      </c>
+      <c r="D1295" s="2" t="n">
+        <v>44986</v>
+      </c>
+      <c r="E1295" s="2" t="n">
+        <v>44987</v>
+      </c>
+      <c r="F1295" t="inlineStr">
+        <is>
+          <t>TST* GOOD VIEW BAR</t>
+        </is>
+      </c>
+      <c r="G1295" t="inlineStr">
+        <is>
+          <t>Food &amp; Drink</t>
+        </is>
+      </c>
+      <c r="H1295" t="inlineStr">
+        <is>
+          <t>Sale</t>
+        </is>
+      </c>
+      <c r="I1295" t="n">
+        <v>-11.74</v>
+      </c>
+      <c r="J1295" s="2" t="n">
+        <v>44996</v>
+      </c>
+      <c r="K1295" t="inlineStr">
+        <is>
+          <t>Sapphire</t>
+        </is>
+      </c>
+      <c r="L1295" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1295" t="inlineStr">
+        <is>
+          <t>Travel</t>
+        </is>
+      </c>
+      <c r="N1295" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1296">
+      <c r="A1296" s="1" t="inlineStr">
+        <is>
+          <t>c06980c9-0f80-491a-ac86-1174bfa8b944</t>
+        </is>
+      </c>
+      <c r="B1296" s="2" t="n">
+        <v>44996</v>
+      </c>
+      <c r="C1296" s="2" t="n">
+        <v>44996</v>
+      </c>
+      <c r="D1296" s="2" t="n">
+        <v>44986</v>
+      </c>
+      <c r="E1296" s="2" t="n">
+        <v>44987</v>
+      </c>
+      <c r="F1296" t="inlineStr">
+        <is>
+          <t>TST* LEGACY HALL - PLANO</t>
+        </is>
+      </c>
+      <c r="G1296" t="inlineStr">
+        <is>
+          <t>Food &amp; Drink</t>
+        </is>
+      </c>
+      <c r="H1296" t="inlineStr">
+        <is>
+          <t>Sale</t>
+        </is>
+      </c>
+      <c r="I1296" t="n">
+        <v>-10.2</v>
+      </c>
+      <c r="J1296" s="2" t="n">
+        <v>44996</v>
+      </c>
+      <c r="K1296" t="inlineStr">
+        <is>
+          <t>Sapphire</t>
+        </is>
+      </c>
+      <c r="L1296" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1296" t="inlineStr">
+        <is>
+          <t>Travel</t>
+        </is>
+      </c>
+      <c r="N1296" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1297">
+      <c r="A1297" s="1" t="inlineStr">
+        <is>
+          <t>903d4ac9-5962-40bd-a013-fb45202e18f9</t>
+        </is>
+      </c>
+      <c r="B1297" s="2" t="n">
+        <v>44996</v>
+      </c>
+      <c r="C1297" t="inlineStr"/>
+      <c r="D1297" s="2" t="n">
+        <v>44993</v>
+      </c>
+      <c r="E1297" t="inlineStr"/>
+      <c r="F1297" t="inlineStr">
+        <is>
+          <t>Mobile Deposit</t>
+        </is>
+      </c>
+      <c r="G1297" t="inlineStr"/>
+      <c r="H1297" t="inlineStr"/>
+      <c r="I1297" t="n">
+        <v>22.21</v>
+      </c>
+      <c r="J1297" s="2" t="n">
+        <v>44996</v>
+      </c>
+      <c r="K1297" t="inlineStr">
+        <is>
+          <t>Mechanics</t>
+        </is>
+      </c>
+      <c r="L1297" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1297" t="inlineStr"/>
+      <c r="N1297" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1298">
+      <c r="A1298" s="1" t="inlineStr">
+        <is>
+          <t>2818dc14-84a0-426d-a2f0-0fad2277921b</t>
+        </is>
+      </c>
+      <c r="B1298" s="2" t="n">
+        <v>44996</v>
+      </c>
+      <c r="C1298" s="2" t="n">
+        <v>44996</v>
+      </c>
+      <c r="D1298" s="2" t="n">
+        <v>44988</v>
+      </c>
+      <c r="E1298" t="inlineStr"/>
+      <c r="F1298" t="inlineStr">
+        <is>
+          <t>TOYOTA MOTOR SAL PAYROLL 568349-TLS</t>
+        </is>
+      </c>
+      <c r="G1298" t="inlineStr"/>
+      <c r="H1298" t="inlineStr"/>
+      <c r="I1298" t="n">
+        <v>1926.84</v>
+      </c>
+      <c r="J1298" s="2" t="n">
+        <v>44996</v>
+      </c>
+      <c r="K1298" t="inlineStr">
+        <is>
+          <t>Mechanics</t>
+        </is>
+      </c>
+      <c r="L1298" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1298" t="inlineStr">
+        <is>
+          <t>Income</t>
+        </is>
+      </c>
+      <c r="N1298" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1299">
+      <c r="A1299" s="1" t="inlineStr">
+        <is>
+          <t>ce60faa1-2fc6-415b-a12b-ecbec9b7ec20</t>
+        </is>
+      </c>
+      <c r="B1299" s="2" t="n">
+        <v>44996</v>
+      </c>
+      <c r="C1299" s="2" t="n">
+        <v>44996</v>
+      </c>
+      <c r="D1299" s="2" t="n">
+        <v>44987</v>
+      </c>
+      <c r="E1299" t="inlineStr"/>
+      <c r="F1299" t="inlineStr">
+        <is>
+          <t>KBC Management, WEB PMTS Z08C77</t>
+        </is>
+      </c>
+      <c r="G1299" t="inlineStr"/>
+      <c r="H1299" t="inlineStr"/>
+      <c r="I1299" t="n">
+        <v>-1630</v>
+      </c>
+      <c r="J1299" s="2" t="n">
+        <v>44996</v>
+      </c>
+      <c r="K1299" t="inlineStr">
+        <is>
+          <t>Mechanics</t>
+        </is>
+      </c>
+      <c r="L1299" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1299" t="inlineStr">
+        <is>
+          <t>Housing</t>
+        </is>
+      </c>
+      <c r="N1299" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1300">
+      <c r="A1300" s="1" t="inlineStr">
+        <is>
+          <t>7931b448-64cf-4d86-ad0e-57db6f5b928e</t>
+        </is>
+      </c>
+      <c r="B1300" s="2" t="n">
+        <v>44996</v>
+      </c>
+      <c r="C1300" t="inlineStr"/>
+      <c r="D1300" s="2" t="n">
+        <v>44986</v>
+      </c>
+      <c r="E1300" t="inlineStr"/>
+      <c r="F1300" t="inlineStr">
+        <is>
+          <t>CHASE CREDIT CRD AUTOPAY 000000000521862</t>
+        </is>
+      </c>
+      <c r="G1300" t="inlineStr"/>
+      <c r="H1300" t="inlineStr"/>
+      <c r="I1300" t="n">
+        <v>-2186.84</v>
+      </c>
+      <c r="J1300" s="2" t="n">
+        <v>44996</v>
+      </c>
+      <c r="K1300" t="inlineStr">
+        <is>
+          <t>Mechanics</t>
+        </is>
+      </c>
+      <c r="L1300" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1300" t="inlineStr"/>
+      <c r="N1300" t="n">
         <v>0</v>
       </c>
     </row>

--- a/datasets/transactions.xlsx
+++ b/datasets/transactions.xlsx
@@ -430,7 +430,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N1300"/>
+  <dimension ref="A1:N1307"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -69469,6 +69469,398 @@
       </c>
       <c r="M1300" t="inlineStr"/>
       <c r="N1300" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1301">
+      <c r="A1301" s="1" t="inlineStr">
+        <is>
+          <t>0e0a4951-39f9-4036-b238-ad2ddbd4cece</t>
+        </is>
+      </c>
+      <c r="B1301" s="2" t="n">
+        <v>45001</v>
+      </c>
+      <c r="C1301" s="2" t="n">
+        <v>45001</v>
+      </c>
+      <c r="D1301" s="2" t="n">
+        <v>44994</v>
+      </c>
+      <c r="E1301" s="2" t="n">
+        <v>44994</v>
+      </c>
+      <c r="F1301" t="inlineStr">
+        <is>
+          <t>Spotify USA</t>
+        </is>
+      </c>
+      <c r="G1301" t="inlineStr">
+        <is>
+          <t>Bills &amp; Utilities</t>
+        </is>
+      </c>
+      <c r="H1301" t="inlineStr">
+        <is>
+          <t>Sale</t>
+        </is>
+      </c>
+      <c r="I1301" t="n">
+        <v>-9.99</v>
+      </c>
+      <c r="J1301" s="2" t="n">
+        <v>45001</v>
+      </c>
+      <c r="K1301" t="inlineStr">
+        <is>
+          <t>Amazon</t>
+        </is>
+      </c>
+      <c r="L1301" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1301" t="inlineStr">
+        <is>
+          <t>Services</t>
+        </is>
+      </c>
+      <c r="N1301" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1302">
+      <c r="A1302" s="1" t="inlineStr">
+        <is>
+          <t>57722001-b42e-4f4f-adf2-268e1db85bcd</t>
+        </is>
+      </c>
+      <c r="B1302" s="2" t="n">
+        <v>45001</v>
+      </c>
+      <c r="C1302" s="2" t="n">
+        <v>45001</v>
+      </c>
+      <c r="D1302" s="2" t="n">
+        <v>44993</v>
+      </c>
+      <c r="E1302" s="2" t="n">
+        <v>44994</v>
+      </c>
+      <c r="F1302" t="inlineStr">
+        <is>
+          <t>Amazon.com*H51YR58A2</t>
+        </is>
+      </c>
+      <c r="G1302" t="inlineStr">
+        <is>
+          <t>Shopping</t>
+        </is>
+      </c>
+      <c r="H1302" t="inlineStr">
+        <is>
+          <t>Sale</t>
+        </is>
+      </c>
+      <c r="I1302" t="n">
+        <v>-50.19</v>
+      </c>
+      <c r="J1302" s="2" t="n">
+        <v>45001</v>
+      </c>
+      <c r="K1302" t="inlineStr">
+        <is>
+          <t>Amazon</t>
+        </is>
+      </c>
+      <c r="L1302" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1302" t="inlineStr">
+        <is>
+          <t>Home</t>
+        </is>
+      </c>
+      <c r="N1302" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1303">
+      <c r="A1303" s="1" t="inlineStr">
+        <is>
+          <t>3b983fdf-edcd-4740-bfcf-e8fc078af4f6</t>
+        </is>
+      </c>
+      <c r="B1303" s="2" t="n">
+        <v>45001</v>
+      </c>
+      <c r="C1303" s="2" t="n">
+        <v>45001</v>
+      </c>
+      <c r="D1303" s="2" t="n">
+        <v>44998</v>
+      </c>
+      <c r="E1303" s="2" t="n">
+        <v>44999</v>
+      </c>
+      <c r="F1303" t="inlineStr">
+        <is>
+          <t>Cha Cha Cha Taqueria - Th</t>
+        </is>
+      </c>
+      <c r="G1303" t="inlineStr">
+        <is>
+          <t>Food &amp; Drink</t>
+        </is>
+      </c>
+      <c r="H1303" t="inlineStr">
+        <is>
+          <t>Sale</t>
+        </is>
+      </c>
+      <c r="I1303" t="n">
+        <v>-11.4</v>
+      </c>
+      <c r="J1303" s="2" t="n">
+        <v>45001</v>
+      </c>
+      <c r="K1303" t="inlineStr">
+        <is>
+          <t>Sapphire</t>
+        </is>
+      </c>
+      <c r="L1303" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1303" t="inlineStr">
+        <is>
+          <t>Eating Out</t>
+        </is>
+      </c>
+      <c r="N1303" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1304">
+      <c r="A1304" s="1" t="inlineStr">
+        <is>
+          <t>1f9a35da-1863-4466-997b-bfcc71c0dfba</t>
+        </is>
+      </c>
+      <c r="B1304" s="2" t="n">
+        <v>45001</v>
+      </c>
+      <c r="C1304" s="2" t="n">
+        <v>45001</v>
+      </c>
+      <c r="D1304" s="2" t="n">
+        <v>44998</v>
+      </c>
+      <c r="E1304" s="2" t="n">
+        <v>44999</v>
+      </c>
+      <c r="F1304" t="inlineStr">
+        <is>
+          <t>TRADER JOE'S #146  QPS</t>
+        </is>
+      </c>
+      <c r="G1304" t="inlineStr">
+        <is>
+          <t>Groceries</t>
+        </is>
+      </c>
+      <c r="H1304" t="inlineStr">
+        <is>
+          <t>Sale</t>
+        </is>
+      </c>
+      <c r="I1304" t="n">
+        <v>-95.51000000000001</v>
+      </c>
+      <c r="J1304" s="2" t="n">
+        <v>45001</v>
+      </c>
+      <c r="K1304" t="inlineStr">
+        <is>
+          <t>Sapphire</t>
+        </is>
+      </c>
+      <c r="L1304" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1304" t="inlineStr">
+        <is>
+          <t>Groceries</t>
+        </is>
+      </c>
+      <c r="N1304" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1305">
+      <c r="A1305" s="1" t="inlineStr">
+        <is>
+          <t>9e17e9af-d761-49dc-a7d1-dbe30009545c</t>
+        </is>
+      </c>
+      <c r="B1305" s="2" t="n">
+        <v>45001</v>
+      </c>
+      <c r="C1305" s="2" t="n">
+        <v>45001</v>
+      </c>
+      <c r="D1305" s="2" t="n">
+        <v>44997</v>
+      </c>
+      <c r="E1305" s="2" t="n">
+        <v>44998</v>
+      </c>
+      <c r="F1305" t="inlineStr">
+        <is>
+          <t>SQ *UPPER LEFT ROASTERS</t>
+        </is>
+      </c>
+      <c r="G1305" t="inlineStr">
+        <is>
+          <t>Food &amp; Drink</t>
+        </is>
+      </c>
+      <c r="H1305" t="inlineStr">
+        <is>
+          <t>Sale</t>
+        </is>
+      </c>
+      <c r="I1305" t="n">
+        <v>-18.11</v>
+      </c>
+      <c r="J1305" s="2" t="n">
+        <v>45001</v>
+      </c>
+      <c r="K1305" t="inlineStr">
+        <is>
+          <t>Sapphire</t>
+        </is>
+      </c>
+      <c r="L1305" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1305" t="inlineStr">
+        <is>
+          <t>Coffee</t>
+        </is>
+      </c>
+      <c r="N1305" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1306">
+      <c r="A1306" s="1" t="inlineStr">
+        <is>
+          <t>38551721-3356-46d8-98ee-b27af907ca74</t>
+        </is>
+      </c>
+      <c r="B1306" s="2" t="n">
+        <v>45001</v>
+      </c>
+      <c r="C1306" s="2" t="n">
+        <v>45001</v>
+      </c>
+      <c r="D1306" s="2" t="n">
+        <v>44996</v>
+      </c>
+      <c r="E1306" s="2" t="n">
+        <v>44997</v>
+      </c>
+      <c r="F1306" t="inlineStr">
+        <is>
+          <t>SQ *BARISTA</t>
+        </is>
+      </c>
+      <c r="G1306" t="inlineStr">
+        <is>
+          <t>Food &amp; Drink</t>
+        </is>
+      </c>
+      <c r="H1306" t="inlineStr">
+        <is>
+          <t>Sale</t>
+        </is>
+      </c>
+      <c r="I1306" t="n">
+        <v>-4.5</v>
+      </c>
+      <c r="J1306" s="2" t="n">
+        <v>45001</v>
+      </c>
+      <c r="K1306" t="inlineStr">
+        <is>
+          <t>Sapphire</t>
+        </is>
+      </c>
+      <c r="L1306" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1306" t="inlineStr">
+        <is>
+          <t>Coffee</t>
+        </is>
+      </c>
+      <c r="N1306" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1307">
+      <c r="A1307" s="1" t="inlineStr">
+        <is>
+          <t>90ef4107-ed6a-41fa-a71a-1cd8fad79ca6</t>
+        </is>
+      </c>
+      <c r="B1307" s="2" t="n">
+        <v>45001</v>
+      </c>
+      <c r="C1307" s="2" t="n">
+        <v>45001</v>
+      </c>
+      <c r="D1307" s="2" t="n">
+        <v>44996</v>
+      </c>
+      <c r="E1307" s="2" t="n">
+        <v>44997</v>
+      </c>
+      <c r="F1307" t="inlineStr">
+        <is>
+          <t>SQ *BARISTA</t>
+        </is>
+      </c>
+      <c r="G1307" t="inlineStr">
+        <is>
+          <t>Food &amp; Drink</t>
+        </is>
+      </c>
+      <c r="H1307" t="inlineStr">
+        <is>
+          <t>Sale</t>
+        </is>
+      </c>
+      <c r="I1307" t="n">
+        <v>-17.1</v>
+      </c>
+      <c r="J1307" s="2" t="n">
+        <v>45001</v>
+      </c>
+      <c r="K1307" t="inlineStr">
+        <is>
+          <t>Sapphire</t>
+        </is>
+      </c>
+      <c r="L1307" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1307" t="inlineStr">
+        <is>
+          <t>Coffee</t>
+        </is>
+      </c>
+      <c r="N1307" t="n">
         <v>0</v>
       </c>
     </row>

--- a/datasets/transactions.xlsx
+++ b/datasets/transactions.xlsx
@@ -430,7 +430,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N1307"/>
+  <dimension ref="A1:N1318"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -804,7 +804,7 @@
         <v>44961</v>
       </c>
       <c r="C8" s="2" t="n">
-        <v>44961</v>
+        <v>45010</v>
       </c>
       <c r="D8" s="2" t="n">
         <v>44955</v>
@@ -69861,6 +69861,574 @@
         </is>
       </c>
       <c r="N1307" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1308">
+      <c r="A1308" s="1" t="inlineStr">
+        <is>
+          <t>13e1e702-eda8-42b2-b155-f0123483a55f</t>
+        </is>
+      </c>
+      <c r="B1308" s="2" t="n">
+        <v>45010</v>
+      </c>
+      <c r="C1308" s="2" t="n">
+        <v>45010</v>
+      </c>
+      <c r="D1308" s="2" t="n">
+        <v>45006</v>
+      </c>
+      <c r="E1308" s="2" t="n">
+        <v>45006</v>
+      </c>
+      <c r="F1308" t="inlineStr">
+        <is>
+          <t>ALL HEART YOGA</t>
+        </is>
+      </c>
+      <c r="G1308" t="inlineStr">
+        <is>
+          <t>Personal</t>
+        </is>
+      </c>
+      <c r="H1308" t="inlineStr">
+        <is>
+          <t>Sale</t>
+        </is>
+      </c>
+      <c r="I1308" t="n">
+        <v>-128</v>
+      </c>
+      <c r="J1308" s="2" t="n">
+        <v>45010</v>
+      </c>
+      <c r="K1308" t="inlineStr">
+        <is>
+          <t>Amazon</t>
+        </is>
+      </c>
+      <c r="L1308" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1308" t="inlineStr">
+        <is>
+          <t>Yoga</t>
+        </is>
+      </c>
+      <c r="N1308" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1309">
+      <c r="A1309" s="1" t="inlineStr">
+        <is>
+          <t>c2fa45d3-b0b8-4f62-adf5-1758500a7f1e</t>
+        </is>
+      </c>
+      <c r="B1309" s="2" t="n">
+        <v>45010</v>
+      </c>
+      <c r="C1309" s="2" t="n">
+        <v>45010</v>
+      </c>
+      <c r="D1309" s="2" t="n">
+        <v>45001</v>
+      </c>
+      <c r="E1309" s="2" t="n">
+        <v>45002</v>
+      </c>
+      <c r="F1309" t="inlineStr">
+        <is>
+          <t>76 - N &amp;amp; S OIL LLC</t>
+        </is>
+      </c>
+      <c r="G1309" t="inlineStr">
+        <is>
+          <t>Gas</t>
+        </is>
+      </c>
+      <c r="H1309" t="inlineStr">
+        <is>
+          <t>Sale</t>
+        </is>
+      </c>
+      <c r="I1309" t="n">
+        <v>-50.69</v>
+      </c>
+      <c r="J1309" s="2" t="n">
+        <v>45010</v>
+      </c>
+      <c r="K1309" t="inlineStr">
+        <is>
+          <t>Amazon</t>
+        </is>
+      </c>
+      <c r="L1309" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1309" t="inlineStr">
+        <is>
+          <t>Gasoline</t>
+        </is>
+      </c>
+      <c r="N1309" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1310">
+      <c r="A1310" s="1" t="inlineStr">
+        <is>
+          <t>1b59256c-d81b-43a8-a994-fc194e0cc2b8</t>
+        </is>
+      </c>
+      <c r="B1310" s="2" t="n">
+        <v>45010</v>
+      </c>
+      <c r="C1310" s="2" t="n">
+        <v>45010</v>
+      </c>
+      <c r="D1310" s="2" t="n">
+        <v>45004</v>
+      </c>
+      <c r="E1310" s="2" t="n">
+        <v>45005</v>
+      </c>
+      <c r="F1310" t="inlineStr">
+        <is>
+          <t>SQ *BARISTA</t>
+        </is>
+      </c>
+      <c r="G1310" t="inlineStr">
+        <is>
+          <t>Food &amp; Drink</t>
+        </is>
+      </c>
+      <c r="H1310" t="inlineStr">
+        <is>
+          <t>Sale</t>
+        </is>
+      </c>
+      <c r="I1310" t="n">
+        <v>-4.5</v>
+      </c>
+      <c r="J1310" s="2" t="n">
+        <v>45010</v>
+      </c>
+      <c r="K1310" t="inlineStr">
+        <is>
+          <t>Sapphire</t>
+        </is>
+      </c>
+      <c r="L1310" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1310" t="inlineStr">
+        <is>
+          <t>Coffee</t>
+        </is>
+      </c>
+      <c r="N1310" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1311">
+      <c r="A1311" s="1" t="inlineStr">
+        <is>
+          <t>bb1e9ddc-cf82-438b-850c-663dff61d434</t>
+        </is>
+      </c>
+      <c r="B1311" s="2" t="n">
+        <v>45010</v>
+      </c>
+      <c r="C1311" t="inlineStr"/>
+      <c r="D1311" s="2" t="n">
+        <v>45002</v>
+      </c>
+      <c r="E1311" s="2" t="n">
+        <v>45005</v>
+      </c>
+      <c r="F1311" t="inlineStr">
+        <is>
+          <t>HARD EIGHT THE COLONY</t>
+        </is>
+      </c>
+      <c r="G1311" t="inlineStr">
+        <is>
+          <t>Food &amp; Drink</t>
+        </is>
+      </c>
+      <c r="H1311" t="inlineStr">
+        <is>
+          <t>Sale</t>
+        </is>
+      </c>
+      <c r="I1311" t="n">
+        <v>-3.24</v>
+      </c>
+      <c r="J1311" s="2" t="n">
+        <v>45010</v>
+      </c>
+      <c r="K1311" t="inlineStr">
+        <is>
+          <t>Sapphire</t>
+        </is>
+      </c>
+      <c r="L1311" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1311" t="inlineStr"/>
+      <c r="N1311" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1312">
+      <c r="A1312" s="1" t="inlineStr">
+        <is>
+          <t>478971e1-7c89-4fbd-8ecf-4fbcbf68638a</t>
+        </is>
+      </c>
+      <c r="B1312" s="2" t="n">
+        <v>45010</v>
+      </c>
+      <c r="C1312" t="inlineStr"/>
+      <c r="D1312" s="2" t="n">
+        <v>45002</v>
+      </c>
+      <c r="E1312" s="2" t="n">
+        <v>45005</v>
+      </c>
+      <c r="F1312" t="inlineStr">
+        <is>
+          <t>HARD EIGHT THE COLONY</t>
+        </is>
+      </c>
+      <c r="G1312" t="inlineStr">
+        <is>
+          <t>Food &amp; Drink</t>
+        </is>
+      </c>
+      <c r="H1312" t="inlineStr">
+        <is>
+          <t>Sale</t>
+        </is>
+      </c>
+      <c r="I1312" t="n">
+        <v>-2</v>
+      </c>
+      <c r="J1312" s="2" t="n">
+        <v>45010</v>
+      </c>
+      <c r="K1312" t="inlineStr">
+        <is>
+          <t>Sapphire</t>
+        </is>
+      </c>
+      <c r="L1312" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1312" t="inlineStr"/>
+      <c r="N1312" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1313">
+      <c r="A1313" s="1" t="inlineStr">
+        <is>
+          <t>bc6d7582-d4b1-4073-bd4f-22d9861b805c</t>
+        </is>
+      </c>
+      <c r="B1313" s="2" t="n">
+        <v>45010</v>
+      </c>
+      <c r="C1313" s="2" t="n">
+        <v>45010</v>
+      </c>
+      <c r="D1313" s="2" t="n">
+        <v>45004</v>
+      </c>
+      <c r="E1313" s="2" t="n">
+        <v>45005</v>
+      </c>
+      <c r="F1313" t="inlineStr">
+        <is>
+          <t>SQ *BARISTA</t>
+        </is>
+      </c>
+      <c r="G1313" t="inlineStr">
+        <is>
+          <t>Food &amp; Drink</t>
+        </is>
+      </c>
+      <c r="H1313" t="inlineStr">
+        <is>
+          <t>Sale</t>
+        </is>
+      </c>
+      <c r="I1313" t="n">
+        <v>-16.39</v>
+      </c>
+      <c r="J1313" s="2" t="n">
+        <v>45010</v>
+      </c>
+      <c r="K1313" t="inlineStr">
+        <is>
+          <t>Sapphire</t>
+        </is>
+      </c>
+      <c r="L1313" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1313" t="inlineStr">
+        <is>
+          <t>Coffee</t>
+        </is>
+      </c>
+      <c r="N1313" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1314">
+      <c r="A1314" s="1" t="inlineStr">
+        <is>
+          <t>f81ec346-f79a-43c3-a290-a66000eedc3b</t>
+        </is>
+      </c>
+      <c r="B1314" s="2" t="n">
+        <v>45010</v>
+      </c>
+      <c r="C1314" s="2" t="n">
+        <v>45010</v>
+      </c>
+      <c r="D1314" s="2" t="n">
+        <v>45003</v>
+      </c>
+      <c r="E1314" s="2" t="n">
+        <v>45004</v>
+      </c>
+      <c r="F1314" t="inlineStr">
+        <is>
+          <t>TRADER JOE S #146</t>
+        </is>
+      </c>
+      <c r="G1314" t="inlineStr">
+        <is>
+          <t>Groceries</t>
+        </is>
+      </c>
+      <c r="H1314" t="inlineStr">
+        <is>
+          <t>Sale</t>
+        </is>
+      </c>
+      <c r="I1314" t="n">
+        <v>-47.87</v>
+      </c>
+      <c r="J1314" s="2" t="n">
+        <v>45010</v>
+      </c>
+      <c r="K1314" t="inlineStr">
+        <is>
+          <t>Sapphire</t>
+        </is>
+      </c>
+      <c r="L1314" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1314" t="inlineStr">
+        <is>
+          <t>Groceries</t>
+        </is>
+      </c>
+      <c r="N1314" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1315">
+      <c r="A1315" s="1" t="inlineStr">
+        <is>
+          <t>81e43760-19a4-4de4-8b18-b9a4873f0826</t>
+        </is>
+      </c>
+      <c r="B1315" s="2" t="n">
+        <v>45010</v>
+      </c>
+      <c r="C1315" s="2" t="n">
+        <v>45010</v>
+      </c>
+      <c r="D1315" s="2" t="n">
+        <v>45003</v>
+      </c>
+      <c r="E1315" s="2" t="n">
+        <v>45004</v>
+      </c>
+      <c r="F1315" t="inlineStr">
+        <is>
+          <t>SQ *BARISTA</t>
+        </is>
+      </c>
+      <c r="G1315" t="inlineStr">
+        <is>
+          <t>Food &amp; Drink</t>
+        </is>
+      </c>
+      <c r="H1315" t="inlineStr">
+        <is>
+          <t>Sale</t>
+        </is>
+      </c>
+      <c r="I1315" t="n">
+        <v>-16.39</v>
+      </c>
+      <c r="J1315" s="2" t="n">
+        <v>45010</v>
+      </c>
+      <c r="K1315" t="inlineStr">
+        <is>
+          <t>Sapphire</t>
+        </is>
+      </c>
+      <c r="L1315" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1315" t="inlineStr">
+        <is>
+          <t>Coffee</t>
+        </is>
+      </c>
+      <c r="N1315" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1316">
+      <c r="A1316" s="1" t="inlineStr">
+        <is>
+          <t>005bc93a-2340-4d5b-bef4-eb325a82bb51</t>
+        </is>
+      </c>
+      <c r="B1316" s="2" t="n">
+        <v>45010</v>
+      </c>
+      <c r="C1316" t="inlineStr"/>
+      <c r="D1316" s="2" t="n">
+        <v>45002</v>
+      </c>
+      <c r="E1316" s="2" t="n">
+        <v>45002</v>
+      </c>
+      <c r="F1316" t="inlineStr">
+        <is>
+          <t>AUTOMATIC PAYMENT - THANK</t>
+        </is>
+      </c>
+      <c r="G1316" t="inlineStr"/>
+      <c r="H1316" t="inlineStr">
+        <is>
+          <t>Payment</t>
+        </is>
+      </c>
+      <c r="I1316" t="n">
+        <v>1213.03</v>
+      </c>
+      <c r="J1316" s="2" t="n">
+        <v>45010</v>
+      </c>
+      <c r="K1316" t="inlineStr">
+        <is>
+          <t>Sapphire</t>
+        </is>
+      </c>
+      <c r="L1316" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1316" t="inlineStr"/>
+      <c r="N1316" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1317">
+      <c r="A1317" s="1" t="inlineStr">
+        <is>
+          <t>8b2915f5-f43e-4e5f-b4ac-2ca7cd3e7d1a</t>
+        </is>
+      </c>
+      <c r="B1317" s="2" t="n">
+        <v>45010</v>
+      </c>
+      <c r="C1317" t="inlineStr"/>
+      <c r="D1317" s="2" t="n">
+        <v>45005</v>
+      </c>
+      <c r="E1317" t="inlineStr"/>
+      <c r="F1317" t="inlineStr">
+        <is>
+          <t>CHASE CREDIT CRD AUTOPAY 000000000591754</t>
+        </is>
+      </c>
+      <c r="G1317" t="inlineStr"/>
+      <c r="H1317" t="inlineStr"/>
+      <c r="I1317" t="n">
+        <v>-1213.03</v>
+      </c>
+      <c r="J1317" s="2" t="n">
+        <v>45010</v>
+      </c>
+      <c r="K1317" t="inlineStr">
+        <is>
+          <t>Mechanics</t>
+        </is>
+      </c>
+      <c r="L1317" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1317" t="inlineStr"/>
+      <c r="N1317" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1318">
+      <c r="A1318" s="1" t="inlineStr">
+        <is>
+          <t>6001dbb7-9517-48bf-ac95-60c5b5399008</t>
+        </is>
+      </c>
+      <c r="B1318" s="2" t="n">
+        <v>45010</v>
+      </c>
+      <c r="C1318" s="2" t="n">
+        <v>45010</v>
+      </c>
+      <c r="D1318" s="2" t="n">
+        <v>45002</v>
+      </c>
+      <c r="E1318" t="inlineStr"/>
+      <c r="F1318" t="inlineStr">
+        <is>
+          <t>TOYOTA MOTOR SAL PAYROLL 568349-TLS</t>
+        </is>
+      </c>
+      <c r="G1318" t="inlineStr"/>
+      <c r="H1318" t="inlineStr"/>
+      <c r="I1318" t="n">
+        <v>1743.68</v>
+      </c>
+      <c r="J1318" s="2" t="n">
+        <v>45010</v>
+      </c>
+      <c r="K1318" t="inlineStr">
+        <is>
+          <t>Mechanics</t>
+        </is>
+      </c>
+      <c r="L1318" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1318" t="inlineStr">
+        <is>
+          <t>Income</t>
+        </is>
+      </c>
+      <c r="N1318" t="n">
         <v>0</v>
       </c>
     </row>

--- a/datasets/transactions.xlsx
+++ b/datasets/transactions.xlsx
@@ -430,7 +430,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N1318"/>
+  <dimension ref="A1:N1334"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -70429,6 +70429,860 @@
         </is>
       </c>
       <c r="N1318" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1319">
+      <c r="A1319" s="1" t="inlineStr">
+        <is>
+          <t>04e68b25-b9d0-429b-b69c-c7feffe1ae20</t>
+        </is>
+      </c>
+      <c r="B1319" s="2" t="n">
+        <v>45017</v>
+      </c>
+      <c r="C1319" s="2" t="n">
+        <v>45017</v>
+      </c>
+      <c r="D1319" s="2" t="n">
+        <v>45014</v>
+      </c>
+      <c r="E1319" s="2" t="n">
+        <v>45015</v>
+      </c>
+      <c r="F1319" t="inlineStr">
+        <is>
+          <t>Amazon.com*HY2BK0CG2</t>
+        </is>
+      </c>
+      <c r="G1319" t="inlineStr">
+        <is>
+          <t>Shopping</t>
+        </is>
+      </c>
+      <c r="H1319" t="inlineStr">
+        <is>
+          <t>Sale</t>
+        </is>
+      </c>
+      <c r="I1319" t="n">
+        <v>-29.95</v>
+      </c>
+      <c r="J1319" s="2" t="n">
+        <v>45017</v>
+      </c>
+      <c r="K1319" t="inlineStr">
+        <is>
+          <t>Amazon</t>
+        </is>
+      </c>
+      <c r="L1319" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1319" t="inlineStr">
+        <is>
+          <t>Clothes</t>
+        </is>
+      </c>
+      <c r="N1319" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1320">
+      <c r="A1320" s="1" t="inlineStr">
+        <is>
+          <t>8561fd2f-a633-45ac-b3e3-fcb8d5c1eb10</t>
+        </is>
+      </c>
+      <c r="B1320" s="2" t="n">
+        <v>45017</v>
+      </c>
+      <c r="C1320" t="inlineStr"/>
+      <c r="D1320" s="2" t="n">
+        <v>45013</v>
+      </c>
+      <c r="E1320" s="2" t="n">
+        <v>45013</v>
+      </c>
+      <c r="F1320" t="inlineStr">
+        <is>
+          <t>AUTOMATIC PAYMENT - THANK</t>
+        </is>
+      </c>
+      <c r="G1320" t="inlineStr"/>
+      <c r="H1320" t="inlineStr">
+        <is>
+          <t>Payment</t>
+        </is>
+      </c>
+      <c r="I1320" t="n">
+        <v>1262.31</v>
+      </c>
+      <c r="J1320" s="2" t="n">
+        <v>45017</v>
+      </c>
+      <c r="K1320" t="inlineStr">
+        <is>
+          <t>Amazon</t>
+        </is>
+      </c>
+      <c r="L1320" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1320" t="inlineStr"/>
+      <c r="N1320" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1321">
+      <c r="A1321" s="1" t="inlineStr">
+        <is>
+          <t>11d2e5fb-586e-4f68-bc59-64b12041349f</t>
+        </is>
+      </c>
+      <c r="B1321" s="2" t="n">
+        <v>45017</v>
+      </c>
+      <c r="C1321" s="2" t="n">
+        <v>45017</v>
+      </c>
+      <c r="D1321" s="2" t="n">
+        <v>45012</v>
+      </c>
+      <c r="E1321" s="2" t="n">
+        <v>45013</v>
+      </c>
+      <c r="F1321" t="inlineStr">
+        <is>
+          <t>REI.COM  800-426-4840</t>
+        </is>
+      </c>
+      <c r="G1321" t="inlineStr">
+        <is>
+          <t>Shopping</t>
+        </is>
+      </c>
+      <c r="H1321" t="inlineStr">
+        <is>
+          <t>Sale</t>
+        </is>
+      </c>
+      <c r="I1321" t="n">
+        <v>-16.89</v>
+      </c>
+      <c r="J1321" s="2" t="n">
+        <v>45017</v>
+      </c>
+      <c r="K1321" t="inlineStr">
+        <is>
+          <t>Amazon</t>
+        </is>
+      </c>
+      <c r="L1321" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1321" t="inlineStr">
+        <is>
+          <t>Clothes</t>
+        </is>
+      </c>
+      <c r="N1321" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1322">
+      <c r="A1322" s="1" t="inlineStr">
+        <is>
+          <t>6589b0db-40cc-4634-9531-1eef2eeb2aa3</t>
+        </is>
+      </c>
+      <c r="B1322" s="2" t="n">
+        <v>45017</v>
+      </c>
+      <c r="C1322" s="2" t="n">
+        <v>45017</v>
+      </c>
+      <c r="D1322" s="2" t="n">
+        <v>45011</v>
+      </c>
+      <c r="E1322" s="2" t="n">
+        <v>45012</v>
+      </c>
+      <c r="F1322" t="inlineStr">
+        <is>
+          <t>Cha Cha Cha Taqueria - Th</t>
+        </is>
+      </c>
+      <c r="G1322" t="inlineStr">
+        <is>
+          <t>Food &amp; Drink</t>
+        </is>
+      </c>
+      <c r="H1322" t="inlineStr">
+        <is>
+          <t>Sale</t>
+        </is>
+      </c>
+      <c r="I1322" t="n">
+        <v>-33.3</v>
+      </c>
+      <c r="J1322" s="2" t="n">
+        <v>45017</v>
+      </c>
+      <c r="K1322" t="inlineStr">
+        <is>
+          <t>Amazon</t>
+        </is>
+      </c>
+      <c r="L1322" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1322" t="inlineStr">
+        <is>
+          <t>Eating Out</t>
+        </is>
+      </c>
+      <c r="N1322" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1323">
+      <c r="A1323" s="1" t="inlineStr">
+        <is>
+          <t>c16b91b1-b716-4629-987d-00b7867766cd</t>
+        </is>
+      </c>
+      <c r="B1323" s="2" t="n">
+        <v>45017</v>
+      </c>
+      <c r="C1323" s="2" t="n">
+        <v>45017</v>
+      </c>
+      <c r="D1323" s="2" t="n">
+        <v>45011</v>
+      </c>
+      <c r="E1323" s="2" t="n">
+        <v>45012</v>
+      </c>
+      <c r="F1323" t="inlineStr">
+        <is>
+          <t>Cha Cha Cha Taqueria - Th</t>
+        </is>
+      </c>
+      <c r="G1323" t="inlineStr">
+        <is>
+          <t>Food &amp; Drink</t>
+        </is>
+      </c>
+      <c r="H1323" t="inlineStr">
+        <is>
+          <t>Sale</t>
+        </is>
+      </c>
+      <c r="I1323" t="n">
+        <v>-10</v>
+      </c>
+      <c r="J1323" s="2" t="n">
+        <v>45017</v>
+      </c>
+      <c r="K1323" t="inlineStr">
+        <is>
+          <t>Amazon</t>
+        </is>
+      </c>
+      <c r="L1323" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1323" t="inlineStr">
+        <is>
+          <t>Eating Out</t>
+        </is>
+      </c>
+      <c r="N1323" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1324">
+      <c r="A1324" s="1" t="inlineStr">
+        <is>
+          <t>475cf745-afa4-4e51-9ccc-69469362ba75</t>
+        </is>
+      </c>
+      <c r="B1324" s="2" t="n">
+        <v>45017</v>
+      </c>
+      <c r="C1324" s="2" t="n">
+        <v>45017</v>
+      </c>
+      <c r="D1324" s="2" t="n">
+        <v>45010</v>
+      </c>
+      <c r="E1324" s="2" t="n">
+        <v>45012</v>
+      </c>
+      <c r="F1324" t="inlineStr">
+        <is>
+          <t>COIN METER LAUNDRY KIOSK/</t>
+        </is>
+      </c>
+      <c r="G1324" t="inlineStr">
+        <is>
+          <t>Personal</t>
+        </is>
+      </c>
+      <c r="H1324" t="inlineStr">
+        <is>
+          <t>Sale</t>
+        </is>
+      </c>
+      <c r="I1324" t="n">
+        <v>-20</v>
+      </c>
+      <c r="J1324" s="2" t="n">
+        <v>45017</v>
+      </c>
+      <c r="K1324" t="inlineStr">
+        <is>
+          <t>Amazon</t>
+        </is>
+      </c>
+      <c r="L1324" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1324" t="inlineStr">
+        <is>
+          <t>Laundry</t>
+        </is>
+      </c>
+      <c r="N1324" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1325">
+      <c r="A1325" s="1" t="inlineStr">
+        <is>
+          <t>84cec30c-0f6f-4c06-a6e6-18a93c318cd0</t>
+        </is>
+      </c>
+      <c r="B1325" s="2" t="n">
+        <v>45017</v>
+      </c>
+      <c r="C1325" s="2" t="n">
+        <v>45017</v>
+      </c>
+      <c r="D1325" s="2" t="n">
+        <v>45011</v>
+      </c>
+      <c r="E1325" s="2" t="n">
+        <v>45012</v>
+      </c>
+      <c r="F1325" t="inlineStr">
+        <is>
+          <t>SQ *BARISTA</t>
+        </is>
+      </c>
+      <c r="G1325" t="inlineStr">
+        <is>
+          <t>Food &amp; Drink</t>
+        </is>
+      </c>
+      <c r="H1325" t="inlineStr">
+        <is>
+          <t>Sale</t>
+        </is>
+      </c>
+      <c r="I1325" t="n">
+        <v>-17.1</v>
+      </c>
+      <c r="J1325" s="2" t="n">
+        <v>45017</v>
+      </c>
+      <c r="K1325" t="inlineStr">
+        <is>
+          <t>Amazon</t>
+        </is>
+      </c>
+      <c r="L1325" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1325" t="inlineStr">
+        <is>
+          <t>Coffee</t>
+        </is>
+      </c>
+      <c r="N1325" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1326">
+      <c r="A1326" s="1" t="inlineStr">
+        <is>
+          <t>24132808-2a64-4aaf-b7dc-9db288e9ff98</t>
+        </is>
+      </c>
+      <c r="B1326" s="2" t="n">
+        <v>45017</v>
+      </c>
+      <c r="C1326" s="2" t="n">
+        <v>45017</v>
+      </c>
+      <c r="D1326" s="2" t="n">
+        <v>45011</v>
+      </c>
+      <c r="E1326" s="2" t="n">
+        <v>45012</v>
+      </c>
+      <c r="F1326" t="inlineStr">
+        <is>
+          <t>TRADER JOE S #146</t>
+        </is>
+      </c>
+      <c r="G1326" t="inlineStr">
+        <is>
+          <t>Groceries</t>
+        </is>
+      </c>
+      <c r="H1326" t="inlineStr">
+        <is>
+          <t>Sale</t>
+        </is>
+      </c>
+      <c r="I1326" t="n">
+        <v>-98.55</v>
+      </c>
+      <c r="J1326" s="2" t="n">
+        <v>45017</v>
+      </c>
+      <c r="K1326" t="inlineStr">
+        <is>
+          <t>Amazon</t>
+        </is>
+      </c>
+      <c r="L1326" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1326" t="inlineStr">
+        <is>
+          <t>Groceries</t>
+        </is>
+      </c>
+      <c r="N1326" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1327">
+      <c r="A1327" s="1" t="inlineStr">
+        <is>
+          <t>fd829124-2f64-431b-8f6e-43708425bbe3</t>
+        </is>
+      </c>
+      <c r="B1327" s="2" t="n">
+        <v>45017</v>
+      </c>
+      <c r="C1327" s="2" t="n">
+        <v>45017</v>
+      </c>
+      <c r="D1327" s="2" t="n">
+        <v>45010</v>
+      </c>
+      <c r="E1327" s="2" t="n">
+        <v>45011</v>
+      </c>
+      <c r="F1327" t="inlineStr">
+        <is>
+          <t>SQ *ALAINA ALBERTS</t>
+        </is>
+      </c>
+      <c r="G1327" t="inlineStr">
+        <is>
+          <t>Personal</t>
+        </is>
+      </c>
+      <c r="H1327" t="inlineStr">
+        <is>
+          <t>Sale</t>
+        </is>
+      </c>
+      <c r="I1327" t="n">
+        <v>-58.8</v>
+      </c>
+      <c r="J1327" s="2" t="n">
+        <v>45017</v>
+      </c>
+      <c r="K1327" t="inlineStr">
+        <is>
+          <t>Amazon</t>
+        </is>
+      </c>
+      <c r="L1327" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1327" t="inlineStr">
+        <is>
+          <t>Haircut</t>
+        </is>
+      </c>
+      <c r="N1327" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1328">
+      <c r="A1328" s="1" t="inlineStr">
+        <is>
+          <t>1274489d-b7e1-47ac-9e72-c27969b10879</t>
+        </is>
+      </c>
+      <c r="B1328" s="2" t="n">
+        <v>45017</v>
+      </c>
+      <c r="C1328" s="2" t="n">
+        <v>45017</v>
+      </c>
+      <c r="D1328" s="2" t="n">
+        <v>45009</v>
+      </c>
+      <c r="E1328" s="2" t="n">
+        <v>45011</v>
+      </c>
+      <c r="F1328" t="inlineStr">
+        <is>
+          <t>TST* Pizza Thief</t>
+        </is>
+      </c>
+      <c r="G1328" t="inlineStr">
+        <is>
+          <t>Food &amp; Drink</t>
+        </is>
+      </c>
+      <c r="H1328" t="inlineStr">
+        <is>
+          <t>Sale</t>
+        </is>
+      </c>
+      <c r="I1328" t="n">
+        <v>-15</v>
+      </c>
+      <c r="J1328" s="2" t="n">
+        <v>45017</v>
+      </c>
+      <c r="K1328" t="inlineStr">
+        <is>
+          <t>Amazon</t>
+        </is>
+      </c>
+      <c r="L1328" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1328" t="inlineStr">
+        <is>
+          <t>Eating Out</t>
+        </is>
+      </c>
+      <c r="N1328" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1329">
+      <c r="A1329" s="1" t="inlineStr">
+        <is>
+          <t>23673d8b-efd1-434e-b677-0779bb29fbf3</t>
+        </is>
+      </c>
+      <c r="B1329" s="2" t="n">
+        <v>45017</v>
+      </c>
+      <c r="C1329" s="2" t="n">
+        <v>45017</v>
+      </c>
+      <c r="D1329" s="2" t="n">
+        <v>45010</v>
+      </c>
+      <c r="E1329" s="2" t="n">
+        <v>45011</v>
+      </c>
+      <c r="F1329" t="inlineStr">
+        <is>
+          <t>SQ *BARISTA</t>
+        </is>
+      </c>
+      <c r="G1329" t="inlineStr">
+        <is>
+          <t>Food &amp; Drink</t>
+        </is>
+      </c>
+      <c r="H1329" t="inlineStr">
+        <is>
+          <t>Sale</t>
+        </is>
+      </c>
+      <c r="I1329" t="n">
+        <v>-17.1</v>
+      </c>
+      <c r="J1329" s="2" t="n">
+        <v>45017</v>
+      </c>
+      <c r="K1329" t="inlineStr">
+        <is>
+          <t>Amazon</t>
+        </is>
+      </c>
+      <c r="L1329" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1329" t="inlineStr">
+        <is>
+          <t>Coffee</t>
+        </is>
+      </c>
+      <c r="N1329" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1330">
+      <c r="A1330" s="1" t="inlineStr">
+        <is>
+          <t>39c791e9-49d3-4de5-a712-7ff6d71165d5</t>
+        </is>
+      </c>
+      <c r="B1330" s="2" t="n">
+        <v>45017</v>
+      </c>
+      <c r="C1330" s="2" t="n">
+        <v>45017</v>
+      </c>
+      <c r="D1330" s="2" t="n">
+        <v>45009</v>
+      </c>
+      <c r="E1330" s="2" t="n">
+        <v>45011</v>
+      </c>
+      <c r="F1330" t="inlineStr">
+        <is>
+          <t>TST* Pizza Thief</t>
+        </is>
+      </c>
+      <c r="G1330" t="inlineStr">
+        <is>
+          <t>Food &amp; Drink</t>
+        </is>
+      </c>
+      <c r="H1330" t="inlineStr">
+        <is>
+          <t>Sale</t>
+        </is>
+      </c>
+      <c r="I1330" t="n">
+        <v>-7</v>
+      </c>
+      <c r="J1330" s="2" t="n">
+        <v>45017</v>
+      </c>
+      <c r="K1330" t="inlineStr">
+        <is>
+          <t>Amazon</t>
+        </is>
+      </c>
+      <c r="L1330" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1330" t="inlineStr">
+        <is>
+          <t>Eating Out</t>
+        </is>
+      </c>
+      <c r="N1330" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1331">
+      <c r="A1331" s="1" t="inlineStr">
+        <is>
+          <t>4f61a185-26a5-4e14-8382-7caba65e6f4d</t>
+        </is>
+      </c>
+      <c r="B1331" s="2" t="n">
+        <v>45017</v>
+      </c>
+      <c r="C1331" s="2" t="n">
+        <v>45017</v>
+      </c>
+      <c r="D1331" s="2" t="n">
+        <v>45009</v>
+      </c>
+      <c r="E1331" s="2" t="n">
+        <v>45009</v>
+      </c>
+      <c r="F1331" t="inlineStr">
+        <is>
+          <t>COMCAST CABLE COMM</t>
+        </is>
+      </c>
+      <c r="G1331" t="inlineStr">
+        <is>
+          <t>Bills &amp; Utilities</t>
+        </is>
+      </c>
+      <c r="H1331" t="inlineStr">
+        <is>
+          <t>Sale</t>
+        </is>
+      </c>
+      <c r="I1331" t="n">
+        <v>-44.99</v>
+      </c>
+      <c r="J1331" s="2" t="n">
+        <v>45017</v>
+      </c>
+      <c r="K1331" t="inlineStr">
+        <is>
+          <t>Amazon</t>
+        </is>
+      </c>
+      <c r="L1331" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1331" t="inlineStr">
+        <is>
+          <t>Internet</t>
+        </is>
+      </c>
+      <c r="N1331" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1332">
+      <c r="A1332" s="1" t="inlineStr">
+        <is>
+          <t>f299fcad-cc97-4325-a03b-0569c4ce5487</t>
+        </is>
+      </c>
+      <c r="B1332" s="2" t="n">
+        <v>45017</v>
+      </c>
+      <c r="C1332" s="2" t="n">
+        <v>45017</v>
+      </c>
+      <c r="D1332" s="2" t="n">
+        <v>45006</v>
+      </c>
+      <c r="E1332" s="2" t="n">
+        <v>45007</v>
+      </c>
+      <c r="F1332" t="inlineStr">
+        <is>
+          <t>Amazon.com*H706A2OK1</t>
+        </is>
+      </c>
+      <c r="G1332" t="inlineStr">
+        <is>
+          <t>Shopping</t>
+        </is>
+      </c>
+      <c r="H1332" t="inlineStr">
+        <is>
+          <t>Sale</t>
+        </is>
+      </c>
+      <c r="I1332" t="n">
+        <v>-258.7</v>
+      </c>
+      <c r="J1332" s="2" t="n">
+        <v>45017</v>
+      </c>
+      <c r="K1332" t="inlineStr">
+        <is>
+          <t>Amazon</t>
+        </is>
+      </c>
+      <c r="L1332" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1332" t="inlineStr">
+        <is>
+          <t>Home</t>
+        </is>
+      </c>
+      <c r="N1332" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1333">
+      <c r="A1333" s="1" t="inlineStr">
+        <is>
+          <t>7e676cf7-2f3d-4079-83fa-25515c770515</t>
+        </is>
+      </c>
+      <c r="B1333" s="2" t="n">
+        <v>45017</v>
+      </c>
+      <c r="C1333" t="inlineStr"/>
+      <c r="D1333" s="2" t="n">
+        <v>45015</v>
+      </c>
+      <c r="E1333" t="inlineStr"/>
+      <c r="F1333" t="inlineStr">
+        <is>
+          <t>Deposit</t>
+        </is>
+      </c>
+      <c r="G1333" t="inlineStr"/>
+      <c r="H1333" t="inlineStr"/>
+      <c r="I1333" t="n">
+        <v>220.5</v>
+      </c>
+      <c r="J1333" s="2" t="n">
+        <v>45017</v>
+      </c>
+      <c r="K1333" t="inlineStr">
+        <is>
+          <t>Mechanics</t>
+        </is>
+      </c>
+      <c r="L1333" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1333" t="inlineStr"/>
+      <c r="N1333" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1334">
+      <c r="A1334" s="1" t="inlineStr">
+        <is>
+          <t>d441fe3d-d5ac-4e17-b50e-4d92d0fe0643</t>
+        </is>
+      </c>
+      <c r="B1334" s="2" t="n">
+        <v>45017</v>
+      </c>
+      <c r="C1334" t="inlineStr"/>
+      <c r="D1334" s="2" t="n">
+        <v>45014</v>
+      </c>
+      <c r="E1334" t="inlineStr"/>
+      <c r="F1334" t="inlineStr">
+        <is>
+          <t>CHASE CREDIT CRD AUTOPAY 000000000528068</t>
+        </is>
+      </c>
+      <c r="G1334" t="inlineStr"/>
+      <c r="H1334" t="inlineStr"/>
+      <c r="I1334" t="n">
+        <v>-1262.31</v>
+      </c>
+      <c r="J1334" s="2" t="n">
+        <v>45017</v>
+      </c>
+      <c r="K1334" t="inlineStr">
+        <is>
+          <t>Mechanics</t>
+        </is>
+      </c>
+      <c r="L1334" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1334" t="inlineStr"/>
+      <c r="N1334" t="n">
         <v>0</v>
       </c>
     </row>
